--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.241891</v>
+        <v>0.24191</v>
       </c>
       <c r="C2" t="n">
-        <v>0.237473</v>
+        <v>0.236521</v>
       </c>
       <c r="D2" t="n">
-        <v>0.246896</v>
+        <v>0.245734</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.241114</v>
+        <v>0.240191</v>
       </c>
       <c r="C3" t="n">
-        <v>0.236896</v>
+        <v>0.236064</v>
       </c>
       <c r="D3" t="n">
-        <v>0.246041</v>
+        <v>0.245161</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.243215</v>
+        <v>0.242466</v>
       </c>
       <c r="C4" t="n">
-        <v>0.23971</v>
+        <v>0.238597</v>
       </c>
       <c r="D4" t="n">
-        <v>0.249825</v>
+        <v>0.248578</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2453</v>
+        <v>0.244846</v>
       </c>
       <c r="C5" t="n">
-        <v>0.242945</v>
+        <v>0.241972</v>
       </c>
       <c r="D5" t="n">
-        <v>0.253668</v>
+        <v>0.252464</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.244568</v>
+        <v>0.24399</v>
       </c>
       <c r="C6" t="n">
-        <v>0.244407</v>
+        <v>0.243347</v>
       </c>
       <c r="D6" t="n">
-        <v>0.256362</v>
+        <v>0.255342</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.247126</v>
+        <v>0.246979</v>
       </c>
       <c r="C7" t="n">
-        <v>0.247071</v>
+        <v>0.246938</v>
       </c>
       <c r="D7" t="n">
-        <v>0.261051</v>
+        <v>0.261178</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.250963</v>
+        <v>0.250295</v>
       </c>
       <c r="C8" t="n">
-        <v>0.253294</v>
+        <v>0.252003</v>
       </c>
       <c r="D8" t="n">
-        <v>0.269538</v>
+        <v>0.268718</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.258726</v>
+        <v>0.258192</v>
       </c>
       <c r="C9" t="n">
-        <v>0.261606</v>
+        <v>0.260589</v>
       </c>
       <c r="D9" t="n">
-        <v>0.246244</v>
+        <v>0.245268</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.249724</v>
+        <v>0.250148</v>
       </c>
       <c r="C10" t="n">
-        <v>0.239795</v>
+        <v>0.239136</v>
       </c>
       <c r="D10" t="n">
-        <v>0.246133</v>
+        <v>0.245485</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.249641</v>
+        <v>0.250012</v>
       </c>
       <c r="C11" t="n">
-        <v>0.239756</v>
+        <v>0.240309</v>
       </c>
       <c r="D11" t="n">
-        <v>0.246267</v>
+        <v>0.245951</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.25089</v>
+        <v>0.250791</v>
       </c>
       <c r="C12" t="n">
-        <v>0.241539</v>
+        <v>0.241518</v>
       </c>
       <c r="D12" t="n">
-        <v>0.247913</v>
+        <v>0.247654</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.249896</v>
+        <v>0.251239</v>
       </c>
       <c r="C13" t="n">
-        <v>0.241076</v>
+        <v>0.24125</v>
       </c>
       <c r="D13" t="n">
-        <v>0.247634</v>
+        <v>0.246775</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.250739</v>
+        <v>0.251866</v>
       </c>
       <c r="C14" t="n">
-        <v>0.242252</v>
+        <v>0.242224</v>
       </c>
       <c r="D14" t="n">
-        <v>0.248914</v>
+        <v>0.247984</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.251496</v>
+        <v>0.250926</v>
       </c>
       <c r="C15" t="n">
-        <v>0.243396</v>
+        <v>0.242451</v>
       </c>
       <c r="D15" t="n">
-        <v>0.249961</v>
+        <v>0.249103</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.251886</v>
+        <v>0.250982</v>
       </c>
       <c r="C16" t="n">
-        <v>0.244062</v>
+        <v>0.243116</v>
       </c>
       <c r="D16" t="n">
-        <v>0.251108</v>
+        <v>0.250052</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.252256</v>
+        <v>0.253746</v>
       </c>
       <c r="C17" t="n">
-        <v>0.245106</v>
+        <v>0.24427</v>
       </c>
       <c r="D17" t="n">
-        <v>0.252047</v>
+        <v>0.25143</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.251643</v>
+        <v>0.251314</v>
       </c>
       <c r="C18" t="n">
-        <v>0.245693</v>
+        <v>0.244876</v>
       </c>
       <c r="D18" t="n">
-        <v>0.253258</v>
+        <v>0.252378</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.253907</v>
+        <v>0.254045</v>
       </c>
       <c r="C19" t="n">
-        <v>0.248144</v>
+        <v>0.247282</v>
       </c>
       <c r="D19" t="n">
-        <v>0.256341</v>
+        <v>0.255344</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.255582</v>
+        <v>0.25496</v>
       </c>
       <c r="C20" t="n">
-        <v>0.250564</v>
+        <v>0.250064</v>
       </c>
       <c r="D20" t="n">
-        <v>0.259628</v>
+        <v>0.257405</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.256745</v>
+        <v>0.25616</v>
       </c>
       <c r="C21" t="n">
-        <v>0.252301</v>
+        <v>0.251369</v>
       </c>
       <c r="D21" t="n">
-        <v>0.262244</v>
+        <v>0.261882</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.259465</v>
+        <v>0.261765</v>
       </c>
       <c r="C22" t="n">
-        <v>0.255986</v>
+        <v>0.256649</v>
       </c>
       <c r="D22" t="n">
-        <v>0.26866</v>
+        <v>0.269003</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.263736</v>
+        <v>0.262778</v>
       </c>
       <c r="C23" t="n">
-        <v>0.261489</v>
+        <v>0.26058</v>
       </c>
       <c r="D23" t="n">
-        <v>0.25414</v>
+        <v>0.259085</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.26767</v>
+        <v>0.273358</v>
       </c>
       <c r="C24" t="n">
-        <v>0.242965</v>
+        <v>0.246041</v>
       </c>
       <c r="D24" t="n">
-        <v>0.254578</v>
+        <v>0.257776</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.26739</v>
+        <v>0.272632</v>
       </c>
       <c r="C25" t="n">
-        <v>0.24243</v>
+        <v>0.245758</v>
       </c>
       <c r="D25" t="n">
-        <v>0.253958</v>
+        <v>0.258258</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.270464</v>
+        <v>0.272463</v>
       </c>
       <c r="C26" t="n">
-        <v>0.244177</v>
+        <v>0.247051</v>
       </c>
       <c r="D26" t="n">
-        <v>0.254588</v>
+        <v>0.2598</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.270833</v>
+        <v>0.272461</v>
       </c>
       <c r="C27" t="n">
-        <v>0.244922</v>
+        <v>0.248236</v>
       </c>
       <c r="D27" t="n">
-        <v>0.255478</v>
+        <v>0.259471</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.271466</v>
+        <v>0.275951</v>
       </c>
       <c r="C28" t="n">
-        <v>0.24687</v>
+        <v>0.249717</v>
       </c>
       <c r="D28" t="n">
-        <v>0.257848</v>
+        <v>0.261798</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.270813</v>
+        <v>0.273009</v>
       </c>
       <c r="C29" t="n">
-        <v>0.24741</v>
+        <v>0.249342</v>
       </c>
       <c r="D29" t="n">
-        <v>0.258177</v>
+        <v>0.261576</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.270808</v>
+        <v>0.271969</v>
       </c>
       <c r="C30" t="n">
-        <v>0.24871</v>
+        <v>0.25033</v>
       </c>
       <c r="D30" t="n">
-        <v>0.260153</v>
+        <v>0.263194</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.27259</v>
+        <v>0.273027</v>
       </c>
       <c r="C31" t="n">
-        <v>0.249904</v>
+        <v>0.250374</v>
       </c>
       <c r="D31" t="n">
-        <v>0.261609</v>
+        <v>0.262581</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.273865</v>
+        <v>0.272764</v>
       </c>
       <c r="C32" t="n">
-        <v>0.252017</v>
+        <v>0.252788</v>
       </c>
       <c r="D32" t="n">
-        <v>0.26463</v>
+        <v>0.263745</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.273857</v>
+        <v>0.275503</v>
       </c>
       <c r="C33" t="n">
-        <v>0.254046</v>
+        <v>0.254127</v>
       </c>
       <c r="D33" t="n">
-        <v>0.266793</v>
+        <v>0.266824</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.27471</v>
+        <v>0.276155</v>
       </c>
       <c r="C34" t="n">
-        <v>0.254896</v>
+        <v>0.256763</v>
       </c>
       <c r="D34" t="n">
-        <v>0.269585</v>
+        <v>0.269158</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.275835</v>
+        <v>0.27686</v>
       </c>
       <c r="C35" t="n">
-        <v>0.257632</v>
+        <v>0.259933</v>
       </c>
       <c r="D35" t="n">
-        <v>0.272919</v>
+        <v>0.272692</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.278768</v>
+        <v>0.280065</v>
       </c>
       <c r="C36" t="n">
-        <v>0.261616</v>
+        <v>0.264339</v>
       </c>
       <c r="D36" t="n">
-        <v>0.276398</v>
+        <v>0.280058</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.281855</v>
+        <v>0.285631</v>
       </c>
       <c r="C37" t="n">
-        <v>0.268123</v>
+        <v>0.269981</v>
       </c>
       <c r="D37" t="n">
-        <v>0.279166</v>
+        <v>0.279159</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.301749</v>
+        <v>0.301131</v>
       </c>
       <c r="C38" t="n">
-        <v>0.265499</v>
+        <v>0.265442</v>
       </c>
       <c r="D38" t="n">
-        <v>0.279625</v>
+        <v>0.279034</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.303196</v>
+        <v>0.30242</v>
       </c>
       <c r="C39" t="n">
-        <v>0.265398</v>
+        <v>0.265496</v>
       </c>
       <c r="D39" t="n">
-        <v>0.279059</v>
+        <v>0.279261</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.302784</v>
+        <v>0.300541</v>
       </c>
       <c r="C40" t="n">
-        <v>0.265222</v>
+        <v>0.267513</v>
       </c>
       <c r="D40" t="n">
-        <v>0.278605</v>
+        <v>0.280853</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.303003</v>
+        <v>0.300406</v>
       </c>
       <c r="C41" t="n">
-        <v>0.266911</v>
+        <v>0.267953</v>
       </c>
       <c r="D41" t="n">
-        <v>0.281023</v>
+        <v>0.281068</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.303213</v>
+        <v>0.301774</v>
       </c>
       <c r="C42" t="n">
-        <v>0.269896</v>
+        <v>0.269446</v>
       </c>
       <c r="D42" t="n">
-        <v>0.281559</v>
+        <v>0.281274</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.30181</v>
+        <v>0.304807</v>
       </c>
       <c r="C43" t="n">
-        <v>0.269597</v>
+        <v>0.269501</v>
       </c>
       <c r="D43" t="n">
-        <v>0.282196</v>
+        <v>0.281668</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.30363</v>
+        <v>0.304313</v>
       </c>
       <c r="C44" t="n">
-        <v>0.270999</v>
+        <v>0.270517</v>
       </c>
       <c r="D44" t="n">
-        <v>0.283335</v>
+        <v>0.283277</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.302075</v>
+        <v>0.303068</v>
       </c>
       <c r="C45" t="n">
-        <v>0.272406</v>
+        <v>0.271841</v>
       </c>
       <c r="D45" t="n">
-        <v>0.284512</v>
+        <v>0.284261</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.302632</v>
+        <v>0.303697</v>
       </c>
       <c r="C46" t="n">
-        <v>0.27427</v>
+        <v>0.273123</v>
       </c>
       <c r="D46" t="n">
-        <v>0.286375</v>
+        <v>0.285662</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.303501</v>
+        <v>0.302378</v>
       </c>
       <c r="C47" t="n">
-        <v>0.275091</v>
+        <v>0.275512</v>
       </c>
       <c r="D47" t="n">
-        <v>0.28778</v>
+        <v>0.287412</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.304965</v>
+        <v>0.306633</v>
       </c>
       <c r="C48" t="n">
-        <v>0.277137</v>
+        <v>0.27708</v>
       </c>
       <c r="D48" t="n">
-        <v>0.290481</v>
+        <v>0.28961</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.30662</v>
+        <v>0.305596</v>
       </c>
       <c r="C49" t="n">
-        <v>0.279743</v>
+        <v>0.279432</v>
       </c>
       <c r="D49" t="n">
-        <v>0.293556</v>
+        <v>0.293279</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.308533</v>
+        <v>0.308722</v>
       </c>
       <c r="C50" t="n">
-        <v>0.283365</v>
+        <v>0.284301</v>
       </c>
       <c r="D50" t="n">
-        <v>0.298629</v>
+        <v>0.300101</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.313708</v>
+        <v>0.311479</v>
       </c>
       <c r="C51" t="n">
-        <v>0.287888</v>
+        <v>0.289133</v>
       </c>
       <c r="D51" t="n">
-        <v>0.292677</v>
+        <v>0.292728</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.318755</v>
+        <v>0.317905</v>
       </c>
       <c r="C52" t="n">
-        <v>0.296296</v>
+        <v>0.296579</v>
       </c>
       <c r="D52" t="n">
-        <v>0.291501</v>
+        <v>0.293203</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.33098</v>
+        <v>0.331485</v>
       </c>
       <c r="C53" t="n">
-        <v>0.282548</v>
+        <v>0.282137</v>
       </c>
       <c r="D53" t="n">
-        <v>0.291564</v>
+        <v>0.292885</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.327929</v>
+        <v>0.330609</v>
       </c>
       <c r="C54" t="n">
-        <v>0.281577</v>
+        <v>0.282324</v>
       </c>
       <c r="D54" t="n">
-        <v>0.291738</v>
+        <v>0.293806</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.330479</v>
+        <v>0.330526</v>
       </c>
       <c r="C55" t="n">
-        <v>0.284111</v>
+        <v>0.284224</v>
       </c>
       <c r="D55" t="n">
-        <v>0.294731</v>
+        <v>0.294625</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.327698</v>
+        <v>0.329681</v>
       </c>
       <c r="C56" t="n">
-        <v>0.283984</v>
+        <v>0.284271</v>
       </c>
       <c r="D56" t="n">
-        <v>0.293148</v>
+        <v>0.293686</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.331706</v>
+        <v>0.330709</v>
       </c>
       <c r="C57" t="n">
-        <v>0.282717</v>
+        <v>0.284775</v>
       </c>
       <c r="D57" t="n">
-        <v>0.292391</v>
+        <v>0.29394</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.330873</v>
+        <v>0.329412</v>
       </c>
       <c r="C58" t="n">
-        <v>0.286501</v>
+        <v>0.28599</v>
       </c>
       <c r="D58" t="n">
-        <v>0.294873</v>
+        <v>0.29559</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.3324</v>
+        <v>0.330154</v>
       </c>
       <c r="C59" t="n">
-        <v>0.287563</v>
+        <v>0.287901</v>
       </c>
       <c r="D59" t="n">
-        <v>0.295767</v>
+        <v>0.296213</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.331335</v>
+        <v>0.330349</v>
       </c>
       <c r="C60" t="n">
-        <v>0.28937</v>
+        <v>0.288492</v>
       </c>
       <c r="D60" t="n">
-        <v>0.299372</v>
+        <v>0.297972</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.332581</v>
+        <v>0.330933</v>
       </c>
       <c r="C61" t="n">
-        <v>0.290836</v>
+        <v>0.290148</v>
       </c>
       <c r="D61" t="n">
-        <v>0.299259</v>
+        <v>0.299946</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.332211</v>
+        <v>0.332624</v>
       </c>
       <c r="C62" t="n">
-        <v>0.293231</v>
+        <v>0.293759</v>
       </c>
       <c r="D62" t="n">
-        <v>0.302049</v>
+        <v>0.302549</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.333117</v>
+        <v>0.334323</v>
       </c>
       <c r="C63" t="n">
-        <v>0.296081</v>
+        <v>0.29614</v>
       </c>
       <c r="D63" t="n">
-        <v>0.306033</v>
+        <v>0.307469</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.334424</v>
+        <v>0.33685</v>
       </c>
       <c r="C64" t="n">
-        <v>0.299613</v>
+        <v>0.300155</v>
       </c>
       <c r="D64" t="n">
-        <v>0.310601</v>
+        <v>0.313253</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.337332</v>
+        <v>0.336837</v>
       </c>
       <c r="C65" t="n">
-        <v>0.304775</v>
+        <v>0.304463</v>
       </c>
       <c r="D65" t="n">
-        <v>0.318387</v>
+        <v>0.318045</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.341721</v>
+        <v>0.341369</v>
       </c>
       <c r="C66" t="n">
-        <v>0.310934</v>
+        <v>0.310987</v>
       </c>
       <c r="D66" t="n">
-        <v>0.300951</v>
+        <v>0.300667</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.3458</v>
+        <v>0.345887</v>
       </c>
       <c r="C67" t="n">
-        <v>0.294365</v>
+        <v>0.294016</v>
       </c>
       <c r="D67" t="n">
-        <v>0.300786</v>
+        <v>0.30053</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.348161</v>
+        <v>0.3495</v>
       </c>
       <c r="C68" t="n">
-        <v>0.294654</v>
+        <v>0.295392</v>
       </c>
       <c r="D68" t="n">
-        <v>0.30068</v>
+        <v>0.30134</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.349238</v>
+        <v>0.349349</v>
       </c>
       <c r="C69" t="n">
-        <v>0.296233</v>
+        <v>0.296305</v>
       </c>
       <c r="D69" t="n">
-        <v>0.30165</v>
+        <v>0.302378</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.34949</v>
+        <v>0.349706</v>
       </c>
       <c r="C70" t="n">
-        <v>0.297049</v>
+        <v>0.297274</v>
       </c>
       <c r="D70" t="n">
-        <v>0.302269</v>
+        <v>0.302777</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.34942</v>
+        <v>0.349632</v>
       </c>
       <c r="C71" t="n">
-        <v>0.298209</v>
+        <v>0.298398</v>
       </c>
       <c r="D71" t="n">
-        <v>0.303182</v>
+        <v>0.303449</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.349808</v>
+        <v>0.346643</v>
       </c>
       <c r="C72" t="n">
-        <v>0.299079</v>
+        <v>0.299373</v>
       </c>
       <c r="D72" t="n">
-        <v>0.304008</v>
+        <v>0.304752</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.350294</v>
+        <v>0.346767</v>
       </c>
       <c r="C73" t="n">
-        <v>0.300621</v>
+        <v>0.300941</v>
       </c>
       <c r="D73" t="n">
-        <v>0.305303</v>
+        <v>0.305646</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.350327</v>
+        <v>0.350677</v>
       </c>
       <c r="C74" t="n">
-        <v>0.302285</v>
+        <v>0.302229</v>
       </c>
       <c r="D74" t="n">
-        <v>0.307199</v>
+        <v>0.30697</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.350645</v>
+        <v>0.351384</v>
       </c>
       <c r="C75" t="n">
-        <v>0.30394</v>
+        <v>0.304202</v>
       </c>
       <c r="D75" t="n">
-        <v>0.308968</v>
+        <v>0.309538</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.351999</v>
+        <v>0.347818</v>
       </c>
       <c r="C76" t="n">
-        <v>0.304948</v>
+        <v>0.306152</v>
       </c>
       <c r="D76" t="n">
-        <v>0.311421</v>
+        <v>0.311255</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.353002</v>
+        <v>0.353003</v>
       </c>
       <c r="C77" t="n">
-        <v>0.30774</v>
+        <v>0.308462</v>
       </c>
       <c r="D77" t="n">
-        <v>0.313964</v>
+        <v>0.314853</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.354091</v>
+        <v>0.351557</v>
       </c>
       <c r="C78" t="n">
-        <v>0.310537</v>
+        <v>0.311679</v>
       </c>
       <c r="D78" t="n">
-        <v>0.318194</v>
+        <v>0.321026</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.35673</v>
+        <v>0.353592</v>
       </c>
       <c r="C79" t="n">
-        <v>0.315843</v>
+        <v>0.31595</v>
       </c>
       <c r="D79" t="n">
-        <v>0.327067</v>
+        <v>0.326873</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.36019</v>
+        <v>0.361289</v>
       </c>
       <c r="C80" t="n">
-        <v>0.322354</v>
+        <v>0.322804</v>
       </c>
       <c r="D80" t="n">
-        <v>0.307336</v>
+        <v>0.30756</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.367918</v>
+        <v>0.369988</v>
       </c>
       <c r="C81" t="n">
-        <v>0.287379</v>
+        <v>0.2962</v>
       </c>
       <c r="D81" t="n">
-        <v>0.302656</v>
+        <v>0.310546</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.35904</v>
+        <v>0.369429</v>
       </c>
       <c r="C82" t="n">
-        <v>0.295997</v>
+        <v>0.296539</v>
       </c>
       <c r="D82" t="n">
-        <v>0.310989</v>
+        <v>0.311484</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.369682</v>
+        <v>0.370053</v>
       </c>
       <c r="C83" t="n">
-        <v>0.296652</v>
+        <v>0.296621</v>
       </c>
       <c r="D83" t="n">
-        <v>0.312001</v>
+        <v>0.311958</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.369549</v>
+        <v>0.369655</v>
       </c>
       <c r="C84" t="n">
-        <v>0.297758</v>
+        <v>0.29724</v>
       </c>
       <c r="D84" t="n">
-        <v>0.312835</v>
+        <v>0.312109</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.369727</v>
+        <v>0.369808</v>
       </c>
       <c r="C85" t="n">
-        <v>0.298485</v>
+        <v>0.29777</v>
       </c>
       <c r="D85" t="n">
-        <v>0.313185</v>
+        <v>0.312908</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.370259</v>
+        <v>0.370392</v>
       </c>
       <c r="C86" t="n">
-        <v>0.300383</v>
+        <v>0.298622</v>
       </c>
       <c r="D86" t="n">
-        <v>0.314612</v>
+        <v>0.313766</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.370468</v>
+        <v>0.370482</v>
       </c>
       <c r="C87" t="n">
-        <v>0.299671</v>
+        <v>0.292215</v>
       </c>
       <c r="D87" t="n">
-        <v>0.315009</v>
+        <v>0.307377</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.370403</v>
+        <v>0.361859</v>
       </c>
       <c r="C88" t="n">
-        <v>0.304337</v>
+        <v>0.300688</v>
       </c>
       <c r="D88" t="n">
-        <v>0.319401</v>
+        <v>0.315953</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.37352</v>
+        <v>0.371423</v>
       </c>
       <c r="C89" t="n">
-        <v>0.306239</v>
+        <v>0.30215</v>
       </c>
       <c r="D89" t="n">
-        <v>0.319278</v>
+        <v>0.318245</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.375983</v>
+        <v>0.373263</v>
       </c>
       <c r="C90" t="n">
-        <v>0.304547</v>
+        <v>0.300262</v>
       </c>
       <c r="D90" t="n">
-        <v>0.321011</v>
+        <v>0.314938</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.372797</v>
+        <v>0.369152</v>
       </c>
       <c r="C91" t="n">
-        <v>0.306602</v>
+        <v>0.306695</v>
       </c>
       <c r="D91" t="n">
-        <v>0.323946</v>
+        <v>0.32371</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.375587</v>
+        <v>0.374668</v>
       </c>
       <c r="C92" t="n">
-        <v>0.310191</v>
+        <v>0.310306</v>
       </c>
       <c r="D92" t="n">
-        <v>0.330725</v>
+        <v>0.327862</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.376496</v>
+        <v>0.377169</v>
       </c>
       <c r="C93" t="n">
-        <v>0.314565</v>
+        <v>0.314797</v>
       </c>
       <c r="D93" t="n">
-        <v>0.335735</v>
+        <v>0.333429</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.380708</v>
+        <v>0.381579</v>
       </c>
       <c r="C94" t="n">
-        <v>0.321939</v>
+        <v>0.319827</v>
       </c>
       <c r="D94" t="n">
-        <v>0.411542</v>
+        <v>0.42593</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.567625</v>
+        <v>0.521573</v>
       </c>
       <c r="C95" t="n">
-        <v>0.421449</v>
+        <v>0.427848</v>
       </c>
       <c r="D95" t="n">
-        <v>0.406273</v>
+        <v>0.41122</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.496273</v>
+        <v>0.504236</v>
       </c>
       <c r="C96" t="n">
-        <v>0.463827</v>
+        <v>0.450217</v>
       </c>
       <c r="D96" t="n">
-        <v>0.435559</v>
+        <v>0.435862</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.522405</v>
+        <v>0.5304450000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.446938</v>
+        <v>0.422625</v>
       </c>
       <c r="D97" t="n">
-        <v>0.43752</v>
+        <v>0.421256</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.53729</v>
+        <v>0.496354</v>
       </c>
       <c r="C98" t="n">
-        <v>0.415124</v>
+        <v>0.457474</v>
       </c>
       <c r="D98" t="n">
-        <v>0.417201</v>
+        <v>0.435926</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.477927</v>
+        <v>0.534513</v>
       </c>
       <c r="C99" t="n">
-        <v>0.457013</v>
+        <v>0.45559</v>
       </c>
       <c r="D99" t="n">
-        <v>0.450133</v>
+        <v>0.437285</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.524879</v>
+        <v>0.535629</v>
       </c>
       <c r="C100" t="n">
-        <v>0.469084</v>
+        <v>0.461842</v>
       </c>
       <c r="D100" t="n">
-        <v>0.448899</v>
+        <v>0.44241</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.542468</v>
+        <v>0.54001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.456836</v>
+        <v>0.461392</v>
       </c>
       <c r="D101" t="n">
-        <v>0.444896</v>
+        <v>0.443319</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.523692</v>
+        <v>0.542319</v>
       </c>
       <c r="C102" t="n">
-        <v>0.485939</v>
+        <v>0.462442</v>
       </c>
       <c r="D102" t="n">
-        <v>0.454191</v>
+        <v>0.453408</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.548751</v>
+        <v>0.551041</v>
       </c>
       <c r="C103" t="n">
-        <v>0.456607</v>
+        <v>0.465701</v>
       </c>
       <c r="D103" t="n">
-        <v>0.456038</v>
+        <v>0.449807</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5467</v>
+        <v>0.5444099999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>0.476723</v>
+        <v>0.46895</v>
       </c>
       <c r="D104" t="n">
-        <v>0.462418</v>
+        <v>0.455398</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.546394</v>
+        <v>0.53672</v>
       </c>
       <c r="C105" t="n">
-        <v>0.47334</v>
+        <v>0.468738</v>
       </c>
       <c r="D105" t="n">
-        <v>0.465461</v>
+        <v>0.461675</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.54093</v>
+        <v>0.539252</v>
       </c>
       <c r="C106" t="n">
-        <v>0.434883</v>
+        <v>0.469581</v>
       </c>
       <c r="D106" t="n">
-        <v>0.435831</v>
+        <v>0.456426</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.501914</v>
+        <v>0.549315</v>
       </c>
       <c r="C107" t="n">
-        <v>0.484568</v>
+        <v>0.472274</v>
       </c>
       <c r="D107" t="n">
-        <v>0.471918</v>
+        <v>0.465953</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.54504</v>
+        <v>0.549407</v>
       </c>
       <c r="C108" t="n">
-        <v>0.45999</v>
+        <v>0.486896</v>
       </c>
       <c r="D108" t="n">
-        <v>0.728988</v>
+        <v>0.709025</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.520558</v>
+        <v>0.547349</v>
       </c>
       <c r="C109" t="n">
-        <v>0.467269</v>
+        <v>0.494083</v>
       </c>
       <c r="D109" t="n">
-        <v>0.71457</v>
+        <v>0.715604</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.847799</v>
+        <v>0.848221</v>
       </c>
       <c r="C110" t="n">
-        <v>0.726349</v>
+        <v>0.708866</v>
       </c>
       <c r="D110" t="n">
-        <v>0.718186</v>
+        <v>0.730743</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.847025</v>
+        <v>0.836147</v>
       </c>
       <c r="C111" t="n">
-        <v>0.709149</v>
+        <v>0.725806</v>
       </c>
       <c r="D111" t="n">
-        <v>0.732897</v>
+        <v>0.731545</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.852207</v>
+        <v>0.8532419999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.7101690000000001</v>
+        <v>0.710796</v>
       </c>
       <c r="D112" t="n">
-        <v>0.732834</v>
+        <v>0.733123</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.846824</v>
+        <v>0.852025</v>
       </c>
       <c r="C113" t="n">
-        <v>0.728716</v>
+        <v>0.711894</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7336510000000001</v>
+        <v>0.733984</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.831744</v>
+        <v>0.853202</v>
       </c>
       <c r="C114" t="n">
-        <v>0.712812</v>
+        <v>0.730156</v>
       </c>
       <c r="D114" t="n">
-        <v>0.735174</v>
+        <v>0.735035</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.849163</v>
+        <v>0.843811</v>
       </c>
       <c r="C115" t="n">
-        <v>0.713583</v>
+        <v>0.731069</v>
       </c>
       <c r="D115" t="n">
-        <v>0.737631</v>
+        <v>0.725038</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.846074</v>
+        <v>0.857868</v>
       </c>
       <c r="C116" t="n">
-        <v>0.715994</v>
+        <v>0.732237</v>
       </c>
       <c r="D116" t="n">
-        <v>0.73864</v>
+        <v>0.728674</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.850619</v>
+        <v>0.851044</v>
       </c>
       <c r="C117" t="n">
-        <v>0.733855</v>
+        <v>0.734835</v>
       </c>
       <c r="D117" t="n">
-        <v>0.74066</v>
+        <v>0.741723</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.837588</v>
+        <v>0.853782</v>
       </c>
       <c r="C118" t="n">
-        <v>0.73682</v>
+        <v>0.721825</v>
       </c>
       <c r="D118" t="n">
-        <v>0.744236</v>
+        <v>0.744359</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.852781</v>
+        <v>0.852545</v>
       </c>
       <c r="C119" t="n">
-        <v>0.740355</v>
+        <v>0.724518</v>
       </c>
       <c r="D119" t="n">
-        <v>0.74775</v>
+        <v>0.7484690000000001</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.837591</v>
+        <v>0.852525</v>
       </c>
       <c r="C120" t="n">
-        <v>0.743985</v>
+        <v>0.744594</v>
       </c>
       <c r="D120" t="n">
-        <v>0.753282</v>
+        <v>0.7537700000000001</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.853079</v>
+        <v>0.854043</v>
       </c>
       <c r="C121" t="n">
-        <v>0.749716</v>
+        <v>0.733984</v>
       </c>
       <c r="D121" t="n">
-        <v>0.759817</v>
+        <v>0.759332</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.852328</v>
+        <v>0.838518</v>
       </c>
       <c r="C122" t="n">
-        <v>0.756772</v>
+        <v>0.758644</v>
       </c>
       <c r="D122" t="n">
-        <v>0.76817</v>
+        <v>0.756264</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.853967</v>
+        <v>0.858133</v>
       </c>
       <c r="C123" t="n">
-        <v>0.7662949999999999</v>
+        <v>0.750321</v>
       </c>
       <c r="D123" t="n">
-        <v>0.845183</v>
+        <v>0.845405</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.1028</v>
+        <v>1.08155</v>
       </c>
       <c r="C124" t="n">
-        <v>0.832936</v>
+        <v>0.83266</v>
       </c>
       <c r="D124" t="n">
-        <v>0.839577</v>
+        <v>0.846569</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.10187</v>
+        <v>1.10338</v>
       </c>
       <c r="C125" t="n">
-        <v>0.833104</v>
+        <v>0.833131</v>
       </c>
       <c r="D125" t="n">
-        <v>0.847457</v>
+        <v>0.84646</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.10198</v>
+        <v>1.10868</v>
       </c>
       <c r="C126" t="n">
-        <v>0.834924</v>
+        <v>0.834372</v>
       </c>
       <c r="D126" t="n">
-        <v>0.848739</v>
+        <v>0.849071</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.10738</v>
+        <v>1.10943</v>
       </c>
       <c r="C127" t="n">
-        <v>0.837207</v>
+        <v>0.835201</v>
       </c>
       <c r="D127" t="n">
-        <v>0.851271</v>
+        <v>0.849796</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.10674</v>
+        <v>1.11175</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8374779999999999</v>
+        <v>0.837454</v>
       </c>
       <c r="D128" t="n">
-        <v>0.852043</v>
+        <v>0.852362</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.08677</v>
+        <v>1.10822</v>
       </c>
       <c r="C129" t="n">
-        <v>0.839597</v>
+        <v>0.839744</v>
       </c>
       <c r="D129" t="n">
-        <v>0.855217</v>
+        <v>0.85463</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.10496</v>
+        <v>1.108</v>
       </c>
       <c r="C130" t="n">
-        <v>0.842154</v>
+        <v>0.836655</v>
       </c>
       <c r="D130" t="n">
-        <v>0.85011</v>
+        <v>0.852176</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.10917</v>
+        <v>1.10677</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8447440000000001</v>
+        <v>0.84677</v>
       </c>
       <c r="D131" t="n">
-        <v>0.860563</v>
+        <v>0.861048</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.11849</v>
+        <v>1.11082</v>
       </c>
       <c r="C132" t="n">
-        <v>0.841996</v>
+        <v>0.8485740000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.86491</v>
+        <v>0.864065</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.14311</v>
+        <v>1.10664</v>
       </c>
       <c r="C133" t="n">
-        <v>0.853683</v>
+        <v>0.853195</v>
       </c>
       <c r="D133" t="n">
-        <v>0.863453</v>
+        <v>0.869969</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.08966</v>
+        <v>1.11924</v>
       </c>
       <c r="C134" t="n">
-        <v>0.858301</v>
+        <v>0.858174</v>
       </c>
       <c r="D134" t="n">
-        <v>0.877108</v>
+        <v>0.875625</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.11424</v>
+        <v>1.10488</v>
       </c>
       <c r="C135" t="n">
-        <v>0.858894</v>
+        <v>0.8571800000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>0.885412</v>
+        <v>0.877658</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.11421</v>
+        <v>1.09116</v>
       </c>
       <c r="C136" t="n">
-        <v>0.87385</v>
+        <v>0.866739</v>
       </c>
       <c r="D136" t="n">
-        <v>0.897526</v>
+        <v>0.896668</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.13036</v>
+        <v>1.10957</v>
       </c>
       <c r="C137" t="n">
-        <v>0.886768</v>
+        <v>0.878292</v>
       </c>
       <c r="D137" t="n">
-        <v>0.895404</v>
+        <v>0.894994</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.33985</v>
+        <v>1.32283</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8773030000000001</v>
+        <v>0.879146</v>
       </c>
       <c r="D138" t="n">
-        <v>0.894276</v>
+        <v>0.89361</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.32236</v>
+        <v>1.33703</v>
       </c>
       <c r="C139" t="n">
-        <v>0.88237</v>
+        <v>0.877073</v>
       </c>
       <c r="D139" t="n">
-        <v>0.896078</v>
+        <v>0.896875</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.33814</v>
+        <v>1.33533</v>
       </c>
       <c r="C140" t="n">
-        <v>0.880005</v>
+        <v>0.878553</v>
       </c>
       <c r="D140" t="n">
-        <v>0.901531</v>
+        <v>0.899963</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.33947</v>
+        <v>1.33791</v>
       </c>
       <c r="C141" t="n">
-        <v>0.883876</v>
+        <v>0.884161</v>
       </c>
       <c r="D141" t="n">
-        <v>0.902214</v>
+        <v>0.902264</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.33929</v>
+        <v>1.33673</v>
       </c>
       <c r="C142" t="n">
-        <v>0.885771</v>
+        <v>0.886007</v>
       </c>
       <c r="D142" t="n">
-        <v>0.904502</v>
+        <v>0.900595</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.33814</v>
+        <v>1.33708</v>
       </c>
       <c r="C143" t="n">
-        <v>0.885885</v>
+        <v>0.888935</v>
       </c>
       <c r="D143" t="n">
-        <v>0.906622</v>
+        <v>0.90684</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.24191</v>
+        <v>0.242175</v>
       </c>
       <c r="C2" t="n">
-        <v>0.236521</v>
+        <v>0.237688</v>
       </c>
       <c r="D2" t="n">
-        <v>0.245734</v>
+        <v>0.246515</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.240191</v>
+        <v>0.240972</v>
       </c>
       <c r="C3" t="n">
-        <v>0.236064</v>
+        <v>0.236867</v>
       </c>
       <c r="D3" t="n">
-        <v>0.245161</v>
+        <v>0.246098</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.242466</v>
+        <v>0.243189</v>
       </c>
       <c r="C4" t="n">
-        <v>0.238597</v>
+        <v>0.239435</v>
       </c>
       <c r="D4" t="n">
-        <v>0.248578</v>
+        <v>0.249536</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.244846</v>
+        <v>0.245478</v>
       </c>
       <c r="C5" t="n">
-        <v>0.241972</v>
+        <v>0.242791</v>
       </c>
       <c r="D5" t="n">
-        <v>0.252464</v>
+        <v>0.253606</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.24399</v>
+        <v>0.24471</v>
       </c>
       <c r="C6" t="n">
-        <v>0.243347</v>
+        <v>0.243601</v>
       </c>
       <c r="D6" t="n">
-        <v>0.255342</v>
+        <v>0.25582</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.246979</v>
+        <v>0.247103</v>
       </c>
       <c r="C7" t="n">
-        <v>0.246938</v>
+        <v>0.246911</v>
       </c>
       <c r="D7" t="n">
-        <v>0.261178</v>
+        <v>0.261154</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.250295</v>
+        <v>0.250455</v>
       </c>
       <c r="C8" t="n">
-        <v>0.252003</v>
+        <v>0.25294</v>
       </c>
       <c r="D8" t="n">
-        <v>0.268718</v>
+        <v>0.269391</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.258192</v>
+        <v>0.258651</v>
       </c>
       <c r="C9" t="n">
-        <v>0.260589</v>
+        <v>0.261449</v>
       </c>
       <c r="D9" t="n">
-        <v>0.245268</v>
+        <v>0.246037</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.250148</v>
+        <v>0.2487</v>
       </c>
       <c r="C10" t="n">
-        <v>0.239136</v>
+        <v>0.239616</v>
       </c>
       <c r="D10" t="n">
-        <v>0.245485</v>
+        <v>0.245605</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.250012</v>
+        <v>0.248379</v>
       </c>
       <c r="C11" t="n">
-        <v>0.240309</v>
+        <v>0.23915</v>
       </c>
       <c r="D11" t="n">
-        <v>0.245951</v>
+        <v>0.245507</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.250791</v>
+        <v>0.249812</v>
       </c>
       <c r="C12" t="n">
-        <v>0.241518</v>
+        <v>0.241388</v>
       </c>
       <c r="D12" t="n">
-        <v>0.247654</v>
+        <v>0.248118</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.251239</v>
+        <v>0.249377</v>
       </c>
       <c r="C13" t="n">
-        <v>0.24125</v>
+        <v>0.241431</v>
       </c>
       <c r="D13" t="n">
-        <v>0.246775</v>
+        <v>0.247044</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.251866</v>
+        <v>0.24966</v>
       </c>
       <c r="C14" t="n">
-        <v>0.242224</v>
+        <v>0.242152</v>
       </c>
       <c r="D14" t="n">
-        <v>0.247984</v>
+        <v>0.248855</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.250926</v>
+        <v>0.250398</v>
       </c>
       <c r="C15" t="n">
-        <v>0.242451</v>
+        <v>0.242587</v>
       </c>
       <c r="D15" t="n">
-        <v>0.249103</v>
+        <v>0.249789</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.250982</v>
+        <v>0.251691</v>
       </c>
       <c r="C16" t="n">
-        <v>0.243116</v>
+        <v>0.243814</v>
       </c>
       <c r="D16" t="n">
-        <v>0.250052</v>
+        <v>0.25019</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.253746</v>
+        <v>0.251068</v>
       </c>
       <c r="C17" t="n">
-        <v>0.24427</v>
+        <v>0.244858</v>
       </c>
       <c r="D17" t="n">
-        <v>0.25143</v>
+        <v>0.252186</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.251314</v>
+        <v>0.251565</v>
       </c>
       <c r="C18" t="n">
-        <v>0.244876</v>
+        <v>0.244924</v>
       </c>
       <c r="D18" t="n">
-        <v>0.252378</v>
+        <v>0.252462</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.254045</v>
+        <v>0.252862</v>
       </c>
       <c r="C19" t="n">
-        <v>0.247282</v>
+        <v>0.247951</v>
       </c>
       <c r="D19" t="n">
-        <v>0.255344</v>
+        <v>0.255945</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.25496</v>
+        <v>0.253875</v>
       </c>
       <c r="C20" t="n">
-        <v>0.250064</v>
+        <v>0.250501</v>
       </c>
       <c r="D20" t="n">
-        <v>0.257405</v>
+        <v>0.258317</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.25616</v>
+        <v>0.255298</v>
       </c>
       <c r="C21" t="n">
-        <v>0.251369</v>
+        <v>0.252071</v>
       </c>
       <c r="D21" t="n">
-        <v>0.261882</v>
+        <v>0.262644</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.261765</v>
+        <v>0.260258</v>
       </c>
       <c r="C22" t="n">
-        <v>0.256649</v>
+        <v>0.255811</v>
       </c>
       <c r="D22" t="n">
-        <v>0.269003</v>
+        <v>0.268403</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.262778</v>
+        <v>0.263603</v>
       </c>
       <c r="C23" t="n">
-        <v>0.26058</v>
+        <v>0.261244</v>
       </c>
       <c r="D23" t="n">
-        <v>0.259085</v>
+        <v>0.252631</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.273358</v>
+        <v>0.269042</v>
       </c>
       <c r="C24" t="n">
-        <v>0.246041</v>
+        <v>0.244546</v>
       </c>
       <c r="D24" t="n">
-        <v>0.257776</v>
+        <v>0.255745</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.272632</v>
+        <v>0.268331</v>
       </c>
       <c r="C25" t="n">
-        <v>0.245758</v>
+        <v>0.244525</v>
       </c>
       <c r="D25" t="n">
-        <v>0.258258</v>
+        <v>0.256375</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.272463</v>
+        <v>0.270455</v>
       </c>
       <c r="C26" t="n">
-        <v>0.247051</v>
+        <v>0.245293</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2598</v>
+        <v>0.257049</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.272461</v>
+        <v>0.271374</v>
       </c>
       <c r="C27" t="n">
-        <v>0.248236</v>
+        <v>0.245234</v>
       </c>
       <c r="D27" t="n">
-        <v>0.259471</v>
+        <v>0.257342</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.275951</v>
+        <v>0.271897</v>
       </c>
       <c r="C28" t="n">
-        <v>0.249717</v>
+        <v>0.247438</v>
       </c>
       <c r="D28" t="n">
-        <v>0.261798</v>
+        <v>0.260043</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.273009</v>
+        <v>0.271059</v>
       </c>
       <c r="C29" t="n">
-        <v>0.249342</v>
+        <v>0.249036</v>
       </c>
       <c r="D29" t="n">
-        <v>0.261576</v>
+        <v>0.258865</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.271969</v>
+        <v>0.271475</v>
       </c>
       <c r="C30" t="n">
-        <v>0.25033</v>
+        <v>0.250577</v>
       </c>
       <c r="D30" t="n">
-        <v>0.263194</v>
+        <v>0.261619</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.273027</v>
+        <v>0.271581</v>
       </c>
       <c r="C31" t="n">
-        <v>0.250374</v>
+        <v>0.250675</v>
       </c>
       <c r="D31" t="n">
-        <v>0.262581</v>
+        <v>0.265391</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.272764</v>
+        <v>0.273749</v>
       </c>
       <c r="C32" t="n">
-        <v>0.252788</v>
+        <v>0.253034</v>
       </c>
       <c r="D32" t="n">
-        <v>0.263745</v>
+        <v>0.265628</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.275503</v>
+        <v>0.274868</v>
       </c>
       <c r="C33" t="n">
-        <v>0.254127</v>
+        <v>0.254394</v>
       </c>
       <c r="D33" t="n">
-        <v>0.266824</v>
+        <v>0.268048</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.276155</v>
+        <v>0.27534</v>
       </c>
       <c r="C34" t="n">
-        <v>0.256763</v>
+        <v>0.257336</v>
       </c>
       <c r="D34" t="n">
-        <v>0.269158</v>
+        <v>0.270098</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.27686</v>
+        <v>0.277086</v>
       </c>
       <c r="C35" t="n">
-        <v>0.259933</v>
+        <v>0.259769</v>
       </c>
       <c r="D35" t="n">
-        <v>0.272692</v>
+        <v>0.274692</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.280065</v>
+        <v>0.278702</v>
       </c>
       <c r="C36" t="n">
-        <v>0.264339</v>
+        <v>0.263104</v>
       </c>
       <c r="D36" t="n">
-        <v>0.280058</v>
+        <v>0.280428</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.285631</v>
+        <v>0.282516</v>
       </c>
       <c r="C37" t="n">
-        <v>0.269981</v>
+        <v>0.268076</v>
       </c>
       <c r="D37" t="n">
-        <v>0.279159</v>
+        <v>0.279163</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.301131</v>
+        <v>0.301674</v>
       </c>
       <c r="C38" t="n">
-        <v>0.265442</v>
+        <v>0.264377</v>
       </c>
       <c r="D38" t="n">
-        <v>0.279034</v>
+        <v>0.278181</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.30242</v>
+        <v>0.302794</v>
       </c>
       <c r="C39" t="n">
-        <v>0.265496</v>
+        <v>0.267855</v>
       </c>
       <c r="D39" t="n">
-        <v>0.279261</v>
+        <v>0.280159</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.300541</v>
+        <v>0.303137</v>
       </c>
       <c r="C40" t="n">
-        <v>0.267513</v>
+        <v>0.267813</v>
       </c>
       <c r="D40" t="n">
-        <v>0.280853</v>
+        <v>0.280061</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.300406</v>
+        <v>0.302511</v>
       </c>
       <c r="C41" t="n">
-        <v>0.267953</v>
+        <v>0.267615</v>
       </c>
       <c r="D41" t="n">
-        <v>0.281068</v>
+        <v>0.279995</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.301774</v>
+        <v>0.303016</v>
       </c>
       <c r="C42" t="n">
-        <v>0.269446</v>
+        <v>0.269329</v>
       </c>
       <c r="D42" t="n">
-        <v>0.281274</v>
+        <v>0.281174</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.304807</v>
+        <v>0.303802</v>
       </c>
       <c r="C43" t="n">
-        <v>0.269501</v>
+        <v>0.26995</v>
       </c>
       <c r="D43" t="n">
-        <v>0.281668</v>
+        <v>0.282022</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.304313</v>
+        <v>0.303953</v>
       </c>
       <c r="C44" t="n">
-        <v>0.270517</v>
+        <v>0.272223</v>
       </c>
       <c r="D44" t="n">
-        <v>0.283277</v>
+        <v>0.284073</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.303068</v>
+        <v>0.304812</v>
       </c>
       <c r="C45" t="n">
-        <v>0.271841</v>
+        <v>0.273012</v>
       </c>
       <c r="D45" t="n">
-        <v>0.284261</v>
+        <v>0.284772</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.303697</v>
+        <v>0.304182</v>
       </c>
       <c r="C46" t="n">
-        <v>0.273123</v>
+        <v>0.27414</v>
       </c>
       <c r="D46" t="n">
-        <v>0.285662</v>
+        <v>0.286035</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.302378</v>
+        <v>0.304095</v>
       </c>
       <c r="C47" t="n">
-        <v>0.275512</v>
+        <v>0.276186</v>
       </c>
       <c r="D47" t="n">
-        <v>0.287412</v>
+        <v>0.28794</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.306633</v>
+        <v>0.305744</v>
       </c>
       <c r="C48" t="n">
-        <v>0.27708</v>
+        <v>0.277627</v>
       </c>
       <c r="D48" t="n">
-        <v>0.28961</v>
+        <v>0.290364</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.305596</v>
+        <v>0.30606</v>
       </c>
       <c r="C49" t="n">
-        <v>0.279432</v>
+        <v>0.280451</v>
       </c>
       <c r="D49" t="n">
-        <v>0.293279</v>
+        <v>0.293752</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.308722</v>
+        <v>0.309069</v>
       </c>
       <c r="C50" t="n">
-        <v>0.284301</v>
+        <v>0.284497</v>
       </c>
       <c r="D50" t="n">
-        <v>0.300101</v>
+        <v>0.300233</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.311479</v>
+        <v>0.312695</v>
       </c>
       <c r="C51" t="n">
-        <v>0.289133</v>
+        <v>0.288503</v>
       </c>
       <c r="D51" t="n">
-        <v>0.292728</v>
+        <v>0.291218</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.317905</v>
+        <v>0.315018</v>
       </c>
       <c r="C52" t="n">
-        <v>0.296579</v>
+        <v>0.295013</v>
       </c>
       <c r="D52" t="n">
-        <v>0.293203</v>
+        <v>0.292547</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.331485</v>
+        <v>0.330427</v>
       </c>
       <c r="C53" t="n">
-        <v>0.282137</v>
+        <v>0.281391</v>
       </c>
       <c r="D53" t="n">
-        <v>0.292885</v>
+        <v>0.29153</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.330609</v>
+        <v>0.330183</v>
       </c>
       <c r="C54" t="n">
-        <v>0.282324</v>
+        <v>0.283588</v>
       </c>
       <c r="D54" t="n">
-        <v>0.293806</v>
+        <v>0.292635</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.330526</v>
+        <v>0.32949</v>
       </c>
       <c r="C55" t="n">
-        <v>0.284224</v>
+        <v>0.284727</v>
       </c>
       <c r="D55" t="n">
-        <v>0.294625</v>
+        <v>0.293469</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.329681</v>
+        <v>0.329683</v>
       </c>
       <c r="C56" t="n">
-        <v>0.284271</v>
+        <v>0.284986</v>
       </c>
       <c r="D56" t="n">
-        <v>0.293686</v>
+        <v>0.293609</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.330709</v>
+        <v>0.330873</v>
       </c>
       <c r="C57" t="n">
-        <v>0.284775</v>
+        <v>0.283874</v>
       </c>
       <c r="D57" t="n">
-        <v>0.29394</v>
+        <v>0.292729</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.329412</v>
+        <v>0.330233</v>
       </c>
       <c r="C58" t="n">
-        <v>0.28599</v>
+        <v>0.287116</v>
       </c>
       <c r="D58" t="n">
-        <v>0.29559</v>
+        <v>0.295223</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.330154</v>
+        <v>0.330324</v>
       </c>
       <c r="C59" t="n">
-        <v>0.287901</v>
+        <v>0.288519</v>
       </c>
       <c r="D59" t="n">
-        <v>0.296213</v>
+        <v>0.296555</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.330349</v>
+        <v>0.33105</v>
       </c>
       <c r="C60" t="n">
-        <v>0.288492</v>
+        <v>0.289647</v>
       </c>
       <c r="D60" t="n">
-        <v>0.297972</v>
+        <v>0.298496</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.330933</v>
+        <v>0.332857</v>
       </c>
       <c r="C61" t="n">
-        <v>0.290148</v>
+        <v>0.291289</v>
       </c>
       <c r="D61" t="n">
-        <v>0.299946</v>
+        <v>0.299571</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.332624</v>
+        <v>0.332319</v>
       </c>
       <c r="C62" t="n">
-        <v>0.293759</v>
+        <v>0.293489</v>
       </c>
       <c r="D62" t="n">
-        <v>0.302549</v>
+        <v>0.302368</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.334323</v>
+        <v>0.334256</v>
       </c>
       <c r="C63" t="n">
-        <v>0.29614</v>
+        <v>0.296972</v>
       </c>
       <c r="D63" t="n">
-        <v>0.307469</v>
+        <v>0.306665</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.33685</v>
+        <v>0.335238</v>
       </c>
       <c r="C64" t="n">
-        <v>0.300155</v>
+        <v>0.300202</v>
       </c>
       <c r="D64" t="n">
-        <v>0.313253</v>
+        <v>0.311598</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.336837</v>
+        <v>0.338319</v>
       </c>
       <c r="C65" t="n">
-        <v>0.304463</v>
+        <v>0.304643</v>
       </c>
       <c r="D65" t="n">
-        <v>0.318045</v>
+        <v>0.317941</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.341369</v>
+        <v>0.342862</v>
       </c>
       <c r="C66" t="n">
-        <v>0.310987</v>
+        <v>0.310548</v>
       </c>
       <c r="D66" t="n">
-        <v>0.300667</v>
+        <v>0.29959</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.345887</v>
+        <v>0.343293</v>
       </c>
       <c r="C67" t="n">
-        <v>0.294016</v>
+        <v>0.293407</v>
       </c>
       <c r="D67" t="n">
-        <v>0.30053</v>
+        <v>0.298828</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.3495</v>
+        <v>0.348916</v>
       </c>
       <c r="C68" t="n">
-        <v>0.295392</v>
+        <v>0.293983</v>
       </c>
       <c r="D68" t="n">
-        <v>0.30134</v>
+        <v>0.299126</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.349349</v>
+        <v>0.349063</v>
       </c>
       <c r="C69" t="n">
-        <v>0.296305</v>
+        <v>0.295132</v>
       </c>
       <c r="D69" t="n">
-        <v>0.302378</v>
+        <v>0.300308</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.349706</v>
+        <v>0.349355</v>
       </c>
       <c r="C70" t="n">
-        <v>0.297274</v>
+        <v>0.295918</v>
       </c>
       <c r="D70" t="n">
-        <v>0.302777</v>
+        <v>0.300517</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.349632</v>
+        <v>0.349347</v>
       </c>
       <c r="C71" t="n">
-        <v>0.298398</v>
+        <v>0.296726</v>
       </c>
       <c r="D71" t="n">
-        <v>0.303449</v>
+        <v>0.302025</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.346643</v>
+        <v>0.349662</v>
       </c>
       <c r="C72" t="n">
-        <v>0.299373</v>
+        <v>0.297469</v>
       </c>
       <c r="D72" t="n">
-        <v>0.304752</v>
+        <v>0.303229</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.346767</v>
+        <v>0.350337</v>
       </c>
       <c r="C73" t="n">
-        <v>0.300941</v>
+        <v>0.298343</v>
       </c>
       <c r="D73" t="n">
-        <v>0.305646</v>
+        <v>0.303833</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.350677</v>
+        <v>0.350357</v>
       </c>
       <c r="C74" t="n">
-        <v>0.302229</v>
+        <v>0.29967</v>
       </c>
       <c r="D74" t="n">
-        <v>0.30697</v>
+        <v>0.305704</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.351384</v>
+        <v>0.35142</v>
       </c>
       <c r="C75" t="n">
-        <v>0.304202</v>
+        <v>0.300778</v>
       </c>
       <c r="D75" t="n">
-        <v>0.309538</v>
+        <v>0.306835</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.347818</v>
+        <v>0.351707</v>
       </c>
       <c r="C76" t="n">
-        <v>0.306152</v>
+        <v>0.302866</v>
       </c>
       <c r="D76" t="n">
-        <v>0.311255</v>
+        <v>0.309191</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.353003</v>
+        <v>0.352776</v>
       </c>
       <c r="C77" t="n">
-        <v>0.308462</v>
+        <v>0.304479</v>
       </c>
       <c r="D77" t="n">
-        <v>0.314853</v>
+        <v>0.31285</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.351557</v>
+        <v>0.354976</v>
       </c>
       <c r="C78" t="n">
-        <v>0.311679</v>
+        <v>0.308213</v>
       </c>
       <c r="D78" t="n">
-        <v>0.321026</v>
+        <v>0.318297</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.353592</v>
+        <v>0.356624</v>
       </c>
       <c r="C79" t="n">
-        <v>0.31595</v>
+        <v>0.311641</v>
       </c>
       <c r="D79" t="n">
-        <v>0.326873</v>
+        <v>0.324008</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.361289</v>
+        <v>0.361036</v>
       </c>
       <c r="C80" t="n">
-        <v>0.322804</v>
+        <v>0.317829</v>
       </c>
       <c r="D80" t="n">
-        <v>0.30756</v>
+        <v>0.302931</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.369988</v>
+        <v>0.371183</v>
       </c>
       <c r="C81" t="n">
-        <v>0.2962</v>
+        <v>0.296335</v>
       </c>
       <c r="D81" t="n">
-        <v>0.310546</v>
+        <v>0.31126</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.369429</v>
+        <v>0.370307</v>
       </c>
       <c r="C82" t="n">
-        <v>0.296539</v>
+        <v>0.296882</v>
       </c>
       <c r="D82" t="n">
-        <v>0.311484</v>
+        <v>0.311949</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.370053</v>
+        <v>0.372724</v>
       </c>
       <c r="C83" t="n">
-        <v>0.296621</v>
+        <v>0.29722</v>
       </c>
       <c r="D83" t="n">
-        <v>0.311958</v>
+        <v>0.312329</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.369655</v>
+        <v>0.371119</v>
       </c>
       <c r="C84" t="n">
-        <v>0.29724</v>
+        <v>0.289484</v>
       </c>
       <c r="D84" t="n">
-        <v>0.312109</v>
+        <v>0.304941</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.369808</v>
+        <v>0.35919</v>
       </c>
       <c r="C85" t="n">
-        <v>0.29777</v>
+        <v>0.29113</v>
       </c>
       <c r="D85" t="n">
-        <v>0.312908</v>
+        <v>0.306274</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.370392</v>
+        <v>0.359488</v>
       </c>
       <c r="C86" t="n">
-        <v>0.298622</v>
+        <v>0.290974</v>
       </c>
       <c r="D86" t="n">
-        <v>0.313766</v>
+        <v>0.306461</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.370482</v>
+        <v>0.36021</v>
       </c>
       <c r="C87" t="n">
-        <v>0.292215</v>
+        <v>0.296002</v>
       </c>
       <c r="D87" t="n">
-        <v>0.307377</v>
+        <v>0.308129</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.361859</v>
+        <v>0.367348</v>
       </c>
       <c r="C88" t="n">
-        <v>0.300688</v>
+        <v>0.293981</v>
       </c>
       <c r="D88" t="n">
-        <v>0.315953</v>
+        <v>0.309222</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.371423</v>
+        <v>0.360628</v>
       </c>
       <c r="C89" t="n">
-        <v>0.30215</v>
+        <v>0.304177</v>
       </c>
       <c r="D89" t="n">
-        <v>0.318245</v>
+        <v>0.318361</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.373263</v>
+        <v>0.372237</v>
       </c>
       <c r="C90" t="n">
-        <v>0.300262</v>
+        <v>0.296184</v>
       </c>
       <c r="D90" t="n">
-        <v>0.314938</v>
+        <v>0.312785</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.369152</v>
+        <v>0.364601</v>
       </c>
       <c r="C91" t="n">
-        <v>0.306695</v>
+        <v>0.307803</v>
       </c>
       <c r="D91" t="n">
-        <v>0.32371</v>
+        <v>0.324288</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.374668</v>
+        <v>0.376067</v>
       </c>
       <c r="C92" t="n">
-        <v>0.310306</v>
+        <v>0.302611</v>
       </c>
       <c r="D92" t="n">
-        <v>0.327862</v>
+        <v>0.322254</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.377169</v>
+        <v>0.367197</v>
       </c>
       <c r="C93" t="n">
-        <v>0.314797</v>
+        <v>0.315071</v>
       </c>
       <c r="D93" t="n">
-        <v>0.333429</v>
+        <v>0.334269</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.381579</v>
+        <v>0.38072</v>
       </c>
       <c r="C94" t="n">
-        <v>0.319827</v>
+        <v>0.321637</v>
       </c>
       <c r="D94" t="n">
-        <v>0.42593</v>
+        <v>0.454991</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.521573</v>
+        <v>0.527976</v>
       </c>
       <c r="C95" t="n">
-        <v>0.427848</v>
+        <v>0.425722</v>
       </c>
       <c r="D95" t="n">
-        <v>0.41122</v>
+        <v>0.420631</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.504236</v>
+        <v>0.522316</v>
       </c>
       <c r="C96" t="n">
-        <v>0.450217</v>
+        <v>0.457361</v>
       </c>
       <c r="D96" t="n">
-        <v>0.435862</v>
+        <v>0.44348</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5304450000000001</v>
+        <v>0.527439</v>
       </c>
       <c r="C97" t="n">
-        <v>0.422625</v>
+        <v>0.458696</v>
       </c>
       <c r="D97" t="n">
-        <v>0.421256</v>
+        <v>0.444062</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.496354</v>
+        <v>0.526139</v>
       </c>
       <c r="C98" t="n">
-        <v>0.457474</v>
+        <v>0.457122</v>
       </c>
       <c r="D98" t="n">
-        <v>0.435926</v>
+        <v>0.445841</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.534513</v>
+        <v>0.545377</v>
       </c>
       <c r="C99" t="n">
-        <v>0.45559</v>
+        <v>0.462108</v>
       </c>
       <c r="D99" t="n">
-        <v>0.437285</v>
+        <v>0.457349</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.535629</v>
+        <v>0.538764</v>
       </c>
       <c r="C100" t="n">
-        <v>0.461842</v>
+        <v>0.466967</v>
       </c>
       <c r="D100" t="n">
-        <v>0.44241</v>
+        <v>0.458819</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.54001</v>
+        <v>0.539926</v>
       </c>
       <c r="C101" t="n">
-        <v>0.461392</v>
+        <v>0.439919</v>
       </c>
       <c r="D101" t="n">
-        <v>0.443319</v>
+        <v>0.422552</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.542319</v>
+        <v>0.497308</v>
       </c>
       <c r="C102" t="n">
-        <v>0.462442</v>
+        <v>0.431136</v>
       </c>
       <c r="D102" t="n">
-        <v>0.453408</v>
+        <v>0.425239</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.551041</v>
+        <v>0.498457</v>
       </c>
       <c r="C103" t="n">
-        <v>0.465701</v>
+        <v>0.471683</v>
       </c>
       <c r="D103" t="n">
-        <v>0.449807</v>
+        <v>0.458649</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5444099999999999</v>
+        <v>0.542753</v>
       </c>
       <c r="C104" t="n">
-        <v>0.46895</v>
+        <v>0.434294</v>
       </c>
       <c r="D104" t="n">
-        <v>0.455398</v>
+        <v>0.431539</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.53672</v>
+        <v>0.488613</v>
       </c>
       <c r="C105" t="n">
-        <v>0.468738</v>
+        <v>0.472495</v>
       </c>
       <c r="D105" t="n">
-        <v>0.461675</v>
+        <v>0.474387</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.539252</v>
+        <v>0.539789</v>
       </c>
       <c r="C106" t="n">
-        <v>0.469581</v>
+        <v>0.490484</v>
       </c>
       <c r="D106" t="n">
-        <v>0.456426</v>
+        <v>0.494685</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.549315</v>
+        <v>0.534836</v>
       </c>
       <c r="C107" t="n">
-        <v>0.472274</v>
+        <v>0.494584</v>
       </c>
       <c r="D107" t="n">
-        <v>0.465953</v>
+        <v>0.483315</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.549407</v>
+        <v>0.55676</v>
       </c>
       <c r="C108" t="n">
-        <v>0.486896</v>
+        <v>0.492464</v>
       </c>
       <c r="D108" t="n">
-        <v>0.709025</v>
+        <v>0.728125</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.547349</v>
+        <v>0.567184</v>
       </c>
       <c r="C109" t="n">
-        <v>0.494083</v>
+        <v>0.499603</v>
       </c>
       <c r="D109" t="n">
-        <v>0.715604</v>
+        <v>0.729762</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.848221</v>
+        <v>0.836449</v>
       </c>
       <c r="C110" t="n">
-        <v>0.708866</v>
+        <v>0.724966</v>
       </c>
       <c r="D110" t="n">
-        <v>0.730743</v>
+        <v>0.729333</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.836147</v>
+        <v>0.8384200000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.725806</v>
+        <v>0.725129</v>
       </c>
       <c r="D111" t="n">
-        <v>0.731545</v>
+        <v>0.73077</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.8532419999999999</v>
+        <v>0.849406</v>
       </c>
       <c r="C112" t="n">
-        <v>0.710796</v>
+        <v>0.710012</v>
       </c>
       <c r="D112" t="n">
-        <v>0.733123</v>
+        <v>0.732819</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.852025</v>
+        <v>0.853451</v>
       </c>
       <c r="C113" t="n">
-        <v>0.711894</v>
+        <v>0.726465</v>
       </c>
       <c r="D113" t="n">
-        <v>0.733984</v>
+        <v>0.733104</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.853202</v>
+        <v>0.855796</v>
       </c>
       <c r="C114" t="n">
-        <v>0.730156</v>
+        <v>0.728982</v>
       </c>
       <c r="D114" t="n">
-        <v>0.735035</v>
+        <v>0.721457</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.843811</v>
+        <v>0.847898</v>
       </c>
       <c r="C115" t="n">
-        <v>0.731069</v>
+        <v>0.730054</v>
       </c>
       <c r="D115" t="n">
-        <v>0.725038</v>
+        <v>0.735449</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.857868</v>
+        <v>0.851065</v>
       </c>
       <c r="C116" t="n">
-        <v>0.732237</v>
+        <v>0.731533</v>
       </c>
       <c r="D116" t="n">
-        <v>0.728674</v>
+        <v>0.7393150000000001</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.851044</v>
+        <v>0.84779</v>
       </c>
       <c r="C117" t="n">
-        <v>0.734835</v>
+        <v>0.7333</v>
       </c>
       <c r="D117" t="n">
-        <v>0.741723</v>
+        <v>0.740685</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.853782</v>
+        <v>0.833616</v>
       </c>
       <c r="C118" t="n">
-        <v>0.721825</v>
+        <v>0.736916</v>
       </c>
       <c r="D118" t="n">
-        <v>0.744359</v>
+        <v>0.743408</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.852545</v>
+        <v>0.85402</v>
       </c>
       <c r="C119" t="n">
-        <v>0.724518</v>
+        <v>0.739935</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7484690000000001</v>
+        <v>0.747394</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.852525</v>
+        <v>0.857044</v>
       </c>
       <c r="C120" t="n">
-        <v>0.744594</v>
+        <v>0.744142</v>
       </c>
       <c r="D120" t="n">
-        <v>0.7537700000000001</v>
+        <v>0.752268</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.854043</v>
+        <v>0.8490490000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>0.733984</v>
+        <v>0.7495540000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>0.759332</v>
+        <v>0.758426</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.838518</v>
+        <v>0.851066</v>
       </c>
       <c r="C122" t="n">
-        <v>0.758644</v>
+        <v>0.740045</v>
       </c>
       <c r="D122" t="n">
-        <v>0.756264</v>
+        <v>0.767159</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.858133</v>
+        <v>0.853969</v>
       </c>
       <c r="C123" t="n">
-        <v>0.750321</v>
+        <v>0.765153</v>
       </c>
       <c r="D123" t="n">
-        <v>0.845405</v>
+        <v>0.843457</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.08155</v>
+        <v>1.09163</v>
       </c>
       <c r="C124" t="n">
-        <v>0.83266</v>
+        <v>0.8315900000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.846569</v>
+        <v>0.8446939999999999</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.10338</v>
+        <v>1.08561</v>
       </c>
       <c r="C125" t="n">
-        <v>0.833131</v>
+        <v>0.824978</v>
       </c>
       <c r="D125" t="n">
-        <v>0.84646</v>
+        <v>0.838129</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.10868</v>
+        <v>1.09955</v>
       </c>
       <c r="C126" t="n">
-        <v>0.834372</v>
+        <v>0.833493</v>
       </c>
       <c r="D126" t="n">
-        <v>0.849071</v>
+        <v>0.840456</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.10943</v>
+        <v>1.1095</v>
       </c>
       <c r="C127" t="n">
-        <v>0.835201</v>
+        <v>0.835297</v>
       </c>
       <c r="D127" t="n">
-        <v>0.849796</v>
+        <v>0.841545</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.11175</v>
+        <v>1.10344</v>
       </c>
       <c r="C128" t="n">
-        <v>0.837454</v>
+        <v>0.829301</v>
       </c>
       <c r="D128" t="n">
-        <v>0.852362</v>
+        <v>0.843948</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.10822</v>
+        <v>1.12442</v>
       </c>
       <c r="C129" t="n">
-        <v>0.839744</v>
+        <v>0.839289</v>
       </c>
       <c r="D129" t="n">
-        <v>0.85463</v>
+        <v>0.846692</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.108</v>
+        <v>1.11588</v>
       </c>
       <c r="C130" t="n">
-        <v>0.836655</v>
+        <v>0.841016</v>
       </c>
       <c r="D130" t="n">
-        <v>0.852176</v>
+        <v>0.855905</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.10677</v>
+        <v>1.1028</v>
       </c>
       <c r="C131" t="n">
-        <v>0.84677</v>
+        <v>0.844204</v>
       </c>
       <c r="D131" t="n">
-        <v>0.861048</v>
+        <v>0.859634</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.11082</v>
+        <v>1.10773</v>
       </c>
       <c r="C132" t="n">
-        <v>0.8485740000000001</v>
+        <v>0.848359</v>
       </c>
       <c r="D132" t="n">
-        <v>0.864065</v>
+        <v>0.864456</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.10664</v>
+        <v>1.1181</v>
       </c>
       <c r="C133" t="n">
-        <v>0.853195</v>
+        <v>0.851708</v>
       </c>
       <c r="D133" t="n">
-        <v>0.869969</v>
+        <v>0.868233</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.11924</v>
+        <v>1.10423</v>
       </c>
       <c r="C134" t="n">
-        <v>0.858174</v>
+        <v>0.8517</v>
       </c>
       <c r="D134" t="n">
-        <v>0.875625</v>
+        <v>0.875486</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.10488</v>
+        <v>1.10523</v>
       </c>
       <c r="C135" t="n">
-        <v>0.8571800000000001</v>
+        <v>0.857928</v>
       </c>
       <c r="D135" t="n">
-        <v>0.877658</v>
+        <v>0.884854</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.09116</v>
+        <v>1.11177</v>
       </c>
       <c r="C136" t="n">
-        <v>0.866739</v>
+        <v>0.872234</v>
       </c>
       <c r="D136" t="n">
-        <v>0.896668</v>
+        <v>0.896925</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.10957</v>
+        <v>1.10561</v>
       </c>
       <c r="C137" t="n">
-        <v>0.878292</v>
+        <v>0.884336</v>
       </c>
       <c r="D137" t="n">
-        <v>0.894994</v>
+        <v>0.8953950000000001</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.32283</v>
+        <v>1.33686</v>
       </c>
       <c r="C138" t="n">
-        <v>0.879146</v>
+        <v>0.878804</v>
       </c>
       <c r="D138" t="n">
-        <v>0.89361</v>
+        <v>0.892832</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.33703</v>
+        <v>1.33725</v>
       </c>
       <c r="C139" t="n">
-        <v>0.877073</v>
+        <v>0.877123</v>
       </c>
       <c r="D139" t="n">
-        <v>0.896875</v>
+        <v>0.895358</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.33533</v>
+        <v>1.34006</v>
       </c>
       <c r="C140" t="n">
-        <v>0.878553</v>
+        <v>0.882872</v>
       </c>
       <c r="D140" t="n">
-        <v>0.899963</v>
+        <v>0.900575</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.33791</v>
+        <v>1.32345</v>
       </c>
       <c r="C141" t="n">
-        <v>0.884161</v>
+        <v>0.8813839999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.902264</v>
+        <v>0.89837</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.33673</v>
+        <v>1.34072</v>
       </c>
       <c r="C142" t="n">
-        <v>0.886007</v>
+        <v>0.886378</v>
       </c>
       <c r="D142" t="n">
-        <v>0.900595</v>
+        <v>0.902024</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.33708</v>
+        <v>1.33945</v>
       </c>
       <c r="C143" t="n">
-        <v>0.888935</v>
+        <v>0.890039</v>
       </c>
       <c r="D143" t="n">
-        <v>0.90684</v>
+        <v>0.905107</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.242175</v>
+        <v>0.242481</v>
       </c>
       <c r="C2" t="n">
-        <v>0.237688</v>
+        <v>0.237676</v>
       </c>
       <c r="D2" t="n">
-        <v>0.246515</v>
+        <v>0.246688</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.240972</v>
+        <v>0.241338</v>
       </c>
       <c r="C3" t="n">
-        <v>0.236867</v>
+        <v>0.236885</v>
       </c>
       <c r="D3" t="n">
-        <v>0.246098</v>
+        <v>0.2462</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.243189</v>
+        <v>0.243293</v>
       </c>
       <c r="C4" t="n">
-        <v>0.239435</v>
+        <v>0.23977</v>
       </c>
       <c r="D4" t="n">
-        <v>0.249536</v>
+        <v>0.249728</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.245478</v>
+        <v>0.245615</v>
       </c>
       <c r="C5" t="n">
-        <v>0.242791</v>
+        <v>0.242971</v>
       </c>
       <c r="D5" t="n">
-        <v>0.253606</v>
+        <v>0.253553</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.24471</v>
+        <v>0.244236</v>
       </c>
       <c r="C6" t="n">
-        <v>0.243601</v>
+        <v>0.243793</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25582</v>
+        <v>0.255541</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.247103</v>
+        <v>0.247328</v>
       </c>
       <c r="C7" t="n">
-        <v>0.246911</v>
+        <v>0.247033</v>
       </c>
       <c r="D7" t="n">
-        <v>0.261154</v>
+        <v>0.261298</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.250455</v>
+        <v>0.250555</v>
       </c>
       <c r="C8" t="n">
-        <v>0.25294</v>
+        <v>0.252542</v>
       </c>
       <c r="D8" t="n">
-        <v>0.269391</v>
+        <v>0.268893</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.258651</v>
+        <v>0.258371</v>
       </c>
       <c r="C9" t="n">
-        <v>0.261449</v>
+        <v>0.260982</v>
       </c>
       <c r="D9" t="n">
-        <v>0.246037</v>
+        <v>0.246112</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2487</v>
+        <v>0.249383</v>
       </c>
       <c r="C10" t="n">
-        <v>0.239616</v>
+        <v>0.23973</v>
       </c>
       <c r="D10" t="n">
-        <v>0.245605</v>
+        <v>0.246125</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.248379</v>
+        <v>0.249102</v>
       </c>
       <c r="C11" t="n">
-        <v>0.23915</v>
+        <v>0.239739</v>
       </c>
       <c r="D11" t="n">
-        <v>0.245507</v>
+        <v>0.246159</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.249812</v>
+        <v>0.250479</v>
       </c>
       <c r="C12" t="n">
-        <v>0.241388</v>
+        <v>0.24131</v>
       </c>
       <c r="D12" t="n">
-        <v>0.248118</v>
+        <v>0.24773</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.249377</v>
+        <v>0.249642</v>
       </c>
       <c r="C13" t="n">
-        <v>0.241431</v>
+        <v>0.24183</v>
       </c>
       <c r="D13" t="n">
-        <v>0.247044</v>
+        <v>0.248159</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.24966</v>
+        <v>0.250327</v>
       </c>
       <c r="C14" t="n">
-        <v>0.242152</v>
+        <v>0.242078</v>
       </c>
       <c r="D14" t="n">
-        <v>0.248855</v>
+        <v>0.248584</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.250398</v>
+        <v>0.250568</v>
       </c>
       <c r="C15" t="n">
-        <v>0.242587</v>
+        <v>0.243254</v>
       </c>
       <c r="D15" t="n">
-        <v>0.249789</v>
+        <v>0.249982</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.251691</v>
+        <v>0.250943</v>
       </c>
       <c r="C16" t="n">
-        <v>0.243814</v>
+        <v>0.243919</v>
       </c>
       <c r="D16" t="n">
-        <v>0.25019</v>
+        <v>0.250886</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.251068</v>
+        <v>0.25189</v>
       </c>
       <c r="C17" t="n">
-        <v>0.244858</v>
+        <v>0.244957</v>
       </c>
       <c r="D17" t="n">
-        <v>0.252186</v>
+        <v>0.252072</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.251565</v>
+        <v>0.251367</v>
       </c>
       <c r="C18" t="n">
-        <v>0.244924</v>
+        <v>0.245669</v>
       </c>
       <c r="D18" t="n">
-        <v>0.252462</v>
+        <v>0.253182</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.252862</v>
+        <v>0.252889</v>
       </c>
       <c r="C19" t="n">
-        <v>0.247951</v>
+        <v>0.248613</v>
       </c>
       <c r="D19" t="n">
-        <v>0.255945</v>
+        <v>0.256368</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.253875</v>
+        <v>0.25369</v>
       </c>
       <c r="C20" t="n">
-        <v>0.250501</v>
+        <v>0.249317</v>
       </c>
       <c r="D20" t="n">
-        <v>0.258317</v>
+        <v>0.258356</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.255298</v>
+        <v>0.255796</v>
       </c>
       <c r="C21" t="n">
-        <v>0.252071</v>
+        <v>0.25213</v>
       </c>
       <c r="D21" t="n">
-        <v>0.262644</v>
+        <v>0.26278</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.260258</v>
+        <v>0.258635</v>
       </c>
       <c r="C22" t="n">
-        <v>0.255811</v>
+        <v>0.255812</v>
       </c>
       <c r="D22" t="n">
-        <v>0.268403</v>
+        <v>0.268451</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.263603</v>
+        <v>0.26335</v>
       </c>
       <c r="C23" t="n">
-        <v>0.261244</v>
+        <v>0.261354</v>
       </c>
       <c r="D23" t="n">
-        <v>0.252631</v>
+        <v>0.256585</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.269042</v>
+        <v>0.270931</v>
       </c>
       <c r="C24" t="n">
-        <v>0.244546</v>
+        <v>0.244922</v>
       </c>
       <c r="D24" t="n">
-        <v>0.255745</v>
+        <v>0.257808</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.268331</v>
+        <v>0.270316</v>
       </c>
       <c r="C25" t="n">
-        <v>0.244525</v>
+        <v>0.244218</v>
       </c>
       <c r="D25" t="n">
-        <v>0.256375</v>
+        <v>0.257876</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.270455</v>
+        <v>0.272536</v>
       </c>
       <c r="C26" t="n">
-        <v>0.245293</v>
+        <v>0.244536</v>
       </c>
       <c r="D26" t="n">
-        <v>0.257049</v>
+        <v>0.257796</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.271374</v>
+        <v>0.27185</v>
       </c>
       <c r="C27" t="n">
-        <v>0.245234</v>
+        <v>0.246013</v>
       </c>
       <c r="D27" t="n">
-        <v>0.257342</v>
+        <v>0.257684</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.271897</v>
+        <v>0.272534</v>
       </c>
       <c r="C28" t="n">
-        <v>0.247438</v>
+        <v>0.24729</v>
       </c>
       <c r="D28" t="n">
-        <v>0.260043</v>
+        <v>0.259062</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.271059</v>
+        <v>0.270072</v>
       </c>
       <c r="C29" t="n">
-        <v>0.249036</v>
+        <v>0.247329</v>
       </c>
       <c r="D29" t="n">
-        <v>0.258865</v>
+        <v>0.259545</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.271475</v>
+        <v>0.271278</v>
       </c>
       <c r="C30" t="n">
-        <v>0.250577</v>
+        <v>0.247911</v>
       </c>
       <c r="D30" t="n">
-        <v>0.261619</v>
+        <v>0.259733</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.271581</v>
+        <v>0.27232</v>
       </c>
       <c r="C31" t="n">
-        <v>0.250675</v>
+        <v>0.24889</v>
       </c>
       <c r="D31" t="n">
-        <v>0.265391</v>
+        <v>0.260825</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.273749</v>
+        <v>0.273729</v>
       </c>
       <c r="C32" t="n">
-        <v>0.253034</v>
+        <v>0.251178</v>
       </c>
       <c r="D32" t="n">
-        <v>0.265628</v>
+        <v>0.263062</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.274868</v>
+        <v>0.275452</v>
       </c>
       <c r="C33" t="n">
-        <v>0.254394</v>
+        <v>0.252854</v>
       </c>
       <c r="D33" t="n">
-        <v>0.268048</v>
+        <v>0.265982</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.27534</v>
+        <v>0.275429</v>
       </c>
       <c r="C34" t="n">
-        <v>0.257336</v>
+        <v>0.254923</v>
       </c>
       <c r="D34" t="n">
-        <v>0.270098</v>
+        <v>0.268209</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.277086</v>
+        <v>0.276167</v>
       </c>
       <c r="C35" t="n">
-        <v>0.259769</v>
+        <v>0.25747</v>
       </c>
       <c r="D35" t="n">
-        <v>0.274692</v>
+        <v>0.271487</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.278702</v>
+        <v>0.277289</v>
       </c>
       <c r="C36" t="n">
-        <v>0.263104</v>
+        <v>0.261091</v>
       </c>
       <c r="D36" t="n">
-        <v>0.280428</v>
+        <v>0.276702</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.282516</v>
+        <v>0.282079</v>
       </c>
       <c r="C37" t="n">
-        <v>0.268076</v>
+        <v>0.266295</v>
       </c>
       <c r="D37" t="n">
-        <v>0.279163</v>
+        <v>0.280419</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.301674</v>
+        <v>0.302886</v>
       </c>
       <c r="C38" t="n">
-        <v>0.264377</v>
+        <v>0.266125</v>
       </c>
       <c r="D38" t="n">
-        <v>0.278181</v>
+        <v>0.279484</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.302794</v>
+        <v>0.303489</v>
       </c>
       <c r="C39" t="n">
-        <v>0.267855</v>
+        <v>0.266803</v>
       </c>
       <c r="D39" t="n">
-        <v>0.280159</v>
+        <v>0.279652</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.303137</v>
+        <v>0.302686</v>
       </c>
       <c r="C40" t="n">
-        <v>0.267813</v>
+        <v>0.267479</v>
       </c>
       <c r="D40" t="n">
-        <v>0.280061</v>
+        <v>0.279921</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.302511</v>
+        <v>0.303751</v>
       </c>
       <c r="C41" t="n">
-        <v>0.267615</v>
+        <v>0.268131</v>
       </c>
       <c r="D41" t="n">
-        <v>0.279995</v>
+        <v>0.28041</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.303016</v>
+        <v>0.303446</v>
       </c>
       <c r="C42" t="n">
-        <v>0.269329</v>
+        <v>0.269341</v>
       </c>
       <c r="D42" t="n">
-        <v>0.281174</v>
+        <v>0.281478</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.303802</v>
+        <v>0.30261</v>
       </c>
       <c r="C43" t="n">
-        <v>0.26995</v>
+        <v>0.270392</v>
       </c>
       <c r="D43" t="n">
-        <v>0.282022</v>
+        <v>0.282386</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.303953</v>
+        <v>0.30402</v>
       </c>
       <c r="C44" t="n">
-        <v>0.272223</v>
+        <v>0.27144</v>
       </c>
       <c r="D44" t="n">
-        <v>0.284073</v>
+        <v>0.283166</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.304812</v>
+        <v>0.302875</v>
       </c>
       <c r="C45" t="n">
-        <v>0.273012</v>
+        <v>0.272453</v>
       </c>
       <c r="D45" t="n">
-        <v>0.284772</v>
+        <v>0.284194</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.304182</v>
+        <v>0.303803</v>
       </c>
       <c r="C46" t="n">
-        <v>0.27414</v>
+        <v>0.274303</v>
       </c>
       <c r="D46" t="n">
-        <v>0.286035</v>
+        <v>0.286031</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.304095</v>
+        <v>0.30515</v>
       </c>
       <c r="C47" t="n">
-        <v>0.276186</v>
+        <v>0.275455</v>
       </c>
       <c r="D47" t="n">
-        <v>0.28794</v>
+        <v>0.28749</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.305744</v>
+        <v>0.306035</v>
       </c>
       <c r="C48" t="n">
-        <v>0.277627</v>
+        <v>0.27778</v>
       </c>
       <c r="D48" t="n">
-        <v>0.290364</v>
+        <v>0.290586</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.30606</v>
+        <v>0.307263</v>
       </c>
       <c r="C49" t="n">
-        <v>0.280451</v>
+        <v>0.280564</v>
       </c>
       <c r="D49" t="n">
-        <v>0.293752</v>
+        <v>0.29396</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.309069</v>
+        <v>0.310816</v>
       </c>
       <c r="C50" t="n">
-        <v>0.284497</v>
+        <v>0.285412</v>
       </c>
       <c r="D50" t="n">
-        <v>0.300233</v>
+        <v>0.300724</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.312695</v>
+        <v>0.312244</v>
       </c>
       <c r="C51" t="n">
-        <v>0.288503</v>
+        <v>0.289166</v>
       </c>
       <c r="D51" t="n">
-        <v>0.291218</v>
+        <v>0.292249</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.315018</v>
+        <v>0.316142</v>
       </c>
       <c r="C52" t="n">
-        <v>0.295013</v>
+        <v>0.295428</v>
       </c>
       <c r="D52" t="n">
-        <v>0.292547</v>
+        <v>0.293199</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.330427</v>
+        <v>0.329606</v>
       </c>
       <c r="C53" t="n">
-        <v>0.281391</v>
+        <v>0.281499</v>
       </c>
       <c r="D53" t="n">
-        <v>0.29153</v>
+        <v>0.291697</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.330183</v>
+        <v>0.32978</v>
       </c>
       <c r="C54" t="n">
-        <v>0.283588</v>
+        <v>0.283041</v>
       </c>
       <c r="D54" t="n">
-        <v>0.292635</v>
+        <v>0.292283</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.32949</v>
+        <v>0.33156</v>
       </c>
       <c r="C55" t="n">
-        <v>0.284727</v>
+        <v>0.284689</v>
       </c>
       <c r="D55" t="n">
-        <v>0.293469</v>
+        <v>0.293308</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.329683</v>
+        <v>0.330798</v>
       </c>
       <c r="C56" t="n">
-        <v>0.284986</v>
+        <v>0.285491</v>
       </c>
       <c r="D56" t="n">
-        <v>0.293609</v>
+        <v>0.294034</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.330873</v>
+        <v>0.330933</v>
       </c>
       <c r="C57" t="n">
-        <v>0.283874</v>
+        <v>0.286919</v>
       </c>
       <c r="D57" t="n">
-        <v>0.292729</v>
+        <v>0.295432</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.330233</v>
+        <v>0.332303</v>
       </c>
       <c r="C58" t="n">
-        <v>0.287116</v>
+        <v>0.287144</v>
       </c>
       <c r="D58" t="n">
-        <v>0.295223</v>
+        <v>0.295969</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.330324</v>
+        <v>0.329846</v>
       </c>
       <c r="C59" t="n">
-        <v>0.288519</v>
+        <v>0.285508</v>
       </c>
       <c r="D59" t="n">
-        <v>0.296555</v>
+        <v>0.294681</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.33105</v>
+        <v>0.331471</v>
       </c>
       <c r="C60" t="n">
-        <v>0.289647</v>
+        <v>0.28951</v>
       </c>
       <c r="D60" t="n">
-        <v>0.298496</v>
+        <v>0.29807</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.332857</v>
+        <v>0.330703</v>
       </c>
       <c r="C61" t="n">
-        <v>0.291289</v>
+        <v>0.291246</v>
       </c>
       <c r="D61" t="n">
-        <v>0.299571</v>
+        <v>0.300187</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.332319</v>
+        <v>0.331393</v>
       </c>
       <c r="C62" t="n">
-        <v>0.293489</v>
+        <v>0.294081</v>
       </c>
       <c r="D62" t="n">
-        <v>0.302368</v>
+        <v>0.302982</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.334256</v>
+        <v>0.334446</v>
       </c>
       <c r="C63" t="n">
-        <v>0.296972</v>
+        <v>0.296382</v>
       </c>
       <c r="D63" t="n">
-        <v>0.306665</v>
+        <v>0.305818</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.335238</v>
+        <v>0.336076</v>
       </c>
       <c r="C64" t="n">
-        <v>0.300202</v>
+        <v>0.300182</v>
       </c>
       <c r="D64" t="n">
-        <v>0.311598</v>
+        <v>0.311697</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.338319</v>
+        <v>0.337608</v>
       </c>
       <c r="C65" t="n">
-        <v>0.304643</v>
+        <v>0.304512</v>
       </c>
       <c r="D65" t="n">
-        <v>0.317941</v>
+        <v>0.32017</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.342862</v>
+        <v>0.340587</v>
       </c>
       <c r="C66" t="n">
-        <v>0.310548</v>
+        <v>0.306815</v>
       </c>
       <c r="D66" t="n">
-        <v>0.29959</v>
+        <v>0.300939</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.343293</v>
+        <v>0.345029</v>
       </c>
       <c r="C67" t="n">
-        <v>0.293407</v>
+        <v>0.294037</v>
       </c>
       <c r="D67" t="n">
-        <v>0.298828</v>
+        <v>0.298893</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.348916</v>
+        <v>0.34804</v>
       </c>
       <c r="C68" t="n">
-        <v>0.293983</v>
+        <v>0.295173</v>
       </c>
       <c r="D68" t="n">
-        <v>0.299126</v>
+        <v>0.301095</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.349063</v>
+        <v>0.34913</v>
       </c>
       <c r="C69" t="n">
-        <v>0.295132</v>
+        <v>0.296006</v>
       </c>
       <c r="D69" t="n">
-        <v>0.300308</v>
+        <v>0.302017</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.349355</v>
+        <v>0.348785</v>
       </c>
       <c r="C70" t="n">
-        <v>0.295918</v>
+        <v>0.296827</v>
       </c>
       <c r="D70" t="n">
-        <v>0.300517</v>
+        <v>0.302591</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.349347</v>
+        <v>0.349373</v>
       </c>
       <c r="C71" t="n">
-        <v>0.296726</v>
+        <v>0.297441</v>
       </c>
       <c r="D71" t="n">
-        <v>0.302025</v>
+        <v>0.303271</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.349662</v>
+        <v>0.349618</v>
       </c>
       <c r="C72" t="n">
-        <v>0.297469</v>
+        <v>0.298865</v>
       </c>
       <c r="D72" t="n">
-        <v>0.303229</v>
+        <v>0.304284</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.350337</v>
+        <v>0.349746</v>
       </c>
       <c r="C73" t="n">
-        <v>0.298343</v>
+        <v>0.301183</v>
       </c>
       <c r="D73" t="n">
-        <v>0.303833</v>
+        <v>0.30574</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.350357</v>
+        <v>0.350582</v>
       </c>
       <c r="C74" t="n">
-        <v>0.29967</v>
+        <v>0.301917</v>
       </c>
       <c r="D74" t="n">
-        <v>0.305704</v>
+        <v>0.305217</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.35142</v>
+        <v>0.350756</v>
       </c>
       <c r="C75" t="n">
-        <v>0.300778</v>
+        <v>0.304539</v>
       </c>
       <c r="D75" t="n">
-        <v>0.306835</v>
+        <v>0.309482</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.351707</v>
+        <v>0.35179</v>
       </c>
       <c r="C76" t="n">
-        <v>0.302866</v>
+        <v>0.304945</v>
       </c>
       <c r="D76" t="n">
-        <v>0.309191</v>
+        <v>0.311444</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.352776</v>
+        <v>0.352823</v>
       </c>
       <c r="C77" t="n">
-        <v>0.304479</v>
+        <v>0.307384</v>
       </c>
       <c r="D77" t="n">
-        <v>0.31285</v>
+        <v>0.313899</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.354976</v>
+        <v>0.355033</v>
       </c>
       <c r="C78" t="n">
-        <v>0.308213</v>
+        <v>0.310636</v>
       </c>
       <c r="D78" t="n">
-        <v>0.318297</v>
+        <v>0.318243</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.356624</v>
+        <v>0.356554</v>
       </c>
       <c r="C79" t="n">
-        <v>0.311641</v>
+        <v>0.316131</v>
       </c>
       <c r="D79" t="n">
-        <v>0.324008</v>
+        <v>0.327318</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.361036</v>
+        <v>0.360768</v>
       </c>
       <c r="C80" t="n">
-        <v>0.317829</v>
+        <v>0.320924</v>
       </c>
       <c r="D80" t="n">
-        <v>0.302931</v>
+        <v>0.309085</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.371183</v>
+        <v>0.370596</v>
       </c>
       <c r="C81" t="n">
-        <v>0.296335</v>
+        <v>0.288995</v>
       </c>
       <c r="D81" t="n">
-        <v>0.31126</v>
+        <v>0.303865</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.370307</v>
+        <v>0.35908</v>
       </c>
       <c r="C82" t="n">
-        <v>0.296882</v>
+        <v>0.296302</v>
       </c>
       <c r="D82" t="n">
-        <v>0.311949</v>
+        <v>0.311241</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.372724</v>
+        <v>0.369788</v>
       </c>
       <c r="C83" t="n">
-        <v>0.29722</v>
+        <v>0.299383</v>
       </c>
       <c r="D83" t="n">
-        <v>0.312329</v>
+        <v>0.314874</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.371119</v>
+        <v>0.369645</v>
       </c>
       <c r="C84" t="n">
-        <v>0.289484</v>
+        <v>0.297655</v>
       </c>
       <c r="D84" t="n">
-        <v>0.304941</v>
+        <v>0.312384</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.35919</v>
+        <v>0.371215</v>
       </c>
       <c r="C85" t="n">
-        <v>0.29113</v>
+        <v>0.298193</v>
       </c>
       <c r="D85" t="n">
-        <v>0.306274</v>
+        <v>0.313237</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.359488</v>
+        <v>0.370173</v>
       </c>
       <c r="C86" t="n">
-        <v>0.290974</v>
+        <v>0.29879</v>
       </c>
       <c r="D86" t="n">
-        <v>0.306461</v>
+        <v>0.313884</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.36021</v>
+        <v>0.370055</v>
       </c>
       <c r="C87" t="n">
-        <v>0.296002</v>
+        <v>0.300076</v>
       </c>
       <c r="D87" t="n">
-        <v>0.308129</v>
+        <v>0.315704</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.367348</v>
+        <v>0.371222</v>
       </c>
       <c r="C88" t="n">
-        <v>0.293981</v>
+        <v>0.30134</v>
       </c>
       <c r="D88" t="n">
-        <v>0.309222</v>
+        <v>0.316656</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.360628</v>
+        <v>0.371314</v>
       </c>
       <c r="C89" t="n">
-        <v>0.304177</v>
+        <v>0.302298</v>
       </c>
       <c r="D89" t="n">
-        <v>0.318361</v>
+        <v>0.318064</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.372237</v>
+        <v>0.372112</v>
       </c>
       <c r="C90" t="n">
-        <v>0.296184</v>
+        <v>0.304438</v>
       </c>
       <c r="D90" t="n">
-        <v>0.312785</v>
+        <v>0.320273</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.364601</v>
+        <v>0.373278</v>
       </c>
       <c r="C91" t="n">
-        <v>0.307803</v>
+        <v>0.306347</v>
       </c>
       <c r="D91" t="n">
-        <v>0.324288</v>
+        <v>0.323479</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.376067</v>
+        <v>0.374217</v>
       </c>
       <c r="C92" t="n">
-        <v>0.302611</v>
+        <v>0.310191</v>
       </c>
       <c r="D92" t="n">
-        <v>0.322254</v>
+        <v>0.328251</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.367197</v>
+        <v>0.377269</v>
       </c>
       <c r="C93" t="n">
-        <v>0.315071</v>
+        <v>0.305574</v>
       </c>
       <c r="D93" t="n">
-        <v>0.334269</v>
+        <v>0.326418</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.38072</v>
+        <v>0.369955</v>
       </c>
       <c r="C94" t="n">
-        <v>0.321637</v>
+        <v>0.319544</v>
       </c>
       <c r="D94" t="n">
-        <v>0.454991</v>
+        <v>0.45468</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.527976</v>
+        <v>0.555824</v>
       </c>
       <c r="C95" t="n">
-        <v>0.425722</v>
+        <v>0.462944</v>
       </c>
       <c r="D95" t="n">
-        <v>0.420631</v>
+        <v>0.461988</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.522316</v>
+        <v>0.539865</v>
       </c>
       <c r="C96" t="n">
-        <v>0.457361</v>
+        <v>0.452221</v>
       </c>
       <c r="D96" t="n">
-        <v>0.44348</v>
+        <v>0.434573</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.527439</v>
+        <v>0.548031</v>
       </c>
       <c r="C97" t="n">
-        <v>0.458696</v>
+        <v>0.456281</v>
       </c>
       <c r="D97" t="n">
-        <v>0.444062</v>
+        <v>0.447337</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.526139</v>
+        <v>0.54984</v>
       </c>
       <c r="C98" t="n">
-        <v>0.457122</v>
+        <v>0.425151</v>
       </c>
       <c r="D98" t="n">
-        <v>0.445841</v>
+        <v>0.420773</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.545377</v>
+        <v>0.504752</v>
       </c>
       <c r="C99" t="n">
-        <v>0.462108</v>
+        <v>0.464335</v>
       </c>
       <c r="D99" t="n">
-        <v>0.457349</v>
+        <v>0.447011</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.538764</v>
+        <v>0.555274</v>
       </c>
       <c r="C100" t="n">
-        <v>0.466967</v>
+        <v>0.466078</v>
       </c>
       <c r="D100" t="n">
-        <v>0.458819</v>
+        <v>0.446314</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.539926</v>
+        <v>0.548135</v>
       </c>
       <c r="C101" t="n">
-        <v>0.439919</v>
+        <v>0.438626</v>
       </c>
       <c r="D101" t="n">
-        <v>0.422552</v>
+        <v>0.418902</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.497308</v>
+        <v>0.525242</v>
       </c>
       <c r="C102" t="n">
-        <v>0.431136</v>
+        <v>0.478118</v>
       </c>
       <c r="D102" t="n">
-        <v>0.425239</v>
+        <v>0.452192</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.498457</v>
+        <v>0.5567879999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.471683</v>
+        <v>0.47327</v>
       </c>
       <c r="D103" t="n">
-        <v>0.458649</v>
+        <v>0.451839</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.542753</v>
+        <v>0.570201</v>
       </c>
       <c r="C104" t="n">
-        <v>0.434294</v>
+        <v>0.455107</v>
       </c>
       <c r="D104" t="n">
-        <v>0.431539</v>
+        <v>0.43859</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.488613</v>
+        <v>0.51779</v>
       </c>
       <c r="C105" t="n">
-        <v>0.472495</v>
+        <v>0.440528</v>
       </c>
       <c r="D105" t="n">
-        <v>0.474387</v>
+        <v>0.423044</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.539789</v>
+        <v>0.522712</v>
       </c>
       <c r="C106" t="n">
-        <v>0.490484</v>
+        <v>0.496074</v>
       </c>
       <c r="D106" t="n">
-        <v>0.494685</v>
+        <v>0.468847</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.534836</v>
+        <v>0.568236</v>
       </c>
       <c r="C107" t="n">
-        <v>0.494584</v>
+        <v>0.456924</v>
       </c>
       <c r="D107" t="n">
-        <v>0.483315</v>
+        <v>0.433603</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.55676</v>
+        <v>0.53025</v>
       </c>
       <c r="C108" t="n">
-        <v>0.492464</v>
+        <v>0.479367</v>
       </c>
       <c r="D108" t="n">
-        <v>0.728125</v>
+        <v>0.7280489999999999</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.567184</v>
+        <v>0.552014</v>
       </c>
       <c r="C109" t="n">
-        <v>0.499603</v>
+        <v>0.486569</v>
       </c>
       <c r="D109" t="n">
-        <v>0.729762</v>
+        <v>0.730589</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.836449</v>
+        <v>0.846226</v>
       </c>
       <c r="C110" t="n">
-        <v>0.724966</v>
+        <v>0.724866</v>
       </c>
       <c r="D110" t="n">
-        <v>0.729333</v>
+        <v>0.730654</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.8384200000000001</v>
+        <v>0.852692</v>
       </c>
       <c r="C111" t="n">
-        <v>0.725129</v>
+        <v>0.725816</v>
       </c>
       <c r="D111" t="n">
-        <v>0.73077</v>
+        <v>0.731878</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.849406</v>
+        <v>0.835304</v>
       </c>
       <c r="C112" t="n">
-        <v>0.710012</v>
+        <v>0.727171</v>
       </c>
       <c r="D112" t="n">
-        <v>0.732819</v>
+        <v>0.733411</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.853451</v>
+        <v>0.862557</v>
       </c>
       <c r="C113" t="n">
-        <v>0.726465</v>
+        <v>0.728793</v>
       </c>
       <c r="D113" t="n">
-        <v>0.733104</v>
+        <v>0.734456</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.855796</v>
+        <v>0.850051</v>
       </c>
       <c r="C114" t="n">
-        <v>0.728982</v>
+        <v>0.712798</v>
       </c>
       <c r="D114" t="n">
-        <v>0.721457</v>
+        <v>0.736127</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.847898</v>
+        <v>0.86114</v>
       </c>
       <c r="C115" t="n">
-        <v>0.730054</v>
+        <v>0.731345</v>
       </c>
       <c r="D115" t="n">
-        <v>0.735449</v>
+        <v>0.737179</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.851065</v>
+        <v>0.851558</v>
       </c>
       <c r="C116" t="n">
-        <v>0.731533</v>
+        <v>0.732352</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7393150000000001</v>
+        <v>0.740486</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.84779</v>
+        <v>0.846058</v>
       </c>
       <c r="C117" t="n">
-        <v>0.7333</v>
+        <v>0.735155</v>
       </c>
       <c r="D117" t="n">
-        <v>0.740685</v>
+        <v>0.727793</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.833616</v>
+        <v>0.847888</v>
       </c>
       <c r="C118" t="n">
-        <v>0.736916</v>
+        <v>0.72139</v>
       </c>
       <c r="D118" t="n">
-        <v>0.743408</v>
+        <v>0.744511</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.85402</v>
+        <v>0.833077</v>
       </c>
       <c r="C119" t="n">
-        <v>0.739935</v>
+        <v>0.740875</v>
       </c>
       <c r="D119" t="n">
-        <v>0.747394</v>
+        <v>0.735353</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.857044</v>
+        <v>0.855042</v>
       </c>
       <c r="C120" t="n">
-        <v>0.744142</v>
+        <v>0.728272</v>
       </c>
       <c r="D120" t="n">
-        <v>0.752268</v>
+        <v>0.753315</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.8490490000000001</v>
+        <v>0.835157</v>
       </c>
       <c r="C121" t="n">
-        <v>0.7495540000000001</v>
+        <v>0.7344619999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>0.758426</v>
+        <v>0.747428</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.851066</v>
+        <v>0.849258</v>
       </c>
       <c r="C122" t="n">
-        <v>0.740045</v>
+        <v>0.757123</v>
       </c>
       <c r="D122" t="n">
-        <v>0.767159</v>
+        <v>0.76837</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.853969</v>
+        <v>0.840072</v>
       </c>
       <c r="C123" t="n">
-        <v>0.765153</v>
+        <v>0.765875</v>
       </c>
       <c r="D123" t="n">
-        <v>0.843457</v>
+        <v>0.8447750000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.09163</v>
+        <v>1.08548</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8315900000000001</v>
+        <v>0.832089</v>
       </c>
       <c r="D124" t="n">
-        <v>0.8446939999999999</v>
+        <v>0.838583</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.08561</v>
+        <v>1.10633</v>
       </c>
       <c r="C125" t="n">
-        <v>0.824978</v>
+        <v>0.832962</v>
       </c>
       <c r="D125" t="n">
-        <v>0.838129</v>
+        <v>0.847942</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.09955</v>
+        <v>1.11503</v>
       </c>
       <c r="C126" t="n">
-        <v>0.833493</v>
+        <v>0.83418</v>
       </c>
       <c r="D126" t="n">
-        <v>0.840456</v>
+        <v>0.848548</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.1095</v>
+        <v>1.08577</v>
       </c>
       <c r="C127" t="n">
-        <v>0.835297</v>
+        <v>0.836375</v>
       </c>
       <c r="D127" t="n">
-        <v>0.841545</v>
+        <v>0.851611</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.10344</v>
+        <v>1.10605</v>
       </c>
       <c r="C128" t="n">
-        <v>0.829301</v>
+        <v>0.8315399999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>0.843948</v>
+        <v>0.852748</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.12442</v>
+        <v>1.10538</v>
       </c>
       <c r="C129" t="n">
-        <v>0.839289</v>
+        <v>0.838875</v>
       </c>
       <c r="D129" t="n">
-        <v>0.846692</v>
+        <v>0.854541</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.11588</v>
+        <v>1.1124</v>
       </c>
       <c r="C130" t="n">
-        <v>0.841016</v>
+        <v>0.834772</v>
       </c>
       <c r="D130" t="n">
-        <v>0.855905</v>
+        <v>0.858038</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.1028</v>
+        <v>1.11205</v>
       </c>
       <c r="C131" t="n">
-        <v>0.844204</v>
+        <v>0.84468</v>
       </c>
       <c r="D131" t="n">
-        <v>0.859634</v>
+        <v>0.861103</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.10773</v>
+        <v>1.09707</v>
       </c>
       <c r="C132" t="n">
-        <v>0.848359</v>
+        <v>0.848916</v>
       </c>
       <c r="D132" t="n">
-        <v>0.864456</v>
+        <v>0.865106</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.1181</v>
+        <v>1.11556</v>
       </c>
       <c r="C133" t="n">
-        <v>0.851708</v>
+        <v>0.854087</v>
       </c>
       <c r="D133" t="n">
-        <v>0.868233</v>
+        <v>0.871454</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.10423</v>
+        <v>1.12353</v>
       </c>
       <c r="C134" t="n">
-        <v>0.8517</v>
+        <v>0.857887</v>
       </c>
       <c r="D134" t="n">
-        <v>0.875486</v>
+        <v>0.869834</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.10523</v>
+        <v>1.09374</v>
       </c>
       <c r="C135" t="n">
-        <v>0.857928</v>
+        <v>0.859087</v>
       </c>
       <c r="D135" t="n">
-        <v>0.884854</v>
+        <v>0.886257</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.11177</v>
+        <v>1.11762</v>
       </c>
       <c r="C136" t="n">
-        <v>0.872234</v>
+        <v>0.873582</v>
       </c>
       <c r="D136" t="n">
-        <v>0.896925</v>
+        <v>0.897916</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.10561</v>
+        <v>1.11589</v>
       </c>
       <c r="C137" t="n">
-        <v>0.884336</v>
+        <v>0.885977</v>
       </c>
       <c r="D137" t="n">
-        <v>0.8953950000000001</v>
+        <v>0.896296</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.33686</v>
+        <v>1.33924</v>
       </c>
       <c r="C138" t="n">
-        <v>0.878804</v>
+        <v>0.877715</v>
       </c>
       <c r="D138" t="n">
-        <v>0.892832</v>
+        <v>0.897215</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.33725</v>
+        <v>1.32308</v>
       </c>
       <c r="C139" t="n">
-        <v>0.877123</v>
+        <v>0.881804</v>
       </c>
       <c r="D139" t="n">
-        <v>0.895358</v>
+        <v>0.8985610000000001</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.34006</v>
+        <v>1.33793</v>
       </c>
       <c r="C140" t="n">
-        <v>0.882872</v>
+        <v>0.881754</v>
       </c>
       <c r="D140" t="n">
-        <v>0.900575</v>
+        <v>0.897263</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.32345</v>
+        <v>1.32599</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8813839999999999</v>
+        <v>0.884185</v>
       </c>
       <c r="D141" t="n">
-        <v>0.89837</v>
+        <v>0.901778</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.34072</v>
+        <v>1.3375</v>
       </c>
       <c r="C142" t="n">
-        <v>0.886378</v>
+        <v>0.885806</v>
       </c>
       <c r="D142" t="n">
-        <v>0.902024</v>
+        <v>0.9046149999999999</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.33945</v>
+        <v>1.32606</v>
       </c>
       <c r="C143" t="n">
-        <v>0.890039</v>
+        <v>0.88854</v>
       </c>
       <c r="D143" t="n">
-        <v>0.905107</v>
+        <v>0.903528</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.242481</v>
+        <v>0.242056</v>
       </c>
       <c r="C2" t="n">
-        <v>0.237676</v>
+        <v>0.237344</v>
       </c>
       <c r="D2" t="n">
-        <v>0.246688</v>
+        <v>0.245691</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.241338</v>
+        <v>0.240424</v>
       </c>
       <c r="C3" t="n">
-        <v>0.236885</v>
+        <v>0.236358</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2462</v>
+        <v>0.2453</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.243293</v>
+        <v>0.242716</v>
       </c>
       <c r="C4" t="n">
-        <v>0.23977</v>
+        <v>0.238943</v>
       </c>
       <c r="D4" t="n">
-        <v>0.249728</v>
+        <v>0.248779</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.245615</v>
+        <v>0.244986</v>
       </c>
       <c r="C5" t="n">
-        <v>0.242971</v>
+        <v>0.241921</v>
       </c>
       <c r="D5" t="n">
-        <v>0.253553</v>
+        <v>0.252582</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.244236</v>
+        <v>0.244183</v>
       </c>
       <c r="C6" t="n">
-        <v>0.243793</v>
+        <v>0.243597</v>
       </c>
       <c r="D6" t="n">
-        <v>0.255541</v>
+        <v>0.255429</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.247328</v>
+        <v>0.247023</v>
       </c>
       <c r="C7" t="n">
-        <v>0.247033</v>
+        <v>0.247032</v>
       </c>
       <c r="D7" t="n">
-        <v>0.261298</v>
+        <v>0.261222</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.250555</v>
+        <v>0.250507</v>
       </c>
       <c r="C8" t="n">
-        <v>0.252542</v>
+        <v>0.25225</v>
       </c>
       <c r="D8" t="n">
-        <v>0.268893</v>
+        <v>0.268544</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.258371</v>
+        <v>0.258275</v>
       </c>
       <c r="C9" t="n">
-        <v>0.260982</v>
+        <v>0.260621</v>
       </c>
       <c r="D9" t="n">
-        <v>0.246112</v>
+        <v>0.247405</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.249383</v>
+        <v>0.25258</v>
       </c>
       <c r="C10" t="n">
-        <v>0.23973</v>
+        <v>0.244325</v>
       </c>
       <c r="D10" t="n">
-        <v>0.246125</v>
+        <v>0.248864</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.249102</v>
+        <v>0.248458</v>
       </c>
       <c r="C11" t="n">
-        <v>0.239739</v>
+        <v>0.239086</v>
       </c>
       <c r="D11" t="n">
-        <v>0.246159</v>
+        <v>0.245425</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.250479</v>
+        <v>0.25178</v>
       </c>
       <c r="C12" t="n">
-        <v>0.24131</v>
+        <v>0.240671</v>
       </c>
       <c r="D12" t="n">
-        <v>0.24773</v>
+        <v>0.247055</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.249642</v>
+        <v>0.253136</v>
       </c>
       <c r="C13" t="n">
-        <v>0.24183</v>
+        <v>0.243253</v>
       </c>
       <c r="D13" t="n">
-        <v>0.248159</v>
+        <v>0.248414</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.250327</v>
+        <v>0.251441</v>
       </c>
       <c r="C14" t="n">
-        <v>0.242078</v>
+        <v>0.242643</v>
       </c>
       <c r="D14" t="n">
-        <v>0.248584</v>
+        <v>0.24812</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.250568</v>
+        <v>0.251419</v>
       </c>
       <c r="C15" t="n">
-        <v>0.243254</v>
+        <v>0.243729</v>
       </c>
       <c r="D15" t="n">
-        <v>0.249982</v>
+        <v>0.249192</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.250943</v>
+        <v>0.250699</v>
       </c>
       <c r="C16" t="n">
-        <v>0.243919</v>
+        <v>0.245028</v>
       </c>
       <c r="D16" t="n">
-        <v>0.250886</v>
+        <v>0.250695</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.25189</v>
+        <v>0.252746</v>
       </c>
       <c r="C17" t="n">
-        <v>0.244957</v>
+        <v>0.245912</v>
       </c>
       <c r="D17" t="n">
-        <v>0.252072</v>
+        <v>0.25269</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.251367</v>
+        <v>0.253824</v>
       </c>
       <c r="C18" t="n">
-        <v>0.245669</v>
+        <v>0.247016</v>
       </c>
       <c r="D18" t="n">
-        <v>0.253182</v>
+        <v>0.254117</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.252889</v>
+        <v>0.253897</v>
       </c>
       <c r="C19" t="n">
-        <v>0.248613</v>
+        <v>0.247751</v>
       </c>
       <c r="D19" t="n">
-        <v>0.256368</v>
+        <v>0.255407</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.25369</v>
+        <v>0.253916</v>
       </c>
       <c r="C20" t="n">
-        <v>0.249317</v>
+        <v>0.249518</v>
       </c>
       <c r="D20" t="n">
-        <v>0.258356</v>
+        <v>0.258238</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.255796</v>
+        <v>0.257149</v>
       </c>
       <c r="C21" t="n">
-        <v>0.25213</v>
+        <v>0.253121</v>
       </c>
       <c r="D21" t="n">
-        <v>0.26278</v>
+        <v>0.263257</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.258635</v>
+        <v>0.259692</v>
       </c>
       <c r="C22" t="n">
-        <v>0.255812</v>
+        <v>0.25599</v>
       </c>
       <c r="D22" t="n">
-        <v>0.268451</v>
+        <v>0.268385</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.26335</v>
+        <v>0.265681</v>
       </c>
       <c r="C23" t="n">
-        <v>0.261354</v>
+        <v>0.263473</v>
       </c>
       <c r="D23" t="n">
-        <v>0.256585</v>
+        <v>0.256877</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.270931</v>
+        <v>0.270993</v>
       </c>
       <c r="C24" t="n">
-        <v>0.244922</v>
+        <v>0.245015</v>
       </c>
       <c r="D24" t="n">
-        <v>0.257808</v>
+        <v>0.257816</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.270316</v>
+        <v>0.26995</v>
       </c>
       <c r="C25" t="n">
-        <v>0.244218</v>
+        <v>0.245366</v>
       </c>
       <c r="D25" t="n">
-        <v>0.257876</v>
+        <v>0.257012</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.272536</v>
+        <v>0.270288</v>
       </c>
       <c r="C26" t="n">
-        <v>0.244536</v>
+        <v>0.246354</v>
       </c>
       <c r="D26" t="n">
-        <v>0.257796</v>
+        <v>0.258064</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.27185</v>
+        <v>0.270333</v>
       </c>
       <c r="C27" t="n">
-        <v>0.246013</v>
+        <v>0.246242</v>
       </c>
       <c r="D27" t="n">
-        <v>0.257684</v>
+        <v>0.259614</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.272534</v>
+        <v>0.272654</v>
       </c>
       <c r="C28" t="n">
-        <v>0.24729</v>
+        <v>0.247425</v>
       </c>
       <c r="D28" t="n">
-        <v>0.259062</v>
+        <v>0.260048</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.270072</v>
+        <v>0.271794</v>
       </c>
       <c r="C29" t="n">
-        <v>0.247329</v>
+        <v>0.248128</v>
       </c>
       <c r="D29" t="n">
-        <v>0.259545</v>
+        <v>0.260257</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.271278</v>
+        <v>0.273004</v>
       </c>
       <c r="C30" t="n">
-        <v>0.247911</v>
+        <v>0.249285</v>
       </c>
       <c r="D30" t="n">
-        <v>0.259733</v>
+        <v>0.261183</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.27232</v>
+        <v>0.273405</v>
       </c>
       <c r="C31" t="n">
-        <v>0.24889</v>
+        <v>0.250547</v>
       </c>
       <c r="D31" t="n">
-        <v>0.260825</v>
+        <v>0.263517</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.273729</v>
+        <v>0.274321</v>
       </c>
       <c r="C32" t="n">
-        <v>0.251178</v>
+        <v>0.251685</v>
       </c>
       <c r="D32" t="n">
-        <v>0.263062</v>
+        <v>0.265031</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.275452</v>
+        <v>0.275056</v>
       </c>
       <c r="C33" t="n">
-        <v>0.252854</v>
+        <v>0.254419</v>
       </c>
       <c r="D33" t="n">
-        <v>0.265982</v>
+        <v>0.266563</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.275429</v>
+        <v>0.275237</v>
       </c>
       <c r="C34" t="n">
-        <v>0.254923</v>
+        <v>0.257101</v>
       </c>
       <c r="D34" t="n">
-        <v>0.268209</v>
+        <v>0.26978</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.276167</v>
+        <v>0.277452</v>
       </c>
       <c r="C35" t="n">
-        <v>0.25747</v>
+        <v>0.259744</v>
       </c>
       <c r="D35" t="n">
-        <v>0.271487</v>
+        <v>0.273969</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.277289</v>
+        <v>0.280291</v>
       </c>
       <c r="C36" t="n">
-        <v>0.261091</v>
+        <v>0.263583</v>
       </c>
       <c r="D36" t="n">
-        <v>0.276702</v>
+        <v>0.279538</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.282079</v>
+        <v>0.283777</v>
       </c>
       <c r="C37" t="n">
-        <v>0.266295</v>
+        <v>0.269696</v>
       </c>
       <c r="D37" t="n">
-        <v>0.280419</v>
+        <v>0.280366</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.302886</v>
+        <v>0.30224</v>
       </c>
       <c r="C38" t="n">
-        <v>0.266125</v>
+        <v>0.266455</v>
       </c>
       <c r="D38" t="n">
-        <v>0.279484</v>
+        <v>0.280397</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.303489</v>
+        <v>0.303044</v>
       </c>
       <c r="C39" t="n">
-        <v>0.266803</v>
+        <v>0.265624</v>
       </c>
       <c r="D39" t="n">
-        <v>0.279652</v>
+        <v>0.279183</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.302686</v>
+        <v>0.30089</v>
       </c>
       <c r="C40" t="n">
-        <v>0.267479</v>
+        <v>0.266394</v>
       </c>
       <c r="D40" t="n">
-        <v>0.279921</v>
+        <v>0.280103</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.303751</v>
+        <v>0.302807</v>
       </c>
       <c r="C41" t="n">
-        <v>0.268131</v>
+        <v>0.267567</v>
       </c>
       <c r="D41" t="n">
-        <v>0.28041</v>
+        <v>0.28126</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.303446</v>
+        <v>0.301964</v>
       </c>
       <c r="C42" t="n">
-        <v>0.269341</v>
+        <v>0.26747</v>
       </c>
       <c r="D42" t="n">
-        <v>0.281478</v>
+        <v>0.280675</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.30261</v>
+        <v>0.303136</v>
       </c>
       <c r="C43" t="n">
-        <v>0.270392</v>
+        <v>0.269241</v>
       </c>
       <c r="D43" t="n">
-        <v>0.282386</v>
+        <v>0.282718</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.30402</v>
+        <v>0.303263</v>
       </c>
       <c r="C44" t="n">
-        <v>0.27144</v>
+        <v>0.271309</v>
       </c>
       <c r="D44" t="n">
-        <v>0.283166</v>
+        <v>0.283626</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.302875</v>
+        <v>0.303353</v>
       </c>
       <c r="C45" t="n">
-        <v>0.272453</v>
+        <v>0.2709</v>
       </c>
       <c r="D45" t="n">
-        <v>0.284194</v>
+        <v>0.28401</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.303803</v>
+        <v>0.304907</v>
       </c>
       <c r="C46" t="n">
-        <v>0.274303</v>
+        <v>0.274426</v>
       </c>
       <c r="D46" t="n">
-        <v>0.286031</v>
+        <v>0.28679</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.30515</v>
+        <v>0.304535</v>
       </c>
       <c r="C47" t="n">
-        <v>0.275455</v>
+        <v>0.275442</v>
       </c>
       <c r="D47" t="n">
-        <v>0.28749</v>
+        <v>0.287668</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.306035</v>
+        <v>0.30506</v>
       </c>
       <c r="C48" t="n">
-        <v>0.27778</v>
+        <v>0.277393</v>
       </c>
       <c r="D48" t="n">
-        <v>0.290586</v>
+        <v>0.290065</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.307263</v>
+        <v>0.30747</v>
       </c>
       <c r="C49" t="n">
-        <v>0.280564</v>
+        <v>0.280534</v>
       </c>
       <c r="D49" t="n">
-        <v>0.29396</v>
+        <v>0.29379</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.310816</v>
+        <v>0.309985</v>
       </c>
       <c r="C50" t="n">
-        <v>0.285412</v>
+        <v>0.284589</v>
       </c>
       <c r="D50" t="n">
-        <v>0.300724</v>
+        <v>0.299047</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.312244</v>
+        <v>0.310486</v>
       </c>
       <c r="C51" t="n">
-        <v>0.289166</v>
+        <v>0.289066</v>
       </c>
       <c r="D51" t="n">
-        <v>0.292249</v>
+        <v>0.290511</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.316142</v>
+        <v>0.315252</v>
       </c>
       <c r="C52" t="n">
-        <v>0.295428</v>
+        <v>0.295386</v>
       </c>
       <c r="D52" t="n">
-        <v>0.293199</v>
+        <v>0.292409</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.329606</v>
+        <v>0.327718</v>
       </c>
       <c r="C53" t="n">
-        <v>0.281499</v>
+        <v>0.282287</v>
       </c>
       <c r="D53" t="n">
-        <v>0.291697</v>
+        <v>0.292285</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.32978</v>
+        <v>0.329311</v>
       </c>
       <c r="C54" t="n">
-        <v>0.283041</v>
+        <v>0.283279</v>
       </c>
       <c r="D54" t="n">
-        <v>0.292283</v>
+        <v>0.292407</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.33156</v>
+        <v>0.32932</v>
       </c>
       <c r="C55" t="n">
-        <v>0.284689</v>
+        <v>0.28412</v>
       </c>
       <c r="D55" t="n">
-        <v>0.293308</v>
+        <v>0.293476</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.330798</v>
+        <v>0.330213</v>
       </c>
       <c r="C56" t="n">
-        <v>0.285491</v>
+        <v>0.284952</v>
       </c>
       <c r="D56" t="n">
-        <v>0.294034</v>
+        <v>0.295595</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.330933</v>
+        <v>0.329889</v>
       </c>
       <c r="C57" t="n">
-        <v>0.286919</v>
+        <v>0.286195</v>
       </c>
       <c r="D57" t="n">
-        <v>0.295432</v>
+        <v>0.294943</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.332303</v>
+        <v>0.330644</v>
       </c>
       <c r="C58" t="n">
-        <v>0.287144</v>
+        <v>0.286229</v>
       </c>
       <c r="D58" t="n">
-        <v>0.295969</v>
+        <v>0.295854</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.329846</v>
+        <v>0.330983</v>
       </c>
       <c r="C59" t="n">
-        <v>0.285508</v>
+        <v>0.288087</v>
       </c>
       <c r="D59" t="n">
-        <v>0.294681</v>
+        <v>0.296867</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.331471</v>
+        <v>0.330918</v>
       </c>
       <c r="C60" t="n">
-        <v>0.28951</v>
+        <v>0.289615</v>
       </c>
       <c r="D60" t="n">
-        <v>0.29807</v>
+        <v>0.298668</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.330703</v>
+        <v>0.330498</v>
       </c>
       <c r="C61" t="n">
-        <v>0.291246</v>
+        <v>0.291043</v>
       </c>
       <c r="D61" t="n">
-        <v>0.300187</v>
+        <v>0.300254</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.331393</v>
+        <v>0.332151</v>
       </c>
       <c r="C62" t="n">
-        <v>0.294081</v>
+        <v>0.29309</v>
       </c>
       <c r="D62" t="n">
-        <v>0.302982</v>
+        <v>0.303732</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.334446</v>
+        <v>0.33326</v>
       </c>
       <c r="C63" t="n">
-        <v>0.296382</v>
+        <v>0.296379</v>
       </c>
       <c r="D63" t="n">
-        <v>0.305818</v>
+        <v>0.306557</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.336076</v>
+        <v>0.335612</v>
       </c>
       <c r="C64" t="n">
-        <v>0.300182</v>
+        <v>0.298723</v>
       </c>
       <c r="D64" t="n">
-        <v>0.311697</v>
+        <v>0.310861</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.337608</v>
+        <v>0.339494</v>
       </c>
       <c r="C65" t="n">
-        <v>0.304512</v>
+        <v>0.304469</v>
       </c>
       <c r="D65" t="n">
-        <v>0.32017</v>
+        <v>0.318747</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.340587</v>
+        <v>0.343052</v>
       </c>
       <c r="C66" t="n">
-        <v>0.306815</v>
+        <v>0.310316</v>
       </c>
       <c r="D66" t="n">
-        <v>0.300939</v>
+        <v>0.29921</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.345029</v>
+        <v>0.348805</v>
       </c>
       <c r="C67" t="n">
-        <v>0.294037</v>
+        <v>0.29278</v>
       </c>
       <c r="D67" t="n">
-        <v>0.298893</v>
+        <v>0.299294</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.34804</v>
+        <v>0.34909</v>
       </c>
       <c r="C68" t="n">
-        <v>0.295173</v>
+        <v>0.293815</v>
       </c>
       <c r="D68" t="n">
-        <v>0.301095</v>
+        <v>0.299515</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.34913</v>
+        <v>0.349312</v>
       </c>
       <c r="C69" t="n">
-        <v>0.296006</v>
+        <v>0.294883</v>
       </c>
       <c r="D69" t="n">
-        <v>0.302017</v>
+        <v>0.300226</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.348785</v>
+        <v>0.349337</v>
       </c>
       <c r="C70" t="n">
-        <v>0.296827</v>
+        <v>0.296292</v>
       </c>
       <c r="D70" t="n">
-        <v>0.302591</v>
+        <v>0.301171</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.349373</v>
+        <v>0.349652</v>
       </c>
       <c r="C71" t="n">
-        <v>0.297441</v>
+        <v>0.29596</v>
       </c>
       <c r="D71" t="n">
-        <v>0.303271</v>
+        <v>0.301599</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.349618</v>
+        <v>0.349549</v>
       </c>
       <c r="C72" t="n">
-        <v>0.298865</v>
+        <v>0.297467</v>
       </c>
       <c r="D72" t="n">
-        <v>0.304284</v>
+        <v>0.30252</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.349746</v>
+        <v>0.350028</v>
       </c>
       <c r="C73" t="n">
-        <v>0.301183</v>
+        <v>0.298224</v>
       </c>
       <c r="D73" t="n">
-        <v>0.30574</v>
+        <v>0.304095</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.350582</v>
+        <v>0.350457</v>
       </c>
       <c r="C74" t="n">
-        <v>0.301917</v>
+        <v>0.299597</v>
       </c>
       <c r="D74" t="n">
-        <v>0.305217</v>
+        <v>0.305252</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.350756</v>
+        <v>0.350764</v>
       </c>
       <c r="C75" t="n">
-        <v>0.304539</v>
+        <v>0.301663</v>
       </c>
       <c r="D75" t="n">
-        <v>0.309482</v>
+        <v>0.307003</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.35179</v>
+        <v>0.351499</v>
       </c>
       <c r="C76" t="n">
-        <v>0.304945</v>
+        <v>0.301747</v>
       </c>
       <c r="D76" t="n">
-        <v>0.311444</v>
+        <v>0.309272</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.352823</v>
+        <v>0.352822</v>
       </c>
       <c r="C77" t="n">
-        <v>0.307384</v>
+        <v>0.306611</v>
       </c>
       <c r="D77" t="n">
-        <v>0.313899</v>
+        <v>0.312718</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.355033</v>
+        <v>0.354507</v>
       </c>
       <c r="C78" t="n">
-        <v>0.310636</v>
+        <v>0.310341</v>
       </c>
       <c r="D78" t="n">
-        <v>0.318243</v>
+        <v>0.318161</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.356554</v>
+        <v>0.357221</v>
       </c>
       <c r="C79" t="n">
-        <v>0.316131</v>
+        <v>0.312998</v>
       </c>
       <c r="D79" t="n">
-        <v>0.327318</v>
+        <v>0.324893</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.360768</v>
+        <v>0.360567</v>
       </c>
       <c r="C80" t="n">
-        <v>0.320924</v>
+        <v>0.319717</v>
       </c>
       <c r="D80" t="n">
-        <v>0.309085</v>
+        <v>0.312442</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.370596</v>
+        <v>0.391703</v>
       </c>
       <c r="C81" t="n">
-        <v>0.288995</v>
+        <v>0.295715</v>
       </c>
       <c r="D81" t="n">
-        <v>0.303865</v>
+        <v>0.305959</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.35908</v>
+        <v>0.374547</v>
       </c>
       <c r="C82" t="n">
-        <v>0.296302</v>
+        <v>0.298553</v>
       </c>
       <c r="D82" t="n">
-        <v>0.311241</v>
+        <v>0.311354</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.369788</v>
+        <v>0.37744</v>
       </c>
       <c r="C83" t="n">
-        <v>0.299383</v>
+        <v>0.29914</v>
       </c>
       <c r="D83" t="n">
-        <v>0.314874</v>
+        <v>0.312184</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.369645</v>
+        <v>0.380149</v>
       </c>
       <c r="C84" t="n">
-        <v>0.297655</v>
+        <v>0.300252</v>
       </c>
       <c r="D84" t="n">
-        <v>0.312384</v>
+        <v>0.313182</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.371215</v>
+        <v>0.372501</v>
       </c>
       <c r="C85" t="n">
-        <v>0.298193</v>
+        <v>0.305038</v>
       </c>
       <c r="D85" t="n">
-        <v>0.313237</v>
+        <v>0.317379</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.370173</v>
+        <v>0.378673</v>
       </c>
       <c r="C86" t="n">
-        <v>0.29879</v>
+        <v>0.303806</v>
       </c>
       <c r="D86" t="n">
-        <v>0.313884</v>
+        <v>0.316585</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.370055</v>
+        <v>0.382956</v>
       </c>
       <c r="C87" t="n">
-        <v>0.300076</v>
+        <v>0.303486</v>
       </c>
       <c r="D87" t="n">
-        <v>0.315704</v>
+        <v>0.319708</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.371222</v>
+        <v>0.376266</v>
       </c>
       <c r="C88" t="n">
-        <v>0.30134</v>
+        <v>0.295124</v>
       </c>
       <c r="D88" t="n">
-        <v>0.316656</v>
+        <v>0.310796</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.371314</v>
+        <v>0.368549</v>
       </c>
       <c r="C89" t="n">
-        <v>0.302298</v>
+        <v>0.295092</v>
       </c>
       <c r="D89" t="n">
-        <v>0.318064</v>
+        <v>0.310483</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.372112</v>
+        <v>0.36607</v>
       </c>
       <c r="C90" t="n">
-        <v>0.304438</v>
+        <v>0.300271</v>
       </c>
       <c r="D90" t="n">
-        <v>0.320273</v>
+        <v>0.31368</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.373278</v>
+        <v>0.366805</v>
       </c>
       <c r="C91" t="n">
-        <v>0.306347</v>
+        <v>0.301405</v>
       </c>
       <c r="D91" t="n">
-        <v>0.323479</v>
+        <v>0.318721</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.374217</v>
+        <v>0.367623</v>
       </c>
       <c r="C92" t="n">
-        <v>0.310191</v>
+        <v>0.311692</v>
       </c>
       <c r="D92" t="n">
-        <v>0.328251</v>
+        <v>0.328396</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.377269</v>
+        <v>0.382051</v>
       </c>
       <c r="C93" t="n">
-        <v>0.305574</v>
+        <v>0.314744</v>
       </c>
       <c r="D93" t="n">
-        <v>0.326418</v>
+        <v>0.334615</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.369955</v>
+        <v>0.382681</v>
       </c>
       <c r="C94" t="n">
-        <v>0.319544</v>
+        <v>0.320928</v>
       </c>
       <c r="D94" t="n">
-        <v>0.45468</v>
+        <v>0.470922</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.555824</v>
+        <v>0.576983</v>
       </c>
       <c r="C95" t="n">
-        <v>0.462944</v>
+        <v>0.481096</v>
       </c>
       <c r="D95" t="n">
-        <v>0.461988</v>
+        <v>0.466093</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.539865</v>
+        <v>0.565261</v>
       </c>
       <c r="C96" t="n">
-        <v>0.452221</v>
+        <v>0.479714</v>
       </c>
       <c r="D96" t="n">
-        <v>0.434573</v>
+        <v>0.469271</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.548031</v>
+        <v>0.573712</v>
       </c>
       <c r="C97" t="n">
-        <v>0.456281</v>
+        <v>0.447171</v>
       </c>
       <c r="D97" t="n">
-        <v>0.447337</v>
+        <v>0.436852</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.54984</v>
+        <v>0.521926</v>
       </c>
       <c r="C98" t="n">
-        <v>0.425151</v>
+        <v>0.47546</v>
       </c>
       <c r="D98" t="n">
-        <v>0.420773</v>
+        <v>0.462083</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.504752</v>
+        <v>0.568245</v>
       </c>
       <c r="C99" t="n">
-        <v>0.464335</v>
+        <v>0.475476</v>
       </c>
       <c r="D99" t="n">
-        <v>0.447011</v>
+        <v>0.459768</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.555274</v>
+        <v>0.560091</v>
       </c>
       <c r="C100" t="n">
-        <v>0.466078</v>
+        <v>0.474804</v>
       </c>
       <c r="D100" t="n">
-        <v>0.446314</v>
+        <v>0.462192</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.548135</v>
+        <v>0.5701000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.438626</v>
+        <v>0.480178</v>
       </c>
       <c r="D101" t="n">
-        <v>0.418902</v>
+        <v>0.468847</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.525242</v>
+        <v>0.574062</v>
       </c>
       <c r="C102" t="n">
-        <v>0.478118</v>
+        <v>0.490429</v>
       </c>
       <c r="D102" t="n">
-        <v>0.452192</v>
+        <v>0.478498</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5567879999999999</v>
+        <v>0.578848</v>
       </c>
       <c r="C103" t="n">
-        <v>0.47327</v>
+        <v>0.483954</v>
       </c>
       <c r="D103" t="n">
-        <v>0.451839</v>
+        <v>0.463372</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.570201</v>
+        <v>0.567923</v>
       </c>
       <c r="C104" t="n">
-        <v>0.455107</v>
+        <v>0.484099</v>
       </c>
       <c r="D104" t="n">
-        <v>0.43859</v>
+        <v>0.470346</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.51779</v>
+        <v>0.569565</v>
       </c>
       <c r="C105" t="n">
-        <v>0.440528</v>
+        <v>0.479518</v>
       </c>
       <c r="D105" t="n">
-        <v>0.423044</v>
+        <v>0.466785</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.522712</v>
+        <v>0.5603</v>
       </c>
       <c r="C106" t="n">
-        <v>0.496074</v>
+        <v>0.483627</v>
       </c>
       <c r="D106" t="n">
-        <v>0.468847</v>
+        <v>0.471996</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.568236</v>
+        <v>0.555076</v>
       </c>
       <c r="C107" t="n">
-        <v>0.456924</v>
+        <v>0.481892</v>
       </c>
       <c r="D107" t="n">
-        <v>0.433603</v>
+        <v>0.47162</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.53025</v>
+        <v>0.553662</v>
       </c>
       <c r="C108" t="n">
-        <v>0.479367</v>
+        <v>0.484373</v>
       </c>
       <c r="D108" t="n">
-        <v>0.7280489999999999</v>
+        <v>0.729963</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.552014</v>
+        <v>0.548593</v>
       </c>
       <c r="C109" t="n">
-        <v>0.486569</v>
+        <v>0.491759</v>
       </c>
       <c r="D109" t="n">
-        <v>0.730589</v>
+        <v>0.73055</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.846226</v>
+        <v>0.836595</v>
       </c>
       <c r="C110" t="n">
-        <v>0.724866</v>
+        <v>0.7272189999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.730654</v>
+        <v>0.7312689999999999</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.852692</v>
+        <v>0.855563</v>
       </c>
       <c r="C111" t="n">
-        <v>0.725816</v>
+        <v>0.7111499999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.731878</v>
+        <v>0.720876</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.835304</v>
+        <v>0.8527090000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.727171</v>
+        <v>0.729315</v>
       </c>
       <c r="D112" t="n">
-        <v>0.733411</v>
+        <v>0.733745</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.862557</v>
+        <v>0.849272</v>
       </c>
       <c r="C113" t="n">
-        <v>0.728793</v>
+        <v>0.712985</v>
       </c>
       <c r="D113" t="n">
-        <v>0.734456</v>
+        <v>0.735847</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.850051</v>
+        <v>0.8507209999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.712798</v>
+        <v>0.730399</v>
       </c>
       <c r="D114" t="n">
-        <v>0.736127</v>
+        <v>0.736424</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.86114</v>
+        <v>0.852658</v>
       </c>
       <c r="C115" t="n">
-        <v>0.731345</v>
+        <v>0.7307940000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.737179</v>
+        <v>0.738274</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.851558</v>
+        <v>0.852614</v>
       </c>
       <c r="C116" t="n">
-        <v>0.732352</v>
+        <v>0.7327979999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.740486</v>
+        <v>0.740034</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.846058</v>
+        <v>0.850291</v>
       </c>
       <c r="C117" t="n">
-        <v>0.735155</v>
+        <v>0.736727</v>
       </c>
       <c r="D117" t="n">
-        <v>0.727793</v>
+        <v>0.742285</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.847888</v>
+        <v>0.8519679999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>0.72139</v>
+        <v>0.7375660000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.744511</v>
+        <v>0.7455270000000001</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.833077</v>
+        <v>0.852033</v>
       </c>
       <c r="C119" t="n">
-        <v>0.740875</v>
+        <v>0.74044</v>
       </c>
       <c r="D119" t="n">
-        <v>0.735353</v>
+        <v>0.749233</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.855042</v>
+        <v>0.852702</v>
       </c>
       <c r="C120" t="n">
-        <v>0.728272</v>
+        <v>0.7459750000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.753315</v>
+        <v>0.754537</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.835157</v>
+        <v>0.853278</v>
       </c>
       <c r="C121" t="n">
-        <v>0.7344619999999999</v>
+        <v>0.750613</v>
       </c>
       <c r="D121" t="n">
-        <v>0.747428</v>
+        <v>0.762401</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.849258</v>
+        <v>0.8525509999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>0.757123</v>
+        <v>0.742596</v>
       </c>
       <c r="D122" t="n">
-        <v>0.76837</v>
+        <v>0.769898</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.840072</v>
+        <v>0.857616</v>
       </c>
       <c r="C123" t="n">
-        <v>0.765875</v>
+        <v>0.767269</v>
       </c>
       <c r="D123" t="n">
-        <v>0.8447750000000001</v>
+        <v>0.846154</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.08548</v>
+        <v>1.09745</v>
       </c>
       <c r="C124" t="n">
-        <v>0.832089</v>
+        <v>0.834456</v>
       </c>
       <c r="D124" t="n">
-        <v>0.838583</v>
+        <v>0.848388</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.10633</v>
+        <v>1.12481</v>
       </c>
       <c r="C125" t="n">
-        <v>0.832962</v>
+        <v>0.83511</v>
       </c>
       <c r="D125" t="n">
-        <v>0.847942</v>
+        <v>0.842078</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.11503</v>
+        <v>1.11388</v>
       </c>
       <c r="C126" t="n">
-        <v>0.83418</v>
+        <v>0.837346</v>
       </c>
       <c r="D126" t="n">
-        <v>0.848548</v>
+        <v>0.843601</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.08577</v>
+        <v>1.12336</v>
       </c>
       <c r="C127" t="n">
-        <v>0.836375</v>
+        <v>0.83689</v>
       </c>
       <c r="D127" t="n">
-        <v>0.851611</v>
+        <v>0.845658</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.10605</v>
+        <v>1.11497</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8315399999999999</v>
+        <v>0.839041</v>
       </c>
       <c r="D128" t="n">
-        <v>0.852748</v>
+        <v>0.8544040000000001</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.10538</v>
+        <v>1.12378</v>
       </c>
       <c r="C129" t="n">
-        <v>0.838875</v>
+        <v>0.840664</v>
       </c>
       <c r="D129" t="n">
-        <v>0.854541</v>
+        <v>0.856388</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.1124</v>
+        <v>1.09616</v>
       </c>
       <c r="C130" t="n">
-        <v>0.834772</v>
+        <v>0.8374</v>
       </c>
       <c r="D130" t="n">
-        <v>0.858038</v>
+        <v>0.852197</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.11205</v>
+        <v>1.12085</v>
       </c>
       <c r="C131" t="n">
-        <v>0.84468</v>
+        <v>0.8467710000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>0.861103</v>
+        <v>0.862291</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.09707</v>
+        <v>1.12374</v>
       </c>
       <c r="C132" t="n">
-        <v>0.848916</v>
+        <v>0.843616</v>
       </c>
       <c r="D132" t="n">
-        <v>0.865106</v>
+        <v>0.8659</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.11556</v>
+        <v>1.09342</v>
       </c>
       <c r="C133" t="n">
-        <v>0.854087</v>
+        <v>0.84777</v>
       </c>
       <c r="D133" t="n">
-        <v>0.871454</v>
+        <v>0.864298</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.12353</v>
+        <v>1.12178</v>
       </c>
       <c r="C134" t="n">
-        <v>0.857887</v>
+        <v>0.853834</v>
       </c>
       <c r="D134" t="n">
-        <v>0.869834</v>
+        <v>0.878833</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.09374</v>
+        <v>1.11874</v>
       </c>
       <c r="C135" t="n">
-        <v>0.859087</v>
+        <v>0.859212</v>
       </c>
       <c r="D135" t="n">
-        <v>0.886257</v>
+        <v>0.887032</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.11762</v>
+        <v>1.11868</v>
       </c>
       <c r="C136" t="n">
-        <v>0.873582</v>
+        <v>0.875165</v>
       </c>
       <c r="D136" t="n">
-        <v>0.897916</v>
+        <v>0.899706</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.11589</v>
+        <v>1.12468</v>
       </c>
       <c r="C137" t="n">
-        <v>0.885977</v>
+        <v>0.885649</v>
       </c>
       <c r="D137" t="n">
-        <v>0.896296</v>
+        <v>0.89475</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.33924</v>
+        <v>1.34288</v>
       </c>
       <c r="C138" t="n">
-        <v>0.877715</v>
+        <v>0.882506</v>
       </c>
       <c r="D138" t="n">
-        <v>0.897215</v>
+        <v>0.900433</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.32308</v>
+        <v>1.34415</v>
       </c>
       <c r="C139" t="n">
-        <v>0.881804</v>
+        <v>0.883949</v>
       </c>
       <c r="D139" t="n">
-        <v>0.8985610000000001</v>
+        <v>0.902282</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.33793</v>
+        <v>1.34104</v>
       </c>
       <c r="C140" t="n">
-        <v>0.881754</v>
+        <v>0.8844109999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>0.897263</v>
+        <v>0.903602</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.32599</v>
+        <v>1.33045</v>
       </c>
       <c r="C141" t="n">
-        <v>0.884185</v>
+        <v>0.888359</v>
       </c>
       <c r="D141" t="n">
-        <v>0.901778</v>
+        <v>0.905443</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.3375</v>
+        <v>1.34257</v>
       </c>
       <c r="C142" t="n">
-        <v>0.885806</v>
+        <v>0.889699</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9046149999999999</v>
+        <v>0.909016</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.32606</v>
+        <v>1.34427</v>
       </c>
       <c r="C143" t="n">
-        <v>0.88854</v>
+        <v>0.887646</v>
       </c>
       <c r="D143" t="n">
-        <v>0.903528</v>
+        <v>0.910314</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.242056</v>
+        <v>0.243109</v>
       </c>
       <c r="C2" t="n">
-        <v>0.237344</v>
+        <v>0.240904</v>
       </c>
       <c r="D2" t="n">
-        <v>0.245691</v>
+        <v>0.247792</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.240424</v>
+        <v>0.241874</v>
       </c>
       <c r="C3" t="n">
-        <v>0.236358</v>
+        <v>0.240086</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2453</v>
+        <v>0.246849</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.242716</v>
+        <v>0.244273</v>
       </c>
       <c r="C4" t="n">
-        <v>0.238943</v>
+        <v>0.243226</v>
       </c>
       <c r="D4" t="n">
-        <v>0.248779</v>
+        <v>0.250276</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.244986</v>
+        <v>0.246447</v>
       </c>
       <c r="C5" t="n">
-        <v>0.241921</v>
+        <v>0.246299</v>
       </c>
       <c r="D5" t="n">
-        <v>0.252582</v>
+        <v>0.253602</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.244183</v>
+        <v>0.244973</v>
       </c>
       <c r="C6" t="n">
-        <v>0.243597</v>
+        <v>0.246812</v>
       </c>
       <c r="D6" t="n">
-        <v>0.255429</v>
+        <v>0.255682</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.247023</v>
+        <v>0.247944</v>
       </c>
       <c r="C7" t="n">
-        <v>0.247032</v>
+        <v>0.250109</v>
       </c>
       <c r="D7" t="n">
-        <v>0.261222</v>
+        <v>0.261735</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.250507</v>
+        <v>0.251328</v>
       </c>
       <c r="C8" t="n">
-        <v>0.25225</v>
+        <v>0.255145</v>
       </c>
       <c r="D8" t="n">
-        <v>0.268544</v>
+        <v>0.269037</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.258275</v>
+        <v>0.259371</v>
       </c>
       <c r="C9" t="n">
-        <v>0.260621</v>
+        <v>0.263851</v>
       </c>
       <c r="D9" t="n">
-        <v>0.247405</v>
+        <v>0.248432</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.25258</v>
+        <v>0.254416</v>
       </c>
       <c r="C10" t="n">
-        <v>0.244325</v>
+        <v>0.248037</v>
       </c>
       <c r="D10" t="n">
-        <v>0.248864</v>
+        <v>0.249225</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.248458</v>
+        <v>0.253073</v>
       </c>
       <c r="C11" t="n">
-        <v>0.239086</v>
+        <v>0.2464</v>
       </c>
       <c r="D11" t="n">
-        <v>0.245425</v>
+        <v>0.248687</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.25178</v>
+        <v>0.252443</v>
       </c>
       <c r="C12" t="n">
-        <v>0.240671</v>
+        <v>0.245496</v>
       </c>
       <c r="D12" t="n">
-        <v>0.247055</v>
+        <v>0.248759</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.253136</v>
+        <v>0.255381</v>
       </c>
       <c r="C13" t="n">
-        <v>0.243253</v>
+        <v>0.248816</v>
       </c>
       <c r="D13" t="n">
-        <v>0.248414</v>
+        <v>0.250032</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.251441</v>
+        <v>0.255479</v>
       </c>
       <c r="C14" t="n">
-        <v>0.242643</v>
+        <v>0.248779</v>
       </c>
       <c r="D14" t="n">
-        <v>0.24812</v>
+        <v>0.250417</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.251419</v>
+        <v>0.252055</v>
       </c>
       <c r="C15" t="n">
-        <v>0.243729</v>
+        <v>0.247222</v>
       </c>
       <c r="D15" t="n">
-        <v>0.249192</v>
+        <v>0.250301</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.250699</v>
+        <v>0.256103</v>
       </c>
       <c r="C16" t="n">
-        <v>0.245028</v>
+        <v>0.252028</v>
       </c>
       <c r="D16" t="n">
-        <v>0.250695</v>
+        <v>0.253604</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.252746</v>
+        <v>0.258277</v>
       </c>
       <c r="C17" t="n">
-        <v>0.245912</v>
+        <v>0.251925</v>
       </c>
       <c r="D17" t="n">
-        <v>0.25269</v>
+        <v>0.253778</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.253824</v>
+        <v>0.253482</v>
       </c>
       <c r="C18" t="n">
-        <v>0.247016</v>
+        <v>0.249452</v>
       </c>
       <c r="D18" t="n">
-        <v>0.254117</v>
+        <v>0.254171</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.253897</v>
+        <v>0.255771</v>
       </c>
       <c r="C19" t="n">
-        <v>0.247751</v>
+        <v>0.254216</v>
       </c>
       <c r="D19" t="n">
-        <v>0.255407</v>
+        <v>0.257997</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.253916</v>
+        <v>0.259089</v>
       </c>
       <c r="C20" t="n">
-        <v>0.249518</v>
+        <v>0.255163</v>
       </c>
       <c r="D20" t="n">
-        <v>0.258238</v>
+        <v>0.259207</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.257149</v>
+        <v>0.25986</v>
       </c>
       <c r="C21" t="n">
-        <v>0.253121</v>
+        <v>0.255854</v>
       </c>
       <c r="D21" t="n">
-        <v>0.263257</v>
+        <v>0.263666</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.259692</v>
+        <v>0.26379</v>
       </c>
       <c r="C22" t="n">
-        <v>0.25599</v>
+        <v>0.260287</v>
       </c>
       <c r="D22" t="n">
-        <v>0.268385</v>
+        <v>0.269253</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.265681</v>
+        <v>0.268881</v>
       </c>
       <c r="C23" t="n">
-        <v>0.263473</v>
+        <v>0.268861</v>
       </c>
       <c r="D23" t="n">
-        <v>0.256877</v>
+        <v>0.259637</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.270993</v>
+        <v>0.268737</v>
       </c>
       <c r="C24" t="n">
-        <v>0.245015</v>
+        <v>0.250139</v>
       </c>
       <c r="D24" t="n">
-        <v>0.257816</v>
+        <v>0.260792</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.26995</v>
+        <v>0.267989</v>
       </c>
       <c r="C25" t="n">
-        <v>0.245366</v>
+        <v>0.249358</v>
       </c>
       <c r="D25" t="n">
-        <v>0.257012</v>
+        <v>0.258438</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.270288</v>
+        <v>0.268764</v>
       </c>
       <c r="C26" t="n">
-        <v>0.246354</v>
+        <v>0.248318</v>
       </c>
       <c r="D26" t="n">
-        <v>0.258064</v>
+        <v>0.259279</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.270333</v>
+        <v>0.268832</v>
       </c>
       <c r="C27" t="n">
-        <v>0.246242</v>
+        <v>0.248696</v>
       </c>
       <c r="D27" t="n">
-        <v>0.259614</v>
+        <v>0.258239</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.272654</v>
+        <v>0.270168</v>
       </c>
       <c r="C28" t="n">
-        <v>0.247425</v>
+        <v>0.250677</v>
       </c>
       <c r="D28" t="n">
-        <v>0.260048</v>
+        <v>0.259317</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.271794</v>
+        <v>0.269613</v>
       </c>
       <c r="C29" t="n">
-        <v>0.248128</v>
+        <v>0.250104</v>
       </c>
       <c r="D29" t="n">
-        <v>0.260257</v>
+        <v>0.258957</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.273004</v>
+        <v>0.270556</v>
       </c>
       <c r="C30" t="n">
-        <v>0.249285</v>
+        <v>0.252248</v>
       </c>
       <c r="D30" t="n">
-        <v>0.261183</v>
+        <v>0.260065</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.273405</v>
+        <v>0.271757</v>
       </c>
       <c r="C31" t="n">
-        <v>0.250547</v>
+        <v>0.253676</v>
       </c>
       <c r="D31" t="n">
-        <v>0.263517</v>
+        <v>0.262472</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.274321</v>
+        <v>0.275417</v>
       </c>
       <c r="C32" t="n">
-        <v>0.251685</v>
+        <v>0.254528</v>
       </c>
       <c r="D32" t="n">
-        <v>0.265031</v>
+        <v>0.264972</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.275056</v>
+        <v>0.277222</v>
       </c>
       <c r="C33" t="n">
-        <v>0.254419</v>
+        <v>0.256917</v>
       </c>
       <c r="D33" t="n">
-        <v>0.266563</v>
+        <v>0.266335</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.275237</v>
+        <v>0.27756</v>
       </c>
       <c r="C34" t="n">
-        <v>0.257101</v>
+        <v>0.259298</v>
       </c>
       <c r="D34" t="n">
-        <v>0.26978</v>
+        <v>0.268518</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.277452</v>
+        <v>0.278113</v>
       </c>
       <c r="C35" t="n">
-        <v>0.259744</v>
+        <v>0.262178</v>
       </c>
       <c r="D35" t="n">
-        <v>0.273969</v>
+        <v>0.27272</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.280291</v>
+        <v>0.281495</v>
       </c>
       <c r="C36" t="n">
-        <v>0.263583</v>
+        <v>0.265182</v>
       </c>
       <c r="D36" t="n">
-        <v>0.279538</v>
+        <v>0.278938</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.283777</v>
+        <v>0.286563</v>
       </c>
       <c r="C37" t="n">
-        <v>0.269696</v>
+        <v>0.271351</v>
       </c>
       <c r="D37" t="n">
-        <v>0.280366</v>
+        <v>0.280608</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.30224</v>
+        <v>0.304361</v>
       </c>
       <c r="C38" t="n">
-        <v>0.266455</v>
+        <v>0.269193</v>
       </c>
       <c r="D38" t="n">
-        <v>0.280397</v>
+        <v>0.279923</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.303044</v>
+        <v>0.305061</v>
       </c>
       <c r="C39" t="n">
-        <v>0.265624</v>
+        <v>0.271241</v>
       </c>
       <c r="D39" t="n">
-        <v>0.279183</v>
+        <v>0.280778</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.30089</v>
+        <v>0.303106</v>
       </c>
       <c r="C40" t="n">
-        <v>0.266394</v>
+        <v>0.272043</v>
       </c>
       <c r="D40" t="n">
-        <v>0.280103</v>
+        <v>0.281243</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.302807</v>
+        <v>0.303573</v>
       </c>
       <c r="C41" t="n">
-        <v>0.267567</v>
+        <v>0.272687</v>
       </c>
       <c r="D41" t="n">
-        <v>0.28126</v>
+        <v>0.281571</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.301964</v>
+        <v>0.304927</v>
       </c>
       <c r="C42" t="n">
-        <v>0.26747</v>
+        <v>0.273713</v>
       </c>
       <c r="D42" t="n">
-        <v>0.280675</v>
+        <v>0.282493</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.303136</v>
+        <v>0.305231</v>
       </c>
       <c r="C43" t="n">
-        <v>0.269241</v>
+        <v>0.275315</v>
       </c>
       <c r="D43" t="n">
-        <v>0.282718</v>
+        <v>0.283951</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.303263</v>
+        <v>0.305637</v>
       </c>
       <c r="C44" t="n">
-        <v>0.271309</v>
+        <v>0.27616</v>
       </c>
       <c r="D44" t="n">
-        <v>0.283626</v>
+        <v>0.284697</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.303353</v>
+        <v>0.305021</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2709</v>
+        <v>0.277795</v>
       </c>
       <c r="D45" t="n">
-        <v>0.28401</v>
+        <v>0.286145</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.304907</v>
+        <v>0.305507</v>
       </c>
       <c r="C46" t="n">
-        <v>0.274426</v>
+        <v>0.279262</v>
       </c>
       <c r="D46" t="n">
-        <v>0.28679</v>
+        <v>0.28773</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.304535</v>
+        <v>0.306967</v>
       </c>
       <c r="C47" t="n">
-        <v>0.275442</v>
+        <v>0.280371</v>
       </c>
       <c r="D47" t="n">
-        <v>0.287668</v>
+        <v>0.28883</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.30506</v>
+        <v>0.305767</v>
       </c>
       <c r="C48" t="n">
-        <v>0.277393</v>
+        <v>0.282355</v>
       </c>
       <c r="D48" t="n">
-        <v>0.290065</v>
+        <v>0.291422</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.30747</v>
+        <v>0.308047</v>
       </c>
       <c r="C49" t="n">
-        <v>0.280534</v>
+        <v>0.285112</v>
       </c>
       <c r="D49" t="n">
-        <v>0.29379</v>
+        <v>0.294841</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.309985</v>
+        <v>0.311637</v>
       </c>
       <c r="C50" t="n">
-        <v>0.284589</v>
+        <v>0.288983</v>
       </c>
       <c r="D50" t="n">
-        <v>0.299047</v>
+        <v>0.300336</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.310486</v>
+        <v>0.314405</v>
       </c>
       <c r="C51" t="n">
-        <v>0.289066</v>
+        <v>0.293757</v>
       </c>
       <c r="D51" t="n">
-        <v>0.290511</v>
+        <v>0.29374</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.315252</v>
+        <v>0.316522</v>
       </c>
       <c r="C52" t="n">
-        <v>0.295386</v>
+        <v>0.300057</v>
       </c>
       <c r="D52" t="n">
-        <v>0.292409</v>
+        <v>0.293683</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.327718</v>
+        <v>0.330424</v>
       </c>
       <c r="C53" t="n">
-        <v>0.282287</v>
+        <v>0.286227</v>
       </c>
       <c r="D53" t="n">
-        <v>0.292285</v>
+        <v>0.292664</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.329311</v>
+        <v>0.332506</v>
       </c>
       <c r="C54" t="n">
-        <v>0.283279</v>
+        <v>0.288419</v>
       </c>
       <c r="D54" t="n">
-        <v>0.292407</v>
+        <v>0.294114</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.32932</v>
+        <v>0.332067</v>
       </c>
       <c r="C55" t="n">
-        <v>0.28412</v>
+        <v>0.288408</v>
       </c>
       <c r="D55" t="n">
-        <v>0.293476</v>
+        <v>0.293608</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.330213</v>
+        <v>0.332691</v>
       </c>
       <c r="C56" t="n">
-        <v>0.284952</v>
+        <v>0.289545</v>
       </c>
       <c r="D56" t="n">
-        <v>0.295595</v>
+        <v>0.294785</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.329889</v>
+        <v>0.331463</v>
       </c>
       <c r="C57" t="n">
-        <v>0.286195</v>
+        <v>0.290074</v>
       </c>
       <c r="D57" t="n">
-        <v>0.294943</v>
+        <v>0.295098</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.330644</v>
+        <v>0.330498</v>
       </c>
       <c r="C58" t="n">
-        <v>0.286229</v>
+        <v>0.291621</v>
       </c>
       <c r="D58" t="n">
-        <v>0.295854</v>
+        <v>0.296382</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.330983</v>
+        <v>0.332257</v>
       </c>
       <c r="C59" t="n">
-        <v>0.288087</v>
+        <v>0.291944</v>
       </c>
       <c r="D59" t="n">
-        <v>0.296867</v>
+        <v>0.297201</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.330918</v>
+        <v>0.332531</v>
       </c>
       <c r="C60" t="n">
-        <v>0.289615</v>
+        <v>0.291796</v>
       </c>
       <c r="D60" t="n">
-        <v>0.298668</v>
+        <v>0.297592</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.330498</v>
+        <v>0.334117</v>
       </c>
       <c r="C61" t="n">
-        <v>0.291043</v>
+        <v>0.294815</v>
       </c>
       <c r="D61" t="n">
-        <v>0.300254</v>
+        <v>0.30027</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.332151</v>
+        <v>0.33568</v>
       </c>
       <c r="C62" t="n">
-        <v>0.29309</v>
+        <v>0.297619</v>
       </c>
       <c r="D62" t="n">
-        <v>0.303732</v>
+        <v>0.302951</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.33326</v>
+        <v>0.336115</v>
       </c>
       <c r="C63" t="n">
-        <v>0.296379</v>
+        <v>0.300471</v>
       </c>
       <c r="D63" t="n">
-        <v>0.306557</v>
+        <v>0.30655</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.335612</v>
+        <v>0.33595</v>
       </c>
       <c r="C64" t="n">
-        <v>0.298723</v>
+        <v>0.304209</v>
       </c>
       <c r="D64" t="n">
-        <v>0.310861</v>
+        <v>0.312173</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.339494</v>
+        <v>0.341029</v>
       </c>
       <c r="C65" t="n">
-        <v>0.304469</v>
+        <v>0.308697</v>
       </c>
       <c r="D65" t="n">
-        <v>0.318747</v>
+        <v>0.318546</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.343052</v>
+        <v>0.344892</v>
       </c>
       <c r="C66" t="n">
-        <v>0.310316</v>
+        <v>0.315234</v>
       </c>
       <c r="D66" t="n">
-        <v>0.29921</v>
+        <v>0.30102</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.348805</v>
+        <v>0.350106</v>
       </c>
       <c r="C67" t="n">
-        <v>0.29278</v>
+        <v>0.297969</v>
       </c>
       <c r="D67" t="n">
-        <v>0.299294</v>
+        <v>0.300469</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.34909</v>
+        <v>0.350082</v>
       </c>
       <c r="C68" t="n">
-        <v>0.293815</v>
+        <v>0.297891</v>
       </c>
       <c r="D68" t="n">
-        <v>0.299515</v>
+        <v>0.30046</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.349312</v>
+        <v>0.350037</v>
       </c>
       <c r="C69" t="n">
-        <v>0.294883</v>
+        <v>0.298951</v>
       </c>
       <c r="D69" t="n">
-        <v>0.300226</v>
+        <v>0.301192</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.349337</v>
+        <v>0.350641</v>
       </c>
       <c r="C70" t="n">
-        <v>0.296292</v>
+        <v>0.299901</v>
       </c>
       <c r="D70" t="n">
-        <v>0.301171</v>
+        <v>0.301397</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.349652</v>
+        <v>0.350359</v>
       </c>
       <c r="C71" t="n">
-        <v>0.29596</v>
+        <v>0.299784</v>
       </c>
       <c r="D71" t="n">
-        <v>0.301599</v>
+        <v>0.302248</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.349549</v>
+        <v>0.350672</v>
       </c>
       <c r="C72" t="n">
-        <v>0.297467</v>
+        <v>0.30076</v>
       </c>
       <c r="D72" t="n">
-        <v>0.30252</v>
+        <v>0.303465</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.350028</v>
+        <v>0.351295</v>
       </c>
       <c r="C73" t="n">
-        <v>0.298224</v>
+        <v>0.302701</v>
       </c>
       <c r="D73" t="n">
-        <v>0.304095</v>
+        <v>0.3053</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.350457</v>
+        <v>0.351789</v>
       </c>
       <c r="C74" t="n">
-        <v>0.299597</v>
+        <v>0.304324</v>
       </c>
       <c r="D74" t="n">
-        <v>0.305252</v>
+        <v>0.306682</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.350764</v>
+        <v>0.352064</v>
       </c>
       <c r="C75" t="n">
-        <v>0.301663</v>
+        <v>0.303988</v>
       </c>
       <c r="D75" t="n">
-        <v>0.307003</v>
+        <v>0.307751</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.351499</v>
+        <v>0.353133</v>
       </c>
       <c r="C76" t="n">
-        <v>0.301747</v>
+        <v>0.308312</v>
       </c>
       <c r="D76" t="n">
-        <v>0.309272</v>
+        <v>0.311181</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.352822</v>
+        <v>0.353626</v>
       </c>
       <c r="C77" t="n">
-        <v>0.306611</v>
+        <v>0.309056</v>
       </c>
       <c r="D77" t="n">
-        <v>0.312718</v>
+        <v>0.313408</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.354507</v>
+        <v>0.355752</v>
       </c>
       <c r="C78" t="n">
-        <v>0.310341</v>
+        <v>0.312907</v>
       </c>
       <c r="D78" t="n">
-        <v>0.318161</v>
+        <v>0.318816</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.357221</v>
+        <v>0.35788</v>
       </c>
       <c r="C79" t="n">
-        <v>0.312998</v>
+        <v>0.317346</v>
       </c>
       <c r="D79" t="n">
-        <v>0.324893</v>
+        <v>0.324752</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.360567</v>
+        <v>0.361765</v>
       </c>
       <c r="C80" t="n">
-        <v>0.319717</v>
+        <v>0.321458</v>
       </c>
       <c r="D80" t="n">
-        <v>0.312442</v>
+        <v>0.315266</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.391703</v>
+        <v>0.381979</v>
       </c>
       <c r="C81" t="n">
-        <v>0.295715</v>
+        <v>0.296016</v>
       </c>
       <c r="D81" t="n">
-        <v>0.305959</v>
+        <v>0.304527</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.374547</v>
+        <v>0.368677</v>
       </c>
       <c r="C82" t="n">
-        <v>0.298553</v>
+        <v>0.306257</v>
       </c>
       <c r="D82" t="n">
-        <v>0.311354</v>
+        <v>0.318722</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.37744</v>
+        <v>0.36814</v>
       </c>
       <c r="C83" t="n">
-        <v>0.29914</v>
+        <v>0.303035</v>
       </c>
       <c r="D83" t="n">
-        <v>0.312184</v>
+        <v>0.313237</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.380149</v>
+        <v>0.381142</v>
       </c>
       <c r="C84" t="n">
-        <v>0.300252</v>
+        <v>0.310596</v>
       </c>
       <c r="D84" t="n">
-        <v>0.313182</v>
+        <v>0.32039</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.372501</v>
+        <v>0.373113</v>
       </c>
       <c r="C85" t="n">
-        <v>0.305038</v>
+        <v>0.309138</v>
       </c>
       <c r="D85" t="n">
-        <v>0.317379</v>
+        <v>0.316859</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.378673</v>
+        <v>0.39024</v>
       </c>
       <c r="C86" t="n">
-        <v>0.303806</v>
+        <v>0.308235</v>
       </c>
       <c r="D86" t="n">
-        <v>0.316585</v>
+        <v>0.315876</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.382956</v>
+        <v>0.382153</v>
       </c>
       <c r="C87" t="n">
-        <v>0.303486</v>
+        <v>0.308778</v>
       </c>
       <c r="D87" t="n">
-        <v>0.319708</v>
+        <v>0.317399</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.376266</v>
+        <v>0.377088</v>
       </c>
       <c r="C88" t="n">
-        <v>0.295124</v>
+        <v>0.306294</v>
       </c>
       <c r="D88" t="n">
-        <v>0.310796</v>
+        <v>0.317968</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.368549</v>
+        <v>0.387159</v>
       </c>
       <c r="C89" t="n">
-        <v>0.295092</v>
+        <v>0.315882</v>
       </c>
       <c r="D89" t="n">
-        <v>0.310483</v>
+        <v>0.325274</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.36607</v>
+        <v>0.378515</v>
       </c>
       <c r="C90" t="n">
-        <v>0.300271</v>
+        <v>0.314601</v>
       </c>
       <c r="D90" t="n">
-        <v>0.31368</v>
+        <v>0.323688</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.366805</v>
+        <v>0.3837</v>
       </c>
       <c r="C91" t="n">
-        <v>0.301405</v>
+        <v>0.307001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.318721</v>
+        <v>0.320109</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.367623</v>
+        <v>0.370137</v>
       </c>
       <c r="C92" t="n">
-        <v>0.311692</v>
+        <v>0.318058</v>
       </c>
       <c r="D92" t="n">
-        <v>0.328396</v>
+        <v>0.330396</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.382051</v>
+        <v>0.38591</v>
       </c>
       <c r="C93" t="n">
-        <v>0.314744</v>
+        <v>0.318612</v>
       </c>
       <c r="D93" t="n">
-        <v>0.334615</v>
+        <v>0.33508</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.382681</v>
+        <v>0.38775</v>
       </c>
       <c r="C94" t="n">
-        <v>0.320928</v>
+        <v>0.323498</v>
       </c>
       <c r="D94" t="n">
-        <v>0.470922</v>
+        <v>0.475785</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.576983</v>
+        <v>0.572744</v>
       </c>
       <c r="C95" t="n">
-        <v>0.481096</v>
+        <v>0.459414</v>
       </c>
       <c r="D95" t="n">
-        <v>0.466093</v>
+        <v>0.449925</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.565261</v>
+        <v>0.545999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.479714</v>
+        <v>0.453858</v>
       </c>
       <c r="D96" t="n">
-        <v>0.469271</v>
+        <v>0.437661</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.573712</v>
+        <v>0.515382</v>
       </c>
       <c r="C97" t="n">
-        <v>0.447171</v>
+        <v>0.476821</v>
       </c>
       <c r="D97" t="n">
-        <v>0.436852</v>
+        <v>0.466638</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.521926</v>
+        <v>0.573691</v>
       </c>
       <c r="C98" t="n">
-        <v>0.47546</v>
+        <v>0.482245</v>
       </c>
       <c r="D98" t="n">
-        <v>0.462083</v>
+        <v>0.46489</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.568245</v>
+        <v>0.562235</v>
       </c>
       <c r="C99" t="n">
-        <v>0.475476</v>
+        <v>0.482955</v>
       </c>
       <c r="D99" t="n">
-        <v>0.459768</v>
+        <v>0.462747</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.560091</v>
+        <v>0.571827</v>
       </c>
       <c r="C100" t="n">
-        <v>0.474804</v>
+        <v>0.482712</v>
       </c>
       <c r="D100" t="n">
-        <v>0.462192</v>
+        <v>0.464804</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5701000000000001</v>
+        <v>0.566323</v>
       </c>
       <c r="C101" t="n">
-        <v>0.480178</v>
+        <v>0.484479</v>
       </c>
       <c r="D101" t="n">
-        <v>0.468847</v>
+        <v>0.473583</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.574062</v>
+        <v>0.547661</v>
       </c>
       <c r="C102" t="n">
-        <v>0.490429</v>
+        <v>0.46934</v>
       </c>
       <c r="D102" t="n">
-        <v>0.478498</v>
+        <v>0.451877</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.578848</v>
+        <v>0.557858</v>
       </c>
       <c r="C103" t="n">
-        <v>0.483954</v>
+        <v>0.456046</v>
       </c>
       <c r="D103" t="n">
-        <v>0.463372</v>
+        <v>0.455647</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.567923</v>
+        <v>0.5047739999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>0.484099</v>
+        <v>0.482877</v>
       </c>
       <c r="D104" t="n">
-        <v>0.470346</v>
+        <v>0.46331</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.569565</v>
+        <v>0.561118</v>
       </c>
       <c r="C105" t="n">
-        <v>0.479518</v>
+        <v>0.492303</v>
       </c>
       <c r="D105" t="n">
-        <v>0.466785</v>
+        <v>0.484601</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5603</v>
+        <v>0.562086</v>
       </c>
       <c r="C106" t="n">
-        <v>0.483627</v>
+        <v>0.477134</v>
       </c>
       <c r="D106" t="n">
-        <v>0.471996</v>
+        <v>0.464893</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.555076</v>
+        <v>0.565095</v>
       </c>
       <c r="C107" t="n">
-        <v>0.481892</v>
+        <v>0.459146</v>
       </c>
       <c r="D107" t="n">
-        <v>0.47162</v>
+        <v>0.457577</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.553662</v>
+        <v>0.514097</v>
       </c>
       <c r="C108" t="n">
-        <v>0.484373</v>
+        <v>0.492024</v>
       </c>
       <c r="D108" t="n">
-        <v>0.729963</v>
+        <v>0.728792</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.548593</v>
+        <v>0.548886</v>
       </c>
       <c r="C109" t="n">
-        <v>0.491759</v>
+        <v>0.499361</v>
       </c>
       <c r="D109" t="n">
-        <v>0.73055</v>
+        <v>0.729738</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.836595</v>
+        <v>0.855552</v>
       </c>
       <c r="C110" t="n">
-        <v>0.7272189999999999</v>
+        <v>0.729708</v>
       </c>
       <c r="D110" t="n">
-        <v>0.7312689999999999</v>
+        <v>0.731504</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.855563</v>
+        <v>0.839481</v>
       </c>
       <c r="C111" t="n">
-        <v>0.7111499999999999</v>
+        <v>0.731391</v>
       </c>
       <c r="D111" t="n">
-        <v>0.720876</v>
+        <v>0.733536</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.8527090000000001</v>
+        <v>0.854111</v>
       </c>
       <c r="C112" t="n">
-        <v>0.729315</v>
+        <v>0.732305</v>
       </c>
       <c r="D112" t="n">
-        <v>0.733745</v>
+        <v>0.733669</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.849272</v>
+        <v>0.8544620000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>0.712985</v>
+        <v>0.733213</v>
       </c>
       <c r="D113" t="n">
-        <v>0.735847</v>
+        <v>0.734424</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.8507209999999999</v>
+        <v>0.853196</v>
       </c>
       <c r="C114" t="n">
-        <v>0.730399</v>
+        <v>0.733226</v>
       </c>
       <c r="D114" t="n">
-        <v>0.736424</v>
+        <v>0.736326</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.852658</v>
+        <v>0.852993</v>
       </c>
       <c r="C115" t="n">
-        <v>0.7307940000000001</v>
+        <v>0.735532</v>
       </c>
       <c r="D115" t="n">
-        <v>0.738274</v>
+        <v>0.737326</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.852614</v>
+        <v>0.857664</v>
       </c>
       <c r="C116" t="n">
-        <v>0.7327979999999999</v>
+        <v>0.720258</v>
       </c>
       <c r="D116" t="n">
-        <v>0.740034</v>
+        <v>0.72632</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.850291</v>
+        <v>0.852625</v>
       </c>
       <c r="C117" t="n">
-        <v>0.736727</v>
+        <v>0.738474</v>
       </c>
       <c r="D117" t="n">
-        <v>0.742285</v>
+        <v>0.728814</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.8519679999999999</v>
+        <v>0.841749</v>
       </c>
       <c r="C118" t="n">
-        <v>0.7375660000000001</v>
+        <v>0.741654</v>
       </c>
       <c r="D118" t="n">
-        <v>0.7455270000000001</v>
+        <v>0.743682</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.852033</v>
+        <v>0.8503540000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.74044</v>
+        <v>0.744963</v>
       </c>
       <c r="D119" t="n">
-        <v>0.749233</v>
+        <v>0.749077</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.852702</v>
+        <v>0.855096</v>
       </c>
       <c r="C120" t="n">
-        <v>0.7459750000000001</v>
+        <v>0.732813</v>
       </c>
       <c r="D120" t="n">
-        <v>0.754537</v>
+        <v>0.752788</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.853278</v>
+        <v>0.860797</v>
       </c>
       <c r="C121" t="n">
-        <v>0.750613</v>
+        <v>0.754202</v>
       </c>
       <c r="D121" t="n">
-        <v>0.762401</v>
+        <v>0.744905</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.8525509999999999</v>
+        <v>0.845075</v>
       </c>
       <c r="C122" t="n">
-        <v>0.742596</v>
+        <v>0.761794</v>
       </c>
       <c r="D122" t="n">
-        <v>0.769898</v>
+        <v>0.765987</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.857616</v>
+        <v>0.85225</v>
       </c>
       <c r="C123" t="n">
-        <v>0.767269</v>
+        <v>0.7698390000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.846154</v>
+        <v>0.846512</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.09745</v>
+        <v>1.11339</v>
       </c>
       <c r="C124" t="n">
-        <v>0.834456</v>
+        <v>0.830152</v>
       </c>
       <c r="D124" t="n">
-        <v>0.848388</v>
+        <v>0.846828</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.12481</v>
+        <v>1.11813</v>
       </c>
       <c r="C125" t="n">
-        <v>0.83511</v>
+        <v>0.837679</v>
       </c>
       <c r="D125" t="n">
-        <v>0.842078</v>
+        <v>0.840684</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.11388</v>
+        <v>1.11743</v>
       </c>
       <c r="C126" t="n">
-        <v>0.837346</v>
+        <v>0.83796</v>
       </c>
       <c r="D126" t="n">
-        <v>0.843601</v>
+        <v>0.841569</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.12336</v>
+        <v>1.11379</v>
       </c>
       <c r="C127" t="n">
-        <v>0.83689</v>
+        <v>0.840155</v>
       </c>
       <c r="D127" t="n">
-        <v>0.845658</v>
+        <v>0.843419</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.11497</v>
+        <v>1.11442</v>
       </c>
       <c r="C128" t="n">
-        <v>0.839041</v>
+        <v>0.840745</v>
       </c>
       <c r="D128" t="n">
-        <v>0.8544040000000001</v>
+        <v>0.845086</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.12378</v>
+        <v>1.10918</v>
       </c>
       <c r="C129" t="n">
-        <v>0.840664</v>
+        <v>0.842834</v>
       </c>
       <c r="D129" t="n">
-        <v>0.856388</v>
+        <v>0.855607</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.09616</v>
+        <v>1.10543</v>
       </c>
       <c r="C130" t="n">
-        <v>0.8374</v>
+        <v>0.845952</v>
       </c>
       <c r="D130" t="n">
-        <v>0.852197</v>
+        <v>0.849898</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.12085</v>
+        <v>1.11088</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8467710000000001</v>
+        <v>0.848984</v>
       </c>
       <c r="D131" t="n">
-        <v>0.862291</v>
+        <v>0.861681</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.12374</v>
+        <v>1.11253</v>
       </c>
       <c r="C132" t="n">
-        <v>0.843616</v>
+        <v>0.853496</v>
       </c>
       <c r="D132" t="n">
-        <v>0.8659</v>
+        <v>0.866472</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.09342</v>
+        <v>1.12114</v>
       </c>
       <c r="C133" t="n">
-        <v>0.84777</v>
+        <v>0.8504620000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>0.864298</v>
+        <v>0.87018</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.12178</v>
+        <v>1.09333</v>
       </c>
       <c r="C134" t="n">
-        <v>0.853834</v>
+        <v>0.862026</v>
       </c>
       <c r="D134" t="n">
-        <v>0.878833</v>
+        <v>0.877217</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.11874</v>
+        <v>1.09471</v>
       </c>
       <c r="C135" t="n">
-        <v>0.859212</v>
+        <v>0.862192</v>
       </c>
       <c r="D135" t="n">
-        <v>0.887032</v>
+        <v>0.878783</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.11868</v>
+        <v>1.11778</v>
       </c>
       <c r="C136" t="n">
-        <v>0.875165</v>
+        <v>0.877369</v>
       </c>
       <c r="D136" t="n">
-        <v>0.899706</v>
+        <v>0.898</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.12468</v>
+        <v>1.12784</v>
       </c>
       <c r="C137" t="n">
-        <v>0.885649</v>
+        <v>0.88267</v>
       </c>
       <c r="D137" t="n">
-        <v>0.89475</v>
+        <v>0.899596</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.34288</v>
+        <v>1.338</v>
       </c>
       <c r="C138" t="n">
-        <v>0.882506</v>
+        <v>0.880186</v>
       </c>
       <c r="D138" t="n">
-        <v>0.900433</v>
+        <v>0.900914</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.34415</v>
+        <v>1.33867</v>
       </c>
       <c r="C139" t="n">
-        <v>0.883949</v>
+        <v>0.881242</v>
       </c>
       <c r="D139" t="n">
-        <v>0.902282</v>
+        <v>0.8978699999999999</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.34104</v>
+        <v>1.32306</v>
       </c>
       <c r="C140" t="n">
-        <v>0.8844109999999999</v>
+        <v>0.885924</v>
       </c>
       <c r="D140" t="n">
-        <v>0.903602</v>
+        <v>0.904454</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.33045</v>
+        <v>1.32499</v>
       </c>
       <c r="C141" t="n">
-        <v>0.888359</v>
+        <v>0.888046</v>
       </c>
       <c r="D141" t="n">
-        <v>0.905443</v>
+        <v>0.905956</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.34257</v>
+        <v>1.33875</v>
       </c>
       <c r="C142" t="n">
-        <v>0.889699</v>
+        <v>0.886238</v>
       </c>
       <c r="D142" t="n">
-        <v>0.909016</v>
+        <v>0.907734</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.34427</v>
+        <v>1.33979</v>
       </c>
       <c r="C143" t="n">
-        <v>0.887646</v>
+        <v>0.891037</v>
       </c>
       <c r="D143" t="n">
-        <v>0.910314</v>
+        <v>0.910667</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.243109</v>
+        <v>0.243141</v>
       </c>
       <c r="C2" t="n">
-        <v>0.240904</v>
+        <v>0.241193</v>
       </c>
       <c r="D2" t="n">
-        <v>0.247792</v>
+        <v>0.248059</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.241874</v>
+        <v>0.242121</v>
       </c>
       <c r="C3" t="n">
-        <v>0.240086</v>
+        <v>0.240375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.246849</v>
+        <v>0.247428</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.244273</v>
+        <v>0.244391</v>
       </c>
       <c r="C4" t="n">
-        <v>0.243226</v>
+        <v>0.243237</v>
       </c>
       <c r="D4" t="n">
-        <v>0.250276</v>
+        <v>0.250637</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.246447</v>
+        <v>0.24645</v>
       </c>
       <c r="C5" t="n">
-        <v>0.246299</v>
+        <v>0.246323</v>
       </c>
       <c r="D5" t="n">
-        <v>0.253602</v>
+        <v>0.25451</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.244973</v>
+        <v>0.245682</v>
       </c>
       <c r="C6" t="n">
-        <v>0.246812</v>
+        <v>0.247885</v>
       </c>
       <c r="D6" t="n">
-        <v>0.255682</v>
+        <v>0.256825</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.247944</v>
+        <v>0.248578</v>
       </c>
       <c r="C7" t="n">
-        <v>0.250109</v>
+        <v>0.25016</v>
       </c>
       <c r="D7" t="n">
-        <v>0.261735</v>
+        <v>0.261795</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.251328</v>
+        <v>0.25151</v>
       </c>
       <c r="C8" t="n">
-        <v>0.255145</v>
+        <v>0.255176</v>
       </c>
       <c r="D8" t="n">
-        <v>0.269037</v>
+        <v>0.269121</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.259371</v>
+        <v>0.259478</v>
       </c>
       <c r="C9" t="n">
-        <v>0.263851</v>
+        <v>0.263906</v>
       </c>
       <c r="D9" t="n">
-        <v>0.248432</v>
+        <v>0.247164</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.254416</v>
+        <v>0.250285</v>
       </c>
       <c r="C10" t="n">
-        <v>0.248037</v>
+        <v>0.243927</v>
       </c>
       <c r="D10" t="n">
-        <v>0.249225</v>
+        <v>0.246786</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.253073</v>
+        <v>0.249309</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2464</v>
+        <v>0.243275</v>
       </c>
       <c r="D11" t="n">
-        <v>0.248687</v>
+        <v>0.246595</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.252443</v>
+        <v>0.250893</v>
       </c>
       <c r="C12" t="n">
-        <v>0.245496</v>
+        <v>0.245035</v>
       </c>
       <c r="D12" t="n">
-        <v>0.248759</v>
+        <v>0.248237</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.255381</v>
+        <v>0.25002</v>
       </c>
       <c r="C13" t="n">
-        <v>0.248816</v>
+        <v>0.244631</v>
       </c>
       <c r="D13" t="n">
-        <v>0.250032</v>
+        <v>0.247862</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.255479</v>
+        <v>0.250774</v>
       </c>
       <c r="C14" t="n">
-        <v>0.248779</v>
+        <v>0.245722</v>
       </c>
       <c r="D14" t="n">
-        <v>0.250417</v>
+        <v>0.249071</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.252055</v>
+        <v>0.252044</v>
       </c>
       <c r="C15" t="n">
-        <v>0.247222</v>
+        <v>0.24739</v>
       </c>
       <c r="D15" t="n">
-        <v>0.250301</v>
+        <v>0.251049</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.256103</v>
+        <v>0.251812</v>
       </c>
       <c r="C16" t="n">
-        <v>0.252028</v>
+        <v>0.247251</v>
       </c>
       <c r="D16" t="n">
-        <v>0.253604</v>
+        <v>0.251397</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.258277</v>
+        <v>0.253531</v>
       </c>
       <c r="C17" t="n">
-        <v>0.251925</v>
+        <v>0.248424</v>
       </c>
       <c r="D17" t="n">
-        <v>0.253778</v>
+        <v>0.252603</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.253482</v>
+        <v>0.252208</v>
       </c>
       <c r="C18" t="n">
-        <v>0.249452</v>
+        <v>0.249425</v>
       </c>
       <c r="D18" t="n">
-        <v>0.254171</v>
+        <v>0.254255</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.255771</v>
+        <v>0.254406</v>
       </c>
       <c r="C19" t="n">
-        <v>0.254216</v>
+        <v>0.25128</v>
       </c>
       <c r="D19" t="n">
-        <v>0.257997</v>
+        <v>0.256713</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.259089</v>
+        <v>0.254097</v>
       </c>
       <c r="C20" t="n">
-        <v>0.255163</v>
+        <v>0.25216</v>
       </c>
       <c r="D20" t="n">
-        <v>0.259207</v>
+        <v>0.258575</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.25986</v>
+        <v>0.257362</v>
       </c>
       <c r="C21" t="n">
-        <v>0.255854</v>
+        <v>0.255948</v>
       </c>
       <c r="D21" t="n">
-        <v>0.263666</v>
+        <v>0.263694</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.26379</v>
+        <v>0.259762</v>
       </c>
       <c r="C22" t="n">
-        <v>0.260287</v>
+        <v>0.259567</v>
       </c>
       <c r="D22" t="n">
-        <v>0.269253</v>
+        <v>0.269361</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.268881</v>
+        <v>0.264522</v>
       </c>
       <c r="C23" t="n">
-        <v>0.268861</v>
+        <v>0.264864</v>
       </c>
       <c r="D23" t="n">
-        <v>0.259637</v>
+        <v>0.255204</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.268737</v>
+        <v>0.269589</v>
       </c>
       <c r="C24" t="n">
-        <v>0.250139</v>
+        <v>0.247328</v>
       </c>
       <c r="D24" t="n">
-        <v>0.260792</v>
+        <v>0.255219</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.267989</v>
+        <v>0.268921</v>
       </c>
       <c r="C25" t="n">
-        <v>0.249358</v>
+        <v>0.247934</v>
       </c>
       <c r="D25" t="n">
-        <v>0.258438</v>
+        <v>0.255228</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.268764</v>
+        <v>0.269823</v>
       </c>
       <c r="C26" t="n">
-        <v>0.248318</v>
+        <v>0.250214</v>
       </c>
       <c r="D26" t="n">
-        <v>0.259279</v>
+        <v>0.256529</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.268832</v>
+        <v>0.270415</v>
       </c>
       <c r="C27" t="n">
-        <v>0.248696</v>
+        <v>0.250133</v>
       </c>
       <c r="D27" t="n">
-        <v>0.258239</v>
+        <v>0.259452</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.270168</v>
+        <v>0.2717</v>
       </c>
       <c r="C28" t="n">
-        <v>0.250677</v>
+        <v>0.252226</v>
       </c>
       <c r="D28" t="n">
-        <v>0.259317</v>
+        <v>0.261944</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.269613</v>
+        <v>0.271934</v>
       </c>
       <c r="C29" t="n">
-        <v>0.250104</v>
+        <v>0.253513</v>
       </c>
       <c r="D29" t="n">
-        <v>0.258957</v>
+        <v>0.261578</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.270556</v>
+        <v>0.272048</v>
       </c>
       <c r="C30" t="n">
-        <v>0.252248</v>
+        <v>0.254739</v>
       </c>
       <c r="D30" t="n">
-        <v>0.260065</v>
+        <v>0.263649</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.271757</v>
+        <v>0.272714</v>
       </c>
       <c r="C31" t="n">
-        <v>0.253676</v>
+        <v>0.255094</v>
       </c>
       <c r="D31" t="n">
-        <v>0.262472</v>
+        <v>0.266284</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.275417</v>
+        <v>0.273963</v>
       </c>
       <c r="C32" t="n">
-        <v>0.254528</v>
+        <v>0.257344</v>
       </c>
       <c r="D32" t="n">
-        <v>0.264972</v>
+        <v>0.267853</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.277222</v>
+        <v>0.273561</v>
       </c>
       <c r="C33" t="n">
-        <v>0.256917</v>
+        <v>0.259058</v>
       </c>
       <c r="D33" t="n">
-        <v>0.266335</v>
+        <v>0.27006</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.27756</v>
+        <v>0.274745</v>
       </c>
       <c r="C34" t="n">
-        <v>0.259298</v>
+        <v>0.261028</v>
       </c>
       <c r="D34" t="n">
-        <v>0.268518</v>
+        <v>0.27182</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.278113</v>
+        <v>0.276939</v>
       </c>
       <c r="C35" t="n">
-        <v>0.262178</v>
+        <v>0.264028</v>
       </c>
       <c r="D35" t="n">
-        <v>0.27272</v>
+        <v>0.276059</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.281495</v>
+        <v>0.27955</v>
       </c>
       <c r="C36" t="n">
-        <v>0.265182</v>
+        <v>0.268108</v>
       </c>
       <c r="D36" t="n">
-        <v>0.278938</v>
+        <v>0.282073</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.286563</v>
+        <v>0.281705</v>
       </c>
       <c r="C37" t="n">
-        <v>0.271351</v>
+        <v>0.27363</v>
       </c>
       <c r="D37" t="n">
-        <v>0.280608</v>
+        <v>0.280174</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.304361</v>
+        <v>0.302276</v>
       </c>
       <c r="C38" t="n">
-        <v>0.269193</v>
+        <v>0.268805</v>
       </c>
       <c r="D38" t="n">
-        <v>0.279923</v>
+        <v>0.279203</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.305061</v>
+        <v>0.304142</v>
       </c>
       <c r="C39" t="n">
-        <v>0.271241</v>
+        <v>0.271294</v>
       </c>
       <c r="D39" t="n">
-        <v>0.280778</v>
+        <v>0.280716</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.303106</v>
+        <v>0.302922</v>
       </c>
       <c r="C40" t="n">
-        <v>0.272043</v>
+        <v>0.271741</v>
       </c>
       <c r="D40" t="n">
-        <v>0.281243</v>
+        <v>0.280623</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.303573</v>
+        <v>0.301778</v>
       </c>
       <c r="C41" t="n">
-        <v>0.272687</v>
+        <v>0.273015</v>
       </c>
       <c r="D41" t="n">
-        <v>0.281571</v>
+        <v>0.281623</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.304927</v>
+        <v>0.303867</v>
       </c>
       <c r="C42" t="n">
-        <v>0.273713</v>
+        <v>0.274309</v>
       </c>
       <c r="D42" t="n">
-        <v>0.282493</v>
+        <v>0.2828</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.305231</v>
+        <v>0.305478</v>
       </c>
       <c r="C43" t="n">
-        <v>0.275315</v>
+        <v>0.274592</v>
       </c>
       <c r="D43" t="n">
-        <v>0.283951</v>
+        <v>0.284064</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.305637</v>
+        <v>0.304427</v>
       </c>
       <c r="C44" t="n">
-        <v>0.27616</v>
+        <v>0.275222</v>
       </c>
       <c r="D44" t="n">
-        <v>0.284697</v>
+        <v>0.283707</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.305021</v>
+        <v>0.304766</v>
       </c>
       <c r="C45" t="n">
-        <v>0.277795</v>
+        <v>0.276508</v>
       </c>
       <c r="D45" t="n">
-        <v>0.286145</v>
+        <v>0.285362</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.305507</v>
+        <v>0.303052</v>
       </c>
       <c r="C46" t="n">
-        <v>0.279262</v>
+        <v>0.277598</v>
       </c>
       <c r="D46" t="n">
-        <v>0.28773</v>
+        <v>0.286807</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.306967</v>
+        <v>0.304763</v>
       </c>
       <c r="C47" t="n">
-        <v>0.280371</v>
+        <v>0.279014</v>
       </c>
       <c r="D47" t="n">
-        <v>0.28883</v>
+        <v>0.288615</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.305767</v>
+        <v>0.305303</v>
       </c>
       <c r="C48" t="n">
-        <v>0.282355</v>
+        <v>0.281596</v>
       </c>
       <c r="D48" t="n">
-        <v>0.291422</v>
+        <v>0.291793</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.308047</v>
+        <v>0.309202</v>
       </c>
       <c r="C49" t="n">
-        <v>0.285112</v>
+        <v>0.284846</v>
       </c>
       <c r="D49" t="n">
-        <v>0.294841</v>
+        <v>0.294868</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.311637</v>
+        <v>0.308702</v>
       </c>
       <c r="C50" t="n">
-        <v>0.288983</v>
+        <v>0.287637</v>
       </c>
       <c r="D50" t="n">
-        <v>0.300336</v>
+        <v>0.299741</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.314405</v>
+        <v>0.311921</v>
       </c>
       <c r="C51" t="n">
-        <v>0.293757</v>
+        <v>0.29253</v>
       </c>
       <c r="D51" t="n">
-        <v>0.29374</v>
+        <v>0.292232</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.316522</v>
+        <v>0.317193</v>
       </c>
       <c r="C52" t="n">
-        <v>0.300057</v>
+        <v>0.300871</v>
       </c>
       <c r="D52" t="n">
-        <v>0.293683</v>
+        <v>0.291644</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.330424</v>
+        <v>0.33109</v>
       </c>
       <c r="C53" t="n">
-        <v>0.286227</v>
+        <v>0.287009</v>
       </c>
       <c r="D53" t="n">
-        <v>0.292664</v>
+        <v>0.294227</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.332506</v>
+        <v>0.328696</v>
       </c>
       <c r="C54" t="n">
-        <v>0.288419</v>
+        <v>0.288319</v>
       </c>
       <c r="D54" t="n">
-        <v>0.294114</v>
+        <v>0.293745</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.332067</v>
+        <v>0.329696</v>
       </c>
       <c r="C55" t="n">
-        <v>0.288408</v>
+        <v>0.288016</v>
       </c>
       <c r="D55" t="n">
-        <v>0.293608</v>
+        <v>0.29549</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.332691</v>
+        <v>0.331487</v>
       </c>
       <c r="C56" t="n">
-        <v>0.289545</v>
+        <v>0.288987</v>
       </c>
       <c r="D56" t="n">
-        <v>0.294785</v>
+        <v>0.296086</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.331463</v>
+        <v>0.332613</v>
       </c>
       <c r="C57" t="n">
-        <v>0.290074</v>
+        <v>0.289964</v>
       </c>
       <c r="D57" t="n">
-        <v>0.295098</v>
+        <v>0.296579</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.330498</v>
+        <v>0.330328</v>
       </c>
       <c r="C58" t="n">
-        <v>0.291621</v>
+        <v>0.291364</v>
       </c>
       <c r="D58" t="n">
-        <v>0.296382</v>
+        <v>0.295874</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.332257</v>
+        <v>0.329886</v>
       </c>
       <c r="C59" t="n">
-        <v>0.291944</v>
+        <v>0.291104</v>
       </c>
       <c r="D59" t="n">
-        <v>0.297201</v>
+        <v>0.299229</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.332531</v>
+        <v>0.331015</v>
       </c>
       <c r="C60" t="n">
-        <v>0.291796</v>
+        <v>0.293476</v>
       </c>
       <c r="D60" t="n">
-        <v>0.297592</v>
+        <v>0.298874</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.334117</v>
+        <v>0.33156</v>
       </c>
       <c r="C61" t="n">
-        <v>0.294815</v>
+        <v>0.295465</v>
       </c>
       <c r="D61" t="n">
-        <v>0.30027</v>
+        <v>0.302445</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.33568</v>
+        <v>0.332928</v>
       </c>
       <c r="C62" t="n">
-        <v>0.297619</v>
+        <v>0.296895</v>
       </c>
       <c r="D62" t="n">
-        <v>0.302951</v>
+        <v>0.304215</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.336115</v>
+        <v>0.334399</v>
       </c>
       <c r="C63" t="n">
-        <v>0.300471</v>
+        <v>0.300408</v>
       </c>
       <c r="D63" t="n">
-        <v>0.30655</v>
+        <v>0.308421</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.33595</v>
+        <v>0.33728</v>
       </c>
       <c r="C64" t="n">
-        <v>0.304209</v>
+        <v>0.303514</v>
       </c>
       <c r="D64" t="n">
-        <v>0.312173</v>
+        <v>0.310727</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.341029</v>
+        <v>0.337147</v>
       </c>
       <c r="C65" t="n">
-        <v>0.308697</v>
+        <v>0.307745</v>
       </c>
       <c r="D65" t="n">
-        <v>0.318546</v>
+        <v>0.31954</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.344892</v>
+        <v>0.34373</v>
       </c>
       <c r="C66" t="n">
-        <v>0.315234</v>
+        <v>0.313059</v>
       </c>
       <c r="D66" t="n">
-        <v>0.30102</v>
+        <v>0.302139</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.350106</v>
+        <v>0.345902</v>
       </c>
       <c r="C67" t="n">
-        <v>0.297969</v>
+        <v>0.298766</v>
       </c>
       <c r="D67" t="n">
-        <v>0.300469</v>
+        <v>0.300312</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.350082</v>
+        <v>0.34938</v>
       </c>
       <c r="C68" t="n">
-        <v>0.297891</v>
+        <v>0.299729</v>
       </c>
       <c r="D68" t="n">
-        <v>0.30046</v>
+        <v>0.302266</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.350037</v>
+        <v>0.3496</v>
       </c>
       <c r="C69" t="n">
-        <v>0.298951</v>
+        <v>0.300287</v>
       </c>
       <c r="D69" t="n">
-        <v>0.301192</v>
+        <v>0.30301</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.350641</v>
+        <v>0.350529</v>
       </c>
       <c r="C70" t="n">
-        <v>0.299901</v>
+        <v>0.30144</v>
       </c>
       <c r="D70" t="n">
-        <v>0.301397</v>
+        <v>0.303456</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.350359</v>
+        <v>0.350836</v>
       </c>
       <c r="C71" t="n">
-        <v>0.299784</v>
+        <v>0.302238</v>
       </c>
       <c r="D71" t="n">
-        <v>0.302248</v>
+        <v>0.304916</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.350672</v>
+        <v>0.350267</v>
       </c>
       <c r="C72" t="n">
-        <v>0.30076</v>
+        <v>0.302969</v>
       </c>
       <c r="D72" t="n">
-        <v>0.303465</v>
+        <v>0.304811</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.351295</v>
+        <v>0.350808</v>
       </c>
       <c r="C73" t="n">
-        <v>0.302701</v>
+        <v>0.305407</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3053</v>
+        <v>0.30722</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.351789</v>
+        <v>0.351593</v>
       </c>
       <c r="C74" t="n">
-        <v>0.304324</v>
+        <v>0.305669</v>
       </c>
       <c r="D74" t="n">
-        <v>0.306682</v>
+        <v>0.308176</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.352064</v>
+        <v>0.35233</v>
       </c>
       <c r="C75" t="n">
-        <v>0.303988</v>
+        <v>0.307752</v>
       </c>
       <c r="D75" t="n">
-        <v>0.307751</v>
+        <v>0.309417</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.353133</v>
+        <v>0.352028</v>
       </c>
       <c r="C76" t="n">
-        <v>0.308312</v>
+        <v>0.310116</v>
       </c>
       <c r="D76" t="n">
-        <v>0.311181</v>
+        <v>0.312338</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.353626</v>
+        <v>0.353735</v>
       </c>
       <c r="C77" t="n">
-        <v>0.309056</v>
+        <v>0.31241</v>
       </c>
       <c r="D77" t="n">
-        <v>0.313408</v>
+        <v>0.315344</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.355752</v>
+        <v>0.355552</v>
       </c>
       <c r="C78" t="n">
-        <v>0.312907</v>
+        <v>0.315375</v>
       </c>
       <c r="D78" t="n">
-        <v>0.318816</v>
+        <v>0.320475</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.35788</v>
+        <v>0.357846</v>
       </c>
       <c r="C79" t="n">
-        <v>0.317346</v>
+        <v>0.320101</v>
       </c>
       <c r="D79" t="n">
-        <v>0.324752</v>
+        <v>0.327924</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.361765</v>
+        <v>0.362314</v>
       </c>
       <c r="C80" t="n">
-        <v>0.321458</v>
+        <v>0.326448</v>
       </c>
       <c r="D80" t="n">
-        <v>0.315266</v>
+        <v>0.303262</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.381979</v>
+        <v>0.371716</v>
       </c>
       <c r="C81" t="n">
-        <v>0.296016</v>
+        <v>0.300035</v>
       </c>
       <c r="D81" t="n">
-        <v>0.304527</v>
+        <v>0.311467</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.368677</v>
+        <v>0.370583</v>
       </c>
       <c r="C82" t="n">
-        <v>0.306257</v>
+        <v>0.300624</v>
       </c>
       <c r="D82" t="n">
-        <v>0.318722</v>
+        <v>0.312168</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.36814</v>
+        <v>0.371454</v>
       </c>
       <c r="C83" t="n">
-        <v>0.303035</v>
+        <v>0.301007</v>
       </c>
       <c r="D83" t="n">
-        <v>0.313237</v>
+        <v>0.312365</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.381142</v>
+        <v>0.370893</v>
       </c>
       <c r="C84" t="n">
-        <v>0.310596</v>
+        <v>0.303956</v>
       </c>
       <c r="D84" t="n">
-        <v>0.32039</v>
+        <v>0.315355</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.373113</v>
+        <v>0.370846</v>
       </c>
       <c r="C85" t="n">
-        <v>0.309138</v>
+        <v>0.305646</v>
       </c>
       <c r="D85" t="n">
-        <v>0.316859</v>
+        <v>0.315866</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.39024</v>
+        <v>0.373682</v>
       </c>
       <c r="C86" t="n">
-        <v>0.308235</v>
+        <v>0.299268</v>
       </c>
       <c r="D86" t="n">
-        <v>0.315876</v>
+        <v>0.310146</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.382153</v>
+        <v>0.362412</v>
       </c>
       <c r="C87" t="n">
-        <v>0.308778</v>
+        <v>0.30785</v>
       </c>
       <c r="D87" t="n">
-        <v>0.317399</v>
+        <v>0.316506</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.377088</v>
+        <v>0.373336</v>
       </c>
       <c r="C88" t="n">
-        <v>0.306294</v>
+        <v>0.307303</v>
       </c>
       <c r="D88" t="n">
-        <v>0.317968</v>
+        <v>0.319625</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.387159</v>
+        <v>0.372454</v>
       </c>
       <c r="C89" t="n">
-        <v>0.315882</v>
+        <v>0.298716</v>
       </c>
       <c r="D89" t="n">
-        <v>0.325274</v>
+        <v>0.311951</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.378515</v>
+        <v>0.362448</v>
       </c>
       <c r="C90" t="n">
-        <v>0.314601</v>
+        <v>0.306757</v>
       </c>
       <c r="D90" t="n">
-        <v>0.323688</v>
+        <v>0.315199</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.3837</v>
+        <v>0.36576</v>
       </c>
       <c r="C91" t="n">
-        <v>0.307001</v>
+        <v>0.315438</v>
       </c>
       <c r="D91" t="n">
-        <v>0.320109</v>
+        <v>0.325858</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.370137</v>
+        <v>0.377432</v>
       </c>
       <c r="C92" t="n">
-        <v>0.318058</v>
+        <v>0.313769</v>
       </c>
       <c r="D92" t="n">
-        <v>0.330396</v>
+        <v>0.328046</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.38591</v>
+        <v>0.377333</v>
       </c>
       <c r="C93" t="n">
-        <v>0.318612</v>
+        <v>0.317306</v>
       </c>
       <c r="D93" t="n">
-        <v>0.33508</v>
+        <v>0.334755</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.38775</v>
+        <v>0.38102</v>
       </c>
       <c r="C94" t="n">
-        <v>0.323498</v>
+        <v>0.32291</v>
       </c>
       <c r="D94" t="n">
-        <v>0.475785</v>
+        <v>0.436419</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.572744</v>
+        <v>0.551414</v>
       </c>
       <c r="C95" t="n">
-        <v>0.459414</v>
+        <v>0.475308</v>
       </c>
       <c r="D95" t="n">
-        <v>0.449925</v>
+        <v>0.457837</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.545999</v>
+        <v>0.552104</v>
       </c>
       <c r="C96" t="n">
-        <v>0.453858</v>
+        <v>0.47254</v>
       </c>
       <c r="D96" t="n">
-        <v>0.437661</v>
+        <v>0.453992</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.515382</v>
+        <v>0.55298</v>
       </c>
       <c r="C97" t="n">
-        <v>0.476821</v>
+        <v>0.463562</v>
       </c>
       <c r="D97" t="n">
-        <v>0.466638</v>
+        <v>0.454008</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.573691</v>
+        <v>0.556531</v>
       </c>
       <c r="C98" t="n">
-        <v>0.482245</v>
+        <v>0.467312</v>
       </c>
       <c r="D98" t="n">
-        <v>0.46489</v>
+        <v>0.460187</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.562235</v>
+        <v>0.549435</v>
       </c>
       <c r="C99" t="n">
-        <v>0.482955</v>
+        <v>0.473545</v>
       </c>
       <c r="D99" t="n">
-        <v>0.462747</v>
+        <v>0.454596</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.571827</v>
+        <v>0.5603939999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.482712</v>
+        <v>0.483506</v>
       </c>
       <c r="D100" t="n">
-        <v>0.464804</v>
+        <v>0.465668</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.566323</v>
+        <v>0.565624</v>
       </c>
       <c r="C101" t="n">
-        <v>0.484479</v>
+        <v>0.480695</v>
       </c>
       <c r="D101" t="n">
-        <v>0.473583</v>
+        <v>0.459564</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.547661</v>
+        <v>0.553802</v>
       </c>
       <c r="C102" t="n">
-        <v>0.46934</v>
+        <v>0.486524</v>
       </c>
       <c r="D102" t="n">
-        <v>0.451877</v>
+        <v>0.482272</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.557858</v>
+        <v>0.560864</v>
       </c>
       <c r="C103" t="n">
-        <v>0.456046</v>
+        <v>0.480206</v>
       </c>
       <c r="D103" t="n">
-        <v>0.455647</v>
+        <v>0.46248</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5047739999999999</v>
+        <v>0.560469</v>
       </c>
       <c r="C104" t="n">
-        <v>0.482877</v>
+        <v>0.45327</v>
       </c>
       <c r="D104" t="n">
-        <v>0.46331</v>
+        <v>0.434967</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.561118</v>
+        <v>0.520077</v>
       </c>
       <c r="C105" t="n">
-        <v>0.492303</v>
+        <v>0.483586</v>
       </c>
       <c r="D105" t="n">
-        <v>0.484601</v>
+        <v>0.469836</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.562086</v>
+        <v>0.56836</v>
       </c>
       <c r="C106" t="n">
-        <v>0.477134</v>
+        <v>0.491403</v>
       </c>
       <c r="D106" t="n">
-        <v>0.464893</v>
+        <v>0.473247</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.565095</v>
+        <v>0.568337</v>
       </c>
       <c r="C107" t="n">
-        <v>0.459146</v>
+        <v>0.495054</v>
       </c>
       <c r="D107" t="n">
-        <v>0.457577</v>
+        <v>0.479165</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.514097</v>
+        <v>0.567692</v>
       </c>
       <c r="C108" t="n">
-        <v>0.492024</v>
+        <v>0.470708</v>
       </c>
       <c r="D108" t="n">
-        <v>0.728792</v>
+        <v>0.729544</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.548886</v>
+        <v>0.525199</v>
       </c>
       <c r="C109" t="n">
-        <v>0.499361</v>
+        <v>0.47784</v>
       </c>
       <c r="D109" t="n">
-        <v>0.729738</v>
+        <v>0.729914</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.855552</v>
+        <v>0.852674</v>
       </c>
       <c r="C110" t="n">
-        <v>0.729708</v>
+        <v>0.714322</v>
       </c>
       <c r="D110" t="n">
-        <v>0.731504</v>
+        <v>0.732333</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.839481</v>
+        <v>0.86275</v>
       </c>
       <c r="C111" t="n">
-        <v>0.731391</v>
+        <v>0.714556</v>
       </c>
       <c r="D111" t="n">
-        <v>0.733536</v>
+        <v>0.732874</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.854111</v>
+        <v>0.855497</v>
       </c>
       <c r="C112" t="n">
-        <v>0.732305</v>
+        <v>0.716153</v>
       </c>
       <c r="D112" t="n">
-        <v>0.733669</v>
+        <v>0.734359</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.8544620000000001</v>
+        <v>0.85405</v>
       </c>
       <c r="C113" t="n">
-        <v>0.733213</v>
+        <v>0.717172</v>
       </c>
       <c r="D113" t="n">
-        <v>0.734424</v>
+        <v>0.735663</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.853196</v>
+        <v>0.838466</v>
       </c>
       <c r="C114" t="n">
-        <v>0.733226</v>
+        <v>0.733739</v>
       </c>
       <c r="D114" t="n">
-        <v>0.736326</v>
+        <v>0.723428</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.852993</v>
+        <v>0.852063</v>
       </c>
       <c r="C115" t="n">
-        <v>0.735532</v>
+        <v>0.7200569999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.737326</v>
+        <v>0.738327</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.857664</v>
+        <v>0.858646</v>
       </c>
       <c r="C116" t="n">
-        <v>0.720258</v>
+        <v>0.737198</v>
       </c>
       <c r="D116" t="n">
-        <v>0.72632</v>
+        <v>0.739494</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.852625</v>
+        <v>0.839253</v>
       </c>
       <c r="C117" t="n">
-        <v>0.738474</v>
+        <v>0.738941</v>
       </c>
       <c r="D117" t="n">
-        <v>0.728814</v>
+        <v>0.729925</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.841749</v>
+        <v>0.856388</v>
       </c>
       <c r="C118" t="n">
-        <v>0.741654</v>
+        <v>0.726336</v>
       </c>
       <c r="D118" t="n">
-        <v>0.743682</v>
+        <v>0.745442</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.8503540000000001</v>
+        <v>0.853665</v>
       </c>
       <c r="C119" t="n">
-        <v>0.744963</v>
+        <v>0.746053</v>
       </c>
       <c r="D119" t="n">
-        <v>0.749077</v>
+        <v>0.748031</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.855096</v>
+        <v>0.837679</v>
       </c>
       <c r="C120" t="n">
-        <v>0.732813</v>
+        <v>0.749827</v>
       </c>
       <c r="D120" t="n">
-        <v>0.752788</v>
+        <v>0.753965</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.860797</v>
+        <v>0.850945</v>
       </c>
       <c r="C121" t="n">
-        <v>0.754202</v>
+        <v>0.755217</v>
       </c>
       <c r="D121" t="n">
-        <v>0.744905</v>
+        <v>0.759583</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.845075</v>
+        <v>0.841935</v>
       </c>
       <c r="C122" t="n">
-        <v>0.761794</v>
+        <v>0.761674</v>
       </c>
       <c r="D122" t="n">
-        <v>0.765987</v>
+        <v>0.767629</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.85225</v>
+        <v>0.8596009999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.7698390000000001</v>
+        <v>0.770414</v>
       </c>
       <c r="D123" t="n">
-        <v>0.846512</v>
+        <v>0.8381189999999999</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.11339</v>
+        <v>1.12546</v>
       </c>
       <c r="C124" t="n">
-        <v>0.830152</v>
+        <v>0.836986</v>
       </c>
       <c r="D124" t="n">
-        <v>0.846828</v>
+        <v>0.848293</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.11813</v>
+        <v>1.11282</v>
       </c>
       <c r="C125" t="n">
-        <v>0.837679</v>
+        <v>0.83854</v>
       </c>
       <c r="D125" t="n">
-        <v>0.840684</v>
+        <v>0.849706</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.11743</v>
+        <v>1.11857</v>
       </c>
       <c r="C126" t="n">
-        <v>0.83796</v>
+        <v>0.840081</v>
       </c>
       <c r="D126" t="n">
-        <v>0.841569</v>
+        <v>0.852201</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.11379</v>
+        <v>1.092</v>
       </c>
       <c r="C127" t="n">
-        <v>0.840155</v>
+        <v>0.840434</v>
       </c>
       <c r="D127" t="n">
-        <v>0.843419</v>
+        <v>0.853166</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.11442</v>
+        <v>1.09873</v>
       </c>
       <c r="C128" t="n">
-        <v>0.840745</v>
+        <v>0.842618</v>
       </c>
       <c r="D128" t="n">
-        <v>0.845086</v>
+        <v>0.846562</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.10918</v>
+        <v>1.1111</v>
       </c>
       <c r="C129" t="n">
-        <v>0.842834</v>
+        <v>0.843928</v>
       </c>
       <c r="D129" t="n">
-        <v>0.855607</v>
+        <v>0.855802</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.10543</v>
+        <v>1.11737</v>
       </c>
       <c r="C130" t="n">
-        <v>0.845952</v>
+        <v>0.846175</v>
       </c>
       <c r="D130" t="n">
-        <v>0.849898</v>
+        <v>0.858134</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.11088</v>
+        <v>1.11095</v>
       </c>
       <c r="C131" t="n">
-        <v>0.848984</v>
+        <v>0.843514</v>
       </c>
       <c r="D131" t="n">
-        <v>0.861681</v>
+        <v>0.862226</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.11253</v>
+        <v>1.11516</v>
       </c>
       <c r="C132" t="n">
-        <v>0.853496</v>
+        <v>0.8525779999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>0.866472</v>
+        <v>0.865344</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.12114</v>
+        <v>1.09569</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8504620000000001</v>
+        <v>0.857006</v>
       </c>
       <c r="D133" t="n">
-        <v>0.87018</v>
+        <v>0.87008</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.09333</v>
+        <v>1.11875</v>
       </c>
       <c r="C134" t="n">
-        <v>0.862026</v>
+        <v>0.862712</v>
       </c>
       <c r="D134" t="n">
-        <v>0.877217</v>
+        <v>0.869686</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.09471</v>
+        <v>1.11568</v>
       </c>
       <c r="C135" t="n">
-        <v>0.862192</v>
+        <v>0.869008</v>
       </c>
       <c r="D135" t="n">
-        <v>0.878783</v>
+        <v>0.886095</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.11778</v>
+        <v>1.12025</v>
       </c>
       <c r="C136" t="n">
-        <v>0.877369</v>
+        <v>0.876803</v>
       </c>
       <c r="D136" t="n">
-        <v>0.898</v>
+        <v>0.891501</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.12784</v>
+        <v>1.11858</v>
       </c>
       <c r="C137" t="n">
-        <v>0.88267</v>
+        <v>0.883751</v>
       </c>
       <c r="D137" t="n">
-        <v>0.899596</v>
+        <v>0.896268</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.338</v>
+        <v>1.3384</v>
       </c>
       <c r="C138" t="n">
-        <v>0.880186</v>
+        <v>0.885116</v>
       </c>
       <c r="D138" t="n">
-        <v>0.900914</v>
+        <v>0.901828</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.33867</v>
+        <v>1.33871</v>
       </c>
       <c r="C139" t="n">
-        <v>0.881242</v>
+        <v>0.885211</v>
       </c>
       <c r="D139" t="n">
-        <v>0.8978699999999999</v>
+        <v>0.903423</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.32306</v>
+        <v>1.33915</v>
       </c>
       <c r="C140" t="n">
-        <v>0.885924</v>
+        <v>0.886324</v>
       </c>
       <c r="D140" t="n">
-        <v>0.904454</v>
+        <v>0.902199</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.32499</v>
+        <v>1.34015</v>
       </c>
       <c r="C141" t="n">
-        <v>0.888046</v>
+        <v>0.88919</v>
       </c>
       <c r="D141" t="n">
-        <v>0.905956</v>
+        <v>0.904049</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.33875</v>
+        <v>1.33842</v>
       </c>
       <c r="C142" t="n">
-        <v>0.886238</v>
+        <v>0.887193</v>
       </c>
       <c r="D142" t="n">
-        <v>0.907734</v>
+        <v>0.90863</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.33979</v>
+        <v>1.33877</v>
       </c>
       <c r="C143" t="n">
-        <v>0.891037</v>
+        <v>0.889105</v>
       </c>
       <c r="D143" t="n">
-        <v>0.910667</v>
+        <v>0.907326</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.243141</v>
+        <v>0.243199</v>
       </c>
       <c r="C2" t="n">
-        <v>0.241193</v>
+        <v>0.241098</v>
       </c>
       <c r="D2" t="n">
-        <v>0.248059</v>
+        <v>0.24748</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.242121</v>
+        <v>0.242221</v>
       </c>
       <c r="C3" t="n">
-        <v>0.240375</v>
+        <v>0.24056</v>
       </c>
       <c r="D3" t="n">
-        <v>0.247428</v>
+        <v>0.24715</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.244391</v>
+        <v>0.24451</v>
       </c>
       <c r="C4" t="n">
-        <v>0.243237</v>
+        <v>0.243383</v>
       </c>
       <c r="D4" t="n">
-        <v>0.250637</v>
+        <v>0.250367</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.24645</v>
+        <v>0.246528</v>
       </c>
       <c r="C5" t="n">
-        <v>0.246323</v>
+        <v>0.246543</v>
       </c>
       <c r="D5" t="n">
-        <v>0.25451</v>
+        <v>0.254541</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.245682</v>
+        <v>0.245791</v>
       </c>
       <c r="C6" t="n">
-        <v>0.247885</v>
+        <v>0.247992</v>
       </c>
       <c r="D6" t="n">
-        <v>0.256825</v>
+        <v>0.256718</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.248578</v>
+        <v>0.248605</v>
       </c>
       <c r="C7" t="n">
-        <v>0.25016</v>
+        <v>0.25118</v>
       </c>
       <c r="D7" t="n">
-        <v>0.261795</v>
+        <v>0.262518</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.25151</v>
+        <v>0.252024</v>
       </c>
       <c r="C8" t="n">
-        <v>0.255176</v>
+        <v>0.25613</v>
       </c>
       <c r="D8" t="n">
-        <v>0.269121</v>
+        <v>0.269323</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.259478</v>
+        <v>0.259283</v>
       </c>
       <c r="C9" t="n">
-        <v>0.263906</v>
+        <v>0.264042</v>
       </c>
       <c r="D9" t="n">
-        <v>0.247164</v>
+        <v>0.247128</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.250285</v>
+        <v>0.251436</v>
       </c>
       <c r="C10" t="n">
-        <v>0.243927</v>
+        <v>0.244194</v>
       </c>
       <c r="D10" t="n">
-        <v>0.246786</v>
+        <v>0.247316</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.249309</v>
+        <v>0.249818</v>
       </c>
       <c r="C11" t="n">
-        <v>0.243275</v>
+        <v>0.243855</v>
       </c>
       <c r="D11" t="n">
-        <v>0.246595</v>
+        <v>0.247102</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.250893</v>
+        <v>0.251382</v>
       </c>
       <c r="C12" t="n">
-        <v>0.245035</v>
+        <v>0.245644</v>
       </c>
       <c r="D12" t="n">
-        <v>0.248237</v>
+        <v>0.248753</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.25002</v>
+        <v>0.250644</v>
       </c>
       <c r="C13" t="n">
-        <v>0.244631</v>
+        <v>0.245254</v>
       </c>
       <c r="D13" t="n">
-        <v>0.247862</v>
+        <v>0.248595</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.250774</v>
+        <v>0.251408</v>
       </c>
       <c r="C14" t="n">
-        <v>0.245722</v>
+        <v>0.246361</v>
       </c>
       <c r="D14" t="n">
-        <v>0.249071</v>
+        <v>0.249951</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.252044</v>
+        <v>0.252051</v>
       </c>
       <c r="C15" t="n">
-        <v>0.24739</v>
+        <v>0.24749</v>
       </c>
       <c r="D15" t="n">
-        <v>0.251049</v>
+        <v>0.25113</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.251812</v>
+        <v>0.252444</v>
       </c>
       <c r="C16" t="n">
-        <v>0.247251</v>
+        <v>0.248002</v>
       </c>
       <c r="D16" t="n">
-        <v>0.251397</v>
+        <v>0.251337</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.253531</v>
+        <v>0.252667</v>
       </c>
       <c r="C17" t="n">
-        <v>0.248424</v>
+        <v>0.248993</v>
       </c>
       <c r="D17" t="n">
-        <v>0.252603</v>
+        <v>0.253302</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.252208</v>
+        <v>0.252871</v>
       </c>
       <c r="C18" t="n">
-        <v>0.249425</v>
+        <v>0.249538</v>
       </c>
       <c r="D18" t="n">
-        <v>0.254255</v>
+        <v>0.254232</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.254406</v>
+        <v>0.254647</v>
       </c>
       <c r="C19" t="n">
-        <v>0.25128</v>
+        <v>0.251928</v>
       </c>
       <c r="D19" t="n">
-        <v>0.256713</v>
+        <v>0.257342</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.254097</v>
+        <v>0.25486</v>
       </c>
       <c r="C20" t="n">
-        <v>0.25216</v>
+        <v>0.253237</v>
       </c>
       <c r="D20" t="n">
-        <v>0.258575</v>
+        <v>0.25866</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.257362</v>
+        <v>0.257832</v>
       </c>
       <c r="C21" t="n">
-        <v>0.255948</v>
+        <v>0.25681</v>
       </c>
       <c r="D21" t="n">
-        <v>0.263694</v>
+        <v>0.263735</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.259762</v>
+        <v>0.259728</v>
       </c>
       <c r="C22" t="n">
-        <v>0.259567</v>
+        <v>0.259057</v>
       </c>
       <c r="D22" t="n">
-        <v>0.269361</v>
+        <v>0.268931</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.264522</v>
+        <v>0.264758</v>
       </c>
       <c r="C23" t="n">
-        <v>0.264864</v>
+        <v>0.265059</v>
       </c>
       <c r="D23" t="n">
-        <v>0.255204</v>
+        <v>0.257627</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.269589</v>
+        <v>0.269592</v>
       </c>
       <c r="C24" t="n">
-        <v>0.247328</v>
+        <v>0.24946</v>
       </c>
       <c r="D24" t="n">
-        <v>0.255219</v>
+        <v>0.258029</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.268921</v>
+        <v>0.270052</v>
       </c>
       <c r="C25" t="n">
-        <v>0.247934</v>
+        <v>0.248849</v>
       </c>
       <c r="D25" t="n">
-        <v>0.255228</v>
+        <v>0.256961</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.269823</v>
+        <v>0.270636</v>
       </c>
       <c r="C26" t="n">
-        <v>0.250214</v>
+        <v>0.24941</v>
       </c>
       <c r="D26" t="n">
-        <v>0.256529</v>
+        <v>0.259012</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.270415</v>
+        <v>0.270592</v>
       </c>
       <c r="C27" t="n">
-        <v>0.250133</v>
+        <v>0.250395</v>
       </c>
       <c r="D27" t="n">
-        <v>0.259452</v>
+        <v>0.258805</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.2717</v>
+        <v>0.27144</v>
       </c>
       <c r="C28" t="n">
-        <v>0.252226</v>
+        <v>0.252021</v>
       </c>
       <c r="D28" t="n">
-        <v>0.261944</v>
+        <v>0.260349</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.271934</v>
+        <v>0.271872</v>
       </c>
       <c r="C29" t="n">
-        <v>0.253513</v>
+        <v>0.251614</v>
       </c>
       <c r="D29" t="n">
-        <v>0.261578</v>
+        <v>0.260861</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.272048</v>
+        <v>0.272615</v>
       </c>
       <c r="C30" t="n">
-        <v>0.254739</v>
+        <v>0.253405</v>
       </c>
       <c r="D30" t="n">
-        <v>0.263649</v>
+        <v>0.262318</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.272714</v>
+        <v>0.273777</v>
       </c>
       <c r="C31" t="n">
-        <v>0.255094</v>
+        <v>0.255267</v>
       </c>
       <c r="D31" t="n">
-        <v>0.266284</v>
+        <v>0.264348</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.273963</v>
+        <v>0.274476</v>
       </c>
       <c r="C32" t="n">
-        <v>0.257344</v>
+        <v>0.256717</v>
       </c>
       <c r="D32" t="n">
-        <v>0.267853</v>
+        <v>0.266271</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.273561</v>
+        <v>0.274634</v>
       </c>
       <c r="C33" t="n">
-        <v>0.259058</v>
+        <v>0.258863</v>
       </c>
       <c r="D33" t="n">
-        <v>0.27006</v>
+        <v>0.269144</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.274745</v>
+        <v>0.275604</v>
       </c>
       <c r="C34" t="n">
-        <v>0.261028</v>
+        <v>0.260423</v>
       </c>
       <c r="D34" t="n">
-        <v>0.27182</v>
+        <v>0.271312</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.276939</v>
+        <v>0.277646</v>
       </c>
       <c r="C35" t="n">
-        <v>0.264028</v>
+        <v>0.261945</v>
       </c>
       <c r="D35" t="n">
-        <v>0.276059</v>
+        <v>0.274039</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.27955</v>
+        <v>0.279001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.268108</v>
+        <v>0.266475</v>
       </c>
       <c r="D36" t="n">
-        <v>0.282073</v>
+        <v>0.278629</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.281705</v>
+        <v>0.28263</v>
       </c>
       <c r="C37" t="n">
-        <v>0.27363</v>
+        <v>0.271947</v>
       </c>
       <c r="D37" t="n">
-        <v>0.280174</v>
+        <v>0.280354</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.302276</v>
+        <v>0.30339</v>
       </c>
       <c r="C38" t="n">
-        <v>0.268805</v>
+        <v>0.26961</v>
       </c>
       <c r="D38" t="n">
-        <v>0.279203</v>
+        <v>0.279425</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.304142</v>
+        <v>0.30334</v>
       </c>
       <c r="C39" t="n">
-        <v>0.271294</v>
+        <v>0.271487</v>
       </c>
       <c r="D39" t="n">
-        <v>0.280716</v>
+        <v>0.28088</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.302922</v>
+        <v>0.303576</v>
       </c>
       <c r="C40" t="n">
-        <v>0.271741</v>
+        <v>0.269766</v>
       </c>
       <c r="D40" t="n">
-        <v>0.280623</v>
+        <v>0.279458</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.301778</v>
+        <v>0.304341</v>
       </c>
       <c r="C41" t="n">
-        <v>0.273015</v>
+        <v>0.272284</v>
       </c>
       <c r="D41" t="n">
-        <v>0.281623</v>
+        <v>0.281412</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.303867</v>
+        <v>0.304956</v>
       </c>
       <c r="C42" t="n">
-        <v>0.274309</v>
+        <v>0.273804</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2828</v>
+        <v>0.28238</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.305478</v>
+        <v>0.305278</v>
       </c>
       <c r="C43" t="n">
-        <v>0.274592</v>
+        <v>0.273191</v>
       </c>
       <c r="D43" t="n">
-        <v>0.284064</v>
+        <v>0.28188</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.304427</v>
+        <v>0.304719</v>
       </c>
       <c r="C44" t="n">
-        <v>0.275222</v>
+        <v>0.2768</v>
       </c>
       <c r="D44" t="n">
-        <v>0.283707</v>
+        <v>0.285021</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.304766</v>
+        <v>0.305123</v>
       </c>
       <c r="C45" t="n">
-        <v>0.276508</v>
+        <v>0.277527</v>
       </c>
       <c r="D45" t="n">
-        <v>0.285362</v>
+        <v>0.286136</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.303052</v>
+        <v>0.304913</v>
       </c>
       <c r="C46" t="n">
-        <v>0.277598</v>
+        <v>0.278867</v>
       </c>
       <c r="D46" t="n">
-        <v>0.286807</v>
+        <v>0.287763</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.304763</v>
+        <v>0.304856</v>
       </c>
       <c r="C47" t="n">
-        <v>0.279014</v>
+        <v>0.279412</v>
       </c>
       <c r="D47" t="n">
-        <v>0.288615</v>
+        <v>0.288296</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.305303</v>
+        <v>0.306586</v>
       </c>
       <c r="C48" t="n">
-        <v>0.281596</v>
+        <v>0.281255</v>
       </c>
       <c r="D48" t="n">
-        <v>0.291793</v>
+        <v>0.29051</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.309202</v>
+        <v>0.308014</v>
       </c>
       <c r="C49" t="n">
-        <v>0.284846</v>
+        <v>0.282967</v>
       </c>
       <c r="D49" t="n">
-        <v>0.294868</v>
+        <v>0.29285</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.308702</v>
+        <v>0.309505</v>
       </c>
       <c r="C50" t="n">
-        <v>0.287637</v>
+        <v>0.288454</v>
       </c>
       <c r="D50" t="n">
-        <v>0.299741</v>
+        <v>0.299973</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.311921</v>
+        <v>0.311589</v>
       </c>
       <c r="C51" t="n">
-        <v>0.29253</v>
+        <v>0.292821</v>
       </c>
       <c r="D51" t="n">
-        <v>0.292232</v>
+        <v>0.292679</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.317193</v>
+        <v>0.315679</v>
       </c>
       <c r="C52" t="n">
-        <v>0.300871</v>
+        <v>0.299028</v>
       </c>
       <c r="D52" t="n">
-        <v>0.291644</v>
+        <v>0.293537</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.33109</v>
+        <v>0.331183</v>
       </c>
       <c r="C53" t="n">
-        <v>0.287009</v>
+        <v>0.285821</v>
       </c>
       <c r="D53" t="n">
-        <v>0.294227</v>
+        <v>0.29299</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.328696</v>
+        <v>0.330773</v>
       </c>
       <c r="C54" t="n">
-        <v>0.288319</v>
+        <v>0.288153</v>
       </c>
       <c r="D54" t="n">
-        <v>0.293745</v>
+        <v>0.293401</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.329696</v>
+        <v>0.33098</v>
       </c>
       <c r="C55" t="n">
-        <v>0.288016</v>
+        <v>0.285965</v>
       </c>
       <c r="D55" t="n">
-        <v>0.29549</v>
+        <v>0.291933</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.331487</v>
+        <v>0.330815</v>
       </c>
       <c r="C56" t="n">
-        <v>0.288987</v>
+        <v>0.288598</v>
       </c>
       <c r="D56" t="n">
-        <v>0.296086</v>
+        <v>0.29378</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.332613</v>
+        <v>0.331622</v>
       </c>
       <c r="C57" t="n">
-        <v>0.289964</v>
+        <v>0.290294</v>
       </c>
       <c r="D57" t="n">
-        <v>0.296579</v>
+        <v>0.295209</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.330328</v>
+        <v>0.331418</v>
       </c>
       <c r="C58" t="n">
-        <v>0.291364</v>
+        <v>0.291682</v>
       </c>
       <c r="D58" t="n">
-        <v>0.295874</v>
+        <v>0.2966</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.329886</v>
+        <v>0.331736</v>
       </c>
       <c r="C59" t="n">
-        <v>0.291104</v>
+        <v>0.289582</v>
       </c>
       <c r="D59" t="n">
-        <v>0.299229</v>
+        <v>0.295074</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.331015</v>
+        <v>0.330982</v>
       </c>
       <c r="C60" t="n">
-        <v>0.293476</v>
+        <v>0.294151</v>
       </c>
       <c r="D60" t="n">
-        <v>0.298874</v>
+        <v>0.299308</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.33156</v>
+        <v>0.33298</v>
       </c>
       <c r="C61" t="n">
-        <v>0.295465</v>
+        <v>0.295402</v>
       </c>
       <c r="D61" t="n">
-        <v>0.302445</v>
+        <v>0.300623</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.332928</v>
+        <v>0.332189</v>
       </c>
       <c r="C62" t="n">
-        <v>0.296895</v>
+        <v>0.297278</v>
       </c>
       <c r="D62" t="n">
-        <v>0.304215</v>
+        <v>0.30313</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.334399</v>
+        <v>0.334782</v>
       </c>
       <c r="C63" t="n">
-        <v>0.300408</v>
+        <v>0.300115</v>
       </c>
       <c r="D63" t="n">
-        <v>0.308421</v>
+        <v>0.306159</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.33728</v>
+        <v>0.339392</v>
       </c>
       <c r="C64" t="n">
-        <v>0.303514</v>
+        <v>0.303433</v>
       </c>
       <c r="D64" t="n">
-        <v>0.310727</v>
+        <v>0.311005</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.337147</v>
+        <v>0.33928</v>
       </c>
       <c r="C65" t="n">
-        <v>0.307745</v>
+        <v>0.30851</v>
       </c>
       <c r="D65" t="n">
-        <v>0.31954</v>
+        <v>0.31822</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.34373</v>
+        <v>0.344096</v>
       </c>
       <c r="C66" t="n">
-        <v>0.313059</v>
+        <v>0.315604</v>
       </c>
       <c r="D66" t="n">
-        <v>0.302139</v>
+        <v>0.301749</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.345902</v>
+        <v>0.351531</v>
       </c>
       <c r="C67" t="n">
-        <v>0.298766</v>
+        <v>0.297279</v>
       </c>
       <c r="D67" t="n">
-        <v>0.300312</v>
+        <v>0.299901</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.34938</v>
+        <v>0.350031</v>
       </c>
       <c r="C68" t="n">
-        <v>0.299729</v>
+        <v>0.29872</v>
       </c>
       <c r="D68" t="n">
-        <v>0.302266</v>
+        <v>0.300021</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.3496</v>
+        <v>0.350648</v>
       </c>
       <c r="C69" t="n">
-        <v>0.300287</v>
+        <v>0.300097</v>
       </c>
       <c r="D69" t="n">
-        <v>0.30301</v>
+        <v>0.30112</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.350529</v>
+        <v>0.351369</v>
       </c>
       <c r="C70" t="n">
-        <v>0.30144</v>
+        <v>0.301097</v>
       </c>
       <c r="D70" t="n">
-        <v>0.303456</v>
+        <v>0.301876</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.350836</v>
+        <v>0.350348</v>
       </c>
       <c r="C71" t="n">
-        <v>0.302238</v>
+        <v>0.301673</v>
       </c>
       <c r="D71" t="n">
-        <v>0.304916</v>
+        <v>0.302262</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.350267</v>
+        <v>0.35075</v>
       </c>
       <c r="C72" t="n">
-        <v>0.302969</v>
+        <v>0.302556</v>
       </c>
       <c r="D72" t="n">
-        <v>0.304811</v>
+        <v>0.303379</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.350808</v>
+        <v>0.350759</v>
       </c>
       <c r="C73" t="n">
-        <v>0.305407</v>
+        <v>0.304467</v>
       </c>
       <c r="D73" t="n">
-        <v>0.30722</v>
+        <v>0.304672</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.351593</v>
+        <v>0.351436</v>
       </c>
       <c r="C74" t="n">
-        <v>0.305669</v>
+        <v>0.305513</v>
       </c>
       <c r="D74" t="n">
-        <v>0.308176</v>
+        <v>0.305875</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.35233</v>
+        <v>0.352084</v>
       </c>
       <c r="C75" t="n">
-        <v>0.307752</v>
+        <v>0.307111</v>
       </c>
       <c r="D75" t="n">
-        <v>0.309417</v>
+        <v>0.307462</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.352028</v>
+        <v>0.352906</v>
       </c>
       <c r="C76" t="n">
-        <v>0.310116</v>
+        <v>0.308894</v>
       </c>
       <c r="D76" t="n">
-        <v>0.312338</v>
+        <v>0.309995</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.353735</v>
+        <v>0.354144</v>
       </c>
       <c r="C77" t="n">
-        <v>0.31241</v>
+        <v>0.311492</v>
       </c>
       <c r="D77" t="n">
-        <v>0.315344</v>
+        <v>0.313012</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.355552</v>
+        <v>0.355531</v>
       </c>
       <c r="C78" t="n">
-        <v>0.315375</v>
+        <v>0.314613</v>
       </c>
       <c r="D78" t="n">
-        <v>0.320475</v>
+        <v>0.317742</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.357846</v>
+        <v>0.358197</v>
       </c>
       <c r="C79" t="n">
-        <v>0.320101</v>
+        <v>0.31857</v>
       </c>
       <c r="D79" t="n">
-        <v>0.327924</v>
+        <v>0.32457</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.362314</v>
+        <v>0.361952</v>
       </c>
       <c r="C80" t="n">
-        <v>0.326448</v>
+        <v>0.324928</v>
       </c>
       <c r="D80" t="n">
-        <v>0.303262</v>
+        <v>0.308536</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.371716</v>
+        <v>0.368073</v>
       </c>
       <c r="C81" t="n">
-        <v>0.300035</v>
+        <v>0.300496</v>
       </c>
       <c r="D81" t="n">
-        <v>0.311467</v>
+        <v>0.311527</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.370583</v>
+        <v>0.371309</v>
       </c>
       <c r="C82" t="n">
-        <v>0.300624</v>
+        <v>0.305917</v>
       </c>
       <c r="D82" t="n">
-        <v>0.312168</v>
+        <v>0.314332</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.371454</v>
+        <v>0.374588</v>
       </c>
       <c r="C83" t="n">
-        <v>0.301007</v>
+        <v>0.304362</v>
       </c>
       <c r="D83" t="n">
-        <v>0.312365</v>
+        <v>0.313629</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.370893</v>
+        <v>0.372966</v>
       </c>
       <c r="C84" t="n">
-        <v>0.303956</v>
+        <v>0.30341</v>
       </c>
       <c r="D84" t="n">
-        <v>0.315355</v>
+        <v>0.313408</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.370846</v>
+        <v>0.381234</v>
       </c>
       <c r="C85" t="n">
-        <v>0.305646</v>
+        <v>0.310566</v>
       </c>
       <c r="D85" t="n">
-        <v>0.315866</v>
+        <v>0.322874</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.373682</v>
+        <v>0.37951</v>
       </c>
       <c r="C86" t="n">
-        <v>0.299268</v>
+        <v>0.307945</v>
       </c>
       <c r="D86" t="n">
-        <v>0.310146</v>
+        <v>0.314996</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.362412</v>
+        <v>0.378588</v>
       </c>
       <c r="C87" t="n">
-        <v>0.30785</v>
+        <v>0.305537</v>
       </c>
       <c r="D87" t="n">
-        <v>0.316506</v>
+        <v>0.316697</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.373336</v>
+        <v>0.372755</v>
       </c>
       <c r="C88" t="n">
-        <v>0.307303</v>
+        <v>0.30823</v>
       </c>
       <c r="D88" t="n">
-        <v>0.319625</v>
+        <v>0.320636</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.372454</v>
+        <v>0.372823</v>
       </c>
       <c r="C89" t="n">
-        <v>0.298716</v>
+        <v>0.306416</v>
       </c>
       <c r="D89" t="n">
-        <v>0.311951</v>
+        <v>0.319068</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.362448</v>
+        <v>0.374772</v>
       </c>
       <c r="C90" t="n">
-        <v>0.306757</v>
+        <v>0.310328</v>
       </c>
       <c r="D90" t="n">
-        <v>0.315199</v>
+        <v>0.32319</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.36576</v>
+        <v>0.376023</v>
       </c>
       <c r="C91" t="n">
-        <v>0.315438</v>
+        <v>0.312628</v>
       </c>
       <c r="D91" t="n">
-        <v>0.325858</v>
+        <v>0.324844</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.377432</v>
+        <v>0.377416</v>
       </c>
       <c r="C92" t="n">
-        <v>0.313769</v>
+        <v>0.306144</v>
       </c>
       <c r="D92" t="n">
-        <v>0.328046</v>
+        <v>0.320802</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.377333</v>
+        <v>0.367812</v>
       </c>
       <c r="C93" t="n">
-        <v>0.317306</v>
+        <v>0.318395</v>
       </c>
       <c r="D93" t="n">
-        <v>0.334755</v>
+        <v>0.334539</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.38102</v>
+        <v>0.387924</v>
       </c>
       <c r="C94" t="n">
-        <v>0.32291</v>
+        <v>0.319497</v>
       </c>
       <c r="D94" t="n">
-        <v>0.436419</v>
+        <v>0.440865</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.551414</v>
+        <v>0.548549</v>
       </c>
       <c r="C95" t="n">
-        <v>0.475308</v>
+        <v>0.46776</v>
       </c>
       <c r="D95" t="n">
-        <v>0.457837</v>
+        <v>0.452354</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.552104</v>
+        <v>0.556042</v>
       </c>
       <c r="C96" t="n">
-        <v>0.47254</v>
+        <v>0.444548</v>
       </c>
       <c r="D96" t="n">
-        <v>0.453992</v>
+        <v>0.429621</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.55298</v>
+        <v>0.513162</v>
       </c>
       <c r="C97" t="n">
-        <v>0.463562</v>
+        <v>0.47301</v>
       </c>
       <c r="D97" t="n">
-        <v>0.454008</v>
+        <v>0.463716</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.556531</v>
+        <v>0.562369</v>
       </c>
       <c r="C98" t="n">
-        <v>0.467312</v>
+        <v>0.478262</v>
       </c>
       <c r="D98" t="n">
-        <v>0.460187</v>
+        <v>0.466575</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.549435</v>
+        <v>0.565894</v>
       </c>
       <c r="C99" t="n">
-        <v>0.473545</v>
+        <v>0.485096</v>
       </c>
       <c r="D99" t="n">
-        <v>0.454596</v>
+        <v>0.466852</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5603939999999999</v>
+        <v>0.564542</v>
       </c>
       <c r="C100" t="n">
-        <v>0.483506</v>
+        <v>0.447373</v>
       </c>
       <c r="D100" t="n">
-        <v>0.465668</v>
+        <v>0.430542</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.565624</v>
+        <v>0.5202830000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.480695</v>
+        <v>0.48554</v>
       </c>
       <c r="D101" t="n">
-        <v>0.459564</v>
+        <v>0.464866</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.553802</v>
+        <v>0.569121</v>
       </c>
       <c r="C102" t="n">
-        <v>0.486524</v>
+        <v>0.483943</v>
       </c>
       <c r="D102" t="n">
-        <v>0.482272</v>
+        <v>0.470782</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.560864</v>
+        <v>0.563783</v>
       </c>
       <c r="C103" t="n">
-        <v>0.480206</v>
+        <v>0.484873</v>
       </c>
       <c r="D103" t="n">
-        <v>0.46248</v>
+        <v>0.468214</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.560469</v>
+        <v>0.572569</v>
       </c>
       <c r="C104" t="n">
-        <v>0.45327</v>
+        <v>0.455996</v>
       </c>
       <c r="D104" t="n">
-        <v>0.434967</v>
+        <v>0.443384</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.520077</v>
+        <v>0.511136</v>
       </c>
       <c r="C105" t="n">
-        <v>0.483586</v>
+        <v>0.45681</v>
       </c>
       <c r="D105" t="n">
-        <v>0.469836</v>
+        <v>0.446552</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.56836</v>
+        <v>0.51764</v>
       </c>
       <c r="C106" t="n">
-        <v>0.491403</v>
+        <v>0.492331</v>
       </c>
       <c r="D106" t="n">
-        <v>0.473247</v>
+        <v>0.471405</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.568337</v>
+        <v>0.563481</v>
       </c>
       <c r="C107" t="n">
-        <v>0.495054</v>
+        <v>0.491961</v>
       </c>
       <c r="D107" t="n">
-        <v>0.479165</v>
+        <v>0.480558</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.567692</v>
+        <v>0.560955</v>
       </c>
       <c r="C108" t="n">
-        <v>0.470708</v>
+        <v>0.4954</v>
       </c>
       <c r="D108" t="n">
-        <v>0.729544</v>
+        <v>0.711934</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.525199</v>
+        <v>0.562609</v>
       </c>
       <c r="C109" t="n">
-        <v>0.47784</v>
+        <v>0.50288</v>
       </c>
       <c r="D109" t="n">
-        <v>0.729914</v>
+        <v>0.731762</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.852674</v>
+        <v>0.858235</v>
       </c>
       <c r="C110" t="n">
-        <v>0.714322</v>
+        <v>0.715761</v>
       </c>
       <c r="D110" t="n">
-        <v>0.732333</v>
+        <v>0.734108</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.86275</v>
+        <v>0.84185</v>
       </c>
       <c r="C111" t="n">
-        <v>0.714556</v>
+        <v>0.718343</v>
       </c>
       <c r="D111" t="n">
-        <v>0.732874</v>
+        <v>0.720375</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.855497</v>
+        <v>0.852705</v>
       </c>
       <c r="C112" t="n">
-        <v>0.716153</v>
+        <v>0.733756</v>
       </c>
       <c r="D112" t="n">
-        <v>0.734359</v>
+        <v>0.7347050000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.85405</v>
+        <v>0.85542</v>
       </c>
       <c r="C113" t="n">
-        <v>0.717172</v>
+        <v>0.73617</v>
       </c>
       <c r="D113" t="n">
-        <v>0.735663</v>
+        <v>0.735239</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.838466</v>
+        <v>0.853167</v>
       </c>
       <c r="C114" t="n">
-        <v>0.733739</v>
+        <v>0.720947</v>
       </c>
       <c r="D114" t="n">
-        <v>0.723428</v>
+        <v>0.737202</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.852063</v>
+        <v>0.860353</v>
       </c>
       <c r="C115" t="n">
-        <v>0.7200569999999999</v>
+        <v>0.737042</v>
       </c>
       <c r="D115" t="n">
-        <v>0.738327</v>
+        <v>0.726973</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.858646</v>
+        <v>0.857232</v>
       </c>
       <c r="C116" t="n">
-        <v>0.737198</v>
+        <v>0.738343</v>
       </c>
       <c r="D116" t="n">
-        <v>0.739494</v>
+        <v>0.741731</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.839253</v>
+        <v>0.858442</v>
       </c>
       <c r="C117" t="n">
-        <v>0.738941</v>
+        <v>0.724105</v>
       </c>
       <c r="D117" t="n">
-        <v>0.729925</v>
+        <v>0.743053</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.856388</v>
+        <v>0.845549</v>
       </c>
       <c r="C118" t="n">
-        <v>0.726336</v>
+        <v>0.742953</v>
       </c>
       <c r="D118" t="n">
-        <v>0.745442</v>
+        <v>0.7462530000000001</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.853665</v>
+        <v>0.839982</v>
       </c>
       <c r="C119" t="n">
-        <v>0.746053</v>
+        <v>0.745638</v>
       </c>
       <c r="D119" t="n">
-        <v>0.748031</v>
+        <v>0.748413</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.837679</v>
+        <v>0.841686</v>
       </c>
       <c r="C120" t="n">
-        <v>0.749827</v>
+        <v>0.749846</v>
       </c>
       <c r="D120" t="n">
-        <v>0.753965</v>
+        <v>0.741039</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.850945</v>
+        <v>0.847951</v>
       </c>
       <c r="C121" t="n">
-        <v>0.755217</v>
+        <v>0.755748</v>
       </c>
       <c r="D121" t="n">
-        <v>0.759583</v>
+        <v>0.7603</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.841935</v>
+        <v>0.844274</v>
       </c>
       <c r="C122" t="n">
-        <v>0.761674</v>
+        <v>0.745671</v>
       </c>
       <c r="D122" t="n">
-        <v>0.767629</v>
+        <v>0.768062</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.8596009999999999</v>
+        <v>0.843952</v>
       </c>
       <c r="C123" t="n">
-        <v>0.770414</v>
+        <v>0.754602</v>
       </c>
       <c r="D123" t="n">
-        <v>0.8381189999999999</v>
+        <v>0.838917</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.12546</v>
+        <v>1.09661</v>
       </c>
       <c r="C124" t="n">
-        <v>0.836986</v>
+        <v>0.8299840000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.848293</v>
+        <v>0.848231</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.11282</v>
+        <v>1.0973</v>
       </c>
       <c r="C125" t="n">
-        <v>0.83854</v>
+        <v>0.83841</v>
       </c>
       <c r="D125" t="n">
-        <v>0.849706</v>
+        <v>0.841675</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.11857</v>
+        <v>1.1174</v>
       </c>
       <c r="C126" t="n">
-        <v>0.840081</v>
+        <v>0.839632</v>
       </c>
       <c r="D126" t="n">
-        <v>0.852201</v>
+        <v>0.8434469999999999</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.092</v>
+        <v>1.09877</v>
       </c>
       <c r="C127" t="n">
-        <v>0.840434</v>
+        <v>0.835071</v>
       </c>
       <c r="D127" t="n">
-        <v>0.853166</v>
+        <v>0.8535970000000001</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.09873</v>
+        <v>1.11548</v>
       </c>
       <c r="C128" t="n">
-        <v>0.842618</v>
+        <v>0.842621</v>
       </c>
       <c r="D128" t="n">
-        <v>0.846562</v>
+        <v>0.854406</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.1111</v>
+        <v>1.12025</v>
       </c>
       <c r="C129" t="n">
-        <v>0.843928</v>
+        <v>0.8452460000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>0.855802</v>
+        <v>0.856953</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.11737</v>
+        <v>1.11931</v>
       </c>
       <c r="C130" t="n">
-        <v>0.846175</v>
+        <v>0.84719</v>
       </c>
       <c r="D130" t="n">
-        <v>0.858134</v>
+        <v>0.86007</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.11095</v>
+        <v>1.11847</v>
       </c>
       <c r="C131" t="n">
-        <v>0.843514</v>
+        <v>0.850195</v>
       </c>
       <c r="D131" t="n">
-        <v>0.862226</v>
+        <v>0.862155</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.11516</v>
+        <v>1.11737</v>
       </c>
       <c r="C132" t="n">
-        <v>0.8525779999999999</v>
+        <v>0.845958</v>
       </c>
       <c r="D132" t="n">
-        <v>0.865344</v>
+        <v>0.858314</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.09569</v>
+        <v>1.11774</v>
       </c>
       <c r="C133" t="n">
-        <v>0.857006</v>
+        <v>0.8566240000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>0.87008</v>
+        <v>0.870875</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.11875</v>
+        <v>1.09951</v>
       </c>
       <c r="C134" t="n">
-        <v>0.862712</v>
+        <v>0.862382</v>
       </c>
       <c r="D134" t="n">
-        <v>0.869686</v>
+        <v>0.869247</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.11568</v>
+        <v>1.10248</v>
       </c>
       <c r="C135" t="n">
-        <v>0.869008</v>
+        <v>0.869001</v>
       </c>
       <c r="D135" t="n">
-        <v>0.886095</v>
+        <v>0.8858549999999999</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.12025</v>
+        <v>1.12271</v>
       </c>
       <c r="C136" t="n">
-        <v>0.876803</v>
+        <v>0.8775849999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>0.891501</v>
+        <v>0.8899860000000001</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.11858</v>
+        <v>1.12479</v>
       </c>
       <c r="C137" t="n">
-        <v>0.883751</v>
+        <v>0.890008</v>
       </c>
       <c r="D137" t="n">
-        <v>0.896268</v>
+        <v>0.897232</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.3384</v>
+        <v>1.34124</v>
       </c>
       <c r="C138" t="n">
-        <v>0.885116</v>
+        <v>0.879808</v>
       </c>
       <c r="D138" t="n">
-        <v>0.901828</v>
+        <v>0.896073</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.33871</v>
+        <v>1.32717</v>
       </c>
       <c r="C139" t="n">
-        <v>0.885211</v>
+        <v>0.881007</v>
       </c>
       <c r="D139" t="n">
-        <v>0.903423</v>
+        <v>0.902544</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.33915</v>
+        <v>1.34029</v>
       </c>
       <c r="C140" t="n">
-        <v>0.886324</v>
+        <v>0.8849359999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>0.902199</v>
+        <v>0.903155</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.34015</v>
+        <v>1.34153</v>
       </c>
       <c r="C141" t="n">
-        <v>0.88919</v>
+        <v>0.886694</v>
       </c>
       <c r="D141" t="n">
-        <v>0.904049</v>
+        <v>0.903913</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.33842</v>
+        <v>1.33202</v>
       </c>
       <c r="C142" t="n">
-        <v>0.887193</v>
+        <v>0.885351</v>
       </c>
       <c r="D142" t="n">
-        <v>0.90863</v>
+        <v>0.907145</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.33877</v>
+        <v>1.33269</v>
       </c>
       <c r="C143" t="n">
-        <v>0.889105</v>
+        <v>0.8884379999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.907326</v>
+        <v>0.906904</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.243199</v>
+        <v>0.242525</v>
       </c>
       <c r="C2" t="n">
-        <v>0.241098</v>
+        <v>0.241025</v>
       </c>
       <c r="D2" t="n">
-        <v>0.24748</v>
+        <v>0.247795</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.242221</v>
+        <v>0.241538</v>
       </c>
       <c r="C3" t="n">
-        <v>0.24056</v>
+        <v>0.23954</v>
       </c>
       <c r="D3" t="n">
-        <v>0.24715</v>
+        <v>0.246709</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.24451</v>
+        <v>0.244393</v>
       </c>
       <c r="C4" t="n">
-        <v>0.243383</v>
+        <v>0.243307</v>
       </c>
       <c r="D4" t="n">
-        <v>0.250367</v>
+        <v>0.250674</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.246528</v>
+        <v>0.246457</v>
       </c>
       <c r="C5" t="n">
-        <v>0.246543</v>
+        <v>0.246387</v>
       </c>
       <c r="D5" t="n">
-        <v>0.254541</v>
+        <v>0.25467</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.245791</v>
+        <v>0.245645</v>
       </c>
       <c r="C6" t="n">
-        <v>0.247992</v>
+        <v>0.247708</v>
       </c>
       <c r="D6" t="n">
-        <v>0.256718</v>
+        <v>0.255788</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.248605</v>
+        <v>0.247981</v>
       </c>
       <c r="C7" t="n">
-        <v>0.25118</v>
+        <v>0.250436</v>
       </c>
       <c r="D7" t="n">
-        <v>0.262518</v>
+        <v>0.261797</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.252024</v>
+        <v>0.251373</v>
       </c>
       <c r="C8" t="n">
-        <v>0.25613</v>
+        <v>0.255316</v>
       </c>
       <c r="D8" t="n">
-        <v>0.269323</v>
+        <v>0.269211</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.259283</v>
+        <v>0.259154</v>
       </c>
       <c r="C9" t="n">
-        <v>0.264042</v>
+        <v>0.263995</v>
       </c>
       <c r="D9" t="n">
-        <v>0.247128</v>
+        <v>0.249093</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.251436</v>
+        <v>0.251999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.244194</v>
+        <v>0.244426</v>
       </c>
       <c r="D10" t="n">
-        <v>0.247316</v>
+        <v>0.247184</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.249818</v>
+        <v>0.251035</v>
       </c>
       <c r="C11" t="n">
-        <v>0.243855</v>
+        <v>0.244325</v>
       </c>
       <c r="D11" t="n">
-        <v>0.247102</v>
+        <v>0.247235</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.251382</v>
+        <v>0.256192</v>
       </c>
       <c r="C12" t="n">
-        <v>0.245644</v>
+        <v>0.249544</v>
       </c>
       <c r="D12" t="n">
-        <v>0.248753</v>
+        <v>0.250341</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.250644</v>
+        <v>0.251135</v>
       </c>
       <c r="C13" t="n">
-        <v>0.245254</v>
+        <v>0.245135</v>
       </c>
       <c r="D13" t="n">
-        <v>0.248595</v>
+        <v>0.248328</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.251408</v>
+        <v>0.251076</v>
       </c>
       <c r="C14" t="n">
-        <v>0.246361</v>
+        <v>0.246839</v>
       </c>
       <c r="D14" t="n">
-        <v>0.249951</v>
+        <v>0.249866</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.252051</v>
+        <v>0.251781</v>
       </c>
       <c r="C15" t="n">
-        <v>0.24749</v>
+        <v>0.247227</v>
       </c>
       <c r="D15" t="n">
-        <v>0.25113</v>
+        <v>0.250208</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.252444</v>
+        <v>0.254423</v>
       </c>
       <c r="C16" t="n">
-        <v>0.248002</v>
+        <v>0.249513</v>
       </c>
       <c r="D16" t="n">
-        <v>0.251337</v>
+        <v>0.251679</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.252667</v>
+        <v>0.255366</v>
       </c>
       <c r="C17" t="n">
-        <v>0.248993</v>
+        <v>0.251344</v>
       </c>
       <c r="D17" t="n">
-        <v>0.253302</v>
+        <v>0.255328</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.252871</v>
+        <v>0.252362</v>
       </c>
       <c r="C18" t="n">
-        <v>0.249538</v>
+        <v>0.249326</v>
       </c>
       <c r="D18" t="n">
-        <v>0.254232</v>
+        <v>0.253565</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.254647</v>
+        <v>0.254675</v>
       </c>
       <c r="C19" t="n">
-        <v>0.251928</v>
+        <v>0.252812</v>
       </c>
       <c r="D19" t="n">
-        <v>0.257342</v>
+        <v>0.257113</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.25486</v>
+        <v>0.257789</v>
       </c>
       <c r="C20" t="n">
-        <v>0.253237</v>
+        <v>0.255641</v>
       </c>
       <c r="D20" t="n">
-        <v>0.25866</v>
+        <v>0.260995</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.257832</v>
+        <v>0.2584</v>
       </c>
       <c r="C21" t="n">
-        <v>0.25681</v>
+        <v>0.256949</v>
       </c>
       <c r="D21" t="n">
-        <v>0.263735</v>
+        <v>0.262828</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.259728</v>
+        <v>0.260164</v>
       </c>
       <c r="C22" t="n">
-        <v>0.259057</v>
+        <v>0.260075</v>
       </c>
       <c r="D22" t="n">
-        <v>0.268931</v>
+        <v>0.269792</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.264758</v>
+        <v>0.266732</v>
       </c>
       <c r="C23" t="n">
-        <v>0.265059</v>
+        <v>0.267953</v>
       </c>
       <c r="D23" t="n">
-        <v>0.257627</v>
+        <v>0.255667</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.269592</v>
+        <v>0.270365</v>
       </c>
       <c r="C24" t="n">
-        <v>0.24946</v>
+        <v>0.247228</v>
       </c>
       <c r="D24" t="n">
-        <v>0.258029</v>
+        <v>0.256666</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.270052</v>
+        <v>0.268928</v>
       </c>
       <c r="C25" t="n">
-        <v>0.248849</v>
+        <v>0.24692</v>
       </c>
       <c r="D25" t="n">
-        <v>0.256961</v>
+        <v>0.25543</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.270636</v>
+        <v>0.270375</v>
       </c>
       <c r="C26" t="n">
-        <v>0.24941</v>
+        <v>0.247695</v>
       </c>
       <c r="D26" t="n">
-        <v>0.259012</v>
+        <v>0.256314</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.270592</v>
+        <v>0.27283</v>
       </c>
       <c r="C27" t="n">
-        <v>0.250395</v>
+        <v>0.248258</v>
       </c>
       <c r="D27" t="n">
-        <v>0.258805</v>
+        <v>0.257358</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.27144</v>
+        <v>0.274975</v>
       </c>
       <c r="C28" t="n">
-        <v>0.252021</v>
+        <v>0.251203</v>
       </c>
       <c r="D28" t="n">
-        <v>0.260349</v>
+        <v>0.257882</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.271872</v>
+        <v>0.27598</v>
       </c>
       <c r="C29" t="n">
-        <v>0.251614</v>
+        <v>0.252379</v>
       </c>
       <c r="D29" t="n">
-        <v>0.260861</v>
+        <v>0.260104</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.272615</v>
+        <v>0.27618</v>
       </c>
       <c r="C30" t="n">
-        <v>0.253405</v>
+        <v>0.254466</v>
       </c>
       <c r="D30" t="n">
-        <v>0.262318</v>
+        <v>0.262155</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.273777</v>
+        <v>0.275246</v>
       </c>
       <c r="C31" t="n">
-        <v>0.255267</v>
+        <v>0.255457</v>
       </c>
       <c r="D31" t="n">
-        <v>0.264348</v>
+        <v>0.264783</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.274476</v>
+        <v>0.276534</v>
       </c>
       <c r="C32" t="n">
-        <v>0.256717</v>
+        <v>0.256631</v>
       </c>
       <c r="D32" t="n">
-        <v>0.266271</v>
+        <v>0.267292</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.274634</v>
+        <v>0.277851</v>
       </c>
       <c r="C33" t="n">
-        <v>0.258863</v>
+        <v>0.258372</v>
       </c>
       <c r="D33" t="n">
-        <v>0.269144</v>
+        <v>0.26874</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.275604</v>
+        <v>0.280506</v>
       </c>
       <c r="C34" t="n">
-        <v>0.260423</v>
+        <v>0.259888</v>
       </c>
       <c r="D34" t="n">
-        <v>0.271312</v>
+        <v>0.270505</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.277646</v>
+        <v>0.278475</v>
       </c>
       <c r="C35" t="n">
-        <v>0.261945</v>
+        <v>0.263236</v>
       </c>
       <c r="D35" t="n">
-        <v>0.274039</v>
+        <v>0.273045</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.279001</v>
+        <v>0.281269</v>
       </c>
       <c r="C36" t="n">
-        <v>0.266475</v>
+        <v>0.266733</v>
       </c>
       <c r="D36" t="n">
-        <v>0.278629</v>
+        <v>0.2788</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.28263</v>
+        <v>0.286414</v>
       </c>
       <c r="C37" t="n">
-        <v>0.271947</v>
+        <v>0.272009</v>
       </c>
       <c r="D37" t="n">
-        <v>0.280354</v>
+        <v>0.280377</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.30339</v>
+        <v>0.303445</v>
       </c>
       <c r="C38" t="n">
-        <v>0.26961</v>
+        <v>0.268721</v>
       </c>
       <c r="D38" t="n">
-        <v>0.279425</v>
+        <v>0.279079</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.30334</v>
+        <v>0.303823</v>
       </c>
       <c r="C39" t="n">
-        <v>0.271487</v>
+        <v>0.271401</v>
       </c>
       <c r="D39" t="n">
-        <v>0.28088</v>
+        <v>0.28018</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.303576</v>
+        <v>0.304262</v>
       </c>
       <c r="C40" t="n">
-        <v>0.269766</v>
+        <v>0.271373</v>
       </c>
       <c r="D40" t="n">
-        <v>0.279458</v>
+        <v>0.280609</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.304341</v>
+        <v>0.304017</v>
       </c>
       <c r="C41" t="n">
-        <v>0.272284</v>
+        <v>0.272198</v>
       </c>
       <c r="D41" t="n">
-        <v>0.281412</v>
+        <v>0.281062</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.304956</v>
+        <v>0.304814</v>
       </c>
       <c r="C42" t="n">
-        <v>0.273804</v>
+        <v>0.273828</v>
       </c>
       <c r="D42" t="n">
-        <v>0.28238</v>
+        <v>0.28235</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.305278</v>
+        <v>0.305623</v>
       </c>
       <c r="C43" t="n">
-        <v>0.273191</v>
+        <v>0.274325</v>
       </c>
       <c r="D43" t="n">
-        <v>0.28188</v>
+        <v>0.282725</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.304719</v>
+        <v>0.3062</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2768</v>
+        <v>0.276299</v>
       </c>
       <c r="D44" t="n">
-        <v>0.285021</v>
+        <v>0.284383</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.305123</v>
+        <v>0.307723</v>
       </c>
       <c r="C45" t="n">
-        <v>0.277527</v>
+        <v>0.278113</v>
       </c>
       <c r="D45" t="n">
-        <v>0.286136</v>
+        <v>0.286275</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.304913</v>
+        <v>0.305813</v>
       </c>
       <c r="C46" t="n">
-        <v>0.278867</v>
+        <v>0.278619</v>
       </c>
       <c r="D46" t="n">
-        <v>0.287763</v>
+        <v>0.287159</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.304856</v>
+        <v>0.306168</v>
       </c>
       <c r="C47" t="n">
-        <v>0.279412</v>
+        <v>0.280721</v>
       </c>
       <c r="D47" t="n">
-        <v>0.288296</v>
+        <v>0.289499</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.306586</v>
+        <v>0.309134</v>
       </c>
       <c r="C48" t="n">
-        <v>0.281255</v>
+        <v>0.282674</v>
       </c>
       <c r="D48" t="n">
-        <v>0.29051</v>
+        <v>0.292086</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.308014</v>
+        <v>0.30794</v>
       </c>
       <c r="C49" t="n">
-        <v>0.282967</v>
+        <v>0.285104</v>
       </c>
       <c r="D49" t="n">
-        <v>0.29285</v>
+        <v>0.295357</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.309505</v>
+        <v>0.310677</v>
       </c>
       <c r="C50" t="n">
-        <v>0.288454</v>
+        <v>0.288611</v>
       </c>
       <c r="D50" t="n">
-        <v>0.299973</v>
+        <v>0.299948</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.311589</v>
+        <v>0.312766</v>
       </c>
       <c r="C51" t="n">
-        <v>0.292821</v>
+        <v>0.293181</v>
       </c>
       <c r="D51" t="n">
-        <v>0.292679</v>
+        <v>0.293395</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.315679</v>
+        <v>0.317317</v>
       </c>
       <c r="C52" t="n">
-        <v>0.299028</v>
+        <v>0.299569</v>
       </c>
       <c r="D52" t="n">
-        <v>0.293537</v>
+        <v>0.294062</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.331183</v>
+        <v>0.331252</v>
       </c>
       <c r="C53" t="n">
-        <v>0.285821</v>
+        <v>0.286262</v>
       </c>
       <c r="D53" t="n">
-        <v>0.29299</v>
+        <v>0.292456</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.330773</v>
+        <v>0.332229</v>
       </c>
       <c r="C54" t="n">
-        <v>0.288153</v>
+        <v>0.287431</v>
       </c>
       <c r="D54" t="n">
-        <v>0.293401</v>
+        <v>0.29327</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.33098</v>
+        <v>0.331029</v>
       </c>
       <c r="C55" t="n">
-        <v>0.285965</v>
+        <v>0.288127</v>
       </c>
       <c r="D55" t="n">
-        <v>0.291933</v>
+        <v>0.293464</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.330815</v>
+        <v>0.331569</v>
       </c>
       <c r="C56" t="n">
-        <v>0.288598</v>
+        <v>0.288855</v>
       </c>
       <c r="D56" t="n">
-        <v>0.29378</v>
+        <v>0.294281</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.331622</v>
+        <v>0.331223</v>
       </c>
       <c r="C57" t="n">
-        <v>0.290294</v>
+        <v>0.290115</v>
       </c>
       <c r="D57" t="n">
-        <v>0.295209</v>
+        <v>0.29534</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.331418</v>
+        <v>0.332675</v>
       </c>
       <c r="C58" t="n">
-        <v>0.291682</v>
+        <v>0.292022</v>
       </c>
       <c r="D58" t="n">
-        <v>0.2966</v>
+        <v>0.297168</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.331736</v>
+        <v>0.333225</v>
       </c>
       <c r="C59" t="n">
-        <v>0.289582</v>
+        <v>0.292382</v>
       </c>
       <c r="D59" t="n">
-        <v>0.295074</v>
+        <v>0.297591</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.330982</v>
+        <v>0.33213</v>
       </c>
       <c r="C60" t="n">
-        <v>0.294151</v>
+        <v>0.2937</v>
       </c>
       <c r="D60" t="n">
-        <v>0.299308</v>
+        <v>0.298577</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.33298</v>
+        <v>0.333627</v>
       </c>
       <c r="C61" t="n">
-        <v>0.295402</v>
+        <v>0.294852</v>
       </c>
       <c r="D61" t="n">
-        <v>0.300623</v>
+        <v>0.300536</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.332189</v>
+        <v>0.333334</v>
       </c>
       <c r="C62" t="n">
-        <v>0.297278</v>
+        <v>0.297528</v>
       </c>
       <c r="D62" t="n">
-        <v>0.30313</v>
+        <v>0.303547</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.334782</v>
+        <v>0.335074</v>
       </c>
       <c r="C63" t="n">
-        <v>0.300115</v>
+        <v>0.300068</v>
       </c>
       <c r="D63" t="n">
-        <v>0.306159</v>
+        <v>0.306285</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.339392</v>
+        <v>0.338066</v>
       </c>
       <c r="C64" t="n">
-        <v>0.303433</v>
+        <v>0.303462</v>
       </c>
       <c r="D64" t="n">
-        <v>0.311005</v>
+        <v>0.311509</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.33928</v>
+        <v>0.339332</v>
       </c>
       <c r="C65" t="n">
-        <v>0.30851</v>
+        <v>0.309453</v>
       </c>
       <c r="D65" t="n">
-        <v>0.31822</v>
+        <v>0.320103</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.344096</v>
+        <v>0.344133</v>
       </c>
       <c r="C66" t="n">
-        <v>0.315604</v>
+        <v>0.315299</v>
       </c>
       <c r="D66" t="n">
-        <v>0.301749</v>
+        <v>0.300515</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.351531</v>
+        <v>0.345616</v>
       </c>
       <c r="C67" t="n">
-        <v>0.297279</v>
+        <v>0.297313</v>
       </c>
       <c r="D67" t="n">
-        <v>0.299901</v>
+        <v>0.300189</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.350031</v>
+        <v>0.349766</v>
       </c>
       <c r="C68" t="n">
-        <v>0.29872</v>
+        <v>0.298492</v>
       </c>
       <c r="D68" t="n">
-        <v>0.300021</v>
+        <v>0.300459</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.350648</v>
+        <v>0.350847</v>
       </c>
       <c r="C69" t="n">
-        <v>0.300097</v>
+        <v>0.299144</v>
       </c>
       <c r="D69" t="n">
-        <v>0.30112</v>
+        <v>0.301029</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.351369</v>
+        <v>0.350258</v>
       </c>
       <c r="C70" t="n">
-        <v>0.301097</v>
+        <v>0.300299</v>
       </c>
       <c r="D70" t="n">
-        <v>0.301876</v>
+        <v>0.301945</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.350348</v>
+        <v>0.350217</v>
       </c>
       <c r="C71" t="n">
-        <v>0.301673</v>
+        <v>0.30145</v>
       </c>
       <c r="D71" t="n">
-        <v>0.302262</v>
+        <v>0.30257</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.35075</v>
+        <v>0.35067</v>
       </c>
       <c r="C72" t="n">
-        <v>0.302556</v>
+        <v>0.302431</v>
       </c>
       <c r="D72" t="n">
-        <v>0.303379</v>
+        <v>0.303727</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.350759</v>
+        <v>0.351301</v>
       </c>
       <c r="C73" t="n">
-        <v>0.304467</v>
+        <v>0.302666</v>
       </c>
       <c r="D73" t="n">
-        <v>0.304672</v>
+        <v>0.304453</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.351436</v>
+        <v>0.351121</v>
       </c>
       <c r="C74" t="n">
-        <v>0.305513</v>
+        <v>0.304099</v>
       </c>
       <c r="D74" t="n">
-        <v>0.305875</v>
+        <v>0.306083</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.352084</v>
+        <v>0.35195</v>
       </c>
       <c r="C75" t="n">
-        <v>0.307111</v>
+        <v>0.304512</v>
       </c>
       <c r="D75" t="n">
-        <v>0.307462</v>
+        <v>0.307523</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.352906</v>
+        <v>0.352834</v>
       </c>
       <c r="C76" t="n">
-        <v>0.308894</v>
+        <v>0.306864</v>
       </c>
       <c r="D76" t="n">
-        <v>0.309995</v>
+        <v>0.309982</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.354144</v>
+        <v>0.353533</v>
       </c>
       <c r="C77" t="n">
-        <v>0.311492</v>
+        <v>0.30848</v>
       </c>
       <c r="D77" t="n">
-        <v>0.313012</v>
+        <v>0.313571</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.355531</v>
+        <v>0.355481</v>
       </c>
       <c r="C78" t="n">
-        <v>0.314613</v>
+        <v>0.311717</v>
       </c>
       <c r="D78" t="n">
-        <v>0.317742</v>
+        <v>0.317881</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.358197</v>
+        <v>0.358341</v>
       </c>
       <c r="C79" t="n">
-        <v>0.31857</v>
+        <v>0.317101</v>
       </c>
       <c r="D79" t="n">
-        <v>0.32457</v>
+        <v>0.325023</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.361952</v>
+        <v>0.361993</v>
       </c>
       <c r="C80" t="n">
-        <v>0.324928</v>
+        <v>0.321808</v>
       </c>
       <c r="D80" t="n">
-        <v>0.308536</v>
+        <v>0.303731</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.368073</v>
+        <v>0.373267</v>
       </c>
       <c r="C81" t="n">
-        <v>0.300496</v>
+        <v>0.293969</v>
       </c>
       <c r="D81" t="n">
-        <v>0.311527</v>
+        <v>0.306834</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.371309</v>
+        <v>0.365734</v>
       </c>
       <c r="C82" t="n">
-        <v>0.305917</v>
+        <v>0.302181</v>
       </c>
       <c r="D82" t="n">
-        <v>0.314332</v>
+        <v>0.312628</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.374588</v>
+        <v>0.370953</v>
       </c>
       <c r="C83" t="n">
-        <v>0.304362</v>
+        <v>0.304057</v>
       </c>
       <c r="D83" t="n">
-        <v>0.313629</v>
+        <v>0.314582</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.372966</v>
+        <v>0.375434</v>
       </c>
       <c r="C84" t="n">
-        <v>0.30341</v>
+        <v>0.306419</v>
       </c>
       <c r="D84" t="n">
-        <v>0.313408</v>
+        <v>0.316029</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.381234</v>
+        <v>0.371507</v>
       </c>
       <c r="C85" t="n">
-        <v>0.310566</v>
+        <v>0.295726</v>
       </c>
       <c r="D85" t="n">
-        <v>0.322874</v>
+        <v>0.30716</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.37951</v>
+        <v>0.360587</v>
       </c>
       <c r="C86" t="n">
-        <v>0.307945</v>
+        <v>0.306158</v>
       </c>
       <c r="D86" t="n">
-        <v>0.314996</v>
+        <v>0.31585</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.378588</v>
+        <v>0.372371</v>
       </c>
       <c r="C87" t="n">
-        <v>0.305537</v>
+        <v>0.305511</v>
       </c>
       <c r="D87" t="n">
-        <v>0.316697</v>
+        <v>0.316759</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.372755</v>
+        <v>0.373019</v>
       </c>
       <c r="C88" t="n">
-        <v>0.30823</v>
+        <v>0.30835</v>
       </c>
       <c r="D88" t="n">
-        <v>0.320636</v>
+        <v>0.318895</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.372823</v>
+        <v>0.377942</v>
       </c>
       <c r="C89" t="n">
-        <v>0.306416</v>
+        <v>0.303626</v>
       </c>
       <c r="D89" t="n">
-        <v>0.319068</v>
+        <v>0.314414</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.374772</v>
+        <v>0.364509</v>
       </c>
       <c r="C90" t="n">
-        <v>0.310328</v>
+        <v>0.305829</v>
       </c>
       <c r="D90" t="n">
-        <v>0.32319</v>
+        <v>0.317043</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.376023</v>
+        <v>0.366638</v>
       </c>
       <c r="C91" t="n">
-        <v>0.312628</v>
+        <v>0.310119</v>
       </c>
       <c r="D91" t="n">
-        <v>0.324844</v>
+        <v>0.326227</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.377416</v>
+        <v>0.375872</v>
       </c>
       <c r="C92" t="n">
-        <v>0.306144</v>
+        <v>0.321879</v>
       </c>
       <c r="D92" t="n">
-        <v>0.320802</v>
+        <v>0.333117</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.367812</v>
+        <v>0.391057</v>
       </c>
       <c r="C93" t="n">
-        <v>0.318395</v>
+        <v>0.330509</v>
       </c>
       <c r="D93" t="n">
-        <v>0.334539</v>
+        <v>0.346571</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.387924</v>
+        <v>0.3932</v>
       </c>
       <c r="C94" t="n">
-        <v>0.319497</v>
+        <v>0.329349</v>
       </c>
       <c r="D94" t="n">
-        <v>0.440865</v>
+        <v>0.449666</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.548549</v>
+        <v>0.553022</v>
       </c>
       <c r="C95" t="n">
-        <v>0.46776</v>
+        <v>0.466608</v>
       </c>
       <c r="D95" t="n">
-        <v>0.452354</v>
+        <v>0.45616</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.556042</v>
+        <v>0.550935</v>
       </c>
       <c r="C96" t="n">
-        <v>0.444548</v>
+        <v>0.477665</v>
       </c>
       <c r="D96" t="n">
-        <v>0.429621</v>
+        <v>0.45384</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.513162</v>
+        <v>0.557271</v>
       </c>
       <c r="C97" t="n">
-        <v>0.47301</v>
+        <v>0.439665</v>
       </c>
       <c r="D97" t="n">
-        <v>0.463716</v>
+        <v>0.43065</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.562369</v>
+        <v>0.508503</v>
       </c>
       <c r="C98" t="n">
-        <v>0.478262</v>
+        <v>0.445332</v>
       </c>
       <c r="D98" t="n">
-        <v>0.466575</v>
+        <v>0.424799</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.565894</v>
+        <v>0.515182</v>
       </c>
       <c r="C99" t="n">
-        <v>0.485096</v>
+        <v>0.441679</v>
       </c>
       <c r="D99" t="n">
-        <v>0.466852</v>
+        <v>0.429583</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.564542</v>
+        <v>0.507655</v>
       </c>
       <c r="C100" t="n">
-        <v>0.447373</v>
+        <v>0.474502</v>
       </c>
       <c r="D100" t="n">
-        <v>0.430542</v>
+        <v>0.458701</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5202830000000001</v>
+        <v>0.554942</v>
       </c>
       <c r="C101" t="n">
-        <v>0.48554</v>
+        <v>0.476673</v>
       </c>
       <c r="D101" t="n">
-        <v>0.464866</v>
+        <v>0.459595</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.569121</v>
+        <v>0.551778</v>
       </c>
       <c r="C102" t="n">
-        <v>0.483943</v>
+        <v>0.475451</v>
       </c>
       <c r="D102" t="n">
-        <v>0.470782</v>
+        <v>0.459816</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.563783</v>
+        <v>0.556262</v>
       </c>
       <c r="C103" t="n">
-        <v>0.484873</v>
+        <v>0.479092</v>
       </c>
       <c r="D103" t="n">
-        <v>0.468214</v>
+        <v>0.462009</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.572569</v>
+        <v>0.557351</v>
       </c>
       <c r="C104" t="n">
-        <v>0.455996</v>
+        <v>0.48076</v>
       </c>
       <c r="D104" t="n">
-        <v>0.443384</v>
+        <v>0.466169</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.511136</v>
+        <v>0.555963</v>
       </c>
       <c r="C105" t="n">
-        <v>0.45681</v>
+        <v>0.483033</v>
       </c>
       <c r="D105" t="n">
-        <v>0.446552</v>
+        <v>0.474247</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.51764</v>
+        <v>0.559581</v>
       </c>
       <c r="C106" t="n">
-        <v>0.492331</v>
+        <v>0.453905</v>
       </c>
       <c r="D106" t="n">
-        <v>0.471405</v>
+        <v>0.447764</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.563481</v>
+        <v>0.516576</v>
       </c>
       <c r="C107" t="n">
-        <v>0.491961</v>
+        <v>0.491837</v>
       </c>
       <c r="D107" t="n">
-        <v>0.480558</v>
+        <v>0.480817</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.560955</v>
+        <v>0.563939</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4954</v>
+        <v>0.493962</v>
       </c>
       <c r="D108" t="n">
-        <v>0.711934</v>
+        <v>0.731434</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.562609</v>
+        <v>0.560658</v>
       </c>
       <c r="C109" t="n">
-        <v>0.50288</v>
+        <v>0.500957</v>
       </c>
       <c r="D109" t="n">
-        <v>0.731762</v>
+        <v>0.731928</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.858235</v>
+        <v>0.840539</v>
       </c>
       <c r="C110" t="n">
-        <v>0.715761</v>
+        <v>0.731121</v>
       </c>
       <c r="D110" t="n">
-        <v>0.734108</v>
+        <v>0.718787</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.84185</v>
+        <v>0.861673</v>
       </c>
       <c r="C111" t="n">
-        <v>0.718343</v>
+        <v>0.732984</v>
       </c>
       <c r="D111" t="n">
-        <v>0.720375</v>
+        <v>0.7353229999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.852705</v>
+        <v>0.8584000000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.733756</v>
+        <v>0.733789</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7347050000000001</v>
+        <v>0.735132</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.85542</v>
+        <v>0.857524</v>
       </c>
       <c r="C113" t="n">
-        <v>0.73617</v>
+        <v>0.734909</v>
       </c>
       <c r="D113" t="n">
-        <v>0.735239</v>
+        <v>0.737317</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.853167</v>
+        <v>0.855604</v>
       </c>
       <c r="C114" t="n">
-        <v>0.720947</v>
+        <v>0.736349</v>
       </c>
       <c r="D114" t="n">
-        <v>0.737202</v>
+        <v>0.73871</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.860353</v>
+        <v>0.853311</v>
       </c>
       <c r="C115" t="n">
-        <v>0.737042</v>
+        <v>0.737201</v>
       </c>
       <c r="D115" t="n">
-        <v>0.726973</v>
+        <v>0.739465</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.857232</v>
+        <v>0.844527</v>
       </c>
       <c r="C116" t="n">
-        <v>0.738343</v>
+        <v>0.73924</v>
       </c>
       <c r="D116" t="n">
-        <v>0.741731</v>
+        <v>0.740953</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.858442</v>
+        <v>0.857612</v>
       </c>
       <c r="C117" t="n">
-        <v>0.724105</v>
+        <v>0.740052</v>
       </c>
       <c r="D117" t="n">
-        <v>0.743053</v>
+        <v>0.7299369999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.845549</v>
+        <v>0.859896</v>
       </c>
       <c r="C118" t="n">
-        <v>0.742953</v>
+        <v>0.727123</v>
       </c>
       <c r="D118" t="n">
-        <v>0.7462530000000001</v>
+        <v>0.745859</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.839982</v>
+        <v>0.839683</v>
       </c>
       <c r="C119" t="n">
-        <v>0.745638</v>
+        <v>0.746251</v>
       </c>
       <c r="D119" t="n">
-        <v>0.748413</v>
+        <v>0.748732</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.841686</v>
+        <v>0.840967</v>
       </c>
       <c r="C120" t="n">
-        <v>0.749846</v>
+        <v>0.750391</v>
       </c>
       <c r="D120" t="n">
-        <v>0.741039</v>
+        <v>0.754226</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.847951</v>
+        <v>0.857332</v>
       </c>
       <c r="C121" t="n">
-        <v>0.755748</v>
+        <v>0.75529</v>
       </c>
       <c r="D121" t="n">
-        <v>0.7603</v>
+        <v>0.76026</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.844274</v>
+        <v>0.8430299999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>0.745671</v>
+        <v>0.761388</v>
       </c>
       <c r="D122" t="n">
-        <v>0.768062</v>
+        <v>0.7685149999999999</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.843952</v>
+        <v>0.859595</v>
       </c>
       <c r="C123" t="n">
-        <v>0.754602</v>
+        <v>0.770354</v>
       </c>
       <c r="D123" t="n">
-        <v>0.838917</v>
+        <v>0.847469</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.09661</v>
+        <v>1.11385</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8299840000000001</v>
+        <v>0.830136</v>
       </c>
       <c r="D124" t="n">
-        <v>0.848231</v>
+        <v>0.848592</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.0973</v>
+        <v>1.11544</v>
       </c>
       <c r="C125" t="n">
-        <v>0.83841</v>
+        <v>0.838956</v>
       </c>
       <c r="D125" t="n">
-        <v>0.841675</v>
+        <v>0.850312</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.1174</v>
+        <v>1.1207</v>
       </c>
       <c r="C126" t="n">
-        <v>0.839632</v>
+        <v>0.839993</v>
       </c>
       <c r="D126" t="n">
-        <v>0.8434469999999999</v>
+        <v>0.842767</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.09877</v>
+        <v>1.09482</v>
       </c>
       <c r="C127" t="n">
-        <v>0.835071</v>
+        <v>0.841214</v>
       </c>
       <c r="D127" t="n">
-        <v>0.8535970000000001</v>
+        <v>0.852662</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.11548</v>
+        <v>1.12038</v>
       </c>
       <c r="C128" t="n">
-        <v>0.842621</v>
+        <v>0.842327</v>
       </c>
       <c r="D128" t="n">
-        <v>0.854406</v>
+        <v>0.8540180000000001</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.12025</v>
+        <v>1.11619</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8452460000000001</v>
+        <v>0.837247</v>
       </c>
       <c r="D129" t="n">
-        <v>0.856953</v>
+        <v>0.856348</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.11931</v>
+        <v>1.12103</v>
       </c>
       <c r="C130" t="n">
-        <v>0.84719</v>
+        <v>0.846807</v>
       </c>
       <c r="D130" t="n">
-        <v>0.86007</v>
+        <v>0.851662</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.11847</v>
+        <v>1.11828</v>
       </c>
       <c r="C131" t="n">
-        <v>0.850195</v>
+        <v>0.8512729999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>0.862155</v>
+        <v>0.855007</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.11737</v>
+        <v>1.10103</v>
       </c>
       <c r="C132" t="n">
-        <v>0.845958</v>
+        <v>0.8467789999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>0.858314</v>
+        <v>0.866604</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.11774</v>
+        <v>1.0971</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8566240000000001</v>
+        <v>0.857636</v>
       </c>
       <c r="D133" t="n">
-        <v>0.870875</v>
+        <v>0.871174</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.09951</v>
+        <v>1.11967</v>
       </c>
       <c r="C134" t="n">
-        <v>0.862382</v>
+        <v>0.8625699999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>0.869247</v>
+        <v>0.876568</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.10248</v>
+        <v>1.11699</v>
       </c>
       <c r="C135" t="n">
-        <v>0.869001</v>
+        <v>0.863209</v>
       </c>
       <c r="D135" t="n">
-        <v>0.8858549999999999</v>
+        <v>0.885258</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.12271</v>
+        <v>1.11884</v>
       </c>
       <c r="C136" t="n">
-        <v>0.8775849999999999</v>
+        <v>0.87744</v>
       </c>
       <c r="D136" t="n">
-        <v>0.8899860000000001</v>
+        <v>0.897531</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.12479</v>
+        <v>1.11916</v>
       </c>
       <c r="C137" t="n">
-        <v>0.890008</v>
+        <v>0.889054</v>
       </c>
       <c r="D137" t="n">
-        <v>0.897232</v>
+        <v>0.899282</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.34124</v>
+        <v>1.34282</v>
       </c>
       <c r="C138" t="n">
-        <v>0.879808</v>
+        <v>0.883331</v>
       </c>
       <c r="D138" t="n">
-        <v>0.896073</v>
+        <v>0.900694</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.32717</v>
+        <v>1.34074</v>
       </c>
       <c r="C139" t="n">
-        <v>0.881007</v>
+        <v>0.881312</v>
       </c>
       <c r="D139" t="n">
-        <v>0.902544</v>
+        <v>0.902114</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.34029</v>
+        <v>1.34176</v>
       </c>
       <c r="C140" t="n">
-        <v>0.8849359999999999</v>
+        <v>0.885921</v>
       </c>
       <c r="D140" t="n">
-        <v>0.903155</v>
+        <v>0.903605</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.34153</v>
+        <v>1.3405</v>
       </c>
       <c r="C141" t="n">
-        <v>0.886694</v>
+        <v>0.884014</v>
       </c>
       <c r="D141" t="n">
-        <v>0.903913</v>
+        <v>0.905464</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.33202</v>
+        <v>1.34082</v>
       </c>
       <c r="C142" t="n">
-        <v>0.885351</v>
+        <v>0.888391</v>
       </c>
       <c r="D142" t="n">
-        <v>0.907145</v>
+        <v>0.906498</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.33269</v>
+        <v>1.32693</v>
       </c>
       <c r="C143" t="n">
-        <v>0.8884379999999999</v>
+        <v>0.892227</v>
       </c>
       <c r="D143" t="n">
-        <v>0.906904</v>
+        <v>0.910834</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.242525</v>
+        <v>0.243176</v>
       </c>
       <c r="C2" t="n">
-        <v>0.241025</v>
+        <v>0.240968</v>
       </c>
       <c r="D2" t="n">
-        <v>0.247795</v>
+        <v>0.247457</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.241538</v>
+        <v>0.242144</v>
       </c>
       <c r="C3" t="n">
-        <v>0.23954</v>
+        <v>0.240241</v>
       </c>
       <c r="D3" t="n">
-        <v>0.246709</v>
+        <v>0.246792</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.244393</v>
+        <v>0.244497</v>
       </c>
       <c r="C4" t="n">
-        <v>0.243307</v>
+        <v>0.243156</v>
       </c>
       <c r="D4" t="n">
-        <v>0.250674</v>
+        <v>0.249783</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.246457</v>
+        <v>0.245938</v>
       </c>
       <c r="C5" t="n">
-        <v>0.246387</v>
+        <v>0.245639</v>
       </c>
       <c r="D5" t="n">
-        <v>0.25467</v>
+        <v>0.253528</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.245645</v>
+        <v>0.245101</v>
       </c>
       <c r="C6" t="n">
-        <v>0.247708</v>
+        <v>0.246865</v>
       </c>
       <c r="D6" t="n">
-        <v>0.255788</v>
+        <v>0.255795</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.247981</v>
+        <v>0.248192</v>
       </c>
       <c r="C7" t="n">
-        <v>0.250436</v>
+        <v>0.250261</v>
       </c>
       <c r="D7" t="n">
-        <v>0.261797</v>
+        <v>0.261678</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.251373</v>
+        <v>0.251471</v>
       </c>
       <c r="C8" t="n">
-        <v>0.255316</v>
+        <v>0.255172</v>
       </c>
       <c r="D8" t="n">
-        <v>0.269211</v>
+        <v>0.269158</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.259154</v>
+        <v>0.259399</v>
       </c>
       <c r="C9" t="n">
-        <v>0.263995</v>
+        <v>0.263796</v>
       </c>
       <c r="D9" t="n">
-        <v>0.249093</v>
+        <v>0.246338</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.251999</v>
+        <v>0.250378</v>
       </c>
       <c r="C10" t="n">
-        <v>0.244426</v>
+        <v>0.244099</v>
       </c>
       <c r="D10" t="n">
-        <v>0.247184</v>
+        <v>0.246484</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.251035</v>
+        <v>0.249977</v>
       </c>
       <c r="C11" t="n">
-        <v>0.244325</v>
+        <v>0.245326</v>
       </c>
       <c r="D11" t="n">
-        <v>0.247235</v>
+        <v>0.248716</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.256192</v>
+        <v>0.251418</v>
       </c>
       <c r="C12" t="n">
-        <v>0.249544</v>
+        <v>0.246941</v>
       </c>
       <c r="D12" t="n">
-        <v>0.250341</v>
+        <v>0.25038</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.251135</v>
+        <v>0.249927</v>
       </c>
       <c r="C13" t="n">
-        <v>0.245135</v>
+        <v>0.245031</v>
       </c>
       <c r="D13" t="n">
-        <v>0.248328</v>
+        <v>0.248135</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.251076</v>
+        <v>0.250671</v>
       </c>
       <c r="C14" t="n">
-        <v>0.246839</v>
+        <v>0.246148</v>
       </c>
       <c r="D14" t="n">
-        <v>0.249866</v>
+        <v>0.24897</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.251781</v>
+        <v>0.255221</v>
       </c>
       <c r="C15" t="n">
-        <v>0.247227</v>
+        <v>0.251016</v>
       </c>
       <c r="D15" t="n">
-        <v>0.250208</v>
+        <v>0.25419</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.254423</v>
+        <v>0.252419</v>
       </c>
       <c r="C16" t="n">
-        <v>0.249513</v>
+        <v>0.249743</v>
       </c>
       <c r="D16" t="n">
-        <v>0.251679</v>
+        <v>0.252594</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.255366</v>
+        <v>0.253672</v>
       </c>
       <c r="C17" t="n">
-        <v>0.251344</v>
+        <v>0.248854</v>
       </c>
       <c r="D17" t="n">
-        <v>0.255328</v>
+        <v>0.252643</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.252362</v>
+        <v>0.25217</v>
       </c>
       <c r="C18" t="n">
-        <v>0.249326</v>
+        <v>0.251349</v>
       </c>
       <c r="D18" t="n">
-        <v>0.253565</v>
+        <v>0.255671</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.254675</v>
+        <v>0.255518</v>
       </c>
       <c r="C19" t="n">
-        <v>0.252812</v>
+        <v>0.252512</v>
       </c>
       <c r="D19" t="n">
-        <v>0.257113</v>
+        <v>0.257149</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.257789</v>
+        <v>0.254759</v>
       </c>
       <c r="C20" t="n">
-        <v>0.255641</v>
+        <v>0.252575</v>
       </c>
       <c r="D20" t="n">
-        <v>0.260995</v>
+        <v>0.258211</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2584</v>
+        <v>0.25625</v>
       </c>
       <c r="C21" t="n">
-        <v>0.256949</v>
+        <v>0.2574</v>
       </c>
       <c r="D21" t="n">
-        <v>0.262828</v>
+        <v>0.264294</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.260164</v>
+        <v>0.259592</v>
       </c>
       <c r="C22" t="n">
-        <v>0.260075</v>
+        <v>0.258805</v>
       </c>
       <c r="D22" t="n">
-        <v>0.269792</v>
+        <v>0.268463</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.266732</v>
+        <v>0.263911</v>
       </c>
       <c r="C23" t="n">
-        <v>0.267953</v>
+        <v>0.265141</v>
       </c>
       <c r="D23" t="n">
-        <v>0.255667</v>
+        <v>0.261887</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.270365</v>
+        <v>0.276697</v>
       </c>
       <c r="C24" t="n">
-        <v>0.247228</v>
+        <v>0.254251</v>
       </c>
       <c r="D24" t="n">
-        <v>0.256666</v>
+        <v>0.26389</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.268928</v>
+        <v>0.275971</v>
       </c>
       <c r="C25" t="n">
-        <v>0.24692</v>
+        <v>0.253946</v>
       </c>
       <c r="D25" t="n">
-        <v>0.25543</v>
+        <v>0.264131</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.270375</v>
+        <v>0.275014</v>
       </c>
       <c r="C26" t="n">
-        <v>0.247695</v>
+        <v>0.253257</v>
       </c>
       <c r="D26" t="n">
-        <v>0.256314</v>
+        <v>0.264386</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.27283</v>
+        <v>0.274701</v>
       </c>
       <c r="C27" t="n">
-        <v>0.248258</v>
+        <v>0.252585</v>
       </c>
       <c r="D27" t="n">
-        <v>0.257358</v>
+        <v>0.265021</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.274975</v>
+        <v>0.275184</v>
       </c>
       <c r="C28" t="n">
-        <v>0.251203</v>
+        <v>0.254341</v>
       </c>
       <c r="D28" t="n">
-        <v>0.257882</v>
+        <v>0.263578</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.27598</v>
+        <v>0.275944</v>
       </c>
       <c r="C29" t="n">
-        <v>0.252379</v>
+        <v>0.253916</v>
       </c>
       <c r="D29" t="n">
-        <v>0.260104</v>
+        <v>0.264022</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.27618</v>
+        <v>0.276743</v>
       </c>
       <c r="C30" t="n">
-        <v>0.254466</v>
+        <v>0.254917</v>
       </c>
       <c r="D30" t="n">
-        <v>0.262155</v>
+        <v>0.265294</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.275246</v>
+        <v>0.276537</v>
       </c>
       <c r="C31" t="n">
-        <v>0.255457</v>
+        <v>0.256223</v>
       </c>
       <c r="D31" t="n">
-        <v>0.264783</v>
+        <v>0.265383</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.276534</v>
+        <v>0.278525</v>
       </c>
       <c r="C32" t="n">
-        <v>0.256631</v>
+        <v>0.258167</v>
       </c>
       <c r="D32" t="n">
-        <v>0.267292</v>
+        <v>0.266697</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.277851</v>
+        <v>0.277437</v>
       </c>
       <c r="C33" t="n">
-        <v>0.258372</v>
+        <v>0.260111</v>
       </c>
       <c r="D33" t="n">
-        <v>0.26874</v>
+        <v>0.269452</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.280506</v>
+        <v>0.278596</v>
       </c>
       <c r="C34" t="n">
-        <v>0.259888</v>
+        <v>0.261529</v>
       </c>
       <c r="D34" t="n">
-        <v>0.270505</v>
+        <v>0.272714</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.278475</v>
+        <v>0.279112</v>
       </c>
       <c r="C35" t="n">
-        <v>0.263236</v>
+        <v>0.263757</v>
       </c>
       <c r="D35" t="n">
-        <v>0.273045</v>
+        <v>0.275098</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.281269</v>
+        <v>0.280157</v>
       </c>
       <c r="C36" t="n">
-        <v>0.266733</v>
+        <v>0.267519</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2788</v>
+        <v>0.280061</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.286414</v>
+        <v>0.284897</v>
       </c>
       <c r="C37" t="n">
-        <v>0.272009</v>
+        <v>0.272621</v>
       </c>
       <c r="D37" t="n">
-        <v>0.280377</v>
+        <v>0.28106</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.303445</v>
+        <v>0.305231</v>
       </c>
       <c r="C38" t="n">
-        <v>0.268721</v>
+        <v>0.269815</v>
       </c>
       <c r="D38" t="n">
-        <v>0.279079</v>
+        <v>0.280001</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.303823</v>
+        <v>0.305063</v>
       </c>
       <c r="C39" t="n">
-        <v>0.271401</v>
+        <v>0.271609</v>
       </c>
       <c r="D39" t="n">
-        <v>0.28018</v>
+        <v>0.281359</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.304262</v>
+        <v>0.304607</v>
       </c>
       <c r="C40" t="n">
-        <v>0.271373</v>
+        <v>0.27134</v>
       </c>
       <c r="D40" t="n">
-        <v>0.280609</v>
+        <v>0.280699</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.304017</v>
+        <v>0.303793</v>
       </c>
       <c r="C41" t="n">
-        <v>0.272198</v>
+        <v>0.273711</v>
       </c>
       <c r="D41" t="n">
-        <v>0.281062</v>
+        <v>0.282609</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.304814</v>
+        <v>0.304174</v>
       </c>
       <c r="C42" t="n">
-        <v>0.273828</v>
+        <v>0.273627</v>
       </c>
       <c r="D42" t="n">
-        <v>0.28235</v>
+        <v>0.282535</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.305623</v>
+        <v>0.305056</v>
       </c>
       <c r="C43" t="n">
-        <v>0.274325</v>
+        <v>0.274647</v>
       </c>
       <c r="D43" t="n">
-        <v>0.282725</v>
+        <v>0.283124</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3062</v>
+        <v>0.305435</v>
       </c>
       <c r="C44" t="n">
-        <v>0.276299</v>
+        <v>0.276246</v>
       </c>
       <c r="D44" t="n">
-        <v>0.284383</v>
+        <v>0.284653</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.307723</v>
+        <v>0.305152</v>
       </c>
       <c r="C45" t="n">
-        <v>0.278113</v>
+        <v>0.277242</v>
       </c>
       <c r="D45" t="n">
-        <v>0.286275</v>
+        <v>0.285663</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.305813</v>
+        <v>0.304337</v>
       </c>
       <c r="C46" t="n">
-        <v>0.278619</v>
+        <v>0.279641</v>
       </c>
       <c r="D46" t="n">
-        <v>0.287159</v>
+        <v>0.288573</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.306168</v>
+        <v>0.304187</v>
       </c>
       <c r="C47" t="n">
-        <v>0.280721</v>
+        <v>0.279862</v>
       </c>
       <c r="D47" t="n">
-        <v>0.289499</v>
+        <v>0.288495</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.309134</v>
+        <v>0.307847</v>
       </c>
       <c r="C48" t="n">
-        <v>0.282674</v>
+        <v>0.282086</v>
       </c>
       <c r="D48" t="n">
-        <v>0.292086</v>
+        <v>0.290859</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.30794</v>
+        <v>0.308615</v>
       </c>
       <c r="C49" t="n">
-        <v>0.285104</v>
+        <v>0.284927</v>
       </c>
       <c r="D49" t="n">
-        <v>0.295357</v>
+        <v>0.29453</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.310677</v>
+        <v>0.312303</v>
       </c>
       <c r="C50" t="n">
-        <v>0.288611</v>
+        <v>0.289447</v>
       </c>
       <c r="D50" t="n">
-        <v>0.299948</v>
+        <v>0.301548</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.312766</v>
+        <v>0.314305</v>
       </c>
       <c r="C51" t="n">
-        <v>0.293181</v>
+        <v>0.292891</v>
       </c>
       <c r="D51" t="n">
-        <v>0.293395</v>
+        <v>0.294655</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.317317</v>
+        <v>0.31815</v>
       </c>
       <c r="C52" t="n">
-        <v>0.299569</v>
+        <v>0.300046</v>
       </c>
       <c r="D52" t="n">
-        <v>0.294062</v>
+        <v>0.294421</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.331252</v>
+        <v>0.33158</v>
       </c>
       <c r="C53" t="n">
-        <v>0.286262</v>
+        <v>0.286251</v>
       </c>
       <c r="D53" t="n">
-        <v>0.292456</v>
+        <v>0.29347</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.332229</v>
+        <v>0.331233</v>
       </c>
       <c r="C54" t="n">
-        <v>0.287431</v>
+        <v>0.288649</v>
       </c>
       <c r="D54" t="n">
-        <v>0.29327</v>
+        <v>0.295646</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.331029</v>
+        <v>0.333201</v>
       </c>
       <c r="C55" t="n">
-        <v>0.288127</v>
+        <v>0.289159</v>
       </c>
       <c r="D55" t="n">
-        <v>0.293464</v>
+        <v>0.296264</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.331569</v>
+        <v>0.331373</v>
       </c>
       <c r="C56" t="n">
-        <v>0.288855</v>
+        <v>0.289084</v>
       </c>
       <c r="D56" t="n">
-        <v>0.294281</v>
+        <v>0.295012</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.331223</v>
+        <v>0.332194</v>
       </c>
       <c r="C57" t="n">
-        <v>0.290115</v>
+        <v>0.290695</v>
       </c>
       <c r="D57" t="n">
-        <v>0.29534</v>
+        <v>0.295785</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.332675</v>
+        <v>0.332148</v>
       </c>
       <c r="C58" t="n">
-        <v>0.292022</v>
+        <v>0.291589</v>
       </c>
       <c r="D58" t="n">
-        <v>0.297168</v>
+        <v>0.2965</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.333225</v>
+        <v>0.331122</v>
       </c>
       <c r="C59" t="n">
-        <v>0.292382</v>
+        <v>0.29268</v>
       </c>
       <c r="D59" t="n">
-        <v>0.297591</v>
+        <v>0.29769</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.33213</v>
+        <v>0.332985</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2937</v>
+        <v>0.294362</v>
       </c>
       <c r="D60" t="n">
-        <v>0.298577</v>
+        <v>0.299332</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.333627</v>
+        <v>0.334829</v>
       </c>
       <c r="C61" t="n">
-        <v>0.294852</v>
+        <v>0.295408</v>
       </c>
       <c r="D61" t="n">
-        <v>0.300536</v>
+        <v>0.300846</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.333334</v>
+        <v>0.333585</v>
       </c>
       <c r="C62" t="n">
-        <v>0.297528</v>
+        <v>0.297911</v>
       </c>
       <c r="D62" t="n">
-        <v>0.303547</v>
+        <v>0.303642</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.335074</v>
+        <v>0.33526</v>
       </c>
       <c r="C63" t="n">
-        <v>0.300068</v>
+        <v>0.297732</v>
       </c>
       <c r="D63" t="n">
-        <v>0.306285</v>
+        <v>0.304718</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.338066</v>
+        <v>0.338383</v>
       </c>
       <c r="C64" t="n">
-        <v>0.303462</v>
+        <v>0.30398</v>
       </c>
       <c r="D64" t="n">
-        <v>0.311509</v>
+        <v>0.312062</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.339332</v>
+        <v>0.338722</v>
       </c>
       <c r="C65" t="n">
-        <v>0.309453</v>
+        <v>0.308369</v>
       </c>
       <c r="D65" t="n">
-        <v>0.320103</v>
+        <v>0.319024</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.344133</v>
+        <v>0.344035</v>
       </c>
       <c r="C66" t="n">
-        <v>0.315299</v>
+        <v>0.315904</v>
       </c>
       <c r="D66" t="n">
-        <v>0.300515</v>
+        <v>0.302068</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.345616</v>
+        <v>0.346686</v>
       </c>
       <c r="C67" t="n">
-        <v>0.297313</v>
+        <v>0.298559</v>
       </c>
       <c r="D67" t="n">
-        <v>0.300189</v>
+        <v>0.299809</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.349766</v>
+        <v>0.350148</v>
       </c>
       <c r="C68" t="n">
-        <v>0.298492</v>
+        <v>0.299724</v>
       </c>
       <c r="D68" t="n">
-        <v>0.300459</v>
+        <v>0.301109</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.350847</v>
+        <v>0.350081</v>
       </c>
       <c r="C69" t="n">
-        <v>0.299144</v>
+        <v>0.300471</v>
       </c>
       <c r="D69" t="n">
-        <v>0.301029</v>
+        <v>0.301247</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.350258</v>
+        <v>0.350808</v>
       </c>
       <c r="C70" t="n">
-        <v>0.300299</v>
+        <v>0.301177</v>
       </c>
       <c r="D70" t="n">
-        <v>0.301945</v>
+        <v>0.301709</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.350217</v>
+        <v>0.350627</v>
       </c>
       <c r="C71" t="n">
-        <v>0.30145</v>
+        <v>0.302516</v>
       </c>
       <c r="D71" t="n">
-        <v>0.30257</v>
+        <v>0.302756</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.35067</v>
+        <v>0.351413</v>
       </c>
       <c r="C72" t="n">
-        <v>0.302431</v>
+        <v>0.303352</v>
       </c>
       <c r="D72" t="n">
-        <v>0.303727</v>
+        <v>0.303596</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.351301</v>
+        <v>0.351051</v>
       </c>
       <c r="C73" t="n">
-        <v>0.302666</v>
+        <v>0.305322</v>
       </c>
       <c r="D73" t="n">
-        <v>0.304453</v>
+        <v>0.30494</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.351121</v>
+        <v>0.352071</v>
       </c>
       <c r="C74" t="n">
-        <v>0.304099</v>
+        <v>0.306254</v>
       </c>
       <c r="D74" t="n">
-        <v>0.306083</v>
+        <v>0.307007</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.35195</v>
+        <v>0.35229</v>
       </c>
       <c r="C75" t="n">
-        <v>0.304512</v>
+        <v>0.307494</v>
       </c>
       <c r="D75" t="n">
-        <v>0.307523</v>
+        <v>0.307835</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.352834</v>
+        <v>0.353073</v>
       </c>
       <c r="C76" t="n">
-        <v>0.306864</v>
+        <v>0.310212</v>
       </c>
       <c r="D76" t="n">
-        <v>0.309982</v>
+        <v>0.311727</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.353533</v>
+        <v>0.354236</v>
       </c>
       <c r="C77" t="n">
-        <v>0.30848</v>
+        <v>0.312068</v>
       </c>
       <c r="D77" t="n">
-        <v>0.313571</v>
+        <v>0.31393</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.355481</v>
+        <v>0.35622</v>
       </c>
       <c r="C78" t="n">
-        <v>0.311717</v>
+        <v>0.315059</v>
       </c>
       <c r="D78" t="n">
-        <v>0.317881</v>
+        <v>0.318298</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.358341</v>
+        <v>0.35818</v>
       </c>
       <c r="C79" t="n">
-        <v>0.317101</v>
+        <v>0.319025</v>
       </c>
       <c r="D79" t="n">
-        <v>0.325023</v>
+        <v>0.325209</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.361993</v>
+        <v>0.362503</v>
       </c>
       <c r="C80" t="n">
-        <v>0.321808</v>
+        <v>0.325381</v>
       </c>
       <c r="D80" t="n">
-        <v>0.303731</v>
+        <v>0.310254</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.373267</v>
+        <v>0.375236</v>
       </c>
       <c r="C81" t="n">
-        <v>0.293969</v>
+        <v>0.294153</v>
       </c>
       <c r="D81" t="n">
-        <v>0.306834</v>
+        <v>0.306261</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.365734</v>
+        <v>0.364197</v>
       </c>
       <c r="C82" t="n">
-        <v>0.302181</v>
+        <v>0.308276</v>
       </c>
       <c r="D82" t="n">
-        <v>0.312628</v>
+        <v>0.318636</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.370953</v>
+        <v>0.37529</v>
       </c>
       <c r="C83" t="n">
-        <v>0.304057</v>
+        <v>0.307989</v>
       </c>
       <c r="D83" t="n">
-        <v>0.314582</v>
+        <v>0.316172</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.375434</v>
+        <v>0.379422</v>
       </c>
       <c r="C84" t="n">
-        <v>0.306419</v>
+        <v>0.311499</v>
       </c>
       <c r="D84" t="n">
-        <v>0.316029</v>
+        <v>0.318321</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.371507</v>
+        <v>0.372788</v>
       </c>
       <c r="C85" t="n">
-        <v>0.295726</v>
+        <v>0.305476</v>
       </c>
       <c r="D85" t="n">
-        <v>0.30716</v>
+        <v>0.316362</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.360587</v>
+        <v>0.372921</v>
       </c>
       <c r="C86" t="n">
-        <v>0.306158</v>
+        <v>0.30677</v>
       </c>
       <c r="D86" t="n">
-        <v>0.31585</v>
+        <v>0.315405</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.372371</v>
+        <v>0.373319</v>
       </c>
       <c r="C87" t="n">
-        <v>0.305511</v>
+        <v>0.3074</v>
       </c>
       <c r="D87" t="n">
-        <v>0.316759</v>
+        <v>0.316581</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.373019</v>
+        <v>0.371998</v>
       </c>
       <c r="C88" t="n">
-        <v>0.30835</v>
+        <v>0.306007</v>
       </c>
       <c r="D88" t="n">
-        <v>0.318895</v>
+        <v>0.31746</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.377942</v>
+        <v>0.374019</v>
       </c>
       <c r="C89" t="n">
-        <v>0.303626</v>
+        <v>0.308503</v>
       </c>
       <c r="D89" t="n">
-        <v>0.314414</v>
+        <v>0.319395</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.364509</v>
+        <v>0.37296</v>
       </c>
       <c r="C90" t="n">
-        <v>0.305829</v>
+        <v>0.3088</v>
       </c>
       <c r="D90" t="n">
-        <v>0.317043</v>
+        <v>0.32237</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.366638</v>
+        <v>0.375535</v>
       </c>
       <c r="C91" t="n">
-        <v>0.310119</v>
+        <v>0.302671</v>
       </c>
       <c r="D91" t="n">
-        <v>0.326227</v>
+        <v>0.31687</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.375872</v>
+        <v>0.365814</v>
       </c>
       <c r="C92" t="n">
-        <v>0.321879</v>
+        <v>0.313378</v>
       </c>
       <c r="D92" t="n">
-        <v>0.333117</v>
+        <v>0.328734</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.391057</v>
+        <v>0.378223</v>
       </c>
       <c r="C93" t="n">
-        <v>0.330509</v>
+        <v>0.318087</v>
       </c>
       <c r="D93" t="n">
-        <v>0.346571</v>
+        <v>0.335881</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.3932</v>
+        <v>0.382634</v>
       </c>
       <c r="C94" t="n">
-        <v>0.329349</v>
+        <v>0.324596</v>
       </c>
       <c r="D94" t="n">
-        <v>0.449666</v>
+        <v>0.431205</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.553022</v>
+        <v>0.553573</v>
       </c>
       <c r="C95" t="n">
-        <v>0.466608</v>
+        <v>0.468462</v>
       </c>
       <c r="D95" t="n">
-        <v>0.45616</v>
+        <v>0.454612</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.550935</v>
+        <v>0.558108</v>
       </c>
       <c r="C96" t="n">
-        <v>0.477665</v>
+        <v>0.440273</v>
       </c>
       <c r="D96" t="n">
-        <v>0.45384</v>
+        <v>0.429345</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.557271</v>
+        <v>0.516035</v>
       </c>
       <c r="C97" t="n">
-        <v>0.439665</v>
+        <v>0.442989</v>
       </c>
       <c r="D97" t="n">
-        <v>0.43065</v>
+        <v>0.437001</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.508503</v>
+        <v>0.512333</v>
       </c>
       <c r="C98" t="n">
-        <v>0.445332</v>
+        <v>0.437952</v>
       </c>
       <c r="D98" t="n">
-        <v>0.424799</v>
+        <v>0.431154</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.515182</v>
+        <v>0.51058</v>
       </c>
       <c r="C99" t="n">
-        <v>0.441679</v>
+        <v>0.473487</v>
       </c>
       <c r="D99" t="n">
-        <v>0.429583</v>
+        <v>0.458624</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.507655</v>
+        <v>0.549957</v>
       </c>
       <c r="C100" t="n">
-        <v>0.474502</v>
+        <v>0.473198</v>
       </c>
       <c r="D100" t="n">
-        <v>0.458701</v>
+        <v>0.456616</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.554942</v>
+        <v>0.557041</v>
       </c>
       <c r="C101" t="n">
-        <v>0.476673</v>
+        <v>0.476725</v>
       </c>
       <c r="D101" t="n">
-        <v>0.459595</v>
+        <v>0.465411</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.551778</v>
+        <v>0.557442</v>
       </c>
       <c r="C102" t="n">
-        <v>0.475451</v>
+        <v>0.480731</v>
       </c>
       <c r="D102" t="n">
-        <v>0.459816</v>
+        <v>0.467255</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.556262</v>
+        <v>0.560339</v>
       </c>
       <c r="C103" t="n">
-        <v>0.479092</v>
+        <v>0.448042</v>
       </c>
       <c r="D103" t="n">
-        <v>0.462009</v>
+        <v>0.446079</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.557351</v>
+        <v>0.523876</v>
       </c>
       <c r="C104" t="n">
-        <v>0.48076</v>
+        <v>0.492583</v>
       </c>
       <c r="D104" t="n">
-        <v>0.466169</v>
+        <v>0.476982</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.555963</v>
+        <v>0.559688</v>
       </c>
       <c r="C105" t="n">
-        <v>0.483033</v>
+        <v>0.483196</v>
       </c>
       <c r="D105" t="n">
-        <v>0.474247</v>
+        <v>0.462957</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.559581</v>
+        <v>0.556068</v>
       </c>
       <c r="C106" t="n">
-        <v>0.453905</v>
+        <v>0.454224</v>
       </c>
       <c r="D106" t="n">
-        <v>0.447764</v>
+        <v>0.452691</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.516576</v>
+        <v>0.509761</v>
       </c>
       <c r="C107" t="n">
-        <v>0.491837</v>
+        <v>0.45445</v>
       </c>
       <c r="D107" t="n">
-        <v>0.480817</v>
+        <v>0.456519</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.563939</v>
+        <v>0.510182</v>
       </c>
       <c r="C108" t="n">
-        <v>0.493962</v>
+        <v>0.492091</v>
       </c>
       <c r="D108" t="n">
-        <v>0.731434</v>
+        <v>0.711944</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.560658</v>
+        <v>0.559999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.500957</v>
+        <v>0.499085</v>
       </c>
       <c r="D109" t="n">
-        <v>0.731928</v>
+        <v>0.733656</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.840539</v>
+        <v>0.849594</v>
       </c>
       <c r="C110" t="n">
-        <v>0.731121</v>
+        <v>0.7181650000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.718787</v>
+        <v>0.732799</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.861673</v>
+        <v>0.85623</v>
       </c>
       <c r="C111" t="n">
-        <v>0.732984</v>
+        <v>0.716423</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7353229999999999</v>
+        <v>0.735218</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.8584000000000001</v>
+        <v>0.857672</v>
       </c>
       <c r="C112" t="n">
-        <v>0.733789</v>
+        <v>0.71696</v>
       </c>
       <c r="D112" t="n">
-        <v>0.735132</v>
+        <v>0.736077</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.857524</v>
+        <v>0.855379</v>
       </c>
       <c r="C113" t="n">
-        <v>0.734909</v>
+        <v>0.718145</v>
       </c>
       <c r="D113" t="n">
-        <v>0.737317</v>
+        <v>0.738398</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.855604</v>
+        <v>0.857889</v>
       </c>
       <c r="C114" t="n">
-        <v>0.736349</v>
+        <v>0.736262</v>
       </c>
       <c r="D114" t="n">
-        <v>0.73871</v>
+        <v>0.738699</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.853311</v>
+        <v>0.860117</v>
       </c>
       <c r="C115" t="n">
-        <v>0.737201</v>
+        <v>0.737685</v>
       </c>
       <c r="D115" t="n">
-        <v>0.739465</v>
+        <v>0.739749</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.844527</v>
+        <v>0.858316</v>
       </c>
       <c r="C116" t="n">
-        <v>0.73924</v>
+        <v>0.738478</v>
       </c>
       <c r="D116" t="n">
-        <v>0.740953</v>
+        <v>0.742552</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.857612</v>
+        <v>0.857698</v>
       </c>
       <c r="C117" t="n">
-        <v>0.740052</v>
+        <v>0.7417859999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7299369999999999</v>
+        <v>0.743929</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.859896</v>
+        <v>0.846089</v>
       </c>
       <c r="C118" t="n">
-        <v>0.727123</v>
+        <v>0.744277</v>
       </c>
       <c r="D118" t="n">
-        <v>0.745859</v>
+        <v>0.747127</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.839683</v>
+        <v>0.842016</v>
       </c>
       <c r="C119" t="n">
-        <v>0.746251</v>
+        <v>0.730583</v>
       </c>
       <c r="D119" t="n">
-        <v>0.748732</v>
+        <v>0.7500830000000001</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.840967</v>
+        <v>0.8431999999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.750391</v>
+        <v>0.75068</v>
       </c>
       <c r="D120" t="n">
-        <v>0.754226</v>
+        <v>0.754935</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.857332</v>
+        <v>0.862757</v>
       </c>
       <c r="C121" t="n">
-        <v>0.75529</v>
+        <v>0.755131</v>
       </c>
       <c r="D121" t="n">
-        <v>0.76026</v>
+        <v>0.747184</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.8430299999999999</v>
+        <v>0.8563809999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>0.761388</v>
+        <v>0.7621790000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7685149999999999</v>
+        <v>0.76824</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.859595</v>
+        <v>0.862139</v>
       </c>
       <c r="C123" t="n">
-        <v>0.770354</v>
+        <v>0.7557970000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.847469</v>
+        <v>0.847244</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.11385</v>
+        <v>1.11442</v>
       </c>
       <c r="C124" t="n">
-        <v>0.830136</v>
+        <v>0.829727</v>
       </c>
       <c r="D124" t="n">
-        <v>0.848592</v>
+        <v>0.848529</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.11544</v>
+        <v>1.11841</v>
       </c>
       <c r="C125" t="n">
-        <v>0.838956</v>
+        <v>0.83911</v>
       </c>
       <c r="D125" t="n">
-        <v>0.850312</v>
+        <v>0.8493230000000001</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.1207</v>
+        <v>1.09919</v>
       </c>
       <c r="C126" t="n">
-        <v>0.839993</v>
+        <v>0.8394430000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.842767</v>
+        <v>0.851267</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.09482</v>
+        <v>1.11772</v>
       </c>
       <c r="C127" t="n">
-        <v>0.841214</v>
+        <v>0.841765</v>
       </c>
       <c r="D127" t="n">
-        <v>0.852662</v>
+        <v>0.85326</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.12038</v>
+        <v>1.11545</v>
       </c>
       <c r="C128" t="n">
-        <v>0.842327</v>
+        <v>0.843113</v>
       </c>
       <c r="D128" t="n">
-        <v>0.8540180000000001</v>
+        <v>0.8550680000000001</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.11619</v>
+        <v>1.09696</v>
       </c>
       <c r="C129" t="n">
-        <v>0.837247</v>
+        <v>0.846211</v>
       </c>
       <c r="D129" t="n">
-        <v>0.856348</v>
+        <v>0.857596</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.12103</v>
+        <v>1.09326</v>
       </c>
       <c r="C130" t="n">
-        <v>0.846807</v>
+        <v>0.8400069999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>0.851662</v>
+        <v>0.850665</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.11828</v>
+        <v>1.11625</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8512729999999999</v>
+        <v>0.842382</v>
       </c>
       <c r="D131" t="n">
-        <v>0.855007</v>
+        <v>0.862233</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.10103</v>
+        <v>1.11429</v>
       </c>
       <c r="C132" t="n">
-        <v>0.8467789999999999</v>
+        <v>0.846671</v>
       </c>
       <c r="D132" t="n">
-        <v>0.866604</v>
+        <v>0.866065</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.0971</v>
+        <v>1.11688</v>
       </c>
       <c r="C133" t="n">
-        <v>0.857636</v>
+        <v>0.857136</v>
       </c>
       <c r="D133" t="n">
-        <v>0.871174</v>
+        <v>0.870078</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.11967</v>
+        <v>1.11427</v>
       </c>
       <c r="C134" t="n">
-        <v>0.8625699999999999</v>
+        <v>0.855586</v>
       </c>
       <c r="D134" t="n">
-        <v>0.876568</v>
+        <v>0.876901</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.11699</v>
+        <v>1.11489</v>
       </c>
       <c r="C135" t="n">
-        <v>0.863209</v>
+        <v>0.8681950000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>0.885258</v>
+        <v>0.885915</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.11884</v>
+        <v>1.11691</v>
       </c>
       <c r="C136" t="n">
-        <v>0.87744</v>
+        <v>0.876333</v>
       </c>
       <c r="D136" t="n">
-        <v>0.897531</v>
+        <v>0.896473</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.11916</v>
+        <v>1.11871</v>
       </c>
       <c r="C137" t="n">
-        <v>0.889054</v>
+        <v>0.889079</v>
       </c>
       <c r="D137" t="n">
-        <v>0.899282</v>
+        <v>0.898999</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.34282</v>
+        <v>1.34203</v>
       </c>
       <c r="C138" t="n">
-        <v>0.883331</v>
+        <v>0.882551</v>
       </c>
       <c r="D138" t="n">
-        <v>0.900694</v>
+        <v>0.90141</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.34074</v>
+        <v>1.32834</v>
       </c>
       <c r="C139" t="n">
-        <v>0.881312</v>
+        <v>0.884773</v>
       </c>
       <c r="D139" t="n">
-        <v>0.902114</v>
+        <v>0.903613</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.34176</v>
+        <v>1.34411</v>
       </c>
       <c r="C140" t="n">
-        <v>0.885921</v>
+        <v>0.882759</v>
       </c>
       <c r="D140" t="n">
-        <v>0.903605</v>
+        <v>0.903603</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.3405</v>
+        <v>1.3425</v>
       </c>
       <c r="C141" t="n">
-        <v>0.884014</v>
+        <v>0.883067</v>
       </c>
       <c r="D141" t="n">
-        <v>0.905464</v>
+        <v>0.9048929999999999</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.34082</v>
+        <v>1.34179</v>
       </c>
       <c r="C142" t="n">
-        <v>0.888391</v>
+        <v>0.885939</v>
       </c>
       <c r="D142" t="n">
-        <v>0.906498</v>
+        <v>0.907626</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.32693</v>
+        <v>1.32777</v>
       </c>
       <c r="C143" t="n">
-        <v>0.892227</v>
+        <v>0.890073</v>
       </c>
       <c r="D143" t="n">
-        <v>0.910834</v>
+        <v>0.909806</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.243176</v>
+        <v>0.242987</v>
       </c>
       <c r="C2" t="n">
-        <v>0.240968</v>
+        <v>0.240962</v>
       </c>
       <c r="D2" t="n">
-        <v>0.247457</v>
+        <v>0.247368</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.242144</v>
+        <v>0.242069</v>
       </c>
       <c r="C3" t="n">
-        <v>0.240241</v>
+        <v>0.240426</v>
       </c>
       <c r="D3" t="n">
-        <v>0.246792</v>
+        <v>0.247027</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.244497</v>
+        <v>0.244311</v>
       </c>
       <c r="C4" t="n">
-        <v>0.243156</v>
+        <v>0.242462</v>
       </c>
       <c r="D4" t="n">
-        <v>0.249783</v>
+        <v>0.249627</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.245938</v>
+        <v>0.245887</v>
       </c>
       <c r="C5" t="n">
-        <v>0.245639</v>
+        <v>0.245574</v>
       </c>
       <c r="D5" t="n">
-        <v>0.253528</v>
+        <v>0.253588</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.245101</v>
+        <v>0.245121</v>
       </c>
       <c r="C6" t="n">
-        <v>0.246865</v>
+        <v>0.246881</v>
       </c>
       <c r="D6" t="n">
-        <v>0.255795</v>
+        <v>0.255907</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.248192</v>
+        <v>0.248057</v>
       </c>
       <c r="C7" t="n">
-        <v>0.250261</v>
+        <v>0.250327</v>
       </c>
       <c r="D7" t="n">
-        <v>0.261678</v>
+        <v>0.261749</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.251471</v>
+        <v>0.251326</v>
       </c>
       <c r="C8" t="n">
-        <v>0.255172</v>
+        <v>0.255223</v>
       </c>
       <c r="D8" t="n">
-        <v>0.269158</v>
+        <v>0.26906</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.259399</v>
+        <v>0.259436</v>
       </c>
       <c r="C9" t="n">
-        <v>0.263796</v>
+        <v>0.263951</v>
       </c>
       <c r="D9" t="n">
-        <v>0.246338</v>
+        <v>0.249565</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.250378</v>
+        <v>0.251333</v>
       </c>
       <c r="C10" t="n">
-        <v>0.244099</v>
+        <v>0.24535</v>
       </c>
       <c r="D10" t="n">
-        <v>0.246484</v>
+        <v>0.248303</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.249977</v>
+        <v>0.250232</v>
       </c>
       <c r="C11" t="n">
-        <v>0.245326</v>
+        <v>0.244254</v>
       </c>
       <c r="D11" t="n">
-        <v>0.248716</v>
+        <v>0.24631</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.251418</v>
+        <v>0.25185</v>
       </c>
       <c r="C12" t="n">
-        <v>0.246941</v>
+        <v>0.247039</v>
       </c>
       <c r="D12" t="n">
-        <v>0.25038</v>
+        <v>0.248345</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.249927</v>
+        <v>0.251031</v>
       </c>
       <c r="C13" t="n">
-        <v>0.245031</v>
+        <v>0.246083</v>
       </c>
       <c r="D13" t="n">
-        <v>0.248135</v>
+        <v>0.247732</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.250671</v>
+        <v>0.250715</v>
       </c>
       <c r="C14" t="n">
-        <v>0.246148</v>
+        <v>0.247064</v>
       </c>
       <c r="D14" t="n">
-        <v>0.24897</v>
+        <v>0.250055</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.255221</v>
+        <v>0.253625</v>
       </c>
       <c r="C15" t="n">
-        <v>0.251016</v>
+        <v>0.249493</v>
       </c>
       <c r="D15" t="n">
-        <v>0.25419</v>
+        <v>0.250996</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.252419</v>
+        <v>0.252853</v>
       </c>
       <c r="C16" t="n">
-        <v>0.249743</v>
+        <v>0.251238</v>
       </c>
       <c r="D16" t="n">
-        <v>0.252594</v>
+        <v>0.254449</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.253672</v>
+        <v>0.254287</v>
       </c>
       <c r="C17" t="n">
-        <v>0.248854</v>
+        <v>0.251138</v>
       </c>
       <c r="D17" t="n">
-        <v>0.252643</v>
+        <v>0.255276</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.25217</v>
+        <v>0.253372</v>
       </c>
       <c r="C18" t="n">
-        <v>0.251349</v>
+        <v>0.251018</v>
       </c>
       <c r="D18" t="n">
-        <v>0.255671</v>
+        <v>0.256243</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.255518</v>
+        <v>0.255658</v>
       </c>
       <c r="C19" t="n">
-        <v>0.252512</v>
+        <v>0.254475</v>
       </c>
       <c r="D19" t="n">
-        <v>0.257149</v>
+        <v>0.2587</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.254759</v>
+        <v>0.254775</v>
       </c>
       <c r="C20" t="n">
-        <v>0.252575</v>
+        <v>0.254739</v>
       </c>
       <c r="D20" t="n">
-        <v>0.258211</v>
+        <v>0.260039</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.25625</v>
+        <v>0.256274</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2574</v>
+        <v>0.257124</v>
       </c>
       <c r="D21" t="n">
-        <v>0.264294</v>
+        <v>0.264962</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.259592</v>
+        <v>0.26156</v>
       </c>
       <c r="C22" t="n">
-        <v>0.258805</v>
+        <v>0.261171</v>
       </c>
       <c r="D22" t="n">
-        <v>0.268463</v>
+        <v>0.269792</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.263911</v>
+        <v>0.26785</v>
       </c>
       <c r="C23" t="n">
-        <v>0.265141</v>
+        <v>0.270021</v>
       </c>
       <c r="D23" t="n">
-        <v>0.261887</v>
+        <v>0.260435</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.276697</v>
+        <v>0.27297</v>
       </c>
       <c r="C24" t="n">
-        <v>0.254251</v>
+        <v>0.252533</v>
       </c>
       <c r="D24" t="n">
-        <v>0.26389</v>
+        <v>0.260956</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.275971</v>
+        <v>0.272087</v>
       </c>
       <c r="C25" t="n">
-        <v>0.253946</v>
+        <v>0.252139</v>
       </c>
       <c r="D25" t="n">
-        <v>0.264131</v>
+        <v>0.261672</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.275014</v>
+        <v>0.274064</v>
       </c>
       <c r="C26" t="n">
-        <v>0.253257</v>
+        <v>0.252079</v>
       </c>
       <c r="D26" t="n">
-        <v>0.264386</v>
+        <v>0.262693</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.274701</v>
+        <v>0.27361</v>
       </c>
       <c r="C27" t="n">
-        <v>0.252585</v>
+        <v>0.254032</v>
       </c>
       <c r="D27" t="n">
-        <v>0.265021</v>
+        <v>0.263582</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.275184</v>
+        <v>0.275801</v>
       </c>
       <c r="C28" t="n">
-        <v>0.254341</v>
+        <v>0.25537</v>
       </c>
       <c r="D28" t="n">
-        <v>0.263578</v>
+        <v>0.265702</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.275944</v>
+        <v>0.277444</v>
       </c>
       <c r="C29" t="n">
-        <v>0.253916</v>
+        <v>0.254961</v>
       </c>
       <c r="D29" t="n">
-        <v>0.264022</v>
+        <v>0.266574</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.276743</v>
+        <v>0.274573</v>
       </c>
       <c r="C30" t="n">
-        <v>0.254917</v>
+        <v>0.257294</v>
       </c>
       <c r="D30" t="n">
-        <v>0.265294</v>
+        <v>0.267251</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.276537</v>
+        <v>0.275179</v>
       </c>
       <c r="C31" t="n">
-        <v>0.256223</v>
+        <v>0.257701</v>
       </c>
       <c r="D31" t="n">
-        <v>0.265383</v>
+        <v>0.268507</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.278525</v>
+        <v>0.27606</v>
       </c>
       <c r="C32" t="n">
-        <v>0.258167</v>
+        <v>0.259455</v>
       </c>
       <c r="D32" t="n">
-        <v>0.266697</v>
+        <v>0.270069</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.277437</v>
+        <v>0.277812</v>
       </c>
       <c r="C33" t="n">
-        <v>0.260111</v>
+        <v>0.261312</v>
       </c>
       <c r="D33" t="n">
-        <v>0.269452</v>
+        <v>0.272872</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.278596</v>
+        <v>0.279449</v>
       </c>
       <c r="C34" t="n">
-        <v>0.261529</v>
+        <v>0.262766</v>
       </c>
       <c r="D34" t="n">
-        <v>0.272714</v>
+        <v>0.274293</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.279112</v>
+        <v>0.279843</v>
       </c>
       <c r="C35" t="n">
-        <v>0.263757</v>
+        <v>0.264357</v>
       </c>
       <c r="D35" t="n">
-        <v>0.275098</v>
+        <v>0.277208</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.280157</v>
+        <v>0.280446</v>
       </c>
       <c r="C36" t="n">
-        <v>0.267519</v>
+        <v>0.267958</v>
       </c>
       <c r="D36" t="n">
-        <v>0.280061</v>
+        <v>0.282037</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.284897</v>
+        <v>0.284633</v>
       </c>
       <c r="C37" t="n">
-        <v>0.272621</v>
+        <v>0.272754</v>
       </c>
       <c r="D37" t="n">
-        <v>0.28106</v>
+        <v>0.28119</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.305231</v>
+        <v>0.303085</v>
       </c>
       <c r="C38" t="n">
-        <v>0.269815</v>
+        <v>0.269474</v>
       </c>
       <c r="D38" t="n">
-        <v>0.280001</v>
+        <v>0.279751</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.305063</v>
+        <v>0.301901</v>
       </c>
       <c r="C39" t="n">
-        <v>0.271609</v>
+        <v>0.271692</v>
       </c>
       <c r="D39" t="n">
-        <v>0.281359</v>
+        <v>0.281952</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.304607</v>
+        <v>0.304396</v>
       </c>
       <c r="C40" t="n">
-        <v>0.27134</v>
+        <v>0.271658</v>
       </c>
       <c r="D40" t="n">
-        <v>0.280699</v>
+        <v>0.280794</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.303793</v>
+        <v>0.30525</v>
       </c>
       <c r="C41" t="n">
-        <v>0.273711</v>
+        <v>0.272771</v>
       </c>
       <c r="D41" t="n">
-        <v>0.282609</v>
+        <v>0.282674</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.304174</v>
+        <v>0.306113</v>
       </c>
       <c r="C42" t="n">
-        <v>0.273627</v>
+        <v>0.273521</v>
       </c>
       <c r="D42" t="n">
-        <v>0.282535</v>
+        <v>0.282742</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.305056</v>
+        <v>0.306288</v>
       </c>
       <c r="C43" t="n">
-        <v>0.274647</v>
+        <v>0.274153</v>
       </c>
       <c r="D43" t="n">
-        <v>0.283124</v>
+        <v>0.283131</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.305435</v>
+        <v>0.305829</v>
       </c>
       <c r="C44" t="n">
-        <v>0.276246</v>
+        <v>0.276826</v>
       </c>
       <c r="D44" t="n">
-        <v>0.284653</v>
+        <v>0.285764</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.305152</v>
+        <v>0.303212</v>
       </c>
       <c r="C45" t="n">
-        <v>0.277242</v>
+        <v>0.276792</v>
       </c>
       <c r="D45" t="n">
-        <v>0.285663</v>
+        <v>0.285287</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.304337</v>
+        <v>0.30625</v>
       </c>
       <c r="C46" t="n">
-        <v>0.279641</v>
+        <v>0.279043</v>
       </c>
       <c r="D46" t="n">
-        <v>0.288573</v>
+        <v>0.287768</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.304187</v>
+        <v>0.307899</v>
       </c>
       <c r="C47" t="n">
-        <v>0.279862</v>
+        <v>0.280184</v>
       </c>
       <c r="D47" t="n">
-        <v>0.288495</v>
+        <v>0.289164</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.307847</v>
+        <v>0.306022</v>
       </c>
       <c r="C48" t="n">
-        <v>0.282086</v>
+        <v>0.282638</v>
       </c>
       <c r="D48" t="n">
-        <v>0.290859</v>
+        <v>0.29232</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.308615</v>
+        <v>0.306981</v>
       </c>
       <c r="C49" t="n">
-        <v>0.284927</v>
+        <v>0.285933</v>
       </c>
       <c r="D49" t="n">
-        <v>0.29453</v>
+        <v>0.296359</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.312303</v>
+        <v>0.312712</v>
       </c>
       <c r="C50" t="n">
-        <v>0.289447</v>
+        <v>0.289301</v>
       </c>
       <c r="D50" t="n">
-        <v>0.301548</v>
+        <v>0.30082</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.314305</v>
+        <v>0.31757</v>
       </c>
       <c r="C51" t="n">
-        <v>0.292891</v>
+        <v>0.294253</v>
       </c>
       <c r="D51" t="n">
-        <v>0.294655</v>
+        <v>0.293736</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.31815</v>
+        <v>0.317565</v>
       </c>
       <c r="C52" t="n">
-        <v>0.300046</v>
+        <v>0.30079</v>
       </c>
       <c r="D52" t="n">
-        <v>0.294421</v>
+        <v>0.293785</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.33158</v>
+        <v>0.332683</v>
       </c>
       <c r="C53" t="n">
-        <v>0.286251</v>
+        <v>0.287485</v>
       </c>
       <c r="D53" t="n">
-        <v>0.29347</v>
+        <v>0.293053</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.331233</v>
+        <v>0.332233</v>
       </c>
       <c r="C54" t="n">
-        <v>0.288649</v>
+        <v>0.288109</v>
       </c>
       <c r="D54" t="n">
-        <v>0.295646</v>
+        <v>0.293352</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.333201</v>
+        <v>0.330649</v>
       </c>
       <c r="C55" t="n">
-        <v>0.289159</v>
+        <v>0.288628</v>
       </c>
       <c r="D55" t="n">
-        <v>0.296264</v>
+        <v>0.293886</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.331373</v>
+        <v>0.333256</v>
       </c>
       <c r="C56" t="n">
-        <v>0.289084</v>
+        <v>0.289398</v>
       </c>
       <c r="D56" t="n">
-        <v>0.295012</v>
+        <v>0.294435</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.332194</v>
+        <v>0.332349</v>
       </c>
       <c r="C57" t="n">
-        <v>0.290695</v>
+        <v>0.291308</v>
       </c>
       <c r="D57" t="n">
-        <v>0.295785</v>
+        <v>0.296582</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.332148</v>
+        <v>0.332845</v>
       </c>
       <c r="C58" t="n">
-        <v>0.291589</v>
+        <v>0.291537</v>
       </c>
       <c r="D58" t="n">
-        <v>0.2965</v>
+        <v>0.296529</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.331122</v>
+        <v>0.332983</v>
       </c>
       <c r="C59" t="n">
-        <v>0.29268</v>
+        <v>0.292864</v>
       </c>
       <c r="D59" t="n">
-        <v>0.29769</v>
+        <v>0.297934</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.332985</v>
+        <v>0.333372</v>
       </c>
       <c r="C60" t="n">
-        <v>0.294362</v>
+        <v>0.294125</v>
       </c>
       <c r="D60" t="n">
-        <v>0.299332</v>
+        <v>0.299236</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.334829</v>
+        <v>0.333065</v>
       </c>
       <c r="C61" t="n">
-        <v>0.295408</v>
+        <v>0.296302</v>
       </c>
       <c r="D61" t="n">
-        <v>0.300846</v>
+        <v>0.301683</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.333585</v>
+        <v>0.333912</v>
       </c>
       <c r="C62" t="n">
-        <v>0.297911</v>
+        <v>0.297595</v>
       </c>
       <c r="D62" t="n">
-        <v>0.303642</v>
+        <v>0.303406</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.33526</v>
+        <v>0.334001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.297732</v>
+        <v>0.300471</v>
       </c>
       <c r="D63" t="n">
-        <v>0.304718</v>
+        <v>0.306908</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.338383</v>
+        <v>0.336565</v>
       </c>
       <c r="C64" t="n">
-        <v>0.30398</v>
+        <v>0.304463</v>
       </c>
       <c r="D64" t="n">
-        <v>0.312062</v>
+        <v>0.31241</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.338722</v>
+        <v>0.339778</v>
       </c>
       <c r="C65" t="n">
-        <v>0.308369</v>
+        <v>0.30919</v>
       </c>
       <c r="D65" t="n">
-        <v>0.319024</v>
+        <v>0.319239</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.344035</v>
+        <v>0.344302</v>
       </c>
       <c r="C66" t="n">
-        <v>0.315904</v>
+        <v>0.316074</v>
       </c>
       <c r="D66" t="n">
-        <v>0.302068</v>
+        <v>0.300846</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.346686</v>
+        <v>0.349993</v>
       </c>
       <c r="C67" t="n">
-        <v>0.298559</v>
+        <v>0.297615</v>
       </c>
       <c r="D67" t="n">
-        <v>0.299809</v>
+        <v>0.300137</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.350148</v>
+        <v>0.349972</v>
       </c>
       <c r="C68" t="n">
-        <v>0.299724</v>
+        <v>0.298606</v>
       </c>
       <c r="D68" t="n">
-        <v>0.301109</v>
+        <v>0.300012</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.350081</v>
+        <v>0.350184</v>
       </c>
       <c r="C69" t="n">
-        <v>0.300471</v>
+        <v>0.299939</v>
       </c>
       <c r="D69" t="n">
-        <v>0.301247</v>
+        <v>0.301642</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.350808</v>
+        <v>0.350266</v>
       </c>
       <c r="C70" t="n">
-        <v>0.301177</v>
+        <v>0.30069</v>
       </c>
       <c r="D70" t="n">
-        <v>0.301709</v>
+        <v>0.301733</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.350627</v>
+        <v>0.350728</v>
       </c>
       <c r="C71" t="n">
-        <v>0.302516</v>
+        <v>0.301542</v>
       </c>
       <c r="D71" t="n">
-        <v>0.302756</v>
+        <v>0.303064</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.351413</v>
+        <v>0.350751</v>
       </c>
       <c r="C72" t="n">
-        <v>0.303352</v>
+        <v>0.302094</v>
       </c>
       <c r="D72" t="n">
-        <v>0.303596</v>
+        <v>0.30307</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.351051</v>
+        <v>0.351579</v>
       </c>
       <c r="C73" t="n">
-        <v>0.305322</v>
+        <v>0.303906</v>
       </c>
       <c r="D73" t="n">
-        <v>0.30494</v>
+        <v>0.304472</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.352071</v>
+        <v>0.351916</v>
       </c>
       <c r="C74" t="n">
-        <v>0.306254</v>
+        <v>0.304258</v>
       </c>
       <c r="D74" t="n">
-        <v>0.307007</v>
+        <v>0.30612</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.35229</v>
+        <v>0.352424</v>
       </c>
       <c r="C75" t="n">
-        <v>0.307494</v>
+        <v>0.307531</v>
       </c>
       <c r="D75" t="n">
-        <v>0.307835</v>
+        <v>0.308094</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.353073</v>
+        <v>0.353444</v>
       </c>
       <c r="C76" t="n">
-        <v>0.310212</v>
+        <v>0.308634</v>
       </c>
       <c r="D76" t="n">
-        <v>0.311727</v>
+        <v>0.310468</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.354236</v>
+        <v>0.354224</v>
       </c>
       <c r="C77" t="n">
-        <v>0.312068</v>
+        <v>0.308955</v>
       </c>
       <c r="D77" t="n">
-        <v>0.31393</v>
+        <v>0.313432</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.35622</v>
+        <v>0.355541</v>
       </c>
       <c r="C78" t="n">
-        <v>0.315059</v>
+        <v>0.314499</v>
       </c>
       <c r="D78" t="n">
-        <v>0.318298</v>
+        <v>0.31834</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.35818</v>
+        <v>0.358437</v>
       </c>
       <c r="C79" t="n">
-        <v>0.319025</v>
+        <v>0.316948</v>
       </c>
       <c r="D79" t="n">
-        <v>0.325209</v>
+        <v>0.324941</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.362503</v>
+        <v>0.362231</v>
       </c>
       <c r="C80" t="n">
-        <v>0.325381</v>
+        <v>0.325407</v>
       </c>
       <c r="D80" t="n">
-        <v>0.310254</v>
+        <v>0.314627</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.375236</v>
+        <v>0.376817</v>
       </c>
       <c r="C81" t="n">
-        <v>0.294153</v>
+        <v>0.307902</v>
       </c>
       <c r="D81" t="n">
-        <v>0.306261</v>
+        <v>0.316985</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.364197</v>
+        <v>0.37383</v>
       </c>
       <c r="C82" t="n">
-        <v>0.308276</v>
+        <v>0.30609</v>
       </c>
       <c r="D82" t="n">
-        <v>0.318636</v>
+        <v>0.316287</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.37529</v>
+        <v>0.377581</v>
       </c>
       <c r="C83" t="n">
-        <v>0.307989</v>
+        <v>0.308458</v>
       </c>
       <c r="D83" t="n">
-        <v>0.316172</v>
+        <v>0.319918</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.379422</v>
+        <v>0.374497</v>
       </c>
       <c r="C84" t="n">
-        <v>0.311499</v>
+        <v>0.304458</v>
       </c>
       <c r="D84" t="n">
-        <v>0.318321</v>
+        <v>0.31436</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.372788</v>
+        <v>0.375026</v>
       </c>
       <c r="C85" t="n">
-        <v>0.305476</v>
+        <v>0.303767</v>
       </c>
       <c r="D85" t="n">
-        <v>0.316362</v>
+        <v>0.315579</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.372921</v>
+        <v>0.373656</v>
       </c>
       <c r="C86" t="n">
-        <v>0.30677</v>
+        <v>0.306338</v>
       </c>
       <c r="D86" t="n">
-        <v>0.315405</v>
+        <v>0.315818</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.373319</v>
+        <v>0.376799</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3074</v>
+        <v>0.307607</v>
       </c>
       <c r="D87" t="n">
-        <v>0.316581</v>
+        <v>0.31798</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.371998</v>
+        <v>0.37258</v>
       </c>
       <c r="C88" t="n">
-        <v>0.306007</v>
+        <v>0.308546</v>
       </c>
       <c r="D88" t="n">
-        <v>0.31746</v>
+        <v>0.318119</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.374019</v>
+        <v>0.374547</v>
       </c>
       <c r="C89" t="n">
-        <v>0.308503</v>
+        <v>0.308284</v>
       </c>
       <c r="D89" t="n">
-        <v>0.319395</v>
+        <v>0.320954</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.37296</v>
+        <v>0.378638</v>
       </c>
       <c r="C90" t="n">
-        <v>0.3088</v>
+        <v>0.31236</v>
       </c>
       <c r="D90" t="n">
-        <v>0.32237</v>
+        <v>0.325363</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.375535</v>
+        <v>0.375536</v>
       </c>
       <c r="C91" t="n">
-        <v>0.302671</v>
+        <v>0.31139</v>
       </c>
       <c r="D91" t="n">
-        <v>0.31687</v>
+        <v>0.325069</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.365814</v>
+        <v>0.376344</v>
       </c>
       <c r="C92" t="n">
-        <v>0.313378</v>
+        <v>0.314746</v>
       </c>
       <c r="D92" t="n">
-        <v>0.328734</v>
+        <v>0.329474</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.378223</v>
+        <v>0.378115</v>
       </c>
       <c r="C93" t="n">
-        <v>0.318087</v>
+        <v>0.318428</v>
       </c>
       <c r="D93" t="n">
-        <v>0.335881</v>
+        <v>0.334909</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.382634</v>
+        <v>0.382601</v>
       </c>
       <c r="C94" t="n">
-        <v>0.324596</v>
+        <v>0.325618</v>
       </c>
       <c r="D94" t="n">
-        <v>0.431205</v>
+        <v>0.47412</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.553573</v>
+        <v>0.562219</v>
       </c>
       <c r="C95" t="n">
-        <v>0.468462</v>
+        <v>0.480308</v>
       </c>
       <c r="D95" t="n">
-        <v>0.454612</v>
+        <v>0.463375</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.558108</v>
+        <v>0.561921</v>
       </c>
       <c r="C96" t="n">
-        <v>0.440273</v>
+        <v>0.473328</v>
       </c>
       <c r="D96" t="n">
-        <v>0.429345</v>
+        <v>0.462695</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.516035</v>
+        <v>0.553967</v>
       </c>
       <c r="C97" t="n">
-        <v>0.442989</v>
+        <v>0.479218</v>
       </c>
       <c r="D97" t="n">
-        <v>0.437001</v>
+        <v>0.468112</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.512333</v>
+        <v>0.5595869999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>0.437952</v>
+        <v>0.47368</v>
       </c>
       <c r="D98" t="n">
-        <v>0.431154</v>
+        <v>0.460434</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.51058</v>
+        <v>0.555803</v>
       </c>
       <c r="C99" t="n">
-        <v>0.473487</v>
+        <v>0.482359</v>
       </c>
       <c r="D99" t="n">
-        <v>0.458624</v>
+        <v>0.468995</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.549957</v>
+        <v>0.560898</v>
       </c>
       <c r="C100" t="n">
-        <v>0.473198</v>
+        <v>0.476035</v>
       </c>
       <c r="D100" t="n">
-        <v>0.456616</v>
+        <v>0.461554</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.557041</v>
+        <v>0.556356</v>
       </c>
       <c r="C101" t="n">
-        <v>0.476725</v>
+        <v>0.485686</v>
       </c>
       <c r="D101" t="n">
-        <v>0.465411</v>
+        <v>0.471317</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.557442</v>
+        <v>0.562623</v>
       </c>
       <c r="C102" t="n">
-        <v>0.480731</v>
+        <v>0.477575</v>
       </c>
       <c r="D102" t="n">
-        <v>0.467255</v>
+        <v>0.465543</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.560339</v>
+        <v>0.553678</v>
       </c>
       <c r="C103" t="n">
-        <v>0.448042</v>
+        <v>0.487092</v>
       </c>
       <c r="D103" t="n">
-        <v>0.446079</v>
+        <v>0.47442</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.523876</v>
+        <v>0.562682</v>
       </c>
       <c r="C104" t="n">
-        <v>0.492583</v>
+        <v>0.483561</v>
       </c>
       <c r="D104" t="n">
-        <v>0.476982</v>
+        <v>0.471104</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.559688</v>
+        <v>0.55886</v>
       </c>
       <c r="C105" t="n">
-        <v>0.483196</v>
+        <v>0.490339</v>
       </c>
       <c r="D105" t="n">
-        <v>0.462957</v>
+        <v>0.479701</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.556068</v>
+        <v>0.5676639999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.454224</v>
+        <v>0.488325</v>
       </c>
       <c r="D106" t="n">
-        <v>0.452691</v>
+        <v>0.478148</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.509761</v>
+        <v>0.558853</v>
       </c>
       <c r="C107" t="n">
-        <v>0.45445</v>
+        <v>0.49954</v>
       </c>
       <c r="D107" t="n">
-        <v>0.456519</v>
+        <v>0.485128</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.510182</v>
+        <v>0.568179</v>
       </c>
       <c r="C108" t="n">
-        <v>0.492091</v>
+        <v>0.496994</v>
       </c>
       <c r="D108" t="n">
-        <v>0.711944</v>
+        <v>0.7262729999999999</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.559999</v>
+        <v>0.56626</v>
       </c>
       <c r="C109" t="n">
-        <v>0.499085</v>
+        <v>0.5043</v>
       </c>
       <c r="D109" t="n">
-        <v>0.733656</v>
+        <v>0.729168</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.849594</v>
+        <v>0.852109</v>
       </c>
       <c r="C110" t="n">
-        <v>0.7181650000000001</v>
+        <v>0.727696</v>
       </c>
       <c r="D110" t="n">
-        <v>0.732799</v>
+        <v>0.730365</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.85623</v>
+        <v>0.851996</v>
       </c>
       <c r="C111" t="n">
-        <v>0.716423</v>
+        <v>0.729029</v>
       </c>
       <c r="D111" t="n">
-        <v>0.735218</v>
+        <v>0.731924</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.857672</v>
+        <v>0.852975</v>
       </c>
       <c r="C112" t="n">
-        <v>0.71696</v>
+        <v>0.730891</v>
       </c>
       <c r="D112" t="n">
-        <v>0.736077</v>
+        <v>0.731344</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.855379</v>
+        <v>0.853115</v>
       </c>
       <c r="C113" t="n">
-        <v>0.718145</v>
+        <v>0.72987</v>
       </c>
       <c r="D113" t="n">
-        <v>0.738398</v>
+        <v>0.732137</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.857889</v>
+        <v>0.849654</v>
       </c>
       <c r="C114" t="n">
-        <v>0.736262</v>
+        <v>0.730909</v>
       </c>
       <c r="D114" t="n">
-        <v>0.738699</v>
+        <v>0.732786</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.860117</v>
+        <v>0.855567</v>
       </c>
       <c r="C115" t="n">
-        <v>0.737685</v>
+        <v>0.7336240000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.739749</v>
+        <v>0.734053</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.858316</v>
+        <v>0.852478</v>
       </c>
       <c r="C116" t="n">
-        <v>0.738478</v>
+        <v>0.733652</v>
       </c>
       <c r="D116" t="n">
-        <v>0.742552</v>
+        <v>0.736611</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.857698</v>
+        <v>0.850488</v>
       </c>
       <c r="C117" t="n">
-        <v>0.7417859999999999</v>
+        <v>0.735596</v>
       </c>
       <c r="D117" t="n">
-        <v>0.743929</v>
+        <v>0.739125</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.846089</v>
+        <v>0.853487</v>
       </c>
       <c r="C118" t="n">
-        <v>0.744277</v>
+        <v>0.738349</v>
       </c>
       <c r="D118" t="n">
-        <v>0.747127</v>
+        <v>0.7418709999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.842016</v>
+        <v>0.852173</v>
       </c>
       <c r="C119" t="n">
-        <v>0.730583</v>
+        <v>0.740495</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7500830000000001</v>
+        <v>0.744472</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.8431999999999999</v>
+        <v>0.851248</v>
       </c>
       <c r="C120" t="n">
-        <v>0.75068</v>
+        <v>0.745707</v>
       </c>
       <c r="D120" t="n">
-        <v>0.754935</v>
+        <v>0.748571</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.862757</v>
+        <v>0.849064</v>
       </c>
       <c r="C121" t="n">
-        <v>0.755131</v>
+        <v>0.7517</v>
       </c>
       <c r="D121" t="n">
-        <v>0.747184</v>
+        <v>0.754188</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.8563809999999999</v>
+        <v>0.851956</v>
       </c>
       <c r="C122" t="n">
-        <v>0.7621790000000001</v>
+        <v>0.7558240000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>0.76824</v>
+        <v>0.76291</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.862139</v>
+        <v>0.8582</v>
       </c>
       <c r="C123" t="n">
-        <v>0.7557970000000001</v>
+        <v>0.765436</v>
       </c>
       <c r="D123" t="n">
-        <v>0.847244</v>
+        <v>0.836615</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.11442</v>
+        <v>1.11224</v>
       </c>
       <c r="C124" t="n">
-        <v>0.829727</v>
+        <v>0.827676</v>
       </c>
       <c r="D124" t="n">
-        <v>0.848529</v>
+        <v>0.839079</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.11841</v>
+        <v>1.10811</v>
       </c>
       <c r="C125" t="n">
-        <v>0.83911</v>
+        <v>0.828394</v>
       </c>
       <c r="D125" t="n">
-        <v>0.8493230000000001</v>
+        <v>0.840268</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.09919</v>
+        <v>1.1116</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8394430000000001</v>
+        <v>0.829577</v>
       </c>
       <c r="D126" t="n">
-        <v>0.851267</v>
+        <v>0.841202</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.11772</v>
+        <v>1.10733</v>
       </c>
       <c r="C127" t="n">
-        <v>0.841765</v>
+        <v>0.830837</v>
       </c>
       <c r="D127" t="n">
-        <v>0.85326</v>
+        <v>0.842912</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.11545</v>
+        <v>1.10859</v>
       </c>
       <c r="C128" t="n">
-        <v>0.843113</v>
+        <v>0.832056</v>
       </c>
       <c r="D128" t="n">
-        <v>0.8550680000000001</v>
+        <v>0.843028</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.09696</v>
+        <v>1.11096</v>
       </c>
       <c r="C129" t="n">
-        <v>0.846211</v>
+        <v>0.834562</v>
       </c>
       <c r="D129" t="n">
-        <v>0.857596</v>
+        <v>0.846127</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.09326</v>
+        <v>1.10885</v>
       </c>
       <c r="C130" t="n">
-        <v>0.8400069999999999</v>
+        <v>0.835738</v>
       </c>
       <c r="D130" t="n">
-        <v>0.850665</v>
+        <v>0.847603</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.11625</v>
+        <v>1.10985</v>
       </c>
       <c r="C131" t="n">
-        <v>0.842382</v>
+        <v>0.83935</v>
       </c>
       <c r="D131" t="n">
-        <v>0.862233</v>
+        <v>0.850607</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.11429</v>
+        <v>1.10891</v>
       </c>
       <c r="C132" t="n">
-        <v>0.846671</v>
+        <v>0.842162</v>
       </c>
       <c r="D132" t="n">
-        <v>0.866065</v>
+        <v>0.854687</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.11688</v>
+        <v>1.11102</v>
       </c>
       <c r="C133" t="n">
-        <v>0.857136</v>
+        <v>0.8468</v>
       </c>
       <c r="D133" t="n">
-        <v>0.870078</v>
+        <v>0.8582610000000001</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.11427</v>
+        <v>1.10768</v>
       </c>
       <c r="C134" t="n">
-        <v>0.855586</v>
+        <v>0.851637</v>
       </c>
       <c r="D134" t="n">
-        <v>0.876901</v>
+        <v>0.864503</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.11489</v>
+        <v>1.11173</v>
       </c>
       <c r="C135" t="n">
-        <v>0.8681950000000001</v>
+        <v>0.856623</v>
       </c>
       <c r="D135" t="n">
-        <v>0.885915</v>
+        <v>0.871996</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.11691</v>
+        <v>1.11284</v>
       </c>
       <c r="C136" t="n">
-        <v>0.876333</v>
+        <v>0.864606</v>
       </c>
       <c r="D136" t="n">
-        <v>0.896473</v>
+        <v>0.883561</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.11871</v>
+        <v>1.11393</v>
       </c>
       <c r="C137" t="n">
-        <v>0.889079</v>
+        <v>0.876015</v>
       </c>
       <c r="D137" t="n">
-        <v>0.898999</v>
+        <v>0.886773</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.34203</v>
+        <v>1.33206</v>
       </c>
       <c r="C138" t="n">
-        <v>0.882551</v>
+        <v>0.870097</v>
       </c>
       <c r="D138" t="n">
-        <v>0.90141</v>
+        <v>0.8872370000000001</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.32834</v>
+        <v>1.33081</v>
       </c>
       <c r="C139" t="n">
-        <v>0.884773</v>
+        <v>0.871179</v>
       </c>
       <c r="D139" t="n">
-        <v>0.903613</v>
+        <v>0.889576</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.34411</v>
+        <v>1.33183</v>
       </c>
       <c r="C140" t="n">
-        <v>0.882759</v>
+        <v>0.872719</v>
       </c>
       <c r="D140" t="n">
-        <v>0.903603</v>
+        <v>0.88953</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.3425</v>
+        <v>1.33076</v>
       </c>
       <c r="C141" t="n">
-        <v>0.883067</v>
+        <v>0.874704</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9048929999999999</v>
+        <v>0.893428</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.34179</v>
+        <v>1.33318</v>
       </c>
       <c r="C142" t="n">
-        <v>0.885939</v>
+        <v>0.876587</v>
       </c>
       <c r="D142" t="n">
-        <v>0.907626</v>
+        <v>0.89644</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.32777</v>
+        <v>1.33074</v>
       </c>
       <c r="C143" t="n">
-        <v>0.890073</v>
+        <v>0.878606</v>
       </c>
       <c r="D143" t="n">
-        <v>0.909806</v>
+        <v>0.897479</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.242987</v>
+        <v>0.242788</v>
       </c>
       <c r="C2" t="n">
-        <v>0.240962</v>
+        <v>0.238449</v>
       </c>
       <c r="D2" t="n">
-        <v>0.247368</v>
+        <v>0.244661</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.242069</v>
+        <v>0.242238</v>
       </c>
       <c r="C3" t="n">
-        <v>0.240426</v>
+        <v>0.237554</v>
       </c>
       <c r="D3" t="n">
-        <v>0.247027</v>
+        <v>0.244292</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.244311</v>
+        <v>0.244544</v>
       </c>
       <c r="C4" t="n">
-        <v>0.242462</v>
+        <v>0.240543</v>
       </c>
       <c r="D4" t="n">
-        <v>0.249627</v>
+        <v>0.247557</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.245887</v>
+        <v>0.246747</v>
       </c>
       <c r="C5" t="n">
-        <v>0.245574</v>
+        <v>0.243739</v>
       </c>
       <c r="D5" t="n">
-        <v>0.253588</v>
+        <v>0.251361</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.245121</v>
+        <v>0.245711</v>
       </c>
       <c r="C6" t="n">
-        <v>0.246881</v>
+        <v>0.24481</v>
       </c>
       <c r="D6" t="n">
-        <v>0.255907</v>
+        <v>0.253952</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.248057</v>
+        <v>0.248593</v>
       </c>
       <c r="C7" t="n">
-        <v>0.250327</v>
+        <v>0.248381</v>
       </c>
       <c r="D7" t="n">
-        <v>0.261749</v>
+        <v>0.260345</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.251326</v>
+        <v>0.251912</v>
       </c>
       <c r="C8" t="n">
-        <v>0.255223</v>
+        <v>0.253396</v>
       </c>
       <c r="D8" t="n">
-        <v>0.26906</v>
+        <v>0.267984</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.259436</v>
+        <v>0.259041</v>
       </c>
       <c r="C9" t="n">
-        <v>0.263951</v>
+        <v>0.260816</v>
       </c>
       <c r="D9" t="n">
-        <v>0.249565</v>
+        <v>0.243872</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.251333</v>
+        <v>0.250609</v>
       </c>
       <c r="C10" t="n">
-        <v>0.24535</v>
+        <v>0.240773</v>
       </c>
       <c r="D10" t="n">
-        <v>0.248303</v>
+        <v>0.243979</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.250232</v>
+        <v>0.251183</v>
       </c>
       <c r="C11" t="n">
-        <v>0.244254</v>
+        <v>0.241412</v>
       </c>
       <c r="D11" t="n">
-        <v>0.24631</v>
+        <v>0.244295</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.25185</v>
+        <v>0.252465</v>
       </c>
       <c r="C12" t="n">
-        <v>0.247039</v>
+        <v>0.243876</v>
       </c>
       <c r="D12" t="n">
-        <v>0.248345</v>
+        <v>0.246819</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.251031</v>
+        <v>0.253208</v>
       </c>
       <c r="C13" t="n">
-        <v>0.246083</v>
+        <v>0.243558</v>
       </c>
       <c r="D13" t="n">
-        <v>0.247732</v>
+        <v>0.246516</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.250715</v>
+        <v>0.252917</v>
       </c>
       <c r="C14" t="n">
-        <v>0.247064</v>
+        <v>0.242375</v>
       </c>
       <c r="D14" t="n">
-        <v>0.250055</v>
+        <v>0.245783</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.253625</v>
+        <v>0.25341</v>
       </c>
       <c r="C15" t="n">
-        <v>0.249493</v>
+        <v>0.245411</v>
       </c>
       <c r="D15" t="n">
-        <v>0.250996</v>
+        <v>0.249289</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.252853</v>
+        <v>0.252503</v>
       </c>
       <c r="C16" t="n">
-        <v>0.251238</v>
+        <v>0.244814</v>
       </c>
       <c r="D16" t="n">
-        <v>0.254449</v>
+        <v>0.248405</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.254287</v>
+        <v>0.254053</v>
       </c>
       <c r="C17" t="n">
-        <v>0.251138</v>
+        <v>0.245818</v>
       </c>
       <c r="D17" t="n">
-        <v>0.255276</v>
+        <v>0.249611</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.253372</v>
+        <v>0.25618</v>
       </c>
       <c r="C18" t="n">
-        <v>0.251018</v>
+        <v>0.24896</v>
       </c>
       <c r="D18" t="n">
-        <v>0.256243</v>
+        <v>0.252881</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.255658</v>
+        <v>0.256796</v>
       </c>
       <c r="C19" t="n">
-        <v>0.254475</v>
+        <v>0.249615</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2587</v>
+        <v>0.253952</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.254775</v>
+        <v>0.254963</v>
       </c>
       <c r="C20" t="n">
-        <v>0.254739</v>
+        <v>0.249687</v>
       </c>
       <c r="D20" t="n">
-        <v>0.260039</v>
+        <v>0.256113</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.256274</v>
+        <v>0.261055</v>
       </c>
       <c r="C21" t="n">
-        <v>0.257124</v>
+        <v>0.256215</v>
       </c>
       <c r="D21" t="n">
-        <v>0.264962</v>
+        <v>0.263077</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.26156</v>
+        <v>0.26208</v>
       </c>
       <c r="C22" t="n">
-        <v>0.261171</v>
+        <v>0.258678</v>
       </c>
       <c r="D22" t="n">
-        <v>0.269792</v>
+        <v>0.267574</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.26785</v>
+        <v>0.265467</v>
       </c>
       <c r="C23" t="n">
-        <v>0.270021</v>
+        <v>0.262552</v>
       </c>
       <c r="D23" t="n">
-        <v>0.260435</v>
+        <v>0.253872</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.27297</v>
+        <v>0.271177</v>
       </c>
       <c r="C24" t="n">
-        <v>0.252533</v>
+        <v>0.244454</v>
       </c>
       <c r="D24" t="n">
-        <v>0.260956</v>
+        <v>0.253897</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.272087</v>
+        <v>0.270954</v>
       </c>
       <c r="C25" t="n">
-        <v>0.252139</v>
+        <v>0.243991</v>
       </c>
       <c r="D25" t="n">
-        <v>0.261672</v>
+        <v>0.253294</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.274064</v>
+        <v>0.271978</v>
       </c>
       <c r="C26" t="n">
-        <v>0.252079</v>
+        <v>0.245313</v>
       </c>
       <c r="D26" t="n">
-        <v>0.262693</v>
+        <v>0.253177</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.27361</v>
+        <v>0.273529</v>
       </c>
       <c r="C27" t="n">
-        <v>0.254032</v>
+        <v>0.246571</v>
       </c>
       <c r="D27" t="n">
-        <v>0.263582</v>
+        <v>0.253763</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.275801</v>
+        <v>0.274977</v>
       </c>
       <c r="C28" t="n">
-        <v>0.25537</v>
+        <v>0.248252</v>
       </c>
       <c r="D28" t="n">
-        <v>0.265702</v>
+        <v>0.255372</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.277444</v>
+        <v>0.273892</v>
       </c>
       <c r="C29" t="n">
-        <v>0.254961</v>
+        <v>0.249465</v>
       </c>
       <c r="D29" t="n">
-        <v>0.266574</v>
+        <v>0.256535</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.274573</v>
+        <v>0.274982</v>
       </c>
       <c r="C30" t="n">
-        <v>0.257294</v>
+        <v>0.251377</v>
       </c>
       <c r="D30" t="n">
-        <v>0.267251</v>
+        <v>0.258879</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.275179</v>
+        <v>0.275372</v>
       </c>
       <c r="C31" t="n">
-        <v>0.257701</v>
+        <v>0.25262</v>
       </c>
       <c r="D31" t="n">
-        <v>0.268507</v>
+        <v>0.26084</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.27606</v>
+        <v>0.274934</v>
       </c>
       <c r="C32" t="n">
-        <v>0.259455</v>
+        <v>0.253894</v>
       </c>
       <c r="D32" t="n">
-        <v>0.270069</v>
+        <v>0.26391</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.277812</v>
+        <v>0.276852</v>
       </c>
       <c r="C33" t="n">
-        <v>0.261312</v>
+        <v>0.255735</v>
       </c>
       <c r="D33" t="n">
-        <v>0.272872</v>
+        <v>0.265644</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.279449</v>
+        <v>0.278515</v>
       </c>
       <c r="C34" t="n">
-        <v>0.262766</v>
+        <v>0.258083</v>
       </c>
       <c r="D34" t="n">
-        <v>0.274293</v>
+        <v>0.268372</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.279843</v>
+        <v>0.27772</v>
       </c>
       <c r="C35" t="n">
-        <v>0.264357</v>
+        <v>0.260954</v>
       </c>
       <c r="D35" t="n">
-        <v>0.277208</v>
+        <v>0.272193</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.280446</v>
+        <v>0.281619</v>
       </c>
       <c r="C36" t="n">
-        <v>0.267958</v>
+        <v>0.263829</v>
       </c>
       <c r="D36" t="n">
-        <v>0.282037</v>
+        <v>0.278042</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.284633</v>
+        <v>0.286452</v>
       </c>
       <c r="C37" t="n">
-        <v>0.272754</v>
+        <v>0.269223</v>
       </c>
       <c r="D37" t="n">
-        <v>0.28119</v>
+        <v>0.273231</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.303085</v>
+        <v>0.302166</v>
       </c>
       <c r="C38" t="n">
-        <v>0.269474</v>
+        <v>0.266226</v>
       </c>
       <c r="D38" t="n">
-        <v>0.279751</v>
+        <v>0.275024</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.301901</v>
+        <v>0.301996</v>
       </c>
       <c r="C39" t="n">
-        <v>0.271692</v>
+        <v>0.267913</v>
       </c>
       <c r="D39" t="n">
-        <v>0.281952</v>
+        <v>0.276052</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.304396</v>
+        <v>0.302002</v>
       </c>
       <c r="C40" t="n">
-        <v>0.271658</v>
+        <v>0.267995</v>
       </c>
       <c r="D40" t="n">
-        <v>0.280794</v>
+        <v>0.276701</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.30525</v>
+        <v>0.303038</v>
       </c>
       <c r="C41" t="n">
-        <v>0.272771</v>
+        <v>0.269732</v>
       </c>
       <c r="D41" t="n">
-        <v>0.282674</v>
+        <v>0.276901</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.306113</v>
+        <v>0.30325</v>
       </c>
       <c r="C42" t="n">
-        <v>0.273521</v>
+        <v>0.270562</v>
       </c>
       <c r="D42" t="n">
-        <v>0.282742</v>
+        <v>0.27798</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.306288</v>
+        <v>0.304725</v>
       </c>
       <c r="C43" t="n">
-        <v>0.274153</v>
+        <v>0.270807</v>
       </c>
       <c r="D43" t="n">
-        <v>0.283131</v>
+        <v>0.278718</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.305829</v>
+        <v>0.30318</v>
       </c>
       <c r="C44" t="n">
-        <v>0.276826</v>
+        <v>0.273587</v>
       </c>
       <c r="D44" t="n">
-        <v>0.285764</v>
+        <v>0.280892</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.303212</v>
+        <v>0.304568</v>
       </c>
       <c r="C45" t="n">
-        <v>0.276792</v>
+        <v>0.27357</v>
       </c>
       <c r="D45" t="n">
-        <v>0.285287</v>
+        <v>0.28151</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.30625</v>
+        <v>0.306928</v>
       </c>
       <c r="C46" t="n">
-        <v>0.279043</v>
+        <v>0.275345</v>
       </c>
       <c r="D46" t="n">
-        <v>0.287768</v>
+        <v>0.282919</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.307899</v>
+        <v>0.306389</v>
       </c>
       <c r="C47" t="n">
-        <v>0.280184</v>
+        <v>0.277356</v>
       </c>
       <c r="D47" t="n">
-        <v>0.289164</v>
+        <v>0.285923</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.306022</v>
+        <v>0.305688</v>
       </c>
       <c r="C48" t="n">
-        <v>0.282638</v>
+        <v>0.279027</v>
       </c>
       <c r="D48" t="n">
-        <v>0.29232</v>
+        <v>0.288487</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.306981</v>
+        <v>0.3072</v>
       </c>
       <c r="C49" t="n">
-        <v>0.285933</v>
+        <v>0.281563</v>
       </c>
       <c r="D49" t="n">
-        <v>0.296359</v>
+        <v>0.291865</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.312712</v>
+        <v>0.30942</v>
       </c>
       <c r="C50" t="n">
-        <v>0.289301</v>
+        <v>0.285343</v>
       </c>
       <c r="D50" t="n">
-        <v>0.30082</v>
+        <v>0.297404</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.31757</v>
+        <v>0.311787</v>
       </c>
       <c r="C51" t="n">
-        <v>0.294253</v>
+        <v>0.289194</v>
       </c>
       <c r="D51" t="n">
-        <v>0.293736</v>
+        <v>0.288078</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.317565</v>
+        <v>0.318045</v>
       </c>
       <c r="C52" t="n">
-        <v>0.30079</v>
+        <v>0.296029</v>
       </c>
       <c r="D52" t="n">
-        <v>0.293785</v>
+        <v>0.288946</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.332683</v>
+        <v>0.325588</v>
       </c>
       <c r="C53" t="n">
-        <v>0.287485</v>
+        <v>0.283336</v>
       </c>
       <c r="D53" t="n">
-        <v>0.293053</v>
+        <v>0.28796</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.332233</v>
+        <v>0.330911</v>
       </c>
       <c r="C54" t="n">
-        <v>0.288109</v>
+        <v>0.284183</v>
       </c>
       <c r="D54" t="n">
-        <v>0.293352</v>
+        <v>0.288044</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.330649</v>
+        <v>0.331548</v>
       </c>
       <c r="C55" t="n">
-        <v>0.288628</v>
+        <v>0.286044</v>
       </c>
       <c r="D55" t="n">
-        <v>0.293886</v>
+        <v>0.29136</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.333256</v>
+        <v>0.332003</v>
       </c>
       <c r="C56" t="n">
-        <v>0.289398</v>
+        <v>0.285957</v>
       </c>
       <c r="D56" t="n">
-        <v>0.294435</v>
+        <v>0.290279</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.332349</v>
+        <v>0.332545</v>
       </c>
       <c r="C57" t="n">
-        <v>0.291308</v>
+        <v>0.286981</v>
       </c>
       <c r="D57" t="n">
-        <v>0.296582</v>
+        <v>0.291601</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.332845</v>
+        <v>0.332698</v>
       </c>
       <c r="C58" t="n">
-        <v>0.291537</v>
+        <v>0.288966</v>
       </c>
       <c r="D58" t="n">
-        <v>0.296529</v>
+        <v>0.294407</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.332983</v>
+        <v>0.332803</v>
       </c>
       <c r="C59" t="n">
-        <v>0.292864</v>
+        <v>0.289332</v>
       </c>
       <c r="D59" t="n">
-        <v>0.297934</v>
+        <v>0.293124</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.333372</v>
+        <v>0.332188</v>
       </c>
       <c r="C60" t="n">
-        <v>0.294125</v>
+        <v>0.291568</v>
       </c>
       <c r="D60" t="n">
-        <v>0.299236</v>
+        <v>0.295111</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.333065</v>
+        <v>0.333558</v>
       </c>
       <c r="C61" t="n">
-        <v>0.296302</v>
+        <v>0.292128</v>
       </c>
       <c r="D61" t="n">
-        <v>0.301683</v>
+        <v>0.295892</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.333912</v>
+        <v>0.334183</v>
       </c>
       <c r="C62" t="n">
-        <v>0.297595</v>
+        <v>0.294782</v>
       </c>
       <c r="D62" t="n">
-        <v>0.303406</v>
+        <v>0.299571</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.334001</v>
+        <v>0.337229</v>
       </c>
       <c r="C63" t="n">
-        <v>0.300471</v>
+        <v>0.296961</v>
       </c>
       <c r="D63" t="n">
-        <v>0.306908</v>
+        <v>0.30253</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.336565</v>
+        <v>0.337823</v>
       </c>
       <c r="C64" t="n">
-        <v>0.304463</v>
+        <v>0.301193</v>
       </c>
       <c r="D64" t="n">
-        <v>0.31241</v>
+        <v>0.30859</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.339778</v>
+        <v>0.340446</v>
       </c>
       <c r="C65" t="n">
-        <v>0.30919</v>
+        <v>0.305146</v>
       </c>
       <c r="D65" t="n">
-        <v>0.319239</v>
+        <v>0.316836</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.344302</v>
+        <v>0.342733</v>
       </c>
       <c r="C66" t="n">
-        <v>0.316074</v>
+        <v>0.311924</v>
       </c>
       <c r="D66" t="n">
-        <v>0.300846</v>
+        <v>0.29664</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.349993</v>
+        <v>0.350341</v>
       </c>
       <c r="C67" t="n">
-        <v>0.297615</v>
+        <v>0.294903</v>
       </c>
       <c r="D67" t="n">
-        <v>0.300137</v>
+        <v>0.296357</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.349972</v>
+        <v>0.349461</v>
       </c>
       <c r="C68" t="n">
-        <v>0.298606</v>
+        <v>0.295158</v>
       </c>
       <c r="D68" t="n">
-        <v>0.300012</v>
+        <v>0.296526</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.350184</v>
+        <v>0.350711</v>
       </c>
       <c r="C69" t="n">
-        <v>0.299939</v>
+        <v>0.296677</v>
       </c>
       <c r="D69" t="n">
-        <v>0.301642</v>
+        <v>0.297057</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.350266</v>
+        <v>0.350254</v>
       </c>
       <c r="C70" t="n">
-        <v>0.30069</v>
+        <v>0.297717</v>
       </c>
       <c r="D70" t="n">
-        <v>0.301733</v>
+        <v>0.297321</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.350728</v>
+        <v>0.35056</v>
       </c>
       <c r="C71" t="n">
-        <v>0.301542</v>
+        <v>0.297581</v>
       </c>
       <c r="D71" t="n">
-        <v>0.303064</v>
+        <v>0.298416</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.350751</v>
+        <v>0.350896</v>
       </c>
       <c r="C72" t="n">
-        <v>0.302094</v>
+        <v>0.299079</v>
       </c>
       <c r="D72" t="n">
-        <v>0.30307</v>
+        <v>0.299825</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.351579</v>
+        <v>0.351514</v>
       </c>
       <c r="C73" t="n">
-        <v>0.303906</v>
+        <v>0.301456</v>
       </c>
       <c r="D73" t="n">
-        <v>0.304472</v>
+        <v>0.300611</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.351916</v>
+        <v>0.351804</v>
       </c>
       <c r="C74" t="n">
-        <v>0.304258</v>
+        <v>0.302354</v>
       </c>
       <c r="D74" t="n">
-        <v>0.30612</v>
+        <v>0.30164</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.352424</v>
+        <v>0.352687</v>
       </c>
       <c r="C75" t="n">
-        <v>0.307531</v>
+        <v>0.303061</v>
       </c>
       <c r="D75" t="n">
-        <v>0.308094</v>
+        <v>0.303864</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.353444</v>
+        <v>0.352672</v>
       </c>
       <c r="C76" t="n">
-        <v>0.308634</v>
+        <v>0.304534</v>
       </c>
       <c r="D76" t="n">
-        <v>0.310468</v>
+        <v>0.306405</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.354224</v>
+        <v>0.354198</v>
       </c>
       <c r="C77" t="n">
-        <v>0.308955</v>
+        <v>0.308618</v>
       </c>
       <c r="D77" t="n">
-        <v>0.313432</v>
+        <v>0.310768</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.355541</v>
+        <v>0.35605</v>
       </c>
       <c r="C78" t="n">
-        <v>0.314499</v>
+        <v>0.309084</v>
       </c>
       <c r="D78" t="n">
-        <v>0.31834</v>
+        <v>0.314555</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.358437</v>
+        <v>0.35868</v>
       </c>
       <c r="C79" t="n">
-        <v>0.316948</v>
+        <v>0.314952</v>
       </c>
       <c r="D79" t="n">
-        <v>0.324941</v>
+        <v>0.322347</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.362231</v>
+        <v>0.362326</v>
       </c>
       <c r="C80" t="n">
-        <v>0.325407</v>
+        <v>0.319175</v>
       </c>
       <c r="D80" t="n">
-        <v>0.314627</v>
+        <v>0.304776</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.376817</v>
+        <v>0.373112</v>
       </c>
       <c r="C81" t="n">
-        <v>0.307902</v>
+        <v>0.298785</v>
       </c>
       <c r="D81" t="n">
-        <v>0.316985</v>
+        <v>0.309516</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.37383</v>
+        <v>0.370845</v>
       </c>
       <c r="C82" t="n">
-        <v>0.30609</v>
+        <v>0.297309</v>
       </c>
       <c r="D82" t="n">
-        <v>0.316287</v>
+        <v>0.308395</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.377581</v>
+        <v>0.376536</v>
       </c>
       <c r="C83" t="n">
-        <v>0.308458</v>
+        <v>0.298297</v>
       </c>
       <c r="D83" t="n">
-        <v>0.319918</v>
+        <v>0.309673</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.374497</v>
+        <v>0.371585</v>
       </c>
       <c r="C84" t="n">
-        <v>0.304458</v>
+        <v>0.29828</v>
       </c>
       <c r="D84" t="n">
-        <v>0.31436</v>
+        <v>0.309885</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.375026</v>
+        <v>0.373458</v>
       </c>
       <c r="C85" t="n">
-        <v>0.303767</v>
+        <v>0.299136</v>
       </c>
       <c r="D85" t="n">
-        <v>0.315579</v>
+        <v>0.310568</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.373656</v>
+        <v>0.371357</v>
       </c>
       <c r="C86" t="n">
-        <v>0.306338</v>
+        <v>0.301213</v>
       </c>
       <c r="D86" t="n">
-        <v>0.315818</v>
+        <v>0.311946</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.376799</v>
+        <v>0.373402</v>
       </c>
       <c r="C87" t="n">
-        <v>0.307607</v>
+        <v>0.301964</v>
       </c>
       <c r="D87" t="n">
-        <v>0.31798</v>
+        <v>0.312654</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.37258</v>
+        <v>0.371802</v>
       </c>
       <c r="C88" t="n">
-        <v>0.308546</v>
+        <v>0.303403</v>
       </c>
       <c r="D88" t="n">
-        <v>0.318119</v>
+        <v>0.315475</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.374547</v>
+        <v>0.37514</v>
       </c>
       <c r="C89" t="n">
-        <v>0.308284</v>
+        <v>0.305012</v>
       </c>
       <c r="D89" t="n">
-        <v>0.320954</v>
+        <v>0.315763</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.378638</v>
+        <v>0.375525</v>
       </c>
       <c r="C90" t="n">
-        <v>0.31236</v>
+        <v>0.307486</v>
       </c>
       <c r="D90" t="n">
-        <v>0.325363</v>
+        <v>0.321122</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.375536</v>
+        <v>0.376526</v>
       </c>
       <c r="C91" t="n">
-        <v>0.31139</v>
+        <v>0.309082</v>
       </c>
       <c r="D91" t="n">
-        <v>0.325069</v>
+        <v>0.321619</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.376344</v>
+        <v>0.379973</v>
       </c>
       <c r="C92" t="n">
-        <v>0.314746</v>
+        <v>0.312911</v>
       </c>
       <c r="D92" t="n">
-        <v>0.329474</v>
+        <v>0.327714</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.378115</v>
+        <v>0.380649</v>
       </c>
       <c r="C93" t="n">
-        <v>0.318428</v>
+        <v>0.317063</v>
       </c>
       <c r="D93" t="n">
-        <v>0.334909</v>
+        <v>0.332858</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.382601</v>
+        <v>0.386326</v>
       </c>
       <c r="C94" t="n">
-        <v>0.325618</v>
+        <v>0.323161</v>
       </c>
       <c r="D94" t="n">
-        <v>0.47412</v>
+        <v>0.456369</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.562219</v>
+        <v>0.5553129999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.480308</v>
+        <v>0.472996</v>
       </c>
       <c r="D95" t="n">
-        <v>0.463375</v>
+        <v>0.46052</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.561921</v>
+        <v>0.552994</v>
       </c>
       <c r="C96" t="n">
-        <v>0.473328</v>
+        <v>0.478904</v>
       </c>
       <c r="D96" t="n">
-        <v>0.462695</v>
+        <v>0.465454</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.553967</v>
+        <v>0.5595869999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.479218</v>
+        <v>0.473858</v>
       </c>
       <c r="D97" t="n">
-        <v>0.468112</v>
+        <v>0.462035</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5595869999999999</v>
+        <v>0.554854</v>
       </c>
       <c r="C98" t="n">
-        <v>0.47368</v>
+        <v>0.477056</v>
       </c>
       <c r="D98" t="n">
-        <v>0.460434</v>
+        <v>0.463103</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.555803</v>
+        <v>0.559737</v>
       </c>
       <c r="C99" t="n">
-        <v>0.482359</v>
+        <v>0.473661</v>
       </c>
       <c r="D99" t="n">
-        <v>0.468995</v>
+        <v>0.460734</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.560898</v>
+        <v>0.556661</v>
       </c>
       <c r="C100" t="n">
-        <v>0.476035</v>
+        <v>0.474384</v>
       </c>
       <c r="D100" t="n">
-        <v>0.461554</v>
+        <v>0.465759</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.556356</v>
+        <v>0.555229</v>
       </c>
       <c r="C101" t="n">
-        <v>0.485686</v>
+        <v>0.474785</v>
       </c>
       <c r="D101" t="n">
-        <v>0.471317</v>
+        <v>0.458551</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.562623</v>
+        <v>0.55916</v>
       </c>
       <c r="C102" t="n">
-        <v>0.477575</v>
+        <v>0.476916</v>
       </c>
       <c r="D102" t="n">
-        <v>0.465543</v>
+        <v>0.463977</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.553678</v>
+        <v>0.557355</v>
       </c>
       <c r="C103" t="n">
-        <v>0.487092</v>
+        <v>0.475467</v>
       </c>
       <c r="D103" t="n">
-        <v>0.47442</v>
+        <v>0.46548</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.562682</v>
+        <v>0.557544</v>
       </c>
       <c r="C104" t="n">
-        <v>0.483561</v>
+        <v>0.482093</v>
       </c>
       <c r="D104" t="n">
-        <v>0.471104</v>
+        <v>0.470287</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.55886</v>
+        <v>0.558351</v>
       </c>
       <c r="C105" t="n">
-        <v>0.490339</v>
+        <v>0.479054</v>
       </c>
       <c r="D105" t="n">
-        <v>0.479701</v>
+        <v>0.468456</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5676639999999999</v>
+        <v>0.555019</v>
       </c>
       <c r="C106" t="n">
-        <v>0.488325</v>
+        <v>0.487721</v>
       </c>
       <c r="D106" t="n">
-        <v>0.478148</v>
+        <v>0.481618</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.558853</v>
+        <v>0.562897</v>
       </c>
       <c r="C107" t="n">
-        <v>0.49954</v>
+        <v>0.485447</v>
       </c>
       <c r="D107" t="n">
-        <v>0.485128</v>
+        <v>0.480015</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.568179</v>
+        <v>0.555217</v>
       </c>
       <c r="C108" t="n">
-        <v>0.496994</v>
+        <v>0.493054</v>
       </c>
       <c r="D108" t="n">
-        <v>0.7262729999999999</v>
+        <v>0.724426</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.56626</v>
+        <v>0.564573</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5043</v>
+        <v>0.50031</v>
       </c>
       <c r="D109" t="n">
-        <v>0.729168</v>
+        <v>0.725865</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.852109</v>
+        <v>0.851675</v>
       </c>
       <c r="C110" t="n">
-        <v>0.727696</v>
+        <v>0.724442</v>
       </c>
       <c r="D110" t="n">
-        <v>0.730365</v>
+        <v>0.72699</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.851996</v>
+        <v>0.851953</v>
       </c>
       <c r="C111" t="n">
-        <v>0.729029</v>
+        <v>0.723298</v>
       </c>
       <c r="D111" t="n">
-        <v>0.731924</v>
+        <v>0.728122</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.852975</v>
+        <v>0.851038</v>
       </c>
       <c r="C112" t="n">
-        <v>0.730891</v>
+        <v>0.72537</v>
       </c>
       <c r="D112" t="n">
-        <v>0.731344</v>
+        <v>0.728587</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.853115</v>
+        <v>0.850763</v>
       </c>
       <c r="C113" t="n">
-        <v>0.72987</v>
+        <v>0.72595</v>
       </c>
       <c r="D113" t="n">
-        <v>0.732137</v>
+        <v>0.729363</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.849654</v>
+        <v>0.850399</v>
       </c>
       <c r="C114" t="n">
-        <v>0.730909</v>
+        <v>0.726841</v>
       </c>
       <c r="D114" t="n">
-        <v>0.732786</v>
+        <v>0.731738</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.855567</v>
+        <v>0.8504389999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>0.7336240000000001</v>
+        <v>0.729808</v>
       </c>
       <c r="D115" t="n">
-        <v>0.734053</v>
+        <v>0.732612</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.852478</v>
+        <v>0.852009</v>
       </c>
       <c r="C116" t="n">
-        <v>0.733652</v>
+        <v>0.7300720000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.736611</v>
+        <v>0.734809</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.850488</v>
+        <v>0.851177</v>
       </c>
       <c r="C117" t="n">
-        <v>0.735596</v>
+        <v>0.7313460000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.739125</v>
+        <v>0.7358789999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.853487</v>
+        <v>0.851391</v>
       </c>
       <c r="C118" t="n">
-        <v>0.738349</v>
+        <v>0.734216</v>
       </c>
       <c r="D118" t="n">
-        <v>0.7418709999999999</v>
+        <v>0.739053</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.852173</v>
+        <v>0.852665</v>
       </c>
       <c r="C119" t="n">
-        <v>0.740495</v>
+        <v>0.73709</v>
       </c>
       <c r="D119" t="n">
-        <v>0.744472</v>
+        <v>0.742743</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.851248</v>
+        <v>0.850886</v>
       </c>
       <c r="C120" t="n">
-        <v>0.745707</v>
+        <v>0.740878</v>
       </c>
       <c r="D120" t="n">
-        <v>0.748571</v>
+        <v>0.747544</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.849064</v>
+        <v>0.851335</v>
       </c>
       <c r="C121" t="n">
-        <v>0.7517</v>
+        <v>0.745575</v>
       </c>
       <c r="D121" t="n">
-        <v>0.754188</v>
+        <v>0.752926</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.851956</v>
+        <v>0.8564000000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>0.7558240000000001</v>
+        <v>0.751643</v>
       </c>
       <c r="D122" t="n">
-        <v>0.76291</v>
+        <v>0.761174</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.8582</v>
+        <v>0.853451</v>
       </c>
       <c r="C123" t="n">
-        <v>0.765436</v>
+        <v>0.7610789999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>0.836615</v>
+        <v>0.832481</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.11224</v>
+        <v>1.10722</v>
       </c>
       <c r="C124" t="n">
-        <v>0.827676</v>
+        <v>0.824356</v>
       </c>
       <c r="D124" t="n">
-        <v>0.839079</v>
+        <v>0.834971</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.10811</v>
+        <v>1.10889</v>
       </c>
       <c r="C125" t="n">
-        <v>0.828394</v>
+        <v>0.824386</v>
       </c>
       <c r="D125" t="n">
-        <v>0.840268</v>
+        <v>0.834987</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.1116</v>
+        <v>1.10601</v>
       </c>
       <c r="C126" t="n">
-        <v>0.829577</v>
+        <v>0.825535</v>
       </c>
       <c r="D126" t="n">
-        <v>0.841202</v>
+        <v>0.836773</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.10733</v>
+        <v>1.10737</v>
       </c>
       <c r="C127" t="n">
-        <v>0.830837</v>
+        <v>0.8273160000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>0.842912</v>
+        <v>0.838429</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.10859</v>
+        <v>1.10691</v>
       </c>
       <c r="C128" t="n">
-        <v>0.832056</v>
+        <v>0.828364</v>
       </c>
       <c r="D128" t="n">
-        <v>0.843028</v>
+        <v>0.839699</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.11096</v>
+        <v>1.10629</v>
       </c>
       <c r="C129" t="n">
-        <v>0.834562</v>
+        <v>0.829976</v>
       </c>
       <c r="D129" t="n">
-        <v>0.846127</v>
+        <v>0.84122</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.10885</v>
+        <v>1.10427</v>
       </c>
       <c r="C130" t="n">
-        <v>0.835738</v>
+        <v>0.832384</v>
       </c>
       <c r="D130" t="n">
-        <v>0.847603</v>
+        <v>0.844767</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.10985</v>
+        <v>1.10728</v>
       </c>
       <c r="C131" t="n">
-        <v>0.83935</v>
+        <v>0.835382</v>
       </c>
       <c r="D131" t="n">
-        <v>0.850607</v>
+        <v>0.847328</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.10891</v>
+        <v>1.10722</v>
       </c>
       <c r="C132" t="n">
-        <v>0.842162</v>
+        <v>0.8395280000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.854687</v>
+        <v>0.851282</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.11102</v>
+        <v>1.10795</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8468</v>
+        <v>0.842762</v>
       </c>
       <c r="D133" t="n">
-        <v>0.8582610000000001</v>
+        <v>0.856047</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.10768</v>
+        <v>1.11229</v>
       </c>
       <c r="C134" t="n">
-        <v>0.851637</v>
+        <v>0.846675</v>
       </c>
       <c r="D134" t="n">
-        <v>0.864503</v>
+        <v>0.8616279999999999</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.11173</v>
+        <v>1.11031</v>
       </c>
       <c r="C135" t="n">
-        <v>0.856623</v>
+        <v>0.8531840000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>0.871996</v>
+        <v>0.870471</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.11284</v>
+        <v>1.11415</v>
       </c>
       <c r="C136" t="n">
-        <v>0.864606</v>
+        <v>0.861675</v>
       </c>
       <c r="D136" t="n">
-        <v>0.883561</v>
+        <v>0.883436</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.11393</v>
+        <v>1.11377</v>
       </c>
       <c r="C137" t="n">
-        <v>0.876015</v>
+        <v>0.872631</v>
       </c>
       <c r="D137" t="n">
-        <v>0.886773</v>
+        <v>0.878256</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.33206</v>
+        <v>1.33118</v>
       </c>
       <c r="C138" t="n">
-        <v>0.870097</v>
+        <v>0.865175</v>
       </c>
       <c r="D138" t="n">
-        <v>0.8872370000000001</v>
+        <v>0.879395</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.33081</v>
+        <v>1.33262</v>
       </c>
       <c r="C139" t="n">
-        <v>0.871179</v>
+        <v>0.866799</v>
       </c>
       <c r="D139" t="n">
-        <v>0.889576</v>
+        <v>0.881504</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.33183</v>
+        <v>1.33162</v>
       </c>
       <c r="C140" t="n">
-        <v>0.872719</v>
+        <v>0.868</v>
       </c>
       <c r="D140" t="n">
-        <v>0.88953</v>
+        <v>0.8824379999999999</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.33076</v>
+        <v>1.33107</v>
       </c>
       <c r="C141" t="n">
-        <v>0.874704</v>
+        <v>0.869456</v>
       </c>
       <c r="D141" t="n">
-        <v>0.893428</v>
+        <v>0.8847739999999999</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.33318</v>
+        <v>1.33195</v>
       </c>
       <c r="C142" t="n">
-        <v>0.876587</v>
+        <v>0.8713649999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>0.89644</v>
+        <v>0.886944</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.33074</v>
+        <v>1.33182</v>
       </c>
       <c r="C143" t="n">
-        <v>0.878606</v>
+        <v>0.874275</v>
       </c>
       <c r="D143" t="n">
-        <v>0.897479</v>
+        <v>0.889346</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.242788</v>
+        <v>0.242752</v>
       </c>
       <c r="C2" t="n">
-        <v>0.238449</v>
+        <v>0.237587</v>
       </c>
       <c r="D2" t="n">
-        <v>0.244661</v>
+        <v>0.244062</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.242238</v>
+        <v>0.241493</v>
       </c>
       <c r="C3" t="n">
-        <v>0.237554</v>
+        <v>0.236823</v>
       </c>
       <c r="D3" t="n">
-        <v>0.244292</v>
+        <v>0.243219</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.244544</v>
+        <v>0.243896</v>
       </c>
       <c r="C4" t="n">
-        <v>0.240543</v>
+        <v>0.239807</v>
       </c>
       <c r="D4" t="n">
-        <v>0.247557</v>
+        <v>0.247069</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.246747</v>
+        <v>0.245849</v>
       </c>
       <c r="C5" t="n">
-        <v>0.243739</v>
+        <v>0.243023</v>
       </c>
       <c r="D5" t="n">
-        <v>0.251361</v>
+        <v>0.250429</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.245711</v>
+        <v>0.245019</v>
       </c>
       <c r="C6" t="n">
-        <v>0.24481</v>
+        <v>0.24411</v>
       </c>
       <c r="D6" t="n">
-        <v>0.253952</v>
+        <v>0.25331</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.248593</v>
+        <v>0.248154</v>
       </c>
       <c r="C7" t="n">
-        <v>0.248381</v>
+        <v>0.247676</v>
       </c>
       <c r="D7" t="n">
-        <v>0.260345</v>
+        <v>0.259499</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.251912</v>
+        <v>0.251447</v>
       </c>
       <c r="C8" t="n">
-        <v>0.253396</v>
+        <v>0.252545</v>
       </c>
       <c r="D8" t="n">
-        <v>0.267984</v>
+        <v>0.267369</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.259041</v>
+        <v>0.258919</v>
       </c>
       <c r="C9" t="n">
-        <v>0.260816</v>
+        <v>0.260933</v>
       </c>
       <c r="D9" t="n">
-        <v>0.243872</v>
+        <v>0.244274</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.250609</v>
+        <v>0.249937</v>
       </c>
       <c r="C10" t="n">
-        <v>0.240773</v>
+        <v>0.240574</v>
       </c>
       <c r="D10" t="n">
-        <v>0.243979</v>
+        <v>0.243527</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.251183</v>
+        <v>0.249956</v>
       </c>
       <c r="C11" t="n">
-        <v>0.241412</v>
+        <v>0.239968</v>
       </c>
       <c r="D11" t="n">
-        <v>0.244295</v>
+        <v>0.243293</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.252465</v>
+        <v>0.25416</v>
       </c>
       <c r="C12" t="n">
-        <v>0.243876</v>
+        <v>0.242333</v>
       </c>
       <c r="D12" t="n">
-        <v>0.246819</v>
+        <v>0.24554</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.253208</v>
+        <v>0.250096</v>
       </c>
       <c r="C13" t="n">
-        <v>0.243558</v>
+        <v>0.242141</v>
       </c>
       <c r="D13" t="n">
-        <v>0.246516</v>
+        <v>0.245374</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.252917</v>
+        <v>0.250662</v>
       </c>
       <c r="C14" t="n">
-        <v>0.242375</v>
+        <v>0.243045</v>
       </c>
       <c r="D14" t="n">
-        <v>0.245783</v>
+        <v>0.245963</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.25341</v>
+        <v>0.252228</v>
       </c>
       <c r="C15" t="n">
-        <v>0.245411</v>
+        <v>0.244169</v>
       </c>
       <c r="D15" t="n">
-        <v>0.249289</v>
+        <v>0.247563</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.252503</v>
+        <v>0.251892</v>
       </c>
       <c r="C16" t="n">
-        <v>0.244814</v>
+        <v>0.244158</v>
       </c>
       <c r="D16" t="n">
-        <v>0.248405</v>
+        <v>0.248033</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.254053</v>
+        <v>0.252276</v>
       </c>
       <c r="C17" t="n">
-        <v>0.245818</v>
+        <v>0.24565</v>
       </c>
       <c r="D17" t="n">
-        <v>0.249611</v>
+        <v>0.249385</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.25618</v>
+        <v>0.25233</v>
       </c>
       <c r="C18" t="n">
-        <v>0.24896</v>
+        <v>0.246185</v>
       </c>
       <c r="D18" t="n">
-        <v>0.252881</v>
+        <v>0.250651</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.256796</v>
+        <v>0.255014</v>
       </c>
       <c r="C19" t="n">
-        <v>0.249615</v>
+        <v>0.250414</v>
       </c>
       <c r="D19" t="n">
-        <v>0.253952</v>
+        <v>0.255274</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.254963</v>
+        <v>0.256204</v>
       </c>
       <c r="C20" t="n">
-        <v>0.249687</v>
+        <v>0.249898</v>
       </c>
       <c r="D20" t="n">
-        <v>0.256113</v>
+        <v>0.256245</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.261055</v>
+        <v>0.257393</v>
       </c>
       <c r="C21" t="n">
-        <v>0.256215</v>
+        <v>0.252207</v>
       </c>
       <c r="D21" t="n">
-        <v>0.263077</v>
+        <v>0.259992</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.26208</v>
+        <v>0.260303</v>
       </c>
       <c r="C22" t="n">
-        <v>0.258678</v>
+        <v>0.256405</v>
       </c>
       <c r="D22" t="n">
-        <v>0.267574</v>
+        <v>0.266529</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.265467</v>
+        <v>0.263728</v>
       </c>
       <c r="C23" t="n">
-        <v>0.262552</v>
+        <v>0.261017</v>
       </c>
       <c r="D23" t="n">
-        <v>0.253872</v>
+        <v>0.253991</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.271177</v>
+        <v>0.274461</v>
       </c>
       <c r="C24" t="n">
-        <v>0.244454</v>
+        <v>0.24747</v>
       </c>
       <c r="D24" t="n">
-        <v>0.253897</v>
+        <v>0.256941</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.270954</v>
+        <v>0.273199</v>
       </c>
       <c r="C25" t="n">
-        <v>0.243991</v>
+        <v>0.247402</v>
       </c>
       <c r="D25" t="n">
-        <v>0.253294</v>
+        <v>0.255829</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.271978</v>
+        <v>0.27319</v>
       </c>
       <c r="C26" t="n">
-        <v>0.245313</v>
+        <v>0.248055</v>
       </c>
       <c r="D26" t="n">
-        <v>0.253177</v>
+        <v>0.256607</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.273529</v>
+        <v>0.273018</v>
       </c>
       <c r="C27" t="n">
-        <v>0.246571</v>
+        <v>0.248077</v>
       </c>
       <c r="D27" t="n">
-        <v>0.253763</v>
+        <v>0.257286</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.274977</v>
+        <v>0.274076</v>
       </c>
       <c r="C28" t="n">
-        <v>0.248252</v>
+        <v>0.249511</v>
       </c>
       <c r="D28" t="n">
-        <v>0.255372</v>
+        <v>0.258932</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.273892</v>
+        <v>0.275035</v>
       </c>
       <c r="C29" t="n">
-        <v>0.249465</v>
+        <v>0.249775</v>
       </c>
       <c r="D29" t="n">
-        <v>0.256535</v>
+        <v>0.259034</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.274982</v>
+        <v>0.275605</v>
       </c>
       <c r="C30" t="n">
-        <v>0.251377</v>
+        <v>0.250892</v>
       </c>
       <c r="D30" t="n">
-        <v>0.258879</v>
+        <v>0.260223</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.275372</v>
+        <v>0.275477</v>
       </c>
       <c r="C31" t="n">
-        <v>0.25262</v>
+        <v>0.252226</v>
       </c>
       <c r="D31" t="n">
-        <v>0.26084</v>
+        <v>0.260768</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.274934</v>
+        <v>0.275791</v>
       </c>
       <c r="C32" t="n">
-        <v>0.253894</v>
+        <v>0.253801</v>
       </c>
       <c r="D32" t="n">
-        <v>0.26391</v>
+        <v>0.262794</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.276852</v>
+        <v>0.277326</v>
       </c>
       <c r="C33" t="n">
-        <v>0.255735</v>
+        <v>0.254975</v>
       </c>
       <c r="D33" t="n">
-        <v>0.265644</v>
+        <v>0.266778</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.278515</v>
+        <v>0.279125</v>
       </c>
       <c r="C34" t="n">
-        <v>0.258083</v>
+        <v>0.258538</v>
       </c>
       <c r="D34" t="n">
-        <v>0.268372</v>
+        <v>0.267884</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.27772</v>
+        <v>0.279808</v>
       </c>
       <c r="C35" t="n">
-        <v>0.260954</v>
+        <v>0.261095</v>
       </c>
       <c r="D35" t="n">
-        <v>0.272193</v>
+        <v>0.272783</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.281619</v>
+        <v>0.280629</v>
       </c>
       <c r="C36" t="n">
-        <v>0.263829</v>
+        <v>0.264723</v>
       </c>
       <c r="D36" t="n">
-        <v>0.278042</v>
+        <v>0.27915</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.286452</v>
+        <v>0.285769</v>
       </c>
       <c r="C37" t="n">
-        <v>0.269223</v>
+        <v>0.270254</v>
       </c>
       <c r="D37" t="n">
-        <v>0.273231</v>
+        <v>0.273621</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.302166</v>
+        <v>0.303578</v>
       </c>
       <c r="C38" t="n">
-        <v>0.266226</v>
+        <v>0.266721</v>
       </c>
       <c r="D38" t="n">
-        <v>0.275024</v>
+        <v>0.274653</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.301996</v>
+        <v>0.302352</v>
       </c>
       <c r="C39" t="n">
-        <v>0.267913</v>
+        <v>0.268968</v>
       </c>
       <c r="D39" t="n">
-        <v>0.276052</v>
+        <v>0.276734</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.302002</v>
+        <v>0.302746</v>
       </c>
       <c r="C40" t="n">
-        <v>0.267995</v>
+        <v>0.268271</v>
       </c>
       <c r="D40" t="n">
-        <v>0.276701</v>
+        <v>0.276008</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.303038</v>
+        <v>0.305299</v>
       </c>
       <c r="C41" t="n">
-        <v>0.269732</v>
+        <v>0.269003</v>
       </c>
       <c r="D41" t="n">
-        <v>0.276901</v>
+        <v>0.27773</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.30325</v>
+        <v>0.303898</v>
       </c>
       <c r="C42" t="n">
-        <v>0.270562</v>
+        <v>0.271516</v>
       </c>
       <c r="D42" t="n">
-        <v>0.27798</v>
+        <v>0.278954</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.304725</v>
+        <v>0.305483</v>
       </c>
       <c r="C43" t="n">
-        <v>0.270807</v>
+        <v>0.270821</v>
       </c>
       <c r="D43" t="n">
-        <v>0.278718</v>
+        <v>0.278822</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.30318</v>
+        <v>0.305983</v>
       </c>
       <c r="C44" t="n">
-        <v>0.273587</v>
+        <v>0.272437</v>
       </c>
       <c r="D44" t="n">
-        <v>0.280892</v>
+        <v>0.279777</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.304568</v>
+        <v>0.306535</v>
       </c>
       <c r="C45" t="n">
-        <v>0.27357</v>
+        <v>0.273568</v>
       </c>
       <c r="D45" t="n">
-        <v>0.28151</v>
+        <v>0.28113</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.306928</v>
+        <v>0.304252</v>
       </c>
       <c r="C46" t="n">
-        <v>0.275345</v>
+        <v>0.275085</v>
       </c>
       <c r="D46" t="n">
-        <v>0.282919</v>
+        <v>0.282903</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.306389</v>
+        <v>0.306082</v>
       </c>
       <c r="C47" t="n">
-        <v>0.277356</v>
+        <v>0.276387</v>
       </c>
       <c r="D47" t="n">
-        <v>0.285923</v>
+        <v>0.284554</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.305688</v>
+        <v>0.307987</v>
       </c>
       <c r="C48" t="n">
-        <v>0.279027</v>
+        <v>0.279008</v>
       </c>
       <c r="D48" t="n">
-        <v>0.288487</v>
+        <v>0.287418</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.3072</v>
+        <v>0.306612</v>
       </c>
       <c r="C49" t="n">
-        <v>0.281563</v>
+        <v>0.281496</v>
       </c>
       <c r="D49" t="n">
-        <v>0.291865</v>
+        <v>0.290471</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.30942</v>
+        <v>0.310642</v>
       </c>
       <c r="C50" t="n">
-        <v>0.285343</v>
+        <v>0.285067</v>
       </c>
       <c r="D50" t="n">
-        <v>0.297404</v>
+        <v>0.297113</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.311787</v>
+        <v>0.314656</v>
       </c>
       <c r="C51" t="n">
-        <v>0.289194</v>
+        <v>0.290352</v>
       </c>
       <c r="D51" t="n">
-        <v>0.288078</v>
+        <v>0.28817</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.318045</v>
+        <v>0.316941</v>
       </c>
       <c r="C52" t="n">
-        <v>0.296029</v>
+        <v>0.296685</v>
       </c>
       <c r="D52" t="n">
-        <v>0.288946</v>
+        <v>0.289158</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.325588</v>
+        <v>0.329523</v>
       </c>
       <c r="C53" t="n">
-        <v>0.283336</v>
+        <v>0.283544</v>
       </c>
       <c r="D53" t="n">
-        <v>0.28796</v>
+        <v>0.289422</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.330911</v>
+        <v>0.331716</v>
       </c>
       <c r="C54" t="n">
-        <v>0.284183</v>
+        <v>0.284291</v>
       </c>
       <c r="D54" t="n">
-        <v>0.288044</v>
+        <v>0.288336</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.331548</v>
+        <v>0.332775</v>
       </c>
       <c r="C55" t="n">
-        <v>0.286044</v>
+        <v>0.285023</v>
       </c>
       <c r="D55" t="n">
-        <v>0.29136</v>
+        <v>0.290537</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.332003</v>
+        <v>0.333158</v>
       </c>
       <c r="C56" t="n">
-        <v>0.285957</v>
+        <v>0.286071</v>
       </c>
       <c r="D56" t="n">
-        <v>0.290279</v>
+        <v>0.290985</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.332545</v>
+        <v>0.332398</v>
       </c>
       <c r="C57" t="n">
-        <v>0.286981</v>
+        <v>0.286968</v>
       </c>
       <c r="D57" t="n">
-        <v>0.291601</v>
+        <v>0.290595</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.332698</v>
+        <v>0.330918</v>
       </c>
       <c r="C58" t="n">
-        <v>0.288966</v>
+        <v>0.288356</v>
       </c>
       <c r="D58" t="n">
-        <v>0.294407</v>
+        <v>0.292031</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.332803</v>
+        <v>0.332062</v>
       </c>
       <c r="C59" t="n">
-        <v>0.289332</v>
+        <v>0.289383</v>
       </c>
       <c r="D59" t="n">
-        <v>0.293124</v>
+        <v>0.293207</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.332188</v>
+        <v>0.332637</v>
       </c>
       <c r="C60" t="n">
-        <v>0.291568</v>
+        <v>0.290635</v>
       </c>
       <c r="D60" t="n">
-        <v>0.295111</v>
+        <v>0.294446</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.333558</v>
+        <v>0.334854</v>
       </c>
       <c r="C61" t="n">
-        <v>0.292128</v>
+        <v>0.293163</v>
       </c>
       <c r="D61" t="n">
-        <v>0.295892</v>
+        <v>0.297338</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.334183</v>
+        <v>0.335083</v>
       </c>
       <c r="C62" t="n">
-        <v>0.294782</v>
+        <v>0.294808</v>
       </c>
       <c r="D62" t="n">
-        <v>0.299571</v>
+        <v>0.299883</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.337229</v>
+        <v>0.334729</v>
       </c>
       <c r="C63" t="n">
-        <v>0.296961</v>
+        <v>0.297349</v>
       </c>
       <c r="D63" t="n">
-        <v>0.30253</v>
+        <v>0.303415</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.337823</v>
+        <v>0.337075</v>
       </c>
       <c r="C64" t="n">
-        <v>0.301193</v>
+        <v>0.300674</v>
       </c>
       <c r="D64" t="n">
-        <v>0.30859</v>
+        <v>0.308674</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.340446</v>
+        <v>0.340072</v>
       </c>
       <c r="C65" t="n">
-        <v>0.305146</v>
+        <v>0.305222</v>
       </c>
       <c r="D65" t="n">
-        <v>0.316836</v>
+        <v>0.315259</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.342733</v>
+        <v>0.344235</v>
       </c>
       <c r="C66" t="n">
-        <v>0.311924</v>
+        <v>0.312065</v>
       </c>
       <c r="D66" t="n">
-        <v>0.29664</v>
+        <v>0.296978</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.350341</v>
+        <v>0.3497</v>
       </c>
       <c r="C67" t="n">
-        <v>0.294903</v>
+        <v>0.294653</v>
       </c>
       <c r="D67" t="n">
-        <v>0.296357</v>
+        <v>0.295539</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.349461</v>
+        <v>0.350821</v>
       </c>
       <c r="C68" t="n">
-        <v>0.295158</v>
+        <v>0.295502</v>
       </c>
       <c r="D68" t="n">
-        <v>0.296526</v>
+        <v>0.295995</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.350711</v>
+        <v>0.350852</v>
       </c>
       <c r="C69" t="n">
-        <v>0.296677</v>
+        <v>0.296409</v>
       </c>
       <c r="D69" t="n">
-        <v>0.297057</v>
+        <v>0.297216</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.350254</v>
+        <v>0.35098</v>
       </c>
       <c r="C70" t="n">
-        <v>0.297717</v>
+        <v>0.297727</v>
       </c>
       <c r="D70" t="n">
-        <v>0.297321</v>
+        <v>0.298139</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.35056</v>
+        <v>0.350561</v>
       </c>
       <c r="C71" t="n">
-        <v>0.297581</v>
+        <v>0.298469</v>
       </c>
       <c r="D71" t="n">
-        <v>0.298416</v>
+        <v>0.297893</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.350896</v>
+        <v>0.351269</v>
       </c>
       <c r="C72" t="n">
-        <v>0.299079</v>
+        <v>0.299049</v>
       </c>
       <c r="D72" t="n">
-        <v>0.299825</v>
+        <v>0.299276</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.351514</v>
+        <v>0.351036</v>
       </c>
       <c r="C73" t="n">
-        <v>0.301456</v>
+        <v>0.301117</v>
       </c>
       <c r="D73" t="n">
-        <v>0.300611</v>
+        <v>0.300272</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.351804</v>
+        <v>0.351787</v>
       </c>
       <c r="C74" t="n">
-        <v>0.302354</v>
+        <v>0.303061</v>
       </c>
       <c r="D74" t="n">
-        <v>0.30164</v>
+        <v>0.302919</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.352687</v>
+        <v>0.352672</v>
       </c>
       <c r="C75" t="n">
-        <v>0.303061</v>
+        <v>0.303053</v>
       </c>
       <c r="D75" t="n">
-        <v>0.303864</v>
+        <v>0.303531</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.352672</v>
+        <v>0.352658</v>
       </c>
       <c r="C76" t="n">
-        <v>0.304534</v>
+        <v>0.304844</v>
       </c>
       <c r="D76" t="n">
-        <v>0.306405</v>
+        <v>0.306779</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.354198</v>
+        <v>0.353826</v>
       </c>
       <c r="C77" t="n">
-        <v>0.308618</v>
+        <v>0.307945</v>
       </c>
       <c r="D77" t="n">
-        <v>0.310768</v>
+        <v>0.310097</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.35605</v>
+        <v>0.355917</v>
       </c>
       <c r="C78" t="n">
-        <v>0.309084</v>
+        <v>0.309065</v>
       </c>
       <c r="D78" t="n">
-        <v>0.314555</v>
+        <v>0.314448</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.35868</v>
+        <v>0.357784</v>
       </c>
       <c r="C79" t="n">
-        <v>0.314952</v>
+        <v>0.315894</v>
       </c>
       <c r="D79" t="n">
-        <v>0.322347</v>
+        <v>0.322075</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.362326</v>
+        <v>0.362134</v>
       </c>
       <c r="C80" t="n">
-        <v>0.319175</v>
+        <v>0.321933</v>
       </c>
       <c r="D80" t="n">
-        <v>0.304776</v>
+        <v>0.305507</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.373112</v>
+        <v>0.372708</v>
       </c>
       <c r="C81" t="n">
-        <v>0.298785</v>
+        <v>0.298514</v>
       </c>
       <c r="D81" t="n">
-        <v>0.309516</v>
+        <v>0.309909</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.370845</v>
+        <v>0.374561</v>
       </c>
       <c r="C82" t="n">
-        <v>0.297309</v>
+        <v>0.299428</v>
       </c>
       <c r="D82" t="n">
-        <v>0.308395</v>
+        <v>0.311527</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.376536</v>
+        <v>0.370905</v>
       </c>
       <c r="C83" t="n">
-        <v>0.298297</v>
+        <v>0.301262</v>
       </c>
       <c r="D83" t="n">
-        <v>0.309673</v>
+        <v>0.313439</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.371585</v>
+        <v>0.371493</v>
       </c>
       <c r="C84" t="n">
-        <v>0.29828</v>
+        <v>0.299628</v>
       </c>
       <c r="D84" t="n">
-        <v>0.309885</v>
+        <v>0.309846</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.373458</v>
+        <v>0.372446</v>
       </c>
       <c r="C85" t="n">
-        <v>0.299136</v>
+        <v>0.30345</v>
       </c>
       <c r="D85" t="n">
-        <v>0.310568</v>
+        <v>0.31555</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.371357</v>
+        <v>0.372328</v>
       </c>
       <c r="C86" t="n">
-        <v>0.301213</v>
+        <v>0.303816</v>
       </c>
       <c r="D86" t="n">
-        <v>0.311946</v>
+        <v>0.312546</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.373402</v>
+        <v>0.373508</v>
       </c>
       <c r="C87" t="n">
-        <v>0.301964</v>
+        <v>0.303604</v>
       </c>
       <c r="D87" t="n">
-        <v>0.312654</v>
+        <v>0.314918</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.371802</v>
+        <v>0.373818</v>
       </c>
       <c r="C88" t="n">
-        <v>0.303403</v>
+        <v>0.304906</v>
       </c>
       <c r="D88" t="n">
-        <v>0.315475</v>
+        <v>0.315835</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.37514</v>
+        <v>0.378418</v>
       </c>
       <c r="C89" t="n">
-        <v>0.305012</v>
+        <v>0.308186</v>
       </c>
       <c r="D89" t="n">
-        <v>0.315763</v>
+        <v>0.317445</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.375525</v>
+        <v>0.376564</v>
       </c>
       <c r="C90" t="n">
-        <v>0.307486</v>
+        <v>0.306555</v>
       </c>
       <c r="D90" t="n">
-        <v>0.321122</v>
+        <v>0.318871</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.376526</v>
+        <v>0.382602</v>
       </c>
       <c r="C91" t="n">
-        <v>0.309082</v>
+        <v>0.311392</v>
       </c>
       <c r="D91" t="n">
-        <v>0.321619</v>
+        <v>0.322516</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.379973</v>
+        <v>0.377076</v>
       </c>
       <c r="C92" t="n">
-        <v>0.312911</v>
+        <v>0.315732</v>
       </c>
       <c r="D92" t="n">
-        <v>0.327714</v>
+        <v>0.328333</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.380649</v>
+        <v>0.387123</v>
       </c>
       <c r="C93" t="n">
-        <v>0.317063</v>
+        <v>0.319285</v>
       </c>
       <c r="D93" t="n">
-        <v>0.332858</v>
+        <v>0.335768</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.386326</v>
+        <v>0.385697</v>
       </c>
       <c r="C94" t="n">
-        <v>0.323161</v>
+        <v>0.328512</v>
       </c>
       <c r="D94" t="n">
-        <v>0.456369</v>
+        <v>0.4601</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5553129999999999</v>
+        <v>0.559411</v>
       </c>
       <c r="C95" t="n">
-        <v>0.472996</v>
+        <v>0.468809</v>
       </c>
       <c r="D95" t="n">
-        <v>0.46052</v>
+        <v>0.453844</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.552994</v>
+        <v>0.554258</v>
       </c>
       <c r="C96" t="n">
-        <v>0.478904</v>
+        <v>0.47228</v>
       </c>
       <c r="D96" t="n">
-        <v>0.465454</v>
+        <v>0.459364</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5595869999999999</v>
+        <v>0.564075</v>
       </c>
       <c r="C97" t="n">
-        <v>0.473858</v>
+        <v>0.470981</v>
       </c>
       <c r="D97" t="n">
-        <v>0.462035</v>
+        <v>0.456748</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.554854</v>
+        <v>0.555493</v>
       </c>
       <c r="C98" t="n">
-        <v>0.477056</v>
+        <v>0.476884</v>
       </c>
       <c r="D98" t="n">
-        <v>0.463103</v>
+        <v>0.462316</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.559737</v>
+        <v>0.555683</v>
       </c>
       <c r="C99" t="n">
-        <v>0.473661</v>
+        <v>0.471812</v>
       </c>
       <c r="D99" t="n">
-        <v>0.460734</v>
+        <v>0.460166</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.556661</v>
+        <v>0.554328</v>
       </c>
       <c r="C100" t="n">
-        <v>0.474384</v>
+        <v>0.476972</v>
       </c>
       <c r="D100" t="n">
-        <v>0.465759</v>
+        <v>0.463945</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.555229</v>
+        <v>0.558836</v>
       </c>
       <c r="C101" t="n">
-        <v>0.474785</v>
+        <v>0.467952</v>
       </c>
       <c r="D101" t="n">
-        <v>0.458551</v>
+        <v>0.457274</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.55916</v>
+        <v>0.5539770000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.476916</v>
+        <v>0.476816</v>
       </c>
       <c r="D102" t="n">
-        <v>0.463977</v>
+        <v>0.464503</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.557355</v>
+        <v>0.559542</v>
       </c>
       <c r="C103" t="n">
-        <v>0.475467</v>
+        <v>0.477742</v>
       </c>
       <c r="D103" t="n">
-        <v>0.46548</v>
+        <v>0.465399</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.557544</v>
+        <v>0.559284</v>
       </c>
       <c r="C104" t="n">
-        <v>0.482093</v>
+        <v>0.4811</v>
       </c>
       <c r="D104" t="n">
-        <v>0.470287</v>
+        <v>0.469188</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.558351</v>
+        <v>0.563734</v>
       </c>
       <c r="C105" t="n">
-        <v>0.479054</v>
+        <v>0.482108</v>
       </c>
       <c r="D105" t="n">
-        <v>0.468456</v>
+        <v>0.468157</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.555019</v>
+        <v>0.561164</v>
       </c>
       <c r="C106" t="n">
-        <v>0.487721</v>
+        <v>0.48996</v>
       </c>
       <c r="D106" t="n">
-        <v>0.481618</v>
+        <v>0.47694</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.562897</v>
+        <v>0.562182</v>
       </c>
       <c r="C107" t="n">
-        <v>0.485447</v>
+        <v>0.491093</v>
       </c>
       <c r="D107" t="n">
-        <v>0.480015</v>
+        <v>0.478625</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.555217</v>
+        <v>0.561926</v>
       </c>
       <c r="C108" t="n">
-        <v>0.493054</v>
+        <v>0.495022</v>
       </c>
       <c r="D108" t="n">
-        <v>0.724426</v>
+        <v>0.725778</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.564573</v>
+        <v>0.568935</v>
       </c>
       <c r="C109" t="n">
-        <v>0.50031</v>
+        <v>0.50209</v>
       </c>
       <c r="D109" t="n">
-        <v>0.725865</v>
+        <v>0.725703</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.851675</v>
+        <v>0.851557</v>
       </c>
       <c r="C110" t="n">
-        <v>0.724442</v>
+        <v>0.723736</v>
       </c>
       <c r="D110" t="n">
-        <v>0.72699</v>
+        <v>0.727777</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.851953</v>
+        <v>0.849641</v>
       </c>
       <c r="C111" t="n">
-        <v>0.723298</v>
+        <v>0.724481</v>
       </c>
       <c r="D111" t="n">
-        <v>0.728122</v>
+        <v>0.728595</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.851038</v>
+        <v>0.852815</v>
       </c>
       <c r="C112" t="n">
-        <v>0.72537</v>
+        <v>0.726568</v>
       </c>
       <c r="D112" t="n">
-        <v>0.728587</v>
+        <v>0.729344</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.850763</v>
+        <v>0.85081</v>
       </c>
       <c r="C113" t="n">
-        <v>0.72595</v>
+        <v>0.72625</v>
       </c>
       <c r="D113" t="n">
-        <v>0.729363</v>
+        <v>0.730069</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.850399</v>
+        <v>0.854382</v>
       </c>
       <c r="C114" t="n">
-        <v>0.726841</v>
+        <v>0.727337</v>
       </c>
       <c r="D114" t="n">
-        <v>0.731738</v>
+        <v>0.732972</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.8504389999999999</v>
+        <v>0.8534119999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>0.729808</v>
+        <v>0.728255</v>
       </c>
       <c r="D115" t="n">
-        <v>0.732612</v>
+        <v>0.732783</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.852009</v>
+        <v>0.852505</v>
       </c>
       <c r="C116" t="n">
-        <v>0.7300720000000001</v>
+        <v>0.730266</v>
       </c>
       <c r="D116" t="n">
-        <v>0.734809</v>
+        <v>0.735595</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.851177</v>
+        <v>0.8499409999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.7313460000000001</v>
+        <v>0.732456</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7358789999999999</v>
+        <v>0.737225</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.851391</v>
+        <v>0.851812</v>
       </c>
       <c r="C118" t="n">
-        <v>0.734216</v>
+        <v>0.734369</v>
       </c>
       <c r="D118" t="n">
-        <v>0.739053</v>
+        <v>0.740218</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.852665</v>
+        <v>0.851266</v>
       </c>
       <c r="C119" t="n">
-        <v>0.73709</v>
+        <v>0.737803</v>
       </c>
       <c r="D119" t="n">
-        <v>0.742743</v>
+        <v>0.743651</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.850886</v>
+        <v>0.851727</v>
       </c>
       <c r="C120" t="n">
-        <v>0.740878</v>
+        <v>0.742372</v>
       </c>
       <c r="D120" t="n">
-        <v>0.747544</v>
+        <v>0.748282</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.851335</v>
+        <v>0.850492</v>
       </c>
       <c r="C121" t="n">
-        <v>0.745575</v>
+        <v>0.746943</v>
       </c>
       <c r="D121" t="n">
-        <v>0.752926</v>
+        <v>0.753975</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.8564000000000001</v>
+        <v>0.852199</v>
       </c>
       <c r="C122" t="n">
-        <v>0.751643</v>
+        <v>0.752809</v>
       </c>
       <c r="D122" t="n">
-        <v>0.761174</v>
+        <v>0.761993</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.853451</v>
+        <v>0.854073</v>
       </c>
       <c r="C123" t="n">
-        <v>0.7610789999999999</v>
+        <v>0.76203</v>
       </c>
       <c r="D123" t="n">
-        <v>0.832481</v>
+        <v>0.8330610000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.10722</v>
+        <v>1.1083</v>
       </c>
       <c r="C124" t="n">
-        <v>0.824356</v>
+        <v>0.824089</v>
       </c>
       <c r="D124" t="n">
-        <v>0.834971</v>
+        <v>0.834109</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.10889</v>
+        <v>1.10895</v>
       </c>
       <c r="C125" t="n">
-        <v>0.824386</v>
+        <v>0.825314</v>
       </c>
       <c r="D125" t="n">
-        <v>0.834987</v>
+        <v>0.8353699999999999</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.10601</v>
+        <v>1.10551</v>
       </c>
       <c r="C126" t="n">
-        <v>0.825535</v>
+        <v>0.826303</v>
       </c>
       <c r="D126" t="n">
-        <v>0.836773</v>
+        <v>0.837696</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.10737</v>
+        <v>1.11053</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8273160000000001</v>
+        <v>0.827568</v>
       </c>
       <c r="D127" t="n">
-        <v>0.838429</v>
+        <v>0.839344</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.10691</v>
+        <v>1.10901</v>
       </c>
       <c r="C128" t="n">
-        <v>0.828364</v>
+        <v>0.828802</v>
       </c>
       <c r="D128" t="n">
-        <v>0.839699</v>
+        <v>0.841014</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.10629</v>
+        <v>1.1093</v>
       </c>
       <c r="C129" t="n">
-        <v>0.829976</v>
+        <v>0.8308410000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>0.84122</v>
+        <v>0.8424739999999999</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.10427</v>
+        <v>1.10738</v>
       </c>
       <c r="C130" t="n">
-        <v>0.832384</v>
+        <v>0.833203</v>
       </c>
       <c r="D130" t="n">
-        <v>0.844767</v>
+        <v>0.845005</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.10728</v>
+        <v>1.10815</v>
       </c>
       <c r="C131" t="n">
-        <v>0.835382</v>
+        <v>0.835546</v>
       </c>
       <c r="D131" t="n">
-        <v>0.847328</v>
+        <v>0.847577</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.10722</v>
+        <v>1.10857</v>
       </c>
       <c r="C132" t="n">
-        <v>0.8395280000000001</v>
+        <v>0.83817</v>
       </c>
       <c r="D132" t="n">
-        <v>0.851282</v>
+        <v>0.850621</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.10795</v>
+        <v>1.11002</v>
       </c>
       <c r="C133" t="n">
-        <v>0.842762</v>
+        <v>0.842605</v>
       </c>
       <c r="D133" t="n">
-        <v>0.856047</v>
+        <v>0.856101</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.11229</v>
+        <v>1.11089</v>
       </c>
       <c r="C134" t="n">
-        <v>0.846675</v>
+        <v>0.8481</v>
       </c>
       <c r="D134" t="n">
-        <v>0.8616279999999999</v>
+        <v>0.862371</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.11031</v>
+        <v>1.11211</v>
       </c>
       <c r="C135" t="n">
-        <v>0.8531840000000001</v>
+        <v>0.854423</v>
       </c>
       <c r="D135" t="n">
-        <v>0.870471</v>
+        <v>0.871901</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.11415</v>
+        <v>1.11571</v>
       </c>
       <c r="C136" t="n">
-        <v>0.861675</v>
+        <v>0.862372</v>
       </c>
       <c r="D136" t="n">
-        <v>0.883436</v>
+        <v>0.883795</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.11377</v>
+        <v>1.11374</v>
       </c>
       <c r="C137" t="n">
-        <v>0.872631</v>
+        <v>0.874401</v>
       </c>
       <c r="D137" t="n">
-        <v>0.878256</v>
+        <v>0.879575</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.33118</v>
+        <v>1.33039</v>
       </c>
       <c r="C138" t="n">
-        <v>0.865175</v>
+        <v>0.866659</v>
       </c>
       <c r="D138" t="n">
-        <v>0.879395</v>
+        <v>0.880894</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.33262</v>
+        <v>1.33</v>
       </c>
       <c r="C139" t="n">
-        <v>0.866799</v>
+        <v>0.869128</v>
       </c>
       <c r="D139" t="n">
-        <v>0.881504</v>
+        <v>0.881684</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.33162</v>
+        <v>1.3314</v>
       </c>
       <c r="C140" t="n">
-        <v>0.868</v>
+        <v>0.8697820000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>0.8824379999999999</v>
+        <v>0.884094</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.33107</v>
+        <v>1.33098</v>
       </c>
       <c r="C141" t="n">
-        <v>0.869456</v>
+        <v>0.869111</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8847739999999999</v>
+        <v>0.884894</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.33195</v>
+        <v>1.33101</v>
       </c>
       <c r="C142" t="n">
-        <v>0.8713649999999999</v>
+        <v>0.87349</v>
       </c>
       <c r="D142" t="n">
-        <v>0.886944</v>
+        <v>0.88695</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.33182</v>
+        <v>1.33148</v>
       </c>
       <c r="C143" t="n">
-        <v>0.874275</v>
+        <v>0.875192</v>
       </c>
       <c r="D143" t="n">
-        <v>0.889346</v>
+        <v>0.890595</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.242752</v>
+        <v>0.243464</v>
       </c>
       <c r="C2" t="n">
-        <v>0.237587</v>
+        <v>0.239319</v>
       </c>
       <c r="D2" t="n">
-        <v>0.244062</v>
+        <v>0.245159</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.241493</v>
+        <v>0.242377</v>
       </c>
       <c r="C3" t="n">
-        <v>0.236823</v>
+        <v>0.238146</v>
       </c>
       <c r="D3" t="n">
-        <v>0.243219</v>
+        <v>0.24452</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.243896</v>
+        <v>0.244727</v>
       </c>
       <c r="C4" t="n">
-        <v>0.239807</v>
+        <v>0.241181</v>
       </c>
       <c r="D4" t="n">
-        <v>0.247069</v>
+        <v>0.248098</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.245849</v>
+        <v>0.246658</v>
       </c>
       <c r="C5" t="n">
-        <v>0.243023</v>
+        <v>0.244125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.250429</v>
+        <v>0.251713</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.245019</v>
+        <v>0.245718</v>
       </c>
       <c r="C6" t="n">
-        <v>0.24411</v>
+        <v>0.245491</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25331</v>
+        <v>0.254216</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.248154</v>
+        <v>0.248607</v>
       </c>
       <c r="C7" t="n">
-        <v>0.247676</v>
+        <v>0.248965</v>
       </c>
       <c r="D7" t="n">
-        <v>0.259499</v>
+        <v>0.259727</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.251447</v>
+        <v>0.251865</v>
       </c>
       <c r="C8" t="n">
-        <v>0.252545</v>
+        <v>0.253868</v>
       </c>
       <c r="D8" t="n">
-        <v>0.267369</v>
+        <v>0.267627</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.258919</v>
+        <v>0.259615</v>
       </c>
       <c r="C9" t="n">
-        <v>0.260933</v>
+        <v>0.262354</v>
       </c>
       <c r="D9" t="n">
-        <v>0.244274</v>
+        <v>0.244199</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.249937</v>
+        <v>0.250464</v>
       </c>
       <c r="C10" t="n">
-        <v>0.240574</v>
+        <v>0.240888</v>
       </c>
       <c r="D10" t="n">
-        <v>0.243527</v>
+        <v>0.244052</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.249956</v>
+        <v>0.250068</v>
       </c>
       <c r="C11" t="n">
-        <v>0.239968</v>
+        <v>0.2418</v>
       </c>
       <c r="D11" t="n">
-        <v>0.243293</v>
+        <v>0.244261</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.25416</v>
+        <v>0.251596</v>
       </c>
       <c r="C12" t="n">
-        <v>0.242333</v>
+        <v>0.242431</v>
       </c>
       <c r="D12" t="n">
-        <v>0.24554</v>
+        <v>0.245498</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.250096</v>
+        <v>0.250514</v>
       </c>
       <c r="C13" t="n">
-        <v>0.242141</v>
+        <v>0.241998</v>
       </c>
       <c r="D13" t="n">
-        <v>0.245374</v>
+        <v>0.245277</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.250662</v>
+        <v>0.251379</v>
       </c>
       <c r="C14" t="n">
-        <v>0.243045</v>
+        <v>0.243432</v>
       </c>
       <c r="D14" t="n">
-        <v>0.245963</v>
+        <v>0.246849</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.252228</v>
+        <v>0.25334</v>
       </c>
       <c r="C15" t="n">
-        <v>0.244169</v>
+        <v>0.245287</v>
       </c>
       <c r="D15" t="n">
-        <v>0.247563</v>
+        <v>0.247755</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.251892</v>
+        <v>0.253518</v>
       </c>
       <c r="C16" t="n">
-        <v>0.244158</v>
+        <v>0.245744</v>
       </c>
       <c r="D16" t="n">
-        <v>0.248033</v>
+        <v>0.249165</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.252276</v>
+        <v>0.252958</v>
       </c>
       <c r="C17" t="n">
-        <v>0.24565</v>
+        <v>0.246767</v>
       </c>
       <c r="D17" t="n">
-        <v>0.249385</v>
+        <v>0.249821</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.25233</v>
+        <v>0.252889</v>
       </c>
       <c r="C18" t="n">
-        <v>0.246185</v>
+        <v>0.246435</v>
       </c>
       <c r="D18" t="n">
-        <v>0.250651</v>
+        <v>0.25069</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.255014</v>
+        <v>0.254384</v>
       </c>
       <c r="C19" t="n">
-        <v>0.250414</v>
+        <v>0.248955</v>
       </c>
       <c r="D19" t="n">
-        <v>0.255274</v>
+        <v>0.253767</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.256204</v>
+        <v>0.254665</v>
       </c>
       <c r="C20" t="n">
-        <v>0.249898</v>
+        <v>0.249753</v>
       </c>
       <c r="D20" t="n">
-        <v>0.256245</v>
+        <v>0.25568</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.257393</v>
+        <v>0.256848</v>
       </c>
       <c r="C21" t="n">
-        <v>0.252207</v>
+        <v>0.253372</v>
       </c>
       <c r="D21" t="n">
-        <v>0.259992</v>
+        <v>0.260244</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.260303</v>
+        <v>0.260263</v>
       </c>
       <c r="C22" t="n">
-        <v>0.256405</v>
+        <v>0.256565</v>
       </c>
       <c r="D22" t="n">
-        <v>0.266529</v>
+        <v>0.265977</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.263728</v>
+        <v>0.264405</v>
       </c>
       <c r="C23" t="n">
-        <v>0.261017</v>
+        <v>0.261782</v>
       </c>
       <c r="D23" t="n">
-        <v>0.253991</v>
+        <v>0.251597</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.274461</v>
+        <v>0.272794</v>
       </c>
       <c r="C24" t="n">
-        <v>0.24747</v>
+        <v>0.246254</v>
       </c>
       <c r="D24" t="n">
-        <v>0.256941</v>
+        <v>0.253245</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.273199</v>
+        <v>0.273034</v>
       </c>
       <c r="C25" t="n">
-        <v>0.247402</v>
+        <v>0.245578</v>
       </c>
       <c r="D25" t="n">
-        <v>0.255829</v>
+        <v>0.252407</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.27319</v>
+        <v>0.272666</v>
       </c>
       <c r="C26" t="n">
-        <v>0.248055</v>
+        <v>0.248127</v>
       </c>
       <c r="D26" t="n">
-        <v>0.256607</v>
+        <v>0.252876</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.273018</v>
+        <v>0.270654</v>
       </c>
       <c r="C27" t="n">
-        <v>0.248077</v>
+        <v>0.247747</v>
       </c>
       <c r="D27" t="n">
-        <v>0.257286</v>
+        <v>0.254901</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.274076</v>
+        <v>0.273004</v>
       </c>
       <c r="C28" t="n">
-        <v>0.249511</v>
+        <v>0.249</v>
       </c>
       <c r="D28" t="n">
-        <v>0.258932</v>
+        <v>0.255248</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.275035</v>
+        <v>0.272298</v>
       </c>
       <c r="C29" t="n">
-        <v>0.249775</v>
+        <v>0.24871</v>
       </c>
       <c r="D29" t="n">
-        <v>0.259034</v>
+        <v>0.255281</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.275605</v>
+        <v>0.27229</v>
       </c>
       <c r="C30" t="n">
-        <v>0.250892</v>
+        <v>0.250705</v>
       </c>
       <c r="D30" t="n">
-        <v>0.260223</v>
+        <v>0.258581</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.275477</v>
+        <v>0.272866</v>
       </c>
       <c r="C31" t="n">
-        <v>0.252226</v>
+        <v>0.251098</v>
       </c>
       <c r="D31" t="n">
-        <v>0.260768</v>
+        <v>0.258673</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.275791</v>
+        <v>0.274527</v>
       </c>
       <c r="C32" t="n">
-        <v>0.253801</v>
+        <v>0.253423</v>
       </c>
       <c r="D32" t="n">
-        <v>0.262794</v>
+        <v>0.260878</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.277326</v>
+        <v>0.276341</v>
       </c>
       <c r="C33" t="n">
-        <v>0.254975</v>
+        <v>0.255559</v>
       </c>
       <c r="D33" t="n">
-        <v>0.266778</v>
+        <v>0.262759</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.279125</v>
+        <v>0.277072</v>
       </c>
       <c r="C34" t="n">
-        <v>0.258538</v>
+        <v>0.256769</v>
       </c>
       <c r="D34" t="n">
-        <v>0.267884</v>
+        <v>0.265324</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.279808</v>
+        <v>0.278052</v>
       </c>
       <c r="C35" t="n">
-        <v>0.261095</v>
+        <v>0.261116</v>
       </c>
       <c r="D35" t="n">
-        <v>0.272783</v>
+        <v>0.268727</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.280629</v>
+        <v>0.278806</v>
       </c>
       <c r="C36" t="n">
-        <v>0.264723</v>
+        <v>0.264707</v>
       </c>
       <c r="D36" t="n">
-        <v>0.27915</v>
+        <v>0.276355</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.285769</v>
+        <v>0.283005</v>
       </c>
       <c r="C37" t="n">
-        <v>0.270254</v>
+        <v>0.26888</v>
       </c>
       <c r="D37" t="n">
-        <v>0.273621</v>
+        <v>0.273138</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.303578</v>
+        <v>0.301442</v>
       </c>
       <c r="C38" t="n">
-        <v>0.266721</v>
+        <v>0.268708</v>
       </c>
       <c r="D38" t="n">
-        <v>0.274653</v>
+        <v>0.274846</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.302352</v>
+        <v>0.304463</v>
       </c>
       <c r="C39" t="n">
-        <v>0.268968</v>
+        <v>0.269626</v>
       </c>
       <c r="D39" t="n">
-        <v>0.276734</v>
+        <v>0.277284</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.302746</v>
+        <v>0.303862</v>
       </c>
       <c r="C40" t="n">
-        <v>0.268271</v>
+        <v>0.270451</v>
       </c>
       <c r="D40" t="n">
-        <v>0.276008</v>
+        <v>0.276517</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.305299</v>
+        <v>0.304348</v>
       </c>
       <c r="C41" t="n">
-        <v>0.269003</v>
+        <v>0.271011</v>
       </c>
       <c r="D41" t="n">
-        <v>0.27773</v>
+        <v>0.277009</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.303898</v>
+        <v>0.304393</v>
       </c>
       <c r="C42" t="n">
-        <v>0.271516</v>
+        <v>0.272271</v>
       </c>
       <c r="D42" t="n">
-        <v>0.278954</v>
+        <v>0.278248</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.305483</v>
+        <v>0.305263</v>
       </c>
       <c r="C43" t="n">
-        <v>0.270821</v>
+        <v>0.272485</v>
       </c>
       <c r="D43" t="n">
-        <v>0.278822</v>
+        <v>0.278603</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.305983</v>
+        <v>0.304222</v>
       </c>
       <c r="C44" t="n">
-        <v>0.272437</v>
+        <v>0.274335</v>
       </c>
       <c r="D44" t="n">
-        <v>0.279777</v>
+        <v>0.280783</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.306535</v>
+        <v>0.304929</v>
       </c>
       <c r="C45" t="n">
-        <v>0.273568</v>
+        <v>0.275046</v>
       </c>
       <c r="D45" t="n">
-        <v>0.28113</v>
+        <v>0.281498</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.304252</v>
+        <v>0.306592</v>
       </c>
       <c r="C46" t="n">
-        <v>0.275085</v>
+        <v>0.276247</v>
       </c>
       <c r="D46" t="n">
-        <v>0.282903</v>
+        <v>0.283157</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.306082</v>
+        <v>0.306144</v>
       </c>
       <c r="C47" t="n">
-        <v>0.276387</v>
+        <v>0.277518</v>
       </c>
       <c r="D47" t="n">
-        <v>0.284554</v>
+        <v>0.284637</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.307987</v>
+        <v>0.309207</v>
       </c>
       <c r="C48" t="n">
-        <v>0.279008</v>
+        <v>0.279668</v>
       </c>
       <c r="D48" t="n">
-        <v>0.287418</v>
+        <v>0.287598</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.306612</v>
+        <v>0.308617</v>
       </c>
       <c r="C49" t="n">
-        <v>0.281496</v>
+        <v>0.281505</v>
       </c>
       <c r="D49" t="n">
-        <v>0.290471</v>
+        <v>0.291133</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.310642</v>
+        <v>0.31161</v>
       </c>
       <c r="C50" t="n">
-        <v>0.285067</v>
+        <v>0.285944</v>
       </c>
       <c r="D50" t="n">
-        <v>0.297113</v>
+        <v>0.296952</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.314656</v>
+        <v>0.31374</v>
       </c>
       <c r="C51" t="n">
-        <v>0.290352</v>
+        <v>0.290903</v>
       </c>
       <c r="D51" t="n">
-        <v>0.28817</v>
+        <v>0.288428</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.316941</v>
+        <v>0.318751</v>
       </c>
       <c r="C52" t="n">
-        <v>0.296685</v>
+        <v>0.298162</v>
       </c>
       <c r="D52" t="n">
-        <v>0.289158</v>
+        <v>0.288395</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.329523</v>
+        <v>0.328667</v>
       </c>
       <c r="C53" t="n">
-        <v>0.283544</v>
+        <v>0.284323</v>
       </c>
       <c r="D53" t="n">
-        <v>0.289422</v>
+        <v>0.290357</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.331716</v>
+        <v>0.332498</v>
       </c>
       <c r="C54" t="n">
-        <v>0.284291</v>
+        <v>0.284852</v>
       </c>
       <c r="D54" t="n">
-        <v>0.288336</v>
+        <v>0.290514</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.332775</v>
+        <v>0.333144</v>
       </c>
       <c r="C55" t="n">
-        <v>0.285023</v>
+        <v>0.284412</v>
       </c>
       <c r="D55" t="n">
-        <v>0.290537</v>
+        <v>0.29112</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.333158</v>
+        <v>0.33253</v>
       </c>
       <c r="C56" t="n">
-        <v>0.286071</v>
+        <v>0.285742</v>
       </c>
       <c r="D56" t="n">
-        <v>0.290985</v>
+        <v>0.29099</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.332398</v>
+        <v>0.328837</v>
       </c>
       <c r="C57" t="n">
-        <v>0.286968</v>
+        <v>0.286749</v>
       </c>
       <c r="D57" t="n">
-        <v>0.290595</v>
+        <v>0.292685</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.330918</v>
+        <v>0.331996</v>
       </c>
       <c r="C58" t="n">
-        <v>0.288356</v>
+        <v>0.288402</v>
       </c>
       <c r="D58" t="n">
-        <v>0.292031</v>
+        <v>0.29417</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.332062</v>
+        <v>0.33284</v>
       </c>
       <c r="C59" t="n">
-        <v>0.289383</v>
+        <v>0.28883</v>
       </c>
       <c r="D59" t="n">
-        <v>0.293207</v>
+        <v>0.295268</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.332637</v>
+        <v>0.332735</v>
       </c>
       <c r="C60" t="n">
-        <v>0.290635</v>
+        <v>0.289904</v>
       </c>
       <c r="D60" t="n">
-        <v>0.294446</v>
+        <v>0.296151</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.334854</v>
+        <v>0.333525</v>
       </c>
       <c r="C61" t="n">
-        <v>0.293163</v>
+        <v>0.292327</v>
       </c>
       <c r="D61" t="n">
-        <v>0.297338</v>
+        <v>0.298046</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.335083</v>
+        <v>0.3346</v>
       </c>
       <c r="C62" t="n">
-        <v>0.294808</v>
+        <v>0.294863</v>
       </c>
       <c r="D62" t="n">
-        <v>0.299883</v>
+        <v>0.301501</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.334729</v>
+        <v>0.337074</v>
       </c>
       <c r="C63" t="n">
-        <v>0.297349</v>
+        <v>0.298121</v>
       </c>
       <c r="D63" t="n">
-        <v>0.303415</v>
+        <v>0.305927</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.337075</v>
+        <v>0.337331</v>
       </c>
       <c r="C64" t="n">
-        <v>0.300674</v>
+        <v>0.301335</v>
       </c>
       <c r="D64" t="n">
-        <v>0.308674</v>
+        <v>0.310295</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.340072</v>
+        <v>0.339438</v>
       </c>
       <c r="C65" t="n">
-        <v>0.305222</v>
+        <v>0.305425</v>
       </c>
       <c r="D65" t="n">
-        <v>0.315259</v>
+        <v>0.317262</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.344235</v>
+        <v>0.344406</v>
       </c>
       <c r="C66" t="n">
-        <v>0.312065</v>
+        <v>0.311976</v>
       </c>
       <c r="D66" t="n">
-        <v>0.296978</v>
+        <v>0.297942</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.3497</v>
+        <v>0.350568</v>
       </c>
       <c r="C67" t="n">
-        <v>0.294653</v>
+        <v>0.294071</v>
       </c>
       <c r="D67" t="n">
-        <v>0.295539</v>
+        <v>0.297883</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.350821</v>
+        <v>0.350288</v>
       </c>
       <c r="C68" t="n">
-        <v>0.295502</v>
+        <v>0.294639</v>
       </c>
       <c r="D68" t="n">
-        <v>0.295995</v>
+        <v>0.298626</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.350852</v>
+        <v>0.350417</v>
       </c>
       <c r="C69" t="n">
-        <v>0.296409</v>
+        <v>0.295507</v>
       </c>
       <c r="D69" t="n">
-        <v>0.297216</v>
+        <v>0.299301</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.35098</v>
+        <v>0.350435</v>
       </c>
       <c r="C70" t="n">
-        <v>0.297727</v>
+        <v>0.297018</v>
       </c>
       <c r="D70" t="n">
-        <v>0.298139</v>
+        <v>0.299864</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.350561</v>
+        <v>0.349592</v>
       </c>
       <c r="C71" t="n">
-        <v>0.298469</v>
+        <v>0.297898</v>
       </c>
       <c r="D71" t="n">
-        <v>0.297893</v>
+        <v>0.300332</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.351269</v>
+        <v>0.350225</v>
       </c>
       <c r="C72" t="n">
-        <v>0.299049</v>
+        <v>0.29894</v>
       </c>
       <c r="D72" t="n">
-        <v>0.299276</v>
+        <v>0.301775</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.351036</v>
+        <v>0.351056</v>
       </c>
       <c r="C73" t="n">
-        <v>0.301117</v>
+        <v>0.300525</v>
       </c>
       <c r="D73" t="n">
-        <v>0.300272</v>
+        <v>0.303111</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.351787</v>
+        <v>0.34992</v>
       </c>
       <c r="C74" t="n">
-        <v>0.303061</v>
+        <v>0.302066</v>
       </c>
       <c r="D74" t="n">
-        <v>0.302919</v>
+        <v>0.304994</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.352672</v>
+        <v>0.351348</v>
       </c>
       <c r="C75" t="n">
-        <v>0.303053</v>
+        <v>0.303655</v>
       </c>
       <c r="D75" t="n">
-        <v>0.303531</v>
+        <v>0.306963</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.352658</v>
+        <v>0.352853</v>
       </c>
       <c r="C76" t="n">
-        <v>0.304844</v>
+        <v>0.305652</v>
       </c>
       <c r="D76" t="n">
-        <v>0.306779</v>
+        <v>0.309511</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.353826</v>
+        <v>0.353839</v>
       </c>
       <c r="C77" t="n">
-        <v>0.307945</v>
+        <v>0.307391</v>
       </c>
       <c r="D77" t="n">
-        <v>0.310097</v>
+        <v>0.31258</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.355917</v>
+        <v>0.354901</v>
       </c>
       <c r="C78" t="n">
-        <v>0.309065</v>
+        <v>0.311388</v>
       </c>
       <c r="D78" t="n">
-        <v>0.314448</v>
+        <v>0.317671</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.357784</v>
+        <v>0.356785</v>
       </c>
       <c r="C79" t="n">
-        <v>0.315894</v>
+        <v>0.315986</v>
       </c>
       <c r="D79" t="n">
-        <v>0.322075</v>
+        <v>0.325235</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.362134</v>
+        <v>0.361856</v>
       </c>
       <c r="C80" t="n">
-        <v>0.321933</v>
+        <v>0.321877</v>
       </c>
       <c r="D80" t="n">
-        <v>0.305507</v>
+        <v>0.307969</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.372708</v>
+        <v>0.377213</v>
       </c>
       <c r="C81" t="n">
-        <v>0.298514</v>
+        <v>0.296353</v>
       </c>
       <c r="D81" t="n">
-        <v>0.309909</v>
+        <v>0.310003</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.374561</v>
+        <v>0.372722</v>
       </c>
       <c r="C82" t="n">
-        <v>0.299428</v>
+        <v>0.297967</v>
       </c>
       <c r="D82" t="n">
-        <v>0.311527</v>
+        <v>0.310703</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.370905</v>
+        <v>0.370799</v>
       </c>
       <c r="C83" t="n">
-        <v>0.301262</v>
+        <v>0.298711</v>
       </c>
       <c r="D83" t="n">
-        <v>0.313439</v>
+        <v>0.312738</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.371493</v>
+        <v>0.372863</v>
       </c>
       <c r="C84" t="n">
-        <v>0.299628</v>
+        <v>0.300139</v>
       </c>
       <c r="D84" t="n">
-        <v>0.309846</v>
+        <v>0.31278</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.372446</v>
+        <v>0.370834</v>
       </c>
       <c r="C85" t="n">
-        <v>0.30345</v>
+        <v>0.299663</v>
       </c>
       <c r="D85" t="n">
-        <v>0.31555</v>
+        <v>0.313572</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.372328</v>
+        <v>0.374515</v>
       </c>
       <c r="C86" t="n">
-        <v>0.303816</v>
+        <v>0.304037</v>
       </c>
       <c r="D86" t="n">
-        <v>0.312546</v>
+        <v>0.316683</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.373508</v>
+        <v>0.371285</v>
       </c>
       <c r="C87" t="n">
-        <v>0.303604</v>
+        <v>0.302269</v>
       </c>
       <c r="D87" t="n">
-        <v>0.314918</v>
+        <v>0.314632</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.373818</v>
+        <v>0.376085</v>
       </c>
       <c r="C88" t="n">
-        <v>0.304906</v>
+        <v>0.306129</v>
       </c>
       <c r="D88" t="n">
-        <v>0.315835</v>
+        <v>0.318383</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.378418</v>
+        <v>0.374632</v>
       </c>
       <c r="C89" t="n">
-        <v>0.308186</v>
+        <v>0.305916</v>
       </c>
       <c r="D89" t="n">
-        <v>0.317445</v>
+        <v>0.320594</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.376564</v>
+        <v>0.378223</v>
       </c>
       <c r="C90" t="n">
-        <v>0.306555</v>
+        <v>0.309268</v>
       </c>
       <c r="D90" t="n">
-        <v>0.318871</v>
+        <v>0.323017</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.382602</v>
+        <v>0.378377</v>
       </c>
       <c r="C91" t="n">
-        <v>0.311392</v>
+        <v>0.310395</v>
       </c>
       <c r="D91" t="n">
-        <v>0.322516</v>
+        <v>0.324024</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.377076</v>
+        <v>0.380099</v>
       </c>
       <c r="C92" t="n">
-        <v>0.315732</v>
+        <v>0.314868</v>
       </c>
       <c r="D92" t="n">
-        <v>0.328333</v>
+        <v>0.329088</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.387123</v>
+        <v>0.382389</v>
       </c>
       <c r="C93" t="n">
-        <v>0.319285</v>
+        <v>0.318774</v>
       </c>
       <c r="D93" t="n">
-        <v>0.335768</v>
+        <v>0.336446</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.385697</v>
+        <v>0.382581</v>
       </c>
       <c r="C94" t="n">
-        <v>0.328512</v>
+        <v>0.32378</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4601</v>
+        <v>0.46204</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.559411</v>
+        <v>0.574557</v>
       </c>
       <c r="C95" t="n">
-        <v>0.468809</v>
+        <v>0.489962</v>
       </c>
       <c r="D95" t="n">
-        <v>0.453844</v>
+        <v>0.474459</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.554258</v>
+        <v>0.581372</v>
       </c>
       <c r="C96" t="n">
-        <v>0.47228</v>
+        <v>0.486738</v>
       </c>
       <c r="D96" t="n">
-        <v>0.459364</v>
+        <v>0.475254</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.564075</v>
+        <v>0.576637</v>
       </c>
       <c r="C97" t="n">
-        <v>0.470981</v>
+        <v>0.488956</v>
       </c>
       <c r="D97" t="n">
-        <v>0.456748</v>
+        <v>0.473944</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.555493</v>
+        <v>0.574175</v>
       </c>
       <c r="C98" t="n">
-        <v>0.476884</v>
+        <v>0.491943</v>
       </c>
       <c r="D98" t="n">
-        <v>0.462316</v>
+        <v>0.476118</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.555683</v>
+        <v>0.576819</v>
       </c>
       <c r="C99" t="n">
-        <v>0.471812</v>
+        <v>0.491604</v>
       </c>
       <c r="D99" t="n">
-        <v>0.460166</v>
+        <v>0.476418</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.554328</v>
+        <v>0.574529</v>
       </c>
       <c r="C100" t="n">
-        <v>0.476972</v>
+        <v>0.490687</v>
       </c>
       <c r="D100" t="n">
-        <v>0.463945</v>
+        <v>0.476334</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.558836</v>
+        <v>0.576542</v>
       </c>
       <c r="C101" t="n">
-        <v>0.467952</v>
+        <v>0.489869</v>
       </c>
       <c r="D101" t="n">
-        <v>0.457274</v>
+        <v>0.475618</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5539770000000001</v>
+        <v>0.575514</v>
       </c>
       <c r="C102" t="n">
-        <v>0.476816</v>
+        <v>0.49505</v>
       </c>
       <c r="D102" t="n">
-        <v>0.464503</v>
+        <v>0.482386</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.559542</v>
+        <v>0.574646</v>
       </c>
       <c r="C103" t="n">
-        <v>0.477742</v>
+        <v>0.493348</v>
       </c>
       <c r="D103" t="n">
-        <v>0.465399</v>
+        <v>0.475299</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.559284</v>
+        <v>0.571004</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4811</v>
+        <v>0.496311</v>
       </c>
       <c r="D104" t="n">
-        <v>0.469188</v>
+        <v>0.47769</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.563734</v>
+        <v>0.572365</v>
       </c>
       <c r="C105" t="n">
-        <v>0.482108</v>
+        <v>0.498658</v>
       </c>
       <c r="D105" t="n">
-        <v>0.468157</v>
+        <v>0.484123</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.561164</v>
+        <v>0.5689149999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.48996</v>
+        <v>0.50359</v>
       </c>
       <c r="D106" t="n">
-        <v>0.47694</v>
+        <v>0.48506</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.562182</v>
+        <v>0.5746250000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.491093</v>
+        <v>0.50407</v>
       </c>
       <c r="D107" t="n">
-        <v>0.478625</v>
+        <v>0.491265</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.561926</v>
+        <v>0.577373</v>
       </c>
       <c r="C108" t="n">
-        <v>0.495022</v>
+        <v>0.511132</v>
       </c>
       <c r="D108" t="n">
-        <v>0.725778</v>
+        <v>0.785651</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.568935</v>
+        <v>0.581631</v>
       </c>
       <c r="C109" t="n">
-        <v>0.50209</v>
+        <v>0.51874</v>
       </c>
       <c r="D109" t="n">
-        <v>0.725703</v>
+        <v>0.788506</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.851557</v>
+        <v>0.915771</v>
       </c>
       <c r="C110" t="n">
-        <v>0.723736</v>
+        <v>0.783481</v>
       </c>
       <c r="D110" t="n">
-        <v>0.727777</v>
+        <v>0.788039</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.849641</v>
+        <v>0.914463</v>
       </c>
       <c r="C111" t="n">
-        <v>0.724481</v>
+        <v>0.784866</v>
       </c>
       <c r="D111" t="n">
-        <v>0.728595</v>
+        <v>0.789312</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.852815</v>
+        <v>0.918359</v>
       </c>
       <c r="C112" t="n">
-        <v>0.726568</v>
+        <v>0.7857189999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.729344</v>
+        <v>0.789721</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.85081</v>
+        <v>0.921025</v>
       </c>
       <c r="C113" t="n">
-        <v>0.72625</v>
+        <v>0.786188</v>
       </c>
       <c r="D113" t="n">
-        <v>0.730069</v>
+        <v>0.7916570000000001</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.854382</v>
+        <v>0.915995</v>
       </c>
       <c r="C114" t="n">
-        <v>0.727337</v>
+        <v>0.787466</v>
       </c>
       <c r="D114" t="n">
-        <v>0.732972</v>
+        <v>0.794109</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.8534119999999999</v>
+        <v>0.918104</v>
       </c>
       <c r="C115" t="n">
-        <v>0.728255</v>
+        <v>0.790432</v>
       </c>
       <c r="D115" t="n">
-        <v>0.732783</v>
+        <v>0.794642</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.852505</v>
+        <v>0.91415</v>
       </c>
       <c r="C116" t="n">
-        <v>0.730266</v>
+        <v>0.791284</v>
       </c>
       <c r="D116" t="n">
-        <v>0.735595</v>
+        <v>0.795479</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.8499409999999999</v>
+        <v>0.918889</v>
       </c>
       <c r="C117" t="n">
-        <v>0.732456</v>
+        <v>0.7928269999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.737225</v>
+        <v>0.7982050000000001</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.851812</v>
+        <v>0.915478</v>
       </c>
       <c r="C118" t="n">
-        <v>0.734369</v>
+        <v>0.796002</v>
       </c>
       <c r="D118" t="n">
-        <v>0.740218</v>
+        <v>0.801679</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.851266</v>
+        <v>0.91638</v>
       </c>
       <c r="C119" t="n">
-        <v>0.737803</v>
+        <v>0.79856</v>
       </c>
       <c r="D119" t="n">
-        <v>0.743651</v>
+        <v>0.805298</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.851727</v>
+        <v>0.919064</v>
       </c>
       <c r="C120" t="n">
-        <v>0.742372</v>
+        <v>0.8025099999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.748282</v>
+        <v>0.808428</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.850492</v>
+        <v>0.916558</v>
       </c>
       <c r="C121" t="n">
-        <v>0.746943</v>
+        <v>0.8081930000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>0.753975</v>
+        <v>0.814941</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.852199</v>
+        <v>0.918278</v>
       </c>
       <c r="C122" t="n">
-        <v>0.752809</v>
+        <v>0.815207</v>
       </c>
       <c r="D122" t="n">
-        <v>0.761993</v>
+        <v>0.822861</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.854073</v>
+        <v>0.919827</v>
       </c>
       <c r="C123" t="n">
-        <v>0.76203</v>
+        <v>0.8247910000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.8330610000000001</v>
+        <v>0.9104100000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.1083</v>
+        <v>1.21321</v>
       </c>
       <c r="C124" t="n">
-        <v>0.824089</v>
+        <v>0.899027</v>
       </c>
       <c r="D124" t="n">
-        <v>0.834109</v>
+        <v>0.910973</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.10895</v>
+        <v>1.20968</v>
       </c>
       <c r="C125" t="n">
-        <v>0.825314</v>
+        <v>0.899136</v>
       </c>
       <c r="D125" t="n">
-        <v>0.8353699999999999</v>
+        <v>0.912027</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.10551</v>
+        <v>1.21045</v>
       </c>
       <c r="C126" t="n">
-        <v>0.826303</v>
+        <v>0.8990899999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.837696</v>
+        <v>0.912573</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.11053</v>
+        <v>1.2089</v>
       </c>
       <c r="C127" t="n">
-        <v>0.827568</v>
+        <v>0.902231</v>
       </c>
       <c r="D127" t="n">
-        <v>0.839344</v>
+        <v>0.916521</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.10901</v>
+        <v>1.21194</v>
       </c>
       <c r="C128" t="n">
-        <v>0.828802</v>
+        <v>0.9032249999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>0.841014</v>
+        <v>0.916844</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.1093</v>
+        <v>1.2078</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8308410000000001</v>
+        <v>0.9049509999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.8424739999999999</v>
+        <v>0.919031</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.10738</v>
+        <v>1.21005</v>
       </c>
       <c r="C130" t="n">
-        <v>0.833203</v>
+        <v>0.9073020000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>0.845005</v>
+        <v>0.9219580000000001</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.10815</v>
+        <v>1.2106</v>
       </c>
       <c r="C131" t="n">
-        <v>0.835546</v>
+        <v>0.911443</v>
       </c>
       <c r="D131" t="n">
-        <v>0.847577</v>
+        <v>0.926309</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.10857</v>
+        <v>1.21273</v>
       </c>
       <c r="C132" t="n">
-        <v>0.83817</v>
+        <v>0.914308</v>
       </c>
       <c r="D132" t="n">
-        <v>0.850621</v>
+        <v>0.929193</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.11002</v>
+        <v>1.20997</v>
       </c>
       <c r="C133" t="n">
-        <v>0.842605</v>
+        <v>0.918482</v>
       </c>
       <c r="D133" t="n">
-        <v>0.856101</v>
+        <v>0.935284</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.11089</v>
+        <v>1.21109</v>
       </c>
       <c r="C134" t="n">
-        <v>0.8481</v>
+        <v>0.9247300000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>0.862371</v>
+        <v>0.942402</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.11211</v>
+        <v>1.2138</v>
       </c>
       <c r="C135" t="n">
-        <v>0.854423</v>
+        <v>0.931898</v>
       </c>
       <c r="D135" t="n">
-        <v>0.871901</v>
+        <v>0.953202</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.11571</v>
+        <v>1.21503</v>
       </c>
       <c r="C136" t="n">
-        <v>0.862372</v>
+        <v>0.942921</v>
       </c>
       <c r="D136" t="n">
-        <v>0.883795</v>
+        <v>0.966651</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.11374</v>
+        <v>1.21255</v>
       </c>
       <c r="C137" t="n">
-        <v>0.874401</v>
+        <v>0.958394</v>
       </c>
       <c r="D137" t="n">
-        <v>0.879575</v>
+        <v>0.957907</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.33039</v>
+        <v>1.44405</v>
       </c>
       <c r="C138" t="n">
-        <v>0.866659</v>
+        <v>0.943837</v>
       </c>
       <c r="D138" t="n">
-        <v>0.880894</v>
+        <v>0.95968</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.33</v>
+        <v>1.44831</v>
       </c>
       <c r="C139" t="n">
-        <v>0.869128</v>
+        <v>0.9439689999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>0.881684</v>
+        <v>0.960465</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.3314</v>
+        <v>1.44701</v>
       </c>
       <c r="C140" t="n">
-        <v>0.8697820000000001</v>
+        <v>0.945626</v>
       </c>
       <c r="D140" t="n">
-        <v>0.884094</v>
+        <v>0.963598</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.33098</v>
+        <v>1.447</v>
       </c>
       <c r="C141" t="n">
-        <v>0.869111</v>
+        <v>0.947184</v>
       </c>
       <c r="D141" t="n">
-        <v>0.884894</v>
+        <v>0.964768</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.33101</v>
+        <v>1.44732</v>
       </c>
       <c r="C142" t="n">
-        <v>0.87349</v>
+        <v>0.949302</v>
       </c>
       <c r="D142" t="n">
-        <v>0.88695</v>
+        <v>0.967231</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.33148</v>
+        <v>1.44463</v>
       </c>
       <c r="C143" t="n">
-        <v>0.875192</v>
+        <v>0.951572</v>
       </c>
       <c r="D143" t="n">
-        <v>0.890595</v>
+        <v>0.969512</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.243464</v>
+        <v>0.240877</v>
       </c>
       <c r="C2" t="n">
-        <v>0.239319</v>
+        <v>0.235323</v>
       </c>
       <c r="D2" t="n">
-        <v>0.245159</v>
+        <v>0.241493</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.242377</v>
+        <v>0.239773</v>
       </c>
       <c r="C3" t="n">
-        <v>0.238146</v>
+        <v>0.235715</v>
       </c>
       <c r="D3" t="n">
-        <v>0.24452</v>
+        <v>0.241872</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.244727</v>
+        <v>0.242544</v>
       </c>
       <c r="C4" t="n">
-        <v>0.241181</v>
+        <v>0.238501</v>
       </c>
       <c r="D4" t="n">
-        <v>0.248098</v>
+        <v>0.245062</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.246658</v>
+        <v>0.244786</v>
       </c>
       <c r="C5" t="n">
-        <v>0.244125</v>
+        <v>0.242672</v>
       </c>
       <c r="D5" t="n">
-        <v>0.251713</v>
+        <v>0.249216</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.245718</v>
+        <v>0.243796</v>
       </c>
       <c r="C6" t="n">
-        <v>0.245491</v>
+        <v>0.244077</v>
       </c>
       <c r="D6" t="n">
-        <v>0.254216</v>
+        <v>0.251585</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.248607</v>
+        <v>0.246736</v>
       </c>
       <c r="C7" t="n">
-        <v>0.248965</v>
+        <v>0.246771</v>
       </c>
       <c r="D7" t="n">
-        <v>0.259727</v>
+        <v>0.257591</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.251865</v>
+        <v>0.249998</v>
       </c>
       <c r="C8" t="n">
-        <v>0.253868</v>
+        <v>0.25178</v>
       </c>
       <c r="D8" t="n">
-        <v>0.267627</v>
+        <v>0.265126</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.259615</v>
+        <v>0.257834</v>
       </c>
       <c r="C9" t="n">
-        <v>0.262354</v>
+        <v>0.26054</v>
       </c>
       <c r="D9" t="n">
-        <v>0.244199</v>
+        <v>0.241838</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.250464</v>
+        <v>0.248667</v>
       </c>
       <c r="C10" t="n">
-        <v>0.240888</v>
+        <v>0.238633</v>
       </c>
       <c r="D10" t="n">
-        <v>0.244052</v>
+        <v>0.241679</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.250068</v>
+        <v>0.250027</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2418</v>
+        <v>0.240715</v>
       </c>
       <c r="D11" t="n">
-        <v>0.244261</v>
+        <v>0.242983</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.251596</v>
+        <v>0.250428</v>
       </c>
       <c r="C12" t="n">
-        <v>0.242431</v>
+        <v>0.241477</v>
       </c>
       <c r="D12" t="n">
-        <v>0.245498</v>
+        <v>0.244218</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.250514</v>
+        <v>0.249028</v>
       </c>
       <c r="C13" t="n">
-        <v>0.241998</v>
+        <v>0.240084</v>
       </c>
       <c r="D13" t="n">
-        <v>0.245277</v>
+        <v>0.242889</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.251379</v>
+        <v>0.249907</v>
       </c>
       <c r="C14" t="n">
-        <v>0.243432</v>
+        <v>0.241682</v>
       </c>
       <c r="D14" t="n">
-        <v>0.246849</v>
+        <v>0.244287</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.25334</v>
+        <v>0.252219</v>
       </c>
       <c r="C15" t="n">
-        <v>0.245287</v>
+        <v>0.24238</v>
       </c>
       <c r="D15" t="n">
-        <v>0.247755</v>
+        <v>0.245195</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.253518</v>
+        <v>0.250236</v>
       </c>
       <c r="C16" t="n">
-        <v>0.245744</v>
+        <v>0.242992</v>
       </c>
       <c r="D16" t="n">
-        <v>0.249165</v>
+        <v>0.246054</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.252958</v>
+        <v>0.251064</v>
       </c>
       <c r="C17" t="n">
-        <v>0.246767</v>
+        <v>0.243895</v>
       </c>
       <c r="D17" t="n">
-        <v>0.249821</v>
+        <v>0.247372</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.252889</v>
+        <v>0.251192</v>
       </c>
       <c r="C18" t="n">
-        <v>0.246435</v>
+        <v>0.244669</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25069</v>
+        <v>0.248495</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.254384</v>
+        <v>0.253873</v>
       </c>
       <c r="C19" t="n">
-        <v>0.248955</v>
+        <v>0.249019</v>
       </c>
       <c r="D19" t="n">
-        <v>0.253767</v>
+        <v>0.252891</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.254665</v>
+        <v>0.253687</v>
       </c>
       <c r="C20" t="n">
-        <v>0.249753</v>
+        <v>0.24967</v>
       </c>
       <c r="D20" t="n">
-        <v>0.25568</v>
+        <v>0.254089</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.256848</v>
+        <v>0.25519</v>
       </c>
       <c r="C21" t="n">
-        <v>0.253372</v>
+        <v>0.252041</v>
       </c>
       <c r="D21" t="n">
-        <v>0.260244</v>
+        <v>0.257739</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.260263</v>
+        <v>0.259819</v>
       </c>
       <c r="C22" t="n">
-        <v>0.256565</v>
+        <v>0.255718</v>
       </c>
       <c r="D22" t="n">
-        <v>0.265977</v>
+        <v>0.263596</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.264405</v>
+        <v>0.262239</v>
       </c>
       <c r="C23" t="n">
-        <v>0.261782</v>
+        <v>0.259603</v>
       </c>
       <c r="D23" t="n">
-        <v>0.251597</v>
+        <v>0.250873</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.272794</v>
+        <v>0.269548</v>
       </c>
       <c r="C24" t="n">
-        <v>0.246254</v>
+        <v>0.243178</v>
       </c>
       <c r="D24" t="n">
-        <v>0.253245</v>
+        <v>0.250365</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.273034</v>
+        <v>0.269055</v>
       </c>
       <c r="C25" t="n">
-        <v>0.245578</v>
+        <v>0.243305</v>
       </c>
       <c r="D25" t="n">
-        <v>0.252407</v>
+        <v>0.250925</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.272666</v>
+        <v>0.269437</v>
       </c>
       <c r="C26" t="n">
-        <v>0.248127</v>
+        <v>0.243673</v>
       </c>
       <c r="D26" t="n">
-        <v>0.252876</v>
+        <v>0.251669</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.270654</v>
+        <v>0.269455</v>
       </c>
       <c r="C27" t="n">
-        <v>0.247747</v>
+        <v>0.24456</v>
       </c>
       <c r="D27" t="n">
-        <v>0.254901</v>
+        <v>0.252207</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.273004</v>
+        <v>0.271908</v>
       </c>
       <c r="C28" t="n">
-        <v>0.249</v>
+        <v>0.2461</v>
       </c>
       <c r="D28" t="n">
-        <v>0.255248</v>
+        <v>0.254695</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.272298</v>
+        <v>0.271209</v>
       </c>
       <c r="C29" t="n">
-        <v>0.24871</v>
+        <v>0.245912</v>
       </c>
       <c r="D29" t="n">
-        <v>0.255281</v>
+        <v>0.25482</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.27229</v>
+        <v>0.272679</v>
       </c>
       <c r="C30" t="n">
-        <v>0.250705</v>
+        <v>0.248094</v>
       </c>
       <c r="D30" t="n">
-        <v>0.258581</v>
+        <v>0.255318</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.272866</v>
+        <v>0.27278</v>
       </c>
       <c r="C31" t="n">
-        <v>0.251098</v>
+        <v>0.249746</v>
       </c>
       <c r="D31" t="n">
-        <v>0.258673</v>
+        <v>0.257514</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.274527</v>
+        <v>0.274282</v>
       </c>
       <c r="C32" t="n">
-        <v>0.253423</v>
+        <v>0.250945</v>
       </c>
       <c r="D32" t="n">
-        <v>0.260878</v>
+        <v>0.258955</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.276341</v>
+        <v>0.275045</v>
       </c>
       <c r="C33" t="n">
-        <v>0.255559</v>
+        <v>0.253056</v>
       </c>
       <c r="D33" t="n">
-        <v>0.262759</v>
+        <v>0.261191</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.277072</v>
+        <v>0.277246</v>
       </c>
       <c r="C34" t="n">
-        <v>0.256769</v>
+        <v>0.255931</v>
       </c>
       <c r="D34" t="n">
-        <v>0.265324</v>
+        <v>0.264519</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.278052</v>
+        <v>0.279685</v>
       </c>
       <c r="C35" t="n">
-        <v>0.261116</v>
+        <v>0.258513</v>
       </c>
       <c r="D35" t="n">
-        <v>0.268727</v>
+        <v>0.268841</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.278806</v>
+        <v>0.281225</v>
       </c>
       <c r="C36" t="n">
-        <v>0.264707</v>
+        <v>0.262872</v>
       </c>
       <c r="D36" t="n">
-        <v>0.276355</v>
+        <v>0.274481</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.283005</v>
+        <v>0.286069</v>
       </c>
       <c r="C37" t="n">
-        <v>0.26888</v>
+        <v>0.267651</v>
       </c>
       <c r="D37" t="n">
-        <v>0.273138</v>
+        <v>0.273026</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.301442</v>
+        <v>0.300999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.268708</v>
+        <v>0.26487</v>
       </c>
       <c r="D38" t="n">
-        <v>0.274846</v>
+        <v>0.273081</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.304463</v>
+        <v>0.299969</v>
       </c>
       <c r="C39" t="n">
-        <v>0.269626</v>
+        <v>0.266102</v>
       </c>
       <c r="D39" t="n">
-        <v>0.277284</v>
+        <v>0.274314</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.303862</v>
+        <v>0.301764</v>
       </c>
       <c r="C40" t="n">
-        <v>0.270451</v>
+        <v>0.267001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.276517</v>
+        <v>0.274982</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.304348</v>
+        <v>0.304457</v>
       </c>
       <c r="C41" t="n">
-        <v>0.271011</v>
+        <v>0.267834</v>
       </c>
       <c r="D41" t="n">
-        <v>0.277009</v>
+        <v>0.274642</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.304393</v>
+        <v>0.302332</v>
       </c>
       <c r="C42" t="n">
-        <v>0.272271</v>
+        <v>0.268416</v>
       </c>
       <c r="D42" t="n">
-        <v>0.278248</v>
+        <v>0.276106</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.305263</v>
+        <v>0.304076</v>
       </c>
       <c r="C43" t="n">
-        <v>0.272485</v>
+        <v>0.270223</v>
       </c>
       <c r="D43" t="n">
-        <v>0.278603</v>
+        <v>0.276763</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.304222</v>
+        <v>0.30239</v>
       </c>
       <c r="C44" t="n">
-        <v>0.274335</v>
+        <v>0.270721</v>
       </c>
       <c r="D44" t="n">
-        <v>0.280783</v>
+        <v>0.27758</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.304929</v>
+        <v>0.306497</v>
       </c>
       <c r="C45" t="n">
-        <v>0.275046</v>
+        <v>0.271208</v>
       </c>
       <c r="D45" t="n">
-        <v>0.281498</v>
+        <v>0.278902</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.306592</v>
+        <v>0.304324</v>
       </c>
       <c r="C46" t="n">
-        <v>0.276247</v>
+        <v>0.274011</v>
       </c>
       <c r="D46" t="n">
-        <v>0.283157</v>
+        <v>0.280855</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.306144</v>
+        <v>0.305062</v>
       </c>
       <c r="C47" t="n">
-        <v>0.277518</v>
+        <v>0.275341</v>
       </c>
       <c r="D47" t="n">
-        <v>0.284637</v>
+        <v>0.282527</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.309207</v>
+        <v>0.306529</v>
       </c>
       <c r="C48" t="n">
-        <v>0.279668</v>
+        <v>0.276458</v>
       </c>
       <c r="D48" t="n">
-        <v>0.287598</v>
+        <v>0.284942</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.308617</v>
+        <v>0.309134</v>
       </c>
       <c r="C49" t="n">
-        <v>0.281505</v>
+        <v>0.279214</v>
       </c>
       <c r="D49" t="n">
-        <v>0.291133</v>
+        <v>0.288441</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.31161</v>
+        <v>0.307873</v>
       </c>
       <c r="C50" t="n">
-        <v>0.285944</v>
+        <v>0.282525</v>
       </c>
       <c r="D50" t="n">
-        <v>0.296952</v>
+        <v>0.293566</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.31374</v>
+        <v>0.310125</v>
       </c>
       <c r="C51" t="n">
-        <v>0.290903</v>
+        <v>0.287854</v>
       </c>
       <c r="D51" t="n">
-        <v>0.288428</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.318751</v>
+        <v>0.315869</v>
       </c>
       <c r="C52" t="n">
-        <v>0.298162</v>
+        <v>0.294192</v>
       </c>
       <c r="D52" t="n">
-        <v>0.288395</v>
+        <v>0.286494</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.328667</v>
+        <v>0.330077</v>
       </c>
       <c r="C53" t="n">
-        <v>0.284323</v>
+        <v>0.281813</v>
       </c>
       <c r="D53" t="n">
-        <v>0.290357</v>
+        <v>0.287316</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.332498</v>
+        <v>0.328666</v>
       </c>
       <c r="C54" t="n">
-        <v>0.284852</v>
+        <v>0.282779</v>
       </c>
       <c r="D54" t="n">
-        <v>0.290514</v>
+        <v>0.288276</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.333144</v>
+        <v>0.328659</v>
       </c>
       <c r="C55" t="n">
-        <v>0.284412</v>
+        <v>0.283281</v>
       </c>
       <c r="D55" t="n">
-        <v>0.29112</v>
+        <v>0.286679</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.33253</v>
+        <v>0.330158</v>
       </c>
       <c r="C56" t="n">
-        <v>0.285742</v>
+        <v>0.28439</v>
       </c>
       <c r="D56" t="n">
-        <v>0.29099</v>
+        <v>0.288112</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.328837</v>
+        <v>0.329742</v>
       </c>
       <c r="C57" t="n">
-        <v>0.286749</v>
+        <v>0.285424</v>
       </c>
       <c r="D57" t="n">
-        <v>0.292685</v>
+        <v>0.288763</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.331996</v>
+        <v>0.330096</v>
       </c>
       <c r="C58" t="n">
-        <v>0.288402</v>
+        <v>0.287167</v>
       </c>
       <c r="D58" t="n">
-        <v>0.29417</v>
+        <v>0.29235</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.33284</v>
+        <v>0.330377</v>
       </c>
       <c r="C59" t="n">
-        <v>0.28883</v>
+        <v>0.287872</v>
       </c>
       <c r="D59" t="n">
-        <v>0.295268</v>
+        <v>0.291681</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.332735</v>
+        <v>0.330234</v>
       </c>
       <c r="C60" t="n">
-        <v>0.289904</v>
+        <v>0.289086</v>
       </c>
       <c r="D60" t="n">
-        <v>0.296151</v>
+        <v>0.292825</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.333525</v>
+        <v>0.331661</v>
       </c>
       <c r="C61" t="n">
-        <v>0.292327</v>
+        <v>0.290692</v>
       </c>
       <c r="D61" t="n">
-        <v>0.298046</v>
+        <v>0.294357</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.3346</v>
+        <v>0.331478</v>
       </c>
       <c r="C62" t="n">
-        <v>0.294863</v>
+        <v>0.292889</v>
       </c>
       <c r="D62" t="n">
-        <v>0.301501</v>
+        <v>0.298983</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.337074</v>
+        <v>0.332831</v>
       </c>
       <c r="C63" t="n">
-        <v>0.298121</v>
+        <v>0.295369</v>
       </c>
       <c r="D63" t="n">
-        <v>0.305927</v>
+        <v>0.300451</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.337331</v>
+        <v>0.33631</v>
       </c>
       <c r="C64" t="n">
-        <v>0.301335</v>
+        <v>0.299011</v>
       </c>
       <c r="D64" t="n">
-        <v>0.310295</v>
+        <v>0.30586</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.339438</v>
+        <v>0.337491</v>
       </c>
       <c r="C65" t="n">
-        <v>0.305425</v>
+        <v>0.303202</v>
       </c>
       <c r="D65" t="n">
-        <v>0.317262</v>
+        <v>0.312595</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.344406</v>
+        <v>0.34284</v>
       </c>
       <c r="C66" t="n">
-        <v>0.311976</v>
+        <v>0.310032</v>
       </c>
       <c r="D66" t="n">
-        <v>0.297942</v>
+        <v>0.294996</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.350568</v>
+        <v>0.347814</v>
       </c>
       <c r="C67" t="n">
-        <v>0.294071</v>
+        <v>0.293113</v>
       </c>
       <c r="D67" t="n">
-        <v>0.297883</v>
+        <v>0.294045</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.350288</v>
+        <v>0.348459</v>
       </c>
       <c r="C68" t="n">
-        <v>0.294639</v>
+        <v>0.293965</v>
       </c>
       <c r="D68" t="n">
-        <v>0.298626</v>
+        <v>0.293933</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.350417</v>
+        <v>0.34836</v>
       </c>
       <c r="C69" t="n">
-        <v>0.295507</v>
+        <v>0.295325</v>
       </c>
       <c r="D69" t="n">
-        <v>0.299301</v>
+        <v>0.294861</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.350435</v>
+        <v>0.348458</v>
       </c>
       <c r="C70" t="n">
-        <v>0.297018</v>
+        <v>0.294815</v>
       </c>
       <c r="D70" t="n">
-        <v>0.299864</v>
+        <v>0.294976</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.349592</v>
+        <v>0.348296</v>
       </c>
       <c r="C71" t="n">
-        <v>0.297898</v>
+        <v>0.296891</v>
       </c>
       <c r="D71" t="n">
-        <v>0.300332</v>
+        <v>0.297396</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.350225</v>
+        <v>0.349211</v>
       </c>
       <c r="C72" t="n">
-        <v>0.29894</v>
+        <v>0.297865</v>
       </c>
       <c r="D72" t="n">
-        <v>0.301775</v>
+        <v>0.297975</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.351056</v>
+        <v>0.349507</v>
       </c>
       <c r="C73" t="n">
-        <v>0.300525</v>
+        <v>0.299263</v>
       </c>
       <c r="D73" t="n">
-        <v>0.303111</v>
+        <v>0.298721</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.34992</v>
+        <v>0.350089</v>
       </c>
       <c r="C74" t="n">
-        <v>0.302066</v>
+        <v>0.300281</v>
       </c>
       <c r="D74" t="n">
-        <v>0.304994</v>
+        <v>0.301569</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.351348</v>
+        <v>0.350283</v>
       </c>
       <c r="C75" t="n">
-        <v>0.303655</v>
+        <v>0.30201</v>
       </c>
       <c r="D75" t="n">
-        <v>0.306963</v>
+        <v>0.302002</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.352853</v>
+        <v>0.351089</v>
       </c>
       <c r="C76" t="n">
-        <v>0.305652</v>
+        <v>0.301978</v>
       </c>
       <c r="D76" t="n">
-        <v>0.309511</v>
+        <v>0.304618</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.353839</v>
+        <v>0.352196</v>
       </c>
       <c r="C77" t="n">
-        <v>0.307391</v>
+        <v>0.306275</v>
       </c>
       <c r="D77" t="n">
-        <v>0.31258</v>
+        <v>0.307614</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.354901</v>
+        <v>0.354465</v>
       </c>
       <c r="C78" t="n">
-        <v>0.311388</v>
+        <v>0.310132</v>
       </c>
       <c r="D78" t="n">
-        <v>0.317671</v>
+        <v>0.312667</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.356785</v>
+        <v>0.355666</v>
       </c>
       <c r="C79" t="n">
-        <v>0.315986</v>
+        <v>0.314636</v>
       </c>
       <c r="D79" t="n">
-        <v>0.325235</v>
+        <v>0.319899</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.361856</v>
+        <v>0.360652</v>
       </c>
       <c r="C80" t="n">
-        <v>0.321877</v>
+        <v>0.319908</v>
       </c>
       <c r="D80" t="n">
-        <v>0.307969</v>
+        <v>0.305092</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.377213</v>
+        <v>0.372263</v>
       </c>
       <c r="C81" t="n">
-        <v>0.296353</v>
+        <v>0.297737</v>
       </c>
       <c r="D81" t="n">
-        <v>0.310003</v>
+        <v>0.30741</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.372722</v>
+        <v>0.372223</v>
       </c>
       <c r="C82" t="n">
-        <v>0.297967</v>
+        <v>0.29744</v>
       </c>
       <c r="D82" t="n">
-        <v>0.310703</v>
+        <v>0.306841</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.370799</v>
+        <v>0.371288</v>
       </c>
       <c r="C83" t="n">
-        <v>0.298711</v>
+        <v>0.301287</v>
       </c>
       <c r="D83" t="n">
-        <v>0.312738</v>
+        <v>0.313418</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.372863</v>
+        <v>0.373462</v>
       </c>
       <c r="C84" t="n">
-        <v>0.300139</v>
+        <v>0.29971</v>
       </c>
       <c r="D84" t="n">
-        <v>0.31278</v>
+        <v>0.309676</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.370834</v>
+        <v>0.374801</v>
       </c>
       <c r="C85" t="n">
-        <v>0.299663</v>
+        <v>0.301449</v>
       </c>
       <c r="D85" t="n">
-        <v>0.313572</v>
+        <v>0.308799</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.374515</v>
+        <v>0.374063</v>
       </c>
       <c r="C86" t="n">
-        <v>0.304037</v>
+        <v>0.310629</v>
       </c>
       <c r="D86" t="n">
-        <v>0.316683</v>
+        <v>0.314641</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.371285</v>
+        <v>0.376564</v>
       </c>
       <c r="C87" t="n">
-        <v>0.302269</v>
+        <v>0.304074</v>
       </c>
       <c r="D87" t="n">
-        <v>0.314632</v>
+        <v>0.312761</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.376085</v>
+        <v>0.374035</v>
       </c>
       <c r="C88" t="n">
-        <v>0.306129</v>
+        <v>0.309536</v>
       </c>
       <c r="D88" t="n">
-        <v>0.318383</v>
+        <v>0.319275</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.374632</v>
+        <v>0.376469</v>
       </c>
       <c r="C89" t="n">
-        <v>0.305916</v>
+        <v>0.306644</v>
       </c>
       <c r="D89" t="n">
-        <v>0.320594</v>
+        <v>0.316332</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.378223</v>
+        <v>0.373461</v>
       </c>
       <c r="C90" t="n">
-        <v>0.309268</v>
+        <v>0.305236</v>
       </c>
       <c r="D90" t="n">
-        <v>0.323017</v>
+        <v>0.318259</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.378377</v>
+        <v>0.376827</v>
       </c>
       <c r="C91" t="n">
-        <v>0.310395</v>
+        <v>0.30502</v>
       </c>
       <c r="D91" t="n">
-        <v>0.324024</v>
+        <v>0.318569</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.380099</v>
+        <v>0.374977</v>
       </c>
       <c r="C92" t="n">
-        <v>0.314868</v>
+        <v>0.313311</v>
       </c>
       <c r="D92" t="n">
-        <v>0.329088</v>
+        <v>0.325763</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.382389</v>
+        <v>0.380751</v>
       </c>
       <c r="C93" t="n">
-        <v>0.318774</v>
+        <v>0.315771</v>
       </c>
       <c r="D93" t="n">
-        <v>0.336446</v>
+        <v>0.329863</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.382581</v>
+        <v>0.382249</v>
       </c>
       <c r="C94" t="n">
-        <v>0.32378</v>
+        <v>0.321699</v>
       </c>
       <c r="D94" t="n">
-        <v>0.46204</v>
+        <v>0.458682</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.574557</v>
+        <v>0.553612</v>
       </c>
       <c r="C95" t="n">
-        <v>0.489962</v>
+        <v>0.472318</v>
       </c>
       <c r="D95" t="n">
-        <v>0.474459</v>
+        <v>0.466689</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.581372</v>
+        <v>0.555038</v>
       </c>
       <c r="C96" t="n">
-        <v>0.486738</v>
+        <v>0.472791</v>
       </c>
       <c r="D96" t="n">
-        <v>0.475254</v>
+        <v>0.453504</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.576637</v>
+        <v>0.555627</v>
       </c>
       <c r="C97" t="n">
-        <v>0.488956</v>
+        <v>0.470125</v>
       </c>
       <c r="D97" t="n">
-        <v>0.473944</v>
+        <v>0.458379</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.574175</v>
+        <v>0.552629</v>
       </c>
       <c r="C98" t="n">
-        <v>0.491943</v>
+        <v>0.469366</v>
       </c>
       <c r="D98" t="n">
-        <v>0.476118</v>
+        <v>0.457111</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.576819</v>
+        <v>0.549224</v>
       </c>
       <c r="C99" t="n">
-        <v>0.491604</v>
+        <v>0.469253</v>
       </c>
       <c r="D99" t="n">
-        <v>0.476418</v>
+        <v>0.454091</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.574529</v>
+        <v>0.551941</v>
       </c>
       <c r="C100" t="n">
-        <v>0.490687</v>
+        <v>0.466491</v>
       </c>
       <c r="D100" t="n">
-        <v>0.476334</v>
+        <v>0.455175</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.576542</v>
+        <v>0.548683</v>
       </c>
       <c r="C101" t="n">
-        <v>0.489869</v>
+        <v>0.466993</v>
       </c>
       <c r="D101" t="n">
-        <v>0.475618</v>
+        <v>0.456559</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.575514</v>
+        <v>0.551738</v>
       </c>
       <c r="C102" t="n">
-        <v>0.49505</v>
+        <v>0.466221</v>
       </c>
       <c r="D102" t="n">
-        <v>0.482386</v>
+        <v>0.449687</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.574646</v>
+        <v>0.5474290000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.493348</v>
+        <v>0.471059</v>
       </c>
       <c r="D103" t="n">
-        <v>0.475299</v>
+        <v>0.453085</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.571004</v>
+        <v>0.550359</v>
       </c>
       <c r="C104" t="n">
-        <v>0.496311</v>
+        <v>0.469606</v>
       </c>
       <c r="D104" t="n">
-        <v>0.47769</v>
+        <v>0.457158</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.572365</v>
+        <v>0.547847</v>
       </c>
       <c r="C105" t="n">
-        <v>0.498658</v>
+        <v>0.476636</v>
       </c>
       <c r="D105" t="n">
-        <v>0.484123</v>
+        <v>0.45918</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5689149999999999</v>
+        <v>0.547003</v>
       </c>
       <c r="C106" t="n">
-        <v>0.50359</v>
+        <v>0.478813</v>
       </c>
       <c r="D106" t="n">
-        <v>0.48506</v>
+        <v>0.467179</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5746250000000001</v>
+        <v>0.544754</v>
       </c>
       <c r="C107" t="n">
-        <v>0.50407</v>
+        <v>0.483242</v>
       </c>
       <c r="D107" t="n">
-        <v>0.491265</v>
+        <v>0.466417</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.577373</v>
+        <v>0.551349</v>
       </c>
       <c r="C108" t="n">
-        <v>0.511132</v>
+        <v>0.487181</v>
       </c>
       <c r="D108" t="n">
-        <v>0.785651</v>
+        <v>0.722832</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.581631</v>
+        <v>0.555702</v>
       </c>
       <c r="C109" t="n">
-        <v>0.51874</v>
+        <v>0.494669</v>
       </c>
       <c r="D109" t="n">
-        <v>0.788506</v>
+        <v>0.7244119999999999</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.915771</v>
+        <v>0.849617</v>
       </c>
       <c r="C110" t="n">
-        <v>0.783481</v>
+        <v>0.722306</v>
       </c>
       <c r="D110" t="n">
-        <v>0.788039</v>
+        <v>0.724988</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.914463</v>
+        <v>0.85002</v>
       </c>
       <c r="C111" t="n">
-        <v>0.784866</v>
+        <v>0.722579</v>
       </c>
       <c r="D111" t="n">
-        <v>0.789312</v>
+        <v>0.726555</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.918359</v>
+        <v>0.850426</v>
       </c>
       <c r="C112" t="n">
-        <v>0.7857189999999999</v>
+        <v>0.723197</v>
       </c>
       <c r="D112" t="n">
-        <v>0.789721</v>
+        <v>0.727124</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.921025</v>
+        <v>0.849047</v>
       </c>
       <c r="C113" t="n">
-        <v>0.786188</v>
+        <v>0.72453</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7916570000000001</v>
+        <v>0.7275470000000001</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.915995</v>
+        <v>0.848599</v>
       </c>
       <c r="C114" t="n">
-        <v>0.787466</v>
+        <v>0.726335</v>
       </c>
       <c r="D114" t="n">
-        <v>0.794109</v>
+        <v>0.729298</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.918104</v>
+        <v>0.847262</v>
       </c>
       <c r="C115" t="n">
-        <v>0.790432</v>
+        <v>0.7269370000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.794642</v>
+        <v>0.732232</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.91415</v>
+        <v>0.852518</v>
       </c>
       <c r="C116" t="n">
-        <v>0.791284</v>
+        <v>0.728873</v>
       </c>
       <c r="D116" t="n">
-        <v>0.795479</v>
+        <v>0.732984</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.918889</v>
+        <v>0.84958</v>
       </c>
       <c r="C117" t="n">
-        <v>0.7928269999999999</v>
+        <v>0.729718</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7982050000000001</v>
+        <v>0.734726</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.915478</v>
+        <v>0.848997</v>
       </c>
       <c r="C118" t="n">
-        <v>0.796002</v>
+        <v>0.7329639999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.801679</v>
+        <v>0.738264</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.91638</v>
+        <v>0.849886</v>
       </c>
       <c r="C119" t="n">
-        <v>0.79856</v>
+        <v>0.73573</v>
       </c>
       <c r="D119" t="n">
-        <v>0.805298</v>
+        <v>0.741057</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.919064</v>
+        <v>0.8492459999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.8025099999999999</v>
+        <v>0.7391259999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.808428</v>
+        <v>0.746041</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.916558</v>
+        <v>0.851084</v>
       </c>
       <c r="C121" t="n">
-        <v>0.8081930000000001</v>
+        <v>0.744435</v>
       </c>
       <c r="D121" t="n">
-        <v>0.814941</v>
+        <v>0.7515500000000001</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.918278</v>
+        <v>0.851422</v>
       </c>
       <c r="C122" t="n">
-        <v>0.815207</v>
+        <v>0.749669</v>
       </c>
       <c r="D122" t="n">
-        <v>0.822861</v>
+        <v>0.759091</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.919827</v>
+        <v>0.851433</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8247910000000001</v>
+        <v>0.759208</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9104100000000001</v>
+        <v>0.831048</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.21321</v>
+        <v>1.10819</v>
       </c>
       <c r="C124" t="n">
-        <v>0.899027</v>
+        <v>0.821902</v>
       </c>
       <c r="D124" t="n">
-        <v>0.910973</v>
+        <v>0.833365</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.20968</v>
+        <v>1.10681</v>
       </c>
       <c r="C125" t="n">
-        <v>0.899136</v>
+        <v>0.822974</v>
       </c>
       <c r="D125" t="n">
-        <v>0.912027</v>
+        <v>0.833892</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.21045</v>
+        <v>1.10611</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8990899999999999</v>
+        <v>0.823357</v>
       </c>
       <c r="D126" t="n">
-        <v>0.912573</v>
+        <v>0.835154</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.2089</v>
+        <v>1.1063</v>
       </c>
       <c r="C127" t="n">
-        <v>0.902231</v>
+        <v>0.825214</v>
       </c>
       <c r="D127" t="n">
-        <v>0.916521</v>
+        <v>0.836716</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.21194</v>
+        <v>1.10584</v>
       </c>
       <c r="C128" t="n">
-        <v>0.9032249999999999</v>
+        <v>0.827056</v>
       </c>
       <c r="D128" t="n">
-        <v>0.916844</v>
+        <v>0.838112</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.2078</v>
+        <v>1.10482</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9049509999999999</v>
+        <v>0.8285979999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.919031</v>
+        <v>0.840809</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.21005</v>
+        <v>1.10687</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9073020000000001</v>
+        <v>0.831492</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9219580000000001</v>
+        <v>0.843253</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.2106</v>
+        <v>1.11039</v>
       </c>
       <c r="C131" t="n">
-        <v>0.911443</v>
+        <v>0.8333930000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>0.926309</v>
+        <v>0.8451610000000001</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.21273</v>
+        <v>1.10288</v>
       </c>
       <c r="C132" t="n">
-        <v>0.914308</v>
+        <v>0.836582</v>
       </c>
       <c r="D132" t="n">
-        <v>0.929193</v>
+        <v>0.849341</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.20997</v>
+        <v>1.11052</v>
       </c>
       <c r="C133" t="n">
-        <v>0.918482</v>
+        <v>0.841614</v>
       </c>
       <c r="D133" t="n">
-        <v>0.935284</v>
+        <v>0.854606</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.21109</v>
+        <v>1.10711</v>
       </c>
       <c r="C134" t="n">
-        <v>0.9247300000000001</v>
+        <v>0.84644</v>
       </c>
       <c r="D134" t="n">
-        <v>0.942402</v>
+        <v>0.8597900000000001</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.2138</v>
+        <v>1.1084</v>
       </c>
       <c r="C135" t="n">
-        <v>0.931898</v>
+        <v>0.850972</v>
       </c>
       <c r="D135" t="n">
-        <v>0.953202</v>
+        <v>0.868855</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.21503</v>
+        <v>1.10835</v>
       </c>
       <c r="C136" t="n">
-        <v>0.942921</v>
+        <v>0.860229</v>
       </c>
       <c r="D136" t="n">
-        <v>0.966651</v>
+        <v>0.879996</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.21255</v>
+        <v>1.10939</v>
       </c>
       <c r="C137" t="n">
-        <v>0.958394</v>
+        <v>0.870678</v>
       </c>
       <c r="D137" t="n">
-        <v>0.957907</v>
+        <v>0.876163</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.44405</v>
+        <v>1.32746</v>
       </c>
       <c r="C138" t="n">
-        <v>0.943837</v>
+        <v>0.863885</v>
       </c>
       <c r="D138" t="n">
-        <v>0.95968</v>
+        <v>0.877123</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.44831</v>
+        <v>1.32853</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9439689999999999</v>
+        <v>0.864167</v>
       </c>
       <c r="D139" t="n">
-        <v>0.960465</v>
+        <v>0.878545</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.44701</v>
+        <v>1.32965</v>
       </c>
       <c r="C140" t="n">
-        <v>0.945626</v>
+        <v>0.8681</v>
       </c>
       <c r="D140" t="n">
-        <v>0.963598</v>
+        <v>0.880839</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.447</v>
+        <v>1.32769</v>
       </c>
       <c r="C141" t="n">
-        <v>0.947184</v>
+        <v>0.867691</v>
       </c>
       <c r="D141" t="n">
-        <v>0.964768</v>
+        <v>0.8815460000000001</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.44732</v>
+        <v>1.3268</v>
       </c>
       <c r="C142" t="n">
-        <v>0.949302</v>
+        <v>0.870025</v>
       </c>
       <c r="D142" t="n">
-        <v>0.967231</v>
+        <v>0.883548</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.44463</v>
+        <v>1.32839</v>
       </c>
       <c r="C143" t="n">
-        <v>0.951572</v>
+        <v>0.871995</v>
       </c>
       <c r="D143" t="n">
-        <v>0.969512</v>
+        <v>0.885621</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.240877</v>
+        <v>0.102416</v>
       </c>
       <c r="C2" t="n">
-        <v>0.235323</v>
+        <v>0.102691</v>
       </c>
       <c r="D2" t="n">
-        <v>0.241493</v>
+        <v>0.109346</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.239773</v>
+        <v>0.103175</v>
       </c>
       <c r="C3" t="n">
-        <v>0.235715</v>
+        <v>0.104341</v>
       </c>
       <c r="D3" t="n">
-        <v>0.241872</v>
+        <v>0.110773</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.242544</v>
+        <v>0.107204</v>
       </c>
       <c r="C4" t="n">
-        <v>0.238501</v>
+        <v>0.108282</v>
       </c>
       <c r="D4" t="n">
-        <v>0.245062</v>
+        <v>0.115924</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.244786</v>
+        <v>0.110081</v>
       </c>
       <c r="C5" t="n">
-        <v>0.242672</v>
+        <v>0.112039</v>
       </c>
       <c r="D5" t="n">
-        <v>0.249216</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.243796</v>
+        <v>0.111381</v>
       </c>
       <c r="C6" t="n">
-        <v>0.244077</v>
+        <v>0.114396</v>
       </c>
       <c r="D6" t="n">
-        <v>0.251585</v>
+        <v>0.123753</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.246736</v>
+        <v>0.11479</v>
       </c>
       <c r="C7" t="n">
-        <v>0.246771</v>
+        <v>0.118746</v>
       </c>
       <c r="D7" t="n">
-        <v>0.257591</v>
+        <v>0.130257</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.249998</v>
+        <v>0.119075</v>
       </c>
       <c r="C8" t="n">
-        <v>0.25178</v>
+        <v>0.124282</v>
       </c>
       <c r="D8" t="n">
-        <v>0.265126</v>
+        <v>0.138696</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.257834</v>
+        <v>0.126056</v>
       </c>
       <c r="C9" t="n">
-        <v>0.26054</v>
+        <v>0.133513</v>
       </c>
       <c r="D9" t="n">
-        <v>0.241838</v>
+        <v>0.117294</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.248667</v>
+        <v>0.116953</v>
       </c>
       <c r="C10" t="n">
-        <v>0.238633</v>
+        <v>0.112616</v>
       </c>
       <c r="D10" t="n">
-        <v>0.241679</v>
+        <v>0.117967</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.250027</v>
+        <v>0.115823</v>
       </c>
       <c r="C11" t="n">
-        <v>0.240715</v>
+        <v>0.11223</v>
       </c>
       <c r="D11" t="n">
-        <v>0.242983</v>
+        <v>0.117679</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.250428</v>
+        <v>0.117962</v>
       </c>
       <c r="C12" t="n">
-        <v>0.241477</v>
+        <v>0.11432</v>
       </c>
       <c r="D12" t="n">
-        <v>0.244218</v>
+        <v>0.119513</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.249028</v>
+        <v>0.120262</v>
       </c>
       <c r="C13" t="n">
-        <v>0.240084</v>
+        <v>0.115365</v>
       </c>
       <c r="D13" t="n">
-        <v>0.242889</v>
+        <v>0.119961</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.249907</v>
+        <v>0.121828</v>
       </c>
       <c r="C14" t="n">
-        <v>0.241682</v>
+        <v>0.116565</v>
       </c>
       <c r="D14" t="n">
-        <v>0.244287</v>
+        <v>0.121678</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.252219</v>
+        <v>0.1218</v>
       </c>
       <c r="C15" t="n">
-        <v>0.24238</v>
+        <v>0.117727</v>
       </c>
       <c r="D15" t="n">
-        <v>0.245195</v>
+        <v>0.12268</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.250236</v>
+        <v>0.12095</v>
       </c>
       <c r="C16" t="n">
-        <v>0.242992</v>
+        <v>0.118234</v>
       </c>
       <c r="D16" t="n">
-        <v>0.246054</v>
+        <v>0.123618</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.251064</v>
+        <v>0.121436</v>
       </c>
       <c r="C17" t="n">
-        <v>0.243895</v>
+        <v>0.119161</v>
       </c>
       <c r="D17" t="n">
-        <v>0.247372</v>
+        <v>0.125333</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.251192</v>
+        <v>0.121658</v>
       </c>
       <c r="C18" t="n">
-        <v>0.244669</v>
+        <v>0.120599</v>
       </c>
       <c r="D18" t="n">
-        <v>0.248495</v>
+        <v>0.127026</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.253873</v>
+        <v>0.125067</v>
       </c>
       <c r="C19" t="n">
-        <v>0.249019</v>
+        <v>0.123902</v>
       </c>
       <c r="D19" t="n">
-        <v>0.252891</v>
+        <v>0.130327</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.253687</v>
+        <v>0.126103</v>
       </c>
       <c r="C20" t="n">
-        <v>0.24967</v>
+        <v>0.125342</v>
       </c>
       <c r="D20" t="n">
-        <v>0.254089</v>
+        <v>0.13253</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.25519</v>
+        <v>0.127432</v>
       </c>
       <c r="C21" t="n">
-        <v>0.252041</v>
+        <v>0.128868</v>
       </c>
       <c r="D21" t="n">
-        <v>0.257739</v>
+        <v>0.137442</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.259819</v>
+        <v>0.130312</v>
       </c>
       <c r="C22" t="n">
-        <v>0.255718</v>
+        <v>0.134273</v>
       </c>
       <c r="D22" t="n">
-        <v>0.263596</v>
+        <v>0.145006</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.262239</v>
+        <v>0.133407</v>
       </c>
       <c r="C23" t="n">
-        <v>0.259603</v>
+        <v>0.139415</v>
       </c>
       <c r="D23" t="n">
-        <v>0.250873</v>
+        <v>0.128598</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.269548</v>
+        <v>0.133557</v>
       </c>
       <c r="C24" t="n">
-        <v>0.243178</v>
+        <v>0.11938</v>
       </c>
       <c r="D24" t="n">
-        <v>0.250365</v>
+        <v>0.128743</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.269055</v>
+        <v>0.133402</v>
       </c>
       <c r="C25" t="n">
-        <v>0.243305</v>
+        <v>0.119353</v>
       </c>
       <c r="D25" t="n">
-        <v>0.250925</v>
+        <v>0.129347</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.269437</v>
+        <v>0.134525</v>
       </c>
       <c r="C26" t="n">
-        <v>0.243673</v>
+        <v>0.120623</v>
       </c>
       <c r="D26" t="n">
-        <v>0.251669</v>
+        <v>0.129482</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.269455</v>
+        <v>0.135304</v>
       </c>
       <c r="C27" t="n">
-        <v>0.24456</v>
+        <v>0.121308</v>
       </c>
       <c r="D27" t="n">
-        <v>0.252207</v>
+        <v>0.130862</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.271908</v>
+        <v>0.135847</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2461</v>
+        <v>0.122458</v>
       </c>
       <c r="D28" t="n">
-        <v>0.254695</v>
+        <v>0.132408</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.271209</v>
+        <v>0.135315</v>
       </c>
       <c r="C29" t="n">
-        <v>0.245912</v>
+        <v>0.12324</v>
       </c>
       <c r="D29" t="n">
-        <v>0.25482</v>
+        <v>0.132811</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.272679</v>
+        <v>0.136804</v>
       </c>
       <c r="C30" t="n">
-        <v>0.248094</v>
+        <v>0.124203</v>
       </c>
       <c r="D30" t="n">
-        <v>0.255318</v>
+        <v>0.133236</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.27278</v>
+        <v>0.137528</v>
       </c>
       <c r="C31" t="n">
-        <v>0.249746</v>
+        <v>0.124942</v>
       </c>
       <c r="D31" t="n">
-        <v>0.257514</v>
+        <v>0.134614</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.274282</v>
+        <v>0.137894</v>
       </c>
       <c r="C32" t="n">
-        <v>0.250945</v>
+        <v>0.12619</v>
       </c>
       <c r="D32" t="n">
-        <v>0.258955</v>
+        <v>0.136593</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.275045</v>
+        <v>0.138649</v>
       </c>
       <c r="C33" t="n">
-        <v>0.253056</v>
+        <v>0.127734</v>
       </c>
       <c r="D33" t="n">
-        <v>0.261191</v>
+        <v>0.137681</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.277246</v>
+        <v>0.138718</v>
       </c>
       <c r="C34" t="n">
-        <v>0.255931</v>
+        <v>0.129703</v>
       </c>
       <c r="D34" t="n">
-        <v>0.264519</v>
+        <v>0.1401</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.279685</v>
+        <v>0.140697</v>
       </c>
       <c r="C35" t="n">
-        <v>0.258513</v>
+        <v>0.131552</v>
       </c>
       <c r="D35" t="n">
-        <v>0.268841</v>
+        <v>0.143887</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.281225</v>
+        <v>0.141718</v>
       </c>
       <c r="C36" t="n">
-        <v>0.262872</v>
+        <v>0.135515</v>
       </c>
       <c r="D36" t="n">
-        <v>0.274481</v>
+        <v>0.150242</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.286069</v>
+        <v>0.145164</v>
       </c>
       <c r="C37" t="n">
-        <v>0.267651</v>
+        <v>0.140621</v>
       </c>
       <c r="D37" t="n">
-        <v>0.273026</v>
+        <v>0.140634</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.300999</v>
+        <v>0.150248</v>
       </c>
       <c r="C38" t="n">
-        <v>0.26487</v>
+        <v>0.130196</v>
       </c>
       <c r="D38" t="n">
-        <v>0.273081</v>
+        <v>0.140149</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.299969</v>
+        <v>0.149318</v>
       </c>
       <c r="C39" t="n">
-        <v>0.266102</v>
+        <v>0.131146</v>
       </c>
       <c r="D39" t="n">
-        <v>0.274314</v>
+        <v>0.141296</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.301764</v>
+        <v>0.149352</v>
       </c>
       <c r="C40" t="n">
-        <v>0.267001</v>
+        <v>0.132252</v>
       </c>
       <c r="D40" t="n">
-        <v>0.274982</v>
+        <v>0.14218</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.304457</v>
+        <v>0.148677</v>
       </c>
       <c r="C41" t="n">
-        <v>0.267834</v>
+        <v>0.13188</v>
       </c>
       <c r="D41" t="n">
-        <v>0.274642</v>
+        <v>0.142393</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.302332</v>
+        <v>0.150001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.268416</v>
+        <v>0.1327</v>
       </c>
       <c r="D42" t="n">
-        <v>0.276106</v>
+        <v>0.142646</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.304076</v>
+        <v>0.149705</v>
       </c>
       <c r="C43" t="n">
-        <v>0.270223</v>
+        <v>0.133496</v>
       </c>
       <c r="D43" t="n">
-        <v>0.276763</v>
+        <v>0.143955</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.30239</v>
+        <v>0.152199</v>
       </c>
       <c r="C44" t="n">
-        <v>0.270721</v>
+        <v>0.134535</v>
       </c>
       <c r="D44" t="n">
-        <v>0.27758</v>
+        <v>0.144387</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.306497</v>
+        <v>0.151844</v>
       </c>
       <c r="C45" t="n">
-        <v>0.271208</v>
+        <v>0.135849</v>
       </c>
       <c r="D45" t="n">
-        <v>0.278902</v>
+        <v>0.145303</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.304324</v>
+        <v>0.151528</v>
       </c>
       <c r="C46" t="n">
-        <v>0.274011</v>
+        <v>0.136423</v>
       </c>
       <c r="D46" t="n">
-        <v>0.280855</v>
+        <v>0.146583</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.305062</v>
+        <v>0.151866</v>
       </c>
       <c r="C47" t="n">
-        <v>0.275341</v>
+        <v>0.137738</v>
       </c>
       <c r="D47" t="n">
-        <v>0.282527</v>
+        <v>0.149186</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.306529</v>
+        <v>0.152533</v>
       </c>
       <c r="C48" t="n">
-        <v>0.276458</v>
+        <v>0.139352</v>
       </c>
       <c r="D48" t="n">
-        <v>0.284942</v>
+        <v>0.150613</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.309134</v>
+        <v>0.152959</v>
       </c>
       <c r="C49" t="n">
-        <v>0.279214</v>
+        <v>0.142065</v>
       </c>
       <c r="D49" t="n">
-        <v>0.288441</v>
+        <v>0.154475</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.307873</v>
+        <v>0.155048</v>
       </c>
       <c r="C50" t="n">
-        <v>0.282525</v>
+        <v>0.145231</v>
       </c>
       <c r="D50" t="n">
-        <v>0.293566</v>
+        <v>0.159695</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.310125</v>
+        <v>0.158562</v>
       </c>
       <c r="C51" t="n">
-        <v>0.287854</v>
+        <v>0.149567</v>
       </c>
       <c r="D51" t="n">
-        <v>0.285</v>
+        <v>0.147754</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.315869</v>
+        <v>0.16406</v>
       </c>
       <c r="C52" t="n">
-        <v>0.294192</v>
+        <v>0.156642</v>
       </c>
       <c r="D52" t="n">
-        <v>0.286494</v>
+        <v>0.148056</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.330077</v>
+        <v>0.162258</v>
       </c>
       <c r="C53" t="n">
-        <v>0.281813</v>
+        <v>0.138106</v>
       </c>
       <c r="D53" t="n">
-        <v>0.287316</v>
+        <v>0.146726</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.328666</v>
+        <v>0.163742</v>
       </c>
       <c r="C54" t="n">
-        <v>0.282779</v>
+        <v>0.13855</v>
       </c>
       <c r="D54" t="n">
-        <v>0.288276</v>
+        <v>0.148162</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.328659</v>
+        <v>0.164932</v>
       </c>
       <c r="C55" t="n">
-        <v>0.283281</v>
+        <v>0.139354</v>
       </c>
       <c r="D55" t="n">
-        <v>0.286679</v>
+        <v>0.149472</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.330158</v>
+        <v>0.165616</v>
       </c>
       <c r="C56" t="n">
-        <v>0.28439</v>
+        <v>0.140138</v>
       </c>
       <c r="D56" t="n">
-        <v>0.288112</v>
+        <v>0.149079</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.329742</v>
+        <v>0.16541</v>
       </c>
       <c r="C57" t="n">
-        <v>0.285424</v>
+        <v>0.140536</v>
       </c>
       <c r="D57" t="n">
-        <v>0.288763</v>
+        <v>0.149458</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.330096</v>
+        <v>0.165418</v>
       </c>
       <c r="C58" t="n">
-        <v>0.287167</v>
+        <v>0.142008</v>
       </c>
       <c r="D58" t="n">
-        <v>0.29235</v>
+        <v>0.150876</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.330377</v>
+        <v>0.166168</v>
       </c>
       <c r="C59" t="n">
-        <v>0.287872</v>
+        <v>0.14275</v>
       </c>
       <c r="D59" t="n">
-        <v>0.291681</v>
+        <v>0.151944</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.330234</v>
+        <v>0.166905</v>
       </c>
       <c r="C60" t="n">
-        <v>0.289086</v>
+        <v>0.143943</v>
       </c>
       <c r="D60" t="n">
-        <v>0.292825</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.331661</v>
+        <v>0.167144</v>
       </c>
       <c r="C61" t="n">
-        <v>0.290692</v>
+        <v>0.145227</v>
       </c>
       <c r="D61" t="n">
-        <v>0.294357</v>
+        <v>0.155473</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.331478</v>
+        <v>0.167422</v>
       </c>
       <c r="C62" t="n">
-        <v>0.292889</v>
+        <v>0.147113</v>
       </c>
       <c r="D62" t="n">
-        <v>0.298983</v>
+        <v>0.157636</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.332831</v>
+        <v>0.168462</v>
       </c>
       <c r="C63" t="n">
-        <v>0.295369</v>
+        <v>0.148967</v>
       </c>
       <c r="D63" t="n">
-        <v>0.300451</v>
+        <v>0.160819</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.33631</v>
+        <v>0.171054</v>
       </c>
       <c r="C64" t="n">
-        <v>0.299011</v>
+        <v>0.152347</v>
       </c>
       <c r="D64" t="n">
-        <v>0.30586</v>
+        <v>0.166043</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.337491</v>
+        <v>0.173549</v>
       </c>
       <c r="C65" t="n">
-        <v>0.303202</v>
+        <v>0.156774</v>
       </c>
       <c r="D65" t="n">
-        <v>0.312595</v>
+        <v>0.172085</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.34284</v>
+        <v>0.178911</v>
       </c>
       <c r="C66" t="n">
-        <v>0.310032</v>
+        <v>0.163886</v>
       </c>
       <c r="D66" t="n">
-        <v>0.294996</v>
+        <v>0.152507</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.347814</v>
+        <v>0.173579</v>
       </c>
       <c r="C67" t="n">
-        <v>0.293113</v>
+        <v>0.143561</v>
       </c>
       <c r="D67" t="n">
-        <v>0.294045</v>
+        <v>0.151481</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.348459</v>
+        <v>0.174313</v>
       </c>
       <c r="C68" t="n">
-        <v>0.293965</v>
+        <v>0.14452</v>
       </c>
       <c r="D68" t="n">
-        <v>0.293933</v>
+        <v>0.152064</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.34836</v>
+        <v>0.174655</v>
       </c>
       <c r="C69" t="n">
-        <v>0.295325</v>
+        <v>0.145173</v>
       </c>
       <c r="D69" t="n">
-        <v>0.294861</v>
+        <v>0.152661</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.348458</v>
+        <v>0.174485</v>
       </c>
       <c r="C70" t="n">
-        <v>0.294815</v>
+        <v>0.145818</v>
       </c>
       <c r="D70" t="n">
-        <v>0.294976</v>
+        <v>0.153162</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.348296</v>
+        <v>0.175341</v>
       </c>
       <c r="C71" t="n">
-        <v>0.296891</v>
+        <v>0.147143</v>
       </c>
       <c r="D71" t="n">
-        <v>0.297396</v>
+        <v>0.154077</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.349211</v>
+        <v>0.175345</v>
       </c>
       <c r="C72" t="n">
-        <v>0.297865</v>
+        <v>0.147567</v>
       </c>
       <c r="D72" t="n">
-        <v>0.297975</v>
+        <v>0.154228</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.349507</v>
+        <v>0.175551</v>
       </c>
       <c r="C73" t="n">
-        <v>0.299263</v>
+        <v>0.148514</v>
       </c>
       <c r="D73" t="n">
-        <v>0.298721</v>
+        <v>0.155331</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.350089</v>
+        <v>0.176623</v>
       </c>
       <c r="C74" t="n">
-        <v>0.300281</v>
+        <v>0.149465</v>
       </c>
       <c r="D74" t="n">
-        <v>0.301569</v>
+        <v>0.156833</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.350283</v>
+        <v>0.1767</v>
       </c>
       <c r="C75" t="n">
-        <v>0.30201</v>
+        <v>0.149962</v>
       </c>
       <c r="D75" t="n">
-        <v>0.302002</v>
+        <v>0.158311</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.351089</v>
+        <v>0.177822</v>
       </c>
       <c r="C76" t="n">
-        <v>0.301978</v>
+        <v>0.152546</v>
       </c>
       <c r="D76" t="n">
-        <v>0.304618</v>
+        <v>0.16074</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.352196</v>
+        <v>0.178548</v>
       </c>
       <c r="C77" t="n">
-        <v>0.306275</v>
+        <v>0.154881</v>
       </c>
       <c r="D77" t="n">
-        <v>0.307614</v>
+        <v>0.163424</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.354465</v>
+        <v>0.180493</v>
       </c>
       <c r="C78" t="n">
-        <v>0.310132</v>
+        <v>0.157713</v>
       </c>
       <c r="D78" t="n">
-        <v>0.312667</v>
+        <v>0.168315</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.355666</v>
+        <v>0.182901</v>
       </c>
       <c r="C79" t="n">
-        <v>0.314636</v>
+        <v>0.160364</v>
       </c>
       <c r="D79" t="n">
-        <v>0.319899</v>
+        <v>0.17488</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.360652</v>
+        <v>0.186645</v>
       </c>
       <c r="C80" t="n">
-        <v>0.319908</v>
+        <v>0.167051</v>
       </c>
       <c r="D80" t="n">
-        <v>0.305092</v>
+        <v>0.157536</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.372263</v>
+        <v>0.189666</v>
       </c>
       <c r="C81" t="n">
-        <v>0.297737</v>
+        <v>0.146734</v>
       </c>
       <c r="D81" t="n">
-        <v>0.30741</v>
+        <v>0.159782</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.372223</v>
+        <v>0.189534</v>
       </c>
       <c r="C82" t="n">
-        <v>0.29744</v>
+        <v>0.15119</v>
       </c>
       <c r="D82" t="n">
-        <v>0.306841</v>
+        <v>0.162233</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.371288</v>
+        <v>0.192906</v>
       </c>
       <c r="C83" t="n">
-        <v>0.301287</v>
+        <v>0.147205</v>
       </c>
       <c r="D83" t="n">
-        <v>0.313418</v>
+        <v>0.160532</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.373462</v>
+        <v>0.189064</v>
       </c>
       <c r="C84" t="n">
-        <v>0.29971</v>
+        <v>0.15076</v>
       </c>
       <c r="D84" t="n">
-        <v>0.309676</v>
+        <v>0.163133</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.374801</v>
+        <v>0.192253</v>
       </c>
       <c r="C85" t="n">
-        <v>0.301449</v>
+        <v>0.148043</v>
       </c>
       <c r="D85" t="n">
-        <v>0.308799</v>
+        <v>0.16207</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.374063</v>
+        <v>0.189638</v>
       </c>
       <c r="C86" t="n">
-        <v>0.310629</v>
+        <v>0.150953</v>
       </c>
       <c r="D86" t="n">
-        <v>0.314641</v>
+        <v>0.163087</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.376564</v>
+        <v>0.190583</v>
       </c>
       <c r="C87" t="n">
-        <v>0.304074</v>
+        <v>0.152445</v>
       </c>
       <c r="D87" t="n">
-        <v>0.312761</v>
+        <v>0.163137</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.374035</v>
+        <v>0.190181</v>
       </c>
       <c r="C88" t="n">
-        <v>0.309536</v>
+        <v>0.15379</v>
       </c>
       <c r="D88" t="n">
-        <v>0.319275</v>
+        <v>0.163598</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.376469</v>
+        <v>0.191132</v>
       </c>
       <c r="C89" t="n">
-        <v>0.306644</v>
+        <v>0.155337</v>
       </c>
       <c r="D89" t="n">
-        <v>0.316332</v>
+        <v>0.165943</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.373461</v>
+        <v>0.190309</v>
       </c>
       <c r="C90" t="n">
-        <v>0.305236</v>
+        <v>0.155531</v>
       </c>
       <c r="D90" t="n">
-        <v>0.318259</v>
+        <v>0.168196</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.376827</v>
+        <v>0.192763</v>
       </c>
       <c r="C91" t="n">
-        <v>0.30502</v>
+        <v>0.160605</v>
       </c>
       <c r="D91" t="n">
-        <v>0.318569</v>
+        <v>0.173389</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.374977</v>
+        <v>0.195017</v>
       </c>
       <c r="C92" t="n">
-        <v>0.313311</v>
+        <v>0.160737</v>
       </c>
       <c r="D92" t="n">
-        <v>0.325763</v>
+        <v>0.174791</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.380751</v>
+        <v>0.197389</v>
       </c>
       <c r="C93" t="n">
-        <v>0.315771</v>
+        <v>0.168155</v>
       </c>
       <c r="D93" t="n">
-        <v>0.329863</v>
+        <v>0.186955</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.382249</v>
+        <v>0.200469</v>
       </c>
       <c r="C94" t="n">
-        <v>0.321699</v>
+        <v>0.170062</v>
       </c>
       <c r="D94" t="n">
-        <v>0.458682</v>
+        <v>0.27686</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.553612</v>
+        <v>0.316439</v>
       </c>
       <c r="C95" t="n">
-        <v>0.472318</v>
+        <v>0.268802</v>
       </c>
       <c r="D95" t="n">
-        <v>0.466689</v>
+        <v>0.279203</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.555038</v>
+        <v>0.317102</v>
       </c>
       <c r="C96" t="n">
-        <v>0.472791</v>
+        <v>0.266538</v>
       </c>
       <c r="D96" t="n">
-        <v>0.453504</v>
+        <v>0.274525</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.555627</v>
+        <v>0.31521</v>
       </c>
       <c r="C97" t="n">
-        <v>0.470125</v>
+        <v>0.27058</v>
       </c>
       <c r="D97" t="n">
-        <v>0.458379</v>
+        <v>0.280608</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.552629</v>
+        <v>0.31585</v>
       </c>
       <c r="C98" t="n">
-        <v>0.469366</v>
+        <v>0.267635</v>
       </c>
       <c r="D98" t="n">
-        <v>0.457111</v>
+        <v>0.276486</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.549224</v>
+        <v>0.314242</v>
       </c>
       <c r="C99" t="n">
-        <v>0.469253</v>
+        <v>0.270715</v>
       </c>
       <c r="D99" t="n">
-        <v>0.454091</v>
+        <v>0.282402</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.551941</v>
+        <v>0.315492</v>
       </c>
       <c r="C100" t="n">
-        <v>0.466491</v>
+        <v>0.270041</v>
       </c>
       <c r="D100" t="n">
-        <v>0.455175</v>
+        <v>0.27774</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.548683</v>
+        <v>0.316088</v>
       </c>
       <c r="C101" t="n">
-        <v>0.466993</v>
+        <v>0.271435</v>
       </c>
       <c r="D101" t="n">
-        <v>0.456559</v>
+        <v>0.28369</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.551738</v>
+        <v>0.315741</v>
       </c>
       <c r="C102" t="n">
-        <v>0.466221</v>
+        <v>0.271603</v>
       </c>
       <c r="D102" t="n">
-        <v>0.449687</v>
+        <v>0.280463</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5474290000000001</v>
+        <v>0.31556</v>
       </c>
       <c r="C103" t="n">
-        <v>0.471059</v>
+        <v>0.271754</v>
       </c>
       <c r="D103" t="n">
-        <v>0.453085</v>
+        <v>0.284098</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.550359</v>
+        <v>0.316468</v>
       </c>
       <c r="C104" t="n">
-        <v>0.469606</v>
+        <v>0.273557</v>
       </c>
       <c r="D104" t="n">
-        <v>0.457158</v>
+        <v>0.283195</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.547847</v>
+        <v>0.317986</v>
       </c>
       <c r="C105" t="n">
-        <v>0.476636</v>
+        <v>0.277445</v>
       </c>
       <c r="D105" t="n">
-        <v>0.45918</v>
+        <v>0.290783</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.547003</v>
+        <v>0.317195</v>
       </c>
       <c r="C106" t="n">
-        <v>0.478813</v>
+        <v>0.277197</v>
       </c>
       <c r="D106" t="n">
-        <v>0.467179</v>
+        <v>0.287255</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.544754</v>
+        <v>0.319075</v>
       </c>
       <c r="C107" t="n">
-        <v>0.483242</v>
+        <v>0.283042</v>
       </c>
       <c r="D107" t="n">
-        <v>0.466417</v>
+        <v>0.298064</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.551349</v>
+        <v>0.320908</v>
       </c>
       <c r="C108" t="n">
-        <v>0.487181</v>
+        <v>0.285601</v>
       </c>
       <c r="D108" t="n">
-        <v>0.722832</v>
+        <v>0.445087</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.555702</v>
+        <v>0.3215</v>
       </c>
       <c r="C109" t="n">
-        <v>0.494669</v>
+        <v>0.292445</v>
       </c>
       <c r="D109" t="n">
-        <v>0.7244119999999999</v>
+        <v>0.444766</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.849617</v>
+        <v>0.456652</v>
       </c>
       <c r="C110" t="n">
-        <v>0.722306</v>
+        <v>0.383808</v>
       </c>
       <c r="D110" t="n">
-        <v>0.724988</v>
+        <v>0.446285</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.85002</v>
+        <v>0.457454</v>
       </c>
       <c r="C111" t="n">
-        <v>0.722579</v>
+        <v>0.384225</v>
       </c>
       <c r="D111" t="n">
-        <v>0.726555</v>
+        <v>0.446864</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.850426</v>
+        <v>0.455928</v>
       </c>
       <c r="C112" t="n">
-        <v>0.723197</v>
+        <v>0.385042</v>
       </c>
       <c r="D112" t="n">
-        <v>0.727124</v>
+        <v>0.448502</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.849047</v>
+        <v>0.456307</v>
       </c>
       <c r="C113" t="n">
-        <v>0.72453</v>
+        <v>0.385517</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7275470000000001</v>
+        <v>0.448336</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.848599</v>
+        <v>0.457243</v>
       </c>
       <c r="C114" t="n">
-        <v>0.726335</v>
+        <v>0.387056</v>
       </c>
       <c r="D114" t="n">
-        <v>0.729298</v>
+        <v>0.450307</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.847262</v>
+        <v>0.455387</v>
       </c>
       <c r="C115" t="n">
-        <v>0.7269370000000001</v>
+        <v>0.387735</v>
       </c>
       <c r="D115" t="n">
-        <v>0.732232</v>
+        <v>0.451442</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.852518</v>
+        <v>0.45753</v>
       </c>
       <c r="C116" t="n">
-        <v>0.728873</v>
+        <v>0.389058</v>
       </c>
       <c r="D116" t="n">
-        <v>0.732984</v>
+        <v>0.452747</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.84958</v>
+        <v>0.457187</v>
       </c>
       <c r="C117" t="n">
-        <v>0.729718</v>
+        <v>0.391044</v>
       </c>
       <c r="D117" t="n">
-        <v>0.734726</v>
+        <v>0.454141</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.848997</v>
+        <v>0.45642</v>
       </c>
       <c r="C118" t="n">
-        <v>0.7329639999999999</v>
+        <v>0.393552</v>
       </c>
       <c r="D118" t="n">
-        <v>0.738264</v>
+        <v>0.456697</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.849886</v>
+        <v>0.456348</v>
       </c>
       <c r="C119" t="n">
-        <v>0.73573</v>
+        <v>0.395865</v>
       </c>
       <c r="D119" t="n">
-        <v>0.741057</v>
+        <v>0.459647</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.8492459999999999</v>
+        <v>0.459526</v>
       </c>
       <c r="C120" t="n">
-        <v>0.7391259999999999</v>
+        <v>0.399867</v>
       </c>
       <c r="D120" t="n">
-        <v>0.746041</v>
+        <v>0.46368</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.851084</v>
+        <v>0.461161</v>
       </c>
       <c r="C121" t="n">
-        <v>0.744435</v>
+        <v>0.403417</v>
       </c>
       <c r="D121" t="n">
-        <v>0.7515500000000001</v>
+        <v>0.468938</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.851422</v>
+        <v>0.462371</v>
       </c>
       <c r="C122" t="n">
-        <v>0.749669</v>
+        <v>0.409682</v>
       </c>
       <c r="D122" t="n">
-        <v>0.759091</v>
+        <v>0.476346</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.851433</v>
+        <v>0.465225</v>
       </c>
       <c r="C123" t="n">
-        <v>0.759208</v>
+        <v>0.418394</v>
       </c>
       <c r="D123" t="n">
-        <v>0.831048</v>
+        <v>0.504887</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.10819</v>
+        <v>0.5848139999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>0.821902</v>
+        <v>0.423161</v>
       </c>
       <c r="D124" t="n">
-        <v>0.833365</v>
+        <v>0.505612</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.10681</v>
+        <v>0.585512</v>
       </c>
       <c r="C125" t="n">
-        <v>0.822974</v>
+        <v>0.424286</v>
       </c>
       <c r="D125" t="n">
-        <v>0.833892</v>
+        <v>0.505844</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.10611</v>
+        <v>0.5838370000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>0.823357</v>
+        <v>0.426016</v>
       </c>
       <c r="D126" t="n">
-        <v>0.835154</v>
+        <v>0.507856</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.1063</v>
+        <v>0.584512</v>
       </c>
       <c r="C127" t="n">
-        <v>0.825214</v>
+        <v>0.426249</v>
       </c>
       <c r="D127" t="n">
-        <v>0.836716</v>
+        <v>0.509459</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.10584</v>
+        <v>0.585622</v>
       </c>
       <c r="C128" t="n">
-        <v>0.827056</v>
+        <v>0.427608</v>
       </c>
       <c r="D128" t="n">
-        <v>0.838112</v>
+        <v>0.510204</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.10482</v>
+        <v>0.583399</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8285979999999999</v>
+        <v>0.428771</v>
       </c>
       <c r="D129" t="n">
-        <v>0.840809</v>
+        <v>0.512131</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.10687</v>
+        <v>0.583494</v>
       </c>
       <c r="C130" t="n">
-        <v>0.831492</v>
+        <v>0.432243</v>
       </c>
       <c r="D130" t="n">
-        <v>0.843253</v>
+        <v>0.514705</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.11039</v>
+        <v>0.584677</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8333930000000001</v>
+        <v>0.433565</v>
       </c>
       <c r="D131" t="n">
-        <v>0.8451610000000001</v>
+        <v>0.516261</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.10288</v>
+        <v>0.585006</v>
       </c>
       <c r="C132" t="n">
-        <v>0.836582</v>
+        <v>0.43659</v>
       </c>
       <c r="D132" t="n">
-        <v>0.849341</v>
+        <v>0.519795</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.11052</v>
+        <v>0.586747</v>
       </c>
       <c r="C133" t="n">
-        <v>0.841614</v>
+        <v>0.440592</v>
       </c>
       <c r="D133" t="n">
-        <v>0.854606</v>
+        <v>0.524759</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.10711</v>
+        <v>0.587691</v>
       </c>
       <c r="C134" t="n">
-        <v>0.84644</v>
+        <v>0.444626</v>
       </c>
       <c r="D134" t="n">
-        <v>0.8597900000000001</v>
+        <v>0.529234</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.1084</v>
+        <v>0.587582</v>
       </c>
       <c r="C135" t="n">
-        <v>0.850972</v>
+        <v>0.449954</v>
       </c>
       <c r="D135" t="n">
-        <v>0.868855</v>
+        <v>0.536334</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.10835</v>
+        <v>0.589761</v>
       </c>
       <c r="C136" t="n">
-        <v>0.860229</v>
+        <v>0.457266</v>
       </c>
       <c r="D136" t="n">
-        <v>0.879996</v>
+        <v>0.5467340000000001</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.10939</v>
+        <v>0.5939759999999999</v>
       </c>
       <c r="C137" t="n">
-        <v>0.870678</v>
+        <v>0.467854</v>
       </c>
       <c r="D137" t="n">
-        <v>0.876163</v>
+        <v>0.528999</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.32746</v>
+        <v>0.685273</v>
       </c>
       <c r="C138" t="n">
-        <v>0.863885</v>
+        <v>0.444164</v>
       </c>
       <c r="D138" t="n">
-        <v>0.877123</v>
+        <v>0.53008</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.32853</v>
+        <v>0.68444</v>
       </c>
       <c r="C139" t="n">
-        <v>0.864167</v>
+        <v>0.44533</v>
       </c>
       <c r="D139" t="n">
-        <v>0.878545</v>
+        <v>0.531564</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.32965</v>
+        <v>0.684351</v>
       </c>
       <c r="C140" t="n">
-        <v>0.8681</v>
+        <v>0.446554</v>
       </c>
       <c r="D140" t="n">
-        <v>0.880839</v>
+        <v>0.533358</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.32769</v>
+        <v>0.6846680000000001</v>
       </c>
       <c r="C141" t="n">
-        <v>0.867691</v>
+        <v>0.447651</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8815460000000001</v>
+        <v>0.534466</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.3268</v>
+        <v>0.6852549999999999</v>
       </c>
       <c r="C142" t="n">
-        <v>0.870025</v>
+        <v>0.44938</v>
       </c>
       <c r="D142" t="n">
-        <v>0.883548</v>
+        <v>0.536202</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.32839</v>
+        <v>0.684775</v>
       </c>
       <c r="C143" t="n">
-        <v>0.871995</v>
+        <v>0.451227</v>
       </c>
       <c r="D143" t="n">
-        <v>0.885621</v>
+        <v>0.538296</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.102416</v>
+        <v>0.101922</v>
       </c>
       <c r="C2" t="n">
-        <v>0.102691</v>
+        <v>0.104695</v>
       </c>
       <c r="D2" t="n">
-        <v>0.109346</v>
+        <v>0.11378</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.103175</v>
+        <v>0.102697</v>
       </c>
       <c r="C3" t="n">
-        <v>0.104341</v>
+        <v>0.106071</v>
       </c>
       <c r="D3" t="n">
-        <v>0.110773</v>
+        <v>0.114669</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.107204</v>
+        <v>0.106468</v>
       </c>
       <c r="C4" t="n">
-        <v>0.108282</v>
+        <v>0.109672</v>
       </c>
       <c r="D4" t="n">
-        <v>0.115924</v>
+        <v>0.119034</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.110081</v>
+        <v>0.109954</v>
       </c>
       <c r="C5" t="n">
-        <v>0.112039</v>
+        <v>0.113761</v>
       </c>
       <c r="D5" t="n">
-        <v>0.121</v>
+        <v>0.124325</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.111381</v>
+        <v>0.11173</v>
       </c>
       <c r="C6" t="n">
-        <v>0.114396</v>
+        <v>0.115536</v>
       </c>
       <c r="D6" t="n">
-        <v>0.123753</v>
+        <v>0.127313</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.11479</v>
+        <v>0.115478</v>
       </c>
       <c r="C7" t="n">
-        <v>0.118746</v>
+        <v>0.120564</v>
       </c>
       <c r="D7" t="n">
-        <v>0.130257</v>
+        <v>0.133378</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.119075</v>
+        <v>0.120142</v>
       </c>
       <c r="C8" t="n">
-        <v>0.124282</v>
+        <v>0.124788</v>
       </c>
       <c r="D8" t="n">
-        <v>0.138696</v>
+        <v>0.141337</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.126056</v>
+        <v>0.127351</v>
       </c>
       <c r="C9" t="n">
-        <v>0.133513</v>
+        <v>0.13336</v>
       </c>
       <c r="D9" t="n">
-        <v>0.117294</v>
+        <v>0.122985</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.116953</v>
+        <v>0.115604</v>
       </c>
       <c r="C10" t="n">
-        <v>0.112616</v>
+        <v>0.114667</v>
       </c>
       <c r="D10" t="n">
-        <v>0.117967</v>
+        <v>0.123525</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.115823</v>
+        <v>0.116247</v>
       </c>
       <c r="C11" t="n">
-        <v>0.11223</v>
+        <v>0.115423</v>
       </c>
       <c r="D11" t="n">
-        <v>0.117679</v>
+        <v>0.123978</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.117962</v>
+        <v>0.117801</v>
       </c>
       <c r="C12" t="n">
-        <v>0.11432</v>
+        <v>0.117001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.119513</v>
+        <v>0.125845</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.120262</v>
+        <v>0.117749</v>
       </c>
       <c r="C13" t="n">
-        <v>0.115365</v>
+        <v>0.116711</v>
       </c>
       <c r="D13" t="n">
-        <v>0.119961</v>
+        <v>0.12562</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.121828</v>
+        <v>0.1199</v>
       </c>
       <c r="C14" t="n">
-        <v>0.116565</v>
+        <v>0.118772</v>
       </c>
       <c r="D14" t="n">
-        <v>0.121678</v>
+        <v>0.127011</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1218</v>
+        <v>0.119865</v>
       </c>
       <c r="C15" t="n">
-        <v>0.117727</v>
+        <v>0.119083</v>
       </c>
       <c r="D15" t="n">
-        <v>0.12268</v>
+        <v>0.127912</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.12095</v>
+        <v>0.120484</v>
       </c>
       <c r="C16" t="n">
-        <v>0.118234</v>
+        <v>0.120172</v>
       </c>
       <c r="D16" t="n">
-        <v>0.123618</v>
+        <v>0.128994</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.121436</v>
+        <v>0.121693</v>
       </c>
       <c r="C17" t="n">
-        <v>0.119161</v>
+        <v>0.121526</v>
       </c>
       <c r="D17" t="n">
-        <v>0.125333</v>
+        <v>0.130685</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.121658</v>
+        <v>0.121973</v>
       </c>
       <c r="C18" t="n">
-        <v>0.120599</v>
+        <v>0.122534</v>
       </c>
       <c r="D18" t="n">
-        <v>0.127026</v>
+        <v>0.13233</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.125067</v>
+        <v>0.124686</v>
       </c>
       <c r="C19" t="n">
-        <v>0.123902</v>
+        <v>0.126344</v>
       </c>
       <c r="D19" t="n">
-        <v>0.130327</v>
+        <v>0.135872</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.126103</v>
+        <v>0.124947</v>
       </c>
       <c r="C20" t="n">
-        <v>0.125342</v>
+        <v>0.127308</v>
       </c>
       <c r="D20" t="n">
-        <v>0.13253</v>
+        <v>0.137561</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.127432</v>
+        <v>0.127244</v>
       </c>
       <c r="C21" t="n">
-        <v>0.128868</v>
+        <v>0.130082</v>
       </c>
       <c r="D21" t="n">
-        <v>0.137442</v>
+        <v>0.142557</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.130312</v>
+        <v>0.130858</v>
       </c>
       <c r="C22" t="n">
-        <v>0.134273</v>
+        <v>0.134525</v>
       </c>
       <c r="D22" t="n">
-        <v>0.145006</v>
+        <v>0.149087</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.133407</v>
+        <v>0.136459</v>
       </c>
       <c r="C23" t="n">
-        <v>0.139415</v>
+        <v>0.141101</v>
       </c>
       <c r="D23" t="n">
-        <v>0.128598</v>
+        <v>0.138694</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133557</v>
+        <v>0.132088</v>
       </c>
       <c r="C24" t="n">
-        <v>0.11938</v>
+        <v>0.129065</v>
       </c>
       <c r="D24" t="n">
-        <v>0.128743</v>
+        <v>0.139122</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.133402</v>
+        <v>0.132301</v>
       </c>
       <c r="C25" t="n">
-        <v>0.119353</v>
+        <v>0.12921</v>
       </c>
       <c r="D25" t="n">
-        <v>0.129347</v>
+        <v>0.138598</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.134525</v>
+        <v>0.132931</v>
       </c>
       <c r="C26" t="n">
-        <v>0.120623</v>
+        <v>0.129958</v>
       </c>
       <c r="D26" t="n">
-        <v>0.129482</v>
+        <v>0.137924</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135304</v>
+        <v>0.132921</v>
       </c>
       <c r="C27" t="n">
-        <v>0.121308</v>
+        <v>0.129542</v>
       </c>
       <c r="D27" t="n">
-        <v>0.130862</v>
+        <v>0.138277</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.135847</v>
+        <v>0.13318</v>
       </c>
       <c r="C28" t="n">
-        <v>0.122458</v>
+        <v>0.131156</v>
       </c>
       <c r="D28" t="n">
-        <v>0.132408</v>
+        <v>0.138793</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.135315</v>
+        <v>0.133629</v>
       </c>
       <c r="C29" t="n">
-        <v>0.12324</v>
+        <v>0.131314</v>
       </c>
       <c r="D29" t="n">
-        <v>0.132811</v>
+        <v>0.139298</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.136804</v>
+        <v>0.134076</v>
       </c>
       <c r="C30" t="n">
-        <v>0.124203</v>
+        <v>0.131635</v>
       </c>
       <c r="D30" t="n">
-        <v>0.133236</v>
+        <v>0.139758</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.137528</v>
+        <v>0.135073</v>
       </c>
       <c r="C31" t="n">
-        <v>0.124942</v>
+        <v>0.133347</v>
       </c>
       <c r="D31" t="n">
-        <v>0.134614</v>
+        <v>0.140838</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.137894</v>
+        <v>0.135782</v>
       </c>
       <c r="C32" t="n">
-        <v>0.12619</v>
+        <v>0.134321</v>
       </c>
       <c r="D32" t="n">
-        <v>0.136593</v>
+        <v>0.142342</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.138649</v>
+        <v>0.137462</v>
       </c>
       <c r="C33" t="n">
-        <v>0.127734</v>
+        <v>0.135824</v>
       </c>
       <c r="D33" t="n">
-        <v>0.137681</v>
+        <v>0.144432</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138718</v>
+        <v>0.137824</v>
       </c>
       <c r="C34" t="n">
-        <v>0.129703</v>
+        <v>0.137635</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1401</v>
+        <v>0.146604</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.140697</v>
+        <v>0.139031</v>
       </c>
       <c r="C35" t="n">
-        <v>0.131552</v>
+        <v>0.140004</v>
       </c>
       <c r="D35" t="n">
-        <v>0.143887</v>
+        <v>0.150693</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.141718</v>
+        <v>0.141245</v>
       </c>
       <c r="C36" t="n">
-        <v>0.135515</v>
+        <v>0.142942</v>
       </c>
       <c r="D36" t="n">
-        <v>0.150242</v>
+        <v>0.155998</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.145164</v>
+        <v>0.14637</v>
       </c>
       <c r="C37" t="n">
-        <v>0.140621</v>
+        <v>0.147498</v>
       </c>
       <c r="D37" t="n">
-        <v>0.140634</v>
+        <v>0.156172</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.150248</v>
+        <v>0.148761</v>
       </c>
       <c r="C38" t="n">
-        <v>0.130196</v>
+        <v>0.144299</v>
       </c>
       <c r="D38" t="n">
-        <v>0.140149</v>
+        <v>0.155713</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.149318</v>
+        <v>0.149439</v>
       </c>
       <c r="C39" t="n">
-        <v>0.131146</v>
+        <v>0.145287</v>
       </c>
       <c r="D39" t="n">
-        <v>0.141296</v>
+        <v>0.156268</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.149352</v>
+        <v>0.149923</v>
       </c>
       <c r="C40" t="n">
-        <v>0.132252</v>
+        <v>0.146943</v>
       </c>
       <c r="D40" t="n">
-        <v>0.14218</v>
+        <v>0.157722</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.148677</v>
+        <v>0.149703</v>
       </c>
       <c r="C41" t="n">
-        <v>0.13188</v>
+        <v>0.146133</v>
       </c>
       <c r="D41" t="n">
-        <v>0.142393</v>
+        <v>0.157096</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.150001</v>
+        <v>0.150024</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1327</v>
+        <v>0.147941</v>
       </c>
       <c r="D42" t="n">
-        <v>0.142646</v>
+        <v>0.158686</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.149705</v>
+        <v>0.152141</v>
       </c>
       <c r="C43" t="n">
-        <v>0.133496</v>
+        <v>0.148024</v>
       </c>
       <c r="D43" t="n">
-        <v>0.143955</v>
+        <v>0.158048</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.152199</v>
+        <v>0.15101</v>
       </c>
       <c r="C44" t="n">
-        <v>0.134535</v>
+        <v>0.14763</v>
       </c>
       <c r="D44" t="n">
-        <v>0.144387</v>
+        <v>0.157708</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.151844</v>
+        <v>0.150116</v>
       </c>
       <c r="C45" t="n">
-        <v>0.135849</v>
+        <v>0.148661</v>
       </c>
       <c r="D45" t="n">
-        <v>0.145303</v>
+        <v>0.159412</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.151528</v>
+        <v>0.151447</v>
       </c>
       <c r="C46" t="n">
-        <v>0.136423</v>
+        <v>0.149602</v>
       </c>
       <c r="D46" t="n">
-        <v>0.146583</v>
+        <v>0.159711</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.151866</v>
+        <v>0.151462</v>
       </c>
       <c r="C47" t="n">
-        <v>0.137738</v>
+        <v>0.150173</v>
       </c>
       <c r="D47" t="n">
-        <v>0.149186</v>
+        <v>0.161208</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.152533</v>
+        <v>0.15254</v>
       </c>
       <c r="C48" t="n">
-        <v>0.139352</v>
+        <v>0.151793</v>
       </c>
       <c r="D48" t="n">
-        <v>0.150613</v>
+        <v>0.16276</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.152959</v>
+        <v>0.153688</v>
       </c>
       <c r="C49" t="n">
-        <v>0.142065</v>
+        <v>0.155695</v>
       </c>
       <c r="D49" t="n">
-        <v>0.154475</v>
+        <v>0.167485</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.155048</v>
+        <v>0.155784</v>
       </c>
       <c r="C50" t="n">
-        <v>0.145231</v>
+        <v>0.157782</v>
       </c>
       <c r="D50" t="n">
-        <v>0.159695</v>
+        <v>0.171115</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.158562</v>
+        <v>0.158428</v>
       </c>
       <c r="C51" t="n">
-        <v>0.149567</v>
+        <v>0.16253</v>
       </c>
       <c r="D51" t="n">
-        <v>0.147754</v>
+        <v>0.171344</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.16406</v>
+        <v>0.162575</v>
       </c>
       <c r="C52" t="n">
-        <v>0.156642</v>
+        <v>0.168403</v>
       </c>
       <c r="D52" t="n">
-        <v>0.148056</v>
+        <v>0.171464</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.162258</v>
+        <v>0.164413</v>
       </c>
       <c r="C53" t="n">
-        <v>0.138106</v>
+        <v>0.159682</v>
       </c>
       <c r="D53" t="n">
-        <v>0.146726</v>
+        <v>0.171142</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.163742</v>
+        <v>0.163129</v>
       </c>
       <c r="C54" t="n">
-        <v>0.13855</v>
+        <v>0.160334</v>
       </c>
       <c r="D54" t="n">
-        <v>0.148162</v>
+        <v>0.171038</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.164932</v>
+        <v>0.163826</v>
       </c>
       <c r="C55" t="n">
-        <v>0.139354</v>
+        <v>0.160014</v>
       </c>
       <c r="D55" t="n">
-        <v>0.149472</v>
+        <v>0.172419</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.165616</v>
+        <v>0.164243</v>
       </c>
       <c r="C56" t="n">
-        <v>0.140138</v>
+        <v>0.161131</v>
       </c>
       <c r="D56" t="n">
-        <v>0.149079</v>
+        <v>0.17265</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.16541</v>
+        <v>0.165363</v>
       </c>
       <c r="C57" t="n">
-        <v>0.140536</v>
+        <v>0.161139</v>
       </c>
       <c r="D57" t="n">
-        <v>0.149458</v>
+        <v>0.172787</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.165418</v>
+        <v>0.164294</v>
       </c>
       <c r="C58" t="n">
-        <v>0.142008</v>
+        <v>0.161433</v>
       </c>
       <c r="D58" t="n">
-        <v>0.150876</v>
+        <v>0.172647</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.166168</v>
+        <v>0.166213</v>
       </c>
       <c r="C59" t="n">
-        <v>0.14275</v>
+        <v>0.162452</v>
       </c>
       <c r="D59" t="n">
-        <v>0.151944</v>
+        <v>0.173998</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.166905</v>
+        <v>0.165828</v>
       </c>
       <c r="C60" t="n">
-        <v>0.143943</v>
+        <v>0.16363</v>
       </c>
       <c r="D60" t="n">
-        <v>0.154</v>
+        <v>0.175674</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.167144</v>
+        <v>0.166708</v>
       </c>
       <c r="C61" t="n">
-        <v>0.145227</v>
+        <v>0.165188</v>
       </c>
       <c r="D61" t="n">
-        <v>0.155473</v>
+        <v>0.176932</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.167422</v>
+        <v>0.167458</v>
       </c>
       <c r="C62" t="n">
-        <v>0.147113</v>
+        <v>0.165746</v>
       </c>
       <c r="D62" t="n">
-        <v>0.157636</v>
+        <v>0.177498</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.168462</v>
+        <v>0.168003</v>
       </c>
       <c r="C63" t="n">
-        <v>0.148967</v>
+        <v>0.167886</v>
       </c>
       <c r="D63" t="n">
-        <v>0.160819</v>
+        <v>0.180205</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.171054</v>
+        <v>0.170161</v>
       </c>
       <c r="C64" t="n">
-        <v>0.152347</v>
+        <v>0.170307</v>
       </c>
       <c r="D64" t="n">
-        <v>0.166043</v>
+        <v>0.18431</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.173549</v>
+        <v>0.173326</v>
       </c>
       <c r="C65" t="n">
-        <v>0.156774</v>
+        <v>0.174376</v>
       </c>
       <c r="D65" t="n">
-        <v>0.172085</v>
+        <v>0.190465</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.178911</v>
+        <v>0.178942</v>
       </c>
       <c r="C66" t="n">
-        <v>0.163886</v>
+        <v>0.180744</v>
       </c>
       <c r="D66" t="n">
-        <v>0.152507</v>
+        <v>0.180319</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.173579</v>
+        <v>0.173301</v>
       </c>
       <c r="C67" t="n">
-        <v>0.143561</v>
+        <v>0.170429</v>
       </c>
       <c r="D67" t="n">
-        <v>0.151481</v>
+        <v>0.180563</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.174313</v>
+        <v>0.174104</v>
       </c>
       <c r="C68" t="n">
-        <v>0.14452</v>
+        <v>0.168912</v>
       </c>
       <c r="D68" t="n">
-        <v>0.152064</v>
+        <v>0.180854</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.174655</v>
+        <v>0.174523</v>
       </c>
       <c r="C69" t="n">
-        <v>0.145173</v>
+        <v>0.169161</v>
       </c>
       <c r="D69" t="n">
-        <v>0.152661</v>
+        <v>0.18178</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.174485</v>
+        <v>0.174632</v>
       </c>
       <c r="C70" t="n">
-        <v>0.145818</v>
+        <v>0.170179</v>
       </c>
       <c r="D70" t="n">
-        <v>0.153162</v>
+        <v>0.182253</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.175341</v>
+        <v>0.175369</v>
       </c>
       <c r="C71" t="n">
-        <v>0.147143</v>
+        <v>0.170739</v>
       </c>
       <c r="D71" t="n">
-        <v>0.154077</v>
+        <v>0.182381</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.175345</v>
+        <v>0.175284</v>
       </c>
       <c r="C72" t="n">
-        <v>0.147567</v>
+        <v>0.171146</v>
       </c>
       <c r="D72" t="n">
-        <v>0.154228</v>
+        <v>0.182636</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.175551</v>
+        <v>0.175606</v>
       </c>
       <c r="C73" t="n">
-        <v>0.148514</v>
+        <v>0.171946</v>
       </c>
       <c r="D73" t="n">
-        <v>0.155331</v>
+        <v>0.183501</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.176623</v>
+        <v>0.176332</v>
       </c>
       <c r="C74" t="n">
-        <v>0.149465</v>
+        <v>0.172632</v>
       </c>
       <c r="D74" t="n">
-        <v>0.156833</v>
+        <v>0.184281</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1767</v>
+        <v>0.176312</v>
       </c>
       <c r="C75" t="n">
-        <v>0.149962</v>
+        <v>0.173184</v>
       </c>
       <c r="D75" t="n">
-        <v>0.158311</v>
+        <v>0.185568</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.177822</v>
+        <v>0.17765</v>
       </c>
       <c r="C76" t="n">
-        <v>0.152546</v>
+        <v>0.174569</v>
       </c>
       <c r="D76" t="n">
-        <v>0.16074</v>
+        <v>0.187046</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.178548</v>
+        <v>0.17875</v>
       </c>
       <c r="C77" t="n">
-        <v>0.154881</v>
+        <v>0.176297</v>
       </c>
       <c r="D77" t="n">
-        <v>0.163424</v>
+        <v>0.189248</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.180493</v>
+        <v>0.180233</v>
       </c>
       <c r="C78" t="n">
-        <v>0.157713</v>
+        <v>0.178998</v>
       </c>
       <c r="D78" t="n">
-        <v>0.168315</v>
+        <v>0.193191</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.182901</v>
+        <v>0.182851</v>
       </c>
       <c r="C79" t="n">
-        <v>0.160364</v>
+        <v>0.182672</v>
       </c>
       <c r="D79" t="n">
-        <v>0.17488</v>
+        <v>0.199122</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.186645</v>
+        <v>0.186485</v>
       </c>
       <c r="C80" t="n">
-        <v>0.167051</v>
+        <v>0.187655</v>
       </c>
       <c r="D80" t="n">
-        <v>0.157536</v>
+        <v>0.191573</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.189666</v>
+        <v>0.189421</v>
       </c>
       <c r="C81" t="n">
-        <v>0.146734</v>
+        <v>0.182849</v>
       </c>
       <c r="D81" t="n">
-        <v>0.159782</v>
+        <v>0.194289</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.189534</v>
+        <v>0.187099</v>
       </c>
       <c r="C82" t="n">
-        <v>0.15119</v>
+        <v>0.184132</v>
       </c>
       <c r="D82" t="n">
-        <v>0.162233</v>
+        <v>0.19471</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.192906</v>
+        <v>0.187391</v>
       </c>
       <c r="C83" t="n">
-        <v>0.147205</v>
+        <v>0.183179</v>
       </c>
       <c r="D83" t="n">
-        <v>0.160532</v>
+        <v>0.193603</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.189064</v>
+        <v>0.186937</v>
       </c>
       <c r="C84" t="n">
-        <v>0.15076</v>
+        <v>0.182337</v>
       </c>
       <c r="D84" t="n">
-        <v>0.163133</v>
+        <v>0.193255</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.192253</v>
+        <v>0.188111</v>
       </c>
       <c r="C85" t="n">
-        <v>0.148043</v>
+        <v>0.183991</v>
       </c>
       <c r="D85" t="n">
-        <v>0.16207</v>
+        <v>0.194288</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.189638</v>
+        <v>0.189572</v>
       </c>
       <c r="C86" t="n">
-        <v>0.150953</v>
+        <v>0.183037</v>
       </c>
       <c r="D86" t="n">
-        <v>0.163087</v>
+        <v>0.194967</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.190583</v>
+        <v>0.187698</v>
       </c>
       <c r="C87" t="n">
-        <v>0.152445</v>
+        <v>0.183413</v>
       </c>
       <c r="D87" t="n">
-        <v>0.163137</v>
+        <v>0.195068</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.190181</v>
+        <v>0.192041</v>
       </c>
       <c r="C88" t="n">
-        <v>0.15379</v>
+        <v>0.185999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.163598</v>
+        <v>0.198107</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.191132</v>
+        <v>0.190887</v>
       </c>
       <c r="C89" t="n">
-        <v>0.155337</v>
+        <v>0.18582</v>
       </c>
       <c r="D89" t="n">
-        <v>0.165943</v>
+        <v>0.196716</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.190309</v>
+        <v>0.189235</v>
       </c>
       <c r="C90" t="n">
-        <v>0.155531</v>
+        <v>0.187692</v>
       </c>
       <c r="D90" t="n">
-        <v>0.168196</v>
+        <v>0.197933</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.192763</v>
+        <v>0.191394</v>
       </c>
       <c r="C91" t="n">
-        <v>0.160605</v>
+        <v>0.188044</v>
       </c>
       <c r="D91" t="n">
-        <v>0.173389</v>
+        <v>0.200214</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.195017</v>
+        <v>0.19415</v>
       </c>
       <c r="C92" t="n">
-        <v>0.160737</v>
+        <v>0.191102</v>
       </c>
       <c r="D92" t="n">
-        <v>0.174791</v>
+        <v>0.203668</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.197389</v>
+        <v>0.193979</v>
       </c>
       <c r="C93" t="n">
-        <v>0.168155</v>
+        <v>0.193838</v>
       </c>
       <c r="D93" t="n">
-        <v>0.186955</v>
+        <v>0.209615</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.200469</v>
+        <v>0.198689</v>
       </c>
       <c r="C94" t="n">
-        <v>0.170062</v>
+        <v>0.198227</v>
       </c>
       <c r="D94" t="n">
-        <v>0.27686</v>
+        <v>0.302397</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.316439</v>
+        <v>0.317218</v>
       </c>
       <c r="C95" t="n">
-        <v>0.268802</v>
+        <v>0.304157</v>
       </c>
       <c r="D95" t="n">
-        <v>0.279203</v>
+        <v>0.30872</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.317102</v>
+        <v>0.316892</v>
       </c>
       <c r="C96" t="n">
-        <v>0.266538</v>
+        <v>0.302601</v>
       </c>
       <c r="D96" t="n">
-        <v>0.274525</v>
+        <v>0.306132</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.31521</v>
+        <v>0.312276</v>
       </c>
       <c r="C97" t="n">
-        <v>0.27058</v>
+        <v>0.30436</v>
       </c>
       <c r="D97" t="n">
-        <v>0.280608</v>
+        <v>0.308294</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.31585</v>
+        <v>0.315782</v>
       </c>
       <c r="C98" t="n">
-        <v>0.267635</v>
+        <v>0.301218</v>
       </c>
       <c r="D98" t="n">
-        <v>0.276486</v>
+        <v>0.305708</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.314242</v>
+        <v>0.311723</v>
       </c>
       <c r="C99" t="n">
-        <v>0.270715</v>
+        <v>0.305986</v>
       </c>
       <c r="D99" t="n">
-        <v>0.282402</v>
+        <v>0.306585</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.315492</v>
+        <v>0.31751</v>
       </c>
       <c r="C100" t="n">
-        <v>0.270041</v>
+        <v>0.300823</v>
       </c>
       <c r="D100" t="n">
-        <v>0.27774</v>
+        <v>0.305365</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.316088</v>
+        <v>0.313791</v>
       </c>
       <c r="C101" t="n">
-        <v>0.271435</v>
+        <v>0.304579</v>
       </c>
       <c r="D101" t="n">
-        <v>0.28369</v>
+        <v>0.309303</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.315741</v>
+        <v>0.316384</v>
       </c>
       <c r="C102" t="n">
-        <v>0.271603</v>
+        <v>0.303078</v>
       </c>
       <c r="D102" t="n">
-        <v>0.280463</v>
+        <v>0.303932</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.31556</v>
+        <v>0.315708</v>
       </c>
       <c r="C103" t="n">
-        <v>0.271754</v>
+        <v>0.306734</v>
       </c>
       <c r="D103" t="n">
-        <v>0.284098</v>
+        <v>0.30936</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.316468</v>
+        <v>0.319406</v>
       </c>
       <c r="C104" t="n">
-        <v>0.273557</v>
+        <v>0.304604</v>
       </c>
       <c r="D104" t="n">
-        <v>0.283195</v>
+        <v>0.304103</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.317986</v>
+        <v>0.316279</v>
       </c>
       <c r="C105" t="n">
-        <v>0.277445</v>
+        <v>0.307346</v>
       </c>
       <c r="D105" t="n">
-        <v>0.290783</v>
+        <v>0.310173</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.317195</v>
+        <v>0.319085</v>
       </c>
       <c r="C106" t="n">
-        <v>0.277197</v>
+        <v>0.307565</v>
       </c>
       <c r="D106" t="n">
-        <v>0.287255</v>
+        <v>0.310887</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.319075</v>
+        <v>0.317749</v>
       </c>
       <c r="C107" t="n">
-        <v>0.283042</v>
+        <v>0.308591</v>
       </c>
       <c r="D107" t="n">
-        <v>0.298064</v>
+        <v>0.314108</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.320908</v>
+        <v>0.32375</v>
       </c>
       <c r="C108" t="n">
-        <v>0.285601</v>
+        <v>0.312692</v>
       </c>
       <c r="D108" t="n">
-        <v>0.445087</v>
+        <v>0.48582</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.3215</v>
+        <v>0.322778</v>
       </c>
       <c r="C109" t="n">
-        <v>0.292445</v>
+        <v>0.318661</v>
       </c>
       <c r="D109" t="n">
-        <v>0.444766</v>
+        <v>0.48749</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.456652</v>
+        <v>0.458416</v>
       </c>
       <c r="C110" t="n">
-        <v>0.383808</v>
+        <v>0.44717</v>
       </c>
       <c r="D110" t="n">
-        <v>0.446285</v>
+        <v>0.487106</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.457454</v>
+        <v>0.45858</v>
       </c>
       <c r="C111" t="n">
-        <v>0.384225</v>
+        <v>0.446091</v>
       </c>
       <c r="D111" t="n">
-        <v>0.446864</v>
+        <v>0.487351</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.455928</v>
+        <v>0.458755</v>
       </c>
       <c r="C112" t="n">
-        <v>0.385042</v>
+        <v>0.447118</v>
       </c>
       <c r="D112" t="n">
-        <v>0.448502</v>
+        <v>0.487092</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.456307</v>
+        <v>0.457574</v>
       </c>
       <c r="C113" t="n">
-        <v>0.385517</v>
+        <v>0.444725</v>
       </c>
       <c r="D113" t="n">
-        <v>0.448336</v>
+        <v>0.486713</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.457243</v>
+        <v>0.458832</v>
       </c>
       <c r="C114" t="n">
-        <v>0.387056</v>
+        <v>0.446385</v>
       </c>
       <c r="D114" t="n">
-        <v>0.450307</v>
+        <v>0.486984</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.455387</v>
+        <v>0.458095</v>
       </c>
       <c r="C115" t="n">
-        <v>0.387735</v>
+        <v>0.44653</v>
       </c>
       <c r="D115" t="n">
-        <v>0.451442</v>
+        <v>0.486519</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.45753</v>
+        <v>0.459134</v>
       </c>
       <c r="C116" t="n">
-        <v>0.389058</v>
+        <v>0.446444</v>
       </c>
       <c r="D116" t="n">
-        <v>0.452747</v>
+        <v>0.488895</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.457187</v>
+        <v>0.460369</v>
       </c>
       <c r="C117" t="n">
-        <v>0.391044</v>
+        <v>0.447491</v>
       </c>
       <c r="D117" t="n">
-        <v>0.454141</v>
+        <v>0.488082</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.45642</v>
+        <v>0.462569</v>
       </c>
       <c r="C118" t="n">
-        <v>0.393552</v>
+        <v>0.447758</v>
       </c>
       <c r="D118" t="n">
-        <v>0.456697</v>
+        <v>0.488765</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.456348</v>
+        <v>0.46003</v>
       </c>
       <c r="C119" t="n">
-        <v>0.395865</v>
+        <v>0.449105</v>
       </c>
       <c r="D119" t="n">
-        <v>0.459647</v>
+        <v>0.488904</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.459526</v>
+        <v>0.462917</v>
       </c>
       <c r="C120" t="n">
-        <v>0.399867</v>
+        <v>0.451731</v>
       </c>
       <c r="D120" t="n">
-        <v>0.46368</v>
+        <v>0.491478</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.461161</v>
+        <v>0.463355</v>
       </c>
       <c r="C121" t="n">
-        <v>0.403417</v>
+        <v>0.454577</v>
       </c>
       <c r="D121" t="n">
-        <v>0.468938</v>
+        <v>0.495668</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.462371</v>
+        <v>0.464238</v>
       </c>
       <c r="C122" t="n">
-        <v>0.409682</v>
+        <v>0.458466</v>
       </c>
       <c r="D122" t="n">
-        <v>0.476346</v>
+        <v>0.500202</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.465225</v>
+        <v>0.468213</v>
       </c>
       <c r="C123" t="n">
-        <v>0.418394</v>
+        <v>0.465053</v>
       </c>
       <c r="D123" t="n">
-        <v>0.504887</v>
+        <v>0.616183</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.5848139999999999</v>
+        <v>0.586723</v>
       </c>
       <c r="C124" t="n">
-        <v>0.423161</v>
+        <v>0.571048</v>
       </c>
       <c r="D124" t="n">
-        <v>0.505612</v>
+        <v>0.617627</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.585512</v>
+        <v>0.586921</v>
       </c>
       <c r="C125" t="n">
-        <v>0.424286</v>
+        <v>0.571852</v>
       </c>
       <c r="D125" t="n">
-        <v>0.505844</v>
+        <v>0.617351</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.5838370000000001</v>
+        <v>0.587134</v>
       </c>
       <c r="C126" t="n">
-        <v>0.426016</v>
+        <v>0.572816</v>
       </c>
       <c r="D126" t="n">
-        <v>0.507856</v>
+        <v>0.617924</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.584512</v>
+        <v>0.587225</v>
       </c>
       <c r="C127" t="n">
-        <v>0.426249</v>
+        <v>0.570426</v>
       </c>
       <c r="D127" t="n">
-        <v>0.509459</v>
+        <v>0.61628</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.585622</v>
+        <v>0.587326</v>
       </c>
       <c r="C128" t="n">
-        <v>0.427608</v>
+        <v>0.572097</v>
       </c>
       <c r="D128" t="n">
-        <v>0.510204</v>
+        <v>0.618086</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.583399</v>
+        <v>0.587355</v>
       </c>
       <c r="C129" t="n">
-        <v>0.428771</v>
+        <v>0.5726599999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.512131</v>
+        <v>0.617989</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.583494</v>
+        <v>0.589387</v>
       </c>
       <c r="C130" t="n">
-        <v>0.432243</v>
+        <v>0.575052</v>
       </c>
       <c r="D130" t="n">
-        <v>0.514705</v>
+        <v>0.621391</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.584677</v>
+        <v>0.587387</v>
       </c>
       <c r="C131" t="n">
-        <v>0.433565</v>
+        <v>0.575501</v>
       </c>
       <c r="D131" t="n">
-        <v>0.516261</v>
+        <v>0.621304</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.585006</v>
+        <v>0.588195</v>
       </c>
       <c r="C132" t="n">
-        <v>0.43659</v>
+        <v>0.57618</v>
       </c>
       <c r="D132" t="n">
-        <v>0.519795</v>
+        <v>0.622871</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.586747</v>
+        <v>0.588883</v>
       </c>
       <c r="C133" t="n">
-        <v>0.440592</v>
+        <v>0.577751</v>
       </c>
       <c r="D133" t="n">
-        <v>0.524759</v>
+        <v>0.623959</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.587691</v>
+        <v>0.589768</v>
       </c>
       <c r="C134" t="n">
-        <v>0.444626</v>
+        <v>0.580367</v>
       </c>
       <c r="D134" t="n">
-        <v>0.529234</v>
+        <v>0.626564</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.587582</v>
+        <v>0.589574</v>
       </c>
       <c r="C135" t="n">
-        <v>0.449954</v>
+        <v>0.583389</v>
       </c>
       <c r="D135" t="n">
-        <v>0.536334</v>
+        <v>0.630038</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.589761</v>
+        <v>0.593805</v>
       </c>
       <c r="C136" t="n">
-        <v>0.457266</v>
+        <v>0.588407</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5467340000000001</v>
+        <v>0.635722</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.5939759999999999</v>
+        <v>0.595794</v>
       </c>
       <c r="C137" t="n">
-        <v>0.467854</v>
+        <v>0.593108</v>
       </c>
       <c r="D137" t="n">
-        <v>0.528999</v>
+        <v>0.7058720000000001</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.685273</v>
+        <v>0.689662</v>
       </c>
       <c r="C138" t="n">
-        <v>0.444164</v>
+        <v>0.674472</v>
       </c>
       <c r="D138" t="n">
-        <v>0.53008</v>
+        <v>0.706202</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.68444</v>
+        <v>0.689396</v>
       </c>
       <c r="C139" t="n">
-        <v>0.44533</v>
+        <v>0.675095</v>
       </c>
       <c r="D139" t="n">
-        <v>0.531564</v>
+        <v>0.706871</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.684351</v>
+        <v>0.6906679999999999</v>
       </c>
       <c r="C140" t="n">
-        <v>0.446554</v>
+        <v>0.67609</v>
       </c>
       <c r="D140" t="n">
-        <v>0.533358</v>
+        <v>0.707361</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.6846680000000001</v>
+        <v>0.690385</v>
       </c>
       <c r="C141" t="n">
-        <v>0.447651</v>
+        <v>0.675704</v>
       </c>
       <c r="D141" t="n">
-        <v>0.534466</v>
+        <v>0.707259</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.6852549999999999</v>
+        <v>0.690156</v>
       </c>
       <c r="C142" t="n">
-        <v>0.44938</v>
+        <v>0.676123</v>
       </c>
       <c r="D142" t="n">
-        <v>0.536202</v>
+        <v>0.707429</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.684775</v>
+        <v>0.690675</v>
       </c>
       <c r="C143" t="n">
-        <v>0.451227</v>
+        <v>0.676149</v>
       </c>
       <c r="D143" t="n">
-        <v>0.538296</v>
+        <v>0.70771</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.101922</v>
+        <v>0.0315236</v>
       </c>
       <c r="C2" t="n">
-        <v>0.104695</v>
+        <v>0.0316871</v>
       </c>
       <c r="D2" t="n">
-        <v>0.11378</v>
+        <v>0.0352954</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.102697</v>
+        <v>0.031722</v>
       </c>
       <c r="C3" t="n">
-        <v>0.106071</v>
+        <v>0.0317937</v>
       </c>
       <c r="D3" t="n">
-        <v>0.114669</v>
+        <v>0.0354637</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.106468</v>
+        <v>0.0318509</v>
       </c>
       <c r="C4" t="n">
-        <v>0.109672</v>
+        <v>0.0317616</v>
       </c>
       <c r="D4" t="n">
-        <v>0.119034</v>
+        <v>0.035541</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.109954</v>
+        <v>0.0319795</v>
       </c>
       <c r="C5" t="n">
-        <v>0.113761</v>
+        <v>0.0317114</v>
       </c>
       <c r="D5" t="n">
-        <v>0.124325</v>
+        <v>0.0358155</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.11173</v>
+        <v>0.0321451</v>
       </c>
       <c r="C6" t="n">
-        <v>0.115536</v>
+        <v>0.0321642</v>
       </c>
       <c r="D6" t="n">
-        <v>0.127313</v>
+        <v>0.0363964</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.115478</v>
+        <v>0.0323287</v>
       </c>
       <c r="C7" t="n">
-        <v>0.120564</v>
+        <v>0.0323533</v>
       </c>
       <c r="D7" t="n">
-        <v>0.133378</v>
+        <v>0.0369545</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.120142</v>
+        <v>0.0324969</v>
       </c>
       <c r="C8" t="n">
-        <v>0.124788</v>
+        <v>0.0328522</v>
       </c>
       <c r="D8" t="n">
-        <v>0.141337</v>
+        <v>0.0380868</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.127351</v>
+        <v>0.0328639</v>
       </c>
       <c r="C9" t="n">
-        <v>0.13336</v>
+        <v>0.0341302</v>
       </c>
       <c r="D9" t="n">
-        <v>0.122985</v>
+        <v>0.0390731</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.115604</v>
+        <v>0.0364141</v>
       </c>
       <c r="C10" t="n">
-        <v>0.114667</v>
+        <v>0.0317064</v>
       </c>
       <c r="D10" t="n">
-        <v>0.123525</v>
+        <v>0.0392949</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.116247</v>
+        <v>0.0363972</v>
       </c>
       <c r="C11" t="n">
-        <v>0.115423</v>
+        <v>0.0318967</v>
       </c>
       <c r="D11" t="n">
-        <v>0.123978</v>
+        <v>0.0395625</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.117801</v>
+        <v>0.036428</v>
       </c>
       <c r="C12" t="n">
-        <v>0.117001</v>
+        <v>0.0321026</v>
       </c>
       <c r="D12" t="n">
-        <v>0.125845</v>
+        <v>0.0397507</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.117749</v>
+        <v>0.0364506</v>
       </c>
       <c r="C13" t="n">
-        <v>0.116711</v>
+        <v>0.0323148</v>
       </c>
       <c r="D13" t="n">
-        <v>0.12562</v>
+        <v>0.0399839</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1199</v>
+        <v>0.036493</v>
       </c>
       <c r="C14" t="n">
-        <v>0.118772</v>
+        <v>0.0324752</v>
       </c>
       <c r="D14" t="n">
-        <v>0.127011</v>
+        <v>0.0402547</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.119865</v>
+        <v>0.0366792</v>
       </c>
       <c r="C15" t="n">
-        <v>0.119083</v>
+        <v>0.0326912</v>
       </c>
       <c r="D15" t="n">
-        <v>0.127912</v>
+        <v>0.0404952</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.120484</v>
+        <v>0.0368185</v>
       </c>
       <c r="C16" t="n">
-        <v>0.120172</v>
+        <v>0.0330263</v>
       </c>
       <c r="D16" t="n">
-        <v>0.128994</v>
+        <v>0.0406431</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.121693</v>
+        <v>0.0370683</v>
       </c>
       <c r="C17" t="n">
-        <v>0.121526</v>
+        <v>0.0330177</v>
       </c>
       <c r="D17" t="n">
-        <v>0.130685</v>
+        <v>0.0408884</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.121973</v>
+        <v>0.0371653</v>
       </c>
       <c r="C18" t="n">
-        <v>0.122534</v>
+        <v>0.0332721</v>
       </c>
       <c r="D18" t="n">
-        <v>0.13233</v>
+        <v>0.0411109</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.124686</v>
+        <v>0.0373181</v>
       </c>
       <c r="C19" t="n">
-        <v>0.126344</v>
+        <v>0.0335718</v>
       </c>
       <c r="D19" t="n">
-        <v>0.135872</v>
+        <v>0.0413839</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.124947</v>
+        <v>0.0374527</v>
       </c>
       <c r="C20" t="n">
-        <v>0.127308</v>
+        <v>0.0341728</v>
       </c>
       <c r="D20" t="n">
-        <v>0.137561</v>
+        <v>0.0419434</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.127244</v>
+        <v>0.0375226</v>
       </c>
       <c r="C21" t="n">
-        <v>0.130082</v>
+        <v>0.034577</v>
       </c>
       <c r="D21" t="n">
-        <v>0.142557</v>
+        <v>0.042925</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.130858</v>
+        <v>0.0377335</v>
       </c>
       <c r="C22" t="n">
-        <v>0.134525</v>
+        <v>0.0361459</v>
       </c>
       <c r="D22" t="n">
-        <v>0.149087</v>
+        <v>0.0462596</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.136459</v>
+        <v>0.0383791</v>
       </c>
       <c r="C23" t="n">
-        <v>0.141101</v>
+        <v>0.0418562</v>
       </c>
       <c r="D23" t="n">
-        <v>0.138694</v>
+        <v>0.0417234</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.132088</v>
+        <v>0.042525</v>
       </c>
       <c r="C24" t="n">
-        <v>0.129065</v>
+        <v>0.0350418</v>
       </c>
       <c r="D24" t="n">
-        <v>0.139122</v>
+        <v>0.0418207</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.132301</v>
+        <v>0.0425568</v>
       </c>
       <c r="C25" t="n">
-        <v>0.12921</v>
+        <v>0.0355499</v>
       </c>
       <c r="D25" t="n">
-        <v>0.138598</v>
+        <v>0.0420299</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.132931</v>
+        <v>0.0426199</v>
       </c>
       <c r="C26" t="n">
-        <v>0.129958</v>
+        <v>0.0357733</v>
       </c>
       <c r="D26" t="n">
-        <v>0.137924</v>
+        <v>0.0422796</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.132921</v>
+        <v>0.0426747</v>
       </c>
       <c r="C27" t="n">
-        <v>0.129542</v>
+        <v>0.0359795</v>
       </c>
       <c r="D27" t="n">
-        <v>0.138277</v>
+        <v>0.042494</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.13318</v>
+        <v>0.0427857</v>
       </c>
       <c r="C28" t="n">
-        <v>0.131156</v>
+        <v>0.036267</v>
       </c>
       <c r="D28" t="n">
-        <v>0.138793</v>
+        <v>0.0427655</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.133629</v>
+        <v>0.0429238</v>
       </c>
       <c r="C29" t="n">
-        <v>0.131314</v>
+        <v>0.0364711</v>
       </c>
       <c r="D29" t="n">
-        <v>0.139298</v>
+        <v>0.0429752</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.134076</v>
+        <v>0.0430724</v>
       </c>
       <c r="C30" t="n">
-        <v>0.131635</v>
+        <v>0.036739</v>
       </c>
       <c r="D30" t="n">
-        <v>0.139758</v>
+        <v>0.0432712</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.135073</v>
+        <v>0.0432125</v>
       </c>
       <c r="C31" t="n">
-        <v>0.133347</v>
+        <v>0.0371503</v>
       </c>
       <c r="D31" t="n">
-        <v>0.140838</v>
+        <v>0.0434483</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.135782</v>
+        <v>0.0433773</v>
       </c>
       <c r="C32" t="n">
-        <v>0.134321</v>
+        <v>0.0376209</v>
       </c>
       <c r="D32" t="n">
-        <v>0.142342</v>
+        <v>0.0437766</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137462</v>
+        <v>0.0435567</v>
       </c>
       <c r="C33" t="n">
-        <v>0.135824</v>
+        <v>0.0381409</v>
       </c>
       <c r="D33" t="n">
-        <v>0.144432</v>
+        <v>0.0440385</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.137824</v>
+        <v>0.0437692</v>
       </c>
       <c r="C34" t="n">
-        <v>0.137635</v>
+        <v>0.0389708</v>
       </c>
       <c r="D34" t="n">
-        <v>0.146604</v>
+        <v>0.045114</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.139031</v>
+        <v>0.043929</v>
       </c>
       <c r="C35" t="n">
-        <v>0.140004</v>
+        <v>0.0410225</v>
       </c>
       <c r="D35" t="n">
-        <v>0.150693</v>
+        <v>0.0489821</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.141245</v>
+        <v>0.044541</v>
       </c>
       <c r="C36" t="n">
-        <v>0.142942</v>
+        <v>0.0456345</v>
       </c>
       <c r="D36" t="n">
-        <v>0.155998</v>
+        <v>0.0560574</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.14637</v>
+        <v>0.0460047</v>
       </c>
       <c r="C37" t="n">
-        <v>0.147498</v>
+        <v>0.0527159</v>
       </c>
       <c r="D37" t="n">
-        <v>0.156172</v>
+        <v>0.0463327</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.148761</v>
+        <v>0.0491987</v>
       </c>
       <c r="C38" t="n">
-        <v>0.144299</v>
+        <v>0.0399016</v>
       </c>
       <c r="D38" t="n">
-        <v>0.155713</v>
+        <v>0.0462009</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.149439</v>
+        <v>0.0483927</v>
       </c>
       <c r="C39" t="n">
-        <v>0.145287</v>
+        <v>0.0402221</v>
       </c>
       <c r="D39" t="n">
-        <v>0.156268</v>
+        <v>0.0464244</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.149923</v>
+        <v>0.0484774</v>
       </c>
       <c r="C40" t="n">
-        <v>0.146943</v>
+        <v>0.040494</v>
       </c>
       <c r="D40" t="n">
-        <v>0.157722</v>
+        <v>0.0466664</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.149703</v>
+        <v>0.0485705</v>
       </c>
       <c r="C41" t="n">
-        <v>0.146133</v>
+        <v>0.0408666</v>
       </c>
       <c r="D41" t="n">
-        <v>0.157096</v>
+        <v>0.046923</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.150024</v>
+        <v>0.04866</v>
       </c>
       <c r="C42" t="n">
-        <v>0.147941</v>
+        <v>0.0413067</v>
       </c>
       <c r="D42" t="n">
-        <v>0.158686</v>
+        <v>0.0471502</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.152141</v>
+        <v>0.0487887</v>
       </c>
       <c r="C43" t="n">
-        <v>0.148024</v>
+        <v>0.0417128</v>
       </c>
       <c r="D43" t="n">
-        <v>0.158048</v>
+        <v>0.0474799</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.15101</v>
+        <v>0.0488926</v>
       </c>
       <c r="C44" t="n">
-        <v>0.14763</v>
+        <v>0.0420812</v>
       </c>
       <c r="D44" t="n">
-        <v>0.157708</v>
+        <v>0.047686</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.150116</v>
+        <v>0.0490677</v>
       </c>
       <c r="C45" t="n">
-        <v>0.148661</v>
+        <v>0.0426287</v>
       </c>
       <c r="D45" t="n">
-        <v>0.159412</v>
+        <v>0.0480647</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.151447</v>
+        <v>0.0492457</v>
       </c>
       <c r="C46" t="n">
-        <v>0.149602</v>
+        <v>0.0433939</v>
       </c>
       <c r="D46" t="n">
-        <v>0.159711</v>
+        <v>0.0487015</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.151462</v>
+        <v>0.0494639</v>
       </c>
       <c r="C47" t="n">
-        <v>0.150173</v>
+        <v>0.044658</v>
       </c>
       <c r="D47" t="n">
-        <v>0.161208</v>
+        <v>0.0499948</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.15254</v>
+        <v>0.0496844</v>
       </c>
       <c r="C48" t="n">
-        <v>0.151793</v>
+        <v>0.0468077</v>
       </c>
       <c r="D48" t="n">
-        <v>0.16276</v>
+        <v>0.0530967</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.153688</v>
+        <v>0.0502009</v>
       </c>
       <c r="C49" t="n">
-        <v>0.155695</v>
+        <v>0.0493711</v>
       </c>
       <c r="D49" t="n">
-        <v>0.167485</v>
+        <v>0.0568818</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.155784</v>
+        <v>0.0515777</v>
       </c>
       <c r="C50" t="n">
-        <v>0.157782</v>
+        <v>0.0527227</v>
       </c>
       <c r="D50" t="n">
-        <v>0.171115</v>
+        <v>0.061968</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.158428</v>
+        <v>0.0556352</v>
       </c>
       <c r="C51" t="n">
-        <v>0.16253</v>
+        <v>0.0574141</v>
       </c>
       <c r="D51" t="n">
-        <v>0.171344</v>
+        <v>0.0505331</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.162575</v>
+        <v>0.061</v>
       </c>
       <c r="C52" t="n">
-        <v>0.168403</v>
+        <v>0.06432649999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.171464</v>
+        <v>0.0496768</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.164413</v>
+        <v>0.0569113</v>
       </c>
       <c r="C53" t="n">
-        <v>0.159682</v>
+        <v>0.045219</v>
       </c>
       <c r="D53" t="n">
-        <v>0.171142</v>
+        <v>0.0499044</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.163129</v>
+        <v>0.0568828</v>
       </c>
       <c r="C54" t="n">
-        <v>0.160334</v>
+        <v>0.0455844</v>
       </c>
       <c r="D54" t="n">
-        <v>0.171038</v>
+        <v>0.0501263</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.163826</v>
+        <v>0.0569814</v>
       </c>
       <c r="C55" t="n">
-        <v>0.160014</v>
+        <v>0.0459966</v>
       </c>
       <c r="D55" t="n">
-        <v>0.172419</v>
+        <v>0.0504365</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.164243</v>
+        <v>0.0570909</v>
       </c>
       <c r="C56" t="n">
-        <v>0.161131</v>
+        <v>0.0463762</v>
       </c>
       <c r="D56" t="n">
-        <v>0.17265</v>
+        <v>0.0507109</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.165363</v>
+        <v>0.0571841</v>
       </c>
       <c r="C57" t="n">
-        <v>0.161139</v>
+        <v>0.0467949</v>
       </c>
       <c r="D57" t="n">
-        <v>0.172787</v>
+        <v>0.0510778</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.164294</v>
+        <v>0.0573193</v>
       </c>
       <c r="C58" t="n">
-        <v>0.161433</v>
+        <v>0.0473979</v>
       </c>
       <c r="D58" t="n">
-        <v>0.172647</v>
+        <v>0.0515223</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.166213</v>
+        <v>0.0574773</v>
       </c>
       <c r="C59" t="n">
-        <v>0.162452</v>
+        <v>0.0481398</v>
       </c>
       <c r="D59" t="n">
-        <v>0.173998</v>
+        <v>0.0520622</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.165828</v>
+        <v>0.0576554</v>
       </c>
       <c r="C60" t="n">
-        <v>0.16363</v>
+        <v>0.0491422</v>
       </c>
       <c r="D60" t="n">
-        <v>0.175674</v>
+        <v>0.0531812</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.166708</v>
+        <v>0.0578384</v>
       </c>
       <c r="C61" t="n">
-        <v>0.165188</v>
+        <v>0.0503846</v>
       </c>
       <c r="D61" t="n">
-        <v>0.176932</v>
+        <v>0.0551309</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.167458</v>
+        <v>0.058212</v>
       </c>
       <c r="C62" t="n">
-        <v>0.165746</v>
+        <v>0.0521698</v>
       </c>
       <c r="D62" t="n">
-        <v>0.177498</v>
+        <v>0.0577453</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.168003</v>
+        <v>0.0591664</v>
       </c>
       <c r="C63" t="n">
-        <v>0.167886</v>
+        <v>0.054366</v>
       </c>
       <c r="D63" t="n">
-        <v>0.180205</v>
+        <v>0.0609461</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.170161</v>
+        <v>0.061449</v>
       </c>
       <c r="C64" t="n">
-        <v>0.170307</v>
+        <v>0.0572823</v>
       </c>
       <c r="D64" t="n">
-        <v>0.18431</v>
+        <v>0.0652674</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.173326</v>
+        <v>0.0641099</v>
       </c>
       <c r="C65" t="n">
-        <v>0.174376</v>
+        <v>0.0612065</v>
       </c>
       <c r="D65" t="n">
-        <v>0.190465</v>
+        <v>0.0717124</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.178942</v>
+        <v>0.0683386</v>
       </c>
       <c r="C66" t="n">
-        <v>0.180744</v>
+        <v>0.0673697</v>
       </c>
       <c r="D66" t="n">
-        <v>0.180319</v>
+        <v>0.0518934</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.173301</v>
+        <v>0.0605266</v>
       </c>
       <c r="C67" t="n">
-        <v>0.170429</v>
+        <v>0.0440997</v>
       </c>
       <c r="D67" t="n">
-        <v>0.180563</v>
+        <v>0.0516712</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.174104</v>
+        <v>0.0606047</v>
       </c>
       <c r="C68" t="n">
-        <v>0.168912</v>
+        <v>0.0443806</v>
       </c>
       <c r="D68" t="n">
-        <v>0.180854</v>
+        <v>0.0518984</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.174523</v>
+        <v>0.0608043</v>
       </c>
       <c r="C69" t="n">
-        <v>0.169161</v>
+        <v>0.044779</v>
       </c>
       <c r="D69" t="n">
-        <v>0.18178</v>
+        <v>0.0521992</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.174632</v>
+        <v>0.0608557</v>
       </c>
       <c r="C70" t="n">
-        <v>0.170179</v>
+        <v>0.0452068</v>
       </c>
       <c r="D70" t="n">
-        <v>0.182253</v>
+        <v>0.0525924</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.175369</v>
+        <v>0.0610331</v>
       </c>
       <c r="C71" t="n">
-        <v>0.170739</v>
+        <v>0.0456776</v>
       </c>
       <c r="D71" t="n">
-        <v>0.182381</v>
+        <v>0.0529772</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.175284</v>
+        <v>0.0611541</v>
       </c>
       <c r="C72" t="n">
-        <v>0.171146</v>
+        <v>0.0462691</v>
       </c>
       <c r="D72" t="n">
-        <v>0.182636</v>
+        <v>0.0535716</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.175606</v>
+        <v>0.0613947</v>
       </c>
       <c r="C73" t="n">
-        <v>0.171946</v>
+        <v>0.0471052</v>
       </c>
       <c r="D73" t="n">
-        <v>0.183501</v>
+        <v>0.0545586</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.176332</v>
+        <v>0.0613884</v>
       </c>
       <c r="C74" t="n">
-        <v>0.172632</v>
+        <v>0.04817</v>
       </c>
       <c r="D74" t="n">
-        <v>0.184281</v>
+        <v>0.0559413</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.176312</v>
+        <v>0.061924</v>
       </c>
       <c r="C75" t="n">
-        <v>0.173184</v>
+        <v>0.0494346</v>
       </c>
       <c r="D75" t="n">
-        <v>0.185568</v>
+        <v>0.0577312</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.17765</v>
+        <v>0.062838</v>
       </c>
       <c r="C76" t="n">
-        <v>0.174569</v>
+        <v>0.0509099</v>
       </c>
       <c r="D76" t="n">
-        <v>0.187046</v>
+        <v>0.0595134</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.17875</v>
+        <v>0.06401859999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.176297</v>
+        <v>0.0532528</v>
       </c>
       <c r="D77" t="n">
-        <v>0.189248</v>
+        <v>0.0623155</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.180233</v>
+        <v>0.0656093</v>
       </c>
       <c r="C78" t="n">
-        <v>0.178998</v>
+        <v>0.0558406</v>
       </c>
       <c r="D78" t="n">
-        <v>0.193191</v>
+        <v>0.0662498</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.182851</v>
+        <v>0.06787260000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.182672</v>
+        <v>0.0595849</v>
       </c>
       <c r="D79" t="n">
-        <v>0.199122</v>
+        <v>0.07205300000000001</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.186485</v>
+        <v>0.0715702</v>
       </c>
       <c r="C80" t="n">
-        <v>0.187655</v>
+        <v>0.0649893</v>
       </c>
       <c r="D80" t="n">
-        <v>0.191573</v>
+        <v>0.0599393</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.189421</v>
+        <v>0.07505240000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>0.182849</v>
+        <v>0.0541642</v>
       </c>
       <c r="D81" t="n">
-        <v>0.194289</v>
+        <v>0.0602514</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.187099</v>
+        <v>0.07532800000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>0.184132</v>
+        <v>0.0548112</v>
       </c>
       <c r="D82" t="n">
-        <v>0.19471</v>
+        <v>0.0608299</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.187391</v>
+        <v>0.0756677</v>
       </c>
       <c r="C83" t="n">
-        <v>0.183179</v>
+        <v>0.0551599</v>
       </c>
       <c r="D83" t="n">
-        <v>0.193603</v>
+        <v>0.0610592</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.186937</v>
+        <v>0.07463119999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.182337</v>
+        <v>0.0558584</v>
       </c>
       <c r="D84" t="n">
-        <v>0.193255</v>
+        <v>0.0616481</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.188111</v>
+        <v>0.0757306</v>
       </c>
       <c r="C85" t="n">
-        <v>0.183991</v>
+        <v>0.0563336</v>
       </c>
       <c r="D85" t="n">
-        <v>0.194288</v>
+        <v>0.0620965</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.189572</v>
+        <v>0.07627780000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.183037</v>
+        <v>0.0572331</v>
       </c>
       <c r="D86" t="n">
-        <v>0.194967</v>
+        <v>0.06285010000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.187698</v>
+        <v>0.0764059</v>
       </c>
       <c r="C87" t="n">
-        <v>0.183413</v>
+        <v>0.0581221</v>
       </c>
       <c r="D87" t="n">
-        <v>0.195068</v>
+        <v>0.06390659999999999</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.192041</v>
+        <v>0.0766276</v>
       </c>
       <c r="C88" t="n">
-        <v>0.185999</v>
+        <v>0.0591093</v>
       </c>
       <c r="D88" t="n">
-        <v>0.198107</v>
+        <v>0.06488729999999999</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.190887</v>
+        <v>0.0772491</v>
       </c>
       <c r="C89" t="n">
-        <v>0.18582</v>
+        <v>0.0601835</v>
       </c>
       <c r="D89" t="n">
-        <v>0.196716</v>
+        <v>0.0663193</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.189235</v>
+        <v>0.0778431</v>
       </c>
       <c r="C90" t="n">
-        <v>0.187692</v>
+        <v>0.0619065</v>
       </c>
       <c r="D90" t="n">
-        <v>0.197933</v>
+        <v>0.0682856</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.191394</v>
+        <v>0.0794209</v>
       </c>
       <c r="C91" t="n">
-        <v>0.188044</v>
+        <v>0.0638932</v>
       </c>
       <c r="D91" t="n">
-        <v>0.200214</v>
+        <v>0.0709491</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.19415</v>
+        <v>0.080502</v>
       </c>
       <c r="C92" t="n">
-        <v>0.191102</v>
+        <v>0.0663748</v>
       </c>
       <c r="D92" t="n">
-        <v>0.203668</v>
+        <v>0.0745412</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.193979</v>
+        <v>0.08250209999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>0.193838</v>
+        <v>0.06986680000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.209615</v>
+        <v>0.08006539999999999</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.198689</v>
+        <v>0.0860934</v>
       </c>
       <c r="C94" t="n">
-        <v>0.198227</v>
+        <v>0.0750107</v>
       </c>
       <c r="D94" t="n">
-        <v>0.302397</v>
+        <v>0.154462</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.317218</v>
+        <v>0.180511</v>
       </c>
       <c r="C95" t="n">
-        <v>0.304157</v>
+        <v>0.149187</v>
       </c>
       <c r="D95" t="n">
-        <v>0.30872</v>
+        <v>0.154003</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.316892</v>
+        <v>0.177293</v>
       </c>
       <c r="C96" t="n">
-        <v>0.302601</v>
+        <v>0.150078</v>
       </c>
       <c r="D96" t="n">
-        <v>0.306132</v>
+        <v>0.153622</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.312276</v>
+        <v>0.176037</v>
       </c>
       <c r="C97" t="n">
-        <v>0.30436</v>
+        <v>0.150439</v>
       </c>
       <c r="D97" t="n">
-        <v>0.308294</v>
+        <v>0.154925</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.315782</v>
+        <v>0.177805</v>
       </c>
       <c r="C98" t="n">
-        <v>0.301218</v>
+        <v>0.151128</v>
       </c>
       <c r="D98" t="n">
-        <v>0.305708</v>
+        <v>0.155317</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.311723</v>
+        <v>0.176499</v>
       </c>
       <c r="C99" t="n">
-        <v>0.305986</v>
+        <v>0.15166</v>
       </c>
       <c r="D99" t="n">
-        <v>0.306585</v>
+        <v>0.15617</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.31751</v>
+        <v>0.177505</v>
       </c>
       <c r="C100" t="n">
-        <v>0.300823</v>
+        <v>0.151744</v>
       </c>
       <c r="D100" t="n">
-        <v>0.305365</v>
+        <v>0.156386</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.313791</v>
+        <v>0.176462</v>
       </c>
       <c r="C101" t="n">
-        <v>0.304579</v>
+        <v>0.152826</v>
       </c>
       <c r="D101" t="n">
-        <v>0.309303</v>
+        <v>0.157659</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.316384</v>
+        <v>0.177466</v>
       </c>
       <c r="C102" t="n">
-        <v>0.303078</v>
+        <v>0.15329</v>
       </c>
       <c r="D102" t="n">
-        <v>0.303932</v>
+        <v>0.159069</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.315708</v>
+        <v>0.178506</v>
       </c>
       <c r="C103" t="n">
-        <v>0.306734</v>
+        <v>0.155058</v>
       </c>
       <c r="D103" t="n">
-        <v>0.30936</v>
+        <v>0.161186</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.319406</v>
+        <v>0.178567</v>
       </c>
       <c r="C104" t="n">
-        <v>0.304604</v>
+        <v>0.155494</v>
       </c>
       <c r="D104" t="n">
-        <v>0.304103</v>
+        <v>0.162221</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.316279</v>
+        <v>0.17969</v>
       </c>
       <c r="C105" t="n">
-        <v>0.307346</v>
+        <v>0.156714</v>
       </c>
       <c r="D105" t="n">
-        <v>0.310173</v>
+        <v>0.163704</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.319085</v>
+        <v>0.180289</v>
       </c>
       <c r="C106" t="n">
-        <v>0.307565</v>
+        <v>0.158724</v>
       </c>
       <c r="D106" t="n">
-        <v>0.310887</v>
+        <v>0.166511</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.317749</v>
+        <v>0.182446</v>
       </c>
       <c r="C107" t="n">
-        <v>0.308591</v>
+        <v>0.161719</v>
       </c>
       <c r="D107" t="n">
-        <v>0.314108</v>
+        <v>0.170566</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.32375</v>
+        <v>0.182409</v>
       </c>
       <c r="C108" t="n">
-        <v>0.312692</v>
+        <v>0.164322</v>
       </c>
       <c r="D108" t="n">
-        <v>0.48582</v>
+        <v>0.224858</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.322778</v>
+        <v>0.186953</v>
       </c>
       <c r="C109" t="n">
-        <v>0.318661</v>
+        <v>0.170202</v>
       </c>
       <c r="D109" t="n">
-        <v>0.48749</v>
+        <v>0.225866</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.458416</v>
+        <v>0.237678</v>
       </c>
       <c r="C110" t="n">
-        <v>0.44717</v>
+        <v>0.197942</v>
       </c>
       <c r="D110" t="n">
-        <v>0.487106</v>
+        <v>0.226631</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.45858</v>
+        <v>0.238536</v>
       </c>
       <c r="C111" t="n">
-        <v>0.446091</v>
+        <v>0.198674</v>
       </c>
       <c r="D111" t="n">
-        <v>0.487351</v>
+        <v>0.227196</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.458755</v>
+        <v>0.238201</v>
       </c>
       <c r="C112" t="n">
-        <v>0.447118</v>
+        <v>0.199622</v>
       </c>
       <c r="D112" t="n">
-        <v>0.487092</v>
+        <v>0.22789</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.457574</v>
+        <v>0.236919</v>
       </c>
       <c r="C113" t="n">
-        <v>0.444725</v>
+        <v>0.200191</v>
       </c>
       <c r="D113" t="n">
-        <v>0.486713</v>
+        <v>0.228956</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.458832</v>
+        <v>0.238408</v>
       </c>
       <c r="C114" t="n">
-        <v>0.446385</v>
+        <v>0.201468</v>
       </c>
       <c r="D114" t="n">
-        <v>0.486984</v>
+        <v>0.230246</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.458095</v>
+        <v>0.237207</v>
       </c>
       <c r="C115" t="n">
-        <v>0.44653</v>
+        <v>0.202827</v>
       </c>
       <c r="D115" t="n">
-        <v>0.486519</v>
+        <v>0.23173</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.459134</v>
+        <v>0.237889</v>
       </c>
       <c r="C116" t="n">
-        <v>0.446444</v>
+        <v>0.203893</v>
       </c>
       <c r="D116" t="n">
-        <v>0.488895</v>
+        <v>0.23317</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.460369</v>
+        <v>0.239375</v>
       </c>
       <c r="C117" t="n">
-        <v>0.447491</v>
+        <v>0.205739</v>
       </c>
       <c r="D117" t="n">
-        <v>0.488082</v>
+        <v>0.23609</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.462569</v>
+        <v>0.239355</v>
       </c>
       <c r="C118" t="n">
-        <v>0.447758</v>
+        <v>0.208011</v>
       </c>
       <c r="D118" t="n">
-        <v>0.488765</v>
+        <v>0.237845</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.46003</v>
+        <v>0.24202</v>
       </c>
       <c r="C119" t="n">
-        <v>0.449105</v>
+        <v>0.210255</v>
       </c>
       <c r="D119" t="n">
-        <v>0.488904</v>
+        <v>0.242037</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.462917</v>
+        <v>0.23988</v>
       </c>
       <c r="C120" t="n">
-        <v>0.451731</v>
+        <v>0.213822</v>
       </c>
       <c r="D120" t="n">
-        <v>0.491478</v>
+        <v>0.245541</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.463355</v>
+        <v>0.240813</v>
       </c>
       <c r="C121" t="n">
-        <v>0.454577</v>
+        <v>0.211716</v>
       </c>
       <c r="D121" t="n">
-        <v>0.495668</v>
+        <v>0.251075</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.464238</v>
+        <v>0.245883</v>
       </c>
       <c r="C122" t="n">
-        <v>0.458466</v>
+        <v>0.218125</v>
       </c>
       <c r="D122" t="n">
-        <v>0.500202</v>
+        <v>0.25921</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.468213</v>
+        <v>0.24867</v>
       </c>
       <c r="C123" t="n">
-        <v>0.465053</v>
+        <v>0.226033</v>
       </c>
       <c r="D123" t="n">
-        <v>0.616183</v>
+        <v>0.254259</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.586723</v>
+        <v>0.314349</v>
       </c>
       <c r="C124" t="n">
-        <v>0.571048</v>
+        <v>0.219014</v>
       </c>
       <c r="D124" t="n">
-        <v>0.617627</v>
+        <v>0.255018</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.586921</v>
+        <v>0.314892</v>
       </c>
       <c r="C125" t="n">
-        <v>0.571852</v>
+        <v>0.220037</v>
       </c>
       <c r="D125" t="n">
-        <v>0.617351</v>
+        <v>0.255729</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.587134</v>
+        <v>0.314073</v>
       </c>
       <c r="C126" t="n">
-        <v>0.572816</v>
+        <v>0.220816</v>
       </c>
       <c r="D126" t="n">
-        <v>0.617924</v>
+        <v>0.256783</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.587225</v>
+        <v>0.314915</v>
       </c>
       <c r="C127" t="n">
-        <v>0.570426</v>
+        <v>0.222077</v>
       </c>
       <c r="D127" t="n">
-        <v>0.61628</v>
+        <v>0.258254</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.587326</v>
+        <v>0.315118</v>
       </c>
       <c r="C128" t="n">
-        <v>0.572097</v>
+        <v>0.223745</v>
       </c>
       <c r="D128" t="n">
-        <v>0.618086</v>
+        <v>0.260041</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.587355</v>
+        <v>0.315114</v>
       </c>
       <c r="C129" t="n">
-        <v>0.5726599999999999</v>
+        <v>0.225169</v>
       </c>
       <c r="D129" t="n">
-        <v>0.617989</v>
+        <v>0.261606</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.589387</v>
+        <v>0.314909</v>
       </c>
       <c r="C130" t="n">
-        <v>0.575052</v>
+        <v>0.227439</v>
       </c>
       <c r="D130" t="n">
-        <v>0.621391</v>
+        <v>0.264019</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.587387</v>
+        <v>0.315745</v>
       </c>
       <c r="C131" t="n">
-        <v>0.575501</v>
+        <v>0.223255</v>
       </c>
       <c r="D131" t="n">
-        <v>0.621304</v>
+        <v>0.263526</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.588195</v>
+        <v>0.314949</v>
       </c>
       <c r="C132" t="n">
-        <v>0.57618</v>
+        <v>0.226853</v>
       </c>
       <c r="D132" t="n">
-        <v>0.622871</v>
+        <v>0.264531</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.588883</v>
+        <v>0.316126</v>
       </c>
       <c r="C133" t="n">
-        <v>0.577751</v>
+        <v>0.230002</v>
       </c>
       <c r="D133" t="n">
-        <v>0.623959</v>
+        <v>0.269025</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.589768</v>
+        <v>0.316776</v>
       </c>
       <c r="C134" t="n">
-        <v>0.580367</v>
+        <v>0.234717</v>
       </c>
       <c r="D134" t="n">
-        <v>0.626564</v>
+        <v>0.274687</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.589574</v>
+        <v>0.318186</v>
       </c>
       <c r="C135" t="n">
-        <v>0.583389</v>
+        <v>0.240087</v>
       </c>
       <c r="D135" t="n">
-        <v>0.630038</v>
+        <v>0.282827</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.593805</v>
+        <v>0.319395</v>
       </c>
       <c r="C136" t="n">
-        <v>0.588407</v>
+        <v>0.247235</v>
       </c>
       <c r="D136" t="n">
-        <v>0.635722</v>
+        <v>0.29306</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.595794</v>
+        <v>0.322725</v>
       </c>
       <c r="C137" t="n">
-        <v>0.593108</v>
+        <v>0.257283</v>
       </c>
       <c r="D137" t="n">
-        <v>0.7058720000000001</v>
+        <v>0.271599</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.689662</v>
+        <v>0.371881</v>
       </c>
       <c r="C138" t="n">
-        <v>0.674472</v>
+        <v>0.2321</v>
       </c>
       <c r="D138" t="n">
-        <v>0.706202</v>
+        <v>0.272921</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.689396</v>
+        <v>0.372398</v>
       </c>
       <c r="C139" t="n">
-        <v>0.675095</v>
+        <v>0.233129</v>
       </c>
       <c r="D139" t="n">
-        <v>0.706871</v>
+        <v>0.273766</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.6906679999999999</v>
+        <v>0.372023</v>
       </c>
       <c r="C140" t="n">
-        <v>0.67609</v>
+        <v>0.234509</v>
       </c>
       <c r="D140" t="n">
-        <v>0.707361</v>
+        <v>0.275337</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.690385</v>
+        <v>0.372632</v>
       </c>
       <c r="C141" t="n">
-        <v>0.675704</v>
+        <v>0.235929</v>
       </c>
       <c r="D141" t="n">
-        <v>0.707259</v>
+        <v>0.276868</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.690156</v>
+        <v>0.372187</v>
       </c>
       <c r="C142" t="n">
-        <v>0.676123</v>
+        <v>0.233678</v>
       </c>
       <c r="D142" t="n">
-        <v>0.707429</v>
+        <v>0.278427</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.690675</v>
+        <v>0.37261</v>
       </c>
       <c r="C143" t="n">
-        <v>0.676149</v>
+        <v>0.236063</v>
       </c>
       <c r="D143" t="n">
-        <v>0.70771</v>
+        <v>0.277342</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0315236</v>
+        <v>0.0414105</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0316871</v>
+        <v>0.035858</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0352954</v>
+        <v>0.04211</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.031722</v>
+        <v>0.041577</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0317937</v>
+        <v>0.0357787</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0354637</v>
+        <v>0.0423628</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0318509</v>
+        <v>0.041769</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0317616</v>
+        <v>0.0360787</v>
       </c>
       <c r="D4" t="n">
-        <v>0.035541</v>
+        <v>0.0427484</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0319795</v>
+        <v>0.0419604</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0317114</v>
+        <v>0.0364274</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0358155</v>
+        <v>0.043136</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0321451</v>
+        <v>0.042053</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0321642</v>
+        <v>0.0381853</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0363964</v>
+        <v>0.0437481</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0323287</v>
+        <v>0.0422041</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0323533</v>
+        <v>0.0373228</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0369545</v>
+        <v>0.0445017</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0324969</v>
+        <v>0.0423489</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0328522</v>
+        <v>0.0380456</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0380868</v>
+        <v>0.0457056</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0328639</v>
+        <v>0.0428161</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0341302</v>
+        <v>0.0401968</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0390731</v>
+        <v>0.0441927</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0364141</v>
+        <v>0.0462881</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0317064</v>
+        <v>0.0393013</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0392949</v>
+        <v>0.0444902</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0363972</v>
+        <v>0.0465706</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0318967</v>
+        <v>0.0406358</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0395625</v>
+        <v>0.0449087</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.036428</v>
+        <v>0.0466935</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0321026</v>
+        <v>0.0396285</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0397507</v>
+        <v>0.0453016</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0364506</v>
+        <v>0.0467651</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0323148</v>
+        <v>0.0397884</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0399839</v>
+        <v>0.0456453</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.036493</v>
+        <v>0.0468825</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0324752</v>
+        <v>0.0401522</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0402547</v>
+        <v>0.0460738</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0366792</v>
+        <v>0.0469842</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0326912</v>
+        <v>0.0404005</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0404952</v>
+        <v>0.0464201</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0368185</v>
+        <v>0.0471093</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0330263</v>
+        <v>0.0405709</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0406431</v>
+        <v>0.0468916</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0370683</v>
+        <v>0.0472191</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0330177</v>
+        <v>0.0416253</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0408884</v>
+        <v>0.0472479</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0371653</v>
+        <v>0.0473504</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0332721</v>
+        <v>0.0425405</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0411109</v>
+        <v>0.0477181</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0373181</v>
+        <v>0.0474894</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0335718</v>
+        <v>0.0426776</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0413839</v>
+        <v>0.0488064</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0374527</v>
+        <v>0.0476953</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0341728</v>
+        <v>0.0420882</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0419434</v>
+        <v>0.0487628</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0375226</v>
+        <v>0.0478001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.034577</v>
+        <v>0.0428125</v>
       </c>
       <c r="D21" t="n">
-        <v>0.042925</v>
+        <v>0.0495424</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0377335</v>
+        <v>0.0479657</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0361459</v>
+        <v>0.0439992</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0462596</v>
+        <v>0.0531367</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0383791</v>
+        <v>0.0485027</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0418562</v>
+        <v>0.0497945</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0417234</v>
+        <v>0.0453827</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.042525</v>
+        <v>0.0491293</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0350418</v>
+        <v>0.0408604</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0418207</v>
+        <v>0.0457989</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0425568</v>
+        <v>0.0492376</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0355499</v>
+        <v>0.0411827</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0420299</v>
+        <v>0.046108</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0426199</v>
+        <v>0.0493091</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0357733</v>
+        <v>0.0417306</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0422796</v>
+        <v>0.0464209</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0426747</v>
+        <v>0.0493192</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0359795</v>
+        <v>0.0415048</v>
       </c>
       <c r="D27" t="n">
-        <v>0.042494</v>
+        <v>0.0476341</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0427857</v>
+        <v>0.0494352</v>
       </c>
       <c r="C28" t="n">
-        <v>0.036267</v>
+        <v>0.043183</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0427655</v>
+        <v>0.0471665</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0429238</v>
+        <v>0.049575</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0364711</v>
+        <v>0.0426785</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0429752</v>
+        <v>0.0475596</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0430724</v>
+        <v>0.0497214</v>
       </c>
       <c r="C30" t="n">
-        <v>0.036739</v>
+        <v>0.0425115</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0432712</v>
+        <v>0.0479852</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0432125</v>
+        <v>0.0498573</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0371503</v>
+        <v>0.0439241</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0434483</v>
+        <v>0.0483506</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0433773</v>
+        <v>0.0499938</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0376209</v>
+        <v>0.043196</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0437766</v>
+        <v>0.0489249</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0435567</v>
+        <v>0.0502012</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0381409</v>
+        <v>0.0447987</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0440385</v>
+        <v>0.0493597</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0437692</v>
+        <v>0.0503044</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0389708</v>
+        <v>0.0450223</v>
       </c>
       <c r="D34" t="n">
-        <v>0.045114</v>
+        <v>0.0508733</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.043929</v>
+        <v>0.0504784</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0410225</v>
+        <v>0.0470763</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0489821</v>
+        <v>0.05576</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.044541</v>
+        <v>0.0508169</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0456345</v>
+        <v>0.0518821</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0560574</v>
+        <v>0.0634569</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0460047</v>
+        <v>0.0523061</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0527159</v>
+        <v>0.0591633</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0463327</v>
+        <v>0.0498517</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0491987</v>
+        <v>0.0534719</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0399016</v>
+        <v>0.0449567</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0462009</v>
+        <v>0.0503593</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0483927</v>
+        <v>0.0546428</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0402221</v>
+        <v>0.0453073</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0464244</v>
+        <v>0.0506843</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0484774</v>
+        <v>0.0547165</v>
       </c>
       <c r="C40" t="n">
-        <v>0.040494</v>
+        <v>0.0457016</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0466664</v>
+        <v>0.0513317</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0485705</v>
+        <v>0.0547982</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0408666</v>
+        <v>0.0464927</v>
       </c>
       <c r="D41" t="n">
-        <v>0.046923</v>
+        <v>0.0515512</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.04866</v>
+        <v>0.0548738</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0413067</v>
+        <v>0.0465534</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0471502</v>
+        <v>0.0520763</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0487887</v>
+        <v>0.0549608</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0417128</v>
+        <v>0.047997</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0474799</v>
+        <v>0.053056</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0488926</v>
+        <v>0.0550903</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0420812</v>
+        <v>0.0475061</v>
       </c>
       <c r="D44" t="n">
-        <v>0.047686</v>
+        <v>0.0531278</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0490677</v>
+        <v>0.0551924</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0426287</v>
+        <v>0.0480394</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0480647</v>
+        <v>0.0536766</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0492457</v>
+        <v>0.0553565</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0433939</v>
+        <v>0.0493543</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0487015</v>
+        <v>0.0549994</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0494639</v>
+        <v>0.0555397</v>
       </c>
       <c r="C47" t="n">
-        <v>0.044658</v>
+        <v>0.0515397</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0499948</v>
+        <v>0.0574738</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0496844</v>
+        <v>0.0557687</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0468077</v>
+        <v>0.0528695</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0530967</v>
+        <v>0.0606981</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0502009</v>
+        <v>0.0561381</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0493711</v>
+        <v>0.0565779</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0568818</v>
+        <v>0.06438439999999999</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0515777</v>
+        <v>0.0575599</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0527227</v>
+        <v>0.0595719</v>
       </c>
       <c r="D50" t="n">
-        <v>0.061968</v>
+        <v>0.0684457</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0556352</v>
+        <v>0.061593</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0574141</v>
+        <v>0.06403929999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0505331</v>
+        <v>0.0547893</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.061</v>
+        <v>0.06688</v>
       </c>
       <c r="C52" t="n">
-        <v>0.06432649999999999</v>
+        <v>0.0712942</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0496768</v>
+        <v>0.055157</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0569113</v>
+        <v>0.0617894</v>
       </c>
       <c r="C53" t="n">
-        <v>0.045219</v>
+        <v>0.046273</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0499044</v>
+        <v>0.0558145</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0568828</v>
+        <v>0.0619023</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0455844</v>
+        <v>0.0470291</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0501263</v>
+        <v>0.0562776</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0569814</v>
+        <v>0.0619171</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0459966</v>
+        <v>0.0478515</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0504365</v>
+        <v>0.0569366</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0570909</v>
+        <v>0.062017</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0463762</v>
+        <v>0.0478773</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0507109</v>
+        <v>0.0571412</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0571841</v>
+        <v>0.0621462</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0467949</v>
+        <v>0.0485574</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0510778</v>
+        <v>0.0579478</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0573193</v>
+        <v>0.0623043</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0473979</v>
+        <v>0.0499179</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0515223</v>
+        <v>0.0589062</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0574773</v>
+        <v>0.0624928</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0481398</v>
+        <v>0.0505921</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0520622</v>
+        <v>0.0602203</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0576554</v>
+        <v>0.06268369999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0491422</v>
+        <v>0.0526416</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0531812</v>
+        <v>0.0618515</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0578384</v>
+        <v>0.0629083</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0503846</v>
+        <v>0.0540147</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0551309</v>
+        <v>0.0638624</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.058212</v>
+        <v>0.0633195</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0521698</v>
+        <v>0.0557882</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0577453</v>
+        <v>0.0660852</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0591664</v>
+        <v>0.0644106</v>
       </c>
       <c r="C63" t="n">
-        <v>0.054366</v>
+        <v>0.0582571</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0609461</v>
+        <v>0.06926160000000001</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.061449</v>
+        <v>0.0664184</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0572823</v>
+        <v>0.0614887</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0652674</v>
+        <v>0.0740582</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0641099</v>
+        <v>0.0692733</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0612065</v>
+        <v>0.0654636</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0717124</v>
+        <v>0.08056770000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0683386</v>
+        <v>0.0735553</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0673697</v>
+        <v>0.0721793</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0518934</v>
+        <v>0.0591227</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0605266</v>
+        <v>0.0678574</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0440997</v>
+        <v>0.0517981</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0516712</v>
+        <v>0.0595627</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0606047</v>
+        <v>0.0681208</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0443806</v>
+        <v>0.0523754</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0518984</v>
+        <v>0.0601167</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0608043</v>
+        <v>0.0682932</v>
       </c>
       <c r="C69" t="n">
-        <v>0.044779</v>
+        <v>0.0529775</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0521992</v>
+        <v>0.060762</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0608557</v>
+        <v>0.069427</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0452068</v>
+        <v>0.0536854</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0525924</v>
+        <v>0.0613834</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0610331</v>
+        <v>0.06917570000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0456776</v>
+        <v>0.0544946</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0529772</v>
+        <v>0.062339</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0611541</v>
+        <v>0.0699697</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0462691</v>
+        <v>0.0554617</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0535716</v>
+        <v>0.0636405</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0613947</v>
+        <v>0.07054149999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0471052</v>
+        <v>0.0569427</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0545586</v>
+        <v>0.06487370000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0613884</v>
+        <v>0.0709272</v>
       </c>
       <c r="C74" t="n">
-        <v>0.04817</v>
+        <v>0.0581047</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0559413</v>
+        <v>0.06640939999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.061924</v>
+        <v>0.0710742</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0494346</v>
+        <v>0.0595759</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0577312</v>
+        <v>0.0683637</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.062838</v>
+        <v>0.0716899</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0509099</v>
+        <v>0.0615711</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0595134</v>
+        <v>0.0706499</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.06401859999999999</v>
+        <v>0.0727932</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0532528</v>
+        <v>0.0643773</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0623155</v>
+        <v>0.07352400000000001</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0656093</v>
+        <v>0.0743886</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0558406</v>
+        <v>0.06781470000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0662498</v>
+        <v>0.07818849999999999</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.06787260000000001</v>
+        <v>0.07675360000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0595849</v>
+        <v>0.07165059999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.07205300000000001</v>
+        <v>0.0844724</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0715702</v>
+        <v>0.0805471</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0649893</v>
+        <v>0.077628</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0599393</v>
+        <v>0.130126</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.07505240000000001</v>
+        <v>0.188879</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0541642</v>
+        <v>0.15089</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0602514</v>
+        <v>0.131729</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.07532800000000001</v>
+        <v>0.186752</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0548112</v>
+        <v>0.148221</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0608299</v>
+        <v>0.128216</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0756677</v>
+        <v>0.188546</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0551599</v>
+        <v>0.151422</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0610592</v>
+        <v>0.133193</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.07463119999999999</v>
+        <v>0.191981</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0558584</v>
+        <v>0.149393</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0616481</v>
+        <v>0.134264</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0757306</v>
+        <v>0.189196</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0563336</v>
+        <v>0.154029</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0620965</v>
+        <v>0.137357</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.07627780000000001</v>
+        <v>0.19427</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0572331</v>
+        <v>0.152341</v>
       </c>
       <c r="D86" t="n">
-        <v>0.06285010000000001</v>
+        <v>0.140554</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0764059</v>
+        <v>0.19201</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0581221</v>
+        <v>0.15554</v>
       </c>
       <c r="D87" t="n">
-        <v>0.06390659999999999</v>
+        <v>0.139821</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0766276</v>
+        <v>0.193372</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0591093</v>
+        <v>0.153916</v>
       </c>
       <c r="D88" t="n">
-        <v>0.06488729999999999</v>
+        <v>0.144374</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0772491</v>
+        <v>0.194303</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0601835</v>
+        <v>0.15719</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0663193</v>
+        <v>0.148491</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0778431</v>
+        <v>0.193971</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0619065</v>
+        <v>0.156922</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0682856</v>
+        <v>0.149735</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0794209</v>
+        <v>0.195226</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0638932</v>
+        <v>0.159348</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0709491</v>
+        <v>0.152475</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.080502</v>
+        <v>0.19542</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0663748</v>
+        <v>0.161037</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0745412</v>
+        <v>0.154329</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.08250209999999999</v>
+        <v>0.19639</v>
       </c>
       <c r="C93" t="n">
-        <v>0.06986680000000001</v>
+        <v>0.164892</v>
       </c>
       <c r="D93" t="n">
-        <v>0.08006539999999999</v>
+        <v>0.159447</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0860934</v>
+        <v>0.199107</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0750107</v>
+        <v>0.166935</v>
       </c>
       <c r="D94" t="n">
-        <v>0.154462</v>
+        <v>0.241067</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.180511</v>
+        <v>0.262817</v>
       </c>
       <c r="C95" t="n">
-        <v>0.149187</v>
+        <v>0.224107</v>
       </c>
       <c r="D95" t="n">
-        <v>0.154003</v>
+        <v>0.242846</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.177293</v>
+        <v>0.263813</v>
       </c>
       <c r="C96" t="n">
-        <v>0.150078</v>
+        <v>0.225125</v>
       </c>
       <c r="D96" t="n">
-        <v>0.153622</v>
+        <v>0.244034</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.176037</v>
+        <v>0.263571</v>
       </c>
       <c r="C97" t="n">
-        <v>0.150439</v>
+        <v>0.226231</v>
       </c>
       <c r="D97" t="n">
-        <v>0.154925</v>
+        <v>0.246113</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.177805</v>
+        <v>0.263494</v>
       </c>
       <c r="C98" t="n">
-        <v>0.151128</v>
+        <v>0.227476</v>
       </c>
       <c r="D98" t="n">
-        <v>0.155317</v>
+        <v>0.248246</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.176499</v>
+        <v>0.264728</v>
       </c>
       <c r="C99" t="n">
-        <v>0.15166</v>
+        <v>0.228742</v>
       </c>
       <c r="D99" t="n">
-        <v>0.15617</v>
+        <v>0.250837</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.177505</v>
+        <v>0.263197</v>
       </c>
       <c r="C100" t="n">
-        <v>0.151744</v>
+        <v>0.230346</v>
       </c>
       <c r="D100" t="n">
-        <v>0.156386</v>
+        <v>0.252719</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.176462</v>
+        <v>0.264205</v>
       </c>
       <c r="C101" t="n">
-        <v>0.152826</v>
+        <v>0.231771</v>
       </c>
       <c r="D101" t="n">
-        <v>0.157659</v>
+        <v>0.255464</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.177466</v>
+        <v>0.264419</v>
       </c>
       <c r="C102" t="n">
-        <v>0.15329</v>
+        <v>0.234236</v>
       </c>
       <c r="D102" t="n">
-        <v>0.159069</v>
+        <v>0.257831</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.178506</v>
+        <v>0.264307</v>
       </c>
       <c r="C103" t="n">
-        <v>0.155058</v>
+        <v>0.235999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.161186</v>
+        <v>0.261565</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.178567</v>
+        <v>0.265453</v>
       </c>
       <c r="C104" t="n">
-        <v>0.155494</v>
+        <v>0.23886</v>
       </c>
       <c r="D104" t="n">
-        <v>0.162221</v>
+        <v>0.265799</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.17969</v>
+        <v>0.265666</v>
       </c>
       <c r="C105" t="n">
-        <v>0.156714</v>
+        <v>0.24216</v>
       </c>
       <c r="D105" t="n">
-        <v>0.163704</v>
+        <v>0.269729</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.180289</v>
+        <v>0.266029</v>
       </c>
       <c r="C106" t="n">
-        <v>0.158724</v>
+        <v>0.245216</v>
       </c>
       <c r="D106" t="n">
-        <v>0.166511</v>
+        <v>0.27373</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.182446</v>
+        <v>0.268276</v>
       </c>
       <c r="C107" t="n">
-        <v>0.161719</v>
+        <v>0.250402</v>
       </c>
       <c r="D107" t="n">
-        <v>0.170566</v>
+        <v>0.281953</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.182409</v>
+        <v>0.270808</v>
       </c>
       <c r="C108" t="n">
-        <v>0.164322</v>
+        <v>0.256155</v>
       </c>
       <c r="D108" t="n">
-        <v>0.224858</v>
+        <v>0.300193</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.186953</v>
+        <v>0.275024</v>
       </c>
       <c r="C109" t="n">
-        <v>0.170202</v>
+        <v>0.264379</v>
       </c>
       <c r="D109" t="n">
-        <v>0.225866</v>
+        <v>0.302751</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.237678</v>
+        <v>0.300287</v>
       </c>
       <c r="C110" t="n">
-        <v>0.197942</v>
+        <v>0.261383</v>
       </c>
       <c r="D110" t="n">
-        <v>0.226631</v>
+        <v>0.304384</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.238536</v>
+        <v>0.302791</v>
       </c>
       <c r="C111" t="n">
-        <v>0.198674</v>
+        <v>0.263797</v>
       </c>
       <c r="D111" t="n">
-        <v>0.227196</v>
+        <v>0.306955</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.238201</v>
+        <v>0.301215</v>
       </c>
       <c r="C112" t="n">
-        <v>0.199622</v>
+        <v>0.266706</v>
       </c>
       <c r="D112" t="n">
-        <v>0.22789</v>
+        <v>0.310832</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.236919</v>
+        <v>0.300422</v>
       </c>
       <c r="C113" t="n">
-        <v>0.200191</v>
+        <v>0.268723</v>
       </c>
       <c r="D113" t="n">
-        <v>0.228956</v>
+        <v>0.313545</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.238408</v>
+        <v>0.30183</v>
       </c>
       <c r="C114" t="n">
-        <v>0.201468</v>
+        <v>0.271344</v>
       </c>
       <c r="D114" t="n">
-        <v>0.230246</v>
+        <v>0.315844</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.237207</v>
+        <v>0.30034</v>
       </c>
       <c r="C115" t="n">
-        <v>0.202827</v>
+        <v>0.274018</v>
       </c>
       <c r="D115" t="n">
-        <v>0.23173</v>
+        <v>0.319342</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.237889</v>
+        <v>0.301625</v>
       </c>
       <c r="C116" t="n">
-        <v>0.203893</v>
+        <v>0.277232</v>
       </c>
       <c r="D116" t="n">
-        <v>0.23317</v>
+        <v>0.322686</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.239375</v>
+        <v>0.301511</v>
       </c>
       <c r="C117" t="n">
-        <v>0.205739</v>
+        <v>0.28124</v>
       </c>
       <c r="D117" t="n">
-        <v>0.23609</v>
+        <v>0.328192</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.239355</v>
+        <v>0.300898</v>
       </c>
       <c r="C118" t="n">
-        <v>0.208011</v>
+        <v>0.285301</v>
       </c>
       <c r="D118" t="n">
-        <v>0.237845</v>
+        <v>0.332946</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.24202</v>
+        <v>0.302631</v>
       </c>
       <c r="C119" t="n">
-        <v>0.210255</v>
+        <v>0.288976</v>
       </c>
       <c r="D119" t="n">
-        <v>0.242037</v>
+        <v>0.337974</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.23988</v>
+        <v>0.304316</v>
       </c>
       <c r="C120" t="n">
-        <v>0.213822</v>
+        <v>0.294475</v>
       </c>
       <c r="D120" t="n">
-        <v>0.245541</v>
+        <v>0.345201</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.240813</v>
+        <v>0.304646</v>
       </c>
       <c r="C121" t="n">
-        <v>0.211716</v>
+        <v>0.300711</v>
       </c>
       <c r="D121" t="n">
-        <v>0.251075</v>
+        <v>0.353846</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.245883</v>
+        <v>0.309503</v>
       </c>
       <c r="C122" t="n">
-        <v>0.218125</v>
+        <v>0.305597</v>
       </c>
       <c r="D122" t="n">
-        <v>0.25921</v>
+        <v>0.364189</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.24867</v>
+        <v>0.311367</v>
       </c>
       <c r="C123" t="n">
-        <v>0.226033</v>
+        <v>0.315427</v>
       </c>
       <c r="D123" t="n">
-        <v>0.254259</v>
+        <v>0.333923</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.314349</v>
+        <v>0.386804</v>
       </c>
       <c r="C124" t="n">
-        <v>0.219014</v>
+        <v>0.288279</v>
       </c>
       <c r="D124" t="n">
-        <v>0.255018</v>
+        <v>0.335501</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.314892</v>
+        <v>0.38597</v>
       </c>
       <c r="C125" t="n">
-        <v>0.220037</v>
+        <v>0.291105</v>
       </c>
       <c r="D125" t="n">
-        <v>0.255729</v>
+        <v>0.345349</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.314073</v>
+        <v>0.387636</v>
       </c>
       <c r="C126" t="n">
-        <v>0.220816</v>
+        <v>0.293345</v>
       </c>
       <c r="D126" t="n">
-        <v>0.256783</v>
+        <v>0.349184</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.314915</v>
+        <v>0.385545</v>
       </c>
       <c r="C127" t="n">
-        <v>0.222077</v>
+        <v>0.296181</v>
       </c>
       <c r="D127" t="n">
-        <v>0.258254</v>
+        <v>0.349714</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.315118</v>
+        <v>0.386063</v>
       </c>
       <c r="C128" t="n">
-        <v>0.223745</v>
+        <v>0.299162</v>
       </c>
       <c r="D128" t="n">
-        <v>0.260041</v>
+        <v>0.355452</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315114</v>
+        <v>0.387579</v>
       </c>
       <c r="C129" t="n">
-        <v>0.225169</v>
+        <v>0.302251</v>
       </c>
       <c r="D129" t="n">
-        <v>0.261606</v>
+        <v>0.355437</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.314909</v>
+        <v>0.385695</v>
       </c>
       <c r="C130" t="n">
-        <v>0.227439</v>
+        <v>0.30558</v>
       </c>
       <c r="D130" t="n">
-        <v>0.264019</v>
+        <v>0.361721</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.315745</v>
+        <v>0.38641</v>
       </c>
       <c r="C131" t="n">
-        <v>0.223255</v>
+        <v>0.309404</v>
       </c>
       <c r="D131" t="n">
-        <v>0.263526</v>
+        <v>0.368552</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.314949</v>
+        <v>0.387463</v>
       </c>
       <c r="C132" t="n">
-        <v>0.226853</v>
+        <v>0.312779</v>
       </c>
       <c r="D132" t="n">
-        <v>0.264531</v>
+        <v>0.373405</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.316126</v>
+        <v>0.386386</v>
       </c>
       <c r="C133" t="n">
-        <v>0.230002</v>
+        <v>0.317087</v>
       </c>
       <c r="D133" t="n">
-        <v>0.269025</v>
+        <v>0.376675</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.316776</v>
+        <v>0.387721</v>
       </c>
       <c r="C134" t="n">
-        <v>0.234717</v>
+        <v>0.322593</v>
       </c>
       <c r="D134" t="n">
-        <v>0.274687</v>
+        <v>0.387181</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.318186</v>
+        <v>0.389216</v>
       </c>
       <c r="C135" t="n">
-        <v>0.240087</v>
+        <v>0.328727</v>
       </c>
       <c r="D135" t="n">
-        <v>0.282827</v>
+        <v>0.392936</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.319395</v>
+        <v>0.389998</v>
       </c>
       <c r="C136" t="n">
-        <v>0.247235</v>
+        <v>0.336782</v>
       </c>
       <c r="D136" t="n">
-        <v>0.29306</v>
+        <v>0.404057</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.322725</v>
+        <v>0.395735</v>
       </c>
       <c r="C137" t="n">
-        <v>0.257283</v>
+        <v>0.348768</v>
       </c>
       <c r="D137" t="n">
-        <v>0.271599</v>
+        <v>0.354227</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.371881</v>
+        <v>0.450286</v>
       </c>
       <c r="C138" t="n">
-        <v>0.2321</v>
+        <v>0.308431</v>
       </c>
       <c r="D138" t="n">
-        <v>0.272921</v>
+        <v>0.356005</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.372398</v>
+        <v>0.450639</v>
       </c>
       <c r="C139" t="n">
-        <v>0.233129</v>
+        <v>0.310853</v>
       </c>
       <c r="D139" t="n">
-        <v>0.273766</v>
+        <v>0.35813</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.372023</v>
+        <v>0.450136</v>
       </c>
       <c r="C140" t="n">
-        <v>0.234509</v>
+        <v>0.313726</v>
       </c>
       <c r="D140" t="n">
-        <v>0.275337</v>
+        <v>0.360574</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.372632</v>
+        <v>0.450438</v>
       </c>
       <c r="C141" t="n">
-        <v>0.235929</v>
+        <v>0.316577</v>
       </c>
       <c r="D141" t="n">
-        <v>0.276868</v>
+        <v>0.363483</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.372187</v>
+        <v>0.450421</v>
       </c>
       <c r="C142" t="n">
-        <v>0.233678</v>
+        <v>0.319154</v>
       </c>
       <c r="D142" t="n">
-        <v>0.278427</v>
+        <v>0.366103</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.37261</v>
+        <v>0.450922</v>
       </c>
       <c r="C143" t="n">
-        <v>0.236063</v>
+        <v>0.322266</v>
       </c>
       <c r="D143" t="n">
-        <v>0.277342</v>
+        <v>0.369179</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -93,7 +93,7 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_set</v>
+            <v>absl::flat_hash_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +553,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185383</v>
+                  <v>0.0198274</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.185607</v>
+                  <v>0.0198243</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.186605</v>
+                  <v>0.0198059</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.187124</v>
+                  <v>0.0199393</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.188247</v>
+                  <v>0.0198465</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.189644</v>
+                  <v>0.0200695</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.191261</v>
+                  <v>0.0203167</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.193866</v>
+                  <v>0.0207984</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.189625</v>
+                  <v>0.019398</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.189347</v>
+                  <v>0.0196474</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.18967</v>
+                  <v>0.0198002</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.189651</v>
+                  <v>0.0198351</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.189799</v>
+                  <v>0.020005</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.190668</v>
+                  <v>0.0201547</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.190507</v>
+                  <v>0.0202387</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.190882</v>
+                  <v>0.0202416</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.191645</v>
+                  <v>0.0205515</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.192909</v>
+                  <v>0.020734</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.194129</v>
+                  <v>0.0208632</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.196017</v>
+                  <v>0.0212432</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.198191</v>
+                  <v>0.0218651</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.201494</v>
+                  <v>0.0253637</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.19585</v>
+                  <v>0.0203899</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.195797</v>
+                  <v>0.0204771</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.195992</v>
+                  <v>0.0206748</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.195994</v>
+                  <v>0.0207843</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.196362</v>
+                  <v>0.0210829</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.196625</v>
+                  <v>0.0211716</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196864</v>
+                  <v>0.0214289</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.197264</v>
+                  <v>0.0215001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.198098</v>
+                  <v>0.0218002</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.199083</v>
+                  <v>0.0221683</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.200285</v>
+                  <v>0.0231472</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.202461</v>
+                  <v>0.0257742</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.20494</v>
+                  <v>0.0289348</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.208708</v>
+                  <v>0.0322824</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.204984</v>
+                  <v>0.0214691</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.20572</v>
+                  <v>0.0217903</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.20395</v>
+                  <v>0.0219112</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.206755</v>
+                  <v>0.0219809</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.206874</v>
+                  <v>0.0221479</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.206643</v>
+                  <v>0.0224448</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.207752</v>
+                  <v>0.02262</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.206632</v>
+                  <v>0.0231701</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.208039</v>
+                  <v>0.0235929</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.208508</v>
+                  <v>0.024466</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.21314</v>
+                  <v>0.0257139</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.214405</v>
+                  <v>0.0282271</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.216212</v>
+                  <v>0.0303257</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.220277</v>
+                  <v>0.0351291</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.225836</v>
+                  <v>0.0408898</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239701</v>
+                  <v>0.0231879</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239374</v>
+                  <v>0.0233257</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.239406</v>
+                  <v>0.0235135</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.239685</v>
+                  <v>0.0237414</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.240074</v>
+                  <v>0.0239179</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.239923</v>
+                  <v>0.0244805</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.240387</v>
+                  <v>0.0248999</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.240948</v>
+                  <v>0.0254771</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.241596</v>
+                  <v>0.0265139</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.242725</v>
+                  <v>0.0280363</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.2443</v>
+                  <v>0.0300505</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.246192</v>
+                  <v>0.0328613</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.249543</v>
+                  <v>0.036562</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.254656</v>
+                  <v>0.0420912</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.255606</v>
+                  <v>0.0291857</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.25724</v>
+                  <v>0.0293683</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.258741</v>
+                  <v>0.0294951</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.256833</v>
+                  <v>0.029813</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.257274</v>
+                  <v>0.0300128</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.262396</v>
+                  <v>0.0302796</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.25894</v>
+                  <v>0.030801</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.261004</v>
+                  <v>0.031446</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.260554</v>
+                  <v>0.0324341</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.260622</v>
+                  <v>0.0335695</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.265311</v>
+                  <v>0.0353551</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.27449</v>
+                  <v>0.0378182</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.282328</v>
+                  <v>0.0410501</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.283954</v>
+                  <v>0.0456478</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.434666</v>
+                  <v>0.0552817</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.448057</v>
+                  <v>0.0555326</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.385917</v>
+                  <v>0.0556777</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.399879</v>
+                  <v>0.0557553</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.455774</v>
+                  <v>0.0559421</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.443092</v>
+                  <v>0.0562511</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.39204</v>
+                  <v>0.056543</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.360522</v>
+                  <v>0.056954</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.359055</v>
+                  <v>0.0573628</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.395665</v>
+                  <v>0.0581532</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.376249</v>
+                  <v>0.0593444</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.379278</v>
+                  <v>0.0607396</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.403744</v>
+                  <v>0.06325</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.437741</v>
+                  <v>0.0670234</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.550984</v>
+                  <v>0.086252</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56246</v>
+                  <v>0.0863121</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.528468</v>
+                  <v>0.08631</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.522787</v>
+                  <v>0.08640920000000001</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.522766</v>
+                  <v>0.0864456</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.541872</v>
+                  <v>0.08653959999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.485955</v>
+                  <v>0.0867363</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.504454</v>
+                  <v>0.0870079</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.513336</v>
+                  <v>0.0874346</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.443294</v>
+                  <v>0.0880908</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.449806</v>
+                  <v>0.08892</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.508251</v>
+                  <v>0.0899819</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.455857</v>
+                  <v>0.0920994</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.506961</v>
+                  <v>0.0950337</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.497047</v>
+                  <v>0.100164</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.5698029999999999</v>
+                  <v>0.113889</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.62543</v>
+                  <v>0.114021</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.578956</v>
+                  <v>0.114114</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.64242</v>
+                  <v>0.114157</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.590384</v>
+                  <v>0.114198</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.5832270000000001</v>
+                  <v>0.114387</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.55203</v>
+                  <v>0.114667</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.551107</v>
+                  <v>0.115047</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.5461549999999999</v>
+                  <v>0.115835</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.558638</v>
+                  <v>0.116215</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.546427</v>
+                  <v>0.117455</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.541991</v>
+                  <v>0.119136</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.530105</v>
+                  <v>0.122216</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.574083</v>
+                  <v>0.130657</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.678766</v>
+                  <v>0.140904</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.691848</v>
+                  <v>0.140713</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.627237</v>
+                  <v>0.140603</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.6081220000000001</v>
+                  <v>0.140544</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.639138</v>
+                  <v>0.140461</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.632568</v>
+                  <v>0.140955</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.64813</v>
+                  <v>0.142695</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6033500000000001</v>
+                  <v>0.141111</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.6096279999999999</v>
+                  <v>0.141474</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.666418</v>
+                  <v>0.141584</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.722901</v>
+                  <v>0.144383</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.6843399999999999</v>
+                  <v>0.144338</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.691974</v>
+                  <v>0.146809</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.7238830000000001</v>
+                  <v>0.150574</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.767194</v>
+                  <v>0.157534</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.7875</v>
+                  <v>0.15768</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.791062</v>
+                  <v>0.157841</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.758329</v>
+                  <v>0.170985</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.770876</v>
+                  <v>0.158043</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.737333</v>
+                  <v>0.158496</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +987,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_set</v>
+            <v>foa_unordered_rc16_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1447,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.207513</v>
+                  <v>0.01963</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.207817</v>
+                  <v>0.0195504</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.208593</v>
+                  <v>0.0196026</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.209369</v>
+                  <v>0.0196237</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.211344</v>
+                  <v>0.0194434</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.212097</v>
+                  <v>0.0196089</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.213952</v>
+                  <v>0.0196438</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.217604</v>
+                  <v>0.019683</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.207746</v>
+                  <v>0.0206908</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.209665</v>
+                  <v>0.0208145</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20981</v>
+                  <v>0.0208233</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210476</v>
+                  <v>0.0208079</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.210732</v>
+                  <v>0.0210678</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.211696</v>
+                  <v>0.0211339</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.212256</v>
+                  <v>0.021293</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.212852</v>
+                  <v>0.0213755</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.213634</v>
+                  <v>0.0214194</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.215167</v>
+                  <v>0.0216061</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.215972</v>
+                  <v>0.0216834</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.21763</v>
+                  <v>0.0216891</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.220112</v>
+                  <v>0.021814</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.223056</v>
+                  <v>0.02224</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.209433</v>
+                  <v>0.0218223</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.209564</v>
+                  <v>0.021951</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.210185</v>
+                  <v>0.0222832</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.210438</v>
+                  <v>0.0225478</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211247</v>
+                  <v>0.0226653</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.211254</v>
+                  <v>0.0228678</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.212385</v>
+                  <v>0.0232795</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.213096</v>
+                  <v>0.0234118</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.214233</v>
+                  <v>0.0236239</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.215302</v>
+                  <v>0.0237577</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.21649</v>
+                  <v>0.0245297</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.21861</v>
+                  <v>0.0248515</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.221448</v>
+                  <v>0.0259781</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.22576</v>
+                  <v>0.028096</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.213927</v>
+                  <v>0.0231379</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.214925</v>
+                  <v>0.0235392</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.215476</v>
+                  <v>0.0237383</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.215189</v>
+                  <v>0.0240298</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.216189</v>
+                  <v>0.0242845</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.21693</v>
+                  <v>0.0248099</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.218236</v>
+                  <v>0.0251381</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.219015</v>
+                  <v>0.0255035</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.221901</v>
+                  <v>0.026017</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.219659</v>
+                  <v>0.0265204</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.222921</v>
+                  <v>0.0273233</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.224707</v>
+                  <v>0.0288886</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.229186</v>
+                  <v>0.0309086</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.233644</v>
+                  <v>0.035125</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.241295</v>
+                  <v>0.0395813</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239069</v>
+                  <v>0.0250602</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239541</v>
+                  <v>0.0252618</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.240295</v>
+                  <v>0.0256001</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.242151</v>
+                  <v>0.0259637</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.243641</v>
+                  <v>0.0263006</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.243783</v>
+                  <v>0.0266533</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.244885</v>
+                  <v>0.027142</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.246437</v>
+                  <v>0.0277574</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.247802</v>
+                  <v>0.0284471</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.249783</v>
+                  <v>0.0293755</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.252535</v>
+                  <v>0.0310293</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.256059</v>
+                  <v>0.0333401</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.260138</v>
+                  <v>0.0369138</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.268357</v>
+                  <v>0.0422301</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.275224</v>
+                  <v>0.027755</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.276503</v>
+                  <v>0.028318</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.277776</v>
+                  <v>0.0282048</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.278297</v>
+                  <v>0.0288949</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.280737</v>
+                  <v>0.0291466</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.28054</v>
+                  <v>0.0296631</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.281726</v>
+                  <v>0.0302154</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.282924</v>
+                  <v>0.0308858</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285336</v>
+                  <v>0.0317299</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.287671</v>
+                  <v>0.0327248</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.291509</v>
+                  <v>0.0344036</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.2952</v>
+                  <v>0.0365419</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307095</v>
+                  <v>0.0395077</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.312665</v>
+                  <v>0.0440142</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.287846</v>
+                  <v>0.0384812</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.302136</v>
+                  <v>0.0393181</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.27906</v>
+                  <v>0.0400471</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.304678</v>
+                  <v>0.0410283</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.356345</v>
+                  <v>0.0422285</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.288947</v>
+                  <v>0.0436636</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.290747</v>
+                  <v>0.0450427</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.28432</v>
+                  <v>0.0465122</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.296649</v>
+                  <v>0.048317</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.295213</v>
+                  <v>0.0499665</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.314524</v>
+                  <v>0.0516792</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.322241</v>
+                  <v>0.0540677</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.336039</v>
+                  <v>0.0567184</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.321098</v>
+                  <v>0.0613213</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.484726</v>
+                  <v>0.07599069999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.498166</v>
+                  <v>0.0765213</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.517987</v>
+                  <v>0.0769676</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.532666</v>
+                  <v>0.07758429999999999</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.495137</v>
+                  <v>0.0782827</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.449602</v>
+                  <v>0.0789179</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.413912</v>
+                  <v>0.07968980000000001</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.546197</v>
+                  <v>0.0805656</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.382799</v>
+                  <v>0.0816693</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.377815</v>
+                  <v>0.0863792</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.521379</v>
+                  <v>0.08411639999999999</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.421292</v>
+                  <v>0.0859486</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438736</v>
+                  <v>0.08840779999999999</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.521957</v>
+                  <v>0.0922501</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.475413</v>
+                  <v>0.0984163</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.617764</v>
+                  <v>0.0907982</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.654273</v>
+                  <v>0.0916492</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.6944939999999999</v>
+                  <v>0.092555</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.656334</v>
+                  <v>0.0937095</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.649984</v>
+                  <v>0.09565650000000001</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.531063</v>
+                  <v>0.103513</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.550509</v>
+                  <v>0.0973205</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.5761579999999999</v>
+                  <v>0.0988463</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.578</v>
+                  <v>0.100303</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.647649</v>
+                  <v>0.102148</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.63648</v>
+                  <v>0.104312</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.628615</v>
+                  <v>0.107029</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.59633</v>
+                  <v>0.111037</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.625355</v>
+                  <v>0.116985</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.659179</v>
+                  <v>0.102804</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.666982</v>
+                  <v>0.108721</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.656903</v>
+                  <v>0.105795</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.657123</v>
+                  <v>0.107499</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.711487</v>
+                  <v>0.109135</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.689036</v>
+                  <v>0.111421</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.707103</v>
+                  <v>0.113514</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6603290000000001</v>
+                  <v>0.114964</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.687039</v>
+                  <v>0.116895</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.737206</v>
+                  <v>0.119313</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.720435</v>
+                  <v>0.121782</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.759125</v>
+                  <v>0.124925</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.798233</v>
+                  <v>0.12911</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.809383</v>
+                  <v>0.135094</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.738269</v>
+                  <v>0.116615</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.739426</v>
+                  <v>0.118091</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.752214</v>
+                  <v>0.119623</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.772877</v>
+                  <v>0.121247</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.746614</v>
+                  <v>0.122801</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.761084</v>
+                  <v>0.12453</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1881,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_set</v>
+            <v>foa_unordered_rc15_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2341,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.216837</v>
+                  <v>0.0210661</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.218104</v>
+                  <v>0.0210821</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.219175</v>
+                  <v>0.0210432</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.220505</v>
+                  <v>0.0210228</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.221362</v>
+                  <v>0.0211017</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.224182</v>
+                  <v>0.021451</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.228887</v>
+                  <v>0.0215967</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.21728</v>
+                  <v>0.021032</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.217315</v>
+                  <v>0.021237</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.21793</v>
+                  <v>0.0214398</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217787</v>
+                  <v>0.0216389</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.217923</v>
+                  <v>0.0217625</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.218541</v>
+                  <v>0.0220811</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.21938</v>
+                  <v>0.0221537</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.220115</v>
+                  <v>0.0222621</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.22137</v>
+                  <v>0.022351</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.222222</v>
+                  <v>0.0223659</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.223529</v>
+                  <v>0.0223994</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.22549</v>
+                  <v>0.0224787</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.228447</v>
+                  <v>0.0225969</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.232987</v>
+                  <v>0.0229866</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.219102</v>
+                  <v>0.0222081</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.219541</v>
+                  <v>0.0224424</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.219748</v>
+                  <v>0.0227148</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.219959</v>
+                  <v>0.0228976</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.220642</v>
+                  <v>0.0231426</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.221022</v>
+                  <v>0.0233641</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.221462</v>
+                  <v>0.0236678</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.222167</v>
+                  <v>0.0238622</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.223124</v>
+                  <v>0.0240883</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.224288</v>
+                  <v>0.0241209</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.225905</v>
+                  <v>0.0243341</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.227744</v>
+                  <v>0.0249996</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.230598</v>
+                  <v>0.0258005</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.236023</v>
+                  <v>0.0317443</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.223464</v>
+                  <v>0.0233782</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.224531</v>
+                  <v>0.0235387</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.224587</v>
+                  <v>0.0237574</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.224483</v>
+                  <v>0.0240607</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.224507</v>
+                  <v>0.0243991</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224405</v>
+                  <v>0.0246515</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.226664</v>
+                  <v>0.0249339</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.22932</v>
+                  <v>0.0252916</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.227395</v>
+                  <v>0.0255331</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.229934</v>
+                  <v>0.0260222</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.230548</v>
+                  <v>0.0266838</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.233495</v>
+                  <v>0.0278203</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.236796</v>
+                  <v>0.0305126</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.241887</v>
+                  <v>0.0344632</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.249886</v>
+                  <v>0.0242031</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.250123</v>
+                  <v>0.0243873</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.250994</v>
+                  <v>0.0246308</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.250755</v>
+                  <v>0.0248962</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.252193</v>
+                  <v>0.0251551</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.253215</v>
+                  <v>0.0255061</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.254239</v>
+                  <v>0.025758</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.254333</v>
+                  <v>0.0261621</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.254855</v>
+                  <v>0.0266822</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.25697</v>
+                  <v>0.027176</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.258883</v>
+                  <v>0.0279736</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.260853</v>
+                  <v>0.0294383</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.264751</v>
+                  <v>0.0324535</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.269732</v>
+                  <v>0.0364486</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.276114</v>
+                  <v>0.042747</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.273031</v>
+                  <v>0.0261578</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.273085</v>
+                  <v>0.0266345</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.274781</v>
+                  <v>0.0270048</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.276111</v>
+                  <v>0.0274462</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.276388</v>
+                  <v>0.0276478</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.279423</v>
+                  <v>0.0280925</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.279404</v>
+                  <v>0.0295698</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.283286</v>
+                  <v>0.0301268</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.283068</v>
+                  <v>0.0308125</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285769</v>
+                  <v>0.0310039</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.290016</v>
+                  <v>0.0325978</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.294341</v>
+                  <v>0.0358014</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.299975</v>
+                  <v>0.0390005</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307466</v>
+                  <v>0.0449875</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.35631</v>
+                  <v>0.0407134</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.346467</v>
+                  <v>0.0414223</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.341993</v>
+                  <v>0.0420164</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.343153</v>
+                  <v>0.0428758</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.401885</v>
+                  <v>0.0435859</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.397565</v>
+                  <v>0.0441158</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.332944</v>
+                  <v>0.0451214</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.344294</v>
+                  <v>0.045933</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.325342</v>
+                  <v>0.0468684</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.352167</v>
+                  <v>0.0477272</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.337268</v>
+                  <v>0.0490508</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.36583</v>
+                  <v>0.0513003</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.380756</v>
+                  <v>0.0542639</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.421928</v>
+                  <v>0.0587909</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.501549</v>
+                  <v>0.08060109999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.537262</v>
+                  <v>0.08116420000000001</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56011</v>
+                  <v>0.0815678</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.5275609999999999</v>
+                  <v>0.08204690000000001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.495897</v>
+                  <v>0.08264589999999999</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.572755</v>
+                  <v>0.0832561</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.498945</v>
+                  <v>0.0837205</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.449178</v>
+                  <v>0.0845051</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.547782</v>
+                  <v>0.08527559999999999</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.415949</v>
+                  <v>0.0864844</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.390068</v>
+                  <v>0.0876881</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.52965</v>
+                  <v>0.08924799999999999</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.403388</v>
+                  <v>0.096528</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438826</v>
+                  <v>0.0955449</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.602194</v>
+                  <v>0.0975452</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.620428</v>
+                  <v>0.0983436</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.725276</v>
+                  <v>0.0990383</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.702693</v>
+                  <v>0.09986689999999999</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.73215</v>
+                  <v>0.100985</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.661095</v>
+                  <v>0.101987</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.606508</v>
+                  <v>0.102746</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.582412</v>
+                  <v>0.10438</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.6140600000000001</v>
+                  <v>0.105384</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.607225</v>
+                  <v>0.106778</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.58941</v>
+                  <v>0.108591</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.744695</v>
+                  <v>0.110691</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.644252</v>
+                  <v>0.113494</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.5756869999999999</v>
+                  <v>0.117535</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.654726</v>
+                  <v>0.123795</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.742186</v>
+                  <v>0.115482</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.727647</v>
+                  <v>0.116645</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.695211</v>
+                  <v>0.1179</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.797323</v>
+                  <v>0.119136</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.741178</v>
+                  <v>0.12028</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.736914</v>
+                  <v>0.121788</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.781694</v>
+                  <v>0.123885</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.746709</v>
+                  <v>0.125833</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.689246</v>
+                  <v>0.1268</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.72965</v>
+                  <v>0.129052</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.8171620000000001</v>
+                  <v>0.132444</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.776553</v>
+                  <v>0.134565</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.784866</v>
+                  <v>0.138824</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.837244</v>
+                  <v>0.145371</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.8127220000000001</v>
+                  <v>0.129339</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.830338</v>
+                  <v>0.130682</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.815751</v>
+                  <v>0.131871</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.825283</v>
+                  <v>0.133153</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.822431</v>
+                  <v>0.134562</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.828008</v>
+                  <v>0.135784</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.854793</v>
+                  <v>0.137311</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3210,36 +3210,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Hoja1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="3" style="1" width="11.42578125"/>
+    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>absl::flat_hash_set</t>
+          <t>absl::flat_hash_map</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_set</t>
+          <t>foa_unordered_rc16_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_set</t>
+          <t>foa_unordered_rc15_map</t>
         </is>
       </c>
     </row>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0414105</v>
+        <v>0.0401013</v>
       </c>
       <c r="C2" t="n">
-        <v>0.035858</v>
+        <v>0.0358113</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04211</v>
+        <v>0.0419211</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.041577</v>
+        <v>0.0403583</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0357787</v>
+        <v>0.0362385</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0423628</v>
+        <v>0.0424954</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.041769</v>
+        <v>0.040504</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0360787</v>
+        <v>0.0366029</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0427484</v>
+        <v>0.0428018</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0419604</v>
+        <v>0.040697</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0364274</v>
+        <v>0.0364216</v>
       </c>
       <c r="D5" t="n">
-        <v>0.043136</v>
+        <v>0.0431739</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.042053</v>
+        <v>0.0407447</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0381853</v>
+        <v>0.0365645</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0437481</v>
+        <v>0.0436936</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0422041</v>
+        <v>0.0409021</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0373228</v>
+        <v>0.0369985</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0445017</v>
+        <v>0.0440299</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0423489</v>
+        <v>0.0411103</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0380456</v>
+        <v>0.0378613</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0457056</v>
+        <v>0.0451665</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0428161</v>
+        <v>0.0415482</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0401968</v>
+        <v>0.0392454</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0441927</v>
+        <v>0.04509</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0462881</v>
+        <v>0.0468703</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0393013</v>
+        <v>0.04023</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0444902</v>
+        <v>0.0461259</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0465706</v>
+        <v>0.0469272</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0406358</v>
+        <v>0.0406328</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0449087</v>
+        <v>0.0463869</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0466935</v>
+        <v>0.0470357</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0396285</v>
+        <v>0.0409631</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0453016</v>
+        <v>0.0467748</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0467651</v>
+        <v>0.0471145</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0397884</v>
+        <v>0.0411939</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0456453</v>
+        <v>0.0471062</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0468825</v>
+        <v>0.0472161</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0401522</v>
+        <v>0.04163</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0460738</v>
+        <v>0.047441</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0469842</v>
+        <v>0.0473119</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0404005</v>
+        <v>0.0418379</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0464201</v>
+        <v>0.0478051</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0471093</v>
+        <v>0.0474384</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0405709</v>
+        <v>0.0419551</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0468916</v>
+        <v>0.0480785</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0472191</v>
+        <v>0.0475589</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0416253</v>
+        <v>0.042241</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0472479</v>
+        <v>0.0483787</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0473504</v>
+        <v>0.0477347</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0425405</v>
+        <v>0.0423015</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0477181</v>
+        <v>0.0486685</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0474894</v>
+        <v>0.0478722</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0426776</v>
+        <v>0.0425112</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0488064</v>
+        <v>0.0491198</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0476953</v>
+        <v>0.0479345</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0420882</v>
+        <v>0.0427915</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0487628</v>
+        <v>0.0494983</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0478001</v>
+        <v>0.0481612</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0428125</v>
+        <v>0.0433816</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0495424</v>
+        <v>0.0505283</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0479657</v>
+        <v>0.0484214</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0439992</v>
+        <v>0.0446735</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0531367</v>
+        <v>0.0536937</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0485027</v>
+        <v>0.0488952</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0497945</v>
+        <v>0.0500673</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0453827</v>
+        <v>0.0485211</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0491293</v>
+        <v>0.0503487</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0408604</v>
+        <v>0.042878</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0457989</v>
+        <v>0.0494132</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0492376</v>
+        <v>0.0504069</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0411827</v>
+        <v>0.0432025</v>
       </c>
       <c r="D25" t="n">
-        <v>0.046108</v>
+        <v>0.0495646</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0493091</v>
+        <v>0.0504927</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0417306</v>
+        <v>0.0434064</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0464209</v>
+        <v>0.050034</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0493192</v>
+        <v>0.0505056</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0415048</v>
+        <v>0.0437041</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0476341</v>
+        <v>0.050218</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0494352</v>
+        <v>0.050614</v>
       </c>
       <c r="C28" t="n">
-        <v>0.043183</v>
+        <v>0.0439351</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0471665</v>
+        <v>0.0505025</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.049575</v>
+        <v>0.0507185</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0426785</v>
+        <v>0.044301</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0475596</v>
+        <v>0.0508885</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0497214</v>
+        <v>0.050848</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0425115</v>
+        <v>0.0444697</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0479852</v>
+        <v>0.0513333</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0498573</v>
+        <v>0.0509958</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0439241</v>
+        <v>0.0448628</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0483506</v>
+        <v>0.0517916</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0499938</v>
+        <v>0.0511227</v>
       </c>
       <c r="C32" t="n">
-        <v>0.043196</v>
+        <v>0.0450496</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0489249</v>
+        <v>0.052162</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0502012</v>
+        <v>0.0513083</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0447987</v>
+        <v>0.0454218</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0493597</v>
+        <v>0.0526978</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0503044</v>
+        <v>0.0514124</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0450223</v>
+        <v>0.0461747</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0508733</v>
+        <v>0.0537604</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0504784</v>
+        <v>0.0516929</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0470763</v>
+        <v>0.0483451</v>
       </c>
       <c r="D35" t="n">
-        <v>0.05576</v>
+        <v>0.0571065</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0508169</v>
+        <v>0.0520186</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0518821</v>
+        <v>0.053525</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0634569</v>
+        <v>0.06381870000000001</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0523061</v>
+        <v>0.0534545</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0591633</v>
+        <v>0.0606508</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0498517</v>
+        <v>0.0515743</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0534719</v>
+        <v>0.0558495</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0449567</v>
+        <v>0.0473031</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0503593</v>
+        <v>0.0521016</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0546428</v>
+        <v>0.0559107</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0453073</v>
+        <v>0.0475338</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0506843</v>
+        <v>0.0525041</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0547165</v>
+        <v>0.0559841</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0457016</v>
+        <v>0.0479949</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0513317</v>
+        <v>0.0530224</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0547982</v>
+        <v>0.0560577</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0464927</v>
+        <v>0.0482248</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0515512</v>
+        <v>0.0532746</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0548738</v>
+        <v>0.0561874</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0465534</v>
+        <v>0.0486231</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0520763</v>
+        <v>0.0534915</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0549608</v>
+        <v>0.056282</v>
       </c>
       <c r="C43" t="n">
-        <v>0.047997</v>
+        <v>0.0490634</v>
       </c>
       <c r="D43" t="n">
-        <v>0.053056</v>
+        <v>0.0541432</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0550903</v>
+        <v>0.0564128</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0475061</v>
+        <v>0.0494694</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0531278</v>
+        <v>0.054611</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0551924</v>
+        <v>0.0565528</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0480394</v>
+        <v>0.049864</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0536766</v>
+        <v>0.0552085</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0553565</v>
+        <v>0.0566814</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0493543</v>
+        <v>0.0504334</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0549994</v>
+        <v>0.0554459</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0555397</v>
+        <v>0.0568033</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0515397</v>
+        <v>0.0517302</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0574738</v>
+        <v>0.0570966</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0557687</v>
+        <v>0.0570987</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0528695</v>
+        <v>0.0542261</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0606981</v>
+        <v>0.0597279</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0561381</v>
+        <v>0.0574144</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0565779</v>
+        <v>0.0569774</v>
       </c>
       <c r="D49" t="n">
-        <v>0.06438439999999999</v>
+        <v>0.06333800000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0575599</v>
+        <v>0.0587729</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0595719</v>
+        <v>0.060396</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0684457</v>
+        <v>0.0680755</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.061593</v>
+        <v>0.06275749999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.06403929999999999</v>
+        <v>0.0650155</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0547893</v>
+        <v>0.0573145</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.06688</v>
+        <v>0.06802279999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0712942</v>
+        <v>0.07211579999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.055157</v>
+        <v>0.0576946</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0617894</v>
+        <v>0.0613056</v>
       </c>
       <c r="C53" t="n">
-        <v>0.046273</v>
+        <v>0.0486313</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0558145</v>
+        <v>0.0580746</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0619023</v>
+        <v>0.0614752</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0470291</v>
+        <v>0.0492038</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0562776</v>
+        <v>0.0584632</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0619171</v>
+        <v>0.0615431</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0478515</v>
+        <v>0.0497569</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0569366</v>
+        <v>0.0589286</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.062017</v>
+        <v>0.0616558</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0478773</v>
+        <v>0.0503774</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0571412</v>
+        <v>0.059356</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0621462</v>
+        <v>0.0617522</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0485574</v>
+        <v>0.0510917</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0579478</v>
+        <v>0.0598858</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0623043</v>
+        <v>0.0619295</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0499179</v>
+        <v>0.051673</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0589062</v>
+        <v>0.0604639</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0624928</v>
+        <v>0.062116</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0505921</v>
+        <v>0.0525484</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0602203</v>
+        <v>0.0611256</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.06268369999999999</v>
+        <v>0.062275</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0526416</v>
+        <v>0.053837</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0618515</v>
+        <v>0.0622888</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0629083</v>
+        <v>0.06253160000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0540147</v>
+        <v>0.0553502</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0638624</v>
+        <v>0.06409620000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0633195</v>
+        <v>0.06286029999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0557882</v>
+        <v>0.0571408</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0660852</v>
+        <v>0.0666028</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0644106</v>
+        <v>0.0639729</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0582571</v>
+        <v>0.0593571</v>
       </c>
       <c r="D63" t="n">
-        <v>0.06926160000000001</v>
+        <v>0.0696748</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0664184</v>
+        <v>0.06591080000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0614887</v>
+        <v>0.0623856</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0740582</v>
+        <v>0.0739808</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0692733</v>
+        <v>0.0688875</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0654636</v>
+        <v>0.0663319</v>
       </c>
       <c r="D65" t="n">
-        <v>0.08056770000000001</v>
+        <v>0.080507</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0735553</v>
+        <v>0.07319249999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0721793</v>
+        <v>0.0727464</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0591227</v>
+        <v>0.0621012</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0678574</v>
+        <v>0.0729395</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0517981</v>
+        <v>0.0574931</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0595627</v>
+        <v>0.0627943</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0681208</v>
+        <v>0.0732355</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0523754</v>
+        <v>0.0579576</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0601167</v>
+        <v>0.0634373</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0682932</v>
+        <v>0.07346750000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0529775</v>
+        <v>0.0584268</v>
       </c>
       <c r="D69" t="n">
-        <v>0.060762</v>
+        <v>0.0639752</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.069427</v>
+        <v>0.0736425</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0536854</v>
+        <v>0.059112</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0613834</v>
+        <v>0.06465129999999999</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.06917570000000001</v>
+        <v>0.0740159</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0544946</v>
+        <v>0.0598034</v>
       </c>
       <c r="D71" t="n">
-        <v>0.062339</v>
+        <v>0.0654522</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0699697</v>
+        <v>0.0742331</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0554617</v>
+        <v>0.0606136</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0636405</v>
+        <v>0.06680510000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.07054149999999999</v>
+        <v>0.0745492</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0569427</v>
+        <v>0.0616438</v>
       </c>
       <c r="D73" t="n">
-        <v>0.06487370000000001</v>
+        <v>0.06756180000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0709272</v>
+        <v>0.07490330000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0581047</v>
+        <v>0.0627656</v>
       </c>
       <c r="D74" t="n">
-        <v>0.06640939999999999</v>
+        <v>0.0692641</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0710742</v>
+        <v>0.0753103</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0595759</v>
+        <v>0.0641284</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0683637</v>
+        <v>0.07096769999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0716899</v>
+        <v>0.07585069999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0615711</v>
+        <v>0.0657252</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0706499</v>
+        <v>0.0727529</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0727932</v>
+        <v>0.0769671</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0643773</v>
+        <v>0.0675608</v>
       </c>
       <c r="D77" t="n">
-        <v>0.07352400000000001</v>
+        <v>0.0750493</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0743886</v>
+        <v>0.0785308</v>
       </c>
       <c r="C78" t="n">
-        <v>0.06781470000000001</v>
+        <v>0.07038030000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.07818849999999999</v>
+        <v>0.0789509</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.07675360000000001</v>
+        <v>0.0806577</v>
       </c>
       <c r="C79" t="n">
-        <v>0.07165059999999999</v>
+        <v>0.0742298</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0844724</v>
+        <v>0.0851137</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0805471</v>
+        <v>0.0841479</v>
       </c>
       <c r="C80" t="n">
-        <v>0.077628</v>
+        <v>0.07968069999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.130126</v>
+        <v>0.111245</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.188879</v>
+        <v>0.188377</v>
       </c>
       <c r="C81" t="n">
-        <v>0.15089</v>
+        <v>0.151059</v>
       </c>
       <c r="D81" t="n">
-        <v>0.131729</v>
+        <v>0.11365</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.186752</v>
+        <v>0.187895</v>
       </c>
       <c r="C82" t="n">
-        <v>0.148221</v>
+        <v>0.152866</v>
       </c>
       <c r="D82" t="n">
-        <v>0.128216</v>
+        <v>0.116273</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.188546</v>
+        <v>0.18994</v>
       </c>
       <c r="C83" t="n">
-        <v>0.151422</v>
+        <v>0.153145</v>
       </c>
       <c r="D83" t="n">
-        <v>0.133193</v>
+        <v>0.120081</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.191981</v>
+        <v>0.189987</v>
       </c>
       <c r="C84" t="n">
-        <v>0.149393</v>
+        <v>0.152227</v>
       </c>
       <c r="D84" t="n">
-        <v>0.134264</v>
+        <v>0.118756</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.189196</v>
+        <v>0.193943</v>
       </c>
       <c r="C85" t="n">
-        <v>0.154029</v>
+        <v>0.154428</v>
       </c>
       <c r="D85" t="n">
-        <v>0.137357</v>
+        <v>0.126908</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.19427</v>
+        <v>0.191429</v>
       </c>
       <c r="C86" t="n">
-        <v>0.152341</v>
+        <v>0.154586</v>
       </c>
       <c r="D86" t="n">
-        <v>0.140554</v>
+        <v>0.126885</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.19201</v>
+        <v>0.193035</v>
       </c>
       <c r="C87" t="n">
-        <v>0.15554</v>
+        <v>0.155126</v>
       </c>
       <c r="D87" t="n">
-        <v>0.139821</v>
+        <v>0.128735</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.193372</v>
+        <v>0.192547</v>
       </c>
       <c r="C88" t="n">
-        <v>0.153916</v>
+        <v>0.156469</v>
       </c>
       <c r="D88" t="n">
-        <v>0.144374</v>
+        <v>0.133248</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.194303</v>
+        <v>0.194118</v>
       </c>
       <c r="C89" t="n">
-        <v>0.15719</v>
+        <v>0.155708</v>
       </c>
       <c r="D89" t="n">
-        <v>0.148491</v>
+        <v>0.132726</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.193971</v>
+        <v>0.194575</v>
       </c>
       <c r="C90" t="n">
-        <v>0.156922</v>
+        <v>0.156372</v>
       </c>
       <c r="D90" t="n">
-        <v>0.149735</v>
+        <v>0.135566</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.195226</v>
+        <v>0.194762</v>
       </c>
       <c r="C91" t="n">
-        <v>0.159348</v>
+        <v>0.158878</v>
       </c>
       <c r="D91" t="n">
-        <v>0.152475</v>
+        <v>0.138576</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.19542</v>
+        <v>0.196867</v>
       </c>
       <c r="C92" t="n">
-        <v>0.161037</v>
+        <v>0.160069</v>
       </c>
       <c r="D92" t="n">
-        <v>0.154329</v>
+        <v>0.14496</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.19639</v>
+        <v>0.196755</v>
       </c>
       <c r="C93" t="n">
-        <v>0.164892</v>
+        <v>0.162081</v>
       </c>
       <c r="D93" t="n">
-        <v>0.159447</v>
+        <v>0.148452</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.199107</v>
+        <v>0.199748</v>
       </c>
       <c r="C94" t="n">
-        <v>0.166935</v>
+        <v>0.167106</v>
       </c>
       <c r="D94" t="n">
-        <v>0.241067</v>
+        <v>0.227666</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.262817</v>
+        <v>0.261487</v>
       </c>
       <c r="C95" t="n">
-        <v>0.224107</v>
+        <v>0.22155</v>
       </c>
       <c r="D95" t="n">
-        <v>0.242846</v>
+        <v>0.229368</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.263813</v>
+        <v>0.262741</v>
       </c>
       <c r="C96" t="n">
-        <v>0.225125</v>
+        <v>0.222332</v>
       </c>
       <c r="D96" t="n">
-        <v>0.244034</v>
+        <v>0.230938</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.263571</v>
+        <v>0.262472</v>
       </c>
       <c r="C97" t="n">
-        <v>0.226231</v>
+        <v>0.22345</v>
       </c>
       <c r="D97" t="n">
-        <v>0.246113</v>
+        <v>0.233556</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.263494</v>
+        <v>0.262795</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227476</v>
+        <v>0.22475</v>
       </c>
       <c r="D98" t="n">
-        <v>0.248246</v>
+        <v>0.235406</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.264728</v>
+        <v>0.263407</v>
       </c>
       <c r="C99" t="n">
-        <v>0.228742</v>
+        <v>0.22609</v>
       </c>
       <c r="D99" t="n">
-        <v>0.250837</v>
+        <v>0.23755</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.263197</v>
+        <v>0.262671</v>
       </c>
       <c r="C100" t="n">
-        <v>0.230346</v>
+        <v>0.227154</v>
       </c>
       <c r="D100" t="n">
-        <v>0.252719</v>
+        <v>0.23863</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.264205</v>
+        <v>0.262755</v>
       </c>
       <c r="C101" t="n">
-        <v>0.231771</v>
+        <v>0.22841</v>
       </c>
       <c r="D101" t="n">
-        <v>0.255464</v>
+        <v>0.240062</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.264419</v>
+        <v>0.263247</v>
       </c>
       <c r="C102" t="n">
-        <v>0.234236</v>
+        <v>0.229778</v>
       </c>
       <c r="D102" t="n">
-        <v>0.257831</v>
+        <v>0.243236</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.264307</v>
+        <v>0.263591</v>
       </c>
       <c r="C103" t="n">
-        <v>0.235999</v>
+        <v>0.231691</v>
       </c>
       <c r="D103" t="n">
-        <v>0.261565</v>
+        <v>0.244897</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.265453</v>
+        <v>0.264131</v>
       </c>
       <c r="C104" t="n">
-        <v>0.23886</v>
+        <v>0.23343</v>
       </c>
       <c r="D104" t="n">
-        <v>0.265799</v>
+        <v>0.246984</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.265666</v>
+        <v>0.264527</v>
       </c>
       <c r="C105" t="n">
-        <v>0.24216</v>
+        <v>0.235664</v>
       </c>
       <c r="D105" t="n">
-        <v>0.269729</v>
+        <v>0.249407</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.266029</v>
+        <v>0.265494</v>
       </c>
       <c r="C106" t="n">
-        <v>0.245216</v>
+        <v>0.238709</v>
       </c>
       <c r="D106" t="n">
-        <v>0.27373</v>
+        <v>0.254545</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.268276</v>
+        <v>0.266945</v>
       </c>
       <c r="C107" t="n">
-        <v>0.250402</v>
+        <v>0.242726</v>
       </c>
       <c r="D107" t="n">
-        <v>0.281953</v>
+        <v>0.259127</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.270808</v>
+        <v>0.269797</v>
       </c>
       <c r="C108" t="n">
-        <v>0.256155</v>
+        <v>0.247415</v>
       </c>
       <c r="D108" t="n">
-        <v>0.300193</v>
+        <v>0.291066</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.275024</v>
+        <v>0.274876</v>
       </c>
       <c r="C109" t="n">
-        <v>0.264379</v>
+        <v>0.255235</v>
       </c>
       <c r="D109" t="n">
-        <v>0.302751</v>
+        <v>0.292493</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.300287</v>
+        <v>0.300865</v>
       </c>
       <c r="C110" t="n">
-        <v>0.261383</v>
+        <v>0.258137</v>
       </c>
       <c r="D110" t="n">
-        <v>0.304384</v>
+        <v>0.296145</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.302791</v>
+        <v>0.298011</v>
       </c>
       <c r="C111" t="n">
-        <v>0.263797</v>
+        <v>0.261219</v>
       </c>
       <c r="D111" t="n">
-        <v>0.306955</v>
+        <v>0.298765</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.301215</v>
+        <v>0.302413</v>
       </c>
       <c r="C112" t="n">
-        <v>0.266706</v>
+        <v>0.263868</v>
       </c>
       <c r="D112" t="n">
-        <v>0.310832</v>
+        <v>0.3008</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.300422</v>
+        <v>0.298967</v>
       </c>
       <c r="C113" t="n">
-        <v>0.268723</v>
+        <v>0.266111</v>
       </c>
       <c r="D113" t="n">
-        <v>0.313545</v>
+        <v>0.303516</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.30183</v>
+        <v>0.301093</v>
       </c>
       <c r="C114" t="n">
-        <v>0.271344</v>
+        <v>0.268166</v>
       </c>
       <c r="D114" t="n">
-        <v>0.315844</v>
+        <v>0.305909</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.30034</v>
+        <v>0.29868</v>
       </c>
       <c r="C115" t="n">
-        <v>0.274018</v>
+        <v>0.271297</v>
       </c>
       <c r="D115" t="n">
-        <v>0.319342</v>
+        <v>0.308818</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.301625</v>
+        <v>0.299897</v>
       </c>
       <c r="C116" t="n">
-        <v>0.277232</v>
+        <v>0.274168</v>
       </c>
       <c r="D116" t="n">
-        <v>0.322686</v>
+        <v>0.312163</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.301511</v>
+        <v>0.299943</v>
       </c>
       <c r="C117" t="n">
-        <v>0.28124</v>
+        <v>0.277379</v>
       </c>
       <c r="D117" t="n">
-        <v>0.328192</v>
+        <v>0.316439</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.300898</v>
+        <v>0.301206</v>
       </c>
       <c r="C118" t="n">
-        <v>0.285301</v>
+        <v>0.280477</v>
       </c>
       <c r="D118" t="n">
-        <v>0.332946</v>
+        <v>0.31931</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.302631</v>
+        <v>0.301478</v>
       </c>
       <c r="C119" t="n">
-        <v>0.288976</v>
+        <v>0.283869</v>
       </c>
       <c r="D119" t="n">
-        <v>0.337974</v>
+        <v>0.323589</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.304316</v>
+        <v>0.302528</v>
       </c>
       <c r="C120" t="n">
-        <v>0.294475</v>
+        <v>0.288197</v>
       </c>
       <c r="D120" t="n">
-        <v>0.345201</v>
+        <v>0.329172</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.304646</v>
+        <v>0.303497</v>
       </c>
       <c r="C121" t="n">
-        <v>0.300711</v>
+        <v>0.292543</v>
       </c>
       <c r="D121" t="n">
-        <v>0.353846</v>
+        <v>0.334984</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.309503</v>
+        <v>0.306978</v>
       </c>
       <c r="C122" t="n">
-        <v>0.305597</v>
+        <v>0.299909</v>
       </c>
       <c r="D122" t="n">
-        <v>0.364189</v>
+        <v>0.344172</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.311367</v>
+        <v>0.312265</v>
       </c>
       <c r="C123" t="n">
-        <v>0.315427</v>
+        <v>0.307899</v>
       </c>
       <c r="D123" t="n">
-        <v>0.333923</v>
+        <v>0.3418</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.386804</v>
+        <v>0.386043</v>
       </c>
       <c r="C124" t="n">
-        <v>0.288279</v>
+        <v>0.288536</v>
       </c>
       <c r="D124" t="n">
-        <v>0.335501</v>
+        <v>0.339818</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.38597</v>
+        <v>0.384622</v>
       </c>
       <c r="C125" t="n">
-        <v>0.291105</v>
+        <v>0.292434</v>
       </c>
       <c r="D125" t="n">
-        <v>0.345349</v>
+        <v>0.345162</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.387636</v>
+        <v>0.389243</v>
       </c>
       <c r="C126" t="n">
-        <v>0.293345</v>
+        <v>0.295565</v>
       </c>
       <c r="D126" t="n">
-        <v>0.349184</v>
+        <v>0.348807</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.385545</v>
+        <v>0.384428</v>
       </c>
       <c r="C127" t="n">
-        <v>0.296181</v>
+        <v>0.298433</v>
       </c>
       <c r="D127" t="n">
-        <v>0.349714</v>
+        <v>0.350916</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.386063</v>
+        <v>0.385329</v>
       </c>
       <c r="C128" t="n">
-        <v>0.299162</v>
+        <v>0.302553</v>
       </c>
       <c r="D128" t="n">
-        <v>0.355452</v>
+        <v>0.354711</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.387579</v>
+        <v>0.38627</v>
       </c>
       <c r="C129" t="n">
-        <v>0.302251</v>
+        <v>0.30599</v>
       </c>
       <c r="D129" t="n">
-        <v>0.355437</v>
+        <v>0.359775</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.385695</v>
+        <v>0.386553</v>
       </c>
       <c r="C130" t="n">
-        <v>0.30558</v>
+        <v>0.309129</v>
       </c>
       <c r="D130" t="n">
-        <v>0.361721</v>
+        <v>0.361761</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.38641</v>
+        <v>0.386513</v>
       </c>
       <c r="C131" t="n">
-        <v>0.309404</v>
+        <v>0.314099</v>
       </c>
       <c r="D131" t="n">
-        <v>0.368552</v>
+        <v>0.367403</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.387463</v>
+        <v>0.38725</v>
       </c>
       <c r="C132" t="n">
-        <v>0.312779</v>
+        <v>0.316991</v>
       </c>
       <c r="D132" t="n">
-        <v>0.373405</v>
+        <v>0.370928</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.386386</v>
+        <v>0.386783</v>
       </c>
       <c r="C133" t="n">
-        <v>0.317087</v>
+        <v>0.322404</v>
       </c>
       <c r="D133" t="n">
-        <v>0.376675</v>
+        <v>0.376835</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.387721</v>
+        <v>0.38957</v>
       </c>
       <c r="C134" t="n">
-        <v>0.322593</v>
+        <v>0.327336</v>
       </c>
       <c r="D134" t="n">
-        <v>0.387181</v>
+        <v>0.382719</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.389216</v>
+        <v>0.389989</v>
       </c>
       <c r="C135" t="n">
-        <v>0.328727</v>
+        <v>0.33288</v>
       </c>
       <c r="D135" t="n">
-        <v>0.392936</v>
+        <v>0.391215</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.389998</v>
+        <v>0.39159</v>
       </c>
       <c r="C136" t="n">
-        <v>0.336782</v>
+        <v>0.340211</v>
       </c>
       <c r="D136" t="n">
-        <v>0.404057</v>
+        <v>0.402105</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.395735</v>
+        <v>0.39685</v>
       </c>
       <c r="C137" t="n">
-        <v>0.348768</v>
+        <v>0.350531</v>
       </c>
       <c r="D137" t="n">
-        <v>0.354227</v>
+        <v>0.357447</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.450286</v>
+        <v>0.447876</v>
       </c>
       <c r="C138" t="n">
-        <v>0.308431</v>
+        <v>0.306486</v>
       </c>
       <c r="D138" t="n">
-        <v>0.356005</v>
+        <v>0.362488</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.450639</v>
+        <v>0.449946</v>
       </c>
       <c r="C139" t="n">
-        <v>0.310853</v>
+        <v>0.310575</v>
       </c>
       <c r="D139" t="n">
-        <v>0.35813</v>
+        <v>0.362973</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.450136</v>
+        <v>0.44987</v>
       </c>
       <c r="C140" t="n">
-        <v>0.313726</v>
+        <v>0.31402</v>
       </c>
       <c r="D140" t="n">
-        <v>0.360574</v>
+        <v>0.369137</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.450438</v>
+        <v>0.450002</v>
       </c>
       <c r="C141" t="n">
-        <v>0.316577</v>
+        <v>0.317664</v>
       </c>
       <c r="D141" t="n">
-        <v>0.363483</v>
+        <v>0.370851</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.450421</v>
+        <v>0.451958</v>
       </c>
       <c r="C142" t="n">
-        <v>0.319154</v>
+        <v>0.320892</v>
       </c>
       <c r="D142" t="n">
-        <v>0.366103</v>
+        <v>0.375802</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.450922</v>
+        <v>0.448381</v>
       </c>
       <c r="C143" t="n">
-        <v>0.322266</v>
+        <v>0.325225</v>
       </c>
       <c r="D143" t="n">
-        <v>0.369179</v>
+        <v>0.379044</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0401013</v>
+        <v>0.0411293</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0358113</v>
+        <v>0.0363318</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0419211</v>
+        <v>0.0431094</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0403583</v>
+        <v>0.0414412</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0362385</v>
+        <v>0.0366975</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0424954</v>
+        <v>0.0433892</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.040504</v>
+        <v>0.0417346</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0366029</v>
+        <v>0.0365241</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0428018</v>
+        <v>0.0436752</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.040697</v>
+        <v>0.0419392</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0364216</v>
+        <v>0.0367606</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0431739</v>
+        <v>0.0439374</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0407447</v>
+        <v>0.0420836</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0365645</v>
+        <v>0.0368855</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0436936</v>
+        <v>0.0445652</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0409021</v>
+        <v>0.0419056</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0369985</v>
+        <v>0.0382637</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0440299</v>
+        <v>0.0450033</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0411103</v>
+        <v>0.042238</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0378613</v>
+        <v>0.0380319</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0451665</v>
+        <v>0.0461661</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0415482</v>
+        <v>0.0427516</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0392454</v>
+        <v>0.0394049</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04509</v>
+        <v>0.0451832</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0468703</v>
+        <v>0.0477666</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04023</v>
+        <v>0.0396935</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0461259</v>
+        <v>0.045533</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0469272</v>
+        <v>0.0479058</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0406328</v>
+        <v>0.0400616</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0463869</v>
+        <v>0.0458124</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0470357</v>
+        <v>0.0477464</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0409631</v>
+        <v>0.0407139</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0467748</v>
+        <v>0.0461461</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0471145</v>
+        <v>0.0480491</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0411939</v>
+        <v>0.041003</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0471062</v>
+        <v>0.0464997</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0472161</v>
+        <v>0.0481362</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04163</v>
+        <v>0.0412849</v>
       </c>
       <c r="D14" t="n">
-        <v>0.047441</v>
+        <v>0.0468178</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0473119</v>
+        <v>0.0480557</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0418379</v>
+        <v>0.0415727</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0478051</v>
+        <v>0.0471123</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0474384</v>
+        <v>0.0481706</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0419551</v>
+        <v>0.0415358</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0480785</v>
+        <v>0.0473342</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0475589</v>
+        <v>0.0485257</v>
       </c>
       <c r="C17" t="n">
-        <v>0.042241</v>
+        <v>0.0414017</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0483787</v>
+        <v>0.0476827</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0477347</v>
+        <v>0.0486448</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0423015</v>
+        <v>0.0421361</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0486685</v>
+        <v>0.0481509</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0478722</v>
+        <v>0.0485604</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0425112</v>
+        <v>0.0425173</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0491198</v>
+        <v>0.048602</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0479345</v>
+        <v>0.0489378</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0427915</v>
+        <v>0.0421902</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0494983</v>
+        <v>0.0489126</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0481612</v>
+        <v>0.0491257</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0433816</v>
+        <v>0.0428983</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0505283</v>
+        <v>0.0501729</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0484214</v>
+        <v>0.0493877</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0446735</v>
+        <v>0.0447292</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0536937</v>
+        <v>0.0533645</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0488952</v>
+        <v>0.0497242</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0500673</v>
+        <v>0.0498689</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0485211</v>
+        <v>0.0470342</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0503487</v>
+        <v>0.0497594</v>
       </c>
       <c r="C24" t="n">
-        <v>0.042878</v>
+        <v>0.0418165</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0494132</v>
+        <v>0.0472715</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0504069</v>
+        <v>0.0506564</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0432025</v>
+        <v>0.0420745</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0495646</v>
+        <v>0.0477044</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0504927</v>
+        <v>0.0504418</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0434064</v>
+        <v>0.0426514</v>
       </c>
       <c r="D26" t="n">
-        <v>0.050034</v>
+        <v>0.047968</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0505056</v>
+        <v>0.0507811</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0437041</v>
+        <v>0.0428904</v>
       </c>
       <c r="D27" t="n">
-        <v>0.050218</v>
+        <v>0.0482621</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.050614</v>
+        <v>0.0508635</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0439351</v>
+        <v>0.0428376</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0505025</v>
+        <v>0.0486279</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0507185</v>
+        <v>0.0502016</v>
       </c>
       <c r="C29" t="n">
-        <v>0.044301</v>
+        <v>0.0430445</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0508885</v>
+        <v>0.0489357</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.050848</v>
+        <v>0.0507578</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0444697</v>
+        <v>0.0436702</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0513333</v>
+        <v>0.0492631</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0509958</v>
+        <v>0.0512809</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0448628</v>
+        <v>0.0442244</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0517916</v>
+        <v>0.0495937</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0511227</v>
+        <v>0.0513757</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0450496</v>
+        <v>0.0444149</v>
       </c>
       <c r="D32" t="n">
-        <v>0.052162</v>
+        <v>0.0500525</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0513083</v>
+        <v>0.0515561</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0454218</v>
+        <v>0.0448932</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0526978</v>
+        <v>0.0506299</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0514124</v>
+        <v>0.0516953</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0461747</v>
+        <v>0.0457495</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0537604</v>
+        <v>0.0516461</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0516929</v>
+        <v>0.0510818</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0483451</v>
+        <v>0.0478541</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0571065</v>
+        <v>0.0551558</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0520186</v>
+        <v>0.0523221</v>
       </c>
       <c r="C36" t="n">
-        <v>0.053525</v>
+        <v>0.0530575</v>
       </c>
       <c r="D36" t="n">
-        <v>0.06381870000000001</v>
+        <v>0.0617906</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0534545</v>
+        <v>0.0535497</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0606508</v>
+        <v>0.0599623</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0515743</v>
+        <v>0.0521796</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0558495</v>
+        <v>0.0567555</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0473031</v>
+        <v>0.0466549</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0521016</v>
+        <v>0.0525021</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0559107</v>
+        <v>0.0558892</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0475338</v>
+        <v>0.0469844</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0525041</v>
+        <v>0.0530795</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0559841</v>
+        <v>0.0559769</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0479949</v>
+        <v>0.0473613</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0530224</v>
+        <v>0.0529623</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0560577</v>
+        <v>0.0560724</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0482248</v>
+        <v>0.0476819</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0532746</v>
+        <v>0.0540442</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0561874</v>
+        <v>0.0561654</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0486231</v>
+        <v>0.0481781</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0534915</v>
+        <v>0.0544745</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.056282</v>
+        <v>0.0562549</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0490634</v>
+        <v>0.0487273</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0541432</v>
+        <v>0.0547713</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0564128</v>
+        <v>0.0563706</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0494694</v>
+        <v>0.0491383</v>
       </c>
       <c r="D44" t="n">
-        <v>0.054611</v>
+        <v>0.0548605</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0565528</v>
+        <v>0.0565273</v>
       </c>
       <c r="C45" t="n">
-        <v>0.049864</v>
+        <v>0.0495545</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0552085</v>
+        <v>0.0550891</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0566814</v>
+        <v>0.0566706</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0504334</v>
+        <v>0.0502724</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0554459</v>
+        <v>0.0556809</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0568033</v>
+        <v>0.0568251</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0517302</v>
+        <v>0.0516841</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0570966</v>
+        <v>0.0566695</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0570987</v>
+        <v>0.057113</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0542261</v>
+        <v>0.0540869</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0597279</v>
+        <v>0.0606899</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0574144</v>
+        <v>0.0573827</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0569774</v>
+        <v>0.0568531</v>
       </c>
       <c r="D49" t="n">
-        <v>0.06333800000000001</v>
+        <v>0.06411699999999999</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0587729</v>
+        <v>0.0587325</v>
       </c>
       <c r="C50" t="n">
-        <v>0.060396</v>
+        <v>0.0603666</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0680755</v>
+        <v>0.0690297</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.06275749999999999</v>
+        <v>0.0628301</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0650155</v>
+        <v>0.0649588</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0573145</v>
+        <v>0.0570356</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.06802279999999999</v>
+        <v>0.0680412</v>
       </c>
       <c r="C52" t="n">
-        <v>0.07211579999999999</v>
+        <v>0.07233439999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0576946</v>
+        <v>0.0573737</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0613056</v>
+        <v>0.0616763</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0486313</v>
+        <v>0.047626</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0580746</v>
+        <v>0.0577794</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0614752</v>
+        <v>0.061083</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0492038</v>
+        <v>0.0480289</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0584632</v>
+        <v>0.057604</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0615431</v>
+        <v>0.0610938</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0497569</v>
+        <v>0.0487906</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0589286</v>
+        <v>0.0586839</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0616558</v>
+        <v>0.0612641</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0503774</v>
+        <v>0.049224</v>
       </c>
       <c r="D56" t="n">
-        <v>0.059356</v>
+        <v>0.0579719</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0617522</v>
+        <v>0.0613905</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0510917</v>
+        <v>0.0499656</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0598858</v>
+        <v>0.0567951</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0619295</v>
+        <v>0.0615363</v>
       </c>
       <c r="C58" t="n">
-        <v>0.051673</v>
+        <v>0.05077</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0604639</v>
+        <v>0.0589258</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.062116</v>
+        <v>0.0617264</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0525484</v>
+        <v>0.0515733</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0611256</v>
+        <v>0.0590256</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.062275</v>
+        <v>0.0619077</v>
       </c>
       <c r="C60" t="n">
-        <v>0.053837</v>
+        <v>0.0528005</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0622888</v>
+        <v>0.0607712</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.06253160000000001</v>
+        <v>0.0622359</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0553502</v>
+        <v>0.0543504</v>
       </c>
       <c r="D61" t="n">
-        <v>0.06409620000000001</v>
+        <v>0.0630708</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06286029999999999</v>
+        <v>0.0625498</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0571408</v>
+        <v>0.0561729</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0666028</v>
+        <v>0.06550250000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0639729</v>
+        <v>0.06366380000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0593571</v>
+        <v>0.0586734</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0696748</v>
+        <v>0.06826649999999999</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.06591080000000001</v>
+        <v>0.0657369</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0623856</v>
+        <v>0.06164</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0739808</v>
+        <v>0.0728362</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0688875</v>
+        <v>0.06844500000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0663319</v>
+        <v>0.06554980000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.080507</v>
+        <v>0.0793005</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07319249999999999</v>
+        <v>0.0726357</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0727464</v>
+        <v>0.07212159999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0621012</v>
+        <v>0.0600272</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0729395</v>
+        <v>0.0746082</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0574931</v>
+        <v>0.0575682</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0627943</v>
+        <v>0.0608154</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0732355</v>
+        <v>0.0749271</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0579576</v>
+        <v>0.0579808</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0634373</v>
+        <v>0.0612633</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.07346750000000001</v>
+        <v>0.0753767</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0584268</v>
+        <v>0.058479</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0639752</v>
+        <v>0.0618469</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0736425</v>
+        <v>0.0755499</v>
       </c>
       <c r="C70" t="n">
-        <v>0.059112</v>
+        <v>0.0592034</v>
       </c>
       <c r="D70" t="n">
-        <v>0.06465129999999999</v>
+        <v>0.0623311</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0740159</v>
+        <v>0.07568229999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0598034</v>
+        <v>0.0597511</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0654522</v>
+        <v>0.062891</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0742331</v>
+        <v>0.0758437</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0606136</v>
+        <v>0.0603891</v>
       </c>
       <c r="D72" t="n">
-        <v>0.06680510000000001</v>
+        <v>0.0636969</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0745492</v>
+        <v>0.076573</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0616438</v>
+        <v>0.0614449</v>
       </c>
       <c r="D73" t="n">
-        <v>0.06756180000000001</v>
+        <v>0.064774</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.07490330000000001</v>
+        <v>0.0769794</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0627656</v>
+        <v>0.0627795</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0692641</v>
+        <v>0.0664125</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0753103</v>
+        <v>0.0772481</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0641284</v>
+        <v>0.06405710000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.07096769999999999</v>
+        <v>0.0680148</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.07585069999999999</v>
+        <v>0.07785309999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0657252</v>
+        <v>0.065427</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0727529</v>
+        <v>0.06998459999999999</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0769671</v>
+        <v>0.07900359999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0675608</v>
+        <v>0.0676889</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0750493</v>
+        <v>0.07292510000000001</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0785308</v>
+        <v>0.0808376</v>
       </c>
       <c r="C78" t="n">
-        <v>0.07038030000000001</v>
+        <v>0.0702386</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0789509</v>
+        <v>0.0767408</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0806577</v>
+        <v>0.0828546</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0742298</v>
+        <v>0.0737849</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0851137</v>
+        <v>0.0824363</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0841479</v>
+        <v>0.0863727</v>
       </c>
       <c r="C80" t="n">
-        <v>0.07968069999999999</v>
+        <v>0.07909869999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.111245</v>
+        <v>0.104738</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.188377</v>
+        <v>0.172399</v>
       </c>
       <c r="C81" t="n">
-        <v>0.151059</v>
+        <v>0.13737</v>
       </c>
       <c r="D81" t="n">
-        <v>0.11365</v>
+        <v>0.107127</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.187895</v>
+        <v>0.172344</v>
       </c>
       <c r="C82" t="n">
-        <v>0.152866</v>
+        <v>0.140745</v>
       </c>
       <c r="D82" t="n">
-        <v>0.116273</v>
+        <v>0.113138</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.18994</v>
+        <v>0.179455</v>
       </c>
       <c r="C83" t="n">
-        <v>0.153145</v>
+        <v>0.138731</v>
       </c>
       <c r="D83" t="n">
-        <v>0.120081</v>
+        <v>0.111973</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.189987</v>
+        <v>0.17517</v>
       </c>
       <c r="C84" t="n">
-        <v>0.152227</v>
+        <v>0.143299</v>
       </c>
       <c r="D84" t="n">
-        <v>0.118756</v>
+        <v>0.11803</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.193943</v>
+        <v>0.179515</v>
       </c>
       <c r="C85" t="n">
-        <v>0.154428</v>
+        <v>0.140043</v>
       </c>
       <c r="D85" t="n">
-        <v>0.126908</v>
+        <v>0.115651</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.191429</v>
+        <v>0.177957</v>
       </c>
       <c r="C86" t="n">
-        <v>0.154586</v>
+        <v>0.144209</v>
       </c>
       <c r="D86" t="n">
-        <v>0.126885</v>
+        <v>0.123179</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.193035</v>
+        <v>0.180597</v>
       </c>
       <c r="C87" t="n">
-        <v>0.155126</v>
+        <v>0.142337</v>
       </c>
       <c r="D87" t="n">
-        <v>0.128735</v>
+        <v>0.121472</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.192547</v>
+        <v>0.177957</v>
       </c>
       <c r="C88" t="n">
-        <v>0.156469</v>
+        <v>0.145812</v>
       </c>
       <c r="D88" t="n">
-        <v>0.133248</v>
+        <v>0.126871</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.194118</v>
+        <v>0.180862</v>
       </c>
       <c r="C89" t="n">
-        <v>0.155708</v>
+        <v>0.144251</v>
       </c>
       <c r="D89" t="n">
-        <v>0.132726</v>
+        <v>0.125839</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.194575</v>
+        <v>0.179942</v>
       </c>
       <c r="C90" t="n">
-        <v>0.156372</v>
+        <v>0.14761</v>
       </c>
       <c r="D90" t="n">
-        <v>0.135566</v>
+        <v>0.131565</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.194762</v>
+        <v>0.182253</v>
       </c>
       <c r="C91" t="n">
-        <v>0.158878</v>
+        <v>0.1471</v>
       </c>
       <c r="D91" t="n">
-        <v>0.138576</v>
+        <v>0.130804</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.196867</v>
+        <v>0.180907</v>
       </c>
       <c r="C92" t="n">
-        <v>0.160069</v>
+        <v>0.151741</v>
       </c>
       <c r="D92" t="n">
-        <v>0.14496</v>
+        <v>0.138316</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.196755</v>
+        <v>0.18443</v>
       </c>
       <c r="C93" t="n">
-        <v>0.162081</v>
+        <v>0.150784</v>
       </c>
       <c r="D93" t="n">
-        <v>0.148452</v>
+        <v>0.140104</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.199748</v>
+        <v>0.184778</v>
       </c>
       <c r="C94" t="n">
-        <v>0.167106</v>
+        <v>0.158931</v>
       </c>
       <c r="D94" t="n">
-        <v>0.227666</v>
+        <v>0.208834</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.261487</v>
+        <v>0.23873</v>
       </c>
       <c r="C95" t="n">
-        <v>0.22155</v>
+        <v>0.201408</v>
       </c>
       <c r="D95" t="n">
-        <v>0.229368</v>
+        <v>0.211074</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.262741</v>
+        <v>0.240777</v>
       </c>
       <c r="C96" t="n">
-        <v>0.222332</v>
+        <v>0.20304</v>
       </c>
       <c r="D96" t="n">
-        <v>0.230938</v>
+        <v>0.212746</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.262472</v>
+        <v>0.238811</v>
       </c>
       <c r="C97" t="n">
-        <v>0.22345</v>
+        <v>0.203999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.233556</v>
+        <v>0.215036</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.262795</v>
+        <v>0.239314</v>
       </c>
       <c r="C98" t="n">
-        <v>0.22475</v>
+        <v>0.204799</v>
       </c>
       <c r="D98" t="n">
-        <v>0.235406</v>
+        <v>0.216227</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.263407</v>
+        <v>0.239077</v>
       </c>
       <c r="C99" t="n">
-        <v>0.22609</v>
+        <v>0.206549</v>
       </c>
       <c r="D99" t="n">
-        <v>0.23755</v>
+        <v>0.218868</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.262671</v>
+        <v>0.238951</v>
       </c>
       <c r="C100" t="n">
-        <v>0.227154</v>
+        <v>0.207678</v>
       </c>
       <c r="D100" t="n">
-        <v>0.23863</v>
+        <v>0.221656</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.262755</v>
+        <v>0.239071</v>
       </c>
       <c r="C101" t="n">
-        <v>0.22841</v>
+        <v>0.209025</v>
       </c>
       <c r="D101" t="n">
-        <v>0.240062</v>
+        <v>0.222834</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.263247</v>
+        <v>0.239151</v>
       </c>
       <c r="C102" t="n">
-        <v>0.229778</v>
+        <v>0.210704</v>
       </c>
       <c r="D102" t="n">
-        <v>0.243236</v>
+        <v>0.224767</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.263591</v>
+        <v>0.239115</v>
       </c>
       <c r="C103" t="n">
-        <v>0.231691</v>
+        <v>0.210892</v>
       </c>
       <c r="D103" t="n">
-        <v>0.244897</v>
+        <v>0.226171</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.264131</v>
+        <v>0.238891</v>
       </c>
       <c r="C104" t="n">
-        <v>0.23343</v>
+        <v>0.212593</v>
       </c>
       <c r="D104" t="n">
-        <v>0.246984</v>
+        <v>0.228795</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.264527</v>
+        <v>0.240263</v>
       </c>
       <c r="C105" t="n">
-        <v>0.235664</v>
+        <v>0.214902</v>
       </c>
       <c r="D105" t="n">
-        <v>0.249407</v>
+        <v>0.231473</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.265494</v>
+        <v>0.241355</v>
       </c>
       <c r="C106" t="n">
-        <v>0.238709</v>
+        <v>0.21253</v>
       </c>
       <c r="D106" t="n">
-        <v>0.254545</v>
+        <v>0.235361</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.266945</v>
+        <v>0.242108</v>
       </c>
       <c r="C107" t="n">
-        <v>0.242726</v>
+        <v>0.215529</v>
       </c>
       <c r="D107" t="n">
-        <v>0.259127</v>
+        <v>0.23986</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.269797</v>
+        <v>0.244754</v>
       </c>
       <c r="C108" t="n">
-        <v>0.247415</v>
+        <v>0.220578</v>
       </c>
       <c r="D108" t="n">
-        <v>0.291066</v>
+        <v>0.256359</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.274876</v>
+        <v>0.249211</v>
       </c>
       <c r="C109" t="n">
-        <v>0.255235</v>
+        <v>0.226591</v>
       </c>
       <c r="D109" t="n">
-        <v>0.292493</v>
+        <v>0.258397</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.300865</v>
+        <v>0.270627</v>
       </c>
       <c r="C110" t="n">
-        <v>0.258137</v>
+        <v>0.221728</v>
       </c>
       <c r="D110" t="n">
-        <v>0.296145</v>
+        <v>0.26048</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.298011</v>
+        <v>0.27167</v>
       </c>
       <c r="C111" t="n">
-        <v>0.261219</v>
+        <v>0.223846</v>
       </c>
       <c r="D111" t="n">
-        <v>0.298765</v>
+        <v>0.256382</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.302413</v>
+        <v>0.272232</v>
       </c>
       <c r="C112" t="n">
-        <v>0.263868</v>
+        <v>0.226023</v>
       </c>
       <c r="D112" t="n">
-        <v>0.3008</v>
+        <v>0.258628</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.298967</v>
+        <v>0.272185</v>
       </c>
       <c r="C113" t="n">
-        <v>0.266111</v>
+        <v>0.227255</v>
       </c>
       <c r="D113" t="n">
-        <v>0.303516</v>
+        <v>0.258984</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.301093</v>
+        <v>0.273582</v>
       </c>
       <c r="C114" t="n">
-        <v>0.268166</v>
+        <v>0.229425</v>
       </c>
       <c r="D114" t="n">
-        <v>0.305909</v>
+        <v>0.261627</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.29868</v>
+        <v>0.271893</v>
       </c>
       <c r="C115" t="n">
-        <v>0.271297</v>
+        <v>0.232103</v>
       </c>
       <c r="D115" t="n">
-        <v>0.308818</v>
+        <v>0.264654</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.299897</v>
+        <v>0.272289</v>
       </c>
       <c r="C116" t="n">
-        <v>0.274168</v>
+        <v>0.234625</v>
       </c>
       <c r="D116" t="n">
-        <v>0.312163</v>
+        <v>0.267321</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.299943</v>
+        <v>0.272834</v>
       </c>
       <c r="C117" t="n">
-        <v>0.277379</v>
+        <v>0.237571</v>
       </c>
       <c r="D117" t="n">
-        <v>0.316439</v>
+        <v>0.270483</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.301206</v>
+        <v>0.273456</v>
       </c>
       <c r="C118" t="n">
-        <v>0.280477</v>
+        <v>0.240576</v>
       </c>
       <c r="D118" t="n">
-        <v>0.31931</v>
+        <v>0.273914</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.301478</v>
+        <v>0.274038</v>
       </c>
       <c r="C119" t="n">
-        <v>0.283869</v>
+        <v>0.243749</v>
       </c>
       <c r="D119" t="n">
-        <v>0.323589</v>
+        <v>0.277797</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.302528</v>
+        <v>0.275257</v>
       </c>
       <c r="C120" t="n">
-        <v>0.288197</v>
+        <v>0.246987</v>
       </c>
       <c r="D120" t="n">
-        <v>0.329172</v>
+        <v>0.282008</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.303497</v>
+        <v>0.276478</v>
       </c>
       <c r="C121" t="n">
-        <v>0.292543</v>
+        <v>0.251432</v>
       </c>
       <c r="D121" t="n">
-        <v>0.334984</v>
+        <v>0.287072</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.306978</v>
+        <v>0.278804</v>
       </c>
       <c r="C122" t="n">
-        <v>0.299909</v>
+        <v>0.257098</v>
       </c>
       <c r="D122" t="n">
-        <v>0.344172</v>
+        <v>0.293583</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.312265</v>
+        <v>0.283538</v>
       </c>
       <c r="C123" t="n">
-        <v>0.307899</v>
+        <v>0.264655</v>
       </c>
       <c r="D123" t="n">
-        <v>0.3418</v>
+        <v>0.280288</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.386043</v>
+        <v>0.344817</v>
       </c>
       <c r="C124" t="n">
-        <v>0.288536</v>
+        <v>0.243614</v>
       </c>
       <c r="D124" t="n">
-        <v>0.339818</v>
+        <v>0.281251</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.384622</v>
+        <v>0.345585</v>
       </c>
       <c r="C125" t="n">
-        <v>0.292434</v>
+        <v>0.245644</v>
       </c>
       <c r="D125" t="n">
-        <v>0.345162</v>
+        <v>0.283828</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.389243</v>
+        <v>0.346451</v>
       </c>
       <c r="C126" t="n">
-        <v>0.295565</v>
+        <v>0.247118</v>
       </c>
       <c r="D126" t="n">
-        <v>0.348807</v>
+        <v>0.286258</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.384428</v>
+        <v>0.34555</v>
       </c>
       <c r="C127" t="n">
-        <v>0.298433</v>
+        <v>0.250162</v>
       </c>
       <c r="D127" t="n">
-        <v>0.350916</v>
+        <v>0.289123</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.385329</v>
+        <v>0.346063</v>
       </c>
       <c r="C128" t="n">
-        <v>0.302553</v>
+        <v>0.253276</v>
       </c>
       <c r="D128" t="n">
-        <v>0.354711</v>
+        <v>0.291949</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.38627</v>
+        <v>0.345372</v>
       </c>
       <c r="C129" t="n">
-        <v>0.30599</v>
+        <v>0.256353</v>
       </c>
       <c r="D129" t="n">
-        <v>0.359775</v>
+        <v>0.294945</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.386553</v>
+        <v>0.346469</v>
       </c>
       <c r="C130" t="n">
-        <v>0.309129</v>
+        <v>0.259853</v>
       </c>
       <c r="D130" t="n">
-        <v>0.361761</v>
+        <v>0.298103</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.386513</v>
+        <v>0.346697</v>
       </c>
       <c r="C131" t="n">
-        <v>0.314099</v>
+        <v>0.26322</v>
       </c>
       <c r="D131" t="n">
-        <v>0.367403</v>
+        <v>0.301757</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.38725</v>
+        <v>0.346465</v>
       </c>
       <c r="C132" t="n">
-        <v>0.316991</v>
+        <v>0.266836</v>
       </c>
       <c r="D132" t="n">
-        <v>0.370928</v>
+        <v>0.305944</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.386783</v>
+        <v>0.346702</v>
       </c>
       <c r="C133" t="n">
-        <v>0.322404</v>
+        <v>0.270808</v>
       </c>
       <c r="D133" t="n">
-        <v>0.376835</v>
+        <v>0.310699</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.38957</v>
+        <v>0.348064</v>
       </c>
       <c r="C134" t="n">
-        <v>0.327336</v>
+        <v>0.274935</v>
       </c>
       <c r="D134" t="n">
-        <v>0.382719</v>
+        <v>0.31583</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.389989</v>
+        <v>0.349281</v>
       </c>
       <c r="C135" t="n">
-        <v>0.33288</v>
+        <v>0.280543</v>
       </c>
       <c r="D135" t="n">
-        <v>0.391215</v>
+        <v>0.323859</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.39159</v>
+        <v>0.351012</v>
       </c>
       <c r="C136" t="n">
-        <v>0.340211</v>
+        <v>0.286718</v>
       </c>
       <c r="D136" t="n">
-        <v>0.402105</v>
+        <v>0.332195</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.39685</v>
+        <v>0.354707</v>
       </c>
       <c r="C137" t="n">
-        <v>0.350531</v>
+        <v>0.295417</v>
       </c>
       <c r="D137" t="n">
-        <v>0.357447</v>
+        <v>0.301245</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.447876</v>
+        <v>0.403749</v>
       </c>
       <c r="C138" t="n">
-        <v>0.306486</v>
+        <v>0.262076</v>
       </c>
       <c r="D138" t="n">
-        <v>0.362488</v>
+        <v>0.303481</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.449946</v>
+        <v>0.403462</v>
       </c>
       <c r="C139" t="n">
-        <v>0.310575</v>
+        <v>0.26422</v>
       </c>
       <c r="D139" t="n">
-        <v>0.362973</v>
+        <v>0.305585</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.44987</v>
+        <v>0.402698</v>
       </c>
       <c r="C140" t="n">
-        <v>0.31402</v>
+        <v>0.266429</v>
       </c>
       <c r="D140" t="n">
-        <v>0.369137</v>
+        <v>0.307428</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.450002</v>
+        <v>0.403577</v>
       </c>
       <c r="C141" t="n">
-        <v>0.317664</v>
+        <v>0.269043</v>
       </c>
       <c r="D141" t="n">
-        <v>0.370851</v>
+        <v>0.309374</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.451958</v>
+        <v>0.403066</v>
       </c>
       <c r="C142" t="n">
-        <v>0.320892</v>
+        <v>0.271501</v>
       </c>
       <c r="D142" t="n">
-        <v>0.375802</v>
+        <v>0.311376</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.448381</v>
+        <v>0.4033</v>
       </c>
       <c r="C143" t="n">
-        <v>0.325225</v>
+        <v>0.27414</v>
       </c>
       <c r="D143" t="n">
-        <v>0.379044</v>
+        <v>0.313987</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0411293</v>
+        <v>0.0406588</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0363318</v>
+        <v>0.0362696</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0431094</v>
+        <v>0.0423171</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0414412</v>
+        <v>0.0406671</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0366975</v>
+        <v>0.0364668</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0433892</v>
+        <v>0.0426497</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0417346</v>
+        <v>0.0408728</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0365241</v>
+        <v>0.0367508</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0436752</v>
+        <v>0.0429456</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0419392</v>
+        <v>0.0410153</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0367606</v>
+        <v>0.0369681</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0439374</v>
+        <v>0.0430857</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0420836</v>
+        <v>0.0411036</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0368855</v>
+        <v>0.0372084</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0445652</v>
+        <v>0.0433952</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0419056</v>
+        <v>0.0411762</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0382637</v>
+        <v>0.0375174</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0450033</v>
+        <v>0.0441639</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.042238</v>
+        <v>0.0415497</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0380319</v>
+        <v>0.0381075</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0461661</v>
+        <v>0.0449236</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0427516</v>
+        <v>0.0417652</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0394049</v>
+        <v>0.0391779</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0451832</v>
+        <v>0.0430178</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0477666</v>
+        <v>0.0444069</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0396935</v>
+        <v>0.0381813</v>
       </c>
       <c r="D10" t="n">
-        <v>0.045533</v>
+        <v>0.0436954</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0479058</v>
+        <v>0.0444876</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0400616</v>
+        <v>0.0390841</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0458124</v>
+        <v>0.0440535</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0477464</v>
+        <v>0.0445789</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0407139</v>
+        <v>0.0393446</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0461461</v>
+        <v>0.0444146</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0480491</v>
+        <v>0.044754</v>
       </c>
       <c r="C13" t="n">
-        <v>0.041003</v>
+        <v>0.0395875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0464997</v>
+        <v>0.0447446</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0481362</v>
+        <v>0.0448701</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0412849</v>
+        <v>0.0399931</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0468178</v>
+        <v>0.0451106</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0480557</v>
+        <v>0.0450171</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0415727</v>
+        <v>0.0403464</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0471123</v>
+        <v>0.0453494</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0481706</v>
+        <v>0.0451496</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0415358</v>
+        <v>0.0402736</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0473342</v>
+        <v>0.0456135</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0485257</v>
+        <v>0.045287</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0414017</v>
+        <v>0.040695</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0476827</v>
+        <v>0.0460215</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0486448</v>
+        <v>0.045443</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0421361</v>
+        <v>0.0410019</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0481509</v>
+        <v>0.0463734</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0485604</v>
+        <v>0.0456074</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0425173</v>
+        <v>0.0411676</v>
       </c>
       <c r="D19" t="n">
-        <v>0.048602</v>
+        <v>0.0467123</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0489378</v>
+        <v>0.0458164</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0421902</v>
+        <v>0.0415236</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0489126</v>
+        <v>0.0473292</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0491257</v>
+        <v>0.0458912</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0428983</v>
+        <v>0.0422738</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0501729</v>
+        <v>0.0483647</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0493877</v>
+        <v>0.0460678</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0447292</v>
+        <v>0.0435038</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0533645</v>
+        <v>0.0512963</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0497242</v>
+        <v>0.0466428</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0498689</v>
+        <v>0.0489162</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0470342</v>
+        <v>0.0477912</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0497594</v>
+        <v>0.0492751</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0418165</v>
+        <v>0.0428623</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0472715</v>
+        <v>0.0481709</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0506564</v>
+        <v>0.0491471</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0420745</v>
+        <v>0.0430445</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0477044</v>
+        <v>0.0482871</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0504418</v>
+        <v>0.0492329</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0426514</v>
+        <v>0.0434408</v>
       </c>
       <c r="D26" t="n">
-        <v>0.047968</v>
+        <v>0.0489119</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0507811</v>
+        <v>0.0492761</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0428904</v>
+        <v>0.043747</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0482621</v>
+        <v>0.0492389</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0508635</v>
+        <v>0.0493492</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0428376</v>
+        <v>0.0442752</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0486279</v>
+        <v>0.0493234</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0502016</v>
+        <v>0.0495017</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0430445</v>
+        <v>0.0440052</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0489357</v>
+        <v>0.0496674</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0507578</v>
+        <v>0.0495865</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0436702</v>
+        <v>0.0446721</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0492631</v>
+        <v>0.0503006</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0512809</v>
+        <v>0.0497823</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0442244</v>
+        <v>0.0444865</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0495937</v>
+        <v>0.0504796</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0513757</v>
+        <v>0.0499105</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0444149</v>
+        <v>0.0449424</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0500525</v>
+        <v>0.0509885</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0515561</v>
+        <v>0.0501305</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0448932</v>
+        <v>0.0452284</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0506299</v>
+        <v>0.0513712</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0516953</v>
+        <v>0.0502142</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0457495</v>
+        <v>0.046161</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0516461</v>
+        <v>0.0521998</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0510818</v>
+        <v>0.0504927</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0478541</v>
+        <v>0.0480857</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0551558</v>
+        <v>0.0557428</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0523221</v>
+        <v>0.0508285</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0530575</v>
+        <v>0.0533791</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0617906</v>
+        <v>0.0626686</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0535497</v>
+        <v>0.0522475</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0599623</v>
+        <v>0.0601958</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0521796</v>
+        <v>0.0525908</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0567555</v>
+        <v>0.0540551</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0466549</v>
+        <v>0.0478558</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0525021</v>
+        <v>0.0525659</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0558892</v>
+        <v>0.0537321</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0469844</v>
+        <v>0.0481991</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0530795</v>
+        <v>0.0534096</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0559769</v>
+        <v>0.0538162</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0473613</v>
+        <v>0.0487564</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0529623</v>
+        <v>0.053703</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0560724</v>
+        <v>0.053905</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0476819</v>
+        <v>0.0489229</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0540442</v>
+        <v>0.053736</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0561654</v>
+        <v>0.0540308</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0481781</v>
+        <v>0.0492096</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0544745</v>
+        <v>0.0540429</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0562549</v>
+        <v>0.0541261</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0487273</v>
+        <v>0.0496963</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0547713</v>
+        <v>0.0549395</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0563706</v>
+        <v>0.0542799</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0491383</v>
+        <v>0.0500629</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0548605</v>
+        <v>0.0546642</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0565273</v>
+        <v>0.0544534</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0495545</v>
+        <v>0.0505367</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0550891</v>
+        <v>0.055174</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0566706</v>
+        <v>0.0545641</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0502724</v>
+        <v>0.0512229</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0556809</v>
+        <v>0.0559795</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0568251</v>
+        <v>0.0547596</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0516841</v>
+        <v>0.0524991</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0566695</v>
+        <v>0.0566744</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.057113</v>
+        <v>0.0549822</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0540869</v>
+        <v>0.0550045</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0606899</v>
+        <v>0.0602763</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0573827</v>
+        <v>0.0553394</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0568531</v>
+        <v>0.0576689</v>
       </c>
       <c r="D49" t="n">
-        <v>0.06411699999999999</v>
+        <v>0.06379410000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0587325</v>
+        <v>0.0567239</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0603666</v>
+        <v>0.0611128</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0690297</v>
+        <v>0.0685785</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0628301</v>
+        <v>0.0608453</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0649588</v>
+        <v>0.06569850000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0570356</v>
+        <v>0.0569711</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0680412</v>
+        <v>0.066124</v>
       </c>
       <c r="C52" t="n">
-        <v>0.07233439999999999</v>
+        <v>0.0727854</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0573737</v>
+        <v>0.0559541</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0616763</v>
+        <v>0.0608347</v>
       </c>
       <c r="C53" t="n">
-        <v>0.047626</v>
+        <v>0.0483249</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0577794</v>
+        <v>0.0572769</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.061083</v>
+        <v>0.0607571</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0480289</v>
+        <v>0.0489625</v>
       </c>
       <c r="D54" t="n">
-        <v>0.057604</v>
+        <v>0.0568685</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0610938</v>
+        <v>0.0609126</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0487906</v>
+        <v>0.0493695</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0586839</v>
+        <v>0.0580791</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0612641</v>
+        <v>0.0609075</v>
       </c>
       <c r="C56" t="n">
-        <v>0.049224</v>
+        <v>0.0498272</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0579719</v>
+        <v>0.0576538</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0613905</v>
+        <v>0.0610574</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0499656</v>
+        <v>0.0506434</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0567951</v>
+        <v>0.0582662</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0615363</v>
+        <v>0.0612009</v>
       </c>
       <c r="C58" t="n">
-        <v>0.05077</v>
+        <v>0.0515629</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0589258</v>
+        <v>0.0600474</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0617264</v>
+        <v>0.0613729</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0515733</v>
+        <v>0.0518053</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0590256</v>
+        <v>0.0595089</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0619077</v>
+        <v>0.0615662</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0528005</v>
+        <v>0.0534586</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0607712</v>
+        <v>0.0609618</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0622359</v>
+        <v>0.0618177</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0543504</v>
+        <v>0.0552649</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0630708</v>
+        <v>0.0619765</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0625498</v>
+        <v>0.0621325</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0561729</v>
+        <v>0.0568167</v>
       </c>
       <c r="D62" t="n">
-        <v>0.06550250000000001</v>
+        <v>0.06568980000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.06366380000000001</v>
+        <v>0.0632832</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0586734</v>
+        <v>0.0588329</v>
       </c>
       <c r="D63" t="n">
-        <v>0.06826649999999999</v>
+        <v>0.06840359999999999</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0657369</v>
+        <v>0.0653548</v>
       </c>
       <c r="C64" t="n">
-        <v>0.06164</v>
+        <v>0.061886</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0728362</v>
+        <v>0.0726767</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.06844500000000001</v>
+        <v>0.0680796</v>
       </c>
       <c r="C65" t="n">
-        <v>0.06554980000000001</v>
+        <v>0.0656312</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0793005</v>
+        <v>0.0797702</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0726357</v>
+        <v>0.0721971</v>
       </c>
       <c r="C66" t="n">
-        <v>0.07212159999999999</v>
+        <v>0.0722038</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0600272</v>
+        <v>0.0596425</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0746082</v>
+        <v>0.0724354</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0575682</v>
+        <v>0.0563486</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0608154</v>
+        <v>0.0600574</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0749271</v>
+        <v>0.07270890000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0579808</v>
+        <v>0.0567594</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0612633</v>
+        <v>0.060471</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0753767</v>
+        <v>0.07298159999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.058479</v>
+        <v>0.0572513</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0618469</v>
+        <v>0.0608921</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0755499</v>
+        <v>0.07363980000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0592034</v>
+        <v>0.0578825</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0623311</v>
+        <v>0.0614823</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.07568229999999999</v>
+        <v>0.07360940000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0597511</v>
+        <v>0.0584949</v>
       </c>
       <c r="D71" t="n">
-        <v>0.062891</v>
+        <v>0.0620671</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0758437</v>
+        <v>0.0738506</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0603891</v>
+        <v>0.0592336</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0636969</v>
+        <v>0.062752</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.076573</v>
+        <v>0.0740251</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0614449</v>
+        <v>0.0601516</v>
       </c>
       <c r="D73" t="n">
-        <v>0.064774</v>
+        <v>0.0636294</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0769794</v>
+        <v>0.07440339999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0627795</v>
+        <v>0.061286</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0664125</v>
+        <v>0.0651455</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0772481</v>
+        <v>0.0747936</v>
       </c>
       <c r="C75" t="n">
-        <v>0.06405710000000001</v>
+        <v>0.06255289999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0680148</v>
+        <v>0.0668262</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.07785309999999999</v>
+        <v>0.075576</v>
       </c>
       <c r="C76" t="n">
-        <v>0.065427</v>
+        <v>0.0640425</v>
       </c>
       <c r="D76" t="n">
-        <v>0.06998459999999999</v>
+        <v>0.0687364</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07900359999999999</v>
+        <v>0.07702589999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0676889</v>
+        <v>0.0662272</v>
       </c>
       <c r="D77" t="n">
-        <v>0.07292510000000001</v>
+        <v>0.0715846</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0808376</v>
+        <v>0.07842010000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0702386</v>
+        <v>0.0687899</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0767408</v>
+        <v>0.075447</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0828546</v>
+        <v>0.0807406</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0737849</v>
+        <v>0.0724519</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0824363</v>
+        <v>0.0814547</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0863727</v>
+        <v>0.08444210000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.07909869999999999</v>
+        <v>0.0779348</v>
       </c>
       <c r="D80" t="n">
-        <v>0.104738</v>
+        <v>0.109559</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.172399</v>
+        <v>0.172394</v>
       </c>
       <c r="C81" t="n">
-        <v>0.13737</v>
+        <v>0.140644</v>
       </c>
       <c r="D81" t="n">
-        <v>0.107127</v>
+        <v>0.111898</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.172344</v>
+        <v>0.173289</v>
       </c>
       <c r="C82" t="n">
-        <v>0.140745</v>
+        <v>0.141533</v>
       </c>
       <c r="D82" t="n">
-        <v>0.113138</v>
+        <v>0.111075</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.179455</v>
+        <v>0.177636</v>
       </c>
       <c r="C83" t="n">
-        <v>0.138731</v>
+        <v>0.142069</v>
       </c>
       <c r="D83" t="n">
-        <v>0.111973</v>
+        <v>0.115535</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.17517</v>
+        <v>0.174981</v>
       </c>
       <c r="C84" t="n">
-        <v>0.143299</v>
+        <v>0.141827</v>
       </c>
       <c r="D84" t="n">
-        <v>0.11803</v>
+        <v>0.114035</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.179515</v>
+        <v>0.178395</v>
       </c>
       <c r="C85" t="n">
-        <v>0.140043</v>
+        <v>0.141453</v>
       </c>
       <c r="D85" t="n">
-        <v>0.115651</v>
+        <v>0.117599</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.177957</v>
+        <v>0.178627</v>
       </c>
       <c r="C86" t="n">
-        <v>0.144209</v>
+        <v>0.14349</v>
       </c>
       <c r="D86" t="n">
-        <v>0.123179</v>
+        <v>0.122291</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.180597</v>
+        <v>0.178179</v>
       </c>
       <c r="C87" t="n">
-        <v>0.142337</v>
+        <v>0.143644</v>
       </c>
       <c r="D87" t="n">
-        <v>0.121472</v>
+        <v>0.121481</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.177957</v>
+        <v>0.17851</v>
       </c>
       <c r="C88" t="n">
-        <v>0.145812</v>
+        <v>0.1448</v>
       </c>
       <c r="D88" t="n">
-        <v>0.126871</v>
+        <v>0.124922</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.180862</v>
+        <v>0.178721</v>
       </c>
       <c r="C89" t="n">
-        <v>0.144251</v>
+        <v>0.145118</v>
       </c>
       <c r="D89" t="n">
-        <v>0.125839</v>
+        <v>0.126492</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.179942</v>
+        <v>0.180114</v>
       </c>
       <c r="C90" t="n">
-        <v>0.14761</v>
+        <v>0.145309</v>
       </c>
       <c r="D90" t="n">
-        <v>0.131565</v>
+        <v>0.129403</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.182253</v>
+        <v>0.179069</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1471</v>
+        <v>0.147765</v>
       </c>
       <c r="D91" t="n">
-        <v>0.130804</v>
+        <v>0.133872</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.180907</v>
+        <v>0.180572</v>
       </c>
       <c r="C92" t="n">
-        <v>0.151741</v>
+        <v>0.150845</v>
       </c>
       <c r="D92" t="n">
-        <v>0.138316</v>
+        <v>0.138695</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.18443</v>
+        <v>0.181964</v>
       </c>
       <c r="C93" t="n">
-        <v>0.150784</v>
+        <v>0.152487</v>
       </c>
       <c r="D93" t="n">
-        <v>0.140104</v>
+        <v>0.142217</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.184778</v>
+        <v>0.183831</v>
       </c>
       <c r="C94" t="n">
-        <v>0.158931</v>
+        <v>0.157045</v>
       </c>
       <c r="D94" t="n">
-        <v>0.208834</v>
+        <v>0.20886</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.23873</v>
+        <v>0.237832</v>
       </c>
       <c r="C95" t="n">
-        <v>0.201408</v>
+        <v>0.199004</v>
       </c>
       <c r="D95" t="n">
-        <v>0.211074</v>
+        <v>0.21028</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.240777</v>
+        <v>0.238322</v>
       </c>
       <c r="C96" t="n">
-        <v>0.20304</v>
+        <v>0.200182</v>
       </c>
       <c r="D96" t="n">
-        <v>0.212746</v>
+        <v>0.211694</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.238811</v>
+        <v>0.237231</v>
       </c>
       <c r="C97" t="n">
-        <v>0.203999</v>
+        <v>0.201465</v>
       </c>
       <c r="D97" t="n">
-        <v>0.215036</v>
+        <v>0.214452</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.239314</v>
+        <v>0.23839</v>
       </c>
       <c r="C98" t="n">
-        <v>0.204799</v>
+        <v>0.202404</v>
       </c>
       <c r="D98" t="n">
-        <v>0.216227</v>
+        <v>0.21608</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.239077</v>
+        <v>0.238285</v>
       </c>
       <c r="C99" t="n">
-        <v>0.206549</v>
+        <v>0.204</v>
       </c>
       <c r="D99" t="n">
-        <v>0.218868</v>
+        <v>0.218306</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.238951</v>
+        <v>0.239078</v>
       </c>
       <c r="C100" t="n">
-        <v>0.207678</v>
+        <v>0.205011</v>
       </c>
       <c r="D100" t="n">
-        <v>0.221656</v>
+        <v>0.219644</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.239071</v>
+        <v>0.238981</v>
       </c>
       <c r="C101" t="n">
-        <v>0.209025</v>
+        <v>0.206462</v>
       </c>
       <c r="D101" t="n">
-        <v>0.222834</v>
+        <v>0.221114</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.239151</v>
+        <v>0.239731</v>
       </c>
       <c r="C102" t="n">
-        <v>0.210704</v>
+        <v>0.208327</v>
       </c>
       <c r="D102" t="n">
-        <v>0.224767</v>
+        <v>0.223631</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.239115</v>
+        <v>0.239413</v>
       </c>
       <c r="C103" t="n">
-        <v>0.210892</v>
+        <v>0.209666</v>
       </c>
       <c r="D103" t="n">
-        <v>0.226171</v>
+        <v>0.225949</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.238891</v>
+        <v>0.239821</v>
       </c>
       <c r="C104" t="n">
-        <v>0.212593</v>
+        <v>0.212321</v>
       </c>
       <c r="D104" t="n">
-        <v>0.228795</v>
+        <v>0.22845</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.240263</v>
+        <v>0.240126</v>
       </c>
       <c r="C105" t="n">
-        <v>0.214902</v>
+        <v>0.213842</v>
       </c>
       <c r="D105" t="n">
-        <v>0.231473</v>
+        <v>0.231034</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.241355</v>
+        <v>0.241173</v>
       </c>
       <c r="C106" t="n">
-        <v>0.21253</v>
+        <v>0.211286</v>
       </c>
       <c r="D106" t="n">
-        <v>0.235361</v>
+        <v>0.234957</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.242108</v>
+        <v>0.242903</v>
       </c>
       <c r="C107" t="n">
-        <v>0.215529</v>
+        <v>0.214191</v>
       </c>
       <c r="D107" t="n">
-        <v>0.23986</v>
+        <v>0.238773</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.244754</v>
+        <v>0.245698</v>
       </c>
       <c r="C108" t="n">
-        <v>0.220578</v>
+        <v>0.218665</v>
       </c>
       <c r="D108" t="n">
-        <v>0.256359</v>
+        <v>0.256859</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.249211</v>
+        <v>0.249651</v>
       </c>
       <c r="C109" t="n">
-        <v>0.226591</v>
+        <v>0.225381</v>
       </c>
       <c r="D109" t="n">
-        <v>0.258397</v>
+        <v>0.258498</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.270627</v>
+        <v>0.272612</v>
       </c>
       <c r="C110" t="n">
-        <v>0.221728</v>
+        <v>0.221706</v>
       </c>
       <c r="D110" t="n">
-        <v>0.26048</v>
+        <v>0.260641</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.27167</v>
+        <v>0.271516</v>
       </c>
       <c r="C111" t="n">
-        <v>0.223846</v>
+        <v>0.224098</v>
       </c>
       <c r="D111" t="n">
-        <v>0.256382</v>
+        <v>0.256735</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.272232</v>
+        <v>0.273339</v>
       </c>
       <c r="C112" t="n">
-        <v>0.226023</v>
+        <v>0.225715</v>
       </c>
       <c r="D112" t="n">
-        <v>0.258628</v>
+        <v>0.25817</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.272185</v>
+        <v>0.27202</v>
       </c>
       <c r="C113" t="n">
-        <v>0.227255</v>
+        <v>0.227164</v>
       </c>
       <c r="D113" t="n">
-        <v>0.258984</v>
+        <v>0.259089</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.273582</v>
+        <v>0.272932</v>
       </c>
       <c r="C114" t="n">
-        <v>0.229425</v>
+        <v>0.229367</v>
       </c>
       <c r="D114" t="n">
-        <v>0.261627</v>
+        <v>0.261667</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.271893</v>
+        <v>0.272131</v>
       </c>
       <c r="C115" t="n">
-        <v>0.232103</v>
+        <v>0.231683</v>
       </c>
       <c r="D115" t="n">
-        <v>0.264654</v>
+        <v>0.264413</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.272289</v>
+        <v>0.272736</v>
       </c>
       <c r="C116" t="n">
-        <v>0.234625</v>
+        <v>0.234737</v>
       </c>
       <c r="D116" t="n">
-        <v>0.267321</v>
+        <v>0.267163</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.272834</v>
+        <v>0.272256</v>
       </c>
       <c r="C117" t="n">
-        <v>0.237571</v>
+        <v>0.237818</v>
       </c>
       <c r="D117" t="n">
-        <v>0.270483</v>
+        <v>0.270271</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.273456</v>
+        <v>0.273539</v>
       </c>
       <c r="C118" t="n">
-        <v>0.240576</v>
+        <v>0.24092</v>
       </c>
       <c r="D118" t="n">
-        <v>0.273914</v>
+        <v>0.273579</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.274038</v>
+        <v>0.273206</v>
       </c>
       <c r="C119" t="n">
-        <v>0.243749</v>
+        <v>0.243669</v>
       </c>
       <c r="D119" t="n">
-        <v>0.277797</v>
+        <v>0.277304</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.275257</v>
+        <v>0.275791</v>
       </c>
       <c r="C120" t="n">
-        <v>0.246987</v>
+        <v>0.247086</v>
       </c>
       <c r="D120" t="n">
-        <v>0.282008</v>
+        <v>0.281599</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.276478</v>
+        <v>0.276042</v>
       </c>
       <c r="C121" t="n">
-        <v>0.251432</v>
+        <v>0.251543</v>
       </c>
       <c r="D121" t="n">
-        <v>0.287072</v>
+        <v>0.287012</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.278804</v>
+        <v>0.279571</v>
       </c>
       <c r="C122" t="n">
-        <v>0.257098</v>
+        <v>0.256955</v>
       </c>
       <c r="D122" t="n">
-        <v>0.293583</v>
+        <v>0.293243</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.283538</v>
+        <v>0.284222</v>
       </c>
       <c r="C123" t="n">
-        <v>0.264655</v>
+        <v>0.264502</v>
       </c>
       <c r="D123" t="n">
-        <v>0.280288</v>
+        <v>0.279568</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.344817</v>
+        <v>0.346782</v>
       </c>
       <c r="C124" t="n">
-        <v>0.243614</v>
+        <v>0.242986</v>
       </c>
       <c r="D124" t="n">
-        <v>0.281251</v>
+        <v>0.281352</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.345585</v>
+        <v>0.346307</v>
       </c>
       <c r="C125" t="n">
-        <v>0.245644</v>
+        <v>0.245319</v>
       </c>
       <c r="D125" t="n">
-        <v>0.283828</v>
+        <v>0.283812</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.346451</v>
+        <v>0.34745</v>
       </c>
       <c r="C126" t="n">
-        <v>0.247118</v>
+        <v>0.246587</v>
       </c>
       <c r="D126" t="n">
-        <v>0.286258</v>
+        <v>0.286621</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.34555</v>
+        <v>0.347381</v>
       </c>
       <c r="C127" t="n">
-        <v>0.250162</v>
+        <v>0.249552</v>
       </c>
       <c r="D127" t="n">
-        <v>0.289123</v>
+        <v>0.289167</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.346063</v>
+        <v>0.346662</v>
       </c>
       <c r="C128" t="n">
-        <v>0.253276</v>
+        <v>0.252929</v>
       </c>
       <c r="D128" t="n">
-        <v>0.291949</v>
+        <v>0.292133</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.345372</v>
+        <v>0.347976</v>
       </c>
       <c r="C129" t="n">
-        <v>0.256353</v>
+        <v>0.256101</v>
       </c>
       <c r="D129" t="n">
-        <v>0.294945</v>
+        <v>0.295309</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.346469</v>
+        <v>0.346525</v>
       </c>
       <c r="C130" t="n">
-        <v>0.259853</v>
+        <v>0.259273</v>
       </c>
       <c r="D130" t="n">
-        <v>0.298103</v>
+        <v>0.298526</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.346697</v>
+        <v>0.347447</v>
       </c>
       <c r="C131" t="n">
-        <v>0.26322</v>
+        <v>0.263058</v>
       </c>
       <c r="D131" t="n">
-        <v>0.301757</v>
+        <v>0.302049</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.346465</v>
+        <v>0.347959</v>
       </c>
       <c r="C132" t="n">
-        <v>0.266836</v>
+        <v>0.266414</v>
       </c>
       <c r="D132" t="n">
-        <v>0.305944</v>
+        <v>0.30619</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.346702</v>
+        <v>0.347691</v>
       </c>
       <c r="C133" t="n">
-        <v>0.270808</v>
+        <v>0.270482</v>
       </c>
       <c r="D133" t="n">
-        <v>0.310699</v>
+        <v>0.310908</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.348064</v>
+        <v>0.349038</v>
       </c>
       <c r="C134" t="n">
-        <v>0.274935</v>
+        <v>0.274523</v>
       </c>
       <c r="D134" t="n">
-        <v>0.31583</v>
+        <v>0.315976</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.349281</v>
+        <v>0.350872</v>
       </c>
       <c r="C135" t="n">
-        <v>0.280543</v>
+        <v>0.279421</v>
       </c>
       <c r="D135" t="n">
-        <v>0.323859</v>
+        <v>0.322805</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.351012</v>
+        <v>0.353001</v>
       </c>
       <c r="C136" t="n">
-        <v>0.286718</v>
+        <v>0.2862</v>
       </c>
       <c r="D136" t="n">
-        <v>0.332195</v>
+        <v>0.33242</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.354707</v>
+        <v>0.355576</v>
       </c>
       <c r="C137" t="n">
-        <v>0.295417</v>
+        <v>0.295163</v>
       </c>
       <c r="D137" t="n">
-        <v>0.301245</v>
+        <v>0.301023</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.403749</v>
+        <v>0.402796</v>
       </c>
       <c r="C138" t="n">
-        <v>0.262076</v>
+        <v>0.261621</v>
       </c>
       <c r="D138" t="n">
-        <v>0.303481</v>
+        <v>0.303123</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.403462</v>
+        <v>0.403048</v>
       </c>
       <c r="C139" t="n">
-        <v>0.26422</v>
+        <v>0.26402</v>
       </c>
       <c r="D139" t="n">
-        <v>0.305585</v>
+        <v>0.305658</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.402698</v>
+        <v>0.403411</v>
       </c>
       <c r="C140" t="n">
-        <v>0.266429</v>
+        <v>0.266106</v>
       </c>
       <c r="D140" t="n">
-        <v>0.307428</v>
+        <v>0.307126</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.403577</v>
+        <v>0.40409</v>
       </c>
       <c r="C141" t="n">
-        <v>0.269043</v>
+        <v>0.268664</v>
       </c>
       <c r="D141" t="n">
-        <v>0.309374</v>
+        <v>0.309466</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.403066</v>
+        <v>0.404124</v>
       </c>
       <c r="C142" t="n">
-        <v>0.271501</v>
+        <v>0.271027</v>
       </c>
       <c r="D142" t="n">
-        <v>0.311376</v>
+        <v>0.311241</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.4033</v>
+        <v>0.403595</v>
       </c>
       <c r="C143" t="n">
-        <v>0.27414</v>
+        <v>0.273979</v>
       </c>
       <c r="D143" t="n">
-        <v>0.313987</v>
+        <v>0.314066</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0406588</v>
+        <v>0.0455481</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0362696</v>
+        <v>0.038918</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0423171</v>
+        <v>0.0460178</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0406671</v>
+        <v>0.0457828</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0364668</v>
+        <v>0.0398574</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0426497</v>
+        <v>0.0461641</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0408728</v>
+        <v>0.0459075</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0367508</v>
+        <v>0.0395034</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0429456</v>
+        <v>0.0465603</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0410153</v>
+        <v>0.0459654</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0369681</v>
+        <v>0.040426</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0430857</v>
+        <v>0.0467881</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0411036</v>
+        <v>0.0461128</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0372084</v>
+        <v>0.040683</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0433952</v>
+        <v>0.047213</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0411762</v>
+        <v>0.0461805</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0375174</v>
+        <v>0.0410163</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0441639</v>
+        <v>0.0479014</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0415497</v>
+        <v>0.046356</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0381075</v>
+        <v>0.0407533</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0449236</v>
+        <v>0.0492083</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0417652</v>
+        <v>0.0467596</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0391779</v>
+        <v>0.0424235</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0430178</v>
+        <v>0.0451998</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0444069</v>
+        <v>0.0444163</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0381813</v>
+        <v>0.0386425</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0436954</v>
+        <v>0.045518</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0444876</v>
+        <v>0.0446083</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0390841</v>
+        <v>0.0389566</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0440535</v>
+        <v>0.0457811</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0445789</v>
+        <v>0.0446238</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0393446</v>
+        <v>0.0391469</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0444146</v>
+        <v>0.0460681</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.044754</v>
+        <v>0.0447391</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0395875</v>
+        <v>0.0391862</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0447446</v>
+        <v>0.0463439</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0448701</v>
+        <v>0.0450659</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0399931</v>
+        <v>0.0401704</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0451106</v>
+        <v>0.0465954</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0450171</v>
+        <v>0.0451943</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0403464</v>
+        <v>0.0399933</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0453494</v>
+        <v>0.0469106</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0451496</v>
+        <v>0.0451704</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0402736</v>
+        <v>0.0400203</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0456135</v>
+        <v>0.0471758</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.045287</v>
+        <v>0.0453048</v>
       </c>
       <c r="C17" t="n">
-        <v>0.040695</v>
+        <v>0.0411101</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0460215</v>
+        <v>0.0475157</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.045443</v>
+        <v>0.0455074</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0410019</v>
+        <v>0.0408606</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0463734</v>
+        <v>0.0478466</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0456074</v>
+        <v>0.045639</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0411676</v>
+        <v>0.0407235</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0467123</v>
+        <v>0.0481795</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0458164</v>
+        <v>0.0458108</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0415236</v>
+        <v>0.0413388</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0473292</v>
+        <v>0.0487206</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0458912</v>
+        <v>0.0459783</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0422738</v>
+        <v>0.0417412</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0483647</v>
+        <v>0.0498054</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0460678</v>
+        <v>0.0462477</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0435038</v>
+        <v>0.0430863</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0512963</v>
+        <v>0.0527626</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0466428</v>
+        <v>0.0467369</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0489162</v>
+        <v>0.0494772</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0477912</v>
+        <v>0.0467233</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0492751</v>
+        <v>0.0490358</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0428623</v>
+        <v>0.0418131</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0481709</v>
+        <v>0.0473903</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0491471</v>
+        <v>0.0489552</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0430445</v>
+        <v>0.0421329</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0482871</v>
+        <v>0.0478397</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0492329</v>
+        <v>0.049013</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0434408</v>
+        <v>0.0423638</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0489119</v>
+        <v>0.0480424</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0492761</v>
+        <v>0.0490345</v>
       </c>
       <c r="C27" t="n">
-        <v>0.043747</v>
+        <v>0.0427022</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0492389</v>
+        <v>0.0483905</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0493492</v>
+        <v>0.0491488</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0442752</v>
+        <v>0.0427755</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0493234</v>
+        <v>0.0487211</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0495017</v>
+        <v>0.0492858</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0440052</v>
+        <v>0.0430373</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0496674</v>
+        <v>0.0490999</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0495865</v>
+        <v>0.0493929</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0446721</v>
+        <v>0.0432207</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0503006</v>
+        <v>0.0493542</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0497823</v>
+        <v>0.0496113</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0444865</v>
+        <v>0.0435488</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0504796</v>
+        <v>0.0497459</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0499105</v>
+        <v>0.0497018</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0449424</v>
+        <v>0.0441084</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0509885</v>
+        <v>0.0501075</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0501305</v>
+        <v>0.0498812</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0452284</v>
+        <v>0.0443421</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0513712</v>
+        <v>0.0506732</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0502142</v>
+        <v>0.0499951</v>
       </c>
       <c r="C34" t="n">
-        <v>0.046161</v>
+        <v>0.045054</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0521998</v>
+        <v>0.0516699</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0504927</v>
+        <v>0.050337</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0480857</v>
+        <v>0.0481651</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0557428</v>
+        <v>0.0549946</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0508285</v>
+        <v>0.0506769</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0533791</v>
+        <v>0.0527319</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0626686</v>
+        <v>0.0619603</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0522475</v>
+        <v>0.0520502</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0601958</v>
+        <v>0.0594147</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0525908</v>
+        <v>0.0530468</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0540551</v>
+        <v>0.0537982</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0478558</v>
+        <v>0.0473426</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0525659</v>
+        <v>0.0530264</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0537321</v>
+        <v>0.053751</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0481991</v>
+        <v>0.0473489</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0534096</v>
+        <v>0.052816</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0538162</v>
+        <v>0.0538411</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0487564</v>
+        <v>0.0481743</v>
       </c>
       <c r="D40" t="n">
-        <v>0.053703</v>
+        <v>0.0548212</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.053905</v>
+        <v>0.0539494</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0489229</v>
+        <v>0.0485675</v>
       </c>
       <c r="D41" t="n">
-        <v>0.053736</v>
+        <v>0.0535585</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0540308</v>
+        <v>0.0540612</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0492096</v>
+        <v>0.0489482</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0540429</v>
+        <v>0.0555046</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0541261</v>
+        <v>0.0541492</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0496963</v>
+        <v>0.0492875</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0549395</v>
+        <v>0.0549337</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0542799</v>
+        <v>0.0542927</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0500629</v>
+        <v>0.0494335</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0546642</v>
+        <v>0.0548012</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0544534</v>
+        <v>0.0544576</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0505367</v>
+        <v>0.0504277</v>
       </c>
       <c r="D45" t="n">
-        <v>0.055174</v>
+        <v>0.0564145</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0545641</v>
+        <v>0.0546007</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0512229</v>
+        <v>0.051036</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0559795</v>
+        <v>0.0577123</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0547596</v>
+        <v>0.0547898</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0524991</v>
+        <v>0.0522848</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0566744</v>
+        <v>0.0568879</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0549822</v>
+        <v>0.0550201</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0550045</v>
+        <v>0.0550658</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0602763</v>
+        <v>0.0601029</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0553394</v>
+        <v>0.0554256</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0576689</v>
+        <v>0.0578048</v>
       </c>
       <c r="D49" t="n">
-        <v>0.06379410000000001</v>
+        <v>0.0650963</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0567239</v>
+        <v>0.0567624</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0611128</v>
+        <v>0.0613359</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0685785</v>
+        <v>0.0688753</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0608453</v>
+        <v>0.0608616</v>
       </c>
       <c r="C51" t="n">
-        <v>0.06569850000000001</v>
+        <v>0.06545189999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0569711</v>
+        <v>0.056839</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.066124</v>
+        <v>0.06613860000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0727854</v>
+        <v>0.07306319999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0559541</v>
+        <v>0.0553747</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0608347</v>
+        <v>0.0611637</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0483249</v>
+        <v>0.0478937</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0572769</v>
+        <v>0.0569553</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0607571</v>
+        <v>0.0607578</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0489625</v>
+        <v>0.0483454</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0568685</v>
+        <v>0.0573558</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0609126</v>
+        <v>0.0609063</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0493695</v>
+        <v>0.0485238</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0580791</v>
+        <v>0.0568127</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0609075</v>
+        <v>0.0609188</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0498272</v>
+        <v>0.0496772</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0576538</v>
+        <v>0.0580618</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0610574</v>
+        <v>0.0610524</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0506434</v>
+        <v>0.0499343</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0582662</v>
+        <v>0.0580732</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0612009</v>
+        <v>0.061195</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0515629</v>
+        <v>0.0507214</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0600474</v>
+        <v>0.0592958</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0613729</v>
+        <v>0.0613757</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0518053</v>
+        <v>0.0512641</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0595089</v>
+        <v>0.0594074</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0615662</v>
+        <v>0.0615512</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0534586</v>
+        <v>0.052864</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0609618</v>
+        <v>0.0610599</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0618177</v>
+        <v>0.0618312</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0552649</v>
+        <v>0.054402</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0619765</v>
+        <v>0.0620656</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0621325</v>
+        <v>0.0621051</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0568167</v>
+        <v>0.0560794</v>
       </c>
       <c r="D62" t="n">
-        <v>0.06568980000000001</v>
+        <v>0.06570230000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0632832</v>
+        <v>0.0632481</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0588329</v>
+        <v>0.0582562</v>
       </c>
       <c r="D63" t="n">
-        <v>0.06840359999999999</v>
+        <v>0.0680466</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0653548</v>
+        <v>0.0653391</v>
       </c>
       <c r="C64" t="n">
-        <v>0.061886</v>
+        <v>0.061272</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0726767</v>
+        <v>0.07231029999999999</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0680796</v>
+        <v>0.06802900000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0656312</v>
+        <v>0.0655091</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0797702</v>
+        <v>0.0784015</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0721971</v>
+        <v>0.072211</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0722038</v>
+        <v>0.0717675</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0596425</v>
+        <v>0.0681179</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0724354</v>
+        <v>0.12175</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0563486</v>
+        <v>0.084261</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0600574</v>
+        <v>0.0693463</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.07270890000000001</v>
+        <v>0.122588</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0567594</v>
+        <v>0.0848463</v>
       </c>
       <c r="D68" t="n">
-        <v>0.060471</v>
+        <v>0.07098930000000001</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.07298159999999999</v>
+        <v>0.123863</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0572513</v>
+        <v>0.0854602</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0608921</v>
+        <v>0.07238550000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.07363980000000001</v>
+        <v>0.12478</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0578825</v>
+        <v>0.0859988</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0614823</v>
+        <v>0.073643</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.07360940000000001</v>
+        <v>0.125464</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0584949</v>
+        <v>0.0865076</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0620671</v>
+        <v>0.0750339</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0738506</v>
+        <v>0.126324</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0592336</v>
+        <v>0.08732429999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.062752</v>
+        <v>0.0765912</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0740251</v>
+        <v>0.127281</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0601516</v>
+        <v>0.0882723</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0636294</v>
+        <v>0.0783679</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.07440339999999999</v>
+        <v>0.127509</v>
       </c>
       <c r="C74" t="n">
-        <v>0.061286</v>
+        <v>0.08916109999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0651455</v>
+        <v>0.0807075</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0747936</v>
+        <v>0.127514</v>
       </c>
       <c r="C75" t="n">
-        <v>0.06255289999999999</v>
+        <v>0.09023299999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0668262</v>
+        <v>0.0824464</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.075576</v>
+        <v>0.128109</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0640425</v>
+        <v>0.0913606</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0687364</v>
+        <v>0.0847213</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07702589999999999</v>
+        <v>0.128839</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0662272</v>
+        <v>0.0931718</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0715846</v>
+        <v>0.087507</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.07842010000000001</v>
+        <v>0.130151</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0687899</v>
+        <v>0.09550980000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.075447</v>
+        <v>0.09169040000000001</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0807406</v>
+        <v>0.131666</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0724519</v>
+        <v>0.09865259999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0814547</v>
+        <v>0.096889</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.08444210000000001</v>
+        <v>0.134943</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0779348</v>
+        <v>0.103833</v>
       </c>
       <c r="D80" t="n">
-        <v>0.109559</v>
+        <v>0.111458</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.172394</v>
+        <v>0.176439</v>
       </c>
       <c r="C81" t="n">
-        <v>0.140644</v>
+        <v>0.142768</v>
       </c>
       <c r="D81" t="n">
-        <v>0.111898</v>
+        <v>0.113821</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.173289</v>
+        <v>0.177352</v>
       </c>
       <c r="C82" t="n">
-        <v>0.141533</v>
+        <v>0.142167</v>
       </c>
       <c r="D82" t="n">
-        <v>0.111075</v>
+        <v>0.117043</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.177636</v>
+        <v>0.177604</v>
       </c>
       <c r="C83" t="n">
-        <v>0.142069</v>
+        <v>0.159847</v>
       </c>
       <c r="D83" t="n">
-        <v>0.115535</v>
+        <v>0.146017</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.174981</v>
+        <v>0.19024</v>
       </c>
       <c r="C84" t="n">
-        <v>0.141827</v>
+        <v>0.142667</v>
       </c>
       <c r="D84" t="n">
-        <v>0.114035</v>
+        <v>0.125377</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.178395</v>
+        <v>0.175803</v>
       </c>
       <c r="C85" t="n">
-        <v>0.141453</v>
+        <v>0.163382</v>
       </c>
       <c r="D85" t="n">
-        <v>0.117599</v>
+        <v>0.152903</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.178627</v>
+        <v>0.195317</v>
       </c>
       <c r="C86" t="n">
-        <v>0.14349</v>
+        <v>0.151537</v>
       </c>
       <c r="D86" t="n">
-        <v>0.122291</v>
+        <v>0.140784</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.178179</v>
+        <v>0.185099</v>
       </c>
       <c r="C87" t="n">
-        <v>0.143644</v>
+        <v>0.159231</v>
       </c>
       <c r="D87" t="n">
-        <v>0.121481</v>
+        <v>0.151004</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.17851</v>
+        <v>0.19074</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1448</v>
+        <v>0.159325</v>
       </c>
       <c r="D88" t="n">
-        <v>0.124922</v>
+        <v>0.151432</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.178721</v>
+        <v>0.189108</v>
       </c>
       <c r="C89" t="n">
-        <v>0.145118</v>
+        <v>0.168481</v>
       </c>
       <c r="D89" t="n">
-        <v>0.126492</v>
+        <v>0.162474</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.180114</v>
+        <v>0.198531</v>
       </c>
       <c r="C90" t="n">
-        <v>0.145309</v>
+        <v>0.165449</v>
       </c>
       <c r="D90" t="n">
-        <v>0.129403</v>
+        <v>0.160939</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.179069</v>
+        <v>0.192569</v>
       </c>
       <c r="C91" t="n">
-        <v>0.147765</v>
+        <v>0.173903</v>
       </c>
       <c r="D91" t="n">
-        <v>0.133872</v>
+        <v>0.170049</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.180572</v>
+        <v>0.200895</v>
       </c>
       <c r="C92" t="n">
-        <v>0.150845</v>
+        <v>0.170486</v>
       </c>
       <c r="D92" t="n">
-        <v>0.138695</v>
+        <v>0.170007</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181964</v>
+        <v>0.196738</v>
       </c>
       <c r="C93" t="n">
-        <v>0.152487</v>
+        <v>0.178419</v>
       </c>
       <c r="D93" t="n">
-        <v>0.142217</v>
+        <v>0.17927</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.183831</v>
+        <v>0.204057</v>
       </c>
       <c r="C94" t="n">
-        <v>0.157045</v>
+        <v>0.180759</v>
       </c>
       <c r="D94" t="n">
-        <v>0.20886</v>
+        <v>0.213495</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.237832</v>
+        <v>0.24185</v>
       </c>
       <c r="C95" t="n">
-        <v>0.199004</v>
+        <v>0.206051</v>
       </c>
       <c r="D95" t="n">
-        <v>0.21028</v>
+        <v>0.215614</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.238322</v>
+        <v>0.24131</v>
       </c>
       <c r="C96" t="n">
-        <v>0.200182</v>
+        <v>0.207192</v>
       </c>
       <c r="D96" t="n">
-        <v>0.211694</v>
+        <v>0.217886</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.237231</v>
+        <v>0.241272</v>
       </c>
       <c r="C97" t="n">
-        <v>0.201465</v>
+        <v>0.208651</v>
       </c>
       <c r="D97" t="n">
-        <v>0.214452</v>
+        <v>0.219813</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.23839</v>
+        <v>0.244243</v>
       </c>
       <c r="C98" t="n">
-        <v>0.202404</v>
+        <v>0.20293</v>
       </c>
       <c r="D98" t="n">
-        <v>0.21608</v>
+        <v>0.222677</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.238285</v>
+        <v>0.243901</v>
       </c>
       <c r="C99" t="n">
-        <v>0.204</v>
+        <v>0.211022</v>
       </c>
       <c r="D99" t="n">
-        <v>0.218306</v>
+        <v>0.216894</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.239078</v>
+        <v>0.243868</v>
       </c>
       <c r="C100" t="n">
-        <v>0.205011</v>
+        <v>0.212573</v>
       </c>
       <c r="D100" t="n">
-        <v>0.219644</v>
+        <v>0.226431</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.238981</v>
+        <v>0.244094</v>
       </c>
       <c r="C101" t="n">
-        <v>0.206462</v>
+        <v>0.207629</v>
       </c>
       <c r="D101" t="n">
-        <v>0.221114</v>
+        <v>0.228119</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.239731</v>
+        <v>0.244645</v>
       </c>
       <c r="C102" t="n">
-        <v>0.208327</v>
+        <v>0.209533</v>
       </c>
       <c r="D102" t="n">
-        <v>0.223631</v>
+        <v>0.229881</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.239413</v>
+        <v>0.244633</v>
       </c>
       <c r="C103" t="n">
-        <v>0.209666</v>
+        <v>0.217281</v>
       </c>
       <c r="D103" t="n">
-        <v>0.225949</v>
+        <v>0.232391</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.239821</v>
+        <v>0.245413</v>
       </c>
       <c r="C104" t="n">
-        <v>0.212321</v>
+        <v>0.219695</v>
       </c>
       <c r="D104" t="n">
-        <v>0.22845</v>
+        <v>0.229306</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.240126</v>
+        <v>0.246101</v>
       </c>
       <c r="C105" t="n">
-        <v>0.213842</v>
+        <v>0.222488</v>
       </c>
       <c r="D105" t="n">
-        <v>0.231034</v>
+        <v>0.239052</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.241173</v>
+        <v>0.24744</v>
       </c>
       <c r="C106" t="n">
-        <v>0.211286</v>
+        <v>0.218594</v>
       </c>
       <c r="D106" t="n">
-        <v>0.234957</v>
+        <v>0.242564</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.242903</v>
+        <v>0.248499</v>
       </c>
       <c r="C107" t="n">
-        <v>0.214191</v>
+        <v>0.228533</v>
       </c>
       <c r="D107" t="n">
-        <v>0.238773</v>
+        <v>0.247875</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.245698</v>
+        <v>0.251686</v>
       </c>
       <c r="C108" t="n">
-        <v>0.218665</v>
+        <v>0.232344</v>
       </c>
       <c r="D108" t="n">
-        <v>0.256859</v>
+        <v>0.264901</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.249651</v>
+        <v>0.255751</v>
       </c>
       <c r="C109" t="n">
-        <v>0.225381</v>
+        <v>0.23769</v>
       </c>
       <c r="D109" t="n">
-        <v>0.258498</v>
+        <v>0.263864</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.272612</v>
+        <v>0.285251</v>
       </c>
       <c r="C110" t="n">
-        <v>0.221706</v>
+        <v>0.231953</v>
       </c>
       <c r="D110" t="n">
-        <v>0.260641</v>
+        <v>0.269026</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.271516</v>
+        <v>0.27931</v>
       </c>
       <c r="C111" t="n">
-        <v>0.224098</v>
+        <v>0.231354</v>
       </c>
       <c r="D111" t="n">
-        <v>0.256735</v>
+        <v>0.270123</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.273339</v>
+        <v>0.276594</v>
       </c>
       <c r="C112" t="n">
-        <v>0.225715</v>
+        <v>0.235253</v>
       </c>
       <c r="D112" t="n">
-        <v>0.25817</v>
+        <v>0.269339</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.27202</v>
+        <v>0.274802</v>
       </c>
       <c r="C113" t="n">
-        <v>0.227164</v>
+        <v>0.236748</v>
       </c>
       <c r="D113" t="n">
-        <v>0.259089</v>
+        <v>0.266946</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.272932</v>
+        <v>0.28219</v>
       </c>
       <c r="C114" t="n">
-        <v>0.229367</v>
+        <v>0.238959</v>
       </c>
       <c r="D114" t="n">
-        <v>0.261667</v>
+        <v>0.270099</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.272131</v>
+        <v>0.281594</v>
       </c>
       <c r="C115" t="n">
-        <v>0.231683</v>
+        <v>0.241457</v>
       </c>
       <c r="D115" t="n">
-        <v>0.264413</v>
+        <v>0.270111</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.272736</v>
+        <v>0.274704</v>
       </c>
       <c r="C116" t="n">
-        <v>0.234737</v>
+        <v>0.244815</v>
       </c>
       <c r="D116" t="n">
-        <v>0.267163</v>
+        <v>0.275852</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.272256</v>
+        <v>0.279324</v>
       </c>
       <c r="C117" t="n">
-        <v>0.237818</v>
+        <v>0.24924</v>
       </c>
       <c r="D117" t="n">
-        <v>0.270271</v>
+        <v>0.280935</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.273539</v>
+        <v>0.2818</v>
       </c>
       <c r="C118" t="n">
-        <v>0.24092</v>
+        <v>0.251997</v>
       </c>
       <c r="D118" t="n">
-        <v>0.273579</v>
+        <v>0.28249</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.273206</v>
+        <v>0.282896</v>
       </c>
       <c r="C119" t="n">
-        <v>0.243669</v>
+        <v>0.254398</v>
       </c>
       <c r="D119" t="n">
-        <v>0.277304</v>
+        <v>0.287252</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.275791</v>
+        <v>0.283281</v>
       </c>
       <c r="C120" t="n">
-        <v>0.247086</v>
+        <v>0.258864</v>
       </c>
       <c r="D120" t="n">
-        <v>0.281599</v>
+        <v>0.291931</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.276042</v>
+        <v>0.283136</v>
       </c>
       <c r="C121" t="n">
-        <v>0.251543</v>
+        <v>0.262732</v>
       </c>
       <c r="D121" t="n">
-        <v>0.287012</v>
+        <v>0.29692</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.279571</v>
+        <v>0.288442</v>
       </c>
       <c r="C122" t="n">
-        <v>0.256955</v>
+        <v>0.267203</v>
       </c>
       <c r="D122" t="n">
-        <v>0.293243</v>
+        <v>0.300984</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.284222</v>
+        <v>0.294062</v>
       </c>
       <c r="C123" t="n">
-        <v>0.264502</v>
+        <v>0.276939</v>
       </c>
       <c r="D123" t="n">
-        <v>0.279568</v>
+        <v>0.290804</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.346782</v>
+        <v>0.359319</v>
       </c>
       <c r="C124" t="n">
-        <v>0.242986</v>
+        <v>0.255748</v>
       </c>
       <c r="D124" t="n">
-        <v>0.281352</v>
+        <v>0.293427</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.346307</v>
+        <v>0.360303</v>
       </c>
       <c r="C125" t="n">
-        <v>0.245319</v>
+        <v>0.256358</v>
       </c>
       <c r="D125" t="n">
-        <v>0.283812</v>
+        <v>0.296453</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.34745</v>
+        <v>0.360479</v>
       </c>
       <c r="C126" t="n">
-        <v>0.246587</v>
+        <v>0.259314</v>
       </c>
       <c r="D126" t="n">
-        <v>0.286621</v>
+        <v>0.298929</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.347381</v>
+        <v>0.360721</v>
       </c>
       <c r="C127" t="n">
-        <v>0.249552</v>
+        <v>0.262793</v>
       </c>
       <c r="D127" t="n">
-        <v>0.289167</v>
+        <v>0.301965</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.346662</v>
+        <v>0.361519</v>
       </c>
       <c r="C128" t="n">
-        <v>0.252929</v>
+        <v>0.26615</v>
       </c>
       <c r="D128" t="n">
-        <v>0.292133</v>
+        <v>0.304691</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.347976</v>
+        <v>0.362221</v>
       </c>
       <c r="C129" t="n">
-        <v>0.256101</v>
+        <v>0.269402</v>
       </c>
       <c r="D129" t="n">
-        <v>0.295309</v>
+        <v>0.307852</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.346525</v>
+        <v>0.361707</v>
       </c>
       <c r="C130" t="n">
-        <v>0.259273</v>
+        <v>0.272948</v>
       </c>
       <c r="D130" t="n">
-        <v>0.298526</v>
+        <v>0.311515</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.347447</v>
+        <v>0.360669</v>
       </c>
       <c r="C131" t="n">
-        <v>0.263058</v>
+        <v>0.276408</v>
       </c>
       <c r="D131" t="n">
-        <v>0.302049</v>
+        <v>0.31515</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.347959</v>
+        <v>0.362484</v>
       </c>
       <c r="C132" t="n">
-        <v>0.266414</v>
+        <v>0.279955</v>
       </c>
       <c r="D132" t="n">
-        <v>0.30619</v>
+        <v>0.319144</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.347691</v>
+        <v>0.360408</v>
       </c>
       <c r="C133" t="n">
-        <v>0.270482</v>
+        <v>0.283951</v>
       </c>
       <c r="D133" t="n">
-        <v>0.310908</v>
+        <v>0.324421</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.349038</v>
+        <v>0.362357</v>
       </c>
       <c r="C134" t="n">
-        <v>0.274523</v>
+        <v>0.288369</v>
       </c>
       <c r="D134" t="n">
-        <v>0.315976</v>
+        <v>0.329625</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.350872</v>
+        <v>0.363894</v>
       </c>
       <c r="C135" t="n">
-        <v>0.279421</v>
+        <v>0.293415</v>
       </c>
       <c r="D135" t="n">
-        <v>0.322805</v>
+        <v>0.337089</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.353001</v>
+        <v>0.368013</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2862</v>
+        <v>0.300493</v>
       </c>
       <c r="D136" t="n">
-        <v>0.33242</v>
+        <v>0.346268</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.355576</v>
+        <v>0.370405</v>
       </c>
       <c r="C137" t="n">
-        <v>0.295163</v>
+        <v>0.309493</v>
       </c>
       <c r="D137" t="n">
-        <v>0.301023</v>
+        <v>0.313261</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.402796</v>
+        <v>0.411833</v>
       </c>
       <c r="C138" t="n">
-        <v>0.261621</v>
+        <v>0.275387</v>
       </c>
       <c r="D138" t="n">
-        <v>0.303123</v>
+        <v>0.315932</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.403048</v>
+        <v>0.417104</v>
       </c>
       <c r="C139" t="n">
-        <v>0.26402</v>
+        <v>0.277469</v>
       </c>
       <c r="D139" t="n">
-        <v>0.305658</v>
+        <v>0.318218</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.403411</v>
+        <v>0.415997</v>
       </c>
       <c r="C140" t="n">
-        <v>0.266106</v>
+        <v>0.280538</v>
       </c>
       <c r="D140" t="n">
-        <v>0.307126</v>
+        <v>0.320667</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.40409</v>
+        <v>0.417129</v>
       </c>
       <c r="C141" t="n">
-        <v>0.268664</v>
+        <v>0.282603</v>
       </c>
       <c r="D141" t="n">
-        <v>0.309466</v>
+        <v>0.322612</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.404124</v>
+        <v>0.416549</v>
       </c>
       <c r="C142" t="n">
-        <v>0.271027</v>
+        <v>0.285594</v>
       </c>
       <c r="D142" t="n">
-        <v>0.311241</v>
+        <v>0.324797</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.403595</v>
+        <v>0.416458</v>
       </c>
       <c r="C143" t="n">
-        <v>0.273979</v>
+        <v>0.288138</v>
       </c>
       <c r="D143" t="n">
-        <v>0.314066</v>
+        <v>0.327473</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0455481</v>
+        <v>0.0401433</v>
       </c>
       <c r="C2" t="n">
-        <v>0.038918</v>
+        <v>0.0352374</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0460178</v>
+        <v>0.0411033</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0457828</v>
+        <v>0.040394</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0398574</v>
+        <v>0.0353836</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0461641</v>
+        <v>0.0414555</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0459075</v>
+        <v>0.040521</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0395034</v>
+        <v>0.0354303</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0465603</v>
+        <v>0.0416564</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0459654</v>
+        <v>0.0408533</v>
       </c>
       <c r="C5" t="n">
-        <v>0.040426</v>
+        <v>0.0355777</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0467881</v>
+        <v>0.0421987</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0461128</v>
+        <v>0.0408996</v>
       </c>
       <c r="C6" t="n">
-        <v>0.040683</v>
+        <v>0.0360122</v>
       </c>
       <c r="D6" t="n">
-        <v>0.047213</v>
+        <v>0.0425659</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0461805</v>
+        <v>0.0410485</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0410163</v>
+        <v>0.0363329</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0479014</v>
+        <v>0.0431213</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.046356</v>
+        <v>0.0412538</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0407533</v>
+        <v>0.0371984</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0492083</v>
+        <v>0.0444733</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0467596</v>
+        <v>0.0416228</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0424235</v>
+        <v>0.0385118</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0451998</v>
+        <v>0.0458307</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0444163</v>
+        <v>0.0463896</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0386425</v>
+        <v>0.0397868</v>
       </c>
       <c r="D10" t="n">
-        <v>0.045518</v>
+        <v>0.0461356</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0446083</v>
+        <v>0.04684</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0389566</v>
+        <v>0.0404336</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0457811</v>
+        <v>0.0465016</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0446238</v>
+        <v>0.0469248</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0391469</v>
+        <v>0.0405146</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0460681</v>
+        <v>0.0468647</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0447391</v>
+        <v>0.0469968</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0391862</v>
+        <v>0.0407551</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0463439</v>
+        <v>0.0471806</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0450659</v>
+        <v>0.0471122</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0401704</v>
+        <v>0.0411498</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0465954</v>
+        <v>0.0475266</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0451943</v>
+        <v>0.0471979</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0399933</v>
+        <v>0.0414018</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0469106</v>
+        <v>0.0479006</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0451704</v>
+        <v>0.0473377</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0400203</v>
+        <v>0.0416612</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0471758</v>
+        <v>0.0480975</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0453048</v>
+        <v>0.0474357</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0411101</v>
+        <v>0.0418642</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0475157</v>
+        <v>0.0483951</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0455074</v>
+        <v>0.0475822</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0408606</v>
+        <v>0.0420373</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0478466</v>
+        <v>0.0487589</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.045639</v>
+        <v>0.0477223</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0407235</v>
+        <v>0.0422736</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0481795</v>
+        <v>0.049028</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0458108</v>
+        <v>0.047867</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0413388</v>
+        <v>0.0425047</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0487206</v>
+        <v>0.0493429</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0459783</v>
+        <v>0.0479792</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0417412</v>
+        <v>0.0430971</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0498054</v>
+        <v>0.050311</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0462477</v>
+        <v>0.0482025</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0430863</v>
+        <v>0.0443861</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0527626</v>
+        <v>0.053343</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0467369</v>
+        <v>0.0488213</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0494772</v>
+        <v>0.0491465</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0467233</v>
+        <v>0.047479</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0490358</v>
+        <v>0.0492036</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0418131</v>
+        <v>0.0418157</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0473903</v>
+        <v>0.0478191</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0489552</v>
+        <v>0.0492524</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0421329</v>
+        <v>0.0424198</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0478397</v>
+        <v>0.0483904</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.049013</v>
+        <v>0.0493759</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0423638</v>
+        <v>0.0425624</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0480424</v>
+        <v>0.0486818</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0490345</v>
+        <v>0.0494138</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0427022</v>
+        <v>0.0428255</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0483905</v>
+        <v>0.0488299</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0491488</v>
+        <v>0.0495313</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0427755</v>
+        <v>0.0434098</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0487211</v>
+        <v>0.0492185</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0492858</v>
+        <v>0.0496489</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0430373</v>
+        <v>0.0436235</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0490999</v>
+        <v>0.0495785</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0493929</v>
+        <v>0.0497833</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0432207</v>
+        <v>0.0435241</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0493542</v>
+        <v>0.0499739</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0496113</v>
+        <v>0.0499506</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0435488</v>
+        <v>0.043918</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0497459</v>
+        <v>0.050303</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0497018</v>
+        <v>0.0500839</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0441084</v>
+        <v>0.0443857</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0501075</v>
+        <v>0.0506882</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0498812</v>
+        <v>0.0502566</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0443421</v>
+        <v>0.0446421</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0506732</v>
+        <v>0.0513572</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0499951</v>
+        <v>0.050406</v>
       </c>
       <c r="C34" t="n">
-        <v>0.045054</v>
+        <v>0.0453796</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0516699</v>
+        <v>0.0523045</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.050337</v>
+        <v>0.0505661</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0481651</v>
+        <v>0.0476733</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0549946</v>
+        <v>0.0558918</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0506769</v>
+        <v>0.0509177</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0527319</v>
+        <v>0.0528002</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0619603</v>
+        <v>0.0624909</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0520502</v>
+        <v>0.0522239</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0594147</v>
+        <v>0.0600135</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0530468</v>
+        <v>0.0520119</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0537982</v>
+        <v>0.0570038</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0473426</v>
+        <v>0.046604</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0530264</v>
+        <v>0.0527428</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.053751</v>
+        <v>0.0559537</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0473489</v>
+        <v>0.0469387</v>
       </c>
       <c r="D39" t="n">
-        <v>0.052816</v>
+        <v>0.0530945</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0538411</v>
+        <v>0.057148</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0481743</v>
+        <v>0.0474679</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0548212</v>
+        <v>0.0534677</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0539494</v>
+        <v>0.0561347</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0485675</v>
+        <v>0.0477121</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0535585</v>
+        <v>0.0538479</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0540612</v>
+        <v>0.057269</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0489482</v>
+        <v>0.0479224</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0555046</v>
+        <v>0.0543507</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0541492</v>
+        <v>0.0563176</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0492875</v>
+        <v>0.0484037</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0549337</v>
+        <v>0.054791</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0542927</v>
+        <v>0.0564524</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0494335</v>
+        <v>0.0488842</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0548012</v>
+        <v>0.0553262</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0544576</v>
+        <v>0.056608</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0504277</v>
+        <v>0.0494278</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0564145</v>
+        <v>0.0557591</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0546007</v>
+        <v>0.0578107</v>
       </c>
       <c r="C46" t="n">
-        <v>0.051036</v>
+        <v>0.0502126</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0577123</v>
+        <v>0.0565737</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0547898</v>
+        <v>0.0579873</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0522848</v>
+        <v>0.0517139</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0568879</v>
+        <v>0.0576365</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0550201</v>
+        <v>0.0580818</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0550658</v>
+        <v>0.0539184</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0601029</v>
+        <v>0.0606677</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0554256</v>
+        <v>0.0575493</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0578048</v>
+        <v>0.056863</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0650963</v>
+        <v>0.0642224</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0567624</v>
+        <v>0.0588694</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0613359</v>
+        <v>0.0605099</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0688753</v>
+        <v>0.0691705</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0608616</v>
+        <v>0.0636312</v>
       </c>
       <c r="C51" t="n">
-        <v>0.06545189999999999</v>
+        <v>0.06511019999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.056839</v>
+        <v>0.0571133</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.06613860000000001</v>
+        <v>0.06914240000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.07306319999999999</v>
+        <v>0.0722623</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0553747</v>
+        <v>0.0575336</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0611637</v>
+        <v>0.061224</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0478937</v>
+        <v>0.0473506</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0569553</v>
+        <v>0.0576219</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0607578</v>
+        <v>0.0608827</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0483454</v>
+        <v>0.0479011</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0573558</v>
+        <v>0.05831</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0609063</v>
+        <v>0.0608531</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0485238</v>
+        <v>0.0485352</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0568127</v>
+        <v>0.0588072</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0609188</v>
+        <v>0.0608751</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0496772</v>
+        <v>0.0491579</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0580618</v>
+        <v>0.0592188</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0610524</v>
+        <v>0.0610778</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0499343</v>
+        <v>0.0498268</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0580732</v>
+        <v>0.0590464</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.061195</v>
+        <v>0.061289</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0507214</v>
+        <v>0.0506077</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0592958</v>
+        <v>0.0602972</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0613757</v>
+        <v>0.0617133</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0512641</v>
+        <v>0.0514731</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0594074</v>
+        <v>0.0610046</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0615512</v>
+        <v>0.0618853</v>
       </c>
       <c r="C60" t="n">
-        <v>0.052864</v>
+        <v>0.0527967</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0610599</v>
+        <v>0.0621463</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0618312</v>
+        <v>0.0618806</v>
       </c>
       <c r="C61" t="n">
-        <v>0.054402</v>
+        <v>0.0544317</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0620656</v>
+        <v>0.063544</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0621051</v>
+        <v>0.0621759</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0560794</v>
+        <v>0.0562242</v>
       </c>
       <c r="D62" t="n">
-        <v>0.06570230000000001</v>
+        <v>0.0664669</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0632481</v>
+        <v>0.0634907</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0582562</v>
+        <v>0.0583933</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0680466</v>
+        <v>0.0694766</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0653391</v>
+        <v>0.0656955</v>
       </c>
       <c r="C64" t="n">
-        <v>0.061272</v>
+        <v>0.061555</v>
       </c>
       <c r="D64" t="n">
-        <v>0.07231029999999999</v>
+        <v>0.07386819999999999</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.06802900000000001</v>
+        <v>0.0685687</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0655091</v>
+        <v>0.0654377</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0784015</v>
+        <v>0.0795261</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.072211</v>
+        <v>0.0725341</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0717675</v>
+        <v>0.07196180000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0681179</v>
+        <v>0.0618236</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.12175</v>
+        <v>0.07305209999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.084261</v>
+        <v>0.0562829</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0693463</v>
+        <v>0.0622283</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.122588</v>
+        <v>0.0730614</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0848463</v>
+        <v>0.0568233</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07098930000000001</v>
+        <v>0.0627313</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.123863</v>
+        <v>0.0733496</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0854602</v>
+        <v>0.0575588</v>
       </c>
       <c r="D69" t="n">
-        <v>0.07238550000000001</v>
+        <v>0.06320870000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.12478</v>
+        <v>0.0736406</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0859988</v>
+        <v>0.0582888</v>
       </c>
       <c r="D70" t="n">
-        <v>0.073643</v>
+        <v>0.0637813</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.125464</v>
+        <v>0.074041</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0865076</v>
+        <v>0.0592397</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0750339</v>
+        <v>0.0644909</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.126324</v>
+        <v>0.07418719999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.08732429999999999</v>
+        <v>0.0598144</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0765912</v>
+        <v>0.06541520000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.127281</v>
+        <v>0.0748665</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0882723</v>
+        <v>0.0607895</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0783679</v>
+        <v>0.0664134</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.127509</v>
+        <v>0.0751874</v>
       </c>
       <c r="C74" t="n">
-        <v>0.08916109999999999</v>
+        <v>0.0617974</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0807075</v>
+        <v>0.0679419</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.127514</v>
+        <v>0.0755702</v>
       </c>
       <c r="C75" t="n">
-        <v>0.09023299999999999</v>
+        <v>0.06307400000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0824464</v>
+        <v>0.0696222</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.128109</v>
+        <v>0.0759867</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0913606</v>
+        <v>0.0646277</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0847213</v>
+        <v>0.0717399</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.128839</v>
+        <v>0.07719959999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0931718</v>
+        <v>0.06656869999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.087507</v>
+        <v>0.07457080000000001</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.130151</v>
+        <v>0.0785341</v>
       </c>
       <c r="C78" t="n">
-        <v>0.09550980000000001</v>
+        <v>0.06914919999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.09169040000000001</v>
+        <v>0.0786739</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.131666</v>
+        <v>0.08095289999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.09865259999999999</v>
+        <v>0.07305970000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.096889</v>
+        <v>0.0845894</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.134943</v>
+        <v>0.0846908</v>
       </c>
       <c r="C80" t="n">
-        <v>0.103833</v>
+        <v>0.07855669999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.111458</v>
+        <v>0.109786</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.176439</v>
+        <v>0.188739</v>
       </c>
       <c r="C81" t="n">
-        <v>0.142768</v>
+        <v>0.150534</v>
       </c>
       <c r="D81" t="n">
-        <v>0.113821</v>
+        <v>0.112253</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.177352</v>
+        <v>0.188917</v>
       </c>
       <c r="C82" t="n">
-        <v>0.142167</v>
+        <v>0.154486</v>
       </c>
       <c r="D82" t="n">
-        <v>0.117043</v>
+        <v>0.120976</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.177604</v>
+        <v>0.192014</v>
       </c>
       <c r="C83" t="n">
-        <v>0.159847</v>
+        <v>0.153284</v>
       </c>
       <c r="D83" t="n">
-        <v>0.146017</v>
+        <v>0.121653</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.19024</v>
+        <v>0.191227</v>
       </c>
       <c r="C84" t="n">
-        <v>0.142667</v>
+        <v>0.154813</v>
       </c>
       <c r="D84" t="n">
-        <v>0.125377</v>
+        <v>0.126419</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.175803</v>
+        <v>0.193892</v>
       </c>
       <c r="C85" t="n">
-        <v>0.163382</v>
+        <v>0.15375</v>
       </c>
       <c r="D85" t="n">
-        <v>0.152903</v>
+        <v>0.12412</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.195317</v>
+        <v>0.193631</v>
       </c>
       <c r="C86" t="n">
-        <v>0.151537</v>
+        <v>0.157553</v>
       </c>
       <c r="D86" t="n">
-        <v>0.140784</v>
+        <v>0.131068</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.185099</v>
+        <v>0.19651</v>
       </c>
       <c r="C87" t="n">
-        <v>0.159231</v>
+        <v>0.153729</v>
       </c>
       <c r="D87" t="n">
-        <v>0.151004</v>
+        <v>0.128716</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.19074</v>
+        <v>0.195155</v>
       </c>
       <c r="C88" t="n">
-        <v>0.159325</v>
+        <v>0.157903</v>
       </c>
       <c r="D88" t="n">
-        <v>0.151432</v>
+        <v>0.134667</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.189108</v>
+        <v>0.195952</v>
       </c>
       <c r="C89" t="n">
-        <v>0.168481</v>
+        <v>0.15574</v>
       </c>
       <c r="D89" t="n">
-        <v>0.162474</v>
+        <v>0.135859</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.198531</v>
+        <v>0.194617</v>
       </c>
       <c r="C90" t="n">
-        <v>0.165449</v>
+        <v>0.159468</v>
       </c>
       <c r="D90" t="n">
-        <v>0.160939</v>
+        <v>0.139951</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.192569</v>
+        <v>0.197497</v>
       </c>
       <c r="C91" t="n">
-        <v>0.173903</v>
+        <v>0.159782</v>
       </c>
       <c r="D91" t="n">
-        <v>0.170049</v>
+        <v>0.14195</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.200895</v>
+        <v>0.196684</v>
       </c>
       <c r="C92" t="n">
-        <v>0.170486</v>
+        <v>0.16348</v>
       </c>
       <c r="D92" t="n">
-        <v>0.170007</v>
+        <v>0.147595</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.196738</v>
+        <v>0.199868</v>
       </c>
       <c r="C93" t="n">
-        <v>0.178419</v>
+        <v>0.164669</v>
       </c>
       <c r="D93" t="n">
-        <v>0.17927</v>
+        <v>0.150481</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.204057</v>
+        <v>0.200514</v>
       </c>
       <c r="C94" t="n">
-        <v>0.180759</v>
+        <v>0.17047</v>
       </c>
       <c r="D94" t="n">
-        <v>0.213495</v>
+        <v>0.227573</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.24185</v>
+        <v>0.259954</v>
       </c>
       <c r="C95" t="n">
-        <v>0.206051</v>
+        <v>0.222723</v>
       </c>
       <c r="D95" t="n">
-        <v>0.215614</v>
+        <v>0.229728</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.24131</v>
+        <v>0.259397</v>
       </c>
       <c r="C96" t="n">
-        <v>0.207192</v>
+        <v>0.223852</v>
       </c>
       <c r="D96" t="n">
-        <v>0.217886</v>
+        <v>0.224053</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.241272</v>
+        <v>0.262892</v>
       </c>
       <c r="C97" t="n">
-        <v>0.208651</v>
+        <v>0.2252</v>
       </c>
       <c r="D97" t="n">
-        <v>0.219813</v>
+        <v>0.233583</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.244243</v>
+        <v>0.26168</v>
       </c>
       <c r="C98" t="n">
-        <v>0.20293</v>
+        <v>0.219573</v>
       </c>
       <c r="D98" t="n">
-        <v>0.222677</v>
+        <v>0.235711</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.243901</v>
+        <v>0.261786</v>
       </c>
       <c r="C99" t="n">
-        <v>0.211022</v>
+        <v>0.227395</v>
       </c>
       <c r="D99" t="n">
-        <v>0.216894</v>
+        <v>0.237691</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.243868</v>
+        <v>0.262413</v>
       </c>
       <c r="C100" t="n">
-        <v>0.212573</v>
+        <v>0.229146</v>
       </c>
       <c r="D100" t="n">
-        <v>0.226431</v>
+        <v>0.232572</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.244094</v>
+        <v>0.261934</v>
       </c>
       <c r="C101" t="n">
-        <v>0.207629</v>
+        <v>0.230109</v>
       </c>
       <c r="D101" t="n">
-        <v>0.228119</v>
+        <v>0.233912</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.244645</v>
+        <v>0.262017</v>
       </c>
       <c r="C102" t="n">
-        <v>0.209533</v>
+        <v>0.23107</v>
       </c>
       <c r="D102" t="n">
-        <v>0.229881</v>
+        <v>0.23643</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.244633</v>
+        <v>0.262568</v>
       </c>
       <c r="C103" t="n">
-        <v>0.217281</v>
+        <v>0.233903</v>
       </c>
       <c r="D103" t="n">
-        <v>0.232391</v>
+        <v>0.239973</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.245413</v>
+        <v>0.260805</v>
       </c>
       <c r="C104" t="n">
-        <v>0.219695</v>
+        <v>0.228779</v>
       </c>
       <c r="D104" t="n">
-        <v>0.229306</v>
+        <v>0.246377</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.246101</v>
+        <v>0.261251</v>
       </c>
       <c r="C105" t="n">
-        <v>0.222488</v>
+        <v>0.237211</v>
       </c>
       <c r="D105" t="n">
-        <v>0.239052</v>
+        <v>0.250314</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.24744</v>
+        <v>0.264341</v>
       </c>
       <c r="C106" t="n">
-        <v>0.218594</v>
+        <v>0.240089</v>
       </c>
       <c r="D106" t="n">
-        <v>0.242564</v>
+        <v>0.254037</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.248499</v>
+        <v>0.267108</v>
       </c>
       <c r="C107" t="n">
-        <v>0.228533</v>
+        <v>0.243924</v>
       </c>
       <c r="D107" t="n">
-        <v>0.247875</v>
+        <v>0.253763</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.251686</v>
+        <v>0.269282</v>
       </c>
       <c r="C108" t="n">
-        <v>0.232344</v>
+        <v>0.248407</v>
       </c>
       <c r="D108" t="n">
-        <v>0.264901</v>
+        <v>0.291103</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.255751</v>
+        <v>0.273697</v>
       </c>
       <c r="C109" t="n">
-        <v>0.23769</v>
+        <v>0.25661</v>
       </c>
       <c r="D109" t="n">
-        <v>0.263864</v>
+        <v>0.292975</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.285251</v>
+        <v>0.298601</v>
       </c>
       <c r="C110" t="n">
-        <v>0.231953</v>
+        <v>0.260534</v>
       </c>
       <c r="D110" t="n">
-        <v>0.269026</v>
+        <v>0.295988</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.27931</v>
+        <v>0.290707</v>
       </c>
       <c r="C111" t="n">
-        <v>0.231354</v>
+        <v>0.262967</v>
       </c>
       <c r="D111" t="n">
-        <v>0.270123</v>
+        <v>0.299351</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.276594</v>
+        <v>0.293834</v>
       </c>
       <c r="C112" t="n">
-        <v>0.235253</v>
+        <v>0.265338</v>
       </c>
       <c r="D112" t="n">
-        <v>0.269339</v>
+        <v>0.301091</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.274802</v>
+        <v>0.295859</v>
       </c>
       <c r="C113" t="n">
-        <v>0.236748</v>
+        <v>0.268058</v>
       </c>
       <c r="D113" t="n">
-        <v>0.266946</v>
+        <v>0.304176</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.28219</v>
+        <v>0.300786</v>
       </c>
       <c r="C114" t="n">
-        <v>0.238959</v>
+        <v>0.267973</v>
       </c>
       <c r="D114" t="n">
-        <v>0.270099</v>
+        <v>0.303856</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.281594</v>
+        <v>0.294518</v>
       </c>
       <c r="C115" t="n">
-        <v>0.241457</v>
+        <v>0.270432</v>
       </c>
       <c r="D115" t="n">
-        <v>0.270111</v>
+        <v>0.309179</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.274704</v>
+        <v>0.29985</v>
       </c>
       <c r="C116" t="n">
-        <v>0.244815</v>
+        <v>0.273461</v>
       </c>
       <c r="D116" t="n">
-        <v>0.275852</v>
+        <v>0.312718</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.279324</v>
+        <v>0.298612</v>
       </c>
       <c r="C117" t="n">
-        <v>0.24924</v>
+        <v>0.278399</v>
       </c>
       <c r="D117" t="n">
-        <v>0.280935</v>
+        <v>0.312985</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.2818</v>
+        <v>0.301138</v>
       </c>
       <c r="C118" t="n">
-        <v>0.251997</v>
+        <v>0.279589</v>
       </c>
       <c r="D118" t="n">
-        <v>0.28249</v>
+        <v>0.317216</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.282896</v>
+        <v>0.299878</v>
       </c>
       <c r="C119" t="n">
-        <v>0.254398</v>
+        <v>0.285899</v>
       </c>
       <c r="D119" t="n">
-        <v>0.287252</v>
+        <v>0.32224</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.283281</v>
+        <v>0.299874</v>
       </c>
       <c r="C120" t="n">
-        <v>0.258864</v>
+        <v>0.289486</v>
       </c>
       <c r="D120" t="n">
-        <v>0.291931</v>
+        <v>0.329172</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.283136</v>
+        <v>0.303939</v>
       </c>
       <c r="C121" t="n">
-        <v>0.262732</v>
+        <v>0.29398</v>
       </c>
       <c r="D121" t="n">
-        <v>0.29692</v>
+        <v>0.333222</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.288442</v>
+        <v>0.304774</v>
       </c>
       <c r="C122" t="n">
-        <v>0.267203</v>
+        <v>0.300716</v>
       </c>
       <c r="D122" t="n">
-        <v>0.300984</v>
+        <v>0.343918</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.294062</v>
+        <v>0.313751</v>
       </c>
       <c r="C123" t="n">
-        <v>0.276939</v>
+        <v>0.308012</v>
       </c>
       <c r="D123" t="n">
-        <v>0.290804</v>
+        <v>0.331492</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.359319</v>
+        <v>0.383095</v>
       </c>
       <c r="C124" t="n">
-        <v>0.255748</v>
+        <v>0.286269</v>
       </c>
       <c r="D124" t="n">
-        <v>0.293427</v>
+        <v>0.334702</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.360303</v>
+        <v>0.38199</v>
       </c>
       <c r="C125" t="n">
-        <v>0.256358</v>
+        <v>0.288825</v>
       </c>
       <c r="D125" t="n">
-        <v>0.296453</v>
+        <v>0.338646</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.360479</v>
+        <v>0.383333</v>
       </c>
       <c r="C126" t="n">
-        <v>0.259314</v>
+        <v>0.293241</v>
       </c>
       <c r="D126" t="n">
-        <v>0.298929</v>
+        <v>0.341564</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.360721</v>
+        <v>0.382224</v>
       </c>
       <c r="C127" t="n">
-        <v>0.262793</v>
+        <v>0.296537</v>
       </c>
       <c r="D127" t="n">
-        <v>0.301965</v>
+        <v>0.345362</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.361519</v>
+        <v>0.382318</v>
       </c>
       <c r="C128" t="n">
-        <v>0.26615</v>
+        <v>0.300015</v>
       </c>
       <c r="D128" t="n">
-        <v>0.304691</v>
+        <v>0.348579</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.362221</v>
+        <v>0.383024</v>
       </c>
       <c r="C129" t="n">
-        <v>0.269402</v>
+        <v>0.303797</v>
       </c>
       <c r="D129" t="n">
-        <v>0.307852</v>
+        <v>0.353139</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.361707</v>
+        <v>0.386168</v>
       </c>
       <c r="C130" t="n">
-        <v>0.272948</v>
+        <v>0.307287</v>
       </c>
       <c r="D130" t="n">
-        <v>0.311515</v>
+        <v>0.356065</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.360669</v>
+        <v>0.38453</v>
       </c>
       <c r="C131" t="n">
-        <v>0.276408</v>
+        <v>0.311438</v>
       </c>
       <c r="D131" t="n">
-        <v>0.31515</v>
+        <v>0.361688</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.362484</v>
+        <v>0.383823</v>
       </c>
       <c r="C132" t="n">
-        <v>0.279955</v>
+        <v>0.315534</v>
       </c>
       <c r="D132" t="n">
-        <v>0.319144</v>
+        <v>0.366098</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.360408</v>
+        <v>0.383879</v>
       </c>
       <c r="C133" t="n">
-        <v>0.283951</v>
+        <v>0.319701</v>
       </c>
       <c r="D133" t="n">
-        <v>0.324421</v>
+        <v>0.371924</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.362357</v>
+        <v>0.386956</v>
       </c>
       <c r="C134" t="n">
-        <v>0.288369</v>
+        <v>0.325037</v>
       </c>
       <c r="D134" t="n">
-        <v>0.329625</v>
+        <v>0.377523</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.363894</v>
+        <v>0.385705</v>
       </c>
       <c r="C135" t="n">
-        <v>0.293415</v>
+        <v>0.330976</v>
       </c>
       <c r="D135" t="n">
-        <v>0.337089</v>
+        <v>0.386726</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.368013</v>
+        <v>0.391035</v>
       </c>
       <c r="C136" t="n">
-        <v>0.300493</v>
+        <v>0.338325</v>
       </c>
       <c r="D136" t="n">
-        <v>0.346268</v>
+        <v>0.397251</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.370405</v>
+        <v>0.393626</v>
       </c>
       <c r="C137" t="n">
-        <v>0.309493</v>
+        <v>0.348674</v>
       </c>
       <c r="D137" t="n">
-        <v>0.313261</v>
+        <v>0.35121</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.411833</v>
+        <v>0.448699</v>
       </c>
       <c r="C138" t="n">
-        <v>0.275387</v>
+        <v>0.304904</v>
       </c>
       <c r="D138" t="n">
-        <v>0.315932</v>
+        <v>0.355133</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.417104</v>
+        <v>0.449002</v>
       </c>
       <c r="C139" t="n">
-        <v>0.277469</v>
+        <v>0.308269</v>
       </c>
       <c r="D139" t="n">
-        <v>0.318218</v>
+        <v>0.358376</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.415997</v>
+        <v>0.450995</v>
       </c>
       <c r="C140" t="n">
-        <v>0.280538</v>
+        <v>0.312139</v>
       </c>
       <c r="D140" t="n">
-        <v>0.320667</v>
+        <v>0.362498</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.417129</v>
+        <v>0.447369</v>
       </c>
       <c r="C141" t="n">
-        <v>0.282603</v>
+        <v>0.315685</v>
       </c>
       <c r="D141" t="n">
-        <v>0.322612</v>
+        <v>0.36601</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.416549</v>
+        <v>0.448503</v>
       </c>
       <c r="C142" t="n">
-        <v>0.285594</v>
+        <v>0.319558</v>
       </c>
       <c r="D142" t="n">
-        <v>0.324797</v>
+        <v>0.369722</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.416458</v>
+        <v>0.448204</v>
       </c>
       <c r="C143" t="n">
-        <v>0.288138</v>
+        <v>0.323232</v>
       </c>
       <c r="D143" t="n">
-        <v>0.327473</v>
+        <v>0.373516</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0401433</v>
+        <v>0.0418745</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0352374</v>
+        <v>0.0366691</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0411033</v>
+        <v>0.0437793</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.040394</v>
+        <v>0.0421868</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0353836</v>
+        <v>0.03703</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0414555</v>
+        <v>0.0440898</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.040521</v>
+        <v>0.0423921</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0354303</v>
+        <v>0.0372019</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0416564</v>
+        <v>0.0442732</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0408533</v>
+        <v>0.0425181</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0355777</v>
+        <v>0.0370493</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0421987</v>
+        <v>0.0445477</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0408996</v>
+        <v>0.0425384</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0360122</v>
+        <v>0.0373456</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0425659</v>
+        <v>0.0448101</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0410485</v>
+        <v>0.0425725</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0363329</v>
+        <v>0.0379746</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0431213</v>
+        <v>0.0456872</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0412538</v>
+        <v>0.0428028</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0371984</v>
+        <v>0.0385451</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0444733</v>
+        <v>0.0467598</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0416228</v>
+        <v>0.0432524</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0385118</v>
+        <v>0.0397992</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0458307</v>
+        <v>0.0455667</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0463896</v>
+        <v>0.0476139</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0397868</v>
+        <v>0.0406214</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0461356</v>
+        <v>0.0459429</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04684</v>
+        <v>0.0480478</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0404336</v>
+        <v>0.041193</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0465016</v>
+        <v>0.046252</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0469248</v>
+        <v>0.0479731</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0405146</v>
+        <v>0.0413753</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0468647</v>
+        <v>0.0466167</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0469968</v>
+        <v>0.0481456</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0407551</v>
+        <v>0.041434</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0471806</v>
+        <v>0.0467131</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0471122</v>
+        <v>0.0479667</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0411498</v>
+        <v>0.0419499</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0475266</v>
+        <v>0.0470745</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0471979</v>
+        <v>0.0483885</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0414018</v>
+        <v>0.0422133</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0479006</v>
+        <v>0.0474958</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0473377</v>
+        <v>0.048298</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0416612</v>
+        <v>0.042545</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0480975</v>
+        <v>0.0478373</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0474357</v>
+        <v>0.0485883</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0418642</v>
+        <v>0.0424684</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0483951</v>
+        <v>0.0481485</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0475822</v>
+        <v>0.0484234</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0420373</v>
+        <v>0.0429956</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0487589</v>
+        <v>0.0484856</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0477223</v>
+        <v>0.04875</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0422736</v>
+        <v>0.043288</v>
       </c>
       <c r="D19" t="n">
-        <v>0.049028</v>
+        <v>0.0488746</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.047867</v>
+        <v>0.0490258</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0425047</v>
+        <v>0.0432674</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0493429</v>
+        <v>0.0493349</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0479792</v>
+        <v>0.0491247</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0430971</v>
+        <v>0.0439475</v>
       </c>
       <c r="D21" t="n">
-        <v>0.050311</v>
+        <v>0.0504847</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0482025</v>
+        <v>0.0491211</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0443861</v>
+        <v>0.0451146</v>
       </c>
       <c r="D22" t="n">
-        <v>0.053343</v>
+        <v>0.0539621</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0488213</v>
+        <v>0.049885</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0491465</v>
+        <v>0.0509204</v>
       </c>
       <c r="D23" t="n">
-        <v>0.047479</v>
+        <v>0.0488568</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0492036</v>
+        <v>0.049858</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0418157</v>
+        <v>0.0436424</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0478191</v>
+        <v>0.0492183</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0492524</v>
+        <v>0.0495581</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0424198</v>
+        <v>0.0437474</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0483904</v>
+        <v>0.0495731</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0493759</v>
+        <v>0.0496578</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0425624</v>
+        <v>0.0442263</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0486818</v>
+        <v>0.0494138</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0494138</v>
+        <v>0.0496736</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0428255</v>
+        <v>0.0444058</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0488299</v>
+        <v>0.0494004</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0495313</v>
+        <v>0.049789</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0434098</v>
+        <v>0.0446657</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0492185</v>
+        <v>0.0506324</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0496489</v>
+        <v>0.0499618</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0436235</v>
+        <v>0.0450045</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0495785</v>
+        <v>0.0510052</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0497833</v>
+        <v>0.0500571</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0435241</v>
+        <v>0.0451491</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0499739</v>
+        <v>0.0508075</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0499506</v>
+        <v>0.0502417</v>
       </c>
       <c r="C31" t="n">
-        <v>0.043918</v>
+        <v>0.0454678</v>
       </c>
       <c r="D31" t="n">
-        <v>0.050303</v>
+        <v>0.0516622</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0500839</v>
+        <v>0.0503785</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0443857</v>
+        <v>0.0457296</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0506882</v>
+        <v>0.0521157</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0502566</v>
+        <v>0.0505735</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0446421</v>
+        <v>0.0462909</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0513572</v>
+        <v>0.0527098</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.050406</v>
+        <v>0.0507163</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0453796</v>
+        <v>0.0469466</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0523045</v>
+        <v>0.0537821</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0505661</v>
+        <v>0.0509113</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0476733</v>
+        <v>0.0492191</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0558918</v>
+        <v>0.0566867</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0509177</v>
+        <v>0.0512744</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0528002</v>
+        <v>0.0542314</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0624909</v>
+        <v>0.0637321</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0522239</v>
+        <v>0.052871</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0600135</v>
+        <v>0.0613353</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0520119</v>
+        <v>0.0521115</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0570038</v>
+        <v>0.0570349</v>
       </c>
       <c r="C38" t="n">
-        <v>0.046604</v>
+        <v>0.0476903</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0527428</v>
+        <v>0.052296</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0559537</v>
+        <v>0.0567647</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0469387</v>
+        <v>0.048054</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0530945</v>
+        <v>0.0530258</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.057148</v>
+        <v>0.0568491</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0474679</v>
+        <v>0.0485564</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0534677</v>
+        <v>0.0532137</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0561347</v>
+        <v>0.0569193</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0477121</v>
+        <v>0.04867</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0538479</v>
+        <v>0.0534283</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.057269</v>
+        <v>0.0570297</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0479224</v>
+        <v>0.0492068</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0543507</v>
+        <v>0.0544205</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0563176</v>
+        <v>0.0571264</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0484037</v>
+        <v>0.0495821</v>
       </c>
       <c r="D43" t="n">
-        <v>0.054791</v>
+        <v>0.0539936</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0564524</v>
+        <v>0.0572503</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0488842</v>
+        <v>0.0500887</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0553262</v>
+        <v>0.0553429</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.056608</v>
+        <v>0.057376</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0494278</v>
+        <v>0.0502412</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0557591</v>
+        <v>0.0546192</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0578107</v>
+        <v>0.0575258</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0502126</v>
+        <v>0.0508421</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0565737</v>
+        <v>0.0565081</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0579873</v>
+        <v>0.0577084</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0517139</v>
+        <v>0.052124</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0576365</v>
+        <v>0.0566534</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0580818</v>
+        <v>0.0580036</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0539184</v>
+        <v>0.0545724</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0606677</v>
+        <v>0.0595555</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0575493</v>
+        <v>0.0583797</v>
       </c>
       <c r="C49" t="n">
-        <v>0.056863</v>
+        <v>0.0573987</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0642224</v>
+        <v>0.0636366</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0588694</v>
+        <v>0.0596416</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0605099</v>
+        <v>0.0609003</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0691705</v>
+        <v>0.0683879</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0636312</v>
+        <v>0.0637289</v>
       </c>
       <c r="C51" t="n">
-        <v>0.06511019999999999</v>
+        <v>0.0653922</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0571133</v>
+        <v>0.055606</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.06914240000000001</v>
+        <v>0.06891079999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0722623</v>
+        <v>0.0728217</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0575336</v>
+        <v>0.0561129</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.061224</v>
+        <v>0.0611368</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0473506</v>
+        <v>0.0486458</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0576219</v>
+        <v>0.0564078</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0608827</v>
+        <v>0.0607019</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0479011</v>
+        <v>0.0489496</v>
       </c>
       <c r="D54" t="n">
-        <v>0.05831</v>
+        <v>0.0564896</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0608531</v>
+        <v>0.0608575</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0485352</v>
+        <v>0.0495817</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0588072</v>
+        <v>0.0567364</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0608751</v>
+        <v>0.0608763</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0491579</v>
+        <v>0.0501799</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0592188</v>
+        <v>0.0571131</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0610778</v>
+        <v>0.0609913</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0498268</v>
+        <v>0.0508576</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0590464</v>
+        <v>0.057769</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.061289</v>
+        <v>0.0611215</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0506077</v>
+        <v>0.0516013</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0602972</v>
+        <v>0.0579978</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0617133</v>
+        <v>0.0613389</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0514731</v>
+        <v>0.0524719</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0610046</v>
+        <v>0.058604</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0618853</v>
+        <v>0.0615001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0527967</v>
+        <v>0.0535178</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0621463</v>
+        <v>0.0605705</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0618806</v>
+        <v>0.0618183</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0544317</v>
+        <v>0.0545706</v>
       </c>
       <c r="D61" t="n">
-        <v>0.063544</v>
+        <v>0.0627042</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0621759</v>
+        <v>0.0621039</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0562242</v>
+        <v>0.0569659</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0664669</v>
+        <v>0.0640631</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0634907</v>
+        <v>0.0631748</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0583933</v>
+        <v>0.0589788</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0694766</v>
+        <v>0.0680196</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0656955</v>
+        <v>0.0652761</v>
       </c>
       <c r="C64" t="n">
-        <v>0.061555</v>
+        <v>0.0618093</v>
       </c>
       <c r="D64" t="n">
-        <v>0.07386819999999999</v>
+        <v>0.0715903</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0685687</v>
+        <v>0.0680008</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0654377</v>
+        <v>0.0654715</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0795261</v>
+        <v>0.0784479</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0725341</v>
+        <v>0.0721547</v>
       </c>
       <c r="C66" t="n">
-        <v>0.07196180000000001</v>
+        <v>0.0721521</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0618236</v>
+        <v>0.0596444</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.07305209999999999</v>
+        <v>0.07601430000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0562829</v>
+        <v>0.0576238</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0622283</v>
+        <v>0.0598641</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0730614</v>
+        <v>0.0765209</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0568233</v>
+        <v>0.058258</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0627313</v>
+        <v>0.0603747</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0733496</v>
+        <v>0.07748439999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0575588</v>
+        <v>0.058838</v>
       </c>
       <c r="D69" t="n">
-        <v>0.06320870000000001</v>
+        <v>0.0609263</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0736406</v>
+        <v>0.0782848</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0582888</v>
+        <v>0.05955</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0637813</v>
+        <v>0.0615253</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.074041</v>
+        <v>0.0783075</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0592397</v>
+        <v>0.0601978</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0644909</v>
+        <v>0.0621201</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07418719999999999</v>
+        <v>0.07922700000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0598144</v>
+        <v>0.0611796</v>
       </c>
       <c r="D72" t="n">
-        <v>0.06541520000000001</v>
+        <v>0.0628951</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0748665</v>
+        <v>0.0793831</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0607895</v>
+        <v>0.0620314</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0664134</v>
+        <v>0.06364209999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0751874</v>
+        <v>0.0800341</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0617974</v>
+        <v>0.06326950000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0679419</v>
+        <v>0.0653604</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0755702</v>
+        <v>0.0802322</v>
       </c>
       <c r="C75" t="n">
-        <v>0.06307400000000001</v>
+        <v>0.0644612</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0696222</v>
+        <v>0.067177</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0759867</v>
+        <v>0.08076170000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0646277</v>
+        <v>0.065881</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0717399</v>
+        <v>0.0691779</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07719959999999999</v>
+        <v>0.08175259999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.06656869999999999</v>
+        <v>0.06781619999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.07457080000000001</v>
+        <v>0.07195650000000001</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0785341</v>
+        <v>0.0830697</v>
       </c>
       <c r="C78" t="n">
-        <v>0.06914919999999999</v>
+        <v>0.0704172</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0786739</v>
+        <v>0.0757872</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.08095289999999999</v>
+        <v>0.08513229999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.07305970000000001</v>
+        <v>0.0739619</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0845894</v>
+        <v>0.08145139999999999</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0846908</v>
+        <v>0.0889891</v>
       </c>
       <c r="C80" t="n">
-        <v>0.07855669999999999</v>
+        <v>0.0793565</v>
       </c>
       <c r="D80" t="n">
-        <v>0.109786</v>
+        <v>0.107308</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.188739</v>
+        <v>0.174377</v>
       </c>
       <c r="C81" t="n">
-        <v>0.150534</v>
+        <v>0.140995</v>
       </c>
       <c r="D81" t="n">
-        <v>0.112253</v>
+        <v>0.109549</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.188917</v>
+        <v>0.17368</v>
       </c>
       <c r="C82" t="n">
-        <v>0.154486</v>
+        <v>0.139312</v>
       </c>
       <c r="D82" t="n">
-        <v>0.120976</v>
+        <v>0.110447</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.192014</v>
+        <v>0.174789</v>
       </c>
       <c r="C83" t="n">
-        <v>0.153284</v>
+        <v>0.13989</v>
       </c>
       <c r="D83" t="n">
-        <v>0.121653</v>
+        <v>0.114328</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.191227</v>
+        <v>0.174549</v>
       </c>
       <c r="C84" t="n">
-        <v>0.154813</v>
+        <v>0.14177</v>
       </c>
       <c r="D84" t="n">
-        <v>0.126419</v>
+        <v>0.114891</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.193892</v>
+        <v>0.177757</v>
       </c>
       <c r="C85" t="n">
-        <v>0.15375</v>
+        <v>0.140836</v>
       </c>
       <c r="D85" t="n">
-        <v>0.12412</v>
+        <v>0.118218</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.193631</v>
+        <v>0.177426</v>
       </c>
       <c r="C86" t="n">
-        <v>0.157553</v>
+        <v>0.142973</v>
       </c>
       <c r="D86" t="n">
-        <v>0.131068</v>
+        <v>0.123247</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.19651</v>
+        <v>0.177583</v>
       </c>
       <c r="C87" t="n">
-        <v>0.153729</v>
+        <v>0.142025</v>
       </c>
       <c r="D87" t="n">
-        <v>0.128716</v>
+        <v>0.12391</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.195155</v>
+        <v>0.177222</v>
       </c>
       <c r="C88" t="n">
-        <v>0.157903</v>
+        <v>0.144381</v>
       </c>
       <c r="D88" t="n">
-        <v>0.134667</v>
+        <v>0.127337</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.195952</v>
+        <v>0.179746</v>
       </c>
       <c r="C89" t="n">
-        <v>0.15574</v>
+        <v>0.143497</v>
       </c>
       <c r="D89" t="n">
-        <v>0.135859</v>
+        <v>0.126472</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.194617</v>
+        <v>0.177586</v>
       </c>
       <c r="C90" t="n">
-        <v>0.159468</v>
+        <v>0.145119</v>
       </c>
       <c r="D90" t="n">
-        <v>0.139951</v>
+        <v>0.12789</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197497</v>
+        <v>0.179632</v>
       </c>
       <c r="C91" t="n">
-        <v>0.159782</v>
+        <v>0.144913</v>
       </c>
       <c r="D91" t="n">
-        <v>0.14195</v>
+        <v>0.130346</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.196684</v>
+        <v>0.17872</v>
       </c>
       <c r="C92" t="n">
-        <v>0.16348</v>
+        <v>0.148565</v>
       </c>
       <c r="D92" t="n">
-        <v>0.147595</v>
+        <v>0.136908</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.199868</v>
+        <v>0.181882</v>
       </c>
       <c r="C93" t="n">
-        <v>0.164669</v>
+        <v>0.14942</v>
       </c>
       <c r="D93" t="n">
-        <v>0.150481</v>
+        <v>0.139748</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.200514</v>
+        <v>0.183017</v>
       </c>
       <c r="C94" t="n">
-        <v>0.17047</v>
+        <v>0.156177</v>
       </c>
       <c r="D94" t="n">
-        <v>0.227573</v>
+        <v>0.213535</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.259954</v>
+        <v>0.244319</v>
       </c>
       <c r="C95" t="n">
-        <v>0.222723</v>
+        <v>0.204919</v>
       </c>
       <c r="D95" t="n">
-        <v>0.229728</v>
+        <v>0.214587</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.259397</v>
+        <v>0.24411</v>
       </c>
       <c r="C96" t="n">
-        <v>0.223852</v>
+        <v>0.206614</v>
       </c>
       <c r="D96" t="n">
-        <v>0.224053</v>
+        <v>0.21601</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.262892</v>
+        <v>0.243953</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2252</v>
+        <v>0.20695</v>
       </c>
       <c r="D97" t="n">
-        <v>0.233583</v>
+        <v>0.218091</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.26168</v>
+        <v>0.24463</v>
       </c>
       <c r="C98" t="n">
-        <v>0.219573</v>
+        <v>0.208681</v>
       </c>
       <c r="D98" t="n">
-        <v>0.235711</v>
+        <v>0.219894</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.261786</v>
+        <v>0.244135</v>
       </c>
       <c r="C99" t="n">
-        <v>0.227395</v>
+        <v>0.210131</v>
       </c>
       <c r="D99" t="n">
-        <v>0.237691</v>
+        <v>0.221664</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.262413</v>
+        <v>0.244675</v>
       </c>
       <c r="C100" t="n">
-        <v>0.229146</v>
+        <v>0.211569</v>
       </c>
       <c r="D100" t="n">
-        <v>0.232572</v>
+        <v>0.218291</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.261934</v>
+        <v>0.244471</v>
       </c>
       <c r="C101" t="n">
-        <v>0.230109</v>
+        <v>0.2074</v>
       </c>
       <c r="D101" t="n">
-        <v>0.233912</v>
+        <v>0.226147</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.262017</v>
+        <v>0.244979</v>
       </c>
       <c r="C102" t="n">
-        <v>0.23107</v>
+        <v>0.214746</v>
       </c>
       <c r="D102" t="n">
-        <v>0.23643</v>
+        <v>0.229411</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.262568</v>
+        <v>0.245071</v>
       </c>
       <c r="C103" t="n">
-        <v>0.233903</v>
+        <v>0.217074</v>
       </c>
       <c r="D103" t="n">
-        <v>0.239973</v>
+        <v>0.230699</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.260805</v>
+        <v>0.245014</v>
       </c>
       <c r="C104" t="n">
-        <v>0.228779</v>
+        <v>0.218487</v>
       </c>
       <c r="D104" t="n">
-        <v>0.246377</v>
+        <v>0.232787</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.261251</v>
+        <v>0.247124</v>
       </c>
       <c r="C105" t="n">
-        <v>0.237211</v>
+        <v>0.215225</v>
       </c>
       <c r="D105" t="n">
-        <v>0.250314</v>
+        <v>0.23609</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.264341</v>
+        <v>0.246935</v>
       </c>
       <c r="C106" t="n">
-        <v>0.240089</v>
+        <v>0.222838</v>
       </c>
       <c r="D106" t="n">
-        <v>0.254037</v>
+        <v>0.239587</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.267108</v>
+        <v>0.248139</v>
       </c>
       <c r="C107" t="n">
-        <v>0.243924</v>
+        <v>0.226392</v>
       </c>
       <c r="D107" t="n">
-        <v>0.253763</v>
+        <v>0.244267</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.269282</v>
+        <v>0.251855</v>
       </c>
       <c r="C108" t="n">
-        <v>0.248407</v>
+        <v>0.231437</v>
       </c>
       <c r="D108" t="n">
-        <v>0.291103</v>
+        <v>0.261299</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.273697</v>
+        <v>0.255824</v>
       </c>
       <c r="C109" t="n">
-        <v>0.25661</v>
+        <v>0.233957</v>
       </c>
       <c r="D109" t="n">
-        <v>0.292975</v>
+        <v>0.265903</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.298601</v>
+        <v>0.27873</v>
       </c>
       <c r="C110" t="n">
-        <v>0.260534</v>
+        <v>0.229635</v>
       </c>
       <c r="D110" t="n">
-        <v>0.295988</v>
+        <v>0.267975</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.290707</v>
+        <v>0.277863</v>
       </c>
       <c r="C111" t="n">
-        <v>0.262967</v>
+        <v>0.230618</v>
       </c>
       <c r="D111" t="n">
-        <v>0.299351</v>
+        <v>0.26844</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.293834</v>
+        <v>0.279499</v>
       </c>
       <c r="C112" t="n">
-        <v>0.265338</v>
+        <v>0.232976</v>
       </c>
       <c r="D112" t="n">
-        <v>0.301091</v>
+        <v>0.265996</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.295859</v>
+        <v>0.279264</v>
       </c>
       <c r="C113" t="n">
-        <v>0.268058</v>
+        <v>0.234469</v>
       </c>
       <c r="D113" t="n">
-        <v>0.304176</v>
+        <v>0.266639</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.300786</v>
+        <v>0.280127</v>
       </c>
       <c r="C114" t="n">
-        <v>0.267973</v>
+        <v>0.236961</v>
       </c>
       <c r="D114" t="n">
-        <v>0.303856</v>
+        <v>0.266198</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.294518</v>
+        <v>0.280952</v>
       </c>
       <c r="C115" t="n">
-        <v>0.270432</v>
+        <v>0.239788</v>
       </c>
       <c r="D115" t="n">
-        <v>0.309179</v>
+        <v>0.271948</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.29985</v>
+        <v>0.279976</v>
       </c>
       <c r="C116" t="n">
-        <v>0.273461</v>
+        <v>0.24085</v>
       </c>
       <c r="D116" t="n">
-        <v>0.312718</v>
+        <v>0.274484</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.298612</v>
+        <v>0.288297</v>
       </c>
       <c r="C117" t="n">
-        <v>0.278399</v>
+        <v>0.24617</v>
       </c>
       <c r="D117" t="n">
-        <v>0.312985</v>
+        <v>0.278501</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.301138</v>
+        <v>0.274549</v>
       </c>
       <c r="C118" t="n">
-        <v>0.279589</v>
+        <v>0.248812</v>
       </c>
       <c r="D118" t="n">
-        <v>0.317216</v>
+        <v>0.28169</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.299878</v>
+        <v>0.281253</v>
       </c>
       <c r="C119" t="n">
-        <v>0.285899</v>
+        <v>0.250711</v>
       </c>
       <c r="D119" t="n">
-        <v>0.32224</v>
+        <v>0.284128</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.299874</v>
+        <v>0.286144</v>
       </c>
       <c r="C120" t="n">
-        <v>0.289486</v>
+        <v>0.255442</v>
       </c>
       <c r="D120" t="n">
-        <v>0.329172</v>
+        <v>0.286952</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.303939</v>
+        <v>0.283964</v>
       </c>
       <c r="C121" t="n">
-        <v>0.29398</v>
+        <v>0.258903</v>
       </c>
       <c r="D121" t="n">
-        <v>0.333222</v>
+        <v>0.294626</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.304774</v>
+        <v>0.28801</v>
       </c>
       <c r="C122" t="n">
-        <v>0.300716</v>
+        <v>0.265651</v>
       </c>
       <c r="D122" t="n">
-        <v>0.343918</v>
+        <v>0.298873</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.313751</v>
+        <v>0.284289</v>
       </c>
       <c r="C123" t="n">
-        <v>0.308012</v>
+        <v>0.273532</v>
       </c>
       <c r="D123" t="n">
-        <v>0.331492</v>
+        <v>0.285677</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.383095</v>
+        <v>0.352478</v>
       </c>
       <c r="C124" t="n">
-        <v>0.286269</v>
+        <v>0.249676</v>
       </c>
       <c r="D124" t="n">
-        <v>0.334702</v>
+        <v>0.287846</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.38199</v>
+        <v>0.352742</v>
       </c>
       <c r="C125" t="n">
-        <v>0.288825</v>
+        <v>0.251604</v>
       </c>
       <c r="D125" t="n">
-        <v>0.338646</v>
+        <v>0.290411</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.383333</v>
+        <v>0.353777</v>
       </c>
       <c r="C126" t="n">
-        <v>0.293241</v>
+        <v>0.2533</v>
       </c>
       <c r="D126" t="n">
-        <v>0.341564</v>
+        <v>0.292586</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.382224</v>
+        <v>0.352942</v>
       </c>
       <c r="C127" t="n">
-        <v>0.296537</v>
+        <v>0.256782</v>
       </c>
       <c r="D127" t="n">
-        <v>0.345362</v>
+        <v>0.29651</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.382318</v>
+        <v>0.352786</v>
       </c>
       <c r="C128" t="n">
-        <v>0.300015</v>
+        <v>0.259906</v>
       </c>
       <c r="D128" t="n">
-        <v>0.348579</v>
+        <v>0.299399</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.383024</v>
+        <v>0.353593</v>
       </c>
       <c r="C129" t="n">
-        <v>0.303797</v>
+        <v>0.263399</v>
       </c>
       <c r="D129" t="n">
-        <v>0.353139</v>
+        <v>0.302877</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.386168</v>
+        <v>0.352725</v>
       </c>
       <c r="C130" t="n">
-        <v>0.307287</v>
+        <v>0.266777</v>
       </c>
       <c r="D130" t="n">
-        <v>0.356065</v>
+        <v>0.305924</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.38453</v>
+        <v>0.354035</v>
       </c>
       <c r="C131" t="n">
-        <v>0.311438</v>
+        <v>0.270072</v>
       </c>
       <c r="D131" t="n">
-        <v>0.361688</v>
+        <v>0.309528</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.383823</v>
+        <v>0.354364</v>
       </c>
       <c r="C132" t="n">
-        <v>0.315534</v>
+        <v>0.274671</v>
       </c>
       <c r="D132" t="n">
-        <v>0.366098</v>
+        <v>0.3145</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.383879</v>
+        <v>0.354124</v>
       </c>
       <c r="C133" t="n">
-        <v>0.319701</v>
+        <v>0.278144</v>
       </c>
       <c r="D133" t="n">
-        <v>0.371924</v>
+        <v>0.318573</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.386956</v>
+        <v>0.35592</v>
       </c>
       <c r="C134" t="n">
-        <v>0.325037</v>
+        <v>0.282293</v>
       </c>
       <c r="D134" t="n">
-        <v>0.377523</v>
+        <v>0.324672</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.385705</v>
+        <v>0.357178</v>
       </c>
       <c r="C135" t="n">
-        <v>0.330976</v>
+        <v>0.287716</v>
       </c>
       <c r="D135" t="n">
-        <v>0.386726</v>
+        <v>0.331873</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.391035</v>
+        <v>0.359056</v>
       </c>
       <c r="C136" t="n">
-        <v>0.338325</v>
+        <v>0.294149</v>
       </c>
       <c r="D136" t="n">
-        <v>0.397251</v>
+        <v>0.340863</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.393626</v>
+        <v>0.360797</v>
       </c>
       <c r="C137" t="n">
-        <v>0.348674</v>
+        <v>0.303698</v>
       </c>
       <c r="D137" t="n">
-        <v>0.35121</v>
+        <v>0.307868</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.448699</v>
+        <v>0.416607</v>
       </c>
       <c r="C138" t="n">
-        <v>0.304904</v>
+        <v>0.269934</v>
       </c>
       <c r="D138" t="n">
-        <v>0.355133</v>
+        <v>0.310832</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.449002</v>
+        <v>0.412216</v>
       </c>
       <c r="C139" t="n">
-        <v>0.308269</v>
+        <v>0.271809</v>
       </c>
       <c r="D139" t="n">
-        <v>0.358376</v>
+        <v>0.313103</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.450995</v>
+        <v>0.412569</v>
       </c>
       <c r="C140" t="n">
-        <v>0.312139</v>
+        <v>0.275174</v>
       </c>
       <c r="D140" t="n">
-        <v>0.362498</v>
+        <v>0.315549</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.447369</v>
+        <v>0.416654</v>
       </c>
       <c r="C141" t="n">
-        <v>0.315685</v>
+        <v>0.277332</v>
       </c>
       <c r="D141" t="n">
-        <v>0.36601</v>
+        <v>0.317271</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.448503</v>
+        <v>0.41766</v>
       </c>
       <c r="C142" t="n">
-        <v>0.319558</v>
+        <v>0.280519</v>
       </c>
       <c r="D142" t="n">
-        <v>0.369722</v>
+        <v>0.319395</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.448204</v>
+        <v>0.417827</v>
       </c>
       <c r="C143" t="n">
-        <v>0.323232</v>
+        <v>0.282932</v>
       </c>
       <c r="D143" t="n">
-        <v>0.373516</v>
+        <v>0.322208</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0418745</v>
+        <v>0.0409772</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0366691</v>
+        <v>0.0361006</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0437793</v>
+        <v>0.0418361</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0421868</v>
+        <v>0.0411978</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03703</v>
+        <v>0.036275</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0440898</v>
+        <v>0.0422023</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0423921</v>
+        <v>0.0413518</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0372019</v>
+        <v>0.0363013</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0442732</v>
+        <v>0.0424347</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0425181</v>
+        <v>0.0415175</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0370493</v>
+        <v>0.0365434</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0445477</v>
+        <v>0.0427966</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0425384</v>
+        <v>0.0417689</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0373456</v>
+        <v>0.0374205</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0448101</v>
+        <v>0.0430564</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0425725</v>
+        <v>0.0417677</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0379746</v>
+        <v>0.0370812</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0456872</v>
+        <v>0.0437292</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0428028</v>
+        <v>0.0420268</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0385451</v>
+        <v>0.0376969</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0467598</v>
+        <v>0.0450117</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0432524</v>
+        <v>0.0423446</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0397992</v>
+        <v>0.0395728</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0455667</v>
+        <v>0.0446577</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0476139</v>
+        <v>0.0469988</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0406214</v>
+        <v>0.0401376</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0459429</v>
+        <v>0.0449772</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0480478</v>
+        <v>0.0471516</v>
       </c>
       <c r="C11" t="n">
-        <v>0.041193</v>
+        <v>0.0404165</v>
       </c>
       <c r="D11" t="n">
-        <v>0.046252</v>
+        <v>0.045276</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0479731</v>
+        <v>0.0472287</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0413753</v>
+        <v>0.0407968</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0466167</v>
+        <v>0.045608</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0481456</v>
+        <v>0.047293</v>
       </c>
       <c r="C13" t="n">
-        <v>0.041434</v>
+        <v>0.0410695</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0467131</v>
+        <v>0.0459604</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0479667</v>
+        <v>0.0474741</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0419499</v>
+        <v>0.041359</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0470745</v>
+        <v>0.0463342</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0483885</v>
+        <v>0.0473904</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0422133</v>
+        <v>0.0416291</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0474958</v>
+        <v>0.046553</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.048298</v>
+        <v>0.0473737</v>
       </c>
       <c r="C16" t="n">
-        <v>0.042545</v>
+        <v>0.0420114</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0478373</v>
+        <v>0.0468367</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0485883</v>
+        <v>0.0479026</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0424684</v>
+        <v>0.0418628</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0481485</v>
+        <v>0.0473186</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0484234</v>
+        <v>0.0480566</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0429956</v>
+        <v>0.0413882</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0484856</v>
+        <v>0.0474628</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.04875</v>
+        <v>0.0477916</v>
       </c>
       <c r="C19" t="n">
-        <v>0.043288</v>
+        <v>0.0423515</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0488746</v>
+        <v>0.0480181</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0490258</v>
+        <v>0.0479869</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0432674</v>
+        <v>0.0429162</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0493349</v>
+        <v>0.0481616</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0491247</v>
+        <v>0.0482018</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0439475</v>
+        <v>0.043658</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0504847</v>
+        <v>0.0493307</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0491211</v>
+        <v>0.0483988</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0451146</v>
+        <v>0.045027</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0539621</v>
+        <v>0.0528412</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.049885</v>
+        <v>0.049058</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0509204</v>
+        <v>0.0505359</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0488568</v>
+        <v>0.047773</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.049858</v>
+        <v>0.0493079</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0436424</v>
+        <v>0.042731</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0492183</v>
+        <v>0.0477753</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0495581</v>
+        <v>0.0493883</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0437474</v>
+        <v>0.0429505</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0495731</v>
+        <v>0.0482237</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0496578</v>
+        <v>0.049478</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0442263</v>
+        <v>0.0433902</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0494138</v>
+        <v>0.0487529</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0496736</v>
+        <v>0.0495051</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0444058</v>
+        <v>0.0435649</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0494004</v>
+        <v>0.0490549</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.049789</v>
+        <v>0.0496014</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0446657</v>
+        <v>0.0436708</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0506324</v>
+        <v>0.0494338</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0499618</v>
+        <v>0.0497576</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0450045</v>
+        <v>0.0439562</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0510052</v>
+        <v>0.0497788</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0500571</v>
+        <v>0.0498617</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0451491</v>
+        <v>0.0442745</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0508075</v>
+        <v>0.0501175</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0502417</v>
+        <v>0.0500306</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0454678</v>
+        <v>0.0445376</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0516622</v>
+        <v>0.0504157</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0503785</v>
+        <v>0.0501492</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0457296</v>
+        <v>0.0445376</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0521157</v>
+        <v>0.0508778</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0505735</v>
+        <v>0.0503265</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0462909</v>
+        <v>0.0449578</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0527098</v>
+        <v>0.0510936</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0507163</v>
+        <v>0.0504499</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0469466</v>
+        <v>0.0463689</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0537821</v>
+        <v>0.0525706</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0509113</v>
+        <v>0.0507654</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0492191</v>
+        <v>0.0483211</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0566867</v>
+        <v>0.0560597</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0512744</v>
+        <v>0.0510074</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0542314</v>
+        <v>0.0531727</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0637321</v>
+        <v>0.0625029</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.052871</v>
+        <v>0.0524989</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0613353</v>
+        <v>0.0604022</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0521115</v>
+        <v>0.0512221</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0570349</v>
+        <v>0.0565289</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0476903</v>
+        <v>0.0474851</v>
       </c>
       <c r="D38" t="n">
-        <v>0.052296</v>
+        <v>0.0520165</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0567647</v>
+        <v>0.0553511</v>
       </c>
       <c r="C39" t="n">
-        <v>0.048054</v>
+        <v>0.0477439</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0530258</v>
+        <v>0.052353</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0568491</v>
+        <v>0.0554816</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0485564</v>
+        <v>0.0480947</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0532137</v>
+        <v>0.0527367</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0569193</v>
+        <v>0.05555</v>
       </c>
       <c r="C41" t="n">
-        <v>0.04867</v>
+        <v>0.0483779</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0534283</v>
+        <v>0.0531561</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0570297</v>
+        <v>0.0556543</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0492068</v>
+        <v>0.0486313</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0544205</v>
+        <v>0.0536394</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0571264</v>
+        <v>0.0557489</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0495821</v>
+        <v>0.0489494</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0539936</v>
+        <v>0.0537274</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0572503</v>
+        <v>0.0558981</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0500887</v>
+        <v>0.0495102</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0553429</v>
+        <v>0.0538653</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.057376</v>
+        <v>0.0560394</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0502412</v>
+        <v>0.0498667</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0546192</v>
+        <v>0.0551361</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0575258</v>
+        <v>0.0561686</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0508421</v>
+        <v>0.0504973</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0565081</v>
+        <v>0.0551731</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0577084</v>
+        <v>0.0563148</v>
       </c>
       <c r="C47" t="n">
-        <v>0.052124</v>
+        <v>0.0516445</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0566534</v>
+        <v>0.0569534</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0580036</v>
+        <v>0.0565609</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0545724</v>
+        <v>0.0542175</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0595555</v>
+        <v>0.0595067</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0583797</v>
+        <v>0.056933</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0573987</v>
+        <v>0.0570099</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0636366</v>
+        <v>0.06287619999999999</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0596416</v>
+        <v>0.0582773</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0609003</v>
+        <v>0.0604259</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0683879</v>
+        <v>0.06805460000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0637289</v>
+        <v>0.0622885</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0653922</v>
+        <v>0.0651074</v>
       </c>
       <c r="D51" t="n">
-        <v>0.055606</v>
+        <v>0.0568578</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.06891079999999999</v>
+        <v>0.06762219999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0728217</v>
+        <v>0.07204960000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0561129</v>
+        <v>0.0562626</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0611368</v>
+        <v>0.0613409</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0486458</v>
+        <v>0.0485988</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0564078</v>
+        <v>0.05632</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0607019</v>
+        <v>0.0608186</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0489496</v>
+        <v>0.049082</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0564896</v>
+        <v>0.0580868</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0608575</v>
+        <v>0.061094</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0495817</v>
+        <v>0.0491378</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0567364</v>
+        <v>0.0574131</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0608763</v>
+        <v>0.0609886</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0501799</v>
+        <v>0.0502536</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0571131</v>
+        <v>0.0585631</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0609913</v>
+        <v>0.0611321</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0508576</v>
+        <v>0.0509007</v>
       </c>
       <c r="D57" t="n">
-        <v>0.057769</v>
+        <v>0.059411</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0611215</v>
+        <v>0.0613063</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0516013</v>
+        <v>0.0516319</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0579978</v>
+        <v>0.0580777</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0613389</v>
+        <v>0.0614911</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0524719</v>
+        <v>0.0524247</v>
       </c>
       <c r="D59" t="n">
-        <v>0.058604</v>
+        <v>0.0603999</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0615001</v>
+        <v>0.0616795</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0535178</v>
+        <v>0.0537053</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0605705</v>
+        <v>0.0618347</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0618183</v>
+        <v>0.061953</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0545706</v>
+        <v>0.0550424</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0627042</v>
+        <v>0.0633652</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0621039</v>
+        <v>0.0622808</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0569659</v>
+        <v>0.0570147</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0640631</v>
+        <v>0.0661528</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0631748</v>
+        <v>0.0634291</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0589788</v>
+        <v>0.0591778</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0680196</v>
+        <v>0.0675829</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0652761</v>
+        <v>0.06573030000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0618093</v>
+        <v>0.0621287</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0715903</v>
+        <v>0.07172539999999999</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0680008</v>
+        <v>0.0681795</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0654715</v>
+        <v>0.06600689999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0784479</v>
+        <v>0.0780071</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0721547</v>
+        <v>0.072339</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0721521</v>
+        <v>0.0722125</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0596444</v>
+        <v>0.0608065</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.07601430000000001</v>
+        <v>0.0730455</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0576238</v>
+        <v>0.0579276</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0598641</v>
+        <v>0.0613802</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0765209</v>
+        <v>0.0734311</v>
       </c>
       <c r="C68" t="n">
-        <v>0.058258</v>
+        <v>0.0583869</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0603747</v>
+        <v>0.0617858</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.07748439999999999</v>
+        <v>0.0740514</v>
       </c>
       <c r="C69" t="n">
-        <v>0.058838</v>
+        <v>0.0590207</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0609263</v>
+        <v>0.0625931</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0782848</v>
+        <v>0.07373879999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.05955</v>
+        <v>0.0596144</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0615253</v>
+        <v>0.0631158</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0783075</v>
+        <v>0.07433090000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0601978</v>
+        <v>0.0603139</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0621201</v>
+        <v>0.06376560000000001</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07922700000000001</v>
+        <v>0.0744401</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0611796</v>
+        <v>0.0609948</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0628951</v>
+        <v>0.0644704</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0793831</v>
+        <v>0.0745403</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0620314</v>
+        <v>0.0618849</v>
       </c>
       <c r="D73" t="n">
-        <v>0.06364209999999999</v>
+        <v>0.0655473</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0800341</v>
+        <v>0.07471460000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.06326950000000001</v>
+        <v>0.06298579999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0653604</v>
+        <v>0.06694070000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0802322</v>
+        <v>0.07489560000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0644612</v>
+        <v>0.064194</v>
       </c>
       <c r="D75" t="n">
-        <v>0.067177</v>
+        <v>0.0687306</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.08076170000000001</v>
+        <v>0.0755053</v>
       </c>
       <c r="C76" t="n">
-        <v>0.065881</v>
+        <v>0.06566950000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0691779</v>
+        <v>0.070704</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.08175259999999999</v>
+        <v>0.07650129999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.06781619999999999</v>
+        <v>0.06774520000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.07195650000000001</v>
+        <v>0.07348200000000001</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0830697</v>
+        <v>0.0781326</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0704172</v>
+        <v>0.0705645</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0757872</v>
+        <v>0.0775469</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.08513229999999999</v>
+        <v>0.0802861</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0739619</v>
+        <v>0.0741656</v>
       </c>
       <c r="D79" t="n">
-        <v>0.08145139999999999</v>
+        <v>0.083189</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0889891</v>
+        <v>0.0839966</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0793565</v>
+        <v>0.07950840000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.107308</v>
+        <v>0.10824</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.174377</v>
+        <v>0.176213</v>
       </c>
       <c r="C81" t="n">
-        <v>0.140995</v>
+        <v>0.139719</v>
       </c>
       <c r="D81" t="n">
-        <v>0.109549</v>
+        <v>0.110306</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.17368</v>
+        <v>0.175873</v>
       </c>
       <c r="C82" t="n">
-        <v>0.139312</v>
+        <v>0.13917</v>
       </c>
       <c r="D82" t="n">
-        <v>0.110447</v>
+        <v>0.112258</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.174789</v>
+        <v>0.174847</v>
       </c>
       <c r="C83" t="n">
-        <v>0.13989</v>
+        <v>0.138055</v>
       </c>
       <c r="D83" t="n">
-        <v>0.114328</v>
+        <v>0.113472</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.174549</v>
+        <v>0.175851</v>
       </c>
       <c r="C84" t="n">
-        <v>0.14177</v>
+        <v>0.139259</v>
       </c>
       <c r="D84" t="n">
-        <v>0.114891</v>
+        <v>0.117037</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.177757</v>
+        <v>0.175217</v>
       </c>
       <c r="C85" t="n">
-        <v>0.140836</v>
+        <v>0.14012</v>
       </c>
       <c r="D85" t="n">
-        <v>0.118218</v>
+        <v>0.117989</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.177426</v>
+        <v>0.175677</v>
       </c>
       <c r="C86" t="n">
-        <v>0.142973</v>
+        <v>0.140505</v>
       </c>
       <c r="D86" t="n">
-        <v>0.123247</v>
+        <v>0.11977</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.177583</v>
+        <v>0.175823</v>
       </c>
       <c r="C87" t="n">
-        <v>0.142025</v>
+        <v>0.14189</v>
       </c>
       <c r="D87" t="n">
-        <v>0.12391</v>
+        <v>0.121537</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.177222</v>
+        <v>0.178055</v>
       </c>
       <c r="C88" t="n">
-        <v>0.144381</v>
+        <v>0.140745</v>
       </c>
       <c r="D88" t="n">
-        <v>0.127337</v>
+        <v>0.122586</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.179746</v>
+        <v>0.177749</v>
       </c>
       <c r="C89" t="n">
-        <v>0.143497</v>
+        <v>0.14406</v>
       </c>
       <c r="D89" t="n">
-        <v>0.126472</v>
+        <v>0.12633</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.177586</v>
+        <v>0.178529</v>
       </c>
       <c r="C90" t="n">
-        <v>0.145119</v>
+        <v>0.144137</v>
       </c>
       <c r="D90" t="n">
-        <v>0.12789</v>
+        <v>0.127562</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.179632</v>
+        <v>0.178893</v>
       </c>
       <c r="C91" t="n">
-        <v>0.144913</v>
+        <v>0.147227</v>
       </c>
       <c r="D91" t="n">
-        <v>0.130346</v>
+        <v>0.131824</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.17872</v>
+        <v>0.179321</v>
       </c>
       <c r="C92" t="n">
-        <v>0.148565</v>
+        <v>0.147119</v>
       </c>
       <c r="D92" t="n">
-        <v>0.136908</v>
+        <v>0.13332</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181882</v>
+        <v>0.181431</v>
       </c>
       <c r="C93" t="n">
-        <v>0.14942</v>
+        <v>0.151856</v>
       </c>
       <c r="D93" t="n">
-        <v>0.139748</v>
+        <v>0.14265</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.183017</v>
+        <v>0.184802</v>
       </c>
       <c r="C94" t="n">
-        <v>0.156177</v>
+        <v>0.155318</v>
       </c>
       <c r="D94" t="n">
-        <v>0.213535</v>
+        <v>0.202409</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.244319</v>
+        <v>0.243103</v>
       </c>
       <c r="C95" t="n">
-        <v>0.204919</v>
+        <v>0.204762</v>
       </c>
       <c r="D95" t="n">
-        <v>0.214587</v>
+        <v>0.214059</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.24411</v>
+        <v>0.243598</v>
       </c>
       <c r="C96" t="n">
-        <v>0.206614</v>
+        <v>0.205992</v>
       </c>
       <c r="D96" t="n">
-        <v>0.21601</v>
+        <v>0.216103</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.243953</v>
+        <v>0.243545</v>
       </c>
       <c r="C97" t="n">
-        <v>0.20695</v>
+        <v>0.206891</v>
       </c>
       <c r="D97" t="n">
-        <v>0.218091</v>
+        <v>0.217321</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.24463</v>
+        <v>0.243734</v>
       </c>
       <c r="C98" t="n">
-        <v>0.208681</v>
+        <v>0.208271</v>
       </c>
       <c r="D98" t="n">
-        <v>0.219894</v>
+        <v>0.219381</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.244135</v>
+        <v>0.241545</v>
       </c>
       <c r="C99" t="n">
-        <v>0.210131</v>
+        <v>0.209407</v>
       </c>
       <c r="D99" t="n">
-        <v>0.221664</v>
+        <v>0.221403</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.244675</v>
+        <v>0.241661</v>
       </c>
       <c r="C100" t="n">
-        <v>0.211569</v>
+        <v>0.211183</v>
       </c>
       <c r="D100" t="n">
-        <v>0.218291</v>
+        <v>0.223664</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.244471</v>
+        <v>0.243943</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2074</v>
+        <v>0.212659</v>
       </c>
       <c r="D101" t="n">
-        <v>0.226147</v>
+        <v>0.218505</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.244979</v>
+        <v>0.244375</v>
       </c>
       <c r="C102" t="n">
-        <v>0.214746</v>
+        <v>0.214406</v>
       </c>
       <c r="D102" t="n">
-        <v>0.229411</v>
+        <v>0.228471</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.245071</v>
+        <v>0.2446</v>
       </c>
       <c r="C103" t="n">
-        <v>0.217074</v>
+        <v>0.215944</v>
       </c>
       <c r="D103" t="n">
-        <v>0.230699</v>
+        <v>0.230153</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.245014</v>
+        <v>0.244645</v>
       </c>
       <c r="C104" t="n">
-        <v>0.218487</v>
+        <v>0.21767</v>
       </c>
       <c r="D104" t="n">
-        <v>0.232787</v>
+        <v>0.226709</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.247124</v>
+        <v>0.24558</v>
       </c>
       <c r="C105" t="n">
-        <v>0.215225</v>
+        <v>0.219677</v>
       </c>
       <c r="D105" t="n">
-        <v>0.23609</v>
+        <v>0.235417</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.246935</v>
+        <v>0.246498</v>
       </c>
       <c r="C106" t="n">
-        <v>0.222838</v>
+        <v>0.222823</v>
       </c>
       <c r="D106" t="n">
-        <v>0.239587</v>
+        <v>0.234548</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.248139</v>
+        <v>0.247876</v>
       </c>
       <c r="C107" t="n">
-        <v>0.226392</v>
+        <v>0.225541</v>
       </c>
       <c r="D107" t="n">
-        <v>0.244267</v>
+        <v>0.243536</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.251855</v>
+        <v>0.25084</v>
       </c>
       <c r="C108" t="n">
-        <v>0.231437</v>
+        <v>0.231039</v>
       </c>
       <c r="D108" t="n">
-        <v>0.261299</v>
+        <v>0.262888</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.255824</v>
+        <v>0.254814</v>
       </c>
       <c r="C109" t="n">
-        <v>0.233957</v>
+        <v>0.238136</v>
       </c>
       <c r="D109" t="n">
-        <v>0.265903</v>
+        <v>0.26553</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.27873</v>
+        <v>0.278581</v>
       </c>
       <c r="C110" t="n">
-        <v>0.229635</v>
+        <v>0.228599</v>
       </c>
       <c r="D110" t="n">
-        <v>0.267975</v>
+        <v>0.267008</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.277863</v>
+        <v>0.279746</v>
       </c>
       <c r="C111" t="n">
-        <v>0.230618</v>
+        <v>0.230116</v>
       </c>
       <c r="D111" t="n">
-        <v>0.26844</v>
+        <v>0.263563</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.279499</v>
+        <v>0.279775</v>
       </c>
       <c r="C112" t="n">
-        <v>0.232976</v>
+        <v>0.232065</v>
       </c>
       <c r="D112" t="n">
-        <v>0.265996</v>
+        <v>0.262774</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.279264</v>
+        <v>0.277685</v>
       </c>
       <c r="C113" t="n">
-        <v>0.234469</v>
+        <v>0.233319</v>
       </c>
       <c r="D113" t="n">
-        <v>0.266639</v>
+        <v>0.266002</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.280127</v>
+        <v>0.27931</v>
       </c>
       <c r="C114" t="n">
-        <v>0.236961</v>
+        <v>0.236398</v>
       </c>
       <c r="D114" t="n">
-        <v>0.266198</v>
+        <v>0.265598</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.280952</v>
+        <v>0.279422</v>
       </c>
       <c r="C115" t="n">
-        <v>0.239788</v>
+        <v>0.239028</v>
       </c>
       <c r="D115" t="n">
-        <v>0.271948</v>
+        <v>0.271579</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.279976</v>
+        <v>0.28041</v>
       </c>
       <c r="C116" t="n">
-        <v>0.24085</v>
+        <v>0.242406</v>
       </c>
       <c r="D116" t="n">
-        <v>0.274484</v>
+        <v>0.274518</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.288297</v>
+        <v>0.281585</v>
       </c>
       <c r="C117" t="n">
-        <v>0.24617</v>
+        <v>0.245779</v>
       </c>
       <c r="D117" t="n">
-        <v>0.278501</v>
+        <v>0.27799</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.274549</v>
+        <v>0.281387</v>
       </c>
       <c r="C118" t="n">
-        <v>0.248812</v>
+        <v>0.24853</v>
       </c>
       <c r="D118" t="n">
-        <v>0.28169</v>
+        <v>0.281497</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.281253</v>
+        <v>0.277315</v>
       </c>
       <c r="C119" t="n">
-        <v>0.250711</v>
+        <v>0.251345</v>
       </c>
       <c r="D119" t="n">
-        <v>0.284128</v>
+        <v>0.284104</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.286144</v>
+        <v>0.282465</v>
       </c>
       <c r="C120" t="n">
-        <v>0.255442</v>
+        <v>0.255099</v>
       </c>
       <c r="D120" t="n">
-        <v>0.286952</v>
+        <v>0.287297</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.283964</v>
+        <v>0.284422</v>
       </c>
       <c r="C121" t="n">
-        <v>0.258903</v>
+        <v>0.259744</v>
       </c>
       <c r="D121" t="n">
-        <v>0.294626</v>
+        <v>0.294135</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.28801</v>
+        <v>0.282097</v>
       </c>
       <c r="C122" t="n">
-        <v>0.265651</v>
+        <v>0.264951</v>
       </c>
       <c r="D122" t="n">
-        <v>0.298873</v>
+        <v>0.301683</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.284289</v>
+        <v>0.291352</v>
       </c>
       <c r="C123" t="n">
-        <v>0.273532</v>
+        <v>0.272334</v>
       </c>
       <c r="D123" t="n">
-        <v>0.285677</v>
+        <v>0.28632</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.352478</v>
+        <v>0.353333</v>
       </c>
       <c r="C124" t="n">
-        <v>0.249676</v>
+        <v>0.249939</v>
       </c>
       <c r="D124" t="n">
-        <v>0.287846</v>
+        <v>0.288021</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.352742</v>
+        <v>0.353504</v>
       </c>
       <c r="C125" t="n">
-        <v>0.251604</v>
+        <v>0.252041</v>
       </c>
       <c r="D125" t="n">
-        <v>0.290411</v>
+        <v>0.290821</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.353777</v>
+        <v>0.353679</v>
       </c>
       <c r="C126" t="n">
-        <v>0.2533</v>
+        <v>0.253425</v>
       </c>
       <c r="D126" t="n">
-        <v>0.292586</v>
+        <v>0.293533</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.352942</v>
+        <v>0.352796</v>
       </c>
       <c r="C127" t="n">
-        <v>0.256782</v>
+        <v>0.257331</v>
       </c>
       <c r="D127" t="n">
-        <v>0.29651</v>
+        <v>0.297137</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.352786</v>
+        <v>0.35323</v>
       </c>
       <c r="C128" t="n">
-        <v>0.259906</v>
+        <v>0.259782</v>
       </c>
       <c r="D128" t="n">
-        <v>0.299399</v>
+        <v>0.299209</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.353593</v>
+        <v>0.352748</v>
       </c>
       <c r="C129" t="n">
-        <v>0.263399</v>
+        <v>0.263312</v>
       </c>
       <c r="D129" t="n">
-        <v>0.302877</v>
+        <v>0.303044</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.352725</v>
+        <v>0.354219</v>
       </c>
       <c r="C130" t="n">
-        <v>0.266777</v>
+        <v>0.267041</v>
       </c>
       <c r="D130" t="n">
-        <v>0.305924</v>
+        <v>0.306589</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.354035</v>
+        <v>0.354206</v>
       </c>
       <c r="C131" t="n">
-        <v>0.270072</v>
+        <v>0.270648</v>
       </c>
       <c r="D131" t="n">
-        <v>0.309528</v>
+        <v>0.310246</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.354364</v>
+        <v>0.354606</v>
       </c>
       <c r="C132" t="n">
-        <v>0.274671</v>
+        <v>0.274095</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3145</v>
+        <v>0.31379</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.354124</v>
+        <v>0.355975</v>
       </c>
       <c r="C133" t="n">
-        <v>0.278144</v>
+        <v>0.278399</v>
       </c>
       <c r="D133" t="n">
-        <v>0.318573</v>
+        <v>0.31933</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.35592</v>
+        <v>0.355154</v>
       </c>
       <c r="C134" t="n">
-        <v>0.282293</v>
+        <v>0.2824</v>
       </c>
       <c r="D134" t="n">
-        <v>0.324672</v>
+        <v>0.323901</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.357178</v>
+        <v>0.35736</v>
       </c>
       <c r="C135" t="n">
-        <v>0.287716</v>
+        <v>0.287944</v>
       </c>
       <c r="D135" t="n">
-        <v>0.331873</v>
+        <v>0.331752</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.359056</v>
+        <v>0.35985</v>
       </c>
       <c r="C136" t="n">
-        <v>0.294149</v>
+        <v>0.294393</v>
       </c>
       <c r="D136" t="n">
-        <v>0.340863</v>
+        <v>0.340774</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.360797</v>
+        <v>0.361064</v>
       </c>
       <c r="C137" t="n">
-        <v>0.303698</v>
+        <v>0.303684</v>
       </c>
       <c r="D137" t="n">
-        <v>0.307868</v>
+        <v>0.307663</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.416607</v>
+        <v>0.411733</v>
       </c>
       <c r="C138" t="n">
-        <v>0.269934</v>
+        <v>0.269017</v>
       </c>
       <c r="D138" t="n">
-        <v>0.310832</v>
+        <v>0.309948</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.412216</v>
+        <v>0.411047</v>
       </c>
       <c r="C139" t="n">
-        <v>0.271809</v>
+        <v>0.271097</v>
       </c>
       <c r="D139" t="n">
-        <v>0.313103</v>
+        <v>0.31217</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.412569</v>
+        <v>0.41616</v>
       </c>
       <c r="C140" t="n">
-        <v>0.275174</v>
+        <v>0.273444</v>
       </c>
       <c r="D140" t="n">
-        <v>0.315549</v>
+        <v>0.31424</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.416654</v>
+        <v>0.416306</v>
       </c>
       <c r="C141" t="n">
-        <v>0.277332</v>
+        <v>0.276022</v>
       </c>
       <c r="D141" t="n">
-        <v>0.317271</v>
+        <v>0.316611</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.41766</v>
+        <v>0.415633</v>
       </c>
       <c r="C142" t="n">
-        <v>0.280519</v>
+        <v>0.279017</v>
       </c>
       <c r="D142" t="n">
-        <v>0.319395</v>
+        <v>0.318363</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.417827</v>
+        <v>0.416431</v>
       </c>
       <c r="C143" t="n">
-        <v>0.282932</v>
+        <v>0.282215</v>
       </c>
       <c r="D143" t="n">
-        <v>0.322208</v>
+        <v>0.321719</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0409772</v>
+        <v>0.0408466</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0361006</v>
+        <v>0.0357341</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0418361</v>
+        <v>0.0416524</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0411978</v>
+        <v>0.0411587</v>
       </c>
       <c r="C3" t="n">
-        <v>0.036275</v>
+        <v>0.0359584</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0422023</v>
+        <v>0.041972</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0413518</v>
+        <v>0.041301</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0363013</v>
+        <v>0.035777</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0424347</v>
+        <v>0.0421622</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0415175</v>
+        <v>0.0414197</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0365434</v>
+        <v>0.0359439</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0427966</v>
+        <v>0.0423768</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0417689</v>
+        <v>0.0415737</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0374205</v>
+        <v>0.0361278</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0430564</v>
+        <v>0.0428687</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0417677</v>
+        <v>0.0416218</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0370812</v>
+        <v>0.0366232</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0437292</v>
+        <v>0.0437175</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0420268</v>
+        <v>0.0418942</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0376969</v>
+        <v>0.0380336</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0450117</v>
+        <v>0.0445505</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0423446</v>
+        <v>0.0421889</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0395728</v>
+        <v>0.0387247</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0446577</v>
+        <v>0.0450829</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0469988</v>
+        <v>0.045358</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0401376</v>
+        <v>0.0395428</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0449772</v>
+        <v>0.045464</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0471516</v>
+        <v>0.0454804</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0404165</v>
+        <v>0.0398495</v>
       </c>
       <c r="D11" t="n">
-        <v>0.045276</v>
+        <v>0.0457839</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0472287</v>
+        <v>0.0455331</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0407968</v>
+        <v>0.0407661</v>
       </c>
       <c r="D12" t="n">
-        <v>0.045608</v>
+        <v>0.0462563</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.047293</v>
+        <v>0.0456522</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0410695</v>
+        <v>0.0410412</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0459604</v>
+        <v>0.0464</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0474741</v>
+        <v>0.0456835</v>
       </c>
       <c r="C14" t="n">
-        <v>0.041359</v>
+        <v>0.0413105</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0463342</v>
+        <v>0.046718</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0473904</v>
+        <v>0.0457277</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0416291</v>
+        <v>0.0416917</v>
       </c>
       <c r="D15" t="n">
-        <v>0.046553</v>
+        <v>0.0473959</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0473737</v>
+        <v>0.046047</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0420114</v>
+        <v>0.0418775</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0468367</v>
+        <v>0.0474219</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0479026</v>
+        <v>0.0460791</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0418628</v>
+        <v>0.0420497</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0473186</v>
+        <v>0.047717</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0480566</v>
+        <v>0.0461708</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0413882</v>
+        <v>0.0412999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0474628</v>
+        <v>0.048028</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0477916</v>
+        <v>0.0463382</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0423515</v>
+        <v>0.0428087</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0480181</v>
+        <v>0.0482769</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0479869</v>
+        <v>0.0465519</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0429162</v>
+        <v>0.0427077</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0481616</v>
+        <v>0.0488033</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0482018</v>
+        <v>0.0467439</v>
       </c>
       <c r="C21" t="n">
-        <v>0.043658</v>
+        <v>0.0437868</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0493307</v>
+        <v>0.04951</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0483988</v>
+        <v>0.047004</v>
       </c>
       <c r="C22" t="n">
-        <v>0.045027</v>
+        <v>0.0447588</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0528412</v>
+        <v>0.0530598</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.049058</v>
+        <v>0.0473915</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0505359</v>
+        <v>0.0488944</v>
       </c>
       <c r="D23" t="n">
-        <v>0.047773</v>
+        <v>0.0477893</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0493079</v>
+        <v>0.0490749</v>
       </c>
       <c r="C24" t="n">
-        <v>0.042731</v>
+        <v>0.0433051</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0477753</v>
+        <v>0.0480016</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0493883</v>
+        <v>0.0488935</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0429505</v>
+        <v>0.0435461</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0482237</v>
+        <v>0.0487422</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.049478</v>
+        <v>0.0489997</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0433902</v>
+        <v>0.043826</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0487529</v>
+        <v>0.0488219</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0495051</v>
+        <v>0.0493194</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0435649</v>
+        <v>0.044029</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0490549</v>
+        <v>0.0493777</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0496014</v>
+        <v>0.0490978</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0436708</v>
+        <v>0.0441909</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0494338</v>
+        <v>0.0493236</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0497576</v>
+        <v>0.0492726</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0439562</v>
+        <v>0.0445403</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0497788</v>
+        <v>0.0501456</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0498617</v>
+        <v>0.0493881</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0442745</v>
+        <v>0.0448505</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0501175</v>
+        <v>0.050382</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0500306</v>
+        <v>0.0498284</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0445376</v>
+        <v>0.0449987</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0504157</v>
+        <v>0.0507938</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0501492</v>
+        <v>0.0499105</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0445376</v>
+        <v>0.0452577</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0508778</v>
+        <v>0.050866</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0503265</v>
+        <v>0.0498836</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0449578</v>
+        <v>0.0456549</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0510936</v>
+        <v>0.0515212</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0504499</v>
+        <v>0.049972</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0463689</v>
+        <v>0.0464838</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0525706</v>
+        <v>0.0527338</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0507654</v>
+        <v>0.0505329</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0483211</v>
+        <v>0.0483779</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0560597</v>
+        <v>0.05626</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0510074</v>
+        <v>0.0505806</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0531727</v>
+        <v>0.0535745</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0625029</v>
+        <v>0.0628483</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0524989</v>
+        <v>0.0522963</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0604022</v>
+        <v>0.0609401</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0512221</v>
+        <v>0.0526587</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0565289</v>
+        <v>0.0568066</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0474851</v>
+        <v>0.048092</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0520165</v>
+        <v>0.0527477</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0553511</v>
+        <v>0.0556926</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0477439</v>
+        <v>0.0483674</v>
       </c>
       <c r="D39" t="n">
-        <v>0.052353</v>
+        <v>0.0533867</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0554816</v>
+        <v>0.0558039</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0480947</v>
+        <v>0.0486876</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0527367</v>
+        <v>0.0539661</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.05555</v>
+        <v>0.0558816</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0483779</v>
+        <v>0.0489587</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0531561</v>
+        <v>0.0542955</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0556543</v>
+        <v>0.0560083</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0486313</v>
+        <v>0.0494037</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0536394</v>
+        <v>0.0542456</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0557489</v>
+        <v>0.0560556</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0489494</v>
+        <v>0.0497354</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0537274</v>
+        <v>0.0551853</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0558981</v>
+        <v>0.0561982</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0495102</v>
+        <v>0.0501653</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0538653</v>
+        <v>0.0558299</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0560394</v>
+        <v>0.0563441</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0498667</v>
+        <v>0.0505797</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0551361</v>
+        <v>0.0563543</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0561686</v>
+        <v>0.0564641</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0504973</v>
+        <v>0.0513068</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0551731</v>
+        <v>0.0567774</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0563148</v>
+        <v>0.0566422</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0516445</v>
+        <v>0.0528153</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0569534</v>
+        <v>0.0576088</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0565609</v>
+        <v>0.0568874</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0542175</v>
+        <v>0.0548319</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0595067</v>
+        <v>0.0605997</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.056933</v>
+        <v>0.0572386</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0570099</v>
+        <v>0.0578675</v>
       </c>
       <c r="D49" t="n">
-        <v>0.06287619999999999</v>
+        <v>0.06497310000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0582773</v>
+        <v>0.0585697</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0604259</v>
+        <v>0.0612127</v>
       </c>
       <c r="D50" t="n">
-        <v>0.06805460000000001</v>
+        <v>0.0695371</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0622885</v>
+        <v>0.0626843</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0651074</v>
+        <v>0.0658656</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0568578</v>
+        <v>0.0570013</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.06762219999999999</v>
+        <v>0.0679478</v>
       </c>
       <c r="C52" t="n">
-        <v>0.07204960000000001</v>
+        <v>0.0728868</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0562626</v>
+        <v>0.0561984</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0613409</v>
+        <v>0.0617401</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0485988</v>
+        <v>0.0487967</v>
       </c>
       <c r="D53" t="n">
-        <v>0.05632</v>
+        <v>0.0569245</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0608186</v>
+        <v>0.0615556</v>
       </c>
       <c r="C54" t="n">
-        <v>0.049082</v>
+        <v>0.0492551</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0580868</v>
+        <v>0.0572195</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.061094</v>
+        <v>0.0616078</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0491378</v>
+        <v>0.049859</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0574131</v>
+        <v>0.0570254</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0609886</v>
+        <v>0.061703</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0502536</v>
+        <v>0.0504153</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0585631</v>
+        <v>0.0572266</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0611321</v>
+        <v>0.061824</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0509007</v>
+        <v>0.0510471</v>
       </c>
       <c r="D57" t="n">
-        <v>0.059411</v>
+        <v>0.0593085</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0613063</v>
+        <v>0.0620061</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0516319</v>
+        <v>0.0517868</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0580777</v>
+        <v>0.0596595</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0614911</v>
+        <v>0.0622076</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0524247</v>
+        <v>0.0526926</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0603999</v>
+        <v>0.0607805</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0616795</v>
+        <v>0.0623478</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0537053</v>
+        <v>0.0538968</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0618347</v>
+        <v>0.0604902</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.061953</v>
+        <v>0.0626029</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0550424</v>
+        <v>0.0552189</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0633652</v>
+        <v>0.0640169</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0622808</v>
+        <v>0.06303599999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0570147</v>
+        <v>0.05664</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0661528</v>
+        <v>0.0652662</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0634291</v>
+        <v>0.06408510000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0591778</v>
+        <v>0.0591511</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0675829</v>
+        <v>0.0685355</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.06573030000000001</v>
+        <v>0.06601509999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0621287</v>
+        <v>0.0623437</v>
       </c>
       <c r="D64" t="n">
-        <v>0.07172539999999999</v>
+        <v>0.07213700000000001</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0681795</v>
+        <v>0.0689124</v>
       </c>
       <c r="C65" t="n">
-        <v>0.06600689999999999</v>
+        <v>0.06599670000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0780071</v>
+        <v>0.0789159</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.072339</v>
+        <v>0.0731311</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0722125</v>
+        <v>0.0720927</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0608065</v>
+        <v>0.0614806</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0730455</v>
+        <v>0.07221619999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0579276</v>
+        <v>0.0548085</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0613802</v>
+        <v>0.061971</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0734311</v>
+        <v>0.0728111</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0583869</v>
+        <v>0.0552265</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0617858</v>
+        <v>0.0623985</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0740514</v>
+        <v>0.07305449999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0590207</v>
+        <v>0.055821</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0625931</v>
+        <v>0.0628384</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.07373879999999999</v>
+        <v>0.073644</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0596144</v>
+        <v>0.0566472</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0631158</v>
+        <v>0.0634781</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.07433090000000001</v>
+        <v>0.07406210000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0603139</v>
+        <v>0.0575265</v>
       </c>
       <c r="D71" t="n">
-        <v>0.06376560000000001</v>
+        <v>0.06409380000000001</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0744401</v>
+        <v>0.0742327</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0609948</v>
+        <v>0.0582434</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0644704</v>
+        <v>0.0649676</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0745403</v>
+        <v>0.074448</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0618849</v>
+        <v>0.0590285</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0655473</v>
+        <v>0.06581099999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.07471460000000001</v>
+        <v>0.07481110000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.06298579999999999</v>
+        <v>0.0603041</v>
       </c>
       <c r="D74" t="n">
-        <v>0.06694070000000001</v>
+        <v>0.0673434</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.07489560000000001</v>
+        <v>0.0751072</v>
       </c>
       <c r="C75" t="n">
-        <v>0.064194</v>
+        <v>0.0615914</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0687306</v>
+        <v>0.0668247</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0755053</v>
+        <v>0.0765673</v>
       </c>
       <c r="C76" t="n">
-        <v>0.06566950000000001</v>
+        <v>0.0632742</v>
       </c>
       <c r="D76" t="n">
-        <v>0.070704</v>
+        <v>0.06881470000000001</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07650129999999999</v>
+        <v>0.0774512</v>
       </c>
       <c r="C77" t="n">
-        <v>0.06774520000000001</v>
+        <v>0.0651506</v>
       </c>
       <c r="D77" t="n">
-        <v>0.07348200000000001</v>
+        <v>0.0718176</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0781326</v>
+        <v>0.07874970000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0705645</v>
+        <v>0.0676933</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0775469</v>
+        <v>0.0755292</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0802861</v>
+        <v>0.0812293</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0741656</v>
+        <v>0.0714949</v>
       </c>
       <c r="D79" t="n">
-        <v>0.083189</v>
+        <v>0.08137510000000001</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0839966</v>
+        <v>0.08499279999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.07950840000000001</v>
+        <v>0.07701479999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.10824</v>
+        <v>0.101155</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.176213</v>
+        <v>0.174445</v>
       </c>
       <c r="C81" t="n">
-        <v>0.139719</v>
+        <v>0.138472</v>
       </c>
       <c r="D81" t="n">
-        <v>0.110306</v>
+        <v>0.103457</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.175873</v>
+        <v>0.174729</v>
       </c>
       <c r="C82" t="n">
-        <v>0.13917</v>
+        <v>0.139713</v>
       </c>
       <c r="D82" t="n">
-        <v>0.112258</v>
+        <v>0.109512</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.174847</v>
+        <v>0.174499</v>
       </c>
       <c r="C83" t="n">
-        <v>0.138055</v>
+        <v>0.139773</v>
       </c>
       <c r="D83" t="n">
-        <v>0.113472</v>
+        <v>0.111973</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.175851</v>
+        <v>0.175998</v>
       </c>
       <c r="C84" t="n">
-        <v>0.139259</v>
+        <v>0.141117</v>
       </c>
       <c r="D84" t="n">
-        <v>0.117037</v>
+        <v>0.114074</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.175217</v>
+        <v>0.176295</v>
       </c>
       <c r="C85" t="n">
-        <v>0.14012</v>
+        <v>0.139777</v>
       </c>
       <c r="D85" t="n">
-        <v>0.117989</v>
+        <v>0.11284</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.175677</v>
+        <v>0.175954</v>
       </c>
       <c r="C86" t="n">
-        <v>0.140505</v>
+        <v>0.140523</v>
       </c>
       <c r="D86" t="n">
-        <v>0.11977</v>
+        <v>0.117702</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.175823</v>
+        <v>0.177566</v>
       </c>
       <c r="C87" t="n">
-        <v>0.14189</v>
+        <v>0.140775</v>
       </c>
       <c r="D87" t="n">
-        <v>0.121537</v>
+        <v>0.118171</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.178055</v>
+        <v>0.178692</v>
       </c>
       <c r="C88" t="n">
-        <v>0.140745</v>
+        <v>0.143819</v>
       </c>
       <c r="D88" t="n">
-        <v>0.122586</v>
+        <v>0.124663</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.177749</v>
+        <v>0.17834</v>
       </c>
       <c r="C89" t="n">
-        <v>0.14406</v>
+        <v>0.143208</v>
       </c>
       <c r="D89" t="n">
-        <v>0.12633</v>
+        <v>0.123027</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.178529</v>
+        <v>0.178763</v>
       </c>
       <c r="C90" t="n">
-        <v>0.144137</v>
+        <v>0.145145</v>
       </c>
       <c r="D90" t="n">
-        <v>0.127562</v>
+        <v>0.128318</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.178893</v>
+        <v>0.17943</v>
       </c>
       <c r="C91" t="n">
-        <v>0.147227</v>
+        <v>0.146279</v>
       </c>
       <c r="D91" t="n">
-        <v>0.131824</v>
+        <v>0.131108</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.179321</v>
+        <v>0.179763</v>
       </c>
       <c r="C92" t="n">
-        <v>0.147119</v>
+        <v>0.147634</v>
       </c>
       <c r="D92" t="n">
-        <v>0.13332</v>
+        <v>0.134398</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181431</v>
+        <v>0.181945</v>
       </c>
       <c r="C93" t="n">
-        <v>0.151856</v>
+        <v>0.149967</v>
       </c>
       <c r="D93" t="n">
-        <v>0.14265</v>
+        <v>0.137741</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.184802</v>
+        <v>0.183843</v>
       </c>
       <c r="C94" t="n">
-        <v>0.155318</v>
+        <v>0.15476</v>
       </c>
       <c r="D94" t="n">
-        <v>0.202409</v>
+        <v>0.213041</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.243103</v>
+        <v>0.242815</v>
       </c>
       <c r="C95" t="n">
-        <v>0.204762</v>
+        <v>0.20363</v>
       </c>
       <c r="D95" t="n">
-        <v>0.214059</v>
+        <v>0.213225</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.243598</v>
+        <v>0.242446</v>
       </c>
       <c r="C96" t="n">
-        <v>0.205992</v>
+        <v>0.204355</v>
       </c>
       <c r="D96" t="n">
-        <v>0.216103</v>
+        <v>0.214503</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.243545</v>
+        <v>0.242307</v>
       </c>
       <c r="C97" t="n">
-        <v>0.206891</v>
+        <v>0.203777</v>
       </c>
       <c r="D97" t="n">
-        <v>0.217321</v>
+        <v>0.216686</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.243734</v>
+        <v>0.242685</v>
       </c>
       <c r="C98" t="n">
-        <v>0.208271</v>
+        <v>0.206975</v>
       </c>
       <c r="D98" t="n">
-        <v>0.219381</v>
+        <v>0.218636</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.241545</v>
+        <v>0.242414</v>
       </c>
       <c r="C99" t="n">
-        <v>0.209407</v>
+        <v>0.208255</v>
       </c>
       <c r="D99" t="n">
-        <v>0.221403</v>
+        <v>0.220685</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.241661</v>
+        <v>0.242619</v>
       </c>
       <c r="C100" t="n">
-        <v>0.211183</v>
+        <v>0.209222</v>
       </c>
       <c r="D100" t="n">
-        <v>0.223664</v>
+        <v>0.221969</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.243943</v>
+        <v>0.243181</v>
       </c>
       <c r="C101" t="n">
-        <v>0.212659</v>
+        <v>0.211054</v>
       </c>
       <c r="D101" t="n">
-        <v>0.218505</v>
+        <v>0.224773</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.244375</v>
+        <v>0.242874</v>
       </c>
       <c r="C102" t="n">
-        <v>0.214406</v>
+        <v>0.212597</v>
       </c>
       <c r="D102" t="n">
-        <v>0.228471</v>
+        <v>0.226651</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.2446</v>
+        <v>0.243494</v>
       </c>
       <c r="C103" t="n">
-        <v>0.215944</v>
+        <v>0.214121</v>
       </c>
       <c r="D103" t="n">
-        <v>0.230153</v>
+        <v>0.229244</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.244645</v>
+        <v>0.243583</v>
       </c>
       <c r="C104" t="n">
-        <v>0.21767</v>
+        <v>0.216071</v>
       </c>
       <c r="D104" t="n">
-        <v>0.226709</v>
+        <v>0.231122</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.24558</v>
+        <v>0.244049</v>
       </c>
       <c r="C105" t="n">
-        <v>0.219677</v>
+        <v>0.218414</v>
       </c>
       <c r="D105" t="n">
-        <v>0.235417</v>
+        <v>0.234472</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.246498</v>
+        <v>0.245373</v>
       </c>
       <c r="C106" t="n">
-        <v>0.222823</v>
+        <v>0.2211</v>
       </c>
       <c r="D106" t="n">
-        <v>0.234548</v>
+        <v>0.238032</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247876</v>
+        <v>0.247383</v>
       </c>
       <c r="C107" t="n">
-        <v>0.225541</v>
+        <v>0.224743</v>
       </c>
       <c r="D107" t="n">
-        <v>0.243536</v>
+        <v>0.243088</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.25084</v>
+        <v>0.249698</v>
       </c>
       <c r="C108" t="n">
-        <v>0.231039</v>
+        <v>0.228466</v>
       </c>
       <c r="D108" t="n">
-        <v>0.262888</v>
+        <v>0.262684</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.254814</v>
+        <v>0.254854</v>
       </c>
       <c r="C109" t="n">
-        <v>0.238136</v>
+        <v>0.235476</v>
       </c>
       <c r="D109" t="n">
-        <v>0.26553</v>
+        <v>0.264042</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.278581</v>
+        <v>0.276849</v>
       </c>
       <c r="C110" t="n">
-        <v>0.228599</v>
+        <v>0.228352</v>
       </c>
       <c r="D110" t="n">
-        <v>0.267008</v>
+        <v>0.264543</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.279746</v>
+        <v>0.272599</v>
       </c>
       <c r="C111" t="n">
-        <v>0.230116</v>
+        <v>0.230578</v>
       </c>
       <c r="D111" t="n">
-        <v>0.263563</v>
+        <v>0.269361</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.279775</v>
+        <v>0.275808</v>
       </c>
       <c r="C112" t="n">
-        <v>0.232065</v>
+        <v>0.232321</v>
       </c>
       <c r="D112" t="n">
-        <v>0.262774</v>
+        <v>0.265253</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.277685</v>
+        <v>0.277807</v>
       </c>
       <c r="C113" t="n">
-        <v>0.233319</v>
+        <v>0.23071</v>
       </c>
       <c r="D113" t="n">
-        <v>0.266002</v>
+        <v>0.265107</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.27931</v>
+        <v>0.279107</v>
       </c>
       <c r="C114" t="n">
-        <v>0.236398</v>
+        <v>0.235387</v>
       </c>
       <c r="D114" t="n">
-        <v>0.265598</v>
+        <v>0.267728</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.279422</v>
+        <v>0.272369</v>
       </c>
       <c r="C115" t="n">
-        <v>0.239028</v>
+        <v>0.238755</v>
       </c>
       <c r="D115" t="n">
-        <v>0.271579</v>
+        <v>0.271326</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.28041</v>
+        <v>0.273485</v>
       </c>
       <c r="C116" t="n">
-        <v>0.242406</v>
+        <v>0.241723</v>
       </c>
       <c r="D116" t="n">
-        <v>0.274518</v>
+        <v>0.273973</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.281585</v>
+        <v>0.27336</v>
       </c>
       <c r="C117" t="n">
-        <v>0.245779</v>
+        <v>0.245104</v>
       </c>
       <c r="D117" t="n">
-        <v>0.27799</v>
+        <v>0.277471</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.281387</v>
+        <v>0.282276</v>
       </c>
       <c r="C118" t="n">
-        <v>0.24853</v>
+        <v>0.247025</v>
       </c>
       <c r="D118" t="n">
-        <v>0.281497</v>
+        <v>0.27754</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.277315</v>
+        <v>0.281567</v>
       </c>
       <c r="C119" t="n">
-        <v>0.251345</v>
+        <v>0.250886</v>
       </c>
       <c r="D119" t="n">
-        <v>0.284104</v>
+        <v>0.282295</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.282465</v>
+        <v>0.281384</v>
       </c>
       <c r="C120" t="n">
-        <v>0.255099</v>
+        <v>0.253645</v>
       </c>
       <c r="D120" t="n">
-        <v>0.287297</v>
+        <v>0.285457</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.284422</v>
+        <v>0.283135</v>
       </c>
       <c r="C121" t="n">
-        <v>0.259744</v>
+        <v>0.257961</v>
       </c>
       <c r="D121" t="n">
-        <v>0.294135</v>
+        <v>0.293365</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.282097</v>
+        <v>0.284965</v>
       </c>
       <c r="C122" t="n">
-        <v>0.264951</v>
+        <v>0.263706</v>
       </c>
       <c r="D122" t="n">
-        <v>0.301683</v>
+        <v>0.296822</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.291352</v>
+        <v>0.289031</v>
       </c>
       <c r="C123" t="n">
-        <v>0.272334</v>
+        <v>0.272221</v>
       </c>
       <c r="D123" t="n">
-        <v>0.28632</v>
+        <v>0.285096</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.353333</v>
+        <v>0.354292</v>
       </c>
       <c r="C124" t="n">
-        <v>0.249939</v>
+        <v>0.250045</v>
       </c>
       <c r="D124" t="n">
-        <v>0.288021</v>
+        <v>0.288715</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.353504</v>
+        <v>0.353405</v>
       </c>
       <c r="C125" t="n">
-        <v>0.252041</v>
+        <v>0.250979</v>
       </c>
       <c r="D125" t="n">
-        <v>0.290821</v>
+        <v>0.290271</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.353679</v>
+        <v>0.355193</v>
       </c>
       <c r="C126" t="n">
-        <v>0.253425</v>
+        <v>0.253652</v>
       </c>
       <c r="D126" t="n">
-        <v>0.293533</v>
+        <v>0.294139</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.352796</v>
+        <v>0.354145</v>
       </c>
       <c r="C127" t="n">
-        <v>0.257331</v>
+        <v>0.255651</v>
       </c>
       <c r="D127" t="n">
-        <v>0.297137</v>
+        <v>0.295357</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.35323</v>
+        <v>0.353458</v>
       </c>
       <c r="C128" t="n">
-        <v>0.259782</v>
+        <v>0.259704</v>
       </c>
       <c r="D128" t="n">
-        <v>0.299209</v>
+        <v>0.299207</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.352748</v>
+        <v>0.35372</v>
       </c>
       <c r="C129" t="n">
-        <v>0.263312</v>
+        <v>0.262549</v>
       </c>
       <c r="D129" t="n">
-        <v>0.303044</v>
+        <v>0.302119</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.354219</v>
+        <v>0.355282</v>
       </c>
       <c r="C130" t="n">
-        <v>0.267041</v>
+        <v>0.266613</v>
       </c>
       <c r="D130" t="n">
-        <v>0.306589</v>
+        <v>0.306563</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.354206</v>
+        <v>0.352486</v>
       </c>
       <c r="C131" t="n">
-        <v>0.270648</v>
+        <v>0.269661</v>
       </c>
       <c r="D131" t="n">
-        <v>0.310246</v>
+        <v>0.309422</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.354606</v>
+        <v>0.352419</v>
       </c>
       <c r="C132" t="n">
-        <v>0.274095</v>
+        <v>0.274254</v>
       </c>
       <c r="D132" t="n">
-        <v>0.31379</v>
+        <v>0.314695</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.355975</v>
+        <v>0.354364</v>
       </c>
       <c r="C133" t="n">
-        <v>0.278399</v>
+        <v>0.277238</v>
       </c>
       <c r="D133" t="n">
-        <v>0.31933</v>
+        <v>0.318439</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.355154</v>
+        <v>0.35626</v>
       </c>
       <c r="C134" t="n">
-        <v>0.2824</v>
+        <v>0.282316</v>
       </c>
       <c r="D134" t="n">
-        <v>0.323901</v>
+        <v>0.324655</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.35736</v>
+        <v>0.356358</v>
       </c>
       <c r="C135" t="n">
-        <v>0.287944</v>
+        <v>0.286382</v>
       </c>
       <c r="D135" t="n">
-        <v>0.331752</v>
+        <v>0.330936</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.35985</v>
+        <v>0.358917</v>
       </c>
       <c r="C136" t="n">
-        <v>0.294393</v>
+        <v>0.294188</v>
       </c>
       <c r="D136" t="n">
-        <v>0.340774</v>
+        <v>0.341697</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.361064</v>
+        <v>0.36032</v>
       </c>
       <c r="C137" t="n">
-        <v>0.303684</v>
+        <v>0.302143</v>
       </c>
       <c r="D137" t="n">
-        <v>0.307663</v>
+        <v>0.306462</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.411733</v>
+        <v>0.410747</v>
       </c>
       <c r="C138" t="n">
-        <v>0.269017</v>
+        <v>0.267795</v>
       </c>
       <c r="D138" t="n">
-        <v>0.309948</v>
+        <v>0.308602</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.411047</v>
+        <v>0.410228</v>
       </c>
       <c r="C139" t="n">
-        <v>0.271097</v>
+        <v>0.26997</v>
       </c>
       <c r="D139" t="n">
-        <v>0.31217</v>
+        <v>0.310982</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.41616</v>
+        <v>0.410122</v>
       </c>
       <c r="C140" t="n">
-        <v>0.273444</v>
+        <v>0.272681</v>
       </c>
       <c r="D140" t="n">
-        <v>0.31424</v>
+        <v>0.312627</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.416306</v>
+        <v>0.415175</v>
       </c>
       <c r="C141" t="n">
-        <v>0.276022</v>
+        <v>0.275071</v>
       </c>
       <c r="D141" t="n">
-        <v>0.316611</v>
+        <v>0.315006</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.415633</v>
+        <v>0.410084</v>
       </c>
       <c r="C142" t="n">
-        <v>0.279017</v>
+        <v>0.278281</v>
       </c>
       <c r="D142" t="n">
-        <v>0.318363</v>
+        <v>0.318121</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.416431</v>
+        <v>0.415313</v>
       </c>
       <c r="C143" t="n">
-        <v>0.282215</v>
+        <v>0.280988</v>
       </c>
       <c r="D143" t="n">
-        <v>0.321719</v>
+        <v>0.320257</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0408466</v>
+        <v>0.0409056</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0357341</v>
+        <v>0.0361037</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0416524</v>
+        <v>0.0428421</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0411587</v>
+        <v>0.0412543</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0359584</v>
+        <v>0.0363817</v>
       </c>
       <c r="D3" t="n">
-        <v>0.041972</v>
+        <v>0.0430754</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.041301</v>
+        <v>0.0415226</v>
       </c>
       <c r="C4" t="n">
-        <v>0.035777</v>
+        <v>0.0365773</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0421622</v>
+        <v>0.0433299</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0414197</v>
+        <v>0.0414623</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0359439</v>
+        <v>0.0374107</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0423768</v>
+        <v>0.0435477</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0415737</v>
+        <v>0.0418279</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0361278</v>
+        <v>0.036845</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0428687</v>
+        <v>0.0439629</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0416218</v>
+        <v>0.0416407</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0366232</v>
+        <v>0.0379952</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0437175</v>
+        <v>0.0447006</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0418942</v>
+        <v>0.0418158</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0380336</v>
+        <v>0.0389454</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0445505</v>
+        <v>0.0457534</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0421889</v>
+        <v>0.0421746</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0387247</v>
+        <v>0.0401616</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0450829</v>
+        <v>0.0451362</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.045358</v>
+        <v>0.045921</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0395428</v>
+        <v>0.0397481</v>
       </c>
       <c r="D10" t="n">
-        <v>0.045464</v>
+        <v>0.0454915</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0454804</v>
+        <v>0.0460147</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0398495</v>
+        <v>0.04053</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0457839</v>
+        <v>0.0458067</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0455331</v>
+        <v>0.0461253</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0407661</v>
+        <v>0.0409281</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0462563</v>
+        <v>0.0460969</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0456522</v>
+        <v>0.0461792</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0410412</v>
+        <v>0.0406125</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0464</v>
+        <v>0.0464259</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0456835</v>
+        <v>0.0460235</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0413105</v>
+        <v>0.0414985</v>
       </c>
       <c r="D14" t="n">
-        <v>0.046718</v>
+        <v>0.0467972</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0457277</v>
+        <v>0.0461257</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0416917</v>
+        <v>0.0417853</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0473959</v>
+        <v>0.0470839</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.046047</v>
+        <v>0.0462726</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0418775</v>
+        <v>0.0419881</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0474219</v>
+        <v>0.0475229</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0460791</v>
+        <v>0.046383</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0420497</v>
+        <v>0.0420419</v>
       </c>
       <c r="D17" t="n">
-        <v>0.047717</v>
+        <v>0.0478523</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0461708</v>
+        <v>0.046573</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0412999</v>
+        <v>0.0423474</v>
       </c>
       <c r="D18" t="n">
-        <v>0.048028</v>
+        <v>0.0481577</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0463382</v>
+        <v>0.0467261</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0428087</v>
+        <v>0.0427985</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0482769</v>
+        <v>0.0485784</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0465519</v>
+        <v>0.0467362</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0427077</v>
+        <v>0.0432842</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0488033</v>
+        <v>0.0489966</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0467439</v>
+        <v>0.0470656</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0437868</v>
+        <v>0.0440313</v>
       </c>
       <c r="D21" t="n">
-        <v>0.04951</v>
+        <v>0.0501585</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.047004</v>
+        <v>0.0472725</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0447588</v>
+        <v>0.0451108</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0530598</v>
+        <v>0.0530201</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0473915</v>
+        <v>0.0476615</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0488944</v>
+        <v>0.0503934</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0477893</v>
+        <v>0.0481311</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0490749</v>
+        <v>0.0487621</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0433051</v>
+        <v>0.0434647</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0480016</v>
+        <v>0.0487241</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0488935</v>
+        <v>0.0488453</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0435461</v>
+        <v>0.0435937</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0487422</v>
+        <v>0.0487309</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0489997</v>
+        <v>0.0489231</v>
       </c>
       <c r="C26" t="n">
-        <v>0.043826</v>
+        <v>0.0439587</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0488219</v>
+        <v>0.0490674</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0493194</v>
+        <v>0.0489491</v>
       </c>
       <c r="C27" t="n">
-        <v>0.044029</v>
+        <v>0.0441262</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0493777</v>
+        <v>0.0494572</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0490978</v>
+        <v>0.0490499</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0441909</v>
+        <v>0.044726</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0493236</v>
+        <v>0.0497941</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0492726</v>
+        <v>0.0491889</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0445403</v>
+        <v>0.0450942</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0501456</v>
+        <v>0.0501362</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0493881</v>
+        <v>0.0493086</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0448505</v>
+        <v>0.0453114</v>
       </c>
       <c r="D30" t="n">
-        <v>0.050382</v>
+        <v>0.0507409</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0498284</v>
+        <v>0.0494971</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0449987</v>
+        <v>0.04524</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0507938</v>
+        <v>0.0508601</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0499105</v>
+        <v>0.0496204</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0452577</v>
+        <v>0.0458572</v>
       </c>
       <c r="D32" t="n">
-        <v>0.050866</v>
+        <v>0.0513374</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0498836</v>
+        <v>0.0498143</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0456549</v>
+        <v>0.046439</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0515212</v>
+        <v>0.052129</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.049972</v>
+        <v>0.0498883</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0464838</v>
+        <v>0.0468054</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0527338</v>
+        <v>0.0527636</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0505329</v>
+        <v>0.0501513</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0483779</v>
+        <v>0.0484736</v>
       </c>
       <c r="D35" t="n">
-        <v>0.05626</v>
+        <v>0.0562936</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0505806</v>
+        <v>0.0504927</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0535745</v>
+        <v>0.0537293</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0628483</v>
+        <v>0.063321</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0522963</v>
+        <v>0.0520231</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0609401</v>
+        <v>0.061298</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0526587</v>
+        <v>0.052289</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0568066</v>
+        <v>0.0561561</v>
       </c>
       <c r="C38" t="n">
-        <v>0.048092</v>
+        <v>0.0477574</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0527477</v>
+        <v>0.0526735</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0556926</v>
+        <v>0.0551839</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0483674</v>
+        <v>0.0478345</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0533867</v>
+        <v>0.0521134</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0558039</v>
+        <v>0.0552474</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0486876</v>
+        <v>0.048337</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0539661</v>
+        <v>0.0530321</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0558816</v>
+        <v>0.0553212</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0489587</v>
+        <v>0.0485702</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0542955</v>
+        <v>0.0536537</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0560083</v>
+        <v>0.0554209</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0494037</v>
+        <v>0.0489836</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0542456</v>
+        <v>0.0537794</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0560556</v>
+        <v>0.0555186</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0497354</v>
+        <v>0.0493299</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0551853</v>
+        <v>0.0538672</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0561982</v>
+        <v>0.0556616</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0501653</v>
+        <v>0.0498618</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0558299</v>
+        <v>0.0548545</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0563441</v>
+        <v>0.0558059</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0505797</v>
+        <v>0.050149</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0563543</v>
+        <v>0.0550475</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0564641</v>
+        <v>0.0559245</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0513068</v>
+        <v>0.050787</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0567774</v>
+        <v>0.0557804</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0566422</v>
+        <v>0.0560961</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0528153</v>
+        <v>0.0524147</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0576088</v>
+        <v>0.0567749</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0568874</v>
+        <v>0.0563595</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0548319</v>
+        <v>0.0546227</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0605997</v>
+        <v>0.0601524</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0572386</v>
+        <v>0.0566449</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0578675</v>
+        <v>0.0574393</v>
       </c>
       <c r="D49" t="n">
-        <v>0.06497310000000001</v>
+        <v>0.06289640000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0585697</v>
+        <v>0.0580551</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0612127</v>
+        <v>0.0606922</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0695371</v>
+        <v>0.0680915</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0626843</v>
+        <v>0.0621884</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0658656</v>
+        <v>0.0656075</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0570013</v>
+        <v>0.0562613</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0679478</v>
+        <v>0.06740939999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0728868</v>
+        <v>0.0724967</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0561984</v>
+        <v>0.0568902</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0617401</v>
+        <v>0.0610355</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0487967</v>
+        <v>0.0482172</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0569245</v>
+        <v>0.0569868</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0615556</v>
+        <v>0.0608204</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0492551</v>
+        <v>0.0487952</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0572195</v>
+        <v>0.0555297</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0616078</v>
+        <v>0.0610742</v>
       </c>
       <c r="C55" t="n">
-        <v>0.049859</v>
+        <v>0.0497289</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0570254</v>
+        <v>0.0578697</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.061703</v>
+        <v>0.0609924</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0504153</v>
+        <v>0.049809</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0572266</v>
+        <v>0.0563333</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.061824</v>
+        <v>0.0611419</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0510471</v>
+        <v>0.050451</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0593085</v>
+        <v>0.0582339</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0620061</v>
+        <v>0.0612857</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0517868</v>
+        <v>0.0513638</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0596595</v>
+        <v>0.0592298</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0622076</v>
+        <v>0.0614559</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0526926</v>
+        <v>0.0525473</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0607805</v>
+        <v>0.0601796</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0623478</v>
+        <v>0.061609</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0538968</v>
+        <v>0.0535539</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0604902</v>
+        <v>0.0593507</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0626029</v>
+        <v>0.0619139</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0552189</v>
+        <v>0.0546778</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0640169</v>
+        <v>0.0617372</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06303599999999999</v>
+        <v>0.0622898</v>
       </c>
       <c r="C62" t="n">
-        <v>0.05664</v>
+        <v>0.0566664</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0652662</v>
+        <v>0.0647629</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.06408510000000001</v>
+        <v>0.06334140000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0591511</v>
+        <v>0.0590411</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0685355</v>
+        <v>0.0677232</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.06601509999999999</v>
+        <v>0.06548619999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0623437</v>
+        <v>0.0617707</v>
       </c>
       <c r="D64" t="n">
-        <v>0.07213700000000001</v>
+        <v>0.0728741</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0689124</v>
+        <v>0.0681635</v>
       </c>
       <c r="C65" t="n">
-        <v>0.06599670000000001</v>
+        <v>0.06587800000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0789159</v>
+        <v>0.07843020000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0731311</v>
+        <v>0.0723781</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0720927</v>
+        <v>0.07207040000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0614806</v>
+        <v>0.0596397</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.07221619999999999</v>
+        <v>0.0715591</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0548085</v>
+        <v>0.0553292</v>
       </c>
       <c r="D67" t="n">
-        <v>0.061971</v>
+        <v>0.0598308</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0728111</v>
+        <v>0.0716905</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0552265</v>
+        <v>0.0558315</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0623985</v>
+        <v>0.0602256</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.07305449999999999</v>
+        <v>0.07195940000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.055821</v>
+        <v>0.0563653</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0628384</v>
+        <v>0.0607529</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.073644</v>
+        <v>0.0721521</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0566472</v>
+        <v>0.0568619</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0634781</v>
+        <v>0.0613712</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.07406210000000001</v>
+        <v>0.0725248</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0575265</v>
+        <v>0.0575497</v>
       </c>
       <c r="D71" t="n">
-        <v>0.06409380000000001</v>
+        <v>0.0619119</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0742327</v>
+        <v>0.07264329999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0582434</v>
+        <v>0.0582543</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0649676</v>
+        <v>0.0626004</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.074448</v>
+        <v>0.0727216</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0590285</v>
+        <v>0.0591896</v>
       </c>
       <c r="D73" t="n">
-        <v>0.06581099999999999</v>
+        <v>0.0636372</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.07481110000000001</v>
+        <v>0.0729697</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0603041</v>
+        <v>0.0606092</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0673434</v>
+        <v>0.0649868</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0751072</v>
+        <v>0.0734094</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0615914</v>
+        <v>0.0617131</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0668247</v>
+        <v>0.06670189999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0765673</v>
+        <v>0.0736462</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0632742</v>
+        <v>0.06310200000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.06881470000000001</v>
+        <v>0.06873849999999999</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0774512</v>
+        <v>0.0751513</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0651506</v>
+        <v>0.0650773</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0718176</v>
+        <v>0.0715343</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.07874970000000001</v>
+        <v>0.0766501</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0676933</v>
+        <v>0.06763710000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0755292</v>
+        <v>0.0752666</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0812293</v>
+        <v>0.07905</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0714949</v>
+        <v>0.07134799999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.08137510000000001</v>
+        <v>0.0812441</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.08499279999999999</v>
+        <v>0.0825683</v>
       </c>
       <c r="C80" t="n">
-        <v>0.07701479999999999</v>
+        <v>0.07678450000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.101155</v>
+        <v>0.105586</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.174445</v>
+        <v>0.173632</v>
       </c>
       <c r="C81" t="n">
-        <v>0.138472</v>
+        <v>0.138114</v>
       </c>
       <c r="D81" t="n">
-        <v>0.103457</v>
+        <v>0.107755</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.174729</v>
+        <v>0.172659</v>
       </c>
       <c r="C82" t="n">
-        <v>0.139713</v>
+        <v>0.139622</v>
       </c>
       <c r="D82" t="n">
-        <v>0.109512</v>
+        <v>0.108099</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.174499</v>
+        <v>0.175374</v>
       </c>
       <c r="C83" t="n">
-        <v>0.139773</v>
+        <v>0.140217</v>
       </c>
       <c r="D83" t="n">
-        <v>0.111973</v>
+        <v>0.113186</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.175998</v>
+        <v>0.175317</v>
       </c>
       <c r="C84" t="n">
-        <v>0.141117</v>
+        <v>0.139568</v>
       </c>
       <c r="D84" t="n">
-        <v>0.114074</v>
+        <v>0.11545</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.176295</v>
+        <v>0.17605</v>
       </c>
       <c r="C85" t="n">
-        <v>0.139777</v>
+        <v>0.1413</v>
       </c>
       <c r="D85" t="n">
-        <v>0.11284</v>
+        <v>0.117875</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.175954</v>
+        <v>0.174686</v>
       </c>
       <c r="C86" t="n">
-        <v>0.140523</v>
+        <v>0.139697</v>
       </c>
       <c r="D86" t="n">
-        <v>0.117702</v>
+        <v>0.116426</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.177566</v>
+        <v>0.177265</v>
       </c>
       <c r="C87" t="n">
-        <v>0.140775</v>
+        <v>0.141256</v>
       </c>
       <c r="D87" t="n">
-        <v>0.118171</v>
+        <v>0.120976</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.178692</v>
+        <v>0.175964</v>
       </c>
       <c r="C88" t="n">
-        <v>0.143819</v>
+        <v>0.143032</v>
       </c>
       <c r="D88" t="n">
-        <v>0.124663</v>
+        <v>0.122593</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.17834</v>
+        <v>0.177742</v>
       </c>
       <c r="C89" t="n">
-        <v>0.143208</v>
+        <v>0.142287</v>
       </c>
       <c r="D89" t="n">
-        <v>0.123027</v>
+        <v>0.124664</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.178763</v>
+        <v>0.177927</v>
       </c>
       <c r="C90" t="n">
-        <v>0.145145</v>
+        <v>0.14423</v>
       </c>
       <c r="D90" t="n">
-        <v>0.128318</v>
+        <v>0.126851</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.17943</v>
+        <v>0.178874</v>
       </c>
       <c r="C91" t="n">
-        <v>0.146279</v>
+        <v>0.144917</v>
       </c>
       <c r="D91" t="n">
-        <v>0.131108</v>
+        <v>0.129006</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.179763</v>
+        <v>0.179</v>
       </c>
       <c r="C92" t="n">
-        <v>0.147634</v>
+        <v>0.148174</v>
       </c>
       <c r="D92" t="n">
-        <v>0.134398</v>
+        <v>0.134459</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181945</v>
+        <v>0.181248</v>
       </c>
       <c r="C93" t="n">
-        <v>0.149967</v>
+        <v>0.149619</v>
       </c>
       <c r="D93" t="n">
-        <v>0.137741</v>
+        <v>0.138382</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.183843</v>
+        <v>0.184586</v>
       </c>
       <c r="C94" t="n">
-        <v>0.15476</v>
+        <v>0.15556</v>
       </c>
       <c r="D94" t="n">
-        <v>0.213041</v>
+        <v>0.211651</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.242815</v>
+        <v>0.242409</v>
       </c>
       <c r="C95" t="n">
-        <v>0.20363</v>
+        <v>0.203124</v>
       </c>
       <c r="D95" t="n">
-        <v>0.213225</v>
+        <v>0.212794</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.242446</v>
+        <v>0.242129</v>
       </c>
       <c r="C96" t="n">
-        <v>0.204355</v>
+        <v>0.203946</v>
       </c>
       <c r="D96" t="n">
-        <v>0.214503</v>
+        <v>0.214446</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.242307</v>
+        <v>0.241966</v>
       </c>
       <c r="C97" t="n">
-        <v>0.203777</v>
+        <v>0.20393</v>
       </c>
       <c r="D97" t="n">
-        <v>0.216686</v>
+        <v>0.215865</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.242685</v>
+        <v>0.242115</v>
       </c>
       <c r="C98" t="n">
-        <v>0.206975</v>
+        <v>0.205504</v>
       </c>
       <c r="D98" t="n">
-        <v>0.218636</v>
+        <v>0.217289</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.242414</v>
+        <v>0.242221</v>
       </c>
       <c r="C99" t="n">
-        <v>0.208255</v>
+        <v>0.206922</v>
       </c>
       <c r="D99" t="n">
-        <v>0.220685</v>
+        <v>0.220437</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.242619</v>
+        <v>0.241507</v>
       </c>
       <c r="C100" t="n">
-        <v>0.209222</v>
+        <v>0.207676</v>
       </c>
       <c r="D100" t="n">
-        <v>0.221969</v>
+        <v>0.220576</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.243181</v>
+        <v>0.242166</v>
       </c>
       <c r="C101" t="n">
-        <v>0.211054</v>
+        <v>0.20913</v>
       </c>
       <c r="D101" t="n">
-        <v>0.224773</v>
+        <v>0.223142</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.242874</v>
+        <v>0.242602</v>
       </c>
       <c r="C102" t="n">
-        <v>0.212597</v>
+        <v>0.210733</v>
       </c>
       <c r="D102" t="n">
-        <v>0.226651</v>
+        <v>0.224997</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.243494</v>
+        <v>0.242283</v>
       </c>
       <c r="C103" t="n">
-        <v>0.214121</v>
+        <v>0.212113</v>
       </c>
       <c r="D103" t="n">
-        <v>0.229244</v>
+        <v>0.226627</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.243583</v>
+        <v>0.241938</v>
       </c>
       <c r="C104" t="n">
-        <v>0.216071</v>
+        <v>0.214042</v>
       </c>
       <c r="D104" t="n">
-        <v>0.231122</v>
+        <v>0.229414</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.244049</v>
+        <v>0.243337</v>
       </c>
       <c r="C105" t="n">
-        <v>0.218414</v>
+        <v>0.216068</v>
       </c>
       <c r="D105" t="n">
-        <v>0.234472</v>
+        <v>0.232384</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.245373</v>
+        <v>0.243195</v>
       </c>
       <c r="C106" t="n">
-        <v>0.2211</v>
+        <v>0.217035</v>
       </c>
       <c r="D106" t="n">
-        <v>0.238032</v>
+        <v>0.235568</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247383</v>
+        <v>0.24481</v>
       </c>
       <c r="C107" t="n">
-        <v>0.224743</v>
+        <v>0.216257</v>
       </c>
       <c r="D107" t="n">
-        <v>0.243088</v>
+        <v>0.240806</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.249698</v>
+        <v>0.247703</v>
       </c>
       <c r="C108" t="n">
-        <v>0.228466</v>
+        <v>0.222026</v>
       </c>
       <c r="D108" t="n">
-        <v>0.262684</v>
+        <v>0.25979</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.254854</v>
+        <v>0.252438</v>
       </c>
       <c r="C109" t="n">
-        <v>0.235476</v>
+        <v>0.227259</v>
       </c>
       <c r="D109" t="n">
-        <v>0.264042</v>
+        <v>0.26438</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.276849</v>
+        <v>0.277216</v>
       </c>
       <c r="C110" t="n">
-        <v>0.228352</v>
+        <v>0.227528</v>
       </c>
       <c r="D110" t="n">
-        <v>0.264543</v>
+        <v>0.262832</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.272599</v>
+        <v>0.278038</v>
       </c>
       <c r="C111" t="n">
-        <v>0.230578</v>
+        <v>0.229502</v>
       </c>
       <c r="D111" t="n">
-        <v>0.269361</v>
+        <v>0.263654</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.275808</v>
+        <v>0.272358</v>
       </c>
       <c r="C112" t="n">
-        <v>0.232321</v>
+        <v>0.230739</v>
       </c>
       <c r="D112" t="n">
-        <v>0.265253</v>
+        <v>0.26389</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.277807</v>
+        <v>0.280985</v>
       </c>
       <c r="C113" t="n">
-        <v>0.23071</v>
+        <v>0.231935</v>
       </c>
       <c r="D113" t="n">
-        <v>0.265107</v>
+        <v>0.263496</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.279107</v>
+        <v>0.278323</v>
       </c>
       <c r="C114" t="n">
-        <v>0.235387</v>
+        <v>0.234535</v>
       </c>
       <c r="D114" t="n">
-        <v>0.267728</v>
+        <v>0.266401</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.272369</v>
+        <v>0.279307</v>
       </c>
       <c r="C115" t="n">
-        <v>0.238755</v>
+        <v>0.237462</v>
       </c>
       <c r="D115" t="n">
-        <v>0.271326</v>
+        <v>0.269155</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.273485</v>
+        <v>0.273844</v>
       </c>
       <c r="C116" t="n">
-        <v>0.241723</v>
+        <v>0.24077</v>
       </c>
       <c r="D116" t="n">
-        <v>0.273973</v>
+        <v>0.269733</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.27336</v>
+        <v>0.274629</v>
       </c>
       <c r="C117" t="n">
-        <v>0.245104</v>
+        <v>0.241881</v>
       </c>
       <c r="D117" t="n">
-        <v>0.277471</v>
+        <v>0.273316</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.282276</v>
+        <v>0.280827</v>
       </c>
       <c r="C118" t="n">
-        <v>0.247025</v>
+        <v>0.246616</v>
       </c>
       <c r="D118" t="n">
-        <v>0.27754</v>
+        <v>0.278916</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.281567</v>
+        <v>0.279162</v>
       </c>
       <c r="C119" t="n">
-        <v>0.250886</v>
+        <v>0.248044</v>
       </c>
       <c r="D119" t="n">
-        <v>0.282295</v>
+        <v>0.282525</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.281384</v>
+        <v>0.282311</v>
       </c>
       <c r="C120" t="n">
-        <v>0.253645</v>
+        <v>0.251864</v>
       </c>
       <c r="D120" t="n">
-        <v>0.285457</v>
+        <v>0.286399</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.283135</v>
+        <v>0.284844</v>
       </c>
       <c r="C121" t="n">
-        <v>0.257961</v>
+        <v>0.255719</v>
       </c>
       <c r="D121" t="n">
-        <v>0.293365</v>
+        <v>0.291377</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.284965</v>
+        <v>0.286441</v>
       </c>
       <c r="C122" t="n">
-        <v>0.263706</v>
+        <v>0.263008</v>
       </c>
       <c r="D122" t="n">
-        <v>0.296822</v>
+        <v>0.297932</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.289031</v>
+        <v>0.285526</v>
       </c>
       <c r="C123" t="n">
-        <v>0.272221</v>
+        <v>0.269179</v>
       </c>
       <c r="D123" t="n">
-        <v>0.285096</v>
+        <v>0.284864</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.354292</v>
+        <v>0.353494</v>
       </c>
       <c r="C124" t="n">
-        <v>0.250045</v>
+        <v>0.2477</v>
       </c>
       <c r="D124" t="n">
-        <v>0.288715</v>
+        <v>0.286852</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.353405</v>
+        <v>0.350515</v>
       </c>
       <c r="C125" t="n">
-        <v>0.250979</v>
+        <v>0.249519</v>
       </c>
       <c r="D125" t="n">
-        <v>0.290271</v>
+        <v>0.289685</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.355193</v>
+        <v>0.352128</v>
       </c>
       <c r="C126" t="n">
-        <v>0.253652</v>
+        <v>0.251289</v>
       </c>
       <c r="D126" t="n">
-        <v>0.294139</v>
+        <v>0.292745</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.354145</v>
+        <v>0.350601</v>
       </c>
       <c r="C127" t="n">
-        <v>0.255651</v>
+        <v>0.253984</v>
       </c>
       <c r="D127" t="n">
-        <v>0.295357</v>
+        <v>0.295017</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.353458</v>
+        <v>0.350876</v>
       </c>
       <c r="C128" t="n">
-        <v>0.259704</v>
+        <v>0.257734</v>
       </c>
       <c r="D128" t="n">
-        <v>0.299207</v>
+        <v>0.297865</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.35372</v>
+        <v>0.350404</v>
       </c>
       <c r="C129" t="n">
-        <v>0.262549</v>
+        <v>0.260491</v>
       </c>
       <c r="D129" t="n">
-        <v>0.302119</v>
+        <v>0.30121</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.355282</v>
+        <v>0.351144</v>
       </c>
       <c r="C130" t="n">
-        <v>0.266613</v>
+        <v>0.264373</v>
       </c>
       <c r="D130" t="n">
-        <v>0.306563</v>
+        <v>0.304967</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.352486</v>
+        <v>0.352345</v>
       </c>
       <c r="C131" t="n">
-        <v>0.269661</v>
+        <v>0.267891</v>
       </c>
       <c r="D131" t="n">
-        <v>0.309422</v>
+        <v>0.308666</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.352419</v>
+        <v>0.352081</v>
       </c>
       <c r="C132" t="n">
-        <v>0.274254</v>
+        <v>0.271569</v>
       </c>
       <c r="D132" t="n">
-        <v>0.314695</v>
+        <v>0.312755</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.354364</v>
+        <v>0.35239</v>
       </c>
       <c r="C133" t="n">
-        <v>0.277238</v>
+        <v>0.275272</v>
       </c>
       <c r="D133" t="n">
-        <v>0.318439</v>
+        <v>0.317556</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.35626</v>
+        <v>0.353953</v>
       </c>
       <c r="C134" t="n">
-        <v>0.282316</v>
+        <v>0.279804</v>
       </c>
       <c r="D134" t="n">
-        <v>0.324655</v>
+        <v>0.322708</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.356358</v>
+        <v>0.353724</v>
       </c>
       <c r="C135" t="n">
-        <v>0.286382</v>
+        <v>0.284454</v>
       </c>
       <c r="D135" t="n">
-        <v>0.330936</v>
+        <v>0.329954</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.358917</v>
+        <v>0.355389</v>
       </c>
       <c r="C136" t="n">
-        <v>0.294188</v>
+        <v>0.291652</v>
       </c>
       <c r="D136" t="n">
-        <v>0.341697</v>
+        <v>0.340121</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.36032</v>
+        <v>0.360366</v>
       </c>
       <c r="C137" t="n">
-        <v>0.302143</v>
+        <v>0.300605</v>
       </c>
       <c r="D137" t="n">
-        <v>0.306462</v>
+        <v>0.306684</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.410747</v>
+        <v>0.414747</v>
       </c>
       <c r="C138" t="n">
-        <v>0.267795</v>
+        <v>0.268202</v>
       </c>
       <c r="D138" t="n">
-        <v>0.308602</v>
+        <v>0.309135</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.410228</v>
+        <v>0.415257</v>
       </c>
       <c r="C139" t="n">
-        <v>0.26997</v>
+        <v>0.269952</v>
       </c>
       <c r="D139" t="n">
-        <v>0.310982</v>
+        <v>0.310528</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.410122</v>
+        <v>0.41557</v>
       </c>
       <c r="C140" t="n">
-        <v>0.272681</v>
+        <v>0.272369</v>
       </c>
       <c r="D140" t="n">
-        <v>0.312627</v>
+        <v>0.312591</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.415175</v>
+        <v>0.414783</v>
       </c>
       <c r="C141" t="n">
-        <v>0.275071</v>
+        <v>0.274522</v>
       </c>
       <c r="D141" t="n">
-        <v>0.315006</v>
+        <v>0.314094</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.410084</v>
+        <v>0.415333</v>
       </c>
       <c r="C142" t="n">
-        <v>0.278281</v>
+        <v>0.277503</v>
       </c>
       <c r="D142" t="n">
-        <v>0.318121</v>
+        <v>0.317061</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.415313</v>
+        <v>0.415376</v>
       </c>
       <c r="C143" t="n">
-        <v>0.280988</v>
+        <v>0.280566</v>
       </c>
       <c r="D143" t="n">
-        <v>0.320257</v>
+        <v>0.319522</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0409056</v>
+        <v>0.0454696</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0361037</v>
+        <v>0.0965341</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0428421</v>
+        <v>0.0510365</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0412543</v>
+        <v>0.0445291</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0363817</v>
+        <v>0.10726</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0430754</v>
+        <v>0.0517457</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0415226</v>
+        <v>0.0455607</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0365773</v>
+        <v>0.120485</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0433299</v>
+        <v>0.0520905</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0414623</v>
+        <v>0.0455747</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0374107</v>
+        <v>0.134066</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0435477</v>
+        <v>0.0523171</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0418279</v>
+        <v>0.0456101</v>
       </c>
       <c r="C6" t="n">
-        <v>0.036845</v>
+        <v>0.144383</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0439629</v>
+        <v>0.052714</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0416407</v>
+        <v>0.0457163</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0379952</v>
+        <v>0.156018</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0447006</v>
+        <v>0.0531683</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0418158</v>
+        <v>0.0458915</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0389454</v>
+        <v>0.0585839</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0457534</v>
+        <v>0.054589</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0421746</v>
+        <v>0.046426</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0401616</v>
+        <v>0.0625628</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0451362</v>
+        <v>0.0473272</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.045921</v>
+        <v>0.0440385</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0397481</v>
+        <v>0.0674824</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0454915</v>
+        <v>0.0477181</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0460147</v>
+        <v>0.0441077</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04053</v>
+        <v>0.0741969</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0458067</v>
+        <v>0.0480838</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0461253</v>
+        <v>0.0442312</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0409281</v>
+        <v>0.08106820000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0460969</v>
+        <v>0.0483661</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0461792</v>
+        <v>0.0443211</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0406125</v>
+        <v>0.0892293</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0464259</v>
+        <v>0.0486991</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0460235</v>
+        <v>0.044395</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0414985</v>
+        <v>0.0972373</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0467972</v>
+        <v>0.0490011</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0461257</v>
+        <v>0.0445827</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0417853</v>
+        <v>0.105845</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0470839</v>
+        <v>0.0492744</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0462726</v>
+        <v>0.0446267</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0419881</v>
+        <v>0.116613</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0475229</v>
+        <v>0.0496224</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.046383</v>
+        <v>0.044818</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0420419</v>
+        <v>0.129385</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0478523</v>
+        <v>0.0498842</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.046573</v>
+        <v>0.0447562</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0423474</v>
+        <v>0.138766</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0481577</v>
+        <v>0.0501543</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0467261</v>
+        <v>0.0448895</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0427985</v>
+        <v>0.15087</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0485784</v>
+        <v>0.0505192</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0467362</v>
+        <v>0.0450307</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0432842</v>
+        <v>0.161402</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0489966</v>
+        <v>0.0508165</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0470656</v>
+        <v>0.0451934</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0440313</v>
+        <v>0.169212</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0501585</v>
+        <v>0.0516495</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0472725</v>
+        <v>0.0455181</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0451108</v>
+        <v>0.0737865</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0530201</v>
+        <v>0.0565008</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0476615</v>
+        <v>0.0464257</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0503934</v>
+        <v>0.07823479999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0481311</v>
+        <v>0.0519914</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0487621</v>
+        <v>0.0489203</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0434647</v>
+        <v>0.0831373</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0487241</v>
+        <v>0.0527449</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0488453</v>
+        <v>0.048767</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0435937</v>
+        <v>0.0885305</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0487309</v>
+        <v>0.053077</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0489231</v>
+        <v>0.0488415</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0439587</v>
+        <v>0.09401089999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0490674</v>
+        <v>0.0535315</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0489491</v>
+        <v>0.0491245</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0441262</v>
+        <v>0.100373</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0494572</v>
+        <v>0.0538023</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0490499</v>
+        <v>0.0492183</v>
       </c>
       <c r="C28" t="n">
-        <v>0.044726</v>
+        <v>0.107633</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0497941</v>
+        <v>0.054139</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0491889</v>
+        <v>0.0493174</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0450942</v>
+        <v>0.114779</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0501362</v>
+        <v>0.0544914</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0493086</v>
+        <v>0.0493918</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0453114</v>
+        <v>0.125242</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0507409</v>
+        <v>0.0548855</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0494971</v>
+        <v>0.0495219</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04524</v>
+        <v>0.135824</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0508601</v>
+        <v>0.0551378</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0496204</v>
+        <v>0.0496279</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0458572</v>
+        <v>0.146131</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0513374</v>
+        <v>0.0554727</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0498143</v>
+        <v>0.0497255</v>
       </c>
       <c r="C33" t="n">
-        <v>0.046439</v>
+        <v>0.156633</v>
       </c>
       <c r="D33" t="n">
-        <v>0.052129</v>
+        <v>0.0558135</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0498883</v>
+        <v>0.0500155</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0468054</v>
+        <v>0.169616</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0527636</v>
+        <v>0.0563924</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0501513</v>
+        <v>0.0503968</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0484736</v>
+        <v>0.1834</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0562936</v>
+        <v>0.0599101</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0504927</v>
+        <v>0.0513809</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0537293</v>
+        <v>0.202289</v>
       </c>
       <c r="D36" t="n">
-        <v>0.063321</v>
+        <v>0.0675327</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0520231</v>
+        <v>0.0543859</v>
       </c>
       <c r="C37" t="n">
-        <v>0.061298</v>
+        <v>0.07896060000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.052289</v>
+        <v>0.0568155</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0561561</v>
+        <v>0.0545895</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0477574</v>
+        <v>0.08314589999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0526735</v>
+        <v>0.0573812</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0551839</v>
+        <v>0.0555177</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0478345</v>
+        <v>0.0883478</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0521134</v>
+        <v>0.0577648</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0552474</v>
+        <v>0.0556282</v>
       </c>
       <c r="C40" t="n">
-        <v>0.048337</v>
+        <v>0.093524</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0530321</v>
+        <v>0.0581724</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0553212</v>
+        <v>0.055709</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0485702</v>
+        <v>0.0998416</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0536537</v>
+        <v>0.0585367</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0554209</v>
+        <v>0.0557802</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0489836</v>
+        <v>0.106772</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0537794</v>
+        <v>0.0589064</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0555186</v>
+        <v>0.0558558</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0493299</v>
+        <v>0.115458</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0538672</v>
+        <v>0.0593097</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0556616</v>
+        <v>0.0559838</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0498618</v>
+        <v>0.124701</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0548545</v>
+        <v>0.0597276</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0558059</v>
+        <v>0.0561112</v>
       </c>
       <c r="C45" t="n">
-        <v>0.050149</v>
+        <v>0.135755</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0550475</v>
+        <v>0.0602417</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0559245</v>
+        <v>0.0562502</v>
       </c>
       <c r="C46" t="n">
-        <v>0.050787</v>
+        <v>0.146926</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0557804</v>
+        <v>0.0606363</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0560961</v>
+        <v>0.0563159</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0524147</v>
+        <v>0.159534</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0567749</v>
+        <v>0.0618567</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0563595</v>
+        <v>0.0567676</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0546227</v>
+        <v>0.172652</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0601524</v>
+        <v>0.06472260000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0566449</v>
+        <v>0.0574547</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0574393</v>
+        <v>0.187486</v>
       </c>
       <c r="D49" t="n">
-        <v>0.06289640000000001</v>
+        <v>0.0689655</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0580551</v>
+        <v>0.0593715</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0606922</v>
+        <v>0.204599</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0680915</v>
+        <v>0.07412489999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0621884</v>
+        <v>0.0629034</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0656075</v>
+        <v>0.07992829999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0562613</v>
+        <v>0.0632982</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.06740939999999999</v>
+        <v>0.0683342</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0724967</v>
+        <v>0.0839123</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0568902</v>
+        <v>0.0635343</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0610355</v>
+        <v>0.0612699</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0482172</v>
+        <v>0.08848060000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0569868</v>
+        <v>0.0639993</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0608204</v>
+        <v>0.0614619</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0487952</v>
+        <v>0.09372809999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0555297</v>
+        <v>0.0644067</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0610742</v>
+        <v>0.0614561</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0497289</v>
+        <v>0.100506</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0578697</v>
+        <v>0.0649076</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0609924</v>
+        <v>0.0604653</v>
       </c>
       <c r="C56" t="n">
-        <v>0.049809</v>
+        <v>0.107368</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0563333</v>
+        <v>0.06540849999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0611419</v>
+        <v>0.0606318</v>
       </c>
       <c r="C57" t="n">
-        <v>0.050451</v>
+        <v>0.115841</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0582339</v>
+        <v>0.0657078</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0612857</v>
+        <v>0.060779</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0513638</v>
+        <v>0.125224</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0592298</v>
+        <v>0.0663765</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0614559</v>
+        <v>0.060917</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0525473</v>
+        <v>0.13596</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0601796</v>
+        <v>0.0669443</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.061609</v>
+        <v>0.0624161</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0535539</v>
+        <v>0.147686</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0593507</v>
+        <v>0.068387</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0619139</v>
+        <v>0.0626374</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0546778</v>
+        <v>0.160035</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0617372</v>
+        <v>0.0705267</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0622898</v>
+        <v>0.0630135</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0566664</v>
+        <v>0.17414</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0647629</v>
+        <v>0.0730078</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.06334140000000001</v>
+        <v>0.0638169</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0590411</v>
+        <v>0.190415</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0677232</v>
+        <v>0.07624789999999999</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.06548619999999999</v>
+        <v>0.0659247</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0617707</v>
+        <v>0.212653</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0728741</v>
+        <v>0.0807008</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0681635</v>
+        <v>0.0685135</v>
       </c>
       <c r="C65" t="n">
-        <v>0.06587800000000001</v>
+        <v>0.08100400000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.07843020000000001</v>
+        <v>0.087561</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0723781</v>
+        <v>0.0726019</v>
       </c>
       <c r="C66" t="n">
-        <v>0.07207040000000001</v>
+        <v>0.0850177</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0596397</v>
+        <v>0.0665917</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0715591</v>
+        <v>0.0761698</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0553292</v>
+        <v>0.0897631</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0598308</v>
+        <v>0.06706769999999999</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0716905</v>
+        <v>0.07634009999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0558315</v>
+        <v>0.0947968</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0602256</v>
+        <v>0.067535</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.07195940000000001</v>
+        <v>0.0773109</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0563653</v>
+        <v>0.10101</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0607529</v>
+        <v>0.06816419999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0721521</v>
+        <v>0.07669910000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0568619</v>
+        <v>0.107282</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0613712</v>
+        <v>0.06878869999999999</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0725248</v>
+        <v>0.0771488</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0575497</v>
+        <v>0.116163</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0619119</v>
+        <v>0.0696026</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07264329999999999</v>
+        <v>0.07774300000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0582543</v>
+        <v>0.126131</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0626004</v>
+        <v>0.0703824</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0727216</v>
+        <v>0.0778095</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0591896</v>
+        <v>0.137188</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0636372</v>
+        <v>0.0716541</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0729697</v>
+        <v>0.078308</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0606092</v>
+        <v>0.149168</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0649868</v>
+        <v>0.07336289999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0734094</v>
+        <v>0.0787476</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0617131</v>
+        <v>0.162104</v>
       </c>
       <c r="D75" t="n">
-        <v>0.06670189999999999</v>
+        <v>0.0751266</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0736462</v>
+        <v>0.0792906</v>
       </c>
       <c r="C76" t="n">
-        <v>0.06310200000000001</v>
+        <v>0.175712</v>
       </c>
       <c r="D76" t="n">
-        <v>0.06873849999999999</v>
+        <v>0.0773633</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0751513</v>
+        <v>0.0807966</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0650773</v>
+        <v>0.191439</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0715343</v>
+        <v>0.07934910000000001</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0766501</v>
+        <v>0.0831447</v>
       </c>
       <c r="C78" t="n">
-        <v>0.06763710000000001</v>
+        <v>0.211356</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0752666</v>
+        <v>0.0821959</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.07905</v>
+        <v>0.0857072</v>
       </c>
       <c r="C79" t="n">
-        <v>0.07134799999999999</v>
+        <v>0.118861</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0812441</v>
+        <v>0.0878313</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0825683</v>
+        <v>0.0905059</v>
       </c>
       <c r="C80" t="n">
-        <v>0.07678450000000001</v>
+        <v>0.123038</v>
       </c>
       <c r="D80" t="n">
-        <v>0.105586</v>
+        <v>0.119207</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.173632</v>
+        <v>0.189027</v>
       </c>
       <c r="C81" t="n">
-        <v>0.138114</v>
+        <v>0.127531</v>
       </c>
       <c r="D81" t="n">
-        <v>0.107755</v>
+        <v>0.12225</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.172659</v>
+        <v>0.186649</v>
       </c>
       <c r="C82" t="n">
-        <v>0.139622</v>
+        <v>0.12948</v>
       </c>
       <c r="D82" t="n">
-        <v>0.108099</v>
+        <v>0.11858</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.175374</v>
+        <v>0.189809</v>
       </c>
       <c r="C83" t="n">
-        <v>0.140217</v>
+        <v>0.140024</v>
       </c>
       <c r="D83" t="n">
-        <v>0.113186</v>
+        <v>0.129019</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.175317</v>
+        <v>0.188607</v>
       </c>
       <c r="C84" t="n">
-        <v>0.139568</v>
+        <v>0.144349</v>
       </c>
       <c r="D84" t="n">
-        <v>0.11545</v>
+        <v>0.11868</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.17605</v>
+        <v>0.182877</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1413</v>
+        <v>0.1461</v>
       </c>
       <c r="D85" t="n">
-        <v>0.117875</v>
+        <v>0.137947</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.174686</v>
+        <v>0.190546</v>
       </c>
       <c r="C86" t="n">
-        <v>0.139697</v>
+        <v>0.162025</v>
       </c>
       <c r="D86" t="n">
-        <v>0.116426</v>
+        <v>0.135149</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.177265</v>
+        <v>0.193006</v>
       </c>
       <c r="C87" t="n">
-        <v>0.141256</v>
+        <v>0.165818</v>
       </c>
       <c r="D87" t="n">
-        <v>0.120976</v>
+        <v>0.142147</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.175964</v>
+        <v>0.193482</v>
       </c>
       <c r="C88" t="n">
-        <v>0.143032</v>
+        <v>0.184714</v>
       </c>
       <c r="D88" t="n">
-        <v>0.122593</v>
+        <v>0.143014</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.177742</v>
+        <v>0.195395</v>
       </c>
       <c r="C89" t="n">
-        <v>0.142287</v>
+        <v>0.188956</v>
       </c>
       <c r="D89" t="n">
-        <v>0.124664</v>
+        <v>0.148373</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.177927</v>
+        <v>0.194599</v>
       </c>
       <c r="C90" t="n">
-        <v>0.14423</v>
+        <v>0.204774</v>
       </c>
       <c r="D90" t="n">
-        <v>0.126851</v>
+        <v>0.148015</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.178874</v>
+        <v>0.193159</v>
       </c>
       <c r="C91" t="n">
-        <v>0.144917</v>
+        <v>0.216286</v>
       </c>
       <c r="D91" t="n">
-        <v>0.129006</v>
+        <v>0.152857</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.179</v>
+        <v>0.19601</v>
       </c>
       <c r="C92" t="n">
-        <v>0.148174</v>
+        <v>0.232568</v>
       </c>
       <c r="D92" t="n">
-        <v>0.134459</v>
+        <v>0.155623</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181248</v>
+        <v>0.198817</v>
       </c>
       <c r="C93" t="n">
-        <v>0.149619</v>
+        <v>0.258929</v>
       </c>
       <c r="D93" t="n">
-        <v>0.138382</v>
+        <v>0.166428</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.184586</v>
+        <v>0.203708</v>
       </c>
       <c r="C94" t="n">
-        <v>0.15556</v>
+        <v>0.205864</v>
       </c>
       <c r="D94" t="n">
-        <v>0.211651</v>
+        <v>0.250872</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.242409</v>
+        <v>0.266189</v>
       </c>
       <c r="C95" t="n">
-        <v>0.203124</v>
+        <v>0.210618</v>
       </c>
       <c r="D95" t="n">
-        <v>0.212794</v>
+        <v>0.253201</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.242129</v>
+        <v>0.266815</v>
       </c>
       <c r="C96" t="n">
-        <v>0.203946</v>
+        <v>0.216833</v>
       </c>
       <c r="D96" t="n">
-        <v>0.214446</v>
+        <v>0.25291</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.241966</v>
+        <v>0.263785</v>
       </c>
       <c r="C97" t="n">
-        <v>0.20393</v>
+        <v>0.224284</v>
       </c>
       <c r="D97" t="n">
-        <v>0.215865</v>
+        <v>0.250041</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.242115</v>
+        <v>0.263611</v>
       </c>
       <c r="C98" t="n">
-        <v>0.205504</v>
+        <v>0.232975</v>
       </c>
       <c r="D98" t="n">
-        <v>0.217289</v>
+        <v>0.257799</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.242221</v>
+        <v>0.26726</v>
       </c>
       <c r="C99" t="n">
-        <v>0.206922</v>
+        <v>0.242157</v>
       </c>
       <c r="D99" t="n">
-        <v>0.220437</v>
+        <v>0.251974</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.241507</v>
+        <v>0.267143</v>
       </c>
       <c r="C100" t="n">
-        <v>0.207676</v>
+        <v>0.253058</v>
       </c>
       <c r="D100" t="n">
-        <v>0.220576</v>
+        <v>0.262289</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.242166</v>
+        <v>0.266902</v>
       </c>
       <c r="C101" t="n">
-        <v>0.20913</v>
+        <v>0.264983</v>
       </c>
       <c r="D101" t="n">
-        <v>0.223142</v>
+        <v>0.26387</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.242602</v>
+        <v>0.266958</v>
       </c>
       <c r="C102" t="n">
-        <v>0.210733</v>
+        <v>0.276608</v>
       </c>
       <c r="D102" t="n">
-        <v>0.224997</v>
+        <v>0.258874</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.242283</v>
+        <v>0.266705</v>
       </c>
       <c r="C103" t="n">
-        <v>0.212113</v>
+        <v>0.289635</v>
       </c>
       <c r="D103" t="n">
-        <v>0.226627</v>
+        <v>0.261224</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.241938</v>
+        <v>0.264958</v>
       </c>
       <c r="C104" t="n">
-        <v>0.214042</v>
+        <v>0.302493</v>
       </c>
       <c r="D104" t="n">
-        <v>0.229414</v>
+        <v>0.271172</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.243337</v>
+        <v>0.267699</v>
       </c>
       <c r="C105" t="n">
-        <v>0.216068</v>
+        <v>0.317297</v>
       </c>
       <c r="D105" t="n">
-        <v>0.232384</v>
+        <v>0.272657</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.243195</v>
+        <v>0.268891</v>
       </c>
       <c r="C106" t="n">
-        <v>0.217035</v>
+        <v>0.335899</v>
       </c>
       <c r="D106" t="n">
-        <v>0.235568</v>
+        <v>0.276038</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.24481</v>
+        <v>0.269871</v>
       </c>
       <c r="C107" t="n">
-        <v>0.216257</v>
+        <v>0.362624</v>
       </c>
       <c r="D107" t="n">
-        <v>0.240806</v>
+        <v>0.281353</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.247703</v>
+        <v>0.270682</v>
       </c>
       <c r="C108" t="n">
-        <v>0.222026</v>
+        <v>0.242111</v>
       </c>
       <c r="D108" t="n">
-        <v>0.25979</v>
+        <v>0.321803</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.252438</v>
+        <v>0.277573</v>
       </c>
       <c r="C109" t="n">
-        <v>0.227259</v>
+        <v>0.246979</v>
       </c>
       <c r="D109" t="n">
-        <v>0.26438</v>
+        <v>0.324283</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.277216</v>
+        <v>0.306684</v>
       </c>
       <c r="C110" t="n">
-        <v>0.227528</v>
+        <v>0.253634</v>
       </c>
       <c r="D110" t="n">
-        <v>0.262832</v>
+        <v>0.327045</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.278038</v>
+        <v>0.307999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.229502</v>
+        <v>0.260249</v>
       </c>
       <c r="D111" t="n">
-        <v>0.263654</v>
+        <v>0.329595</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.272358</v>
+        <v>0.304926</v>
       </c>
       <c r="C112" t="n">
-        <v>0.230739</v>
+        <v>0.268891</v>
       </c>
       <c r="D112" t="n">
-        <v>0.26389</v>
+        <v>0.328024</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.280985</v>
+        <v>0.310236</v>
       </c>
       <c r="C113" t="n">
-        <v>0.231935</v>
+        <v>0.278853</v>
       </c>
       <c r="D113" t="n">
-        <v>0.263496</v>
+        <v>0.334395</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.278323</v>
+        <v>0.307503</v>
       </c>
       <c r="C114" t="n">
-        <v>0.234535</v>
+        <v>0.291228</v>
       </c>
       <c r="D114" t="n">
-        <v>0.266401</v>
+        <v>0.337412</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.279307</v>
+        <v>0.307574</v>
       </c>
       <c r="C115" t="n">
-        <v>0.237462</v>
+        <v>0.304006</v>
       </c>
       <c r="D115" t="n">
-        <v>0.269155</v>
+        <v>0.339145</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.273844</v>
+        <v>0.306829</v>
       </c>
       <c r="C116" t="n">
-        <v>0.24077</v>
+        <v>0.319073</v>
       </c>
       <c r="D116" t="n">
-        <v>0.269733</v>
+        <v>0.341515</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.274629</v>
+        <v>0.306984</v>
       </c>
       <c r="C117" t="n">
-        <v>0.241881</v>
+        <v>0.336935</v>
       </c>
       <c r="D117" t="n">
-        <v>0.273316</v>
+        <v>0.345155</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.280827</v>
+        <v>0.30651</v>
       </c>
       <c r="C118" t="n">
-        <v>0.246616</v>
+        <v>0.354765</v>
       </c>
       <c r="D118" t="n">
-        <v>0.278916</v>
+        <v>0.347873</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.279162</v>
+        <v>0.307476</v>
       </c>
       <c r="C119" t="n">
-        <v>0.248044</v>
+        <v>0.378223</v>
       </c>
       <c r="D119" t="n">
-        <v>0.282525</v>
+        <v>0.351804</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.282311</v>
+        <v>0.307613</v>
       </c>
       <c r="C120" t="n">
-        <v>0.251864</v>
+        <v>0.412163</v>
       </c>
       <c r="D120" t="n">
-        <v>0.286399</v>
+        <v>0.353923</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.284844</v>
+        <v>0.310447</v>
       </c>
       <c r="C121" t="n">
-        <v>0.255719</v>
+        <v>0.462146</v>
       </c>
       <c r="D121" t="n">
-        <v>0.291377</v>
+        <v>0.361463</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.286441</v>
+        <v>0.310887</v>
       </c>
       <c r="C122" t="n">
-        <v>0.263008</v>
+        <v>0.257593</v>
       </c>
       <c r="D122" t="n">
-        <v>0.297932</v>
+        <v>0.369171</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.285526</v>
+        <v>0.317194</v>
       </c>
       <c r="C123" t="n">
-        <v>0.269179</v>
+        <v>0.262479</v>
       </c>
       <c r="D123" t="n">
-        <v>0.284864</v>
+        <v>0.362787</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.353494</v>
+        <v>0.397236</v>
       </c>
       <c r="C124" t="n">
-        <v>0.2477</v>
+        <v>0.267198</v>
       </c>
       <c r="D124" t="n">
-        <v>0.286852</v>
+        <v>0.365275</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350515</v>
+        <v>0.397613</v>
       </c>
       <c r="C125" t="n">
-        <v>0.249519</v>
+        <v>0.275061</v>
       </c>
       <c r="D125" t="n">
-        <v>0.289685</v>
+        <v>0.368745</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.352128</v>
+        <v>0.39234</v>
       </c>
       <c r="C126" t="n">
-        <v>0.251289</v>
+        <v>0.283253</v>
       </c>
       <c r="D126" t="n">
-        <v>0.292745</v>
+        <v>0.373032</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.350601</v>
+        <v>0.400124</v>
       </c>
       <c r="C127" t="n">
-        <v>0.253984</v>
+        <v>0.293247</v>
       </c>
       <c r="D127" t="n">
-        <v>0.295017</v>
+        <v>0.375852</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.350876</v>
+        <v>0.398282</v>
       </c>
       <c r="C128" t="n">
-        <v>0.257734</v>
+        <v>0.304565</v>
       </c>
       <c r="D128" t="n">
-        <v>0.297865</v>
+        <v>0.376977</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.350404</v>
+        <v>0.39745</v>
       </c>
       <c r="C129" t="n">
-        <v>0.260491</v>
+        <v>0.318632</v>
       </c>
       <c r="D129" t="n">
-        <v>0.30121</v>
+        <v>0.382321</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.351144</v>
+        <v>0.399167</v>
       </c>
       <c r="C130" t="n">
-        <v>0.264373</v>
+        <v>0.334532</v>
       </c>
       <c r="D130" t="n">
-        <v>0.304967</v>
+        <v>0.384985</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.352345</v>
+        <v>0.396251</v>
       </c>
       <c r="C131" t="n">
-        <v>0.267891</v>
+        <v>0.353176</v>
       </c>
       <c r="D131" t="n">
-        <v>0.308666</v>
+        <v>0.390556</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.352081</v>
+        <v>0.397451</v>
       </c>
       <c r="C132" t="n">
-        <v>0.271569</v>
+        <v>0.374867</v>
       </c>
       <c r="D132" t="n">
-        <v>0.312755</v>
+        <v>0.393733</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.35239</v>
+        <v>0.398245</v>
       </c>
       <c r="C133" t="n">
-        <v>0.275272</v>
+        <v>0.402625</v>
       </c>
       <c r="D133" t="n">
-        <v>0.317556</v>
+        <v>0.399393</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.353953</v>
+        <v>0.395156</v>
       </c>
       <c r="C134" t="n">
-        <v>0.279804</v>
+        <v>0.442605</v>
       </c>
       <c r="D134" t="n">
-        <v>0.322708</v>
+        <v>0.404627</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.353724</v>
+        <v>0.396949</v>
       </c>
       <c r="C135" t="n">
-        <v>0.284454</v>
+        <v>0.514859</v>
       </c>
       <c r="D135" t="n">
-        <v>0.329954</v>
+        <v>0.41274</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.355389</v>
+        <v>0.398149</v>
       </c>
       <c r="C136" t="n">
-        <v>0.291652</v>
+        <v>0.265196</v>
       </c>
       <c r="D136" t="n">
-        <v>0.340121</v>
+        <v>0.423288</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.360366</v>
+        <v>0.40175</v>
       </c>
       <c r="C137" t="n">
-        <v>0.300605</v>
+        <v>0.269488</v>
       </c>
       <c r="D137" t="n">
-        <v>0.306684</v>
+        <v>0.379716</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.414747</v>
+        <v>0.468507</v>
       </c>
       <c r="C138" t="n">
-        <v>0.268202</v>
+        <v>0.275213</v>
       </c>
       <c r="D138" t="n">
-        <v>0.309135</v>
+        <v>0.382499</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.415257</v>
+        <v>0.468355</v>
       </c>
       <c r="C139" t="n">
-        <v>0.269952</v>
+        <v>0.281573</v>
       </c>
       <c r="D139" t="n">
-        <v>0.310528</v>
+        <v>0.385066</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.41557</v>
+        <v>0.468329</v>
       </c>
       <c r="C140" t="n">
-        <v>0.272369</v>
+        <v>0.289892</v>
       </c>
       <c r="D140" t="n">
-        <v>0.312591</v>
+        <v>0.388486</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.414783</v>
+        <v>0.468471</v>
       </c>
       <c r="C141" t="n">
-        <v>0.274522</v>
+        <v>0.297801</v>
       </c>
       <c r="D141" t="n">
-        <v>0.314094</v>
+        <v>0.392445</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.415333</v>
+        <v>0.46824</v>
       </c>
       <c r="C142" t="n">
-        <v>0.277503</v>
+        <v>0.308722</v>
       </c>
       <c r="D142" t="n">
-        <v>0.317061</v>
+        <v>0.396602</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.415376</v>
+        <v>0.463317</v>
       </c>
       <c r="C143" t="n">
-        <v>0.280566</v>
+        <v>0.322462</v>
       </c>
       <c r="D143" t="n">
-        <v>0.319522</v>
+        <v>0.400628</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -93,7 +93,15 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +561,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0198274</v>
+                  <v>0.0196963</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0198243</v>
+                  <v>0.0197664</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0198059</v>
+                  <v>0.0200026</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0199393</v>
+                  <v>0.0201517</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0198465</v>
+                  <v>0.0201028</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0200695</v>
+                  <v>0.0204562</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0203167</v>
+                  <v>0.0206393</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0207984</v>
+                  <v>0.0210339</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.019398</v>
+                  <v>0.0194206</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0196474</v>
+                  <v>0.0195253</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0198002</v>
+                  <v>0.0197643</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0198351</v>
+                  <v>0.019862</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.020005</v>
+                  <v>0.0200936</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201547</v>
+                  <v>0.0201485</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0202387</v>
+                  <v>0.0204092</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0202416</v>
+                  <v>0.0204507</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0205515</v>
+                  <v>0.0206229</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.020734</v>
+                  <v>0.0210343</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0208632</v>
+                  <v>0.0211918</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0212432</v>
+                  <v>0.0215584</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0218651</v>
+                  <v>0.0226513</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0253637</v>
+                  <v>0.0258862</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0203899</v>
+                  <v>0.020452</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0204771</v>
+                  <v>0.0206124</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0206748</v>
+                  <v>0.0207985</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0207843</v>
+                  <v>0.0209652</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0210829</v>
+                  <v>0.0211055</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0211716</v>
+                  <v>0.0213203</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214289</v>
+                  <v>0.0217535</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0215001</v>
+                  <v>0.0218513</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0218002</v>
+                  <v>0.0222928</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0221683</v>
+                  <v>0.0226911</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0231472</v>
+                  <v>0.0235535</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0257742</v>
+                  <v>0.0253242</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0289348</v>
+                  <v>0.0277768</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0322824</v>
+                  <v>0.0318669</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0214691</v>
+                  <v>0.0214937</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0217903</v>
+                  <v>0.0216708</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0219112</v>
+                  <v>0.0218145</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0219809</v>
+                  <v>0.0221247</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0221479</v>
+                  <v>0.0222181</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0224448</v>
+                  <v>0.0224512</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.02262</v>
+                  <v>0.022927</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0231701</v>
+                  <v>0.0232657</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0235929</v>
+                  <v>0.0238669</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.024466</v>
+                  <v>0.0247955</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0257139</v>
+                  <v>0.0260839</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0282271</v>
+                  <v>0.0280282</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0303257</v>
+                  <v>0.0309436</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0351291</v>
+                  <v>0.0352915</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0408898</v>
+                  <v>0.0413191</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0231879</v>
+                  <v>0.0232368</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233257</v>
+                  <v>0.0234077</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0235135</v>
+                  <v>0.0234742</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0237414</v>
+                  <v>0.0236931</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0239179</v>
+                  <v>0.0240065</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0244805</v>
+                  <v>0.0243635</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0248999</v>
+                  <v>0.024742</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0254771</v>
+                  <v>0.0254421</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0265139</v>
+                  <v>0.0265507</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0280363</v>
+                  <v>0.0278997</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0300505</v>
+                  <v>0.0300643</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0328613</v>
+                  <v>0.0326618</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.036562</v>
+                  <v>0.0366612</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0420912</v>
+                  <v>0.0418935</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0291857</v>
+                  <v>0.0281649</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0293683</v>
+                  <v>0.0283172</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0294951</v>
+                  <v>0.028481</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.029813</v>
+                  <v>0.0286097</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0300128</v>
+                  <v>0.0290029</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302796</v>
+                  <v>0.0293089</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030801</v>
+                  <v>0.0298234</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.031446</v>
+                  <v>0.0304538</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0324341</v>
+                  <v>0.0316262</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0335695</v>
+                  <v>0.0328268</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0353551</v>
+                  <v>0.034701</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0378182</v>
+                  <v>0.0373006</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0410501</v>
+                  <v>0.0405111</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0456478</v>
+                  <v>0.0453079</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0552817</v>
+                  <v>0.0556282</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0555326</v>
+                  <v>0.0556663</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0556777</v>
+                  <v>0.0556563</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0557553</v>
+                  <v>0.0557576</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0559421</v>
+                  <v>0.0561199</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0562511</v>
+                  <v>0.0563284</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.056543</v>
+                  <v>0.0566175</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.056954</v>
+                  <v>0.0569801</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0573628</v>
+                  <v>0.0575295</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0581532</v>
+                  <v>0.0584884</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0593444</v>
+                  <v>0.059328</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0607396</v>
+                  <v>0.0609849</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.06325</v>
+                  <v>0.06332119999999999</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0670234</v>
+                  <v>0.06701559999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.086252</v>
+                  <v>0.08579050000000001</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0863121</v>
+                  <v>0.085844</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08631</v>
+                  <v>0.0859253</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08640920000000001</v>
+                  <v>0.0859871</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0864456</v>
+                  <v>0.0861041</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.08653959999999999</v>
+                  <v>0.08631809999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0867363</v>
+                  <v>0.0864688</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0870079</v>
+                  <v>0.087584</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0874346</v>
+                  <v>0.0871972</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0880908</v>
+                  <v>0.08776539999999999</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08892</v>
+                  <v>0.0885425</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0899819</v>
+                  <v>0.0897765</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0920994</v>
+                  <v>0.0918954</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0950337</v>
+                  <v>0.0951462</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.100164</v>
+                  <v>0.100134</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.113889</v>
+                  <v>0.107276</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.114021</v>
+                  <v>0.107381</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.114114</v>
+                  <v>0.10763</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.114157</v>
+                  <v>0.10747</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.114198</v>
+                  <v>0.107654</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.114387</v>
+                  <v>0.108084</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.114667</v>
+                  <v>0.108774</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.115047</v>
+                  <v>0.109483</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.115835</v>
+                  <v>0.110216</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.116215</v>
+                  <v>0.111529</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.117455</v>
+                  <v>0.123333</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.119136</v>
+                  <v>0.114818</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.122216</v>
+                  <v>0.117767</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.130657</v>
+                  <v>0.122643</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.140904</v>
+                  <v>0.140956</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.140713</v>
+                  <v>0.141254</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.140603</v>
+                  <v>0.141098</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.140544</v>
+                  <v>0.141288</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.140461</v>
+                  <v>0.136251</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.140955</v>
+                  <v>0.1347</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.142695</v>
+                  <v>0.134998</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.141111</v>
+                  <v>0.135211</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.141474</v>
+                  <v>0.135722</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.141584</v>
+                  <v>0.136719</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.144383</v>
+                  <v>0.138058</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.144338</v>
+                  <v>0.138669</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.146809</v>
+                  <v>0.146036</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.150574</v>
+                  <v>0.147156</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.157534</v>
+                  <v>0.159468</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.15768</v>
+                  <v>0.157919</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.157841</v>
+                  <v>0.157814</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.170985</v>
+                  <v>0.158306</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158043</v>
+                  <v>0.158314</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.158496</v>
+                  <v>0.158718</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +995,15 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>ankerl::unordered_dense::map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1463,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.01963</v>
+                  <v>0.0370058</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0195504</v>
+                  <v>0.0418052</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0196026</v>
+                  <v>0.0487309</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0196237</v>
+                  <v>0.057161</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0194434</v>
+                  <v>0.0638789</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0196089</v>
+                  <v>0.07558529999999999</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0196438</v>
+                  <v>0.0263746</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.019683</v>
+                  <v>0.0290195</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0206908</v>
+                  <v>0.0319614</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0208145</v>
+                  <v>0.0351258</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0208233</v>
+                  <v>0.0398863</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0208079</v>
+                  <v>0.0439152</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0210678</v>
+                  <v>0.0487144</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0211339</v>
+                  <v>0.0551437</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.021293</v>
+                  <v>0.0637769</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0213755</v>
+                  <v>0.0718377</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0214194</v>
+                  <v>0.081882</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0216061</v>
+                  <v>0.09108090000000001</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0216834</v>
+                  <v>0.0974773</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0216891</v>
+                  <v>0.106323</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.021814</v>
+                  <v>0.0397852</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.02224</v>
+                  <v>0.0423426</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0218223</v>
+                  <v>0.0452109</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.021951</v>
+                  <v>0.0487996</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0222832</v>
+                  <v>0.0527075</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0225478</v>
+                  <v>0.0566831</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0226653</v>
+                  <v>0.06295779999999999</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0228678</v>
+                  <v>0.0682238</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0232795</v>
+                  <v>0.0771483</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0234118</v>
+                  <v>0.08561050000000001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0236239</v>
+                  <v>0.0935257</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0237577</v>
+                  <v>0.103656</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0245297</v>
+                  <v>0.113227</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0248515</v>
+                  <v>0.123492</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0259781</v>
+                  <v>0.13034</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.028096</v>
+                  <v>0.0509253</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0231379</v>
+                  <v>0.0528575</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0235392</v>
+                  <v>0.0577256</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0237383</v>
+                  <v>0.0607325</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0240298</v>
+                  <v>0.0659752</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0242845</v>
+                  <v>0.0703324</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0248099</v>
+                  <v>0.0767769</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0251381</v>
+                  <v>0.08390450000000001</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0255035</v>
+                  <v>0.0925863</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.026017</v>
+                  <v>0.101274</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0265204</v>
+                  <v>0.11083</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0273233</v>
+                  <v>0.118478</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0288886</v>
+                  <v>0.125043</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0309086</v>
+                  <v>0.133906</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.035125</v>
+                  <v>0.0529698</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0395813</v>
+                  <v>0.0564495</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0250602</v>
+                  <v>0.0593078</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0252618</v>
+                  <v>0.0635886</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0256001</v>
+                  <v>0.0686663</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0259637</v>
+                  <v>0.07259549999999999</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0263006</v>
+                  <v>0.07936020000000001</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0266533</v>
+                  <v>0.08643149999999999</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.027142</v>
+                  <v>0.09494660000000001</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0277574</v>
+                  <v>0.104919</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0284471</v>
+                  <v>0.114287</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0293755</v>
+                  <v>0.122709</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0310293</v>
+                  <v>0.129562</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0333401</v>
+                  <v>0.137533</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0369138</v>
+                  <v>0.0546936</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0422301</v>
+                  <v>0.0582601</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.027755</v>
+                  <v>0.0617354</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.028318</v>
+                  <v>0.0656432</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0282048</v>
+                  <v>0.07027899999999999</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0288949</v>
+                  <v>0.07689410000000001</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0291466</v>
+                  <v>0.0822326</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0296631</v>
+                  <v>0.0895243</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0302154</v>
+                  <v>0.097702</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0308858</v>
+                  <v>0.107574</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0317299</v>
+                  <v>0.117728</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0327248</v>
+                  <v>0.127246</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0344036</v>
+                  <v>0.134567</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0365419</v>
+                  <v>0.142834</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0395077</v>
+                  <v>0.064026</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0440142</v>
+                  <v>0.0678048</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0384812</v>
+                  <v>0.0717135</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0393181</v>
+                  <v>0.0761748</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0400471</v>
+                  <v>0.0812459</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0410283</v>
+                  <v>0.0872613</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0422285</v>
+                  <v>0.0936657</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0436636</v>
+                  <v>0.101731</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0450427</v>
+                  <v>0.111373</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0465122</v>
+                  <v>0.122588</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.048317</v>
+                  <v>0.133557</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0499665</v>
+                  <v>0.145035</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0516792</v>
+                  <v>0.154768</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0540677</v>
+                  <v>0.165492</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0567184</v>
+                  <v>0.17807</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0613213</v>
+                  <v>0.08862009999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.07599069999999999</v>
+                  <v>0.0928022</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0765213</v>
+                  <v>0.0974573</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0769676</v>
+                  <v>0.102899</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.07758429999999999</v>
+                  <v>0.109426</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0782827</v>
+                  <v>0.117126</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0789179</v>
+                  <v>0.126086</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.07968980000000001</v>
+                  <v>0.137067</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0805656</v>
+                  <v>0.149677</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0816693</v>
+                  <v>0.163346</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0863792</v>
+                  <v>0.177727</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08411639999999999</v>
+                  <v>0.192176</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0859486</v>
+                  <v>0.209788</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.08840779999999999</v>
+                  <v>0.241063</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0922501</v>
+                  <v>0.111904</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0984163</v>
+                  <v>0.106764</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0907982</v>
+                  <v>0.110996</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0916492</v>
+                  <v>0.116155</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.092555</v>
+                  <v>0.123372</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0937095</v>
+                  <v>0.12867</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09565650000000001</v>
+                  <v>0.138409</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.103513</v>
+                  <v>0.146729</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0973205</v>
+                  <v>0.159703</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0988463</v>
+                  <v>0.171725</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.100303</v>
+                  <v>0.189215</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.102148</v>
+                  <v>0.206254</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.104312</v>
+                  <v>0.232862</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.107029</v>
+                  <v>0.300725</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.111037</v>
+                  <v>0.111313</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.116985</v>
+                  <v>0.114762</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.102804</v>
+                  <v>0.118709</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.108721</v>
+                  <v>0.123239</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.105795</v>
+                  <v>0.128603</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.107499</v>
+                  <v>0.134652</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.109135</v>
+                  <v>0.144169</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.111421</v>
+                  <v>0.150707</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.113514</v>
+                  <v>0.163675</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.114964</v>
+                  <v>0.174482</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.116895</v>
+                  <v>0.19273</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.119313</v>
+                  <v>0.211146</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.121782</v>
+                  <v>0.248366</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.124925</v>
+                  <v>0.325236</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.12911</v>
+                  <v>0.115816</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.135094</v>
+                  <v>0.119248</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.116615</v>
+                  <v>0.123083</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.118091</v>
+                  <v>0.127447</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.119623</v>
+                  <v>0.132918</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.121247</v>
+                  <v>0.139793</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.122801</v>
+                  <v>0.146881</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.12453</v>
+                  <v>0.154942</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1897,15 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>foa_unordered_rc15_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2365,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0210661</v>
+                  <v>0.0228125</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0210821</v>
+                  <v>0.0226735</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0210432</v>
+                  <v>0.022881</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0210228</v>
+                  <v>0.0228038</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0211017</v>
+                  <v>0.0230981</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.021451</v>
+                  <v>0.0232579</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0215967</v>
+                  <v>0.0235219</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.021032</v>
+                  <v>0.0223514</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.021237</v>
+                  <v>0.0232438</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0214398</v>
+                  <v>0.0227364</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0216389</v>
+                  <v>0.0231432</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0217625</v>
+                  <v>0.0234719</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0220811</v>
+                  <v>0.0235736</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0221537</v>
+                  <v>0.0239307</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0222621</v>
+                  <v>0.0240582</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022351</v>
+                  <v>0.0241979</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0223659</v>
+                  <v>0.0242753</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0223994</v>
+                  <v>0.0244821</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0224787</v>
+                  <v>0.0247755</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0225969</v>
+                  <v>0.0250051</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0229866</v>
+                  <v>0.0262359</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0222081</v>
+                  <v>0.0230816</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0224424</v>
+                  <v>0.0233082</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0227148</v>
+                  <v>0.0236264</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0228976</v>
+                  <v>0.0238223</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0231426</v>
+                  <v>0.0242118</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0233641</v>
+                  <v>0.0245034</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0236678</v>
+                  <v>0.0247956</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0238622</v>
+                  <v>0.0251358</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0240883</v>
+                  <v>0.0254192</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0241209</v>
+                  <v>0.025719</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0243341</v>
+                  <v>0.0260563</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0249996</v>
+                  <v>0.0271309</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0258005</v>
+                  <v>0.0289687</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0317443</v>
+                  <v>0.0327012</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0233782</v>
+                  <v>0.0240634</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0235387</v>
+                  <v>0.0243796</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0237574</v>
+                  <v>0.0245387</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0240607</v>
+                  <v>0.0247873</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0243991</v>
+                  <v>0.0250755</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0246515</v>
+                  <v>0.0252754</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0249339</v>
+                  <v>0.0257843</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0252916</v>
+                  <v>0.0261995</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0255331</v>
+                  <v>0.0266811</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0260222</v>
+                  <v>0.0271738</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0266838</v>
+                  <v>0.0278438</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0278203</v>
+                  <v>0.0291553</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0305126</v>
+                  <v>0.0325561</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0344632</v>
+                  <v>0.0358238</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0242031</v>
+                  <v>0.0243208</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0243873</v>
+                  <v>0.0245637</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0246308</v>
+                  <v>0.0248053</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0248962</v>
+                  <v>0.0250541</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0251551</v>
+                  <v>0.0253017</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0255061</v>
+                  <v>0.0258172</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.025758</v>
+                  <v>0.0261726</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0261621</v>
+                  <v>0.0266081</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0266822</v>
+                  <v>0.0271423</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.027176</v>
+                  <v>0.0280035</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0279736</v>
+                  <v>0.02913</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0294383</v>
+                  <v>0.0307407</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0324535</v>
+                  <v>0.0332634</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0364486</v>
+                  <v>0.0376615</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.042747</v>
+                  <v>0.0436362</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0261578</v>
+                  <v>0.0266204</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0266345</v>
+                  <v>0.0269618</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0270048</v>
+                  <v>0.0273013</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0274462</v>
+                  <v>0.0276864</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0276478</v>
+                  <v>0.0282598</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0280925</v>
+                  <v>0.0286701</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0295698</v>
+                  <v>0.0289658</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0301268</v>
+                  <v>0.0296943</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0308125</v>
+                  <v>0.0308191</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0310039</v>
+                  <v>0.0320137</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0325978</v>
+                  <v>0.0337115</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0358014</v>
+                  <v>0.0362699</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0390005</v>
+                  <v>0.0399167</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0449875</v>
+                  <v>0.0449066</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0407134</v>
+                  <v>0.0395087</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0414223</v>
+                  <v>0.0404645</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0420164</v>
+                  <v>0.0415858</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0428758</v>
+                  <v>0.0423343</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0435859</v>
+                  <v>0.0424792</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0441158</v>
+                  <v>0.043633</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0451214</v>
+                  <v>0.0447561</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.045933</v>
+                  <v>0.0453725</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0468684</v>
+                  <v>0.0460016</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0477272</v>
+                  <v>0.0469517</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0490508</v>
+                  <v>0.0487554</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0513003</v>
+                  <v>0.0506627</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0542639</v>
+                  <v>0.0536386</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0587909</v>
+                  <v>0.058453</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.08060109999999999</v>
+                  <v>0.0785825</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.08116420000000001</v>
+                  <v>0.0789784</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0815678</v>
+                  <v>0.07963629999999999</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08204690000000001</v>
+                  <v>0.0799203</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08264589999999999</v>
+                  <v>0.0804226</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0832561</v>
+                  <v>0.0810888</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0837205</v>
+                  <v>0.0818702</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0845051</v>
+                  <v>0.0822594</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.08527559999999999</v>
+                  <v>0.0861224</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0864844</v>
+                  <v>0.08439530000000001</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0876881</v>
+                  <v>0.0860368</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08924799999999999</v>
+                  <v>0.0872131</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.096528</v>
+                  <v>0.0897109</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0955449</v>
+                  <v>0.0933244</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0975452</v>
+                  <v>0.09642630000000001</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0983436</v>
+                  <v>0.0977301</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0990383</v>
+                  <v>0.0987176</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.09986689999999999</v>
+                  <v>0.0995547</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.100985</v>
+                  <v>0.100355</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.101987</v>
+                  <v>0.101544</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.102746</v>
+                  <v>0.102478</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.10438</v>
+                  <v>0.103852</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.105384</v>
+                  <v>0.10514</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.106778</v>
+                  <v>0.106707</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.108591</v>
+                  <v>0.107111</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.110691</v>
+                  <v>0.110501</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.113494</v>
+                  <v>0.113388</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.117535</v>
+                  <v>0.117326</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.123795</v>
+                  <v>0.123656</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.115482</v>
+                  <v>0.113449</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.116645</v>
+                  <v>0.114553</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.1179</v>
+                  <v>0.115303</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.119136</v>
+                  <v>0.116783</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.12028</v>
+                  <v>0.11776</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.121788</v>
+                  <v>0.11949</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.123885</v>
+                  <v>0.120603</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.125833</v>
+                  <v>0.122672</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.1268</v>
+                  <v>0.124019</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.129052</v>
+                  <v>0.126</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.132444</v>
+                  <v>0.128612</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.134565</v>
+                  <v>0.131664</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.138824</v>
+                  <v>0.135936</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.145371</v>
+                  <v>0.14231</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.129339</v>
+                  <v>0.125329</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.130682</v>
+                  <v>0.126594</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.131871</v>
+                  <v>0.127683</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.133153</v>
+                  <v>0.128925</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.134562</v>
+                  <v>0.130349</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.135784</v>
+                  <v>0.131775</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.137311</v>
+                  <v>0.133565</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3216,14 +3240,14 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="7" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3234,7 +3258,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>ankerl::unordered_dense::map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0409056</v>
+        <v>0.0409212</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0361037</v>
+        <v>0.0366073</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0428421</v>
+        <v>0.0406185</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0412543</v>
+        <v>0.0411824</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0363817</v>
+        <v>0.0364858</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0430754</v>
+        <v>0.0408327</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0415226</v>
+        <v>0.0410946</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0365773</v>
+        <v>0.0373126</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0433299</v>
+        <v>0.0411216</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0414623</v>
+        <v>0.0413552</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0374107</v>
+        <v>0.0376223</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0435477</v>
+        <v>0.0414447</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0418279</v>
+        <v>0.0414481</v>
       </c>
       <c r="C6" t="n">
-        <v>0.036845</v>
+        <v>0.0377902</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0439629</v>
+        <v>0.0419944</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0416407</v>
+        <v>0.0415522</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0379952</v>
+        <v>0.0381552</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0447006</v>
+        <v>0.043418</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0418158</v>
+        <v>0.0416604</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0389454</v>
+        <v>0.0388443</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0457534</v>
+        <v>0.0455204</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0421746</v>
+        <v>0.0422252</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0401616</v>
+        <v>0.0399843</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0451362</v>
+        <v>0.04426</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.045921</v>
+        <v>0.0460111</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0397481</v>
+        <v>0.039757</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0454915</v>
+        <v>0.0446577</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0460147</v>
+        <v>0.0456296</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04053</v>
+        <v>0.0404613</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0458067</v>
+        <v>0.0448905</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0461253</v>
+        <v>0.0456999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0409281</v>
+        <v>0.0406952</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0460969</v>
+        <v>0.045121</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0461792</v>
+        <v>0.0457928</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0406125</v>
+        <v>0.0409979</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0464259</v>
+        <v>0.0453796</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0460235</v>
+        <v>0.0458789</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0414985</v>
+        <v>0.0412036</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0467972</v>
+        <v>0.0456627</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0461257</v>
+        <v>0.046034</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0417853</v>
+        <v>0.0415132</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0470839</v>
+        <v>0.0459163</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0462726</v>
+        <v>0.046151</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0419881</v>
+        <v>0.0418095</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0475229</v>
+        <v>0.0461228</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.046383</v>
+        <v>0.0462891</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0420419</v>
+        <v>0.0421602</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0478523</v>
+        <v>0.0464215</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.046573</v>
+        <v>0.0464566</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0423474</v>
+        <v>0.0423287</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0481577</v>
+        <v>0.0467923</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0467261</v>
+        <v>0.0466085</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0427985</v>
+        <v>0.0427046</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0485784</v>
+        <v>0.0472758</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0467362</v>
+        <v>0.0468029</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0432842</v>
+        <v>0.0431477</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0489966</v>
+        <v>0.0480839</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0470656</v>
+        <v>0.0469185</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0440313</v>
+        <v>0.043649</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0501585</v>
+        <v>0.0500217</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0472725</v>
+        <v>0.0472296</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0451108</v>
+        <v>0.0454998</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0530201</v>
+        <v>0.0551501</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0476615</v>
+        <v>0.0476438</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0503934</v>
+        <v>0.0526819</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0481311</v>
+        <v>0.0468714</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0487621</v>
+        <v>0.0491387</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0434647</v>
+        <v>0.0428805</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0487241</v>
+        <v>0.0472521</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0488453</v>
+        <v>0.0489824</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0435937</v>
+        <v>0.04317</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0487309</v>
+        <v>0.0475436</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0489231</v>
+        <v>0.0490613</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0439587</v>
+        <v>0.0434076</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0490674</v>
+        <v>0.0478361</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0489491</v>
+        <v>0.0490849</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0441262</v>
+        <v>0.0435663</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0494572</v>
+        <v>0.0481246</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0490499</v>
+        <v>0.0492187</v>
       </c>
       <c r="C28" t="n">
-        <v>0.044726</v>
+        <v>0.0440789</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0497941</v>
+        <v>0.0483895</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0491889</v>
+        <v>0.049324</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0450942</v>
+        <v>0.0443787</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0501362</v>
+        <v>0.0487055</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0493086</v>
+        <v>0.0494659</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0453114</v>
+        <v>0.0448187</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0507409</v>
+        <v>0.0490803</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0494971</v>
+        <v>0.0496572</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04524</v>
+        <v>0.0450373</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0508601</v>
+        <v>0.0494296</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0496204</v>
+        <v>0.0497975</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0458572</v>
+        <v>0.0455444</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0513374</v>
+        <v>0.0499488</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0498143</v>
+        <v>0.0499909</v>
       </c>
       <c r="C33" t="n">
-        <v>0.046439</v>
+        <v>0.0457628</v>
       </c>
       <c r="D33" t="n">
-        <v>0.052129</v>
+        <v>0.0510662</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0498883</v>
+        <v>0.0501124</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0468054</v>
+        <v>0.0463349</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0527636</v>
+        <v>0.053138</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0501513</v>
+        <v>0.0503907</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0484736</v>
+        <v>0.0506946</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0562936</v>
+        <v>0.057223</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0504927</v>
+        <v>0.050703</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0537293</v>
+        <v>0.0560964</v>
       </c>
       <c r="D36" t="n">
-        <v>0.063321</v>
+        <v>0.064008</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0520231</v>
+        <v>0.0520792</v>
       </c>
       <c r="C37" t="n">
-        <v>0.061298</v>
+        <v>0.06294810000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.052289</v>
+        <v>0.0521519</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0561561</v>
+        <v>0.0555842</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0477574</v>
+        <v>0.0482827</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0526735</v>
+        <v>0.0514056</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0551839</v>
+        <v>0.0544032</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0478345</v>
+        <v>0.0482018</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0521134</v>
+        <v>0.0532265</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0552474</v>
+        <v>0.05449</v>
       </c>
       <c r="C40" t="n">
-        <v>0.048337</v>
+        <v>0.0486443</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0530321</v>
+        <v>0.0534648</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0553212</v>
+        <v>0.0545751</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0485702</v>
+        <v>0.0491323</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0536537</v>
+        <v>0.0537195</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0554209</v>
+        <v>0.0546889</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0489836</v>
+        <v>0.0494658</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0537794</v>
+        <v>0.0534351</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0555186</v>
+        <v>0.0547501</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0493299</v>
+        <v>0.0498721</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0538672</v>
+        <v>0.0543639</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0556616</v>
+        <v>0.0548686</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0498618</v>
+        <v>0.0501681</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0548545</v>
+        <v>0.0546887</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0558059</v>
+        <v>0.0550694</v>
       </c>
       <c r="C45" t="n">
-        <v>0.050149</v>
+        <v>0.0507068</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0550475</v>
+        <v>0.055527</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0559245</v>
+        <v>0.0551503</v>
       </c>
       <c r="C46" t="n">
-        <v>0.050787</v>
+        <v>0.0520153</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0557804</v>
+        <v>0.0559048</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0560961</v>
+        <v>0.0553405</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0524147</v>
+        <v>0.0539897</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0567749</v>
+        <v>0.0592689</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0563595</v>
+        <v>0.0555768</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0546227</v>
+        <v>0.0567079</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0601524</v>
+        <v>0.0621329</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0566449</v>
+        <v>0.0559317</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0574393</v>
+        <v>0.0593681</v>
       </c>
       <c r="D49" t="n">
-        <v>0.06289640000000001</v>
+        <v>0.06567530000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0580551</v>
+        <v>0.0573775</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0606922</v>
+        <v>0.0626095</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0680915</v>
+        <v>0.0695503</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0621884</v>
+        <v>0.0613093</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0656075</v>
+        <v>0.0671976</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0562613</v>
+        <v>0.0565421</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.06740939999999999</v>
+        <v>0.066561</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0724967</v>
+        <v>0.07422330000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0568902</v>
+        <v>0.0564555</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0610355</v>
+        <v>0.0614289</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0482172</v>
+        <v>0.0484232</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0569868</v>
+        <v>0.0565627</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0608204</v>
+        <v>0.0611923</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0487952</v>
+        <v>0.0488674</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0555297</v>
+        <v>0.0557646</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0610742</v>
+        <v>0.0612354</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0497289</v>
+        <v>0.0489226</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0578697</v>
+        <v>0.0580538</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0609924</v>
+        <v>0.061371</v>
       </c>
       <c r="C56" t="n">
-        <v>0.049809</v>
+        <v>0.0499597</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0563333</v>
+        <v>0.056324</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0611419</v>
+        <v>0.0615651</v>
       </c>
       <c r="C57" t="n">
-        <v>0.050451</v>
+        <v>0.0503033</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0582339</v>
+        <v>0.0587642</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0612857</v>
+        <v>0.0616533</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0513638</v>
+        <v>0.0507937</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0592298</v>
+        <v>0.0601269</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0614559</v>
+        <v>0.0618526</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0525473</v>
+        <v>0.0523916</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0601796</v>
+        <v>0.0596009</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.061609</v>
+        <v>0.0620344</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0535539</v>
+        <v>0.053843</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0593507</v>
+        <v>0.0613078</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0619139</v>
+        <v>0.062245</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0546778</v>
+        <v>0.0553485</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0617372</v>
+        <v>0.0642768</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0622898</v>
+        <v>0.06266679999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0566664</v>
+        <v>0.0579115</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0647629</v>
+        <v>0.064568</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.06334140000000001</v>
+        <v>0.0637426</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0590411</v>
+        <v>0.0598002</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0677232</v>
+        <v>0.06887509999999999</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.06548619999999999</v>
+        <v>0.0657363</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0617707</v>
+        <v>0.06290709999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0728741</v>
+        <v>0.0734216</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0681635</v>
+        <v>0.0685558</v>
       </c>
       <c r="C65" t="n">
-        <v>0.06587800000000001</v>
+        <v>0.06685720000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.07843020000000001</v>
+        <v>0.0799023</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0723781</v>
+        <v>0.07277260000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.07207040000000001</v>
+        <v>0.073251</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0596397</v>
+        <v>0.0597017</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0715591</v>
+        <v>0.0711362</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0553292</v>
+        <v>0.0545131</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0598308</v>
+        <v>0.0600111</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0716905</v>
+        <v>0.0713022</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0558315</v>
+        <v>0.0550485</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0602256</v>
+        <v>0.0607382</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.07195940000000001</v>
+        <v>0.07193280000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0563653</v>
+        <v>0.0556552</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0607529</v>
+        <v>0.0606615</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0721521</v>
+        <v>0.0724175</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0568619</v>
+        <v>0.0563381</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0613712</v>
+        <v>0.0612185</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0725248</v>
+        <v>0.0723406</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0575497</v>
+        <v>0.056996</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0619119</v>
+        <v>0.062538</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07264329999999999</v>
+        <v>0.0727627</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0582543</v>
+        <v>0.0578612</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0626004</v>
+        <v>0.0635212</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0727216</v>
+        <v>0.0731731</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0591896</v>
+        <v>0.0589417</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0636372</v>
+        <v>0.0647293</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0729697</v>
+        <v>0.0735666</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0606092</v>
+        <v>0.0603372</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0649868</v>
+        <v>0.0660925</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0734094</v>
+        <v>0.07371519999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0617131</v>
+        <v>0.0618687</v>
       </c>
       <c r="D75" t="n">
-        <v>0.06670189999999999</v>
+        <v>0.0676674</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0736462</v>
+        <v>0.0741898</v>
       </c>
       <c r="C76" t="n">
-        <v>0.06310200000000001</v>
+        <v>0.0634822</v>
       </c>
       <c r="D76" t="n">
-        <v>0.06873849999999999</v>
+        <v>0.06959509999999999</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0751513</v>
+        <v>0.0754112</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0650773</v>
+        <v>0.0657927</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0715343</v>
+        <v>0.0721878</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0766501</v>
+        <v>0.07686510000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.06763710000000001</v>
+        <v>0.06869500000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0752666</v>
+        <v>0.0761515</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.07905</v>
+        <v>0.0791924</v>
       </c>
       <c r="C79" t="n">
-        <v>0.07134799999999999</v>
+        <v>0.0725392</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0812441</v>
+        <v>0.08198220000000001</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0825683</v>
+        <v>0.0827016</v>
       </c>
       <c r="C80" t="n">
-        <v>0.07678450000000001</v>
+        <v>0.0780594</v>
       </c>
       <c r="D80" t="n">
-        <v>0.105586</v>
+        <v>0.108327</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.173632</v>
+        <v>0.175794</v>
       </c>
       <c r="C81" t="n">
-        <v>0.138114</v>
+        <v>0.138334</v>
       </c>
       <c r="D81" t="n">
-        <v>0.107755</v>
+        <v>0.11045</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.172659</v>
+        <v>0.172468</v>
       </c>
       <c r="C82" t="n">
-        <v>0.139622</v>
+        <v>0.138708</v>
       </c>
       <c r="D82" t="n">
-        <v>0.108099</v>
+        <v>0.109491</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.175374</v>
+        <v>0.174205</v>
       </c>
       <c r="C83" t="n">
-        <v>0.140217</v>
+        <v>0.139653</v>
       </c>
       <c r="D83" t="n">
-        <v>0.113186</v>
+        <v>0.112635</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.175317</v>
+        <v>0.17491</v>
       </c>
       <c r="C84" t="n">
-        <v>0.139568</v>
+        <v>0.139205</v>
       </c>
       <c r="D84" t="n">
-        <v>0.11545</v>
+        <v>0.113507</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.17605</v>
+        <v>0.176619</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1413</v>
+        <v>0.139921</v>
       </c>
       <c r="D85" t="n">
-        <v>0.117875</v>
+        <v>0.117776</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.174686</v>
+        <v>0.176007</v>
       </c>
       <c r="C86" t="n">
-        <v>0.139697</v>
+        <v>0.140807</v>
       </c>
       <c r="D86" t="n">
-        <v>0.116426</v>
+        <v>0.118847</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.177265</v>
+        <v>0.1759</v>
       </c>
       <c r="C87" t="n">
-        <v>0.141256</v>
+        <v>0.141951</v>
       </c>
       <c r="D87" t="n">
-        <v>0.120976</v>
+        <v>0.120872</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.175964</v>
+        <v>0.177182</v>
       </c>
       <c r="C88" t="n">
-        <v>0.143032</v>
+        <v>0.143329</v>
       </c>
       <c r="D88" t="n">
-        <v>0.122593</v>
+        <v>0.123447</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.177742</v>
+        <v>0.177922</v>
       </c>
       <c r="C89" t="n">
-        <v>0.142287</v>
+        <v>0.143234</v>
       </c>
       <c r="D89" t="n">
-        <v>0.124664</v>
+        <v>0.122793</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.177927</v>
+        <v>0.178459</v>
       </c>
       <c r="C90" t="n">
-        <v>0.14423</v>
+        <v>0.145268</v>
       </c>
       <c r="D90" t="n">
-        <v>0.126851</v>
+        <v>0.126619</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.178874</v>
+        <v>0.179244</v>
       </c>
       <c r="C91" t="n">
-        <v>0.144917</v>
+        <v>0.145136</v>
       </c>
       <c r="D91" t="n">
-        <v>0.129006</v>
+        <v>0.126321</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.179</v>
+        <v>0.179792</v>
       </c>
       <c r="C92" t="n">
-        <v>0.148174</v>
+        <v>0.148624</v>
       </c>
       <c r="D92" t="n">
-        <v>0.134459</v>
+        <v>0.132743</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181248</v>
+        <v>0.180986</v>
       </c>
       <c r="C93" t="n">
-        <v>0.149619</v>
+        <v>0.151021</v>
       </c>
       <c r="D93" t="n">
-        <v>0.138382</v>
+        <v>0.137242</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.184586</v>
+        <v>0.183641</v>
       </c>
       <c r="C94" t="n">
-        <v>0.15556</v>
+        <v>0.155356</v>
       </c>
       <c r="D94" t="n">
-        <v>0.211651</v>
+        <v>0.200624</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.242409</v>
+        <v>0.2436</v>
       </c>
       <c r="C95" t="n">
-        <v>0.203124</v>
+        <v>0.204452</v>
       </c>
       <c r="D95" t="n">
-        <v>0.212794</v>
+        <v>0.205961</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.242129</v>
+        <v>0.240651</v>
       </c>
       <c r="C96" t="n">
-        <v>0.203946</v>
+        <v>0.205065</v>
       </c>
       <c r="D96" t="n">
-        <v>0.214446</v>
+        <v>0.214905</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.241966</v>
+        <v>0.240914</v>
       </c>
       <c r="C97" t="n">
-        <v>0.20393</v>
+        <v>0.206621</v>
       </c>
       <c r="D97" t="n">
-        <v>0.215865</v>
+        <v>0.216871</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.242115</v>
+        <v>0.242</v>
       </c>
       <c r="C98" t="n">
-        <v>0.205504</v>
+        <v>0.20721</v>
       </c>
       <c r="D98" t="n">
-        <v>0.217289</v>
+        <v>0.218002</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.242221</v>
+        <v>0.243378</v>
       </c>
       <c r="C99" t="n">
-        <v>0.206922</v>
+        <v>0.202606</v>
       </c>
       <c r="D99" t="n">
-        <v>0.220437</v>
+        <v>0.221011</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.241507</v>
+        <v>0.243131</v>
       </c>
       <c r="C100" t="n">
-        <v>0.207676</v>
+        <v>0.210246</v>
       </c>
       <c r="D100" t="n">
-        <v>0.220576</v>
+        <v>0.221334</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.242166</v>
+        <v>0.243507</v>
       </c>
       <c r="C101" t="n">
-        <v>0.20913</v>
+        <v>0.206307</v>
       </c>
       <c r="D101" t="n">
-        <v>0.223142</v>
+        <v>0.224371</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.242602</v>
+        <v>0.243309</v>
       </c>
       <c r="C102" t="n">
-        <v>0.210733</v>
+        <v>0.213031</v>
       </c>
       <c r="D102" t="n">
-        <v>0.224997</v>
+        <v>0.219681</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.242283</v>
+        <v>0.243664</v>
       </c>
       <c r="C103" t="n">
-        <v>0.212113</v>
+        <v>0.215012</v>
       </c>
       <c r="D103" t="n">
-        <v>0.226627</v>
+        <v>0.221873</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.241938</v>
+        <v>0.243666</v>
       </c>
       <c r="C104" t="n">
-        <v>0.214042</v>
+        <v>0.217614</v>
       </c>
       <c r="D104" t="n">
-        <v>0.229414</v>
+        <v>0.23035</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.243337</v>
+        <v>0.244741</v>
       </c>
       <c r="C105" t="n">
-        <v>0.216068</v>
+        <v>0.219566</v>
       </c>
       <c r="D105" t="n">
-        <v>0.232384</v>
+        <v>0.234079</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.243195</v>
+        <v>0.24612</v>
       </c>
       <c r="C106" t="n">
-        <v>0.217035</v>
+        <v>0.222968</v>
       </c>
       <c r="D106" t="n">
-        <v>0.235568</v>
+        <v>0.237714</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.24481</v>
+        <v>0.247277</v>
       </c>
       <c r="C107" t="n">
-        <v>0.216257</v>
+        <v>0.224633</v>
       </c>
       <c r="D107" t="n">
-        <v>0.240806</v>
+        <v>0.24245</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.247703</v>
+        <v>0.250135</v>
       </c>
       <c r="C108" t="n">
-        <v>0.222026</v>
+        <v>0.227349</v>
       </c>
       <c r="D108" t="n">
-        <v>0.25979</v>
+        <v>0.260573</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.252438</v>
+        <v>0.254461</v>
       </c>
       <c r="C109" t="n">
-        <v>0.227259</v>
+        <v>0.233386</v>
       </c>
       <c r="D109" t="n">
-        <v>0.26438</v>
+        <v>0.261819</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.277216</v>
+        <v>0.279403</v>
       </c>
       <c r="C110" t="n">
-        <v>0.227528</v>
+        <v>0.224812</v>
       </c>
       <c r="D110" t="n">
-        <v>0.262832</v>
+        <v>0.264427</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.278038</v>
+        <v>0.276689</v>
       </c>
       <c r="C111" t="n">
-        <v>0.229502</v>
+        <v>0.227115</v>
       </c>
       <c r="D111" t="n">
-        <v>0.263654</v>
+        <v>0.256405</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.272358</v>
+        <v>0.276919</v>
       </c>
       <c r="C112" t="n">
-        <v>0.230739</v>
+        <v>0.230291</v>
       </c>
       <c r="D112" t="n">
-        <v>0.26389</v>
+        <v>0.257862</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.280985</v>
+        <v>0.285381</v>
       </c>
       <c r="C113" t="n">
-        <v>0.231935</v>
+        <v>0.229508</v>
       </c>
       <c r="D113" t="n">
-        <v>0.263496</v>
+        <v>0.261511</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.278323</v>
+        <v>0.277312</v>
       </c>
       <c r="C114" t="n">
-        <v>0.234535</v>
+        <v>0.234066</v>
       </c>
       <c r="D114" t="n">
-        <v>0.266401</v>
+        <v>0.264645</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.279307</v>
+        <v>0.278787</v>
       </c>
       <c r="C115" t="n">
-        <v>0.237462</v>
+        <v>0.235246</v>
       </c>
       <c r="D115" t="n">
-        <v>0.269155</v>
+        <v>0.268412</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.273844</v>
+        <v>0.280368</v>
       </c>
       <c r="C116" t="n">
-        <v>0.24077</v>
+        <v>0.239935</v>
       </c>
       <c r="D116" t="n">
-        <v>0.269733</v>
+        <v>0.270746</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.274629</v>
+        <v>0.277114</v>
       </c>
       <c r="C117" t="n">
-        <v>0.241881</v>
+        <v>0.242099</v>
       </c>
       <c r="D117" t="n">
-        <v>0.273316</v>
+        <v>0.273391</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.280827</v>
+        <v>0.277748</v>
       </c>
       <c r="C118" t="n">
-        <v>0.246616</v>
+        <v>0.246988</v>
       </c>
       <c r="D118" t="n">
-        <v>0.278916</v>
+        <v>0.277278</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.279162</v>
+        <v>0.276844</v>
       </c>
       <c r="C119" t="n">
-        <v>0.248044</v>
+        <v>0.249945</v>
       </c>
       <c r="D119" t="n">
-        <v>0.282525</v>
+        <v>0.280693</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.282311</v>
+        <v>0.279908</v>
       </c>
       <c r="C120" t="n">
-        <v>0.251864</v>
+        <v>0.253241</v>
       </c>
       <c r="D120" t="n">
-        <v>0.286399</v>
+        <v>0.28434</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.284844</v>
+        <v>0.283019</v>
       </c>
       <c r="C121" t="n">
-        <v>0.255719</v>
+        <v>0.257531</v>
       </c>
       <c r="D121" t="n">
-        <v>0.291377</v>
+        <v>0.28977</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.286441</v>
+        <v>0.278338</v>
       </c>
       <c r="C122" t="n">
-        <v>0.263008</v>
+        <v>0.263176</v>
       </c>
       <c r="D122" t="n">
-        <v>0.297932</v>
+        <v>0.295498</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.285526</v>
+        <v>0.287763</v>
       </c>
       <c r="C123" t="n">
-        <v>0.269179</v>
+        <v>0.271077</v>
       </c>
       <c r="D123" t="n">
-        <v>0.284864</v>
+        <v>0.281878</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.353494</v>
+        <v>0.353517</v>
       </c>
       <c r="C124" t="n">
-        <v>0.2477</v>
+        <v>0.248823</v>
       </c>
       <c r="D124" t="n">
-        <v>0.286852</v>
+        <v>0.284739</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350515</v>
+        <v>0.354871</v>
       </c>
       <c r="C125" t="n">
-        <v>0.249519</v>
+        <v>0.251125</v>
       </c>
       <c r="D125" t="n">
-        <v>0.289685</v>
+        <v>0.287493</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.352128</v>
+        <v>0.354131</v>
       </c>
       <c r="C126" t="n">
-        <v>0.251289</v>
+        <v>0.252578</v>
       </c>
       <c r="D126" t="n">
-        <v>0.292745</v>
+        <v>0.290877</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.350601</v>
+        <v>0.354521</v>
       </c>
       <c r="C127" t="n">
-        <v>0.253984</v>
+        <v>0.255769</v>
       </c>
       <c r="D127" t="n">
-        <v>0.295017</v>
+        <v>0.292735</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.350876</v>
+        <v>0.352599</v>
       </c>
       <c r="C128" t="n">
-        <v>0.257734</v>
+        <v>0.259366</v>
       </c>
       <c r="D128" t="n">
-        <v>0.297865</v>
+        <v>0.296301</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.350404</v>
+        <v>0.353807</v>
       </c>
       <c r="C129" t="n">
-        <v>0.260491</v>
+        <v>0.262233</v>
       </c>
       <c r="D129" t="n">
-        <v>0.30121</v>
+        <v>0.297801</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.351144</v>
+        <v>0.353864</v>
       </c>
       <c r="C130" t="n">
-        <v>0.264373</v>
+        <v>0.265962</v>
       </c>
       <c r="D130" t="n">
-        <v>0.304967</v>
+        <v>0.302649</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.352345</v>
+        <v>0.353201</v>
       </c>
       <c r="C131" t="n">
-        <v>0.267891</v>
+        <v>0.269775</v>
       </c>
       <c r="D131" t="n">
-        <v>0.308666</v>
+        <v>0.306609</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.352081</v>
+        <v>0.352428</v>
       </c>
       <c r="C132" t="n">
-        <v>0.271569</v>
+        <v>0.273553</v>
       </c>
       <c r="D132" t="n">
-        <v>0.312755</v>
+        <v>0.309023</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.35239</v>
+        <v>0.355076</v>
       </c>
       <c r="C133" t="n">
-        <v>0.275272</v>
+        <v>0.278305</v>
       </c>
       <c r="D133" t="n">
-        <v>0.317556</v>
+        <v>0.313818</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.353953</v>
+        <v>0.354999</v>
       </c>
       <c r="C134" t="n">
-        <v>0.279804</v>
+        <v>0.281705</v>
       </c>
       <c r="D134" t="n">
-        <v>0.322708</v>
+        <v>0.32023</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.353724</v>
+        <v>0.357594</v>
       </c>
       <c r="C135" t="n">
-        <v>0.284454</v>
+        <v>0.28742</v>
       </c>
       <c r="D135" t="n">
-        <v>0.329954</v>
+        <v>0.327025</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.355389</v>
+        <v>0.357558</v>
       </c>
       <c r="C136" t="n">
-        <v>0.291652</v>
+        <v>0.294511</v>
       </c>
       <c r="D136" t="n">
-        <v>0.340121</v>
+        <v>0.336479</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.360366</v>
+        <v>0.363388</v>
       </c>
       <c r="C137" t="n">
-        <v>0.300605</v>
+        <v>0.303868</v>
       </c>
       <c r="D137" t="n">
-        <v>0.306684</v>
+        <v>0.304263</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.414747</v>
+        <v>0.414166</v>
       </c>
       <c r="C138" t="n">
-        <v>0.268202</v>
+        <v>0.268042</v>
       </c>
       <c r="D138" t="n">
-        <v>0.309135</v>
+        <v>0.306985</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.415257</v>
+        <v>0.408717</v>
       </c>
       <c r="C139" t="n">
-        <v>0.269952</v>
+        <v>0.270734</v>
       </c>
       <c r="D139" t="n">
-        <v>0.310528</v>
+        <v>0.308885</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.41557</v>
+        <v>0.408346</v>
       </c>
       <c r="C140" t="n">
-        <v>0.272369</v>
+        <v>0.272806</v>
       </c>
       <c r="D140" t="n">
-        <v>0.312591</v>
+        <v>0.310838</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.414783</v>
+        <v>0.415742</v>
       </c>
       <c r="C141" t="n">
-        <v>0.274522</v>
+        <v>0.275545</v>
       </c>
       <c r="D141" t="n">
-        <v>0.314094</v>
+        <v>0.312952</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.415333</v>
+        <v>0.414151</v>
       </c>
       <c r="C142" t="n">
-        <v>0.277503</v>
+        <v>0.278402</v>
       </c>
       <c r="D142" t="n">
-        <v>0.317061</v>
+        <v>0.314821</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.415376</v>
+        <v>0.408162</v>
       </c>
       <c r="C143" t="n">
-        <v>0.280566</v>
+        <v>0.281406</v>
       </c>
       <c r="D143" t="n">
-        <v>0.319522</v>
+        <v>0.317743</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0409212</v>
+        <v>0.0405278</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0366073</v>
+        <v>0.0363619</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0406185</v>
+        <v>0.0416615</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0411824</v>
+        <v>0.0406668</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0364858</v>
+        <v>0.0368849</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0408327</v>
+        <v>0.0419464</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0410946</v>
+        <v>0.0408827</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0373126</v>
+        <v>0.0370361</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0411216</v>
+        <v>0.0421996</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0413552</v>
+        <v>0.0410295</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0376223</v>
+        <v>0.0369933</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0414447</v>
+        <v>0.0424612</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0414481</v>
+        <v>0.0411772</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0377902</v>
+        <v>0.0374394</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0419944</v>
+        <v>0.0429429</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0415522</v>
+        <v>0.0412495</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0381552</v>
+        <v>0.0377759</v>
       </c>
       <c r="D7" t="n">
-        <v>0.043418</v>
+        <v>0.0436097</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0416604</v>
+        <v>0.0415062</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0388443</v>
+        <v>0.0384237</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0455204</v>
+        <v>0.0451883</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0422252</v>
+        <v>0.0418471</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0399843</v>
+        <v>0.0394632</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04426</v>
+        <v>0.0420431</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0460111</v>
+        <v>0.0442882</v>
       </c>
       <c r="C10" t="n">
-        <v>0.039757</v>
+        <v>0.0377793</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0446577</v>
+        <v>0.0426669</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0456296</v>
+        <v>0.0444297</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0404613</v>
+        <v>0.0379105</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0448905</v>
+        <v>0.0428972</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0456999</v>
+        <v>0.0445164</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0406952</v>
+        <v>0.0385565</v>
       </c>
       <c r="D12" t="n">
-        <v>0.045121</v>
+        <v>0.0432683</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0457928</v>
+        <v>0.0445954</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0409979</v>
+        <v>0.038846</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0453796</v>
+        <v>0.0437201</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0458789</v>
+        <v>0.0446814</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0412036</v>
+        <v>0.039065</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0456627</v>
+        <v>0.0441301</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.046034</v>
+        <v>0.0448782</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0415132</v>
+        <v>0.0394155</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0459163</v>
+        <v>0.0444399</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.046151</v>
+        <v>0.045089</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0418095</v>
+        <v>0.039561</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0461228</v>
+        <v>0.0447363</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0462891</v>
+        <v>0.045221</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0421602</v>
+        <v>0.0399689</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0464215</v>
+        <v>0.045204</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0464566</v>
+        <v>0.0454234</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0423287</v>
+        <v>0.0402585</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0467923</v>
+        <v>0.0454884</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0466085</v>
+        <v>0.0455764</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0427046</v>
+        <v>0.0404869</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0472758</v>
+        <v>0.0459432</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0468029</v>
+        <v>0.0457085</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0431477</v>
+        <v>0.0410347</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0480839</v>
+        <v>0.0463955</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0469185</v>
+        <v>0.0458585</v>
       </c>
       <c r="C21" t="n">
-        <v>0.043649</v>
+        <v>0.0417739</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0500217</v>
+        <v>0.047362</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0472296</v>
+        <v>0.046135</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0454998</v>
+        <v>0.0428632</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0551501</v>
+        <v>0.0511113</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0476438</v>
+        <v>0.0465694</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0526819</v>
+        <v>0.0484496</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0468714</v>
+        <v>0.0468906</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0491387</v>
+        <v>0.0494687</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0428805</v>
+        <v>0.0418196</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0472521</v>
+        <v>0.0470944</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0489824</v>
+        <v>0.0491496</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04317</v>
+        <v>0.0420162</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0475436</v>
+        <v>0.0475381</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0490613</v>
+        <v>0.0492578</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0434076</v>
+        <v>0.0423881</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0478361</v>
+        <v>0.0478654</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0490849</v>
+        <v>0.0492908</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0435663</v>
+        <v>0.042528</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0481246</v>
+        <v>0.0480805</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0492187</v>
+        <v>0.0493916</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0440789</v>
+        <v>0.0429337</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0483895</v>
+        <v>0.0484792</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.049324</v>
+        <v>0.0495208</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0443787</v>
+        <v>0.043176</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0487055</v>
+        <v>0.0486852</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0494659</v>
+        <v>0.0496546</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0448187</v>
+        <v>0.0438286</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0490803</v>
+        <v>0.0490132</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0496572</v>
+        <v>0.0498262</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0450373</v>
+        <v>0.0442211</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0494296</v>
+        <v>0.0493487</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0497975</v>
+        <v>0.0499616</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0455444</v>
+        <v>0.044549</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0499488</v>
+        <v>0.0498093</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0499909</v>
+        <v>0.0501392</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0457628</v>
+        <v>0.0442979</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0510662</v>
+        <v>0.0502247</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0501124</v>
+        <v>0.0502888</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0463349</v>
+        <v>0.0451524</v>
       </c>
       <c r="D34" t="n">
-        <v>0.053138</v>
+        <v>0.0512463</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0503907</v>
+        <v>0.0505269</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0506946</v>
+        <v>0.0472882</v>
       </c>
       <c r="D35" t="n">
-        <v>0.057223</v>
+        <v>0.0549315</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.050703</v>
+        <v>0.0508597</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0560964</v>
+        <v>0.0527836</v>
       </c>
       <c r="D36" t="n">
-        <v>0.064008</v>
+        <v>0.0625472</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0520792</v>
+        <v>0.0524295</v>
       </c>
       <c r="C37" t="n">
-        <v>0.06294810000000001</v>
+        <v>0.0594827</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0521519</v>
+        <v>0.0518297</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0555842</v>
+        <v>0.0559268</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0482827</v>
+        <v>0.046642</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0514056</v>
+        <v>0.0524032</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0544032</v>
+        <v>0.0553501</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0482018</v>
+        <v>0.0467553</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0532265</v>
+        <v>0.0527041</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.05449</v>
+        <v>0.0554166</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0486443</v>
+        <v>0.047286</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0534648</v>
+        <v>0.0532312</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0545751</v>
+        <v>0.0555081</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0491323</v>
+        <v>0.0475289</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0537195</v>
+        <v>0.0534012</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0546889</v>
+        <v>0.0556015</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0494658</v>
+        <v>0.0478147</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0534351</v>
+        <v>0.0527374</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0547501</v>
+        <v>0.0557051</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0498721</v>
+        <v>0.0484061</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0543639</v>
+        <v>0.0537599</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0548686</v>
+        <v>0.0558353</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0501681</v>
+        <v>0.0488841</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0546887</v>
+        <v>0.0546748</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0550694</v>
+        <v>0.0559985</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0507068</v>
+        <v>0.0493723</v>
       </c>
       <c r="D45" t="n">
-        <v>0.055527</v>
+        <v>0.0543572</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0551503</v>
+        <v>0.0561473</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0520153</v>
+        <v>0.0501734</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0559048</v>
+        <v>0.0552033</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0553405</v>
+        <v>0.0563144</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0539897</v>
+        <v>0.0515854</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0592689</v>
+        <v>0.0561692</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0555768</v>
+        <v>0.0565665</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0567079</v>
+        <v>0.0538818</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0621329</v>
+        <v>0.0598153</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0559317</v>
+        <v>0.0569261</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0593681</v>
+        <v>0.0567622</v>
       </c>
       <c r="D49" t="n">
-        <v>0.06567530000000001</v>
+        <v>0.0639291</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0573775</v>
+        <v>0.0583548</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0626095</v>
+        <v>0.060199</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0695503</v>
+        <v>0.0692006</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0613093</v>
+        <v>0.0622782</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0671976</v>
+        <v>0.0648972</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0565421</v>
+        <v>0.0564743</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.066561</v>
+        <v>0.067553</v>
       </c>
       <c r="C52" t="n">
-        <v>0.07422330000000001</v>
+        <v>0.0721871</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0564555</v>
+        <v>0.0570017</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0614289</v>
+        <v>0.0623741</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0484232</v>
+        <v>0.0479613</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0565627</v>
+        <v>0.057896</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0611923</v>
+        <v>0.0624015</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0488674</v>
+        <v>0.048451</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0557646</v>
+        <v>0.0582922</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0612354</v>
+        <v>0.062495</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0489226</v>
+        <v>0.0490669</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0580538</v>
+        <v>0.0587396</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.061371</v>
+        <v>0.0625831</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0499597</v>
+        <v>0.0497234</v>
       </c>
       <c r="D56" t="n">
-        <v>0.056324</v>
+        <v>0.0591821</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0615651</v>
+        <v>0.06270820000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0503033</v>
+        <v>0.0504549</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0587642</v>
+        <v>0.0596796</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0616533</v>
+        <v>0.0628015</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0507937</v>
+        <v>0.051207</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0601269</v>
+        <v>0.0602349</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0618526</v>
+        <v>0.0628756</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0523916</v>
+        <v>0.0521569</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0596009</v>
+        <v>0.0608841</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0620344</v>
+        <v>0.0631497</v>
       </c>
       <c r="C60" t="n">
-        <v>0.053843</v>
+        <v>0.0534835</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0613078</v>
+        <v>0.0620547</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.062245</v>
+        <v>0.0633842</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0553485</v>
+        <v>0.0549923</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0642768</v>
+        <v>0.0640824</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06266679999999999</v>
+        <v>0.06368790000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0579115</v>
+        <v>0.0569467</v>
       </c>
       <c r="D62" t="n">
-        <v>0.064568</v>
+        <v>0.0666378</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0637426</v>
+        <v>0.0647239</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0598002</v>
+        <v>0.0592481</v>
       </c>
       <c r="D63" t="n">
-        <v>0.06887509999999999</v>
+        <v>0.06991410000000001</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0657363</v>
+        <v>0.0666625</v>
       </c>
       <c r="C64" t="n">
-        <v>0.06290709999999999</v>
+        <v>0.0623025</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0734216</v>
+        <v>0.0744181</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0685558</v>
+        <v>0.0694867</v>
       </c>
       <c r="C65" t="n">
-        <v>0.06685720000000001</v>
+        <v>0.06655949999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0799023</v>
+        <v>0.0813349</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07277260000000001</v>
+        <v>0.07362</v>
       </c>
       <c r="C66" t="n">
-        <v>0.073251</v>
+        <v>0.0730011</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0597017</v>
+        <v>0.0593844</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0711362</v>
+        <v>0.0705248</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0545131</v>
+        <v>0.0524846</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0600111</v>
+        <v>0.059842</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0713022</v>
+        <v>0.0708443</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0550485</v>
+        <v>0.0530707</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0607382</v>
+        <v>0.0601651</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.07193280000000001</v>
+        <v>0.0713746</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0556552</v>
+        <v>0.0537174</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0606615</v>
+        <v>0.0605928</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0724175</v>
+        <v>0.0714108</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0563381</v>
+        <v>0.0543446</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0612185</v>
+        <v>0.0610772</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0723406</v>
+        <v>0.07132869999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.056996</v>
+        <v>0.0550382</v>
       </c>
       <c r="D71" t="n">
-        <v>0.062538</v>
+        <v>0.061585</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0727627</v>
+        <v>0.07181079999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0578612</v>
+        <v>0.0559549</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0635212</v>
+        <v>0.0623454</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0731731</v>
+        <v>0.0720922</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0589417</v>
+        <v>0.0570446</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0647293</v>
+        <v>0.06353109999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0735666</v>
+        <v>0.0725021</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0603372</v>
+        <v>0.0583191</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0660925</v>
+        <v>0.0648189</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.07371519999999999</v>
+        <v>0.0728914</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0618687</v>
+        <v>0.0596612</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0676674</v>
+        <v>0.0665256</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0741898</v>
+        <v>0.0733163</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0634822</v>
+        <v>0.0611081</v>
       </c>
       <c r="D76" t="n">
-        <v>0.06959509999999999</v>
+        <v>0.0685089</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0754112</v>
+        <v>0.0743407</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0657927</v>
+        <v>0.0631617</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0721878</v>
+        <v>0.0713058</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.07686510000000001</v>
+        <v>0.0757365</v>
       </c>
       <c r="C78" t="n">
-        <v>0.06869500000000001</v>
+        <v>0.0658984</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0761515</v>
+        <v>0.0751834</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0791924</v>
+        <v>0.0780419</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0725392</v>
+        <v>0.06964670000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.08198220000000001</v>
+        <v>0.08124480000000001</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0827016</v>
+        <v>0.0814647</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0780594</v>
+        <v>0.0750401</v>
       </c>
       <c r="D80" t="n">
-        <v>0.108327</v>
+        <v>0.10341</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.175794</v>
+        <v>0.174395</v>
       </c>
       <c r="C81" t="n">
-        <v>0.138334</v>
+        <v>0.137794</v>
       </c>
       <c r="D81" t="n">
-        <v>0.11045</v>
+        <v>0.105547</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.172468</v>
+        <v>0.174306</v>
       </c>
       <c r="C82" t="n">
-        <v>0.138708</v>
+        <v>0.13751</v>
       </c>
       <c r="D82" t="n">
-        <v>0.109491</v>
+        <v>0.111715</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.174205</v>
+        <v>0.174057</v>
       </c>
       <c r="C83" t="n">
-        <v>0.139653</v>
+        <v>0.137972</v>
       </c>
       <c r="D83" t="n">
-        <v>0.112635</v>
+        <v>0.110118</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.17491</v>
+        <v>0.17634</v>
       </c>
       <c r="C84" t="n">
-        <v>0.139205</v>
+        <v>0.139884</v>
       </c>
       <c r="D84" t="n">
-        <v>0.113507</v>
+        <v>0.11346</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.176619</v>
+        <v>0.17655</v>
       </c>
       <c r="C85" t="n">
-        <v>0.139921</v>
+        <v>0.138625</v>
       </c>
       <c r="D85" t="n">
-        <v>0.117776</v>
+        <v>0.117685</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.176007</v>
+        <v>0.175676</v>
       </c>
       <c r="C86" t="n">
-        <v>0.140807</v>
+        <v>0.139985</v>
       </c>
       <c r="D86" t="n">
-        <v>0.118847</v>
+        <v>0.118056</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1759</v>
+        <v>0.176388</v>
       </c>
       <c r="C87" t="n">
-        <v>0.141951</v>
+        <v>0.141563</v>
       </c>
       <c r="D87" t="n">
-        <v>0.120872</v>
+        <v>0.120239</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.177182</v>
+        <v>0.177397</v>
       </c>
       <c r="C88" t="n">
-        <v>0.143329</v>
+        <v>0.140812</v>
       </c>
       <c r="D88" t="n">
-        <v>0.123447</v>
+        <v>0.121289</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.177922</v>
+        <v>0.177854</v>
       </c>
       <c r="C89" t="n">
-        <v>0.143234</v>
+        <v>0.140616</v>
       </c>
       <c r="D89" t="n">
-        <v>0.122793</v>
+        <v>0.123636</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.178459</v>
+        <v>0.179618</v>
       </c>
       <c r="C90" t="n">
-        <v>0.145268</v>
+        <v>0.143939</v>
       </c>
       <c r="D90" t="n">
-        <v>0.126619</v>
+        <v>0.126287</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.179244</v>
+        <v>0.178907</v>
       </c>
       <c r="C91" t="n">
-        <v>0.145136</v>
+        <v>0.144301</v>
       </c>
       <c r="D91" t="n">
-        <v>0.126321</v>
+        <v>0.129351</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.179792</v>
+        <v>0.179483</v>
       </c>
       <c r="C92" t="n">
-        <v>0.148624</v>
+        <v>0.145259</v>
       </c>
       <c r="D92" t="n">
-        <v>0.132743</v>
+        <v>0.133654</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.180986</v>
+        <v>0.181111</v>
       </c>
       <c r="C93" t="n">
-        <v>0.151021</v>
+        <v>0.148887</v>
       </c>
       <c r="D93" t="n">
-        <v>0.137242</v>
+        <v>0.137634</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.183641</v>
+        <v>0.183045</v>
       </c>
       <c r="C94" t="n">
-        <v>0.155356</v>
+        <v>0.15344</v>
       </c>
       <c r="D94" t="n">
-        <v>0.200624</v>
+        <v>0.203016</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.2436</v>
+        <v>0.243874</v>
       </c>
       <c r="C95" t="n">
-        <v>0.204452</v>
+        <v>0.205315</v>
       </c>
       <c r="D95" t="n">
-        <v>0.205961</v>
+        <v>0.213742</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.240651</v>
+        <v>0.243556</v>
       </c>
       <c r="C96" t="n">
-        <v>0.205065</v>
+        <v>0.200599</v>
       </c>
       <c r="D96" t="n">
-        <v>0.214905</v>
+        <v>0.214071</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.240914</v>
+        <v>0.242924</v>
       </c>
       <c r="C97" t="n">
-        <v>0.206621</v>
+        <v>0.207044</v>
       </c>
       <c r="D97" t="n">
-        <v>0.216871</v>
+        <v>0.210681</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.242</v>
+        <v>0.24328</v>
       </c>
       <c r="C98" t="n">
-        <v>0.20721</v>
+        <v>0.208065</v>
       </c>
       <c r="D98" t="n">
-        <v>0.218002</v>
+        <v>0.218393</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.243378</v>
+        <v>0.24302</v>
       </c>
       <c r="C99" t="n">
-        <v>0.202606</v>
+        <v>0.209235</v>
       </c>
       <c r="D99" t="n">
-        <v>0.221011</v>
+        <v>0.219553</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.243131</v>
+        <v>0.242936</v>
       </c>
       <c r="C100" t="n">
-        <v>0.210246</v>
+        <v>0.210477</v>
       </c>
       <c r="D100" t="n">
-        <v>0.221334</v>
+        <v>0.221797</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.243507</v>
+        <v>0.243622</v>
       </c>
       <c r="C101" t="n">
-        <v>0.206307</v>
+        <v>0.207503</v>
       </c>
       <c r="D101" t="n">
-        <v>0.224371</v>
+        <v>0.223684</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.243309</v>
+        <v>0.24342</v>
       </c>
       <c r="C102" t="n">
-        <v>0.213031</v>
+        <v>0.209318</v>
       </c>
       <c r="D102" t="n">
-        <v>0.219681</v>
+        <v>0.221072</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.243664</v>
+        <v>0.243373</v>
       </c>
       <c r="C103" t="n">
-        <v>0.215012</v>
+        <v>0.215168</v>
       </c>
       <c r="D103" t="n">
-        <v>0.221873</v>
+        <v>0.227692</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.243666</v>
+        <v>0.244249</v>
       </c>
       <c r="C104" t="n">
-        <v>0.217614</v>
+        <v>0.212887</v>
       </c>
       <c r="D104" t="n">
-        <v>0.23035</v>
+        <v>0.230177</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.244741</v>
+        <v>0.244579</v>
       </c>
       <c r="C105" t="n">
-        <v>0.219566</v>
+        <v>0.219367</v>
       </c>
       <c r="D105" t="n">
-        <v>0.234079</v>
+        <v>0.232774</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.24612</v>
+        <v>0.244809</v>
       </c>
       <c r="C106" t="n">
-        <v>0.222968</v>
+        <v>0.221332</v>
       </c>
       <c r="D106" t="n">
-        <v>0.237714</v>
+        <v>0.2363</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247277</v>
+        <v>0.246539</v>
       </c>
       <c r="C107" t="n">
-        <v>0.224633</v>
+        <v>0.225111</v>
       </c>
       <c r="D107" t="n">
-        <v>0.24245</v>
+        <v>0.237439</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.250135</v>
+        <v>0.249352</v>
       </c>
       <c r="C108" t="n">
-        <v>0.227349</v>
+        <v>0.229397</v>
       </c>
       <c r="D108" t="n">
-        <v>0.260573</v>
+        <v>0.258418</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.254461</v>
+        <v>0.253848</v>
       </c>
       <c r="C109" t="n">
-        <v>0.233386</v>
+        <v>0.236787</v>
       </c>
       <c r="D109" t="n">
-        <v>0.261819</v>
+        <v>0.260177</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.279403</v>
+        <v>0.277168</v>
       </c>
       <c r="C110" t="n">
-        <v>0.224812</v>
+        <v>0.229561</v>
       </c>
       <c r="D110" t="n">
-        <v>0.264427</v>
+        <v>0.265166</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.276689</v>
+        <v>0.274636</v>
       </c>
       <c r="C111" t="n">
-        <v>0.227115</v>
+        <v>0.231464</v>
       </c>
       <c r="D111" t="n">
-        <v>0.256405</v>
+        <v>0.261279</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.276919</v>
+        <v>0.274004</v>
       </c>
       <c r="C112" t="n">
-        <v>0.230291</v>
+        <v>0.230657</v>
       </c>
       <c r="D112" t="n">
-        <v>0.257862</v>
+        <v>0.263072</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.285381</v>
+        <v>0.278432</v>
       </c>
       <c r="C113" t="n">
-        <v>0.229508</v>
+        <v>0.234069</v>
       </c>
       <c r="D113" t="n">
-        <v>0.261511</v>
+        <v>0.263256</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.277312</v>
+        <v>0.280591</v>
       </c>
       <c r="C114" t="n">
-        <v>0.234066</v>
+        <v>0.236919</v>
       </c>
       <c r="D114" t="n">
-        <v>0.264645</v>
+        <v>0.2664</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.278787</v>
+        <v>0.27766</v>
       </c>
       <c r="C115" t="n">
-        <v>0.235246</v>
+        <v>0.239357</v>
       </c>
       <c r="D115" t="n">
-        <v>0.268412</v>
+        <v>0.269064</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.280368</v>
+        <v>0.279407</v>
       </c>
       <c r="C116" t="n">
-        <v>0.239935</v>
+        <v>0.242487</v>
       </c>
       <c r="D116" t="n">
-        <v>0.270746</v>
+        <v>0.269055</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.277114</v>
+        <v>0.273522</v>
       </c>
       <c r="C117" t="n">
-        <v>0.242099</v>
+        <v>0.245059</v>
       </c>
       <c r="D117" t="n">
-        <v>0.273391</v>
+        <v>0.271918</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.277748</v>
+        <v>0.27868</v>
       </c>
       <c r="C118" t="n">
-        <v>0.246988</v>
+        <v>0.248015</v>
       </c>
       <c r="D118" t="n">
-        <v>0.277278</v>
+        <v>0.278213</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.276844</v>
+        <v>0.282699</v>
       </c>
       <c r="C119" t="n">
-        <v>0.249945</v>
+        <v>0.251418</v>
       </c>
       <c r="D119" t="n">
-        <v>0.280693</v>
+        <v>0.281672</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.279908</v>
+        <v>0.283074</v>
       </c>
       <c r="C120" t="n">
-        <v>0.253241</v>
+        <v>0.253044</v>
       </c>
       <c r="D120" t="n">
-        <v>0.28434</v>
+        <v>0.285474</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.283019</v>
+        <v>0.284548</v>
       </c>
       <c r="C121" t="n">
-        <v>0.257531</v>
+        <v>0.258792</v>
       </c>
       <c r="D121" t="n">
-        <v>0.28977</v>
+        <v>0.291424</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.278338</v>
+        <v>0.280665</v>
       </c>
       <c r="C122" t="n">
-        <v>0.263176</v>
+        <v>0.264877</v>
       </c>
       <c r="D122" t="n">
-        <v>0.295498</v>
+        <v>0.297587</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.287763</v>
+        <v>0.285379</v>
       </c>
       <c r="C123" t="n">
-        <v>0.271077</v>
+        <v>0.272399</v>
       </c>
       <c r="D123" t="n">
-        <v>0.281878</v>
+        <v>0.282538</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.353517</v>
+        <v>0.351616</v>
       </c>
       <c r="C124" t="n">
-        <v>0.248823</v>
+        <v>0.249847</v>
       </c>
       <c r="D124" t="n">
-        <v>0.284739</v>
+        <v>0.285018</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.354871</v>
+        <v>0.352135</v>
       </c>
       <c r="C125" t="n">
-        <v>0.251125</v>
+        <v>0.252248</v>
       </c>
       <c r="D125" t="n">
-        <v>0.287493</v>
+        <v>0.287766</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.354131</v>
+        <v>0.351816</v>
       </c>
       <c r="C126" t="n">
-        <v>0.252578</v>
+        <v>0.253441</v>
       </c>
       <c r="D126" t="n">
-        <v>0.290877</v>
+        <v>0.290412</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.354521</v>
+        <v>0.352502</v>
       </c>
       <c r="C127" t="n">
-        <v>0.255769</v>
+        <v>0.256678</v>
       </c>
       <c r="D127" t="n">
-        <v>0.292735</v>
+        <v>0.293116</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.352599</v>
+        <v>0.351484</v>
       </c>
       <c r="C128" t="n">
-        <v>0.259366</v>
+        <v>0.259494</v>
       </c>
       <c r="D128" t="n">
-        <v>0.296301</v>
+        <v>0.295551</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.353807</v>
+        <v>0.352235</v>
       </c>
       <c r="C129" t="n">
-        <v>0.262233</v>
+        <v>0.262517</v>
       </c>
       <c r="D129" t="n">
-        <v>0.297801</v>
+        <v>0.29908</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.353864</v>
+        <v>0.352875</v>
       </c>
       <c r="C130" t="n">
-        <v>0.265962</v>
+        <v>0.266171</v>
       </c>
       <c r="D130" t="n">
-        <v>0.302649</v>
+        <v>0.302852</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.353201</v>
+        <v>0.352981</v>
       </c>
       <c r="C131" t="n">
-        <v>0.269775</v>
+        <v>0.269615</v>
       </c>
       <c r="D131" t="n">
-        <v>0.306609</v>
+        <v>0.306164</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.352428</v>
+        <v>0.352691</v>
       </c>
       <c r="C132" t="n">
-        <v>0.273553</v>
+        <v>0.273493</v>
       </c>
       <c r="D132" t="n">
-        <v>0.309023</v>
+        <v>0.310585</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.355076</v>
+        <v>0.353791</v>
       </c>
       <c r="C133" t="n">
-        <v>0.278305</v>
+        <v>0.277353</v>
       </c>
       <c r="D133" t="n">
-        <v>0.313818</v>
+        <v>0.314652</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.354999</v>
+        <v>0.354684</v>
       </c>
       <c r="C134" t="n">
-        <v>0.281705</v>
+        <v>0.281289</v>
       </c>
       <c r="D134" t="n">
-        <v>0.32023</v>
+        <v>0.320121</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.357594</v>
+        <v>0.356821</v>
       </c>
       <c r="C135" t="n">
-        <v>0.28742</v>
+        <v>0.286498</v>
       </c>
       <c r="D135" t="n">
-        <v>0.327025</v>
+        <v>0.326672</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.357558</v>
+        <v>0.359539</v>
       </c>
       <c r="C136" t="n">
-        <v>0.294511</v>
+        <v>0.29299</v>
       </c>
       <c r="D136" t="n">
-        <v>0.336479</v>
+        <v>0.336402</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.363388</v>
+        <v>0.362382</v>
       </c>
       <c r="C137" t="n">
-        <v>0.303868</v>
+        <v>0.302221</v>
       </c>
       <c r="D137" t="n">
-        <v>0.304263</v>
+        <v>0.305822</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.414166</v>
+        <v>0.415429</v>
       </c>
       <c r="C138" t="n">
-        <v>0.268042</v>
+        <v>0.270893</v>
       </c>
       <c r="D138" t="n">
-        <v>0.306985</v>
+        <v>0.308749</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.408717</v>
+        <v>0.416046</v>
       </c>
       <c r="C139" t="n">
-        <v>0.270734</v>
+        <v>0.273049</v>
       </c>
       <c r="D139" t="n">
-        <v>0.308885</v>
+        <v>0.310015</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.408346</v>
+        <v>0.410522</v>
       </c>
       <c r="C140" t="n">
-        <v>0.272806</v>
+        <v>0.275771</v>
       </c>
       <c r="D140" t="n">
-        <v>0.310838</v>
+        <v>0.312721</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.415742</v>
+        <v>0.416608</v>
       </c>
       <c r="C141" t="n">
-        <v>0.275545</v>
+        <v>0.27817</v>
       </c>
       <c r="D141" t="n">
-        <v>0.312952</v>
+        <v>0.314607</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.414151</v>
+        <v>0.411347</v>
       </c>
       <c r="C142" t="n">
-        <v>0.278402</v>
+        <v>0.281334</v>
       </c>
       <c r="D142" t="n">
-        <v>0.314821</v>
+        <v>0.317944</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.408162</v>
+        <v>0.415474</v>
       </c>
       <c r="C143" t="n">
-        <v>0.281406</v>
+        <v>0.283788</v>
       </c>
       <c r="D143" t="n">
-        <v>0.317743</v>
+        <v>0.319239</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0405278</v>
+        <v>0.0409015</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0363619</v>
+        <v>0.0369618</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0416615</v>
+        <v>0.0426318</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0406668</v>
+        <v>0.0410385</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0368849</v>
+        <v>0.0371215</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0419464</v>
+        <v>0.0429438</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0408827</v>
+        <v>0.041036</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0370361</v>
+        <v>0.0374345</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0421996</v>
+        <v>0.0431969</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0410295</v>
+        <v>0.0411537</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0369933</v>
+        <v>0.0377057</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0424612</v>
+        <v>0.0434779</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0411772</v>
+        <v>0.0413121</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0374394</v>
+        <v>0.0380108</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0429429</v>
+        <v>0.0439261</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0412495</v>
+        <v>0.0414534</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0377759</v>
+        <v>0.0383076</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0436097</v>
+        <v>0.0446592</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0415062</v>
+        <v>0.0416194</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0384237</v>
+        <v>0.0389434</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0451883</v>
+        <v>0.0459973</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0418471</v>
+        <v>0.0419431</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0394632</v>
+        <v>0.0402493</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0420431</v>
+        <v>0.0443767</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0442882</v>
+        <v>0.0467525</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0377793</v>
+        <v>0.0398467</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0426669</v>
+        <v>0.0450022</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0444297</v>
+        <v>0.046657</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0379105</v>
+        <v>0.040156</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0428972</v>
+        <v>0.0453071</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0445164</v>
+        <v>0.0467048</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0385565</v>
+        <v>0.0404408</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0432683</v>
+        <v>0.045605</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0445954</v>
+        <v>0.0468221</v>
       </c>
       <c r="C13" t="n">
-        <v>0.038846</v>
+        <v>0.0406767</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0437201</v>
+        <v>0.0460385</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0446814</v>
+        <v>0.0469243</v>
       </c>
       <c r="C14" t="n">
-        <v>0.039065</v>
+        <v>0.0411041</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0441301</v>
+        <v>0.0463639</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0448782</v>
+        <v>0.047052</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0394155</v>
+        <v>0.0414036</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0444399</v>
+        <v>0.0467609</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.045089</v>
+        <v>0.0471558</v>
       </c>
       <c r="C16" t="n">
-        <v>0.039561</v>
+        <v>0.0415111</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0447363</v>
+        <v>0.0466509</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.045221</v>
+        <v>0.0472821</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0399689</v>
+        <v>0.0416384</v>
       </c>
       <c r="D17" t="n">
-        <v>0.045204</v>
+        <v>0.04736</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0454234</v>
+        <v>0.0474101</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0402585</v>
+        <v>0.0419005</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0454884</v>
+        <v>0.0472003</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0455764</v>
+        <v>0.0475433</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0404869</v>
+        <v>0.0426966</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0459432</v>
+        <v>0.0481147</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0457085</v>
+        <v>0.0476706</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0410347</v>
+        <v>0.0430606</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0463955</v>
+        <v>0.0485004</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0458585</v>
+        <v>0.0477374</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0417739</v>
+        <v>0.0437105</v>
       </c>
       <c r="D21" t="n">
-        <v>0.047362</v>
+        <v>0.0495871</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.046135</v>
+        <v>0.0481888</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0428632</v>
+        <v>0.0448114</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0511113</v>
+        <v>0.0531698</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0465694</v>
+        <v>0.048599</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0484496</v>
+        <v>0.0505726</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0468906</v>
+        <v>0.0468143</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0494687</v>
+        <v>0.0496546</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0418196</v>
+        <v>0.0429217</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0470944</v>
+        <v>0.0473411</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0491496</v>
+        <v>0.0492928</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0420162</v>
+        <v>0.0431419</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0475381</v>
+        <v>0.0477016</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0492578</v>
+        <v>0.0493607</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0423881</v>
+        <v>0.0434593</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0478654</v>
+        <v>0.048061</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0492908</v>
+        <v>0.0494521</v>
       </c>
       <c r="C27" t="n">
-        <v>0.042528</v>
+        <v>0.0436938</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0480805</v>
+        <v>0.0483933</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0493916</v>
+        <v>0.0495327</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0429337</v>
+        <v>0.0439736</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0484792</v>
+        <v>0.0487444</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0495208</v>
+        <v>0.0496673</v>
       </c>
       <c r="C29" t="n">
-        <v>0.043176</v>
+        <v>0.0443072</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0486852</v>
+        <v>0.0491337</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0496546</v>
+        <v>0.0497702</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0438286</v>
+        <v>0.0445772</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0490132</v>
+        <v>0.0494954</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0498262</v>
+        <v>0.0499288</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0442211</v>
+        <v>0.0447619</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0493487</v>
+        <v>0.0498067</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0499616</v>
+        <v>0.0501973</v>
       </c>
       <c r="C32" t="n">
-        <v>0.044549</v>
+        <v>0.0451341</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0498093</v>
+        <v>0.0502665</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0501392</v>
+        <v>0.0502416</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0442979</v>
+        <v>0.0454836</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0502247</v>
+        <v>0.0506829</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0502888</v>
+        <v>0.0504686</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0451524</v>
+        <v>0.0457207</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0512463</v>
+        <v>0.0514259</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0505269</v>
+        <v>0.0506384</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0472882</v>
+        <v>0.0480939</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0549315</v>
+        <v>0.0546039</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0508597</v>
+        <v>0.0511772</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0527836</v>
+        <v>0.0528388</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0625472</v>
+        <v>0.0622393</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0524295</v>
+        <v>0.0529412</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0594827</v>
+        <v>0.0605656</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0518297</v>
+        <v>0.0514693</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0559268</v>
+        <v>0.0549996</v>
       </c>
       <c r="C38" t="n">
-        <v>0.046642</v>
+        <v>0.0474349</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0524032</v>
+        <v>0.0521189</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0553501</v>
+        <v>0.0549748</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0467553</v>
+        <v>0.047767</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0527041</v>
+        <v>0.0523749</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0554166</v>
+        <v>0.0550767</v>
       </c>
       <c r="C40" t="n">
-        <v>0.047286</v>
+        <v>0.0481153</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0532312</v>
+        <v>0.0527929</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0555081</v>
+        <v>0.0552083</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0475289</v>
+        <v>0.0486043</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0534012</v>
+        <v>0.053533</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0556015</v>
+        <v>0.0553379</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0478147</v>
+        <v>0.0487834</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0527374</v>
+        <v>0.0525336</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0557051</v>
+        <v>0.0554776</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0484061</v>
+        <v>0.0493514</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0537599</v>
+        <v>0.0529659</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0558353</v>
+        <v>0.0556251</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0488841</v>
+        <v>0.0496348</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0546748</v>
+        <v>0.0533824</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0559985</v>
+        <v>0.0557732</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0493723</v>
+        <v>0.0500947</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0543572</v>
+        <v>0.0541717</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0561473</v>
+        <v>0.0559163</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0501734</v>
+        <v>0.0506225</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0552033</v>
+        <v>0.0543453</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0563144</v>
+        <v>0.0561187</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0515854</v>
+        <v>0.0522473</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0561692</v>
+        <v>0.0558753</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0565665</v>
+        <v>0.0563455</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0538818</v>
+        <v>0.0543849</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0598153</v>
+        <v>0.060036</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0569261</v>
+        <v>0.0567201</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0567622</v>
+        <v>0.057273</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0639291</v>
+        <v>0.0635946</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0583548</v>
+        <v>0.0579428</v>
       </c>
       <c r="C50" t="n">
-        <v>0.060199</v>
+        <v>0.06057</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0692006</v>
+        <v>0.06883930000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0622782</v>
+        <v>0.0618316</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0648972</v>
+        <v>0.06534040000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0564743</v>
+        <v>0.0563127</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.067553</v>
+        <v>0.0672079</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0721871</v>
+        <v>0.0723722</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0570017</v>
+        <v>0.0568136</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0623741</v>
+        <v>0.0614537</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0479613</v>
+        <v>0.048621</v>
       </c>
       <c r="D53" t="n">
-        <v>0.057896</v>
+        <v>0.0555735</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0624015</v>
+        <v>0.0608109</v>
       </c>
       <c r="C54" t="n">
-        <v>0.048451</v>
+        <v>0.0491588</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0582922</v>
+        <v>0.0571926</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.062495</v>
+        <v>0.0610178</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0490669</v>
+        <v>0.0496845</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0587396</v>
+        <v>0.055813</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0625831</v>
+        <v>0.061023</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0497234</v>
+        <v>0.0502889</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0591821</v>
+        <v>0.0562642</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06270820000000001</v>
+        <v>0.0611301</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0504549</v>
+        <v>0.0509085</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0596796</v>
+        <v>0.0568613</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0628015</v>
+        <v>0.0612823</v>
       </c>
       <c r="C58" t="n">
-        <v>0.051207</v>
+        <v>0.0515268</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0602349</v>
+        <v>0.0588576</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0628756</v>
+        <v>0.0614224</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0521569</v>
+        <v>0.0521223</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0608841</v>
+        <v>0.0593465</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0631497</v>
+        <v>0.0615996</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0534835</v>
+        <v>0.0532715</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0620547</v>
+        <v>0.061229</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0633842</v>
+        <v>0.0618474</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0549923</v>
+        <v>0.0551795</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0640824</v>
+        <v>0.0615867</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06368790000000001</v>
+        <v>0.0621403</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0569467</v>
+        <v>0.0570364</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0666378</v>
+        <v>0.06386219999999999</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0647239</v>
+        <v>0.0632672</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0592481</v>
+        <v>0.0592228</v>
       </c>
       <c r="D63" t="n">
-        <v>0.06991410000000001</v>
+        <v>0.0671824</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0666625</v>
+        <v>0.0654563</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0623025</v>
+        <v>0.062153</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0744181</v>
+        <v>0.0730063</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0694867</v>
+        <v>0.0680706</v>
       </c>
       <c r="C65" t="n">
-        <v>0.06655949999999999</v>
+        <v>0.0661347</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0813349</v>
+        <v>0.0792858</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07362</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0730011</v>
+        <v>0.07228900000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0593844</v>
+        <v>0.0604053</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0705248</v>
+        <v>0.0771607</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0524846</v>
+        <v>0.0601453</v>
       </c>
       <c r="D67" t="n">
-        <v>0.059842</v>
+        <v>0.0611</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0708443</v>
+        <v>0.0774379</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0530707</v>
+        <v>0.0605523</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0601651</v>
+        <v>0.0617174</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0713746</v>
+        <v>0.0773208</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0537174</v>
+        <v>0.0609306</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0605928</v>
+        <v>0.0623386</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0714108</v>
+        <v>0.07792930000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0543446</v>
+        <v>0.0614785</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0610772</v>
+        <v>0.063121</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.07132869999999999</v>
+        <v>0.0781466</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0550382</v>
+        <v>0.0622698</v>
       </c>
       <c r="D71" t="n">
-        <v>0.061585</v>
+        <v>0.06377339999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07181079999999999</v>
+        <v>0.0784981</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0559549</v>
+        <v>0.0630474</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0623454</v>
+        <v>0.064609</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0720922</v>
+        <v>0.0791182</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0570446</v>
+        <v>0.06406249999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.06353109999999999</v>
+        <v>0.06590550000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0725021</v>
+        <v>0.0794163</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0583191</v>
+        <v>0.06508700000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0648189</v>
+        <v>0.0673936</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0728914</v>
+        <v>0.07966860000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0596612</v>
+        <v>0.0663864</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0665256</v>
+        <v>0.06920460000000001</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0733163</v>
+        <v>0.0804806</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0611081</v>
+        <v>0.0678687</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0685089</v>
+        <v>0.07144010000000001</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0743407</v>
+        <v>0.0815621</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0631617</v>
+        <v>0.0698232</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0713058</v>
+        <v>0.0741314</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0757365</v>
+        <v>0.08292679999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0658984</v>
+        <v>0.0722636</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0751834</v>
+        <v>0.0781179</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0780419</v>
+        <v>0.08488080000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.06964670000000001</v>
+        <v>0.07582849999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.08124480000000001</v>
+        <v>0.0841358</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0814647</v>
+        <v>0.0883722</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0750401</v>
+        <v>0.0810207</v>
       </c>
       <c r="D80" t="n">
-        <v>0.10341</v>
+        <v>0.10301</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.174395</v>
+        <v>0.178029</v>
       </c>
       <c r="C81" t="n">
-        <v>0.137794</v>
+        <v>0.138976</v>
       </c>
       <c r="D81" t="n">
-        <v>0.105547</v>
+        <v>0.105359</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.174306</v>
+        <v>0.174182</v>
       </c>
       <c r="C82" t="n">
-        <v>0.13751</v>
+        <v>0.139636</v>
       </c>
       <c r="D82" t="n">
-        <v>0.111715</v>
+        <v>0.111454</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.174057</v>
+        <v>0.17318</v>
       </c>
       <c r="C83" t="n">
-        <v>0.137972</v>
+        <v>0.139819</v>
       </c>
       <c r="D83" t="n">
-        <v>0.110118</v>
+        <v>0.111907</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.17634</v>
+        <v>0.174954</v>
       </c>
       <c r="C84" t="n">
-        <v>0.139884</v>
+        <v>0.142934</v>
       </c>
       <c r="D84" t="n">
-        <v>0.11346</v>
+        <v>0.116963</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.17655</v>
+        <v>0.177353</v>
       </c>
       <c r="C85" t="n">
-        <v>0.138625</v>
+        <v>0.138574</v>
       </c>
       <c r="D85" t="n">
-        <v>0.117685</v>
+        <v>0.114104</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.175676</v>
+        <v>0.173971</v>
       </c>
       <c r="C86" t="n">
-        <v>0.139985</v>
+        <v>0.142477</v>
       </c>
       <c r="D86" t="n">
-        <v>0.118056</v>
+        <v>0.119801</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.176388</v>
+        <v>0.178174</v>
       </c>
       <c r="C87" t="n">
-        <v>0.141563</v>
+        <v>0.143159</v>
       </c>
       <c r="D87" t="n">
-        <v>0.120239</v>
+        <v>0.124328</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.177397</v>
+        <v>0.176167</v>
       </c>
       <c r="C88" t="n">
-        <v>0.140812</v>
+        <v>0.144714</v>
       </c>
       <c r="D88" t="n">
-        <v>0.121289</v>
+        <v>0.123382</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.177854</v>
+        <v>0.179159</v>
       </c>
       <c r="C89" t="n">
-        <v>0.140616</v>
+        <v>0.142911</v>
       </c>
       <c r="D89" t="n">
-        <v>0.123636</v>
+        <v>0.124115</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.179618</v>
+        <v>0.177701</v>
       </c>
       <c r="C90" t="n">
-        <v>0.143939</v>
+        <v>0.146994</v>
       </c>
       <c r="D90" t="n">
-        <v>0.126287</v>
+        <v>0.129817</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.178907</v>
+        <v>0.179192</v>
       </c>
       <c r="C91" t="n">
-        <v>0.144301</v>
+        <v>0.145251</v>
       </c>
       <c r="D91" t="n">
-        <v>0.129351</v>
+        <v>0.131794</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.179483</v>
+        <v>0.179485</v>
       </c>
       <c r="C92" t="n">
-        <v>0.145259</v>
+        <v>0.149816</v>
       </c>
       <c r="D92" t="n">
-        <v>0.133654</v>
+        <v>0.135063</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181111</v>
+        <v>0.184105</v>
       </c>
       <c r="C93" t="n">
-        <v>0.148887</v>
+        <v>0.150248</v>
       </c>
       <c r="D93" t="n">
-        <v>0.137634</v>
+        <v>0.141744</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.183045</v>
+        <v>0.182966</v>
       </c>
       <c r="C94" t="n">
-        <v>0.15344</v>
+        <v>0.156264</v>
       </c>
       <c r="D94" t="n">
-        <v>0.203016</v>
+        <v>0.211708</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.243874</v>
+        <v>0.242498</v>
       </c>
       <c r="C95" t="n">
-        <v>0.205315</v>
+        <v>0.197576</v>
       </c>
       <c r="D95" t="n">
-        <v>0.213742</v>
+        <v>0.21354</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.243556</v>
+        <v>0.242878</v>
       </c>
       <c r="C96" t="n">
-        <v>0.200599</v>
+        <v>0.198361</v>
       </c>
       <c r="D96" t="n">
-        <v>0.214071</v>
+        <v>0.214019</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.242924</v>
+        <v>0.243063</v>
       </c>
       <c r="C97" t="n">
-        <v>0.207044</v>
+        <v>0.206744</v>
       </c>
       <c r="D97" t="n">
-        <v>0.210681</v>
+        <v>0.216505</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.24328</v>
+        <v>0.243002</v>
       </c>
       <c r="C98" t="n">
-        <v>0.208065</v>
+        <v>0.207993</v>
       </c>
       <c r="D98" t="n">
-        <v>0.218393</v>
+        <v>0.210864</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.24302</v>
+        <v>0.241008</v>
       </c>
       <c r="C99" t="n">
-        <v>0.209235</v>
+        <v>0.20975</v>
       </c>
       <c r="D99" t="n">
-        <v>0.219553</v>
+        <v>0.220379</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.242936</v>
+        <v>0.243081</v>
       </c>
       <c r="C100" t="n">
-        <v>0.210477</v>
+        <v>0.210465</v>
       </c>
       <c r="D100" t="n">
-        <v>0.221797</v>
+        <v>0.222055</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.243622</v>
+        <v>0.243339</v>
       </c>
       <c r="C101" t="n">
-        <v>0.207503</v>
+        <v>0.212153</v>
       </c>
       <c r="D101" t="n">
-        <v>0.223684</v>
+        <v>0.223907</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.24342</v>
+        <v>0.242794</v>
       </c>
       <c r="C102" t="n">
-        <v>0.209318</v>
+        <v>0.213717</v>
       </c>
       <c r="D102" t="n">
-        <v>0.221072</v>
+        <v>0.226055</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.243373</v>
+        <v>0.245975</v>
       </c>
       <c r="C103" t="n">
-        <v>0.215168</v>
+        <v>0.215059</v>
       </c>
       <c r="D103" t="n">
-        <v>0.227692</v>
+        <v>0.227532</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.244249</v>
+        <v>0.24398</v>
       </c>
       <c r="C104" t="n">
-        <v>0.212887</v>
+        <v>0.217229</v>
       </c>
       <c r="D104" t="n">
-        <v>0.230177</v>
+        <v>0.224269</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.244579</v>
+        <v>0.244686</v>
       </c>
       <c r="C105" t="n">
-        <v>0.219367</v>
+        <v>0.219696</v>
       </c>
       <c r="D105" t="n">
-        <v>0.232774</v>
+        <v>0.233842</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.244809</v>
+        <v>0.246137</v>
       </c>
       <c r="C106" t="n">
-        <v>0.221332</v>
+        <v>0.222464</v>
       </c>
       <c r="D106" t="n">
-        <v>0.2363</v>
+        <v>0.237755</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.246539</v>
+        <v>0.247176</v>
       </c>
       <c r="C107" t="n">
-        <v>0.225111</v>
+        <v>0.225945</v>
       </c>
       <c r="D107" t="n">
-        <v>0.237439</v>
+        <v>0.242546</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.249352</v>
+        <v>0.250412</v>
       </c>
       <c r="C108" t="n">
-        <v>0.229397</v>
+        <v>0.225366</v>
       </c>
       <c r="D108" t="n">
-        <v>0.258418</v>
+        <v>0.258717</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.253848</v>
+        <v>0.254441</v>
       </c>
       <c r="C109" t="n">
-        <v>0.236787</v>
+        <v>0.232561</v>
       </c>
       <c r="D109" t="n">
-        <v>0.260177</v>
+        <v>0.260617</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.277168</v>
+        <v>0.279974</v>
       </c>
       <c r="C110" t="n">
-        <v>0.229561</v>
+        <v>0.227572</v>
       </c>
       <c r="D110" t="n">
-        <v>0.265166</v>
+        <v>0.262521</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.274636</v>
+        <v>0.282561</v>
       </c>
       <c r="C111" t="n">
-        <v>0.231464</v>
+        <v>0.230088</v>
       </c>
       <c r="D111" t="n">
-        <v>0.261279</v>
+        <v>0.258482</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.274004</v>
+        <v>0.27273</v>
       </c>
       <c r="C112" t="n">
-        <v>0.230657</v>
+        <v>0.231148</v>
       </c>
       <c r="D112" t="n">
-        <v>0.263072</v>
+        <v>0.260556</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.278432</v>
+        <v>0.277905</v>
       </c>
       <c r="C113" t="n">
-        <v>0.234069</v>
+        <v>0.230189</v>
       </c>
       <c r="D113" t="n">
-        <v>0.263256</v>
+        <v>0.260759</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.280591</v>
+        <v>0.278665</v>
       </c>
       <c r="C114" t="n">
-        <v>0.236919</v>
+        <v>0.235233</v>
       </c>
       <c r="D114" t="n">
-        <v>0.2664</v>
+        <v>0.26419</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.27766</v>
+        <v>0.278007</v>
       </c>
       <c r="C115" t="n">
-        <v>0.239357</v>
+        <v>0.236422</v>
       </c>
       <c r="D115" t="n">
-        <v>0.269064</v>
+        <v>0.266716</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.279407</v>
+        <v>0.284207</v>
       </c>
       <c r="C116" t="n">
-        <v>0.242487</v>
+        <v>0.240883</v>
       </c>
       <c r="D116" t="n">
-        <v>0.269055</v>
+        <v>0.267042</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.273522</v>
+        <v>0.277171</v>
       </c>
       <c r="C117" t="n">
-        <v>0.245059</v>
+        <v>0.244212</v>
       </c>
       <c r="D117" t="n">
-        <v>0.271918</v>
+        <v>0.269814</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.27868</v>
+        <v>0.274904</v>
       </c>
       <c r="C118" t="n">
-        <v>0.248015</v>
+        <v>0.247274</v>
       </c>
       <c r="D118" t="n">
-        <v>0.278213</v>
+        <v>0.273869</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.282699</v>
+        <v>0.273164</v>
       </c>
       <c r="C119" t="n">
-        <v>0.251418</v>
+        <v>0.249917</v>
       </c>
       <c r="D119" t="n">
-        <v>0.281672</v>
+        <v>0.279367</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.283074</v>
+        <v>0.27439</v>
       </c>
       <c r="C120" t="n">
-        <v>0.253044</v>
+        <v>0.253261</v>
       </c>
       <c r="D120" t="n">
-        <v>0.285474</v>
+        <v>0.283318</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.284548</v>
+        <v>0.281073</v>
       </c>
       <c r="C121" t="n">
-        <v>0.258792</v>
+        <v>0.257907</v>
       </c>
       <c r="D121" t="n">
-        <v>0.291424</v>
+        <v>0.289643</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.280665</v>
+        <v>0.288838</v>
       </c>
       <c r="C122" t="n">
-        <v>0.264877</v>
+        <v>0.263682</v>
       </c>
       <c r="D122" t="n">
-        <v>0.297587</v>
+        <v>0.296064</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.285379</v>
+        <v>0.289613</v>
       </c>
       <c r="C123" t="n">
-        <v>0.272399</v>
+        <v>0.271395</v>
       </c>
       <c r="D123" t="n">
-        <v>0.282538</v>
+        <v>0.279948</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.351616</v>
+        <v>0.351949</v>
       </c>
       <c r="C124" t="n">
-        <v>0.249847</v>
+        <v>0.248999</v>
       </c>
       <c r="D124" t="n">
-        <v>0.285018</v>
+        <v>0.282097</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.352135</v>
+        <v>0.354151</v>
       </c>
       <c r="C125" t="n">
-        <v>0.252248</v>
+        <v>0.250909</v>
       </c>
       <c r="D125" t="n">
-        <v>0.287766</v>
+        <v>0.285146</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.351816</v>
+        <v>0.354216</v>
       </c>
       <c r="C126" t="n">
-        <v>0.253441</v>
+        <v>0.252695</v>
       </c>
       <c r="D126" t="n">
-        <v>0.290412</v>
+        <v>0.287985</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.352502</v>
+        <v>0.353352</v>
       </c>
       <c r="C127" t="n">
-        <v>0.256678</v>
+        <v>0.256221</v>
       </c>
       <c r="D127" t="n">
-        <v>0.293116</v>
+        <v>0.290039</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.351484</v>
+        <v>0.353804</v>
       </c>
       <c r="C128" t="n">
-        <v>0.259494</v>
+        <v>0.259552</v>
       </c>
       <c r="D128" t="n">
-        <v>0.295551</v>
+        <v>0.293506</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.352235</v>
+        <v>0.352803</v>
       </c>
       <c r="C129" t="n">
-        <v>0.262517</v>
+        <v>0.26325</v>
       </c>
       <c r="D129" t="n">
-        <v>0.29908</v>
+        <v>0.297581</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.352875</v>
+        <v>0.353172</v>
       </c>
       <c r="C130" t="n">
-        <v>0.266171</v>
+        <v>0.266348</v>
       </c>
       <c r="D130" t="n">
-        <v>0.302852</v>
+        <v>0.30039</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.352981</v>
+        <v>0.352965</v>
       </c>
       <c r="C131" t="n">
-        <v>0.269615</v>
+        <v>0.269937</v>
       </c>
       <c r="D131" t="n">
-        <v>0.306164</v>
+        <v>0.30385</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.352691</v>
+        <v>0.354595</v>
       </c>
       <c r="C132" t="n">
-        <v>0.273493</v>
+        <v>0.273594</v>
       </c>
       <c r="D132" t="n">
-        <v>0.310585</v>
+        <v>0.308995</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.353791</v>
+        <v>0.355576</v>
       </c>
       <c r="C133" t="n">
-        <v>0.277353</v>
+        <v>0.277645</v>
       </c>
       <c r="D133" t="n">
-        <v>0.314652</v>
+        <v>0.31333</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.354684</v>
+        <v>0.355889</v>
       </c>
       <c r="C134" t="n">
-        <v>0.281289</v>
+        <v>0.28202</v>
       </c>
       <c r="D134" t="n">
-        <v>0.320121</v>
+        <v>0.318905</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.356821</v>
+        <v>0.357098</v>
       </c>
       <c r="C135" t="n">
-        <v>0.286498</v>
+        <v>0.2875</v>
       </c>
       <c r="D135" t="n">
-        <v>0.326672</v>
+        <v>0.325895</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.359539</v>
+        <v>0.35914</v>
       </c>
       <c r="C136" t="n">
-        <v>0.29299</v>
+        <v>0.293793</v>
       </c>
       <c r="D136" t="n">
-        <v>0.336402</v>
+        <v>0.335624</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.362382</v>
+        <v>0.361162</v>
       </c>
       <c r="C137" t="n">
-        <v>0.302221</v>
+        <v>0.302971</v>
       </c>
       <c r="D137" t="n">
-        <v>0.305822</v>
+        <v>0.301873</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.415429</v>
+        <v>0.414004</v>
       </c>
       <c r="C138" t="n">
-        <v>0.270893</v>
+        <v>0.268275</v>
       </c>
       <c r="D138" t="n">
-        <v>0.308749</v>
+        <v>0.304105</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.416046</v>
+        <v>0.414054</v>
       </c>
       <c r="C139" t="n">
-        <v>0.273049</v>
+        <v>0.270789</v>
       </c>
       <c r="D139" t="n">
-        <v>0.310015</v>
+        <v>0.306305</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.410522</v>
+        <v>0.408212</v>
       </c>
       <c r="C140" t="n">
-        <v>0.275771</v>
+        <v>0.273103</v>
       </c>
       <c r="D140" t="n">
-        <v>0.312721</v>
+        <v>0.308743</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.416608</v>
+        <v>0.413584</v>
       </c>
       <c r="C141" t="n">
-        <v>0.27817</v>
+        <v>0.275559</v>
       </c>
       <c r="D141" t="n">
-        <v>0.314607</v>
+        <v>0.310904</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.411347</v>
+        <v>0.413971</v>
       </c>
       <c r="C142" t="n">
-        <v>0.281334</v>
+        <v>0.278899</v>
       </c>
       <c r="D142" t="n">
-        <v>0.317944</v>
+        <v>0.314507</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.415474</v>
+        <v>0.409356</v>
       </c>
       <c r="C143" t="n">
-        <v>0.283788</v>
+        <v>0.281332</v>
       </c>
       <c r="D143" t="n">
-        <v>0.319239</v>
+        <v>0.316642</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0409015</v>
+        <v>0.0433635</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0369618</v>
+        <v>0.0375612</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0426318</v>
+        <v>0.0417883</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0410385</v>
+        <v>0.0434547</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0371215</v>
+        <v>0.0380695</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0429438</v>
+        <v>0.0421819</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.041036</v>
+        <v>0.0435641</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0374345</v>
+        <v>0.038132</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0431969</v>
+        <v>0.0425221</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0411537</v>
+        <v>0.0436577</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0377057</v>
+        <v>0.0385798</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0434779</v>
+        <v>0.0428173</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0413121</v>
+        <v>0.0437654</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0380108</v>
+        <v>0.0387846</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0439261</v>
+        <v>0.0432705</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0414534</v>
+        <v>0.0439053</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0383076</v>
+        <v>0.0389411</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0446592</v>
+        <v>0.0440447</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0416194</v>
+        <v>0.0440626</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0389434</v>
+        <v>0.0396653</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0459973</v>
+        <v>0.0453139</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0419431</v>
+        <v>0.0443006</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0402493</v>
+        <v>0.0407317</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0443767</v>
+        <v>0.041032</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0467525</v>
+        <v>0.0445637</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0398467</v>
+        <v>0.038331</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0450022</v>
+        <v>0.0416229</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.046657</v>
+        <v>0.0446454</v>
       </c>
       <c r="C11" t="n">
-        <v>0.040156</v>
+        <v>0.0389828</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0453071</v>
+        <v>0.0419388</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0467048</v>
+        <v>0.0446892</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0404408</v>
+        <v>0.0391702</v>
       </c>
       <c r="D12" t="n">
-        <v>0.045605</v>
+        <v>0.04228</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0468221</v>
+        <v>0.0448194</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0406767</v>
+        <v>0.0394962</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0460385</v>
+        <v>0.0425963</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0469243</v>
+        <v>0.0449189</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0411041</v>
+        <v>0.0398503</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0463639</v>
+        <v>0.0430111</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.047052</v>
+        <v>0.0450497</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0414036</v>
+        <v>0.0400496</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0467609</v>
+        <v>0.0432424</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0471558</v>
+        <v>0.0451692</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0415111</v>
+        <v>0.0397551</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0466509</v>
+        <v>0.0433416</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0472821</v>
+        <v>0.0452801</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0416384</v>
+        <v>0.0405875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.04736</v>
+        <v>0.0439295</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0474101</v>
+        <v>0.0454463</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0419005</v>
+        <v>0.0403558</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0472003</v>
+        <v>0.0441817</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0475433</v>
+        <v>0.0455781</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0426966</v>
+        <v>0.0409165</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0481147</v>
+        <v>0.0446548</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0476706</v>
+        <v>0.0457127</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0430606</v>
+        <v>0.0415306</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0485004</v>
+        <v>0.0452289</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0477374</v>
+        <v>0.0458667</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0437105</v>
+        <v>0.0422139</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0495871</v>
+        <v>0.0463306</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0481888</v>
+        <v>0.0463837</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0448114</v>
+        <v>0.0424834</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0531698</v>
+        <v>0.0512656</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.048599</v>
+        <v>0.0468013</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0505726</v>
+        <v>0.047864</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0468143</v>
+        <v>0.0450923</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0496546</v>
+        <v>0.0498508</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0429217</v>
+        <v>0.0427057</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0473411</v>
+        <v>0.0454764</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0492928</v>
+        <v>0.0495059</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0431419</v>
+        <v>0.0428805</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0477016</v>
+        <v>0.0457505</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0493607</v>
+        <v>0.0496013</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0434593</v>
+        <v>0.0429142</v>
       </c>
       <c r="D26" t="n">
-        <v>0.048061</v>
+        <v>0.0460686</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0494521</v>
+        <v>0.0496739</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0436938</v>
+        <v>0.0434244</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0483933</v>
+        <v>0.0463488</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0495327</v>
+        <v>0.0497703</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0439736</v>
+        <v>0.0432921</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0487444</v>
+        <v>0.0467463</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0496673</v>
+        <v>0.0499136</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0443072</v>
+        <v>0.0441462</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0491337</v>
+        <v>0.0470112</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0497702</v>
+        <v>0.0500014</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0445772</v>
+        <v>0.0440361</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0494954</v>
+        <v>0.0473691</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0499288</v>
+        <v>0.050195</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0447619</v>
+        <v>0.0443953</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0498067</v>
+        <v>0.0476232</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0501973</v>
+        <v>0.0503486</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0451341</v>
+        <v>0.0442702</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0502665</v>
+        <v>0.0482647</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0502416</v>
+        <v>0.0504464</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0454836</v>
+        <v>0.0452979</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0506829</v>
+        <v>0.0488698</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0504686</v>
+        <v>0.0506616</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0457207</v>
+        <v>0.0453775</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0514259</v>
+        <v>0.0516695</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0506384</v>
+        <v>0.0507904</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0480939</v>
+        <v>0.0481916</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0546039</v>
+        <v>0.056293</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0511772</v>
+        <v>0.0513039</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0528388</v>
+        <v>0.0526445</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0622393</v>
+        <v>0.063457</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0529412</v>
+        <v>0.0531544</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0605656</v>
+        <v>0.0597965</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0514693</v>
+        <v>0.0494476</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0549996</v>
+        <v>0.0548344</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0474349</v>
+        <v>0.0474047</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0521189</v>
+        <v>0.0493314</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0549748</v>
+        <v>0.0539051</v>
       </c>
       <c r="C39" t="n">
-        <v>0.047767</v>
+        <v>0.0476607</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0523749</v>
+        <v>0.0503391</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0550767</v>
+        <v>0.0540384</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0481153</v>
+        <v>0.0481028</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0527929</v>
+        <v>0.0508649</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0552083</v>
+        <v>0.0541146</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0486043</v>
+        <v>0.0484602</v>
       </c>
       <c r="D41" t="n">
-        <v>0.053533</v>
+        <v>0.0506985</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0553379</v>
+        <v>0.0542264</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0487834</v>
+        <v>0.0486817</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0525336</v>
+        <v>0.0512427</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0554776</v>
+        <v>0.0543591</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0493514</v>
+        <v>0.0490687</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0529659</v>
+        <v>0.0519904</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0556251</v>
+        <v>0.0545066</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0496348</v>
+        <v>0.0496241</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0533824</v>
+        <v>0.051943</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0557732</v>
+        <v>0.0546452</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0500947</v>
+        <v>0.0499154</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0541717</v>
+        <v>0.0527713</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0559163</v>
+        <v>0.0547561</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0506225</v>
+        <v>0.0504946</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0543453</v>
+        <v>0.0544754</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0561187</v>
+        <v>0.0549796</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0522473</v>
+        <v>0.0520359</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0558753</v>
+        <v>0.0568101</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0563455</v>
+        <v>0.0552174</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0543849</v>
+        <v>0.0543617</v>
       </c>
       <c r="D48" t="n">
-        <v>0.060036</v>
+        <v>0.0602741</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0567201</v>
+        <v>0.0555958</v>
       </c>
       <c r="C49" t="n">
-        <v>0.057273</v>
+        <v>0.0571307</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0635946</v>
+        <v>0.0641697</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0579428</v>
+        <v>0.0568661</v>
       </c>
       <c r="C50" t="n">
-        <v>0.06057</v>
+        <v>0.0604804</v>
       </c>
       <c r="D50" t="n">
-        <v>0.06883930000000001</v>
+        <v>0.0687132</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0618316</v>
+        <v>0.0608221</v>
       </c>
       <c r="C51" t="n">
-        <v>0.06534040000000001</v>
+        <v>0.0650979</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0563127</v>
+        <v>0.0541627</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0672079</v>
+        <v>0.0661547</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0723722</v>
+        <v>0.0722257</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0568136</v>
+        <v>0.0541609</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0614537</v>
+        <v>0.061746</v>
       </c>
       <c r="C53" t="n">
-        <v>0.048621</v>
+        <v>0.0487468</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0555735</v>
+        <v>0.0551934</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0608109</v>
+        <v>0.0614725</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0491588</v>
+        <v>0.0490163</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0571926</v>
+        <v>0.0547751</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0610178</v>
+        <v>0.0615207</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0496845</v>
+        <v>0.0498008</v>
       </c>
       <c r="D55" t="n">
-        <v>0.055813</v>
+        <v>0.0558762</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.061023</v>
+        <v>0.0616849</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0502889</v>
+        <v>0.0503474</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0562642</v>
+        <v>0.0555324</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0611301</v>
+        <v>0.0617767</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0509085</v>
+        <v>0.050778</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0568613</v>
+        <v>0.0559013</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0612823</v>
+        <v>0.0619437</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0515268</v>
+        <v>0.0516623</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0588576</v>
+        <v>0.0568731</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0614224</v>
+        <v>0.0621014</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0521223</v>
+        <v>0.0517644</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0593465</v>
+        <v>0.0584342</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0615996</v>
+        <v>0.0622813</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0532715</v>
+        <v>0.0533268</v>
       </c>
       <c r="D60" t="n">
-        <v>0.061229</v>
+        <v>0.0601397</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0618474</v>
+        <v>0.06252000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0551795</v>
+        <v>0.0549099</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0615867</v>
+        <v>0.0622456</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0621403</v>
+        <v>0.06288150000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0570364</v>
+        <v>0.0566741</v>
       </c>
       <c r="D62" t="n">
-        <v>0.06386219999999999</v>
+        <v>0.0650625</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0632672</v>
+        <v>0.06396930000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0592228</v>
+        <v>0.0591706</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0671824</v>
+        <v>0.0680793</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0654563</v>
+        <v>0.0658633</v>
       </c>
       <c r="C64" t="n">
-        <v>0.062153</v>
+        <v>0.0618195</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0730063</v>
+        <v>0.0728606</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0680706</v>
+        <v>0.06878629999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0661347</v>
+        <v>0.0662142</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0792858</v>
+        <v>0.0794575</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07240000000000001</v>
+        <v>0.0731566</v>
       </c>
       <c r="C66" t="n">
-        <v>0.07228900000000001</v>
+        <v>0.07186969999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0604053</v>
+        <v>0.0588117</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0771607</v>
+        <v>0.0710489</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0601453</v>
+        <v>0.0559311</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0611</v>
+        <v>0.059254</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0774379</v>
+        <v>0.0712723</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0605523</v>
+        <v>0.0563629</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0617174</v>
+        <v>0.0597291</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0773208</v>
+        <v>0.07180640000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0609306</v>
+        <v>0.056874</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0623386</v>
+        <v>0.0601745</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.07792930000000001</v>
+        <v>0.0719267</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0614785</v>
+        <v>0.0574834</v>
       </c>
       <c r="D70" t="n">
-        <v>0.063121</v>
+        <v>0.0603703</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0781466</v>
+        <v>0.0721962</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0622698</v>
+        <v>0.0581315</v>
       </c>
       <c r="D71" t="n">
-        <v>0.06377339999999999</v>
+        <v>0.0601143</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0784981</v>
+        <v>0.0724075</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0630474</v>
+        <v>0.0590222</v>
       </c>
       <c r="D72" t="n">
-        <v>0.064609</v>
+        <v>0.0610932</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0791182</v>
+        <v>0.0727295</v>
       </c>
       <c r="C73" t="n">
-        <v>0.06406249999999999</v>
+        <v>0.0599256</v>
       </c>
       <c r="D73" t="n">
-        <v>0.06590550000000001</v>
+        <v>0.0625653</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0794163</v>
+        <v>0.07325520000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.06508700000000001</v>
+        <v>0.0611576</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0673936</v>
+        <v>0.0642616</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.07966860000000001</v>
+        <v>0.07367310000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0663864</v>
+        <v>0.0625063</v>
       </c>
       <c r="D75" t="n">
-        <v>0.06920460000000001</v>
+        <v>0.0661554</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0804806</v>
+        <v>0.0741657</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0678687</v>
+        <v>0.0639911</v>
       </c>
       <c r="D76" t="n">
-        <v>0.07144010000000001</v>
+        <v>0.068574</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0815621</v>
+        <v>0.0754278</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0698232</v>
+        <v>0.0658961</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0741314</v>
+        <v>0.07113129999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08292679999999999</v>
+        <v>0.0771495</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0722636</v>
+        <v>0.0685863</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0781179</v>
+        <v>0.0757201</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.08488080000000001</v>
+        <v>0.079711</v>
       </c>
       <c r="C79" t="n">
-        <v>0.07582849999999999</v>
+        <v>0.0723842</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0841358</v>
+        <v>0.0821533</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0883722</v>
+        <v>0.08321489999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0810207</v>
+        <v>0.0776669</v>
       </c>
       <c r="D80" t="n">
-        <v>0.10301</v>
+        <v>0.103626</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.178029</v>
+        <v>0.172407</v>
       </c>
       <c r="C81" t="n">
-        <v>0.138976</v>
+        <v>0.139964</v>
       </c>
       <c r="D81" t="n">
-        <v>0.105359</v>
+        <v>0.10617</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.174182</v>
+        <v>0.172942</v>
       </c>
       <c r="C82" t="n">
-        <v>0.139636</v>
+        <v>0.137772</v>
       </c>
       <c r="D82" t="n">
-        <v>0.111454</v>
+        <v>0.104018</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.17318</v>
+        <v>0.174183</v>
       </c>
       <c r="C83" t="n">
-        <v>0.139819</v>
+        <v>0.139167</v>
       </c>
       <c r="D83" t="n">
-        <v>0.111907</v>
+        <v>0.110781</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.174954</v>
+        <v>0.174722</v>
       </c>
       <c r="C84" t="n">
-        <v>0.142934</v>
+        <v>0.138448</v>
       </c>
       <c r="D84" t="n">
-        <v>0.116963</v>
+        <v>0.110609</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.177353</v>
+        <v>0.175438</v>
       </c>
       <c r="C85" t="n">
-        <v>0.138574</v>
+        <v>0.140848</v>
       </c>
       <c r="D85" t="n">
-        <v>0.114104</v>
+        <v>0.114801</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.173971</v>
+        <v>0.17542</v>
       </c>
       <c r="C86" t="n">
-        <v>0.142477</v>
+        <v>0.140508</v>
       </c>
       <c r="D86" t="n">
-        <v>0.119801</v>
+        <v>0.114108</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.178174</v>
+        <v>0.176284</v>
       </c>
       <c r="C87" t="n">
-        <v>0.143159</v>
+        <v>0.143551</v>
       </c>
       <c r="D87" t="n">
-        <v>0.124328</v>
+        <v>0.122729</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.176167</v>
+        <v>0.176929</v>
       </c>
       <c r="C88" t="n">
-        <v>0.144714</v>
+        <v>0.141495</v>
       </c>
       <c r="D88" t="n">
-        <v>0.123382</v>
+        <v>0.121225</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.179159</v>
+        <v>0.176927</v>
       </c>
       <c r="C89" t="n">
-        <v>0.142911</v>
+        <v>0.143662</v>
       </c>
       <c r="D89" t="n">
-        <v>0.124115</v>
+        <v>0.125341</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.177701</v>
+        <v>0.176861</v>
       </c>
       <c r="C90" t="n">
-        <v>0.146994</v>
+        <v>0.14336</v>
       </c>
       <c r="D90" t="n">
-        <v>0.129817</v>
+        <v>0.127059</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.179192</v>
+        <v>0.17857</v>
       </c>
       <c r="C91" t="n">
-        <v>0.145251</v>
+        <v>0.146051</v>
       </c>
       <c r="D91" t="n">
-        <v>0.131794</v>
+        <v>0.130922</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.179485</v>
+        <v>0.179694</v>
       </c>
       <c r="C92" t="n">
-        <v>0.149816</v>
+        <v>0.14758</v>
       </c>
       <c r="D92" t="n">
-        <v>0.135063</v>
+        <v>0.133583</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.184105</v>
+        <v>0.181183</v>
       </c>
       <c r="C93" t="n">
-        <v>0.150248</v>
+        <v>0.151832</v>
       </c>
       <c r="D93" t="n">
-        <v>0.141744</v>
+        <v>0.139591</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.182966</v>
+        <v>0.183387</v>
       </c>
       <c r="C94" t="n">
-        <v>0.156264</v>
+        <v>0.155466</v>
       </c>
       <c r="D94" t="n">
-        <v>0.211708</v>
+        <v>0.205364</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.242498</v>
+        <v>0.238413</v>
       </c>
       <c r="C95" t="n">
-        <v>0.197576</v>
+        <v>0.199268</v>
       </c>
       <c r="D95" t="n">
-        <v>0.21354</v>
+        <v>0.206937</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.242878</v>
+        <v>0.238788</v>
       </c>
       <c r="C96" t="n">
-        <v>0.198361</v>
+        <v>0.200275</v>
       </c>
       <c r="D96" t="n">
-        <v>0.214019</v>
+        <v>0.208853</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.243063</v>
+        <v>0.237729</v>
       </c>
       <c r="C97" t="n">
-        <v>0.206744</v>
+        <v>0.201263</v>
       </c>
       <c r="D97" t="n">
-        <v>0.216505</v>
+        <v>0.210397</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.243002</v>
+        <v>0.238943</v>
       </c>
       <c r="C98" t="n">
-        <v>0.207993</v>
+        <v>0.202428</v>
       </c>
       <c r="D98" t="n">
-        <v>0.210864</v>
+        <v>0.212543</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.241008</v>
+        <v>0.238256</v>
       </c>
       <c r="C99" t="n">
-        <v>0.20975</v>
+        <v>0.204014</v>
       </c>
       <c r="D99" t="n">
-        <v>0.220379</v>
+        <v>0.215116</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.243081</v>
+        <v>0.239032</v>
       </c>
       <c r="C100" t="n">
-        <v>0.210465</v>
+        <v>0.205042</v>
       </c>
       <c r="D100" t="n">
-        <v>0.222055</v>
+        <v>0.215714</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.243339</v>
+        <v>0.239114</v>
       </c>
       <c r="C101" t="n">
-        <v>0.212153</v>
+        <v>0.207196</v>
       </c>
       <c r="D101" t="n">
-        <v>0.223907</v>
+        <v>0.218394</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.242794</v>
+        <v>0.239092</v>
       </c>
       <c r="C102" t="n">
-        <v>0.213717</v>
+        <v>0.208232</v>
       </c>
       <c r="D102" t="n">
-        <v>0.226055</v>
+        <v>0.220143</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.245975</v>
+        <v>0.239384</v>
       </c>
       <c r="C103" t="n">
-        <v>0.215059</v>
+        <v>0.210158</v>
       </c>
       <c r="D103" t="n">
-        <v>0.227532</v>
+        <v>0.222088</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.24398</v>
+        <v>0.23966</v>
       </c>
       <c r="C104" t="n">
-        <v>0.217229</v>
+        <v>0.211665</v>
       </c>
       <c r="D104" t="n">
-        <v>0.224269</v>
+        <v>0.224824</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.244686</v>
+        <v>0.240926</v>
       </c>
       <c r="C105" t="n">
-        <v>0.219696</v>
+        <v>0.214136</v>
       </c>
       <c r="D105" t="n">
-        <v>0.233842</v>
+        <v>0.227472</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.246137</v>
+        <v>0.241864</v>
       </c>
       <c r="C106" t="n">
-        <v>0.222464</v>
+        <v>0.211381</v>
       </c>
       <c r="D106" t="n">
-        <v>0.237755</v>
+        <v>0.230624</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247176</v>
+        <v>0.242975</v>
       </c>
       <c r="C107" t="n">
-        <v>0.225945</v>
+        <v>0.215054</v>
       </c>
       <c r="D107" t="n">
-        <v>0.242546</v>
+        <v>0.235829</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.250412</v>
+        <v>0.245727</v>
       </c>
       <c r="C108" t="n">
-        <v>0.225366</v>
+        <v>0.219386</v>
       </c>
       <c r="D108" t="n">
-        <v>0.258717</v>
+        <v>0.254412</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.254441</v>
+        <v>0.250495</v>
       </c>
       <c r="C109" t="n">
-        <v>0.232561</v>
+        <v>0.225916</v>
       </c>
       <c r="D109" t="n">
-        <v>0.260617</v>
+        <v>0.25641</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.279974</v>
+        <v>0.276709</v>
       </c>
       <c r="C110" t="n">
-        <v>0.227572</v>
+        <v>0.224071</v>
       </c>
       <c r="D110" t="n">
-        <v>0.262521</v>
+        <v>0.253438</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.282561</v>
+        <v>0.277117</v>
       </c>
       <c r="C111" t="n">
-        <v>0.230088</v>
+        <v>0.226893</v>
       </c>
       <c r="D111" t="n">
-        <v>0.258482</v>
+        <v>0.253666</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.27273</v>
+        <v>0.275788</v>
       </c>
       <c r="C112" t="n">
-        <v>0.231148</v>
+        <v>0.228051</v>
       </c>
       <c r="D112" t="n">
-        <v>0.260556</v>
+        <v>0.253503</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.277905</v>
+        <v>0.275953</v>
       </c>
       <c r="C113" t="n">
-        <v>0.230189</v>
+        <v>0.229391</v>
       </c>
       <c r="D113" t="n">
-        <v>0.260759</v>
+        <v>0.255994</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.278665</v>
+        <v>0.275946</v>
       </c>
       <c r="C114" t="n">
-        <v>0.235233</v>
+        <v>0.231867</v>
       </c>
       <c r="D114" t="n">
-        <v>0.26419</v>
+        <v>0.258703</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.278007</v>
+        <v>0.275144</v>
       </c>
       <c r="C115" t="n">
-        <v>0.236422</v>
+        <v>0.234615</v>
       </c>
       <c r="D115" t="n">
-        <v>0.266716</v>
+        <v>0.261045</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.284207</v>
+        <v>0.275868</v>
       </c>
       <c r="C116" t="n">
-        <v>0.240883</v>
+        <v>0.237167</v>
       </c>
       <c r="D116" t="n">
-        <v>0.267042</v>
+        <v>0.265094</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.277171</v>
+        <v>0.275632</v>
       </c>
       <c r="C117" t="n">
-        <v>0.244212</v>
+        <v>0.240961</v>
       </c>
       <c r="D117" t="n">
-        <v>0.269814</v>
+        <v>0.268367</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.274904</v>
+        <v>0.276854</v>
       </c>
       <c r="C118" t="n">
-        <v>0.247274</v>
+        <v>0.244194</v>
       </c>
       <c r="D118" t="n">
-        <v>0.273869</v>
+        <v>0.272192</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.273164</v>
+        <v>0.279479</v>
       </c>
       <c r="C119" t="n">
-        <v>0.249917</v>
+        <v>0.246077</v>
       </c>
       <c r="D119" t="n">
-        <v>0.279367</v>
+        <v>0.27535</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.27439</v>
+        <v>0.278785</v>
       </c>
       <c r="C120" t="n">
-        <v>0.253261</v>
+        <v>0.249835</v>
       </c>
       <c r="D120" t="n">
-        <v>0.283318</v>
+        <v>0.279802</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.281073</v>
+        <v>0.280663</v>
       </c>
       <c r="C121" t="n">
-        <v>0.257907</v>
+        <v>0.254265</v>
       </c>
       <c r="D121" t="n">
-        <v>0.289643</v>
+        <v>0.284439</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.288838</v>
+        <v>0.28504</v>
       </c>
       <c r="C122" t="n">
-        <v>0.263682</v>
+        <v>0.260277</v>
       </c>
       <c r="D122" t="n">
-        <v>0.296064</v>
+        <v>0.291969</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.289613</v>
+        <v>0.288541</v>
       </c>
       <c r="C123" t="n">
-        <v>0.271395</v>
+        <v>0.267729</v>
       </c>
       <c r="D123" t="n">
-        <v>0.279948</v>
+        <v>0.278215</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.351949</v>
+        <v>0.350801</v>
       </c>
       <c r="C124" t="n">
-        <v>0.248999</v>
+        <v>0.246557</v>
       </c>
       <c r="D124" t="n">
-        <v>0.282097</v>
+        <v>0.278466</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.354151</v>
+        <v>0.349781</v>
       </c>
       <c r="C125" t="n">
-        <v>0.250909</v>
+        <v>0.24863</v>
       </c>
       <c r="D125" t="n">
-        <v>0.285146</v>
+        <v>0.281732</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.354216</v>
+        <v>0.349857</v>
       </c>
       <c r="C126" t="n">
-        <v>0.252695</v>
+        <v>0.249721</v>
       </c>
       <c r="D126" t="n">
-        <v>0.287985</v>
+        <v>0.284015</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.353352</v>
+        <v>0.35048</v>
       </c>
       <c r="C127" t="n">
-        <v>0.256221</v>
+        <v>0.252554</v>
       </c>
       <c r="D127" t="n">
-        <v>0.290039</v>
+        <v>0.287348</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.353804</v>
+        <v>0.351317</v>
       </c>
       <c r="C128" t="n">
-        <v>0.259552</v>
+        <v>0.256138</v>
       </c>
       <c r="D128" t="n">
-        <v>0.293506</v>
+        <v>0.290391</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.352803</v>
+        <v>0.35011</v>
       </c>
       <c r="C129" t="n">
-        <v>0.26325</v>
+        <v>0.259711</v>
       </c>
       <c r="D129" t="n">
-        <v>0.297581</v>
+        <v>0.293246</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.353172</v>
+        <v>0.351698</v>
       </c>
       <c r="C130" t="n">
-        <v>0.266348</v>
+        <v>0.26333</v>
       </c>
       <c r="D130" t="n">
-        <v>0.30039</v>
+        <v>0.296492</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.352965</v>
+        <v>0.349959</v>
       </c>
       <c r="C131" t="n">
-        <v>0.269937</v>
+        <v>0.266415</v>
       </c>
       <c r="D131" t="n">
-        <v>0.30385</v>
+        <v>0.300092</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.354595</v>
+        <v>0.351493</v>
       </c>
       <c r="C132" t="n">
-        <v>0.273594</v>
+        <v>0.270747</v>
       </c>
       <c r="D132" t="n">
-        <v>0.308995</v>
+        <v>0.304427</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.355576</v>
+        <v>0.351685</v>
       </c>
       <c r="C133" t="n">
-        <v>0.277645</v>
+        <v>0.27419</v>
       </c>
       <c r="D133" t="n">
-        <v>0.31333</v>
+        <v>0.309779</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.355889</v>
+        <v>0.351995</v>
       </c>
       <c r="C134" t="n">
-        <v>0.28202</v>
+        <v>0.278613</v>
       </c>
       <c r="D134" t="n">
-        <v>0.318905</v>
+        <v>0.31607</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.357098</v>
+        <v>0.352958</v>
       </c>
       <c r="C135" t="n">
-        <v>0.2875</v>
+        <v>0.283772</v>
       </c>
       <c r="D135" t="n">
-        <v>0.325895</v>
+        <v>0.322288</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.35914</v>
+        <v>0.355178</v>
       </c>
       <c r="C136" t="n">
-        <v>0.293793</v>
+        <v>0.290304</v>
       </c>
       <c r="D136" t="n">
-        <v>0.335624</v>
+        <v>0.332845</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.361162</v>
+        <v>0.358976</v>
       </c>
       <c r="C137" t="n">
-        <v>0.302971</v>
+        <v>0.299523</v>
       </c>
       <c r="D137" t="n">
-        <v>0.301873</v>
+        <v>0.299274</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.414004</v>
+        <v>0.412627</v>
       </c>
       <c r="C138" t="n">
-        <v>0.268275</v>
+        <v>0.267136</v>
       </c>
       <c r="D138" t="n">
-        <v>0.304105</v>
+        <v>0.301875</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.414054</v>
+        <v>0.412443</v>
       </c>
       <c r="C139" t="n">
-        <v>0.270789</v>
+        <v>0.269829</v>
       </c>
       <c r="D139" t="n">
-        <v>0.306305</v>
+        <v>0.30443</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.408212</v>
+        <v>0.412385</v>
       </c>
       <c r="C140" t="n">
-        <v>0.273103</v>
+        <v>0.272068</v>
       </c>
       <c r="D140" t="n">
-        <v>0.308743</v>
+        <v>0.306565</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.413584</v>
+        <v>0.413087</v>
       </c>
       <c r="C141" t="n">
-        <v>0.275559</v>
+        <v>0.274858</v>
       </c>
       <c r="D141" t="n">
-        <v>0.310904</v>
+        <v>0.308934</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.413971</v>
+        <v>0.41354</v>
       </c>
       <c r="C142" t="n">
-        <v>0.278899</v>
+        <v>0.277758</v>
       </c>
       <c r="D142" t="n">
-        <v>0.314507</v>
+        <v>0.311192</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.409356</v>
+        <v>0.41268</v>
       </c>
       <c r="C143" t="n">
-        <v>0.281332</v>
+        <v>0.28011</v>
       </c>
       <c r="D143" t="n">
-        <v>0.316642</v>
+        <v>0.313782</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0433635</v>
+        <v>0.0408207</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0375612</v>
+        <v>0.0356253</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0417883</v>
+        <v>0.0375495</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0434547</v>
+        <v>0.0410133</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0380695</v>
+        <v>0.0359682</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0421819</v>
+        <v>0.0377788</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0435641</v>
+        <v>0.0412455</v>
       </c>
       <c r="C4" t="n">
-        <v>0.038132</v>
+        <v>0.0361464</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0425221</v>
+        <v>0.0381069</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0436577</v>
+        <v>0.0413343</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0385798</v>
+        <v>0.0373155</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0428173</v>
+        <v>0.0389638</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0437654</v>
+        <v>0.0412781</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0387846</v>
+        <v>0.0365256</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0432705</v>
+        <v>0.0392735</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0439053</v>
+        <v>0.0414999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0389411</v>
+        <v>0.0371211</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0440447</v>
+        <v>0.0401097</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0440626</v>
+        <v>0.0416044</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0396653</v>
+        <v>0.0377134</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0453139</v>
+        <v>0.041598</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0443006</v>
+        <v>0.041942</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0407317</v>
+        <v>0.0388422</v>
       </c>
       <c r="D9" t="n">
-        <v>0.041032</v>
+        <v>0.0460363</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0445637</v>
+        <v>0.0437588</v>
       </c>
       <c r="C10" t="n">
-        <v>0.038331</v>
+        <v>0.0373001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0416229</v>
+        <v>0.0390996</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0446454</v>
+        <v>0.0438131</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0389828</v>
+        <v>0.0379995</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0419388</v>
+        <v>0.0393677</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0446892</v>
+        <v>0.0441253</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0391702</v>
+        <v>0.037761</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04228</v>
+        <v>0.0396119</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0448194</v>
+        <v>0.0442392</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0394962</v>
+        <v>0.038092</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0425963</v>
+        <v>0.0398663</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0449189</v>
+        <v>0.0443966</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0398503</v>
+        <v>0.0390781</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0430111</v>
+        <v>0.0401003</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0450497</v>
+        <v>0.0445115</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0400496</v>
+        <v>0.0394008</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0432424</v>
+        <v>0.040311</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0451692</v>
+        <v>0.0446871</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0397551</v>
+        <v>0.0397432</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0433416</v>
+        <v>0.0405201</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0452801</v>
+        <v>0.0448411</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0405875</v>
+        <v>0.039009</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0439295</v>
+        <v>0.040748</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0454463</v>
+        <v>0.0449432</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0403558</v>
+        <v>0.0403308</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0441817</v>
+        <v>0.0410156</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0455781</v>
+        <v>0.0449616</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0409165</v>
+        <v>0.0406918</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0446548</v>
+        <v>0.0416111</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0457127</v>
+        <v>0.0450831</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0415306</v>
+        <v>0.0401422</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0452289</v>
+        <v>0.0423923</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0458667</v>
+        <v>0.0453288</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0422139</v>
+        <v>0.0404205</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0463306</v>
+        <v>0.0444836</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0463837</v>
+        <v>0.0458088</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0424834</v>
+        <v>0.0416679</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0512656</v>
+        <v>0.0490939</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0468013</v>
+        <v>0.046355</v>
       </c>
       <c r="C23" t="n">
-        <v>0.047864</v>
+        <v>0.0472746</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0450923</v>
+        <v>0.0603176</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0498508</v>
+        <v>0.0497585</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0427057</v>
+        <v>0.0430836</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0454764</v>
+        <v>0.0459141</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0495059</v>
+        <v>0.0494832</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0428805</v>
+        <v>0.0433215</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0457505</v>
+        <v>0.0458529</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0496013</v>
+        <v>0.0496195</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0429142</v>
+        <v>0.0434542</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0460686</v>
+        <v>0.0463453</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0496739</v>
+        <v>0.049648</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0434244</v>
+        <v>0.0437989</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0463488</v>
+        <v>0.0465267</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0497703</v>
+        <v>0.0497555</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0432921</v>
+        <v>0.0441086</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0467463</v>
+        <v>0.0467668</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0499136</v>
+        <v>0.049849</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0441462</v>
+        <v>0.0442243</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0470112</v>
+        <v>0.0468297</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0500014</v>
+        <v>0.0502685</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0440361</v>
+        <v>0.0449337</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0473691</v>
+        <v>0.0473056</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.050195</v>
+        <v>0.0502508</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0443953</v>
+        <v>0.0448065</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0476232</v>
+        <v>0.04757</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0503486</v>
+        <v>0.0502559</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0442702</v>
+        <v>0.0455065</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0482647</v>
+        <v>0.0482404</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0504464</v>
+        <v>0.0503644</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0452979</v>
+        <v>0.045921</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0488698</v>
+        <v>0.0490391</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0506616</v>
+        <v>0.050577</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0453775</v>
+        <v>0.0467131</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0516695</v>
+        <v>0.0507631</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0507904</v>
+        <v>0.0508587</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0481916</v>
+        <v>0.0488122</v>
       </c>
       <c r="D35" t="n">
-        <v>0.056293</v>
+        <v>0.0549917</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0513039</v>
+        <v>0.0512572</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0526445</v>
+        <v>0.0537276</v>
       </c>
       <c r="D36" t="n">
-        <v>0.063457</v>
+        <v>0.0617832</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0531544</v>
+        <v>0.0532352</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0597965</v>
+        <v>0.0605476</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0494476</v>
+        <v>0.07104870000000001</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0548344</v>
+        <v>0.0548611</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0474047</v>
+        <v>0.0478682</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0493314</v>
+        <v>0.0510705</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0539051</v>
+        <v>0.0537873</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0476607</v>
+        <v>0.0482547</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0503391</v>
+        <v>0.0513148</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0540384</v>
+        <v>0.05389</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0481028</v>
+        <v>0.0485866</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0508649</v>
+        <v>0.0514062</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0541146</v>
+        <v>0.0539803</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0484602</v>
+        <v>0.0488766</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0506985</v>
+        <v>0.0517047</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0542264</v>
+        <v>0.054106</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0486817</v>
+        <v>0.0493158</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0512427</v>
+        <v>0.052151</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0543591</v>
+        <v>0.0542268</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0490687</v>
+        <v>0.0497817</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0519904</v>
+        <v>0.052145</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0545066</v>
+        <v>0.054388</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0496241</v>
+        <v>0.0501956</v>
       </c>
       <c r="D44" t="n">
-        <v>0.051943</v>
+        <v>0.0532268</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0546452</v>
+        <v>0.0545267</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0499154</v>
+        <v>0.0506421</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0527713</v>
+        <v>0.05365</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0547561</v>
+        <v>0.0546641</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0504946</v>
+        <v>0.0511329</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0544754</v>
+        <v>0.0549798</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0549796</v>
+        <v>0.0548562</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0520359</v>
+        <v>0.0526811</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0568101</v>
+        <v>0.0570335</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0552174</v>
+        <v>0.0551042</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0543617</v>
+        <v>0.0546122</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0602741</v>
+        <v>0.0595732</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0555958</v>
+        <v>0.0554785</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0571307</v>
+        <v>0.0577057</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0641697</v>
+        <v>0.0633813</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0568661</v>
+        <v>0.0567862</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0604804</v>
+        <v>0.0609105</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0687132</v>
+        <v>0.06778820000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0608221</v>
+        <v>0.0607657</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0650979</v>
+        <v>0.0657961</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0541627</v>
+        <v>0.0746604</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0661547</v>
+        <v>0.0660371</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0722257</v>
+        <v>0.072806</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0541609</v>
+        <v>0.085163</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.061746</v>
+        <v>0.0611496</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0487468</v>
+        <v>0.0486555</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0551934</v>
+        <v>0.0512574</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0614725</v>
+        <v>0.0608512</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0490163</v>
+        <v>0.0491575</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0547751</v>
+        <v>0.0519696</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0615207</v>
+        <v>0.0609711</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0498008</v>
+        <v>0.0496453</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0558762</v>
+        <v>0.0523845</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0616849</v>
+        <v>0.0610377</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0503474</v>
+        <v>0.0500599</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0555324</v>
+        <v>0.0526706</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0617767</v>
+        <v>0.0611677</v>
       </c>
       <c r="C57" t="n">
-        <v>0.050778</v>
+        <v>0.050822</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0559013</v>
+        <v>0.0533229</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0619437</v>
+        <v>0.0612656</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0516623</v>
+        <v>0.0514132</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0568731</v>
+        <v>0.0541457</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0621014</v>
+        <v>0.0614659</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0517644</v>
+        <v>0.0522919</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0584342</v>
+        <v>0.0550384</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0622813</v>
+        <v>0.0616479</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0533268</v>
+        <v>0.053747</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0601397</v>
+        <v>0.0565813</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.06252000000000001</v>
+        <v>0.0619127</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0549099</v>
+        <v>0.0549418</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0622456</v>
+        <v>0.058327</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06288150000000001</v>
+        <v>0.0621887</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0566741</v>
+        <v>0.0565018</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0650625</v>
+        <v>0.0606826</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.06396930000000001</v>
+        <v>0.0632846</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0591706</v>
+        <v>0.0590722</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0680793</v>
+        <v>0.0638957</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0658633</v>
+        <v>0.0654593</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0618195</v>
+        <v>0.0618553</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0728606</v>
+        <v>0.0682455</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.06878629999999999</v>
+        <v>0.06812459999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0662142</v>
+        <v>0.065901</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0794575</v>
+        <v>0.07485989999999999</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0731566</v>
+        <v>0.0724723</v>
       </c>
       <c r="C66" t="n">
-        <v>0.07186969999999999</v>
+        <v>0.0721248</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0588117</v>
+        <v>0.0845038</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0710489</v>
+        <v>0.0740286</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0559311</v>
+        <v>0.0550848</v>
       </c>
       <c r="D67" t="n">
-        <v>0.059254</v>
+        <v>0.0576209</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0712723</v>
+        <v>0.07420400000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0563629</v>
+        <v>0.0556089</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0597291</v>
+        <v>0.0584416</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.07180640000000001</v>
+        <v>0.0746849</v>
       </c>
       <c r="C69" t="n">
-        <v>0.056874</v>
+        <v>0.0562898</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0601745</v>
+        <v>0.0591972</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0719267</v>
+        <v>0.0753288</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0574834</v>
+        <v>0.057196</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0603703</v>
+        <v>0.0600416</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0721962</v>
+        <v>0.07578940000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0581315</v>
+        <v>0.0579217</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0601143</v>
+        <v>0.0606686</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0724075</v>
+        <v>0.07615470000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0590222</v>
+        <v>0.0586943</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0610932</v>
+        <v>0.0616253</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0727295</v>
+        <v>0.0763621</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0599256</v>
+        <v>0.0595719</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0625653</v>
+        <v>0.0627089</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.07325520000000001</v>
+        <v>0.0765136</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0611576</v>
+        <v>0.0606113</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0642616</v>
+        <v>0.06390899999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.07367310000000001</v>
+        <v>0.0769697</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0625063</v>
+        <v>0.0620121</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0661554</v>
+        <v>0.06548420000000001</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0741657</v>
+        <v>0.07754709999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0639911</v>
+        <v>0.06350600000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.068574</v>
+        <v>0.0673716</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0754278</v>
+        <v>0.0785628</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0658961</v>
+        <v>0.0654317</v>
       </c>
       <c r="D77" t="n">
-        <v>0.07113129999999999</v>
+        <v>0.0698315</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0771495</v>
+        <v>0.08023859999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0685863</v>
+        <v>0.0680838</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0757201</v>
+        <v>0.0738548</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.079711</v>
+        <v>0.08247259999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0723842</v>
+        <v>0.0716841</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0821533</v>
+        <v>0.0796782</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.08321489999999999</v>
+        <v>0.0862308</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0776669</v>
+        <v>0.07709249999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.103626</v>
+        <v>0.08890530000000001</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.172407</v>
+        <v>0.172434</v>
       </c>
       <c r="C81" t="n">
-        <v>0.139964</v>
+        <v>0.137345</v>
       </c>
       <c r="D81" t="n">
-        <v>0.10617</v>
+        <v>0.145522</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.172942</v>
+        <v>0.172565</v>
       </c>
       <c r="C82" t="n">
-        <v>0.137772</v>
+        <v>0.137077</v>
       </c>
       <c r="D82" t="n">
-        <v>0.104018</v>
+        <v>0.145513</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.174183</v>
+        <v>0.171913</v>
       </c>
       <c r="C83" t="n">
-        <v>0.139167</v>
+        <v>0.13812</v>
       </c>
       <c r="D83" t="n">
-        <v>0.110781</v>
+        <v>0.146781</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.174722</v>
+        <v>0.173725</v>
       </c>
       <c r="C84" t="n">
-        <v>0.138448</v>
+        <v>0.137541</v>
       </c>
       <c r="D84" t="n">
-        <v>0.110609</v>
+        <v>0.147144</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.175438</v>
+        <v>0.17424</v>
       </c>
       <c r="C85" t="n">
-        <v>0.140848</v>
+        <v>0.139267</v>
       </c>
       <c r="D85" t="n">
-        <v>0.114801</v>
+        <v>0.147946</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.17542</v>
+        <v>0.174235</v>
       </c>
       <c r="C86" t="n">
-        <v>0.140508</v>
+        <v>0.137856</v>
       </c>
       <c r="D86" t="n">
-        <v>0.114108</v>
+        <v>0.14621</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.176284</v>
+        <v>0.174507</v>
       </c>
       <c r="C87" t="n">
-        <v>0.143551</v>
+        <v>0.139511</v>
       </c>
       <c r="D87" t="n">
-        <v>0.122729</v>
+        <v>0.148349</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.176929</v>
+        <v>0.175984</v>
       </c>
       <c r="C88" t="n">
-        <v>0.141495</v>
+        <v>0.140243</v>
       </c>
       <c r="D88" t="n">
-        <v>0.121225</v>
+        <v>0.149058</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.176927</v>
+        <v>0.176497</v>
       </c>
       <c r="C89" t="n">
-        <v>0.143662</v>
+        <v>0.142053</v>
       </c>
       <c r="D89" t="n">
-        <v>0.125341</v>
+        <v>0.151205</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.176861</v>
+        <v>0.177462</v>
       </c>
       <c r="C90" t="n">
-        <v>0.14336</v>
+        <v>0.143567</v>
       </c>
       <c r="D90" t="n">
-        <v>0.127059</v>
+        <v>0.152901</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.17857</v>
+        <v>0.178148</v>
       </c>
       <c r="C91" t="n">
-        <v>0.146051</v>
+        <v>0.144671</v>
       </c>
       <c r="D91" t="n">
-        <v>0.130922</v>
+        <v>0.154777</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.179694</v>
+        <v>0.178834</v>
       </c>
       <c r="C92" t="n">
-        <v>0.14758</v>
+        <v>0.14643</v>
       </c>
       <c r="D92" t="n">
-        <v>0.133583</v>
+        <v>0.156753</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181183</v>
+        <v>0.180796</v>
       </c>
       <c r="C93" t="n">
-        <v>0.151832</v>
+        <v>0.149968</v>
       </c>
       <c r="D93" t="n">
-        <v>0.139591</v>
+        <v>0.162148</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.183387</v>
+        <v>0.182976</v>
       </c>
       <c r="C94" t="n">
-        <v>0.155466</v>
+        <v>0.154191</v>
       </c>
       <c r="D94" t="n">
-        <v>0.205364</v>
+        <v>0.169918</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.238413</v>
+        <v>0.238507</v>
       </c>
       <c r="C95" t="n">
-        <v>0.199268</v>
+        <v>0.199547</v>
       </c>
       <c r="D95" t="n">
-        <v>0.206937</v>
+        <v>0.218907</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.238788</v>
+        <v>0.238604</v>
       </c>
       <c r="C96" t="n">
-        <v>0.200275</v>
+        <v>0.20021</v>
       </c>
       <c r="D96" t="n">
-        <v>0.208853</v>
+        <v>0.221367</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.237729</v>
+        <v>0.237772</v>
       </c>
       <c r="C97" t="n">
-        <v>0.201263</v>
+        <v>0.201568</v>
       </c>
       <c r="D97" t="n">
-        <v>0.210397</v>
+        <v>0.222837</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.238943</v>
+        <v>0.238361</v>
       </c>
       <c r="C98" t="n">
-        <v>0.202428</v>
+        <v>0.202397</v>
       </c>
       <c r="D98" t="n">
-        <v>0.212543</v>
+        <v>0.223742</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.238256</v>
+        <v>0.238632</v>
       </c>
       <c r="C99" t="n">
-        <v>0.204014</v>
+        <v>0.203889</v>
       </c>
       <c r="D99" t="n">
-        <v>0.215116</v>
+        <v>0.224565</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.239032</v>
+        <v>0.239034</v>
       </c>
       <c r="C100" t="n">
-        <v>0.205042</v>
+        <v>0.209722</v>
       </c>
       <c r="D100" t="n">
-        <v>0.215714</v>
+        <v>0.226586</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.239114</v>
+        <v>0.240679</v>
       </c>
       <c r="C101" t="n">
-        <v>0.207196</v>
+        <v>0.20666</v>
       </c>
       <c r="D101" t="n">
-        <v>0.218394</v>
+        <v>0.227754</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.239092</v>
+        <v>0.239212</v>
       </c>
       <c r="C102" t="n">
-        <v>0.208232</v>
+        <v>0.208464</v>
       </c>
       <c r="D102" t="n">
-        <v>0.220143</v>
+        <v>0.228835</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.239384</v>
+        <v>0.239352</v>
       </c>
       <c r="C103" t="n">
-        <v>0.210158</v>
+        <v>0.210412</v>
       </c>
       <c r="D103" t="n">
-        <v>0.222088</v>
+        <v>0.230142</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.23966</v>
+        <v>0.239876</v>
       </c>
       <c r="C104" t="n">
-        <v>0.211665</v>
+        <v>0.212112</v>
       </c>
       <c r="D104" t="n">
-        <v>0.224824</v>
+        <v>0.232129</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.240926</v>
+        <v>0.240666</v>
       </c>
       <c r="C105" t="n">
-        <v>0.214136</v>
+        <v>0.214169</v>
       </c>
       <c r="D105" t="n">
-        <v>0.227472</v>
+        <v>0.235014</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.241864</v>
+        <v>0.241323</v>
       </c>
       <c r="C106" t="n">
-        <v>0.211381</v>
+        <v>0.211269</v>
       </c>
       <c r="D106" t="n">
-        <v>0.230624</v>
+        <v>0.23787</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.242975</v>
+        <v>0.242793</v>
       </c>
       <c r="C107" t="n">
-        <v>0.215054</v>
+        <v>0.215297</v>
       </c>
       <c r="D107" t="n">
-        <v>0.235829</v>
+        <v>0.242712</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.245727</v>
+        <v>0.245991</v>
       </c>
       <c r="C108" t="n">
-        <v>0.219386</v>
+        <v>0.21906</v>
       </c>
       <c r="D108" t="n">
-        <v>0.254412</v>
+        <v>0.249529</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.250495</v>
+        <v>0.250338</v>
       </c>
       <c r="C109" t="n">
-        <v>0.225916</v>
+        <v>0.226133</v>
       </c>
       <c r="D109" t="n">
-        <v>0.25641</v>
+        <v>0.262435</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.276709</v>
+        <v>0.273015</v>
       </c>
       <c r="C110" t="n">
-        <v>0.224071</v>
+        <v>0.225713</v>
       </c>
       <c r="D110" t="n">
-        <v>0.253438</v>
+        <v>0.255618</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.277117</v>
+        <v>0.274164</v>
       </c>
       <c r="C111" t="n">
-        <v>0.226893</v>
+        <v>0.227144</v>
       </c>
       <c r="D111" t="n">
-        <v>0.253666</v>
+        <v>0.251675</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.275788</v>
+        <v>0.274729</v>
       </c>
       <c r="C112" t="n">
-        <v>0.228051</v>
+        <v>0.230037</v>
       </c>
       <c r="D112" t="n">
-        <v>0.253503</v>
+        <v>0.252293</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.275953</v>
+        <v>0.275118</v>
       </c>
       <c r="C113" t="n">
-        <v>0.229391</v>
+        <v>0.229271</v>
       </c>
       <c r="D113" t="n">
-        <v>0.255994</v>
+        <v>0.253454</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.275946</v>
+        <v>0.273989</v>
       </c>
       <c r="C114" t="n">
-        <v>0.231867</v>
+        <v>0.232448</v>
       </c>
       <c r="D114" t="n">
-        <v>0.258703</v>
+        <v>0.256166</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.275144</v>
+        <v>0.273043</v>
       </c>
       <c r="C115" t="n">
-        <v>0.234615</v>
+        <v>0.235564</v>
       </c>
       <c r="D115" t="n">
-        <v>0.261045</v>
+        <v>0.257945</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.275868</v>
+        <v>0.27406</v>
       </c>
       <c r="C116" t="n">
-        <v>0.237167</v>
+        <v>0.237403</v>
       </c>
       <c r="D116" t="n">
-        <v>0.265094</v>
+        <v>0.261239</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.275632</v>
+        <v>0.275184</v>
       </c>
       <c r="C117" t="n">
-        <v>0.240961</v>
+        <v>0.241119</v>
       </c>
       <c r="D117" t="n">
-        <v>0.268367</v>
+        <v>0.262205</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.276854</v>
+        <v>0.276275</v>
       </c>
       <c r="C118" t="n">
-        <v>0.244194</v>
+        <v>0.244356</v>
       </c>
       <c r="D118" t="n">
-        <v>0.272192</v>
+        <v>0.267492</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.279479</v>
+        <v>0.277673</v>
       </c>
       <c r="C119" t="n">
-        <v>0.246077</v>
+        <v>0.247185</v>
       </c>
       <c r="D119" t="n">
-        <v>0.27535</v>
+        <v>0.270224</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.278785</v>
+        <v>0.278034</v>
       </c>
       <c r="C120" t="n">
-        <v>0.249835</v>
+        <v>0.251216</v>
       </c>
       <c r="D120" t="n">
-        <v>0.279802</v>
+        <v>0.275402</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.280663</v>
+        <v>0.278755</v>
       </c>
       <c r="C121" t="n">
-        <v>0.254265</v>
+        <v>0.254889</v>
       </c>
       <c r="D121" t="n">
-        <v>0.284439</v>
+        <v>0.279807</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.28504</v>
+        <v>0.281224</v>
       </c>
       <c r="C122" t="n">
-        <v>0.260277</v>
+        <v>0.260574</v>
       </c>
       <c r="D122" t="n">
-        <v>0.291969</v>
+        <v>0.287038</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.288541</v>
+        <v>0.285289</v>
       </c>
       <c r="C123" t="n">
-        <v>0.267729</v>
+        <v>0.26837</v>
       </c>
       <c r="D123" t="n">
-        <v>0.278215</v>
+        <v>0.298158</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.350801</v>
+        <v>0.350655</v>
       </c>
       <c r="C124" t="n">
-        <v>0.246557</v>
+        <v>0.247106</v>
       </c>
       <c r="D124" t="n">
-        <v>0.278466</v>
+        <v>0.267634</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.349781</v>
+        <v>0.350486</v>
       </c>
       <c r="C125" t="n">
-        <v>0.24863</v>
+        <v>0.248922</v>
       </c>
       <c r="D125" t="n">
-        <v>0.281732</v>
+        <v>0.270268</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.349857</v>
+        <v>0.352118</v>
       </c>
       <c r="C126" t="n">
-        <v>0.249721</v>
+        <v>0.250439</v>
       </c>
       <c r="D126" t="n">
-        <v>0.284015</v>
+        <v>0.273894</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.35048</v>
+        <v>0.349141</v>
       </c>
       <c r="C127" t="n">
-        <v>0.252554</v>
+        <v>0.253926</v>
       </c>
       <c r="D127" t="n">
-        <v>0.287348</v>
+        <v>0.275668</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.351317</v>
+        <v>0.351647</v>
       </c>
       <c r="C128" t="n">
-        <v>0.256138</v>
+        <v>0.256849</v>
       </c>
       <c r="D128" t="n">
-        <v>0.290391</v>
+        <v>0.278957</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.35011</v>
+        <v>0.350369</v>
       </c>
       <c r="C129" t="n">
-        <v>0.259711</v>
+        <v>0.260332</v>
       </c>
       <c r="D129" t="n">
-        <v>0.293246</v>
+        <v>0.281809</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.351698</v>
+        <v>0.352166</v>
       </c>
       <c r="C130" t="n">
-        <v>0.26333</v>
+        <v>0.263551</v>
       </c>
       <c r="D130" t="n">
-        <v>0.296492</v>
+        <v>0.285432</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.349959</v>
+        <v>0.349803</v>
       </c>
       <c r="C131" t="n">
-        <v>0.266415</v>
+        <v>0.267176</v>
       </c>
       <c r="D131" t="n">
-        <v>0.300092</v>
+        <v>0.289091</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.351493</v>
+        <v>0.349442</v>
       </c>
       <c r="C132" t="n">
-        <v>0.270747</v>
+        <v>0.270977</v>
       </c>
       <c r="D132" t="n">
-        <v>0.304427</v>
+        <v>0.292884</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.351685</v>
+        <v>0.351348</v>
       </c>
       <c r="C133" t="n">
-        <v>0.27419</v>
+        <v>0.276462</v>
       </c>
       <c r="D133" t="n">
-        <v>0.309779</v>
+        <v>0.299478</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.351995</v>
+        <v>0.351551</v>
       </c>
       <c r="C134" t="n">
-        <v>0.278613</v>
+        <v>0.279383</v>
       </c>
       <c r="D134" t="n">
-        <v>0.31607</v>
+        <v>0.303829</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.352958</v>
+        <v>0.353218</v>
       </c>
       <c r="C135" t="n">
-        <v>0.283772</v>
+        <v>0.284673</v>
       </c>
       <c r="D135" t="n">
-        <v>0.322288</v>
+        <v>0.31022</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.355178</v>
+        <v>0.356616</v>
       </c>
       <c r="C136" t="n">
-        <v>0.290304</v>
+        <v>0.290922</v>
       </c>
       <c r="D136" t="n">
-        <v>0.332845</v>
+        <v>0.320215</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.358976</v>
+        <v>0.359073</v>
       </c>
       <c r="C137" t="n">
-        <v>0.299523</v>
+        <v>0.300179</v>
       </c>
       <c r="D137" t="n">
-        <v>0.299274</v>
+        <v>0.332598</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.412627</v>
+        <v>0.409619</v>
       </c>
       <c r="C138" t="n">
-        <v>0.267136</v>
+        <v>0.266515</v>
       </c>
       <c r="D138" t="n">
-        <v>0.301875</v>
+        <v>0.287095</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.412443</v>
+        <v>0.409404</v>
       </c>
       <c r="C139" t="n">
-        <v>0.269829</v>
+        <v>0.268867</v>
       </c>
       <c r="D139" t="n">
-        <v>0.30443</v>
+        <v>0.28915</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.412385</v>
+        <v>0.409312</v>
       </c>
       <c r="C140" t="n">
-        <v>0.272068</v>
+        <v>0.27145</v>
       </c>
       <c r="D140" t="n">
-        <v>0.306565</v>
+        <v>0.292594</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.413087</v>
+        <v>0.408761</v>
       </c>
       <c r="C141" t="n">
-        <v>0.274858</v>
+        <v>0.273855</v>
       </c>
       <c r="D141" t="n">
-        <v>0.308934</v>
+        <v>0.294169</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.41354</v>
+        <v>0.409506</v>
       </c>
       <c r="C142" t="n">
-        <v>0.277758</v>
+        <v>0.276743</v>
       </c>
       <c r="D142" t="n">
-        <v>0.311192</v>
+        <v>0.296952</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.41268</v>
+        <v>0.409069</v>
       </c>
       <c r="C143" t="n">
-        <v>0.28011</v>
+        <v>0.279734</v>
       </c>
       <c r="D143" t="n">
-        <v>0.313782</v>
+        <v>0.299752</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0408207</v>
+        <v>0.0354747</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0356253</v>
+        <v>0.0326879</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0375495</v>
+        <v>0.0347505</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0410133</v>
+        <v>0.0357886</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0359682</v>
+        <v>0.0327797</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0377788</v>
+        <v>0.0349208</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0412455</v>
+        <v>0.035965</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0361464</v>
+        <v>0.0329199</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0381069</v>
+        <v>0.0350963</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0413343</v>
+        <v>0.0362538</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0373155</v>
+        <v>0.0345578</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0389638</v>
+        <v>0.0360894</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0412781</v>
+        <v>0.0363669</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0365256</v>
+        <v>0.0335418</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0392735</v>
+        <v>0.0359249</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0414999</v>
+        <v>0.0364979</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0371211</v>
+        <v>0.0337145</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0401097</v>
+        <v>0.0368583</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0416044</v>
+        <v>0.0368175</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0377134</v>
+        <v>0.0342962</v>
       </c>
       <c r="D8" t="n">
-        <v>0.041598</v>
+        <v>0.0389732</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.041942</v>
+        <v>0.0372664</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0388422</v>
+        <v>0.0358069</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0460363</v>
+        <v>0.047191</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0437588</v>
+        <v>0.0448012</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0373001</v>
+        <v>0.0379687</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0390996</v>
+        <v>0.0412179</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0438131</v>
+        <v>0.0447607</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0379995</v>
+        <v>0.0383721</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0393677</v>
+        <v>0.0414249</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0441253</v>
+        <v>0.0448815</v>
       </c>
       <c r="C12" t="n">
-        <v>0.037761</v>
+        <v>0.0396523</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0396119</v>
+        <v>0.0415551</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0442392</v>
+        <v>0.0450304</v>
       </c>
       <c r="C13" t="n">
-        <v>0.038092</v>
+        <v>0.0388619</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0398663</v>
+        <v>0.0416591</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0443966</v>
+        <v>0.045104</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0390781</v>
+        <v>0.0399486</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0401003</v>
+        <v>0.0418999</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0445115</v>
+        <v>0.0453429</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0394008</v>
+        <v>0.0403237</v>
       </c>
       <c r="D15" t="n">
-        <v>0.040311</v>
+        <v>0.0420968</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0446871</v>
+        <v>0.0455039</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0397432</v>
+        <v>0.0405815</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0405201</v>
+        <v>0.042294</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0448411</v>
+        <v>0.0455624</v>
       </c>
       <c r="C17" t="n">
-        <v>0.039009</v>
+        <v>0.0395501</v>
       </c>
       <c r="D17" t="n">
-        <v>0.040748</v>
+        <v>0.0426722</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0449432</v>
+        <v>0.0457396</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0403308</v>
+        <v>0.0400571</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0410156</v>
+        <v>0.0430001</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0449616</v>
+        <v>0.0459382</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0406918</v>
+        <v>0.0410633</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0416111</v>
+        <v>0.0434911</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0450831</v>
+        <v>0.0461636</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0401422</v>
+        <v>0.0416478</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0423923</v>
+        <v>0.0444319</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0453288</v>
+        <v>0.046239</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0404205</v>
+        <v>0.0423941</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0444836</v>
+        <v>0.0468147</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0458088</v>
+        <v>0.046388</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0416679</v>
+        <v>0.0438326</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0490939</v>
+        <v>0.0548217</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.046355</v>
+        <v>0.0469397</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0472746</v>
+        <v>0.0489913</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0603176</v>
+        <v>0.06792960000000001</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0497585</v>
+        <v>0.0490115</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0430836</v>
+        <v>0.0420757</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0459141</v>
+        <v>0.045682</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0494832</v>
+        <v>0.0488576</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0433215</v>
+        <v>0.0422275</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0458529</v>
+        <v>0.0456962</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0496195</v>
+        <v>0.0489822</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0434542</v>
+        <v>0.0425125</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0463453</v>
+        <v>0.0461024</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.049648</v>
+        <v>0.0489988</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0437989</v>
+        <v>0.0426459</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0465267</v>
+        <v>0.0461907</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0497555</v>
+        <v>0.0491098</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0441086</v>
+        <v>0.0430949</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0467668</v>
+        <v>0.0464999</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.049849</v>
+        <v>0.0492328</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0442243</v>
+        <v>0.0431981</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0468297</v>
+        <v>0.0467982</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0502685</v>
+        <v>0.0493829</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0449337</v>
+        <v>0.0442184</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0473056</v>
+        <v>0.0470016</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0502508</v>
+        <v>0.0495583</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0448065</v>
+        <v>0.0438124</v>
       </c>
       <c r="D31" t="n">
-        <v>0.04757</v>
+        <v>0.0476499</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0502559</v>
+        <v>0.0496602</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0455065</v>
+        <v>0.044063</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0482404</v>
+        <v>0.0486176</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0503644</v>
+        <v>0.0498537</v>
       </c>
       <c r="C33" t="n">
-        <v>0.045921</v>
+        <v>0.0446515</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0490391</v>
+        <v>0.0499401</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.050577</v>
+        <v>0.0499793</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0467131</v>
+        <v>0.0452905</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0507631</v>
+        <v>0.0532336</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0508587</v>
+        <v>0.0502474</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0488122</v>
+        <v>0.0472307</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0549917</v>
+        <v>0.0583051</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0512572</v>
+        <v>0.0505096</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0537276</v>
+        <v>0.0524784</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0617832</v>
+        <v>0.0655297</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0532352</v>
+        <v>0.0519126</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0605476</v>
+        <v>0.0596177</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07104870000000001</v>
+        <v>0.07482419999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0548611</v>
+        <v>0.0558</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0478682</v>
+        <v>0.0466</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0510705</v>
+        <v>0.0503728</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0537873</v>
+        <v>0.0547926</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0482547</v>
+        <v>0.0468443</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0513148</v>
+        <v>0.0506572</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.05389</v>
+        <v>0.0548735</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0485866</v>
+        <v>0.047149</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0514062</v>
+        <v>0.0512893</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0539803</v>
+        <v>0.0549332</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0488766</v>
+        <v>0.0476094</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0517047</v>
+        <v>0.0514507</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.054106</v>
+        <v>0.0550673</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0493158</v>
+        <v>0.0478543</v>
       </c>
       <c r="D42" t="n">
-        <v>0.052151</v>
+        <v>0.0519602</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0542268</v>
+        <v>0.055171</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0497817</v>
+        <v>0.0484032</v>
       </c>
       <c r="D43" t="n">
-        <v>0.052145</v>
+        <v>0.0528004</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.054388</v>
+        <v>0.0552965</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0501956</v>
+        <v>0.0488111</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0532268</v>
+        <v>0.0532616</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0545267</v>
+        <v>0.0554514</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0506421</v>
+        <v>0.0493016</v>
       </c>
       <c r="D45" t="n">
-        <v>0.05365</v>
+        <v>0.0545381</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0546641</v>
+        <v>0.0555973</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0511329</v>
+        <v>0.0501403</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0549798</v>
+        <v>0.0566487</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0548562</v>
+        <v>0.0557872</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0526811</v>
+        <v>0.0515329</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0570335</v>
+        <v>0.0587003</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0551042</v>
+        <v>0.0559824</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0546122</v>
+        <v>0.0538955</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0595732</v>
+        <v>0.0618766</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0554785</v>
+        <v>0.0563278</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0577057</v>
+        <v>0.0566515</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0633813</v>
+        <v>0.065764</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0567862</v>
+        <v>0.0576385</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0609105</v>
+        <v>0.060005</v>
       </c>
       <c r="D50" t="n">
-        <v>0.06778820000000001</v>
+        <v>0.0707498</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0607657</v>
+        <v>0.0618266</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0657961</v>
+        <v>0.0648214</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0746604</v>
+        <v>0.0782916</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0660371</v>
+        <v>0.0670285</v>
       </c>
       <c r="C52" t="n">
-        <v>0.072806</v>
+        <v>0.071794</v>
       </c>
       <c r="D52" t="n">
-        <v>0.085163</v>
+        <v>0.0895527</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0611496</v>
+        <v>0.0613252</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0486555</v>
+        <v>0.0463603</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0512574</v>
+        <v>0.0507088</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0608512</v>
+        <v>0.0609168</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0491575</v>
+        <v>0.0469803</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0519696</v>
+        <v>0.051161</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0609711</v>
+        <v>0.0610915</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0496453</v>
+        <v>0.0475794</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0523845</v>
+        <v>0.0517477</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0610377</v>
+        <v>0.0610921</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0500599</v>
+        <v>0.0479653</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0526706</v>
+        <v>0.0528125</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0611677</v>
+        <v>0.0612287</v>
       </c>
       <c r="C57" t="n">
-        <v>0.050822</v>
+        <v>0.0486059</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0533229</v>
+        <v>0.0535931</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0612656</v>
+        <v>0.0614047</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0514132</v>
+        <v>0.0493562</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0541457</v>
+        <v>0.05483</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0614659</v>
+        <v>0.0615355</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0522919</v>
+        <v>0.0503343</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0550384</v>
+        <v>0.0564022</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0616479</v>
+        <v>0.061718</v>
       </c>
       <c r="C60" t="n">
-        <v>0.053747</v>
+        <v>0.0513953</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0565813</v>
+        <v>0.0578536</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0619127</v>
+        <v>0.0619865</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0549418</v>
+        <v>0.0530058</v>
       </c>
       <c r="D61" t="n">
-        <v>0.058327</v>
+        <v>0.0598072</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0621887</v>
+        <v>0.0623216</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0565018</v>
+        <v>0.054751</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0606826</v>
+        <v>0.0616653</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0632846</v>
+        <v>0.0634714</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0590722</v>
+        <v>0.057022</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0638957</v>
+        <v>0.0654713</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0654593</v>
+        <v>0.065737</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0618553</v>
+        <v>0.0600887</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0682455</v>
+        <v>0.0701798</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.06812459999999999</v>
+        <v>0.0682764</v>
       </c>
       <c r="C65" t="n">
-        <v>0.065901</v>
+        <v>0.0640133</v>
       </c>
       <c r="D65" t="n">
-        <v>0.07485989999999999</v>
+        <v>0.0770628</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0724723</v>
+        <v>0.0724552</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0721248</v>
+        <v>0.0704949</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0845038</v>
+        <v>0.0874481</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0740286</v>
+        <v>0.0696917</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0550848</v>
+        <v>0.0530623</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0576209</v>
+        <v>0.0577382</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.07420400000000001</v>
+        <v>0.06975580000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0556089</v>
+        <v>0.0536204</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0584416</v>
+        <v>0.058372</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0746849</v>
+        <v>0.0698869</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0562898</v>
+        <v>0.0541974</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0591972</v>
+        <v>0.0591457</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0753288</v>
+        <v>0.07000489999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.057196</v>
+        <v>0.0549607</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0600416</v>
+        <v>0.0599396</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.07578940000000001</v>
+        <v>0.0701412</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0579217</v>
+        <v>0.0558439</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0606686</v>
+        <v>0.0609046</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07615470000000001</v>
+        <v>0.0705369</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0586943</v>
+        <v>0.0558389</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0616253</v>
+        <v>0.0611808</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0763621</v>
+        <v>0.0708047</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0595719</v>
+        <v>0.0568185</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0627089</v>
+        <v>0.062949</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0765136</v>
+        <v>0.0712667</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0606113</v>
+        <v>0.0580849</v>
       </c>
       <c r="D74" t="n">
-        <v>0.06390899999999999</v>
+        <v>0.0635883</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0769697</v>
+        <v>0.0715558</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0620121</v>
+        <v>0.0594483</v>
       </c>
       <c r="D75" t="n">
-        <v>0.06548420000000001</v>
+        <v>0.06537750000000001</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.07754709999999999</v>
+        <v>0.07214569999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.06350600000000001</v>
+        <v>0.0610311</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0673716</v>
+        <v>0.0676268</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0785628</v>
+        <v>0.07332320000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0654317</v>
+        <v>0.0630978</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0698315</v>
+        <v>0.0706941</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08023859999999999</v>
+        <v>0.0748212</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0680838</v>
+        <v>0.0657605</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0738548</v>
+        <v>0.0748907</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.08247259999999999</v>
+        <v>0.0769143</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0716841</v>
+        <v>0.06952079999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0796782</v>
+        <v>0.0811974</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0862308</v>
+        <v>0.0806979</v>
       </c>
       <c r="C80" t="n">
-        <v>0.07709249999999999</v>
+        <v>0.0749494</v>
       </c>
       <c r="D80" t="n">
-        <v>0.08890530000000001</v>
+        <v>0.09050850000000001</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.172434</v>
+        <v>0.174845</v>
       </c>
       <c r="C81" t="n">
-        <v>0.137345</v>
+        <v>0.13909</v>
       </c>
       <c r="D81" t="n">
-        <v>0.145522</v>
+        <v>0.147202</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.172565</v>
+        <v>0.175551</v>
       </c>
       <c r="C82" t="n">
-        <v>0.137077</v>
+        <v>0.138184</v>
       </c>
       <c r="D82" t="n">
-        <v>0.145513</v>
+        <v>0.146065</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.171913</v>
+        <v>0.175463</v>
       </c>
       <c r="C83" t="n">
-        <v>0.13812</v>
+        <v>0.139927</v>
       </c>
       <c r="D83" t="n">
-        <v>0.146781</v>
+        <v>0.14805</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.173725</v>
+        <v>0.176034</v>
       </c>
       <c r="C84" t="n">
-        <v>0.137541</v>
+        <v>0.139723</v>
       </c>
       <c r="D84" t="n">
-        <v>0.147144</v>
+        <v>0.147869</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.17424</v>
+        <v>0.177362</v>
       </c>
       <c r="C85" t="n">
-        <v>0.139267</v>
+        <v>0.141246</v>
       </c>
       <c r="D85" t="n">
-        <v>0.147946</v>
+        <v>0.149595</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.174235</v>
+        <v>0.17791</v>
       </c>
       <c r="C86" t="n">
-        <v>0.137856</v>
+        <v>0.141616</v>
       </c>
       <c r="D86" t="n">
-        <v>0.14621</v>
+        <v>0.150121</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.174507</v>
+        <v>0.177626</v>
       </c>
       <c r="C87" t="n">
-        <v>0.139511</v>
+        <v>0.143341</v>
       </c>
       <c r="D87" t="n">
-        <v>0.148349</v>
+        <v>0.152167</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.175984</v>
+        <v>0.179502</v>
       </c>
       <c r="C88" t="n">
-        <v>0.140243</v>
+        <v>0.142788</v>
       </c>
       <c r="D88" t="n">
-        <v>0.149058</v>
+        <v>0.151665</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.176497</v>
+        <v>0.179606</v>
       </c>
       <c r="C89" t="n">
-        <v>0.142053</v>
+        <v>0.14339</v>
       </c>
       <c r="D89" t="n">
-        <v>0.151205</v>
+        <v>0.152656</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.177462</v>
+        <v>0.17985</v>
       </c>
       <c r="C90" t="n">
-        <v>0.143567</v>
+        <v>0.144753</v>
       </c>
       <c r="D90" t="n">
-        <v>0.152901</v>
+        <v>0.154512</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.178148</v>
+        <v>0.180681</v>
       </c>
       <c r="C91" t="n">
-        <v>0.144671</v>
+        <v>0.145325</v>
       </c>
       <c r="D91" t="n">
-        <v>0.154777</v>
+        <v>0.155816</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.178834</v>
+        <v>0.182002</v>
       </c>
       <c r="C92" t="n">
-        <v>0.14643</v>
+        <v>0.147553</v>
       </c>
       <c r="D92" t="n">
-        <v>0.156753</v>
+        <v>0.159133</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.180796</v>
+        <v>0.182833</v>
       </c>
       <c r="C93" t="n">
-        <v>0.149968</v>
+        <v>0.151843</v>
       </c>
       <c r="D93" t="n">
-        <v>0.162148</v>
+        <v>0.165792</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.182976</v>
+        <v>0.185873</v>
       </c>
       <c r="C94" t="n">
-        <v>0.154191</v>
+        <v>0.154541</v>
       </c>
       <c r="D94" t="n">
-        <v>0.169918</v>
+        <v>0.172165</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.238507</v>
+        <v>0.243312</v>
       </c>
       <c r="C95" t="n">
-        <v>0.199547</v>
+        <v>0.202028</v>
       </c>
       <c r="D95" t="n">
-        <v>0.218907</v>
+        <v>0.22171</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.238604</v>
+        <v>0.242769</v>
       </c>
       <c r="C96" t="n">
-        <v>0.20021</v>
+        <v>0.20705</v>
       </c>
       <c r="D96" t="n">
-        <v>0.221367</v>
+        <v>0.223276</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.237772</v>
+        <v>0.24339</v>
       </c>
       <c r="C97" t="n">
-        <v>0.201568</v>
+        <v>0.203981</v>
       </c>
       <c r="D97" t="n">
-        <v>0.222837</v>
+        <v>0.224656</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.238361</v>
+        <v>0.244098</v>
       </c>
       <c r="C98" t="n">
-        <v>0.202397</v>
+        <v>0.209189</v>
       </c>
       <c r="D98" t="n">
-        <v>0.223742</v>
+        <v>0.22512</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.238632</v>
+        <v>0.243808</v>
       </c>
       <c r="C99" t="n">
-        <v>0.203889</v>
+        <v>0.210729</v>
       </c>
       <c r="D99" t="n">
-        <v>0.224565</v>
+        <v>0.226796</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.239034</v>
+        <v>0.244472</v>
       </c>
       <c r="C100" t="n">
-        <v>0.209722</v>
+        <v>0.207891</v>
       </c>
       <c r="D100" t="n">
-        <v>0.226586</v>
+        <v>0.228106</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.240679</v>
+        <v>0.244076</v>
       </c>
       <c r="C101" t="n">
-        <v>0.20666</v>
+        <v>0.213535</v>
       </c>
       <c r="D101" t="n">
-        <v>0.227754</v>
+        <v>0.230224</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.239212</v>
+        <v>0.24435</v>
       </c>
       <c r="C102" t="n">
-        <v>0.208464</v>
+        <v>0.211115</v>
       </c>
       <c r="D102" t="n">
-        <v>0.228835</v>
+        <v>0.228148</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.239352</v>
+        <v>0.244446</v>
       </c>
       <c r="C103" t="n">
-        <v>0.210412</v>
+        <v>0.213305</v>
       </c>
       <c r="D103" t="n">
-        <v>0.230142</v>
+        <v>0.230351</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.239876</v>
+        <v>0.244371</v>
       </c>
       <c r="C104" t="n">
-        <v>0.212112</v>
+        <v>0.217896</v>
       </c>
       <c r="D104" t="n">
-        <v>0.232129</v>
+        <v>0.234944</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.240666</v>
+        <v>0.244611</v>
       </c>
       <c r="C105" t="n">
-        <v>0.214169</v>
+        <v>0.217686</v>
       </c>
       <c r="D105" t="n">
-        <v>0.235014</v>
+        <v>0.235953</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.241323</v>
+        <v>0.245361</v>
       </c>
       <c r="C106" t="n">
-        <v>0.211269</v>
+        <v>0.222882</v>
       </c>
       <c r="D106" t="n">
-        <v>0.23787</v>
+        <v>0.242294</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.242793</v>
+        <v>0.248133</v>
       </c>
       <c r="C107" t="n">
-        <v>0.215297</v>
+        <v>0.223295</v>
       </c>
       <c r="D107" t="n">
-        <v>0.242712</v>
+        <v>0.248199</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.245991</v>
+        <v>0.249806</v>
       </c>
       <c r="C108" t="n">
-        <v>0.21906</v>
+        <v>0.230888</v>
       </c>
       <c r="D108" t="n">
-        <v>0.249529</v>
+        <v>0.255938</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.250338</v>
+        <v>0.255039</v>
       </c>
       <c r="C109" t="n">
-        <v>0.226133</v>
+        <v>0.236363</v>
       </c>
       <c r="D109" t="n">
-        <v>0.262435</v>
+        <v>0.269848</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.273015</v>
+        <v>0.277071</v>
       </c>
       <c r="C110" t="n">
-        <v>0.225713</v>
+        <v>0.230499</v>
       </c>
       <c r="D110" t="n">
-        <v>0.255618</v>
+        <v>0.249536</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.274164</v>
+        <v>0.27672</v>
       </c>
       <c r="C111" t="n">
-        <v>0.227144</v>
+        <v>0.232351</v>
       </c>
       <c r="D111" t="n">
-        <v>0.251675</v>
+        <v>0.24853</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.274729</v>
+        <v>0.276421</v>
       </c>
       <c r="C112" t="n">
-        <v>0.230037</v>
+        <v>0.233346</v>
       </c>
       <c r="D112" t="n">
-        <v>0.252293</v>
+        <v>0.248077</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.275118</v>
+        <v>0.277284</v>
       </c>
       <c r="C113" t="n">
-        <v>0.229271</v>
+        <v>0.234674</v>
       </c>
       <c r="D113" t="n">
-        <v>0.253454</v>
+        <v>0.253267</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.273989</v>
+        <v>0.276162</v>
       </c>
       <c r="C114" t="n">
-        <v>0.232448</v>
+        <v>0.237308</v>
       </c>
       <c r="D114" t="n">
-        <v>0.256166</v>
+        <v>0.255956</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.273043</v>
+        <v>0.277446</v>
       </c>
       <c r="C115" t="n">
-        <v>0.235564</v>
+        <v>0.239955</v>
       </c>
       <c r="D115" t="n">
-        <v>0.257945</v>
+        <v>0.255974</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.27406</v>
+        <v>0.277577</v>
       </c>
       <c r="C116" t="n">
-        <v>0.237403</v>
+        <v>0.242818</v>
       </c>
       <c r="D116" t="n">
-        <v>0.261239</v>
+        <v>0.261785</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.275184</v>
+        <v>0.277002</v>
       </c>
       <c r="C117" t="n">
-        <v>0.241119</v>
+        <v>0.245843</v>
       </c>
       <c r="D117" t="n">
-        <v>0.262205</v>
+        <v>0.265024</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.276275</v>
+        <v>0.27801</v>
       </c>
       <c r="C118" t="n">
-        <v>0.244356</v>
+        <v>0.248498</v>
       </c>
       <c r="D118" t="n">
-        <v>0.267492</v>
+        <v>0.268082</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.277673</v>
+        <v>0.278298</v>
       </c>
       <c r="C119" t="n">
-        <v>0.247185</v>
+        <v>0.251474</v>
       </c>
       <c r="D119" t="n">
-        <v>0.270224</v>
+        <v>0.272127</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.278034</v>
+        <v>0.27954</v>
       </c>
       <c r="C120" t="n">
-        <v>0.251216</v>
+        <v>0.255371</v>
       </c>
       <c r="D120" t="n">
-        <v>0.275402</v>
+        <v>0.277238</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.278755</v>
+        <v>0.281622</v>
       </c>
       <c r="C121" t="n">
-        <v>0.254889</v>
+        <v>0.259435</v>
       </c>
       <c r="D121" t="n">
-        <v>0.279807</v>
+        <v>0.281679</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.281224</v>
+        <v>0.284087</v>
       </c>
       <c r="C122" t="n">
-        <v>0.260574</v>
+        <v>0.264858</v>
       </c>
       <c r="D122" t="n">
-        <v>0.287038</v>
+        <v>0.291858</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.285289</v>
+        <v>0.288552</v>
       </c>
       <c r="C123" t="n">
-        <v>0.26837</v>
+        <v>0.272914</v>
       </c>
       <c r="D123" t="n">
-        <v>0.298158</v>
+        <v>0.305459</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.350655</v>
+        <v>0.352729</v>
       </c>
       <c r="C124" t="n">
-        <v>0.247106</v>
+        <v>0.250913</v>
       </c>
       <c r="D124" t="n">
-        <v>0.267634</v>
+        <v>0.267284</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350486</v>
+        <v>0.354094</v>
       </c>
       <c r="C125" t="n">
-        <v>0.248922</v>
+        <v>0.252791</v>
       </c>
       <c r="D125" t="n">
-        <v>0.270268</v>
+        <v>0.26847</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.352118</v>
+        <v>0.353645</v>
       </c>
       <c r="C126" t="n">
-        <v>0.250439</v>
+        <v>0.254205</v>
       </c>
       <c r="D126" t="n">
-        <v>0.273894</v>
+        <v>0.272058</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.349141</v>
+        <v>0.352812</v>
       </c>
       <c r="C127" t="n">
-        <v>0.253926</v>
+        <v>0.257623</v>
       </c>
       <c r="D127" t="n">
-        <v>0.275668</v>
+        <v>0.275137</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.351647</v>
+        <v>0.353209</v>
       </c>
       <c r="C128" t="n">
-        <v>0.256849</v>
+        <v>0.261064</v>
       </c>
       <c r="D128" t="n">
-        <v>0.278957</v>
+        <v>0.278387</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.350369</v>
+        <v>0.352288</v>
       </c>
       <c r="C129" t="n">
-        <v>0.260332</v>
+        <v>0.264459</v>
       </c>
       <c r="D129" t="n">
-        <v>0.281809</v>
+        <v>0.281339</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.352166</v>
+        <v>0.352576</v>
       </c>
       <c r="C130" t="n">
-        <v>0.263551</v>
+        <v>0.26771</v>
       </c>
       <c r="D130" t="n">
-        <v>0.285432</v>
+        <v>0.285667</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.349803</v>
+        <v>0.354043</v>
       </c>
       <c r="C131" t="n">
-        <v>0.267176</v>
+        <v>0.271371</v>
       </c>
       <c r="D131" t="n">
-        <v>0.289091</v>
+        <v>0.289319</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.349442</v>
+        <v>0.355047</v>
       </c>
       <c r="C132" t="n">
-        <v>0.270977</v>
+        <v>0.275168</v>
       </c>
       <c r="D132" t="n">
-        <v>0.292884</v>
+        <v>0.294167</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.351348</v>
+        <v>0.354825</v>
       </c>
       <c r="C133" t="n">
-        <v>0.276462</v>
+        <v>0.278955</v>
       </c>
       <c r="D133" t="n">
-        <v>0.299478</v>
+        <v>0.29897</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.351551</v>
+        <v>0.354943</v>
       </c>
       <c r="C134" t="n">
-        <v>0.279383</v>
+        <v>0.283143</v>
       </c>
       <c r="D134" t="n">
-        <v>0.303829</v>
+        <v>0.305012</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.353218</v>
+        <v>0.356784</v>
       </c>
       <c r="C135" t="n">
-        <v>0.284673</v>
+        <v>0.288141</v>
       </c>
       <c r="D135" t="n">
-        <v>0.31022</v>
+        <v>0.312309</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.356616</v>
+        <v>0.358051</v>
       </c>
       <c r="C136" t="n">
-        <v>0.290922</v>
+        <v>0.29462</v>
       </c>
       <c r="D136" t="n">
-        <v>0.320215</v>
+        <v>0.323182</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.359073</v>
+        <v>0.362239</v>
       </c>
       <c r="C137" t="n">
-        <v>0.300179</v>
+        <v>0.303987</v>
       </c>
       <c r="D137" t="n">
-        <v>0.332598</v>
+        <v>0.338642</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.409619</v>
+        <v>0.413016</v>
       </c>
       <c r="C138" t="n">
-        <v>0.266515</v>
+        <v>0.271277</v>
       </c>
       <c r="D138" t="n">
-        <v>0.287095</v>
+        <v>0.286966</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.409404</v>
+        <v>0.41242</v>
       </c>
       <c r="C139" t="n">
-        <v>0.268867</v>
+        <v>0.273274</v>
       </c>
       <c r="D139" t="n">
-        <v>0.28915</v>
+        <v>0.289619</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.409312</v>
+        <v>0.41186</v>
       </c>
       <c r="C140" t="n">
-        <v>0.27145</v>
+        <v>0.275567</v>
       </c>
       <c r="D140" t="n">
-        <v>0.292594</v>
+        <v>0.291837</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.408761</v>
+        <v>0.41184</v>
       </c>
       <c r="C141" t="n">
-        <v>0.273855</v>
+        <v>0.278657</v>
       </c>
       <c r="D141" t="n">
-        <v>0.294169</v>
+        <v>0.294934</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.409506</v>
+        <v>0.411929</v>
       </c>
       <c r="C142" t="n">
-        <v>0.276743</v>
+        <v>0.281019</v>
       </c>
       <c r="D142" t="n">
-        <v>0.296952</v>
+        <v>0.297269</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.409069</v>
+        <v>0.412361</v>
       </c>
       <c r="C143" t="n">
-        <v>0.279734</v>
+        <v>0.283876</v>
       </c>
       <c r="D143" t="n">
-        <v>0.299752</v>
+        <v>0.300528</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0354747</v>
+        <v>0.0405797</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0326879</v>
+        <v>0.0355744</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0347505</v>
+        <v>0.0371457</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0357886</v>
+        <v>0.0407077</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0327797</v>
+        <v>0.0356625</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0349208</v>
+        <v>0.0373285</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.035965</v>
+        <v>0.0407949</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0329199</v>
+        <v>0.0359363</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0350963</v>
+        <v>0.0376583</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0362538</v>
+        <v>0.0409546</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0345578</v>
+        <v>0.0361901</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0360894</v>
+        <v>0.0379629</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0363669</v>
+        <v>0.0411191</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0335418</v>
+        <v>0.0363414</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0359249</v>
+        <v>0.0386546</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0364979</v>
+        <v>0.0411772</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0337145</v>
+        <v>0.0368195</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0368583</v>
+        <v>0.0394876</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0368175</v>
+        <v>0.0413677</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0342962</v>
+        <v>0.0377075</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0389732</v>
+        <v>0.0417818</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0372664</v>
+        <v>0.041558</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0358069</v>
+        <v>0.0392402</v>
       </c>
       <c r="D9" t="n">
-        <v>0.047191</v>
+        <v>0.0487312</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0448012</v>
+        <v>0.0443116</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0379687</v>
+        <v>0.0380481</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0412179</v>
+        <v>0.0406215</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0447607</v>
+        <v>0.0443482</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0383721</v>
+        <v>0.0386604</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0414249</v>
+        <v>0.0409454</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0448815</v>
+        <v>0.0444395</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0396523</v>
+        <v>0.03895</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0415551</v>
+        <v>0.0410202</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0450304</v>
+        <v>0.0445657</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0388619</v>
+        <v>0.0392153</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0416591</v>
+        <v>0.0412561</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.045104</v>
+        <v>0.0446993</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0399486</v>
+        <v>0.0394855</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0418999</v>
+        <v>0.0414473</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0453429</v>
+        <v>0.0447646</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0403237</v>
+        <v>0.0397112</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0420968</v>
+        <v>0.0418375</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0455039</v>
+        <v>0.044935</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0405815</v>
+        <v>0.0398179</v>
       </c>
       <c r="D16" t="n">
-        <v>0.042294</v>
+        <v>0.0419822</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0455624</v>
+        <v>0.0451037</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0395501</v>
+        <v>0.0401227</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0426722</v>
+        <v>0.0422952</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0457396</v>
+        <v>0.0452783</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0400571</v>
+        <v>0.0405354</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0430001</v>
+        <v>0.0426227</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0459382</v>
+        <v>0.0454116</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0410633</v>
+        <v>0.0410145</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0434911</v>
+        <v>0.0433004</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0461636</v>
+        <v>0.0455779</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0416478</v>
+        <v>0.0411241</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0444319</v>
+        <v>0.0443723</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.046239</v>
+        <v>0.0457661</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0423941</v>
+        <v>0.0418763</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0468147</v>
+        <v>0.047583</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.046388</v>
+        <v>0.0460911</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0438326</v>
+        <v>0.0431839</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0548217</v>
+        <v>0.0547875</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0469397</v>
+        <v>0.0464103</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0489913</v>
+        <v>0.048325</v>
       </c>
       <c r="D23" t="n">
-        <v>0.06792960000000001</v>
+        <v>0.0687198</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0490115</v>
+        <v>0.0494036</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0420757</v>
+        <v>0.0428363</v>
       </c>
       <c r="D24" t="n">
-        <v>0.045682</v>
+        <v>0.0456579</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0488576</v>
+        <v>0.0492735</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0422275</v>
+        <v>0.043102</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0456962</v>
+        <v>0.0457851</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0489822</v>
+        <v>0.0493599</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0425125</v>
+        <v>0.0433149</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0461024</v>
+        <v>0.046046</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0489988</v>
+        <v>0.0493969</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0426459</v>
+        <v>0.0435731</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0461907</v>
+        <v>0.046333</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0491098</v>
+        <v>0.0494882</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0430949</v>
+        <v>0.0438417</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0464999</v>
+        <v>0.0466052</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0492328</v>
+        <v>0.0496746</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0431981</v>
+        <v>0.0440578</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0467982</v>
+        <v>0.0468603</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0493829</v>
+        <v>0.0497877</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0442184</v>
+        <v>0.0442354</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0470016</v>
+        <v>0.0472473</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0495583</v>
+        <v>0.0499541</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0438124</v>
+        <v>0.0446722</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0476499</v>
+        <v>0.0478843</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0496602</v>
+        <v>0.0501043</v>
       </c>
       <c r="C32" t="n">
-        <v>0.044063</v>
+        <v>0.0448512</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0486176</v>
+        <v>0.048865</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0498537</v>
+        <v>0.050285</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0446515</v>
+        <v>0.0452854</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0499401</v>
+        <v>0.0504932</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0499793</v>
+        <v>0.0504698</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0452905</v>
+        <v>0.0462327</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0532336</v>
+        <v>0.0536268</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0502474</v>
+        <v>0.0506808</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0472307</v>
+        <v>0.0485396</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0583051</v>
+        <v>0.0587365</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0505096</v>
+        <v>0.0509675</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0524784</v>
+        <v>0.0534126</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0655297</v>
+        <v>0.06577239999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0519126</v>
+        <v>0.0522313</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0596177</v>
+        <v>0.0601313</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07482419999999999</v>
+        <v>0.07497239999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0558</v>
+        <v>0.0562768</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0466</v>
+        <v>0.0472693</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0503728</v>
+        <v>0.0517501</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0547926</v>
+        <v>0.0553497</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0468443</v>
+        <v>0.0481284</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0506572</v>
+        <v>0.0520639</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0548735</v>
+        <v>0.0553809</v>
       </c>
       <c r="C40" t="n">
-        <v>0.047149</v>
+        <v>0.0484259</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0512893</v>
+        <v>0.0524161</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0549332</v>
+        <v>0.0554627</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0476094</v>
+        <v>0.048812</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0514507</v>
+        <v>0.0519331</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0550673</v>
+        <v>0.0555741</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0478543</v>
+        <v>0.049075</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0519602</v>
+        <v>0.0531907</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.055171</v>
+        <v>0.0556619</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0484032</v>
+        <v>0.0494835</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0528004</v>
+        <v>0.0537685</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0552965</v>
+        <v>0.0557932</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0488111</v>
+        <v>0.0499624</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0532616</v>
+        <v>0.0545176</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0554514</v>
+        <v>0.0559322</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0493016</v>
+        <v>0.0504534</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0545381</v>
+        <v>0.0556074</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0555973</v>
+        <v>0.0560566</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0501403</v>
+        <v>0.0510122</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0566487</v>
+        <v>0.0574249</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0557872</v>
+        <v>0.0562517</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0515329</v>
+        <v>0.0522939</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0587003</v>
+        <v>0.0589754</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0559824</v>
+        <v>0.056498</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0538955</v>
+        <v>0.0545771</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0618766</v>
+        <v>0.0628693</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0563278</v>
+        <v>0.0568693</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0566515</v>
+        <v>0.0572854</v>
       </c>
       <c r="D49" t="n">
-        <v>0.065764</v>
+        <v>0.0657109</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0576385</v>
+        <v>0.0581406</v>
       </c>
       <c r="C50" t="n">
-        <v>0.060005</v>
+        <v>0.0606771</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0707498</v>
+        <v>0.0704871</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0618266</v>
+        <v>0.0622532</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0648214</v>
+        <v>0.0654343</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0782916</v>
+        <v>0.0790001</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0670285</v>
+        <v>0.06754839999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.071794</v>
+        <v>0.0719902</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0895527</v>
+        <v>0.08925810000000001</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0613252</v>
+        <v>0.0611745</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0463603</v>
+        <v>0.0477007</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0507088</v>
+        <v>0.0527694</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0609168</v>
+        <v>0.0610802</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0469803</v>
+        <v>0.0485495</v>
       </c>
       <c r="D54" t="n">
-        <v>0.051161</v>
+        <v>0.0534266</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0610915</v>
+        <v>0.0610958</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0475794</v>
+        <v>0.0493635</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0517477</v>
+        <v>0.0541405</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0610921</v>
+        <v>0.0612147</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0479653</v>
+        <v>0.0488964</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0528125</v>
+        <v>0.0538385</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0612287</v>
+        <v>0.0613222</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0486059</v>
+        <v>0.0497582</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0535931</v>
+        <v>0.0548245</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0614047</v>
+        <v>0.0614726</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0493562</v>
+        <v>0.05138</v>
       </c>
       <c r="D58" t="n">
-        <v>0.05483</v>
+        <v>0.0554102</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0615355</v>
+        <v>0.061665</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0503343</v>
+        <v>0.0520474</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0564022</v>
+        <v>0.056649</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.061718</v>
+        <v>0.0618773</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0513953</v>
+        <v>0.0531004</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0578536</v>
+        <v>0.0595489</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0619865</v>
+        <v>0.0621308</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0530058</v>
+        <v>0.0543239</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0598072</v>
+        <v>0.0609843</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0623216</v>
+        <v>0.0624611</v>
       </c>
       <c r="C62" t="n">
-        <v>0.054751</v>
+        <v>0.0566393</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0616653</v>
+        <v>0.06292490000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0634714</v>
+        <v>0.0635529</v>
       </c>
       <c r="C63" t="n">
-        <v>0.057022</v>
+        <v>0.0583756</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0654713</v>
+        <v>0.0672262</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.065737</v>
+        <v>0.06573619999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0600887</v>
+        <v>0.0619103</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0701798</v>
+        <v>0.070641</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0682764</v>
+        <v>0.0683327</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0640133</v>
+        <v>0.065397</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0770628</v>
+        <v>0.0784832</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0724552</v>
+        <v>0.0726328</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0704949</v>
+        <v>0.0715118</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0874481</v>
+        <v>0.08837879999999999</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0696917</v>
+        <v>0.0736246</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0530623</v>
+        <v>0.0568105</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0577382</v>
+        <v>0.06127</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.06975580000000001</v>
+        <v>0.0742101</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0536204</v>
+        <v>0.0572889</v>
       </c>
       <c r="D68" t="n">
-        <v>0.058372</v>
+        <v>0.061949</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0698869</v>
+        <v>0.0752346</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0541974</v>
+        <v>0.0582461</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0591457</v>
+        <v>0.0629335</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.07000489999999999</v>
+        <v>0.0753448</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0549607</v>
+        <v>0.058745</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0599396</v>
+        <v>0.0635413</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0701412</v>
+        <v>0.0755774</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0558439</v>
+        <v>0.0596281</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0609046</v>
+        <v>0.0645676</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0705369</v>
+        <v>0.0759901</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0558389</v>
+        <v>0.0604816</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0611808</v>
+        <v>0.0656018</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0708047</v>
+        <v>0.0768727</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0568185</v>
+        <v>0.0616129</v>
       </c>
       <c r="D73" t="n">
-        <v>0.062949</v>
+        <v>0.0669037</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0712667</v>
+        <v>0.0772992</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0580849</v>
+        <v>0.0627423</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0635883</v>
+        <v>0.0682651</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0715558</v>
+        <v>0.0778923</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0594483</v>
+        <v>0.0638677</v>
       </c>
       <c r="D75" t="n">
-        <v>0.06537750000000001</v>
+        <v>0.0697972</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.07214569999999999</v>
+        <v>0.0785488</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0610311</v>
+        <v>0.0653446</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0676268</v>
+        <v>0.07193860000000001</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07332320000000001</v>
+        <v>0.079842</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0630978</v>
+        <v>0.06733310000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0706941</v>
+        <v>0.07487630000000001</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0748212</v>
+        <v>0.08137990000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0657605</v>
+        <v>0.06977609999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0748907</v>
+        <v>0.0788592</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0769143</v>
+        <v>0.0833049</v>
       </c>
       <c r="C79" t="n">
-        <v>0.06952079999999999</v>
+        <v>0.0735517</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0811974</v>
+        <v>0.0851846</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0806979</v>
+        <v>0.0872184</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0749494</v>
+        <v>0.0790516</v>
       </c>
       <c r="D80" t="n">
-        <v>0.09050850000000001</v>
+        <v>0.0946512</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.174845</v>
+        <v>0.172408</v>
       </c>
       <c r="C81" t="n">
-        <v>0.13909</v>
+        <v>0.140618</v>
       </c>
       <c r="D81" t="n">
-        <v>0.147202</v>
+        <v>0.148638</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.175551</v>
+        <v>0.174748</v>
       </c>
       <c r="C82" t="n">
-        <v>0.138184</v>
+        <v>0.140213</v>
       </c>
       <c r="D82" t="n">
-        <v>0.146065</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.175463</v>
+        <v>0.175981</v>
       </c>
       <c r="C83" t="n">
-        <v>0.139927</v>
+        <v>0.140977</v>
       </c>
       <c r="D83" t="n">
-        <v>0.14805</v>
+        <v>0.149202</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.176034</v>
+        <v>0.175874</v>
       </c>
       <c r="C84" t="n">
-        <v>0.139723</v>
+        <v>0.142772</v>
       </c>
       <c r="D84" t="n">
-        <v>0.147869</v>
+        <v>0.151067</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.177362</v>
+        <v>0.178009</v>
       </c>
       <c r="C85" t="n">
-        <v>0.141246</v>
+        <v>0.144861</v>
       </c>
       <c r="D85" t="n">
-        <v>0.149595</v>
+        <v>0.153433</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.17791</v>
+        <v>0.179795</v>
       </c>
       <c r="C86" t="n">
-        <v>0.141616</v>
+        <v>0.144685</v>
       </c>
       <c r="D86" t="n">
-        <v>0.150121</v>
+        <v>0.153197</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.177626</v>
+        <v>0.178836</v>
       </c>
       <c r="C87" t="n">
-        <v>0.143341</v>
+        <v>0.144124</v>
       </c>
       <c r="D87" t="n">
-        <v>0.152167</v>
+        <v>0.152901</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.179502</v>
+        <v>0.179938</v>
       </c>
       <c r="C88" t="n">
-        <v>0.142788</v>
+        <v>0.146349</v>
       </c>
       <c r="D88" t="n">
-        <v>0.151665</v>
+        <v>0.155544</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.179606</v>
+        <v>0.180141</v>
       </c>
       <c r="C89" t="n">
-        <v>0.14339</v>
+        <v>0.146811</v>
       </c>
       <c r="D89" t="n">
-        <v>0.152656</v>
+        <v>0.156199</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.17985</v>
+        <v>0.181046</v>
       </c>
       <c r="C90" t="n">
-        <v>0.144753</v>
+        <v>0.147856</v>
       </c>
       <c r="D90" t="n">
-        <v>0.154512</v>
+        <v>0.157998</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.180681</v>
+        <v>0.181375</v>
       </c>
       <c r="C91" t="n">
-        <v>0.145325</v>
+        <v>0.148688</v>
       </c>
       <c r="D91" t="n">
-        <v>0.155816</v>
+        <v>0.159357</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.182002</v>
+        <v>0.183784</v>
       </c>
       <c r="C92" t="n">
-        <v>0.147553</v>
+        <v>0.152163</v>
       </c>
       <c r="D92" t="n">
-        <v>0.159133</v>
+        <v>0.164202</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.182833</v>
+        <v>0.183422</v>
       </c>
       <c r="C93" t="n">
-        <v>0.151843</v>
+        <v>0.152209</v>
       </c>
       <c r="D93" t="n">
-        <v>0.165792</v>
+        <v>0.166096</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.185873</v>
+        <v>0.185311</v>
       </c>
       <c r="C94" t="n">
-        <v>0.154541</v>
+        <v>0.159372</v>
       </c>
       <c r="D94" t="n">
-        <v>0.172165</v>
+        <v>0.177245</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.243312</v>
+        <v>0.241129</v>
       </c>
       <c r="C95" t="n">
-        <v>0.202028</v>
+        <v>0.201787</v>
       </c>
       <c r="D95" t="n">
-        <v>0.22171</v>
+        <v>0.218015</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.242769</v>
+        <v>0.240969</v>
       </c>
       <c r="C96" t="n">
-        <v>0.20705</v>
+        <v>0.202793</v>
       </c>
       <c r="D96" t="n">
-        <v>0.223276</v>
+        <v>0.219289</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.24339</v>
+        <v>0.241139</v>
       </c>
       <c r="C97" t="n">
-        <v>0.203981</v>
+        <v>0.203588</v>
       </c>
       <c r="D97" t="n">
-        <v>0.224656</v>
+        <v>0.220518</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.244098</v>
+        <v>0.240924</v>
       </c>
       <c r="C98" t="n">
-        <v>0.209189</v>
+        <v>0.205162</v>
       </c>
       <c r="D98" t="n">
-        <v>0.22512</v>
+        <v>0.22084</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.243808</v>
+        <v>0.24071</v>
       </c>
       <c r="C99" t="n">
-        <v>0.210729</v>
+        <v>0.20621</v>
       </c>
       <c r="D99" t="n">
-        <v>0.226796</v>
+        <v>0.222359</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.244472</v>
+        <v>0.240668</v>
       </c>
       <c r="C100" t="n">
-        <v>0.207891</v>
+        <v>0.207403</v>
       </c>
       <c r="D100" t="n">
-        <v>0.228106</v>
+        <v>0.223668</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.244076</v>
+        <v>0.241055</v>
       </c>
       <c r="C101" t="n">
-        <v>0.213535</v>
+        <v>0.208853</v>
       </c>
       <c r="D101" t="n">
-        <v>0.230224</v>
+        <v>0.225518</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.24435</v>
+        <v>0.24167</v>
       </c>
       <c r="C102" t="n">
-        <v>0.211115</v>
+        <v>0.210805</v>
       </c>
       <c r="D102" t="n">
-        <v>0.228148</v>
+        <v>0.227409</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.244446</v>
+        <v>0.241961</v>
       </c>
       <c r="C103" t="n">
-        <v>0.213305</v>
+        <v>0.212505</v>
       </c>
       <c r="D103" t="n">
-        <v>0.230351</v>
+        <v>0.229307</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.244371</v>
+        <v>0.242612</v>
       </c>
       <c r="C104" t="n">
-        <v>0.217896</v>
+        <v>0.214669</v>
       </c>
       <c r="D104" t="n">
-        <v>0.234944</v>
+        <v>0.231911</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.244611</v>
+        <v>0.242942</v>
       </c>
       <c r="C105" t="n">
-        <v>0.217686</v>
+        <v>0.21699</v>
       </c>
       <c r="D105" t="n">
-        <v>0.235953</v>
+        <v>0.234794</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.245361</v>
+        <v>0.243963</v>
       </c>
       <c r="C106" t="n">
-        <v>0.222882</v>
+        <v>0.219305</v>
       </c>
       <c r="D106" t="n">
-        <v>0.242294</v>
+        <v>0.238829</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.248133</v>
+        <v>0.245591</v>
       </c>
       <c r="C107" t="n">
-        <v>0.223295</v>
+        <v>0.21888</v>
       </c>
       <c r="D107" t="n">
-        <v>0.248199</v>
+        <v>0.244285</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.249806</v>
+        <v>0.248547</v>
       </c>
       <c r="C108" t="n">
-        <v>0.230888</v>
+        <v>0.222995</v>
       </c>
       <c r="D108" t="n">
-        <v>0.255938</v>
+        <v>0.252594</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.255039</v>
+        <v>0.253174</v>
       </c>
       <c r="C109" t="n">
-        <v>0.236363</v>
+        <v>0.230303</v>
       </c>
       <c r="D109" t="n">
-        <v>0.269848</v>
+        <v>0.266801</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.277071</v>
+        <v>0.277131</v>
       </c>
       <c r="C110" t="n">
-        <v>0.230499</v>
+        <v>0.226761</v>
       </c>
       <c r="D110" t="n">
-        <v>0.249536</v>
+        <v>0.247268</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.27672</v>
+        <v>0.276646</v>
       </c>
       <c r="C111" t="n">
-        <v>0.232351</v>
+        <v>0.230694</v>
       </c>
       <c r="D111" t="n">
-        <v>0.24853</v>
+        <v>0.249273</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.276421</v>
+        <v>0.276633</v>
       </c>
       <c r="C112" t="n">
-        <v>0.233346</v>
+        <v>0.230459</v>
       </c>
       <c r="D112" t="n">
-        <v>0.248077</v>
+        <v>0.248687</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.277284</v>
+        <v>0.276307</v>
       </c>
       <c r="C113" t="n">
-        <v>0.234674</v>
+        <v>0.233224</v>
       </c>
       <c r="D113" t="n">
-        <v>0.253267</v>
+        <v>0.249669</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.276162</v>
+        <v>0.276305</v>
       </c>
       <c r="C114" t="n">
-        <v>0.237308</v>
+        <v>0.235747</v>
       </c>
       <c r="D114" t="n">
-        <v>0.255956</v>
+        <v>0.254454</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.277446</v>
+        <v>0.276758</v>
       </c>
       <c r="C115" t="n">
-        <v>0.239955</v>
+        <v>0.237406</v>
       </c>
       <c r="D115" t="n">
-        <v>0.255974</v>
+        <v>0.257723</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.277577</v>
+        <v>0.278168</v>
       </c>
       <c r="C116" t="n">
-        <v>0.242818</v>
+        <v>0.241731</v>
       </c>
       <c r="D116" t="n">
-        <v>0.261785</v>
+        <v>0.25877</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.277002</v>
+        <v>0.276906</v>
       </c>
       <c r="C117" t="n">
-        <v>0.245843</v>
+        <v>0.244722</v>
       </c>
       <c r="D117" t="n">
-        <v>0.265024</v>
+        <v>0.264285</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.27801</v>
+        <v>0.27906</v>
       </c>
       <c r="C118" t="n">
-        <v>0.248498</v>
+        <v>0.247593</v>
       </c>
       <c r="D118" t="n">
-        <v>0.268082</v>
+        <v>0.265753</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.278298</v>
+        <v>0.278702</v>
       </c>
       <c r="C119" t="n">
-        <v>0.251474</v>
+        <v>0.250225</v>
       </c>
       <c r="D119" t="n">
-        <v>0.272127</v>
+        <v>0.271515</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.27954</v>
+        <v>0.280573</v>
       </c>
       <c r="C120" t="n">
-        <v>0.255371</v>
+        <v>0.254887</v>
       </c>
       <c r="D120" t="n">
-        <v>0.277238</v>
+        <v>0.276264</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.281622</v>
+        <v>0.28095</v>
       </c>
       <c r="C121" t="n">
-        <v>0.259435</v>
+        <v>0.258841</v>
       </c>
       <c r="D121" t="n">
-        <v>0.281679</v>
+        <v>0.281446</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.284087</v>
+        <v>0.283429</v>
       </c>
       <c r="C122" t="n">
-        <v>0.264858</v>
+        <v>0.264754</v>
       </c>
       <c r="D122" t="n">
-        <v>0.291858</v>
+        <v>0.290322</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.288552</v>
+        <v>0.287943</v>
       </c>
       <c r="C123" t="n">
-        <v>0.272914</v>
+        <v>0.272116</v>
       </c>
       <c r="D123" t="n">
-        <v>0.305459</v>
+        <v>0.305192</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.352729</v>
+        <v>0.353029</v>
       </c>
       <c r="C124" t="n">
-        <v>0.250913</v>
+        <v>0.249272</v>
       </c>
       <c r="D124" t="n">
-        <v>0.267284</v>
+        <v>0.265939</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.354094</v>
+        <v>0.351042</v>
       </c>
       <c r="C125" t="n">
-        <v>0.252791</v>
+        <v>0.251611</v>
       </c>
       <c r="D125" t="n">
-        <v>0.26847</v>
+        <v>0.267356</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.353645</v>
+        <v>0.351383</v>
       </c>
       <c r="C126" t="n">
-        <v>0.254205</v>
+        <v>0.252856</v>
       </c>
       <c r="D126" t="n">
-        <v>0.272058</v>
+        <v>0.27032</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.352812</v>
+        <v>0.351289</v>
       </c>
       <c r="C127" t="n">
-        <v>0.257623</v>
+        <v>0.2562</v>
       </c>
       <c r="D127" t="n">
-        <v>0.275137</v>
+        <v>0.273584</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.353209</v>
+        <v>0.351958</v>
       </c>
       <c r="C128" t="n">
-        <v>0.261064</v>
+        <v>0.259675</v>
       </c>
       <c r="D128" t="n">
-        <v>0.278387</v>
+        <v>0.277234</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.352288</v>
+        <v>0.352306</v>
       </c>
       <c r="C129" t="n">
-        <v>0.264459</v>
+        <v>0.26298</v>
       </c>
       <c r="D129" t="n">
-        <v>0.281339</v>
+        <v>0.280404</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.352576</v>
+        <v>0.352697</v>
       </c>
       <c r="C130" t="n">
-        <v>0.26771</v>
+        <v>0.266463</v>
       </c>
       <c r="D130" t="n">
-        <v>0.285667</v>
+        <v>0.284269</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.354043</v>
+        <v>0.353047</v>
       </c>
       <c r="C131" t="n">
-        <v>0.271371</v>
+        <v>0.270523</v>
       </c>
       <c r="D131" t="n">
-        <v>0.289319</v>
+        <v>0.288893</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.355047</v>
+        <v>0.353332</v>
       </c>
       <c r="C132" t="n">
-        <v>0.275168</v>
+        <v>0.274102</v>
       </c>
       <c r="D132" t="n">
-        <v>0.294167</v>
+        <v>0.293283</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.354825</v>
+        <v>0.353462</v>
       </c>
       <c r="C133" t="n">
-        <v>0.278955</v>
+        <v>0.278416</v>
       </c>
       <c r="D133" t="n">
-        <v>0.29897</v>
+        <v>0.298243</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.354943</v>
+        <v>0.354966</v>
       </c>
       <c r="C134" t="n">
-        <v>0.283143</v>
+        <v>0.28245</v>
       </c>
       <c r="D134" t="n">
-        <v>0.305012</v>
+        <v>0.30425</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.356784</v>
+        <v>0.356467</v>
       </c>
       <c r="C135" t="n">
-        <v>0.288141</v>
+        <v>0.287646</v>
       </c>
       <c r="D135" t="n">
-        <v>0.312309</v>
+        <v>0.312013</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.358051</v>
+        <v>0.357543</v>
       </c>
       <c r="C136" t="n">
-        <v>0.29462</v>
+        <v>0.294306</v>
       </c>
       <c r="D136" t="n">
-        <v>0.323182</v>
+        <v>0.322919</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.362239</v>
+        <v>0.360255</v>
       </c>
       <c r="C137" t="n">
-        <v>0.303987</v>
+        <v>0.303282</v>
       </c>
       <c r="D137" t="n">
-        <v>0.338642</v>
+        <v>0.33844</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.413016</v>
+        <v>0.412413</v>
       </c>
       <c r="C138" t="n">
-        <v>0.271277</v>
+        <v>0.268989</v>
       </c>
       <c r="D138" t="n">
-        <v>0.286966</v>
+        <v>0.284887</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.41242</v>
+        <v>0.411984</v>
       </c>
       <c r="C139" t="n">
-        <v>0.273274</v>
+        <v>0.271426</v>
       </c>
       <c r="D139" t="n">
-        <v>0.289619</v>
+        <v>0.287829</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.41186</v>
+        <v>0.411672</v>
       </c>
       <c r="C140" t="n">
-        <v>0.275567</v>
+        <v>0.27369</v>
       </c>
       <c r="D140" t="n">
-        <v>0.291837</v>
+        <v>0.289893</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.41184</v>
+        <v>0.412372</v>
       </c>
       <c r="C141" t="n">
-        <v>0.278657</v>
+        <v>0.27634</v>
       </c>
       <c r="D141" t="n">
-        <v>0.294934</v>
+        <v>0.292174</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.411929</v>
+        <v>0.412308</v>
       </c>
       <c r="C142" t="n">
-        <v>0.281019</v>
+        <v>0.279266</v>
       </c>
       <c r="D142" t="n">
-        <v>0.297269</v>
+        <v>0.295182</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.412361</v>
+        <v>0.412303</v>
       </c>
       <c r="C143" t="n">
-        <v>0.283876</v>
+        <v>0.282239</v>
       </c>
       <c r="D143" t="n">
-        <v>0.300528</v>
+        <v>0.298585</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0405797</v>
+        <v>0.0409427</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0355744</v>
+        <v>0.0366641</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0371457</v>
+        <v>0.0382482</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0407077</v>
+        <v>0.041156</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0356625</v>
+        <v>0.0368273</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0373285</v>
+        <v>0.0386229</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0407949</v>
+        <v>0.0413087</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0359363</v>
+        <v>0.0372426</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0376583</v>
+        <v>0.0388288</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0409546</v>
+        <v>0.0414639</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0361901</v>
+        <v>0.037743</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0379629</v>
+        <v>0.0390534</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0411191</v>
+        <v>0.0415485</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0363414</v>
+        <v>0.0378622</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0386546</v>
+        <v>0.0394532</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0411772</v>
+        <v>0.041626</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0368195</v>
+        <v>0.0382995</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0394876</v>
+        <v>0.0401772</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0413677</v>
+        <v>0.0418968</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0377075</v>
+        <v>0.0391797</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0417818</v>
+        <v>0.0414829</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.041558</v>
+        <v>0.0422049</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0392402</v>
+        <v>0.0402234</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0487312</v>
+        <v>0.0463587</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0443116</v>
+        <v>0.0437707</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0380481</v>
+        <v>0.0382634</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0406215</v>
+        <v>0.0397986</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0443482</v>
+        <v>0.0438053</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0386604</v>
+        <v>0.0386528</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0409454</v>
+        <v>0.0398166</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0444395</v>
+        <v>0.0440446</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03895</v>
+        <v>0.0389764</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0410202</v>
+        <v>0.0402752</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0445657</v>
+        <v>0.0440607</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0392153</v>
+        <v>0.039175</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0412561</v>
+        <v>0.0407072</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0446993</v>
+        <v>0.0441981</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0394855</v>
+        <v>0.0394943</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0414473</v>
+        <v>0.040874</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0447646</v>
+        <v>0.0443845</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0397112</v>
+        <v>0.0397136</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0418375</v>
+        <v>0.0412612</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.044935</v>
+        <v>0.0444949</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0398179</v>
+        <v>0.0399136</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0419822</v>
+        <v>0.0414348</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0451037</v>
+        <v>0.0446025</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0401227</v>
+        <v>0.040232</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0422952</v>
+        <v>0.0416363</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0452783</v>
+        <v>0.0448195</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0405354</v>
+        <v>0.0406278</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0426227</v>
+        <v>0.0419224</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0454116</v>
+        <v>0.0449706</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0410145</v>
+        <v>0.0409206</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0433004</v>
+        <v>0.042172</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0455779</v>
+        <v>0.045143</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0411241</v>
+        <v>0.0411453</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0443723</v>
+        <v>0.0425473</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0457661</v>
+        <v>0.045242</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0418763</v>
+        <v>0.0418796</v>
       </c>
       <c r="D21" t="n">
-        <v>0.047583</v>
+        <v>0.0442611</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0460911</v>
+        <v>0.0455239</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0431839</v>
+        <v>0.0434171</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0547875</v>
+        <v>0.049891</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0464103</v>
+        <v>0.0460496</v>
       </c>
       <c r="C23" t="n">
-        <v>0.048325</v>
+        <v>0.0478139</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0687198</v>
+        <v>0.0651067</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0494036</v>
+        <v>0.0488536</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0428363</v>
+        <v>0.0427427</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0456579</v>
+        <v>0.0444099</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0492735</v>
+        <v>0.0488451</v>
       </c>
       <c r="C25" t="n">
-        <v>0.043102</v>
+        <v>0.0430891</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0457851</v>
+        <v>0.0447048</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0493599</v>
+        <v>0.0489217</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0433149</v>
+        <v>0.0434752</v>
       </c>
       <c r="D26" t="n">
-        <v>0.046046</v>
+        <v>0.0449313</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0493969</v>
+        <v>0.0489451</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0435731</v>
+        <v>0.0433872</v>
       </c>
       <c r="D27" t="n">
-        <v>0.046333</v>
+        <v>0.0452582</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0494882</v>
+        <v>0.049048</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0438417</v>
+        <v>0.0439928</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0466052</v>
+        <v>0.0455492</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0496746</v>
+        <v>0.0492128</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0440578</v>
+        <v>0.0443419</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0468603</v>
+        <v>0.0457261</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0497877</v>
+        <v>0.0493185</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0442354</v>
+        <v>0.0446195</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0472473</v>
+        <v>0.0460293</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0499541</v>
+        <v>0.0494901</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0446722</v>
+        <v>0.0448067</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0478843</v>
+        <v>0.0462695</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0501043</v>
+        <v>0.0496219</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0448512</v>
+        <v>0.0451015</v>
       </c>
       <c r="D32" t="n">
-        <v>0.048865</v>
+        <v>0.0468466</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.050285</v>
+        <v>0.0497825</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0452854</v>
+        <v>0.0453122</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0504932</v>
+        <v>0.0478556</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0504698</v>
+        <v>0.0499112</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0462327</v>
+        <v>0.046541</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0536268</v>
+        <v>0.0504221</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0506808</v>
+        <v>0.0502162</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0485396</v>
+        <v>0.0481136</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0587365</v>
+        <v>0.0562387</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0509675</v>
+        <v>0.0503526</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0534126</v>
+        <v>0.0532016</v>
       </c>
       <c r="D36" t="n">
-        <v>0.06577239999999999</v>
+        <v>0.06342</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0522313</v>
+        <v>0.0519666</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0601313</v>
+        <v>0.0603427</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07497239999999999</v>
+        <v>0.0729071</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0562768</v>
+        <v>0.0556344</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0472693</v>
+        <v>0.0477066</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0517501</v>
+        <v>0.049649</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0553497</v>
+        <v>0.0545854</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0481284</v>
+        <v>0.047961</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0520639</v>
+        <v>0.0498761</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0553809</v>
+        <v>0.0546568</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0484259</v>
+        <v>0.0482523</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0524161</v>
+        <v>0.0500221</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0554627</v>
+        <v>0.0547216</v>
       </c>
       <c r="C41" t="n">
-        <v>0.048812</v>
+        <v>0.0485932</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0519331</v>
+        <v>0.0505201</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0555741</v>
+        <v>0.0548416</v>
       </c>
       <c r="C42" t="n">
-        <v>0.049075</v>
+        <v>0.0489403</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0531907</v>
+        <v>0.0509016</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0556619</v>
+        <v>0.0549407</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0494835</v>
+        <v>0.0493807</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0537685</v>
+        <v>0.0511099</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0557932</v>
+        <v>0.0550906</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0499624</v>
+        <v>0.0497318</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0545176</v>
+        <v>0.0517505</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0559322</v>
+        <v>0.0552291</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0504534</v>
+        <v>0.0502549</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0556074</v>
+        <v>0.0524667</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0560566</v>
+        <v>0.0553769</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0510122</v>
+        <v>0.0508855</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0574249</v>
+        <v>0.0540981</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0562517</v>
+        <v>0.05554</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0522939</v>
+        <v>0.0522088</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0589754</v>
+        <v>0.0567593</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.056498</v>
+        <v>0.0557819</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0545771</v>
+        <v>0.054535</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0628693</v>
+        <v>0.0599184</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0568693</v>
+        <v>0.0561084</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0572854</v>
+        <v>0.05717</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0657109</v>
+        <v>0.06397890000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0581406</v>
+        <v>0.0573591</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0606771</v>
+        <v>0.0606212</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0704871</v>
+        <v>0.0689052</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0622532</v>
+        <v>0.0616357</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0654343</v>
+        <v>0.06529799999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0790001</v>
+        <v>0.0766199</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.06754839999999999</v>
+        <v>0.0668641</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0719902</v>
+        <v>0.072396</v>
       </c>
       <c r="D52" t="n">
-        <v>0.08925810000000001</v>
+        <v>0.0876335</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0611745</v>
+        <v>0.0612363</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0477007</v>
+        <v>0.0485179</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0527694</v>
+        <v>0.0507176</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0610802</v>
+        <v>0.0606099</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0485495</v>
+        <v>0.0486227</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0534266</v>
+        <v>0.050961</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0610958</v>
+        <v>0.0607246</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0493635</v>
+        <v>0.0492918</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0541405</v>
+        <v>0.0518556</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0612147</v>
+        <v>0.0607863</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0488964</v>
+        <v>0.0497856</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0538385</v>
+        <v>0.0524565</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0613222</v>
+        <v>0.0609059</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0497582</v>
+        <v>0.0507277</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0548245</v>
+        <v>0.0532397</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0614726</v>
+        <v>0.0610665</v>
       </c>
       <c r="C58" t="n">
-        <v>0.05138</v>
+        <v>0.0514077</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0554102</v>
+        <v>0.0530741</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.061665</v>
+        <v>0.0612373</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0520474</v>
+        <v>0.0520362</v>
       </c>
       <c r="D59" t="n">
-        <v>0.056649</v>
+        <v>0.0548035</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0618773</v>
+        <v>0.0614125</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0531004</v>
+        <v>0.0535663</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0595489</v>
+        <v>0.0569245</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0621308</v>
+        <v>0.0616569</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0543239</v>
+        <v>0.0548091</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0609843</v>
+        <v>0.0589893</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0624611</v>
+        <v>0.0621051</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0566393</v>
+        <v>0.0566469</v>
       </c>
       <c r="D62" t="n">
-        <v>0.06292490000000001</v>
+        <v>0.0611814</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0635529</v>
+        <v>0.063093</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0583756</v>
+        <v>0.0585376</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0672262</v>
+        <v>0.0648165</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.06573619999999999</v>
+        <v>0.06520960000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0619103</v>
+        <v>0.0619018</v>
       </c>
       <c r="D64" t="n">
-        <v>0.070641</v>
+        <v>0.0691209</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0683327</v>
+        <v>0.0679765</v>
       </c>
       <c r="C65" t="n">
-        <v>0.065397</v>
+        <v>0.0659131</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0784832</v>
+        <v>0.076545</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0726328</v>
+        <v>0.07210510000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0715118</v>
+        <v>0.0720493</v>
       </c>
       <c r="D66" t="n">
-        <v>0.08837879999999999</v>
+        <v>0.0868029</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0736246</v>
+        <v>0.069836</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0568105</v>
+        <v>0.0536851</v>
       </c>
       <c r="D67" t="n">
-        <v>0.06127</v>
+        <v>0.0556754</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0742101</v>
+        <v>0.0701437</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0572889</v>
+        <v>0.0543543</v>
       </c>
       <c r="D68" t="n">
-        <v>0.061949</v>
+        <v>0.0564413</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0752346</v>
+        <v>0.0702907</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0582461</v>
+        <v>0.0548685</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0629335</v>
+        <v>0.0570091</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0753448</v>
+        <v>0.07052170000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.058745</v>
+        <v>0.0554896</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0635413</v>
+        <v>0.0576554</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0755774</v>
+        <v>0.0707411</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0596281</v>
+        <v>0.056264</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0645676</v>
+        <v>0.0586049</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0759901</v>
+        <v>0.07107040000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0604816</v>
+        <v>0.0570163</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0656018</v>
+        <v>0.059569</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0768727</v>
+        <v>0.0715663</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0616129</v>
+        <v>0.0580868</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0669037</v>
+        <v>0.0608655</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0772992</v>
+        <v>0.0716526</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0627423</v>
+        <v>0.0591546</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0682651</v>
+        <v>0.0621793</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0778923</v>
+        <v>0.0720425</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0638677</v>
+        <v>0.0604308</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0697972</v>
+        <v>0.06390990000000001</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0785488</v>
+        <v>0.07331459999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0653446</v>
+        <v>0.0620464</v>
       </c>
       <c r="D76" t="n">
-        <v>0.07193860000000001</v>
+        <v>0.0661795</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.079842</v>
+        <v>0.0741841</v>
       </c>
       <c r="C77" t="n">
-        <v>0.06733310000000001</v>
+        <v>0.0639902</v>
       </c>
       <c r="D77" t="n">
-        <v>0.07487630000000001</v>
+        <v>0.0691972</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08137990000000001</v>
+        <v>0.0755</v>
       </c>
       <c r="C78" t="n">
-        <v>0.06977609999999999</v>
+        <v>0.0665989</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0788592</v>
+        <v>0.073324</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0833049</v>
+        <v>0.0781264</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0735517</v>
+        <v>0.0704085</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0851846</v>
+        <v>0.0796143</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0872184</v>
+        <v>0.0818319</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0790516</v>
+        <v>0.0759037</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0946512</v>
+        <v>0.0891607</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.172408</v>
+        <v>0.173995</v>
       </c>
       <c r="C81" t="n">
-        <v>0.140618</v>
+        <v>0.141477</v>
       </c>
       <c r="D81" t="n">
-        <v>0.148638</v>
+        <v>0.143631</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.174748</v>
+        <v>0.17424</v>
       </c>
       <c r="C82" t="n">
-        <v>0.140213</v>
+        <v>0.141498</v>
       </c>
       <c r="D82" t="n">
-        <v>0.14838</v>
+        <v>0.143506</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.175981</v>
+        <v>0.177352</v>
       </c>
       <c r="C83" t="n">
-        <v>0.140977</v>
+        <v>0.140023</v>
       </c>
       <c r="D83" t="n">
-        <v>0.149202</v>
+        <v>0.142125</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.175874</v>
+        <v>0.1769</v>
       </c>
       <c r="C84" t="n">
-        <v>0.142772</v>
+        <v>0.141968</v>
       </c>
       <c r="D84" t="n">
-        <v>0.151067</v>
+        <v>0.144201</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.178009</v>
+        <v>0.177373</v>
       </c>
       <c r="C85" t="n">
-        <v>0.144861</v>
+        <v>0.142298</v>
       </c>
       <c r="D85" t="n">
-        <v>0.153433</v>
+        <v>0.144701</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.179795</v>
+        <v>0.177751</v>
       </c>
       <c r="C86" t="n">
-        <v>0.144685</v>
+        <v>0.143479</v>
       </c>
       <c r="D86" t="n">
-        <v>0.153197</v>
+        <v>0.14598</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.178836</v>
+        <v>0.177769</v>
       </c>
       <c r="C87" t="n">
-        <v>0.144124</v>
+        <v>0.142954</v>
       </c>
       <c r="D87" t="n">
-        <v>0.152901</v>
+        <v>0.145757</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.179938</v>
+        <v>0.180274</v>
       </c>
       <c r="C88" t="n">
-        <v>0.146349</v>
+        <v>0.143991</v>
       </c>
       <c r="D88" t="n">
-        <v>0.155544</v>
+        <v>0.147106</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.180141</v>
+        <v>0.179178</v>
       </c>
       <c r="C89" t="n">
-        <v>0.146811</v>
+        <v>0.144397</v>
       </c>
       <c r="D89" t="n">
-        <v>0.156199</v>
+        <v>0.14785</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.181046</v>
+        <v>0.180705</v>
       </c>
       <c r="C90" t="n">
-        <v>0.147856</v>
+        <v>0.146481</v>
       </c>
       <c r="D90" t="n">
-        <v>0.157998</v>
+        <v>0.150608</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.181375</v>
+        <v>0.180935</v>
       </c>
       <c r="C91" t="n">
-        <v>0.148688</v>
+        <v>0.148135</v>
       </c>
       <c r="D91" t="n">
-        <v>0.159357</v>
+        <v>0.153159</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.183784</v>
+        <v>0.183039</v>
       </c>
       <c r="C92" t="n">
-        <v>0.152163</v>
+        <v>0.149401</v>
       </c>
       <c r="D92" t="n">
-        <v>0.164202</v>
+        <v>0.155644</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.183422</v>
+        <v>0.183273</v>
       </c>
       <c r="C93" t="n">
-        <v>0.152209</v>
+        <v>0.153716</v>
       </c>
       <c r="D93" t="n">
-        <v>0.166096</v>
+        <v>0.162043</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.185311</v>
+        <v>0.186497</v>
       </c>
       <c r="C94" t="n">
-        <v>0.159372</v>
+        <v>0.157082</v>
       </c>
       <c r="D94" t="n">
-        <v>0.177245</v>
+        <v>0.169373</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.241129</v>
+        <v>0.242445</v>
       </c>
       <c r="C95" t="n">
-        <v>0.201787</v>
+        <v>0.202632</v>
       </c>
       <c r="D95" t="n">
-        <v>0.218015</v>
+        <v>0.205711</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.240969</v>
+        <v>0.242158</v>
       </c>
       <c r="C96" t="n">
-        <v>0.202793</v>
+        <v>0.200649</v>
       </c>
       <c r="D96" t="n">
-        <v>0.219289</v>
+        <v>0.207323</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.241139</v>
+        <v>0.241865</v>
       </c>
       <c r="C97" t="n">
-        <v>0.203588</v>
+        <v>0.204717</v>
       </c>
       <c r="D97" t="n">
-        <v>0.220518</v>
+        <v>0.207997</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.240924</v>
+        <v>0.241834</v>
       </c>
       <c r="C98" t="n">
-        <v>0.205162</v>
+        <v>0.202876</v>
       </c>
       <c r="D98" t="n">
-        <v>0.22084</v>
+        <v>0.21005</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.24071</v>
+        <v>0.241943</v>
       </c>
       <c r="C99" t="n">
-        <v>0.20621</v>
+        <v>0.20715</v>
       </c>
       <c r="D99" t="n">
-        <v>0.222359</v>
+        <v>0.211038</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.240668</v>
+        <v>0.242336</v>
       </c>
       <c r="C100" t="n">
-        <v>0.207403</v>
+        <v>0.209429</v>
       </c>
       <c r="D100" t="n">
-        <v>0.223668</v>
+        <v>0.210131</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.241055</v>
+        <v>0.242762</v>
       </c>
       <c r="C101" t="n">
-        <v>0.208853</v>
+        <v>0.210845</v>
       </c>
       <c r="D101" t="n">
-        <v>0.225518</v>
+        <v>0.211776</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.24167</v>
+        <v>0.242604</v>
       </c>
       <c r="C102" t="n">
-        <v>0.210805</v>
+        <v>0.212021</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227409</v>
+        <v>0.213781</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.241961</v>
+        <v>0.242499</v>
       </c>
       <c r="C103" t="n">
-        <v>0.212505</v>
+        <v>0.213759</v>
       </c>
       <c r="D103" t="n">
-        <v>0.229307</v>
+        <v>0.215876</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.242612</v>
+        <v>0.242689</v>
       </c>
       <c r="C104" t="n">
-        <v>0.214669</v>
+        <v>0.215685</v>
       </c>
       <c r="D104" t="n">
-        <v>0.231911</v>
+        <v>0.221228</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.242942</v>
+        <v>0.243679</v>
       </c>
       <c r="C105" t="n">
-        <v>0.21699</v>
+        <v>0.217861</v>
       </c>
       <c r="D105" t="n">
-        <v>0.234794</v>
+        <v>0.224048</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.243963</v>
+        <v>0.244693</v>
       </c>
       <c r="C106" t="n">
-        <v>0.219305</v>
+        <v>0.220927</v>
       </c>
       <c r="D106" t="n">
-        <v>0.238829</v>
+        <v>0.228523</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.245591</v>
+        <v>0.24623</v>
       </c>
       <c r="C107" t="n">
-        <v>0.21888</v>
+        <v>0.224401</v>
       </c>
       <c r="D107" t="n">
-        <v>0.244285</v>
+        <v>0.234379</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.248547</v>
+        <v>0.249001</v>
       </c>
       <c r="C108" t="n">
-        <v>0.222995</v>
+        <v>0.225973</v>
       </c>
       <c r="D108" t="n">
-        <v>0.252594</v>
+        <v>0.242882</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.253174</v>
+        <v>0.253943</v>
       </c>
       <c r="C109" t="n">
-        <v>0.230303</v>
+        <v>0.235957</v>
       </c>
       <c r="D109" t="n">
-        <v>0.266801</v>
+        <v>0.256747</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.277131</v>
+        <v>0.275757</v>
       </c>
       <c r="C110" t="n">
-        <v>0.226761</v>
+        <v>0.229028</v>
       </c>
       <c r="D110" t="n">
-        <v>0.247268</v>
+        <v>0.233372</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.276646</v>
+        <v>0.274367</v>
       </c>
       <c r="C111" t="n">
-        <v>0.230694</v>
+        <v>0.230719</v>
       </c>
       <c r="D111" t="n">
-        <v>0.249273</v>
+        <v>0.234946</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.276633</v>
+        <v>0.275865</v>
       </c>
       <c r="C112" t="n">
-        <v>0.230459</v>
+        <v>0.231657</v>
       </c>
       <c r="D112" t="n">
-        <v>0.248687</v>
+        <v>0.236288</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.276307</v>
+        <v>0.276487</v>
       </c>
       <c r="C113" t="n">
-        <v>0.233224</v>
+        <v>0.233719</v>
       </c>
       <c r="D113" t="n">
-        <v>0.249669</v>
+        <v>0.238135</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.276305</v>
+        <v>0.275477</v>
       </c>
       <c r="C114" t="n">
-        <v>0.235747</v>
+        <v>0.23353</v>
       </c>
       <c r="D114" t="n">
-        <v>0.254454</v>
+        <v>0.238467</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.276758</v>
+        <v>0.275914</v>
       </c>
       <c r="C115" t="n">
-        <v>0.237406</v>
+        <v>0.23852</v>
       </c>
       <c r="D115" t="n">
-        <v>0.257723</v>
+        <v>0.243527</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.278168</v>
+        <v>0.275881</v>
       </c>
       <c r="C116" t="n">
-        <v>0.241731</v>
+        <v>0.239433</v>
       </c>
       <c r="D116" t="n">
-        <v>0.25877</v>
+        <v>0.245158</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.276906</v>
+        <v>0.276604</v>
       </c>
       <c r="C117" t="n">
-        <v>0.244722</v>
+        <v>0.244278</v>
       </c>
       <c r="D117" t="n">
-        <v>0.264285</v>
+        <v>0.250281</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.27906</v>
+        <v>0.277014</v>
       </c>
       <c r="C118" t="n">
-        <v>0.247593</v>
+        <v>0.245679</v>
       </c>
       <c r="D118" t="n">
-        <v>0.265753</v>
+        <v>0.253726</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.278702</v>
+        <v>0.27723</v>
       </c>
       <c r="C119" t="n">
-        <v>0.250225</v>
+        <v>0.250201</v>
       </c>
       <c r="D119" t="n">
-        <v>0.271515</v>
+        <v>0.258104</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.280573</v>
+        <v>0.277797</v>
       </c>
       <c r="C120" t="n">
-        <v>0.254887</v>
+        <v>0.253322</v>
       </c>
       <c r="D120" t="n">
-        <v>0.276264</v>
+        <v>0.26266</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.28095</v>
+        <v>0.280256</v>
       </c>
       <c r="C121" t="n">
-        <v>0.258841</v>
+        <v>0.258125</v>
       </c>
       <c r="D121" t="n">
-        <v>0.281446</v>
+        <v>0.270157</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.283429</v>
+        <v>0.28327</v>
       </c>
       <c r="C122" t="n">
-        <v>0.264754</v>
+        <v>0.263737</v>
       </c>
       <c r="D122" t="n">
-        <v>0.290322</v>
+        <v>0.278261</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.287943</v>
+        <v>0.287341</v>
       </c>
       <c r="C123" t="n">
-        <v>0.272116</v>
+        <v>0.271472</v>
       </c>
       <c r="D123" t="n">
-        <v>0.305192</v>
+        <v>0.292468</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.353029</v>
+        <v>0.352532</v>
       </c>
       <c r="C124" t="n">
-        <v>0.249272</v>
+        <v>0.248691</v>
       </c>
       <c r="D124" t="n">
-        <v>0.265939</v>
+        <v>0.253151</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.351042</v>
+        <v>0.352434</v>
       </c>
       <c r="C125" t="n">
-        <v>0.251611</v>
+        <v>0.250661</v>
       </c>
       <c r="D125" t="n">
-        <v>0.267356</v>
+        <v>0.253936</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.351383</v>
+        <v>0.354043</v>
       </c>
       <c r="C126" t="n">
-        <v>0.252856</v>
+        <v>0.252058</v>
       </c>
       <c r="D126" t="n">
-        <v>0.27032</v>
+        <v>0.257044</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.351289</v>
+        <v>0.352712</v>
       </c>
       <c r="C127" t="n">
-        <v>0.2562</v>
+        <v>0.255236</v>
       </c>
       <c r="D127" t="n">
-        <v>0.273584</v>
+        <v>0.260454</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.351958</v>
+        <v>0.353906</v>
       </c>
       <c r="C128" t="n">
-        <v>0.259675</v>
+        <v>0.258533</v>
       </c>
       <c r="D128" t="n">
-        <v>0.277234</v>
+        <v>0.263858</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.352306</v>
+        <v>0.351912</v>
       </c>
       <c r="C129" t="n">
-        <v>0.26298</v>
+        <v>0.261873</v>
       </c>
       <c r="D129" t="n">
-        <v>0.280404</v>
+        <v>0.267501</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.352697</v>
+        <v>0.352084</v>
       </c>
       <c r="C130" t="n">
-        <v>0.266463</v>
+        <v>0.26555</v>
       </c>
       <c r="D130" t="n">
-        <v>0.284269</v>
+        <v>0.271385</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.353047</v>
+        <v>0.353196</v>
       </c>
       <c r="C131" t="n">
-        <v>0.270523</v>
+        <v>0.268858</v>
       </c>
       <c r="D131" t="n">
-        <v>0.288893</v>
+        <v>0.275525</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.353332</v>
+        <v>0.354617</v>
       </c>
       <c r="C132" t="n">
-        <v>0.274102</v>
+        <v>0.273212</v>
       </c>
       <c r="D132" t="n">
-        <v>0.293283</v>
+        <v>0.280306</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.353462</v>
+        <v>0.354313</v>
       </c>
       <c r="C133" t="n">
-        <v>0.278416</v>
+        <v>0.276567</v>
       </c>
       <c r="D133" t="n">
-        <v>0.298243</v>
+        <v>0.285267</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.354966</v>
+        <v>0.355422</v>
       </c>
       <c r="C134" t="n">
-        <v>0.28245</v>
+        <v>0.280931</v>
       </c>
       <c r="D134" t="n">
-        <v>0.30425</v>
+        <v>0.291381</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.356467</v>
+        <v>0.356355</v>
       </c>
       <c r="C135" t="n">
-        <v>0.287646</v>
+        <v>0.286226</v>
       </c>
       <c r="D135" t="n">
-        <v>0.312013</v>
+        <v>0.299503</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.357543</v>
+        <v>0.358836</v>
       </c>
       <c r="C136" t="n">
-        <v>0.294306</v>
+        <v>0.292851</v>
       </c>
       <c r="D136" t="n">
-        <v>0.322919</v>
+        <v>0.310349</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.360255</v>
+        <v>0.362279</v>
       </c>
       <c r="C137" t="n">
-        <v>0.303282</v>
+        <v>0.301961</v>
       </c>
       <c r="D137" t="n">
-        <v>0.33844</v>
+        <v>0.325606</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.412413</v>
+        <v>0.410616</v>
       </c>
       <c r="C138" t="n">
-        <v>0.268989</v>
+        <v>0.269819</v>
       </c>
       <c r="D138" t="n">
-        <v>0.284887</v>
+        <v>0.275088</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.411984</v>
+        <v>0.410379</v>
       </c>
       <c r="C139" t="n">
-        <v>0.271426</v>
+        <v>0.272578</v>
       </c>
       <c r="D139" t="n">
-        <v>0.287829</v>
+        <v>0.277699</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.411672</v>
+        <v>0.40908</v>
       </c>
       <c r="C140" t="n">
-        <v>0.27369</v>
+        <v>0.27474</v>
       </c>
       <c r="D140" t="n">
-        <v>0.289893</v>
+        <v>0.280133</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.412372</v>
+        <v>0.409302</v>
       </c>
       <c r="C141" t="n">
-        <v>0.27634</v>
+        <v>0.277164</v>
       </c>
       <c r="D141" t="n">
-        <v>0.292174</v>
+        <v>0.282335</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.412308</v>
+        <v>0.409069</v>
       </c>
       <c r="C142" t="n">
-        <v>0.279266</v>
+        <v>0.280196</v>
       </c>
       <c r="D142" t="n">
-        <v>0.295182</v>
+        <v>0.285764</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.412303</v>
+        <v>0.409846</v>
       </c>
       <c r="C143" t="n">
-        <v>0.282239</v>
+        <v>0.283067</v>
       </c>
       <c r="D143" t="n">
-        <v>0.298585</v>
+        <v>0.288874</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0409427</v>
+        <v>0.0411171</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0366641</v>
+        <v>0.0363974</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0382482</v>
+        <v>0.042455</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.041156</v>
+        <v>0.0412612</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0368273</v>
+        <v>0.0369723</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0386229</v>
+        <v>0.0427048</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0413087</v>
+        <v>0.0413948</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0372426</v>
+        <v>0.036729</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0388288</v>
+        <v>0.0428649</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0414639</v>
+        <v>0.0414935</v>
       </c>
       <c r="C5" t="n">
-        <v>0.037743</v>
+        <v>0.0369479</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0390534</v>
+        <v>0.043331</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0415485</v>
+        <v>0.0417085</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0378622</v>
+        <v>0.0372394</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0394532</v>
+        <v>0.0437434</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.041626</v>
+        <v>0.0418885</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0382995</v>
+        <v>0.0377626</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0401772</v>
+        <v>0.0444712</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0418968</v>
+        <v>0.0419466</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0391797</v>
+        <v>0.0385303</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0414829</v>
+        <v>0.045745</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0422049</v>
+        <v>0.0422755</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0402234</v>
+        <v>0.0397695</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0463587</v>
+        <v>0.0432401</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0437707</v>
+        <v>0.0442482</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0382634</v>
+        <v>0.0377496</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0397986</v>
+        <v>0.0438059</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0438053</v>
+        <v>0.0444171</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0386528</v>
+        <v>0.0380349</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0398166</v>
+        <v>0.0441587</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0440446</v>
+        <v>0.0445042</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0389764</v>
+        <v>0.0383149</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0402752</v>
+        <v>0.0444968</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0440607</v>
+        <v>0.0446936</v>
       </c>
       <c r="C13" t="n">
-        <v>0.039175</v>
+        <v>0.0385218</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0407072</v>
+        <v>0.0448655</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0441981</v>
+        <v>0.0448013</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0394943</v>
+        <v>0.0386112</v>
       </c>
       <c r="D14" t="n">
-        <v>0.040874</v>
+        <v>0.0452598</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0443845</v>
+        <v>0.0449658</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0397136</v>
+        <v>0.0387269</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0412612</v>
+        <v>0.0456192</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0444949</v>
+        <v>0.0451611</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0399136</v>
+        <v>0.0388193</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0414348</v>
+        <v>0.0459013</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0446025</v>
+        <v>0.045234</v>
       </c>
       <c r="C17" t="n">
-        <v>0.040232</v>
+        <v>0.039113</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0416363</v>
+        <v>0.046074</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0448195</v>
+        <v>0.0453901</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0406278</v>
+        <v>0.0392365</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0419224</v>
+        <v>0.0462553</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0449706</v>
+        <v>0.0453251</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0409206</v>
+        <v>0.039667</v>
       </c>
       <c r="D19" t="n">
-        <v>0.042172</v>
+        <v>0.0465824</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.045143</v>
+        <v>0.0456005</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0411453</v>
+        <v>0.0413956</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0425473</v>
+        <v>0.0472751</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.045242</v>
+        <v>0.0457876</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0418796</v>
+        <v>0.0406009</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0442611</v>
+        <v>0.048167</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0455239</v>
+        <v>0.0460088</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0434171</v>
+        <v>0.0430931</v>
       </c>
       <c r="D22" t="n">
-        <v>0.049891</v>
+        <v>0.051448</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0460496</v>
+        <v>0.0467278</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0478139</v>
+        <v>0.0477278</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0651067</v>
+        <v>0.0481456</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0488536</v>
+        <v>0.0494037</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0427427</v>
+        <v>0.0421204</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0444099</v>
+        <v>0.0489904</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0488451</v>
+        <v>0.0494415</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0430891</v>
+        <v>0.0424463</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0447048</v>
+        <v>0.04927</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0489217</v>
+        <v>0.0501188</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0434752</v>
+        <v>0.0427319</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0449313</v>
+        <v>0.0497033</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0489451</v>
+        <v>0.0501653</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0433872</v>
+        <v>0.0428852</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0452582</v>
+        <v>0.0498979</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.049048</v>
+        <v>0.0501783</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0439928</v>
+        <v>0.0432837</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0455492</v>
+        <v>0.0501181</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0492128</v>
+        <v>0.0498449</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0443419</v>
+        <v>0.043538</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0457261</v>
+        <v>0.0504362</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0493185</v>
+        <v>0.0504974</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0446195</v>
+        <v>0.0437589</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0460293</v>
+        <v>0.0501343</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0494901</v>
+        <v>0.0506753</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0448067</v>
+        <v>0.0439323</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0462695</v>
+        <v>0.0512487</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0496219</v>
+        <v>0.0505028</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0451015</v>
+        <v>0.0441961</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0468466</v>
+        <v>0.051563</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0497825</v>
+        <v>0.0508289</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0453122</v>
+        <v>0.0447177</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0478556</v>
+        <v>0.0519207</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0499112</v>
+        <v>0.0505888</v>
       </c>
       <c r="C34" t="n">
-        <v>0.046541</v>
+        <v>0.0456539</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0504221</v>
+        <v>0.0534595</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0502162</v>
+        <v>0.0512569</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0481136</v>
+        <v>0.0480535</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0562387</v>
+        <v>0.0571438</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0503526</v>
+        <v>0.0516796</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0532016</v>
+        <v>0.0529857</v>
       </c>
       <c r="D36" t="n">
-        <v>0.06342</v>
+        <v>0.063954</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0519666</v>
+        <v>0.0536875</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0603427</v>
+        <v>0.0599312</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0729071</v>
+        <v>0.0531209</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0556344</v>
+        <v>0.0563381</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0477066</v>
+        <v>0.0468434</v>
       </c>
       <c r="D38" t="n">
-        <v>0.049649</v>
+        <v>0.053791</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0545854</v>
+        <v>0.0553293</v>
       </c>
       <c r="C39" t="n">
-        <v>0.047961</v>
+        <v>0.0471666</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0498761</v>
+        <v>0.0541107</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0546568</v>
+        <v>0.0555289</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0482523</v>
+        <v>0.0472848</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0500221</v>
+        <v>0.0545231</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0547216</v>
+        <v>0.0555011</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0485932</v>
+        <v>0.0478205</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0505201</v>
+        <v>0.0549108</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0548416</v>
+        <v>0.0560997</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0489403</v>
+        <v>0.0480565</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0509016</v>
+        <v>0.0552428</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0549407</v>
+        <v>0.0560537</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0493807</v>
+        <v>0.0485306</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0511099</v>
+        <v>0.0557656</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0550906</v>
+        <v>0.056283</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0497318</v>
+        <v>0.0490894</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0517505</v>
+        <v>0.0561559</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0552291</v>
+        <v>0.0560262</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0502549</v>
+        <v>0.0496802</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0524667</v>
+        <v>0.0567576</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0553769</v>
+        <v>0.056186</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0508855</v>
+        <v>0.0502914</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0540981</v>
+        <v>0.0572884</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.05554</v>
+        <v>0.056316</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0522088</v>
+        <v>0.0516978</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0567593</v>
+        <v>0.0588209</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0557819</v>
+        <v>0.0566217</v>
       </c>
       <c r="C48" t="n">
-        <v>0.054535</v>
+        <v>0.0541459</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0599184</v>
+        <v>0.0618551</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0561084</v>
+        <v>0.0570759</v>
       </c>
       <c r="C49" t="n">
-        <v>0.05717</v>
+        <v>0.0569083</v>
       </c>
       <c r="D49" t="n">
-        <v>0.06397890000000001</v>
+        <v>0.0656487</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0573591</v>
+        <v>0.0583021</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0606212</v>
+        <v>0.0603912</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0689052</v>
+        <v>0.0705852</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0616357</v>
+        <v>0.0621272</v>
       </c>
       <c r="C51" t="n">
-        <v>0.06529799999999999</v>
+        <v>0.0651254</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0766199</v>
+        <v>0.0588164</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0668641</v>
+        <v>0.0674883</v>
       </c>
       <c r="C52" t="n">
-        <v>0.072396</v>
+        <v>0.0723482</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0876335</v>
+        <v>0.0592159</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0612363</v>
+        <v>0.0613371</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0485179</v>
+        <v>0.047649</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0507176</v>
+        <v>0.0596106</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0606099</v>
+        <v>0.061283</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0486227</v>
+        <v>0.0482699</v>
       </c>
       <c r="D54" t="n">
-        <v>0.050961</v>
+        <v>0.0600404</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0607246</v>
+        <v>0.0611739</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0492918</v>
+        <v>0.0487386</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0518556</v>
+        <v>0.0604624</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0607863</v>
+        <v>0.0613664</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0497856</v>
+        <v>0.0494577</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0524565</v>
+        <v>0.0607076</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0609059</v>
+        <v>0.061553</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0507277</v>
+        <v>0.0501519</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0532397</v>
+        <v>0.0613815</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0610665</v>
+        <v>0.0616336</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0514077</v>
+        <v>0.0507677</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0530741</v>
+        <v>0.0619145</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0612373</v>
+        <v>0.0618247</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0520362</v>
+        <v>0.0515819</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0548035</v>
+        <v>0.0625696</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0614125</v>
+        <v>0.0622182</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0535663</v>
+        <v>0.053146</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0569245</v>
+        <v>0.0638895</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0616569</v>
+        <v>0.0622336</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0548091</v>
+        <v>0.0545588</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0589893</v>
+        <v>0.0657962</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0621051</v>
+        <v>0.0626007</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0566469</v>
+        <v>0.0563337</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0611814</v>
+        <v>0.0683023</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.063093</v>
+        <v>0.0636757</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0585376</v>
+        <v>0.0586319</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0648165</v>
+        <v>0.0714267</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.06520960000000001</v>
+        <v>0.065874</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0619018</v>
+        <v>0.0615859</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0691209</v>
+        <v>0.07600460000000001</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0679765</v>
+        <v>0.0684009</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0659131</v>
+        <v>0.0656045</v>
       </c>
       <c r="D65" t="n">
-        <v>0.076545</v>
+        <v>0.0826741</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07210510000000001</v>
+        <v>0.0728195</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0720493</v>
+        <v>0.07183929999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0868029</v>
+        <v>0.0631695</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.069836</v>
+        <v>0.0768544</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0536851</v>
+        <v>0.058745</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0556754</v>
+        <v>0.0636577</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0701437</v>
+        <v>0.07695109999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0543543</v>
+        <v>0.0591872</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0564413</v>
+        <v>0.0642494</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0702907</v>
+        <v>0.0773216</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0548685</v>
+        <v>0.0597177</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0570091</v>
+        <v>0.064801</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.07052170000000001</v>
+        <v>0.0780323</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0554896</v>
+        <v>0.0604851</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0576554</v>
+        <v>0.0653256</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0707411</v>
+        <v>0.07846690000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.056264</v>
+        <v>0.0614407</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0586049</v>
+        <v>0.0657727</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07107040000000001</v>
+        <v>0.07910739999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0570163</v>
+        <v>0.0621644</v>
       </c>
       <c r="D72" t="n">
-        <v>0.059569</v>
+        <v>0.0667996</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0715663</v>
+        <v>0.0792504</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0580868</v>
+        <v>0.06305189999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0608655</v>
+        <v>0.06801649999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0716526</v>
+        <v>0.07933220000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0591546</v>
+        <v>0.06414069999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0621793</v>
+        <v>0.0694443</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0720425</v>
+        <v>0.0807711</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0604308</v>
+        <v>0.06587750000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.06390990000000001</v>
+        <v>0.0711589</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.07331459999999999</v>
+        <v>0.08182250000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0620464</v>
+        <v>0.0674395</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0661795</v>
+        <v>0.0733201</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0741841</v>
+        <v>0.08260140000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0639902</v>
+        <v>0.06936630000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0691972</v>
+        <v>0.0760781</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0755</v>
+        <v>0.08443059999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0665989</v>
+        <v>0.07221610000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.073324</v>
+        <v>0.0801466</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0781264</v>
+        <v>0.0862491</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0704085</v>
+        <v>0.0758805</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0796143</v>
+        <v>0.0862965</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0818319</v>
+        <v>0.0905083</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0759037</v>
+        <v>0.0815068</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0891607</v>
+        <v>0.115075</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.173995</v>
+        <v>0.181524</v>
       </c>
       <c r="C81" t="n">
-        <v>0.141477</v>
+        <v>0.152677</v>
       </c>
       <c r="D81" t="n">
-        <v>0.143631</v>
+        <v>0.117791</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.17424</v>
+        <v>0.189637</v>
       </c>
       <c r="C82" t="n">
-        <v>0.141498</v>
+        <v>0.151696</v>
       </c>
       <c r="D82" t="n">
-        <v>0.143506</v>
+        <v>0.121399</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.177352</v>
+        <v>0.191919</v>
       </c>
       <c r="C83" t="n">
-        <v>0.140023</v>
+        <v>0.153656</v>
       </c>
       <c r="D83" t="n">
-        <v>0.142125</v>
+        <v>0.120748</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1769</v>
+        <v>0.193657</v>
       </c>
       <c r="C84" t="n">
-        <v>0.141968</v>
+        <v>0.151492</v>
       </c>
       <c r="D84" t="n">
-        <v>0.144201</v>
+        <v>0.121711</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.177373</v>
+        <v>0.192313</v>
       </c>
       <c r="C85" t="n">
-        <v>0.142298</v>
+        <v>0.154409</v>
       </c>
       <c r="D85" t="n">
-        <v>0.144701</v>
+        <v>0.124982</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.177751</v>
+        <v>0.194378</v>
       </c>
       <c r="C86" t="n">
-        <v>0.143479</v>
+        <v>0.153241</v>
       </c>
       <c r="D86" t="n">
-        <v>0.14598</v>
+        <v>0.129157</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.177769</v>
+        <v>0.193303</v>
       </c>
       <c r="C87" t="n">
-        <v>0.142954</v>
+        <v>0.154644</v>
       </c>
       <c r="D87" t="n">
-        <v>0.145757</v>
+        <v>0.132244</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.180274</v>
+        <v>0.194515</v>
       </c>
       <c r="C88" t="n">
-        <v>0.143991</v>
+        <v>0.154546</v>
       </c>
       <c r="D88" t="n">
-        <v>0.147106</v>
+        <v>0.132983</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.179178</v>
+        <v>0.195259</v>
       </c>
       <c r="C89" t="n">
-        <v>0.144397</v>
+        <v>0.156288</v>
       </c>
       <c r="D89" t="n">
-        <v>0.14785</v>
+        <v>0.134674</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.180705</v>
+        <v>0.19515</v>
       </c>
       <c r="C90" t="n">
-        <v>0.146481</v>
+        <v>0.15723</v>
       </c>
       <c r="D90" t="n">
-        <v>0.150608</v>
+        <v>0.138015</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.180935</v>
+        <v>0.195761</v>
       </c>
       <c r="C91" t="n">
-        <v>0.148135</v>
+        <v>0.159526</v>
       </c>
       <c r="D91" t="n">
-        <v>0.153159</v>
+        <v>0.141395</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.183039</v>
+        <v>0.197097</v>
       </c>
       <c r="C92" t="n">
-        <v>0.149401</v>
+        <v>0.160737</v>
       </c>
       <c r="D92" t="n">
-        <v>0.155644</v>
+        <v>0.144092</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.183273</v>
+        <v>0.198773</v>
       </c>
       <c r="C93" t="n">
-        <v>0.153716</v>
+        <v>0.164547</v>
       </c>
       <c r="D93" t="n">
-        <v>0.162043</v>
+        <v>0.152125</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.186497</v>
+        <v>0.200986</v>
       </c>
       <c r="C94" t="n">
-        <v>0.157082</v>
+        <v>0.168994</v>
       </c>
       <c r="D94" t="n">
-        <v>0.169373</v>
+        <v>0.230931</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.242445</v>
+        <v>0.261478</v>
       </c>
       <c r="C95" t="n">
-        <v>0.202632</v>
+        <v>0.223997</v>
       </c>
       <c r="D95" t="n">
-        <v>0.205711</v>
+        <v>0.232636</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.242158</v>
+        <v>0.262873</v>
       </c>
       <c r="C96" t="n">
-        <v>0.200649</v>
+        <v>0.218031</v>
       </c>
       <c r="D96" t="n">
-        <v>0.207323</v>
+        <v>0.234266</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.241865</v>
+        <v>0.262035</v>
       </c>
       <c r="C97" t="n">
-        <v>0.204717</v>
+        <v>0.225675</v>
       </c>
       <c r="D97" t="n">
-        <v>0.207997</v>
+        <v>0.230271</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.241834</v>
+        <v>0.263203</v>
       </c>
       <c r="C98" t="n">
-        <v>0.202876</v>
+        <v>0.226806</v>
       </c>
       <c r="D98" t="n">
-        <v>0.21005</v>
+        <v>0.232353</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.241943</v>
+        <v>0.262368</v>
       </c>
       <c r="C99" t="n">
-        <v>0.20715</v>
+        <v>0.222511</v>
       </c>
       <c r="D99" t="n">
-        <v>0.211038</v>
+        <v>0.240583</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.242336</v>
+        <v>0.263189</v>
       </c>
       <c r="C100" t="n">
-        <v>0.209429</v>
+        <v>0.229255</v>
       </c>
       <c r="D100" t="n">
-        <v>0.210131</v>
+        <v>0.237291</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.242762</v>
+        <v>0.262461</v>
       </c>
       <c r="C101" t="n">
-        <v>0.210845</v>
+        <v>0.225273</v>
       </c>
       <c r="D101" t="n">
-        <v>0.211776</v>
+        <v>0.244445</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.242604</v>
+        <v>0.26273</v>
       </c>
       <c r="C102" t="n">
-        <v>0.212021</v>
+        <v>0.231572</v>
       </c>
       <c r="D102" t="n">
-        <v>0.213781</v>
+        <v>0.241592</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.242499</v>
+        <v>0.26278</v>
       </c>
       <c r="C103" t="n">
-        <v>0.213759</v>
+        <v>0.233136</v>
       </c>
       <c r="D103" t="n">
-        <v>0.215876</v>
+        <v>0.248798</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.242689</v>
+        <v>0.262897</v>
       </c>
       <c r="C104" t="n">
-        <v>0.215685</v>
+        <v>0.234947</v>
       </c>
       <c r="D104" t="n">
-        <v>0.221228</v>
+        <v>0.251968</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.243679</v>
+        <v>0.264358</v>
       </c>
       <c r="C105" t="n">
-        <v>0.217861</v>
+        <v>0.237229</v>
       </c>
       <c r="D105" t="n">
-        <v>0.224048</v>
+        <v>0.250153</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.244693</v>
+        <v>0.265934</v>
       </c>
       <c r="C106" t="n">
-        <v>0.220927</v>
+        <v>0.235921</v>
       </c>
       <c r="D106" t="n">
-        <v>0.228523</v>
+        <v>0.254468</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.24623</v>
+        <v>0.266381</v>
       </c>
       <c r="C107" t="n">
-        <v>0.224401</v>
+        <v>0.243556</v>
       </c>
       <c r="D107" t="n">
-        <v>0.234379</v>
+        <v>0.263396</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.249001</v>
+        <v>0.26968</v>
       </c>
       <c r="C108" t="n">
-        <v>0.225973</v>
+        <v>0.245283</v>
       </c>
       <c r="D108" t="n">
-        <v>0.242882</v>
+        <v>0.291684</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.253943</v>
+        <v>0.273844</v>
       </c>
       <c r="C109" t="n">
-        <v>0.235957</v>
+        <v>0.256197</v>
       </c>
       <c r="D109" t="n">
-        <v>0.256747</v>
+        <v>0.291187</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.275757</v>
+        <v>0.292238</v>
       </c>
       <c r="C110" t="n">
-        <v>0.229028</v>
+        <v>0.260505</v>
       </c>
       <c r="D110" t="n">
-        <v>0.233372</v>
+        <v>0.296578</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.274367</v>
+        <v>0.297691</v>
       </c>
       <c r="C111" t="n">
-        <v>0.230719</v>
+        <v>0.262984</v>
       </c>
       <c r="D111" t="n">
-        <v>0.234946</v>
+        <v>0.299135</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.275865</v>
+        <v>0.300122</v>
       </c>
       <c r="C112" t="n">
-        <v>0.231657</v>
+        <v>0.263003</v>
       </c>
       <c r="D112" t="n">
-        <v>0.236288</v>
+        <v>0.302154</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.276487</v>
+        <v>0.296355</v>
       </c>
       <c r="C113" t="n">
-        <v>0.233719</v>
+        <v>0.265547</v>
       </c>
       <c r="D113" t="n">
-        <v>0.238135</v>
+        <v>0.302753</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.275477</v>
+        <v>0.299136</v>
       </c>
       <c r="C114" t="n">
-        <v>0.23353</v>
+        <v>0.270967</v>
       </c>
       <c r="D114" t="n">
-        <v>0.238467</v>
+        <v>0.307851</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.275914</v>
+        <v>0.297184</v>
       </c>
       <c r="C115" t="n">
-        <v>0.23852</v>
+        <v>0.273055</v>
       </c>
       <c r="D115" t="n">
-        <v>0.243527</v>
+        <v>0.310624</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.275881</v>
+        <v>0.301444</v>
       </c>
       <c r="C116" t="n">
-        <v>0.239433</v>
+        <v>0.273398</v>
       </c>
       <c r="D116" t="n">
-        <v>0.245158</v>
+        <v>0.313553</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.276604</v>
+        <v>0.295251</v>
       </c>
       <c r="C117" t="n">
-        <v>0.244278</v>
+        <v>0.278784</v>
       </c>
       <c r="D117" t="n">
-        <v>0.250281</v>
+        <v>0.317304</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.277014</v>
+        <v>0.29922</v>
       </c>
       <c r="C118" t="n">
-        <v>0.245679</v>
+        <v>0.282037</v>
       </c>
       <c r="D118" t="n">
-        <v>0.253726</v>
+        <v>0.319278</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.27723</v>
+        <v>0.29371</v>
       </c>
       <c r="C119" t="n">
-        <v>0.250201</v>
+        <v>0.283462</v>
       </c>
       <c r="D119" t="n">
-        <v>0.258104</v>
+        <v>0.325825</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.277797</v>
+        <v>0.299565</v>
       </c>
       <c r="C120" t="n">
-        <v>0.253322</v>
+        <v>0.289652</v>
       </c>
       <c r="D120" t="n">
-        <v>0.26266</v>
+        <v>0.331249</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.280256</v>
+        <v>0.302815</v>
       </c>
       <c r="C121" t="n">
-        <v>0.258125</v>
+        <v>0.292063</v>
       </c>
       <c r="D121" t="n">
-        <v>0.270157</v>
+        <v>0.337377</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.28327</v>
+        <v>0.305032</v>
       </c>
       <c r="C122" t="n">
-        <v>0.263737</v>
+        <v>0.300513</v>
       </c>
       <c r="D122" t="n">
-        <v>0.278261</v>
+        <v>0.346216</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.287341</v>
+        <v>0.311838</v>
       </c>
       <c r="C123" t="n">
-        <v>0.271472</v>
+        <v>0.309197</v>
       </c>
       <c r="D123" t="n">
-        <v>0.292468</v>
+        <v>0.333834</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.352532</v>
+        <v>0.385188</v>
       </c>
       <c r="C124" t="n">
-        <v>0.248691</v>
+        <v>0.286488</v>
       </c>
       <c r="D124" t="n">
-        <v>0.253151</v>
+        <v>0.336435</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.352434</v>
+        <v>0.38519</v>
       </c>
       <c r="C125" t="n">
-        <v>0.250661</v>
+        <v>0.289941</v>
       </c>
       <c r="D125" t="n">
-        <v>0.253936</v>
+        <v>0.33968</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.354043</v>
+        <v>0.384083</v>
       </c>
       <c r="C126" t="n">
-        <v>0.252058</v>
+        <v>0.293685</v>
       </c>
       <c r="D126" t="n">
-        <v>0.257044</v>
+        <v>0.343656</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.352712</v>
+        <v>0.385117</v>
       </c>
       <c r="C127" t="n">
-        <v>0.255236</v>
+        <v>0.297351</v>
       </c>
       <c r="D127" t="n">
-        <v>0.260454</v>
+        <v>0.346802</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.353906</v>
+        <v>0.384197</v>
       </c>
       <c r="C128" t="n">
-        <v>0.258533</v>
+        <v>0.300866</v>
       </c>
       <c r="D128" t="n">
-        <v>0.263858</v>
+        <v>0.350551</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.351912</v>
+        <v>0.386613</v>
       </c>
       <c r="C129" t="n">
-        <v>0.261873</v>
+        <v>0.303585</v>
       </c>
       <c r="D129" t="n">
-        <v>0.267501</v>
+        <v>0.354624</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.352084</v>
+        <v>0.384965</v>
       </c>
       <c r="C130" t="n">
-        <v>0.26555</v>
+        <v>0.307965</v>
       </c>
       <c r="D130" t="n">
-        <v>0.271385</v>
+        <v>0.358414</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.353196</v>
+        <v>0.383764</v>
       </c>
       <c r="C131" t="n">
-        <v>0.268858</v>
+        <v>0.311283</v>
       </c>
       <c r="D131" t="n">
-        <v>0.275525</v>
+        <v>0.362683</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.354617</v>
+        <v>0.383873</v>
       </c>
       <c r="C132" t="n">
-        <v>0.273212</v>
+        <v>0.315923</v>
       </c>
       <c r="D132" t="n">
-        <v>0.280306</v>
+        <v>0.367693</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.354313</v>
+        <v>0.385556</v>
       </c>
       <c r="C133" t="n">
-        <v>0.276567</v>
+        <v>0.320341</v>
       </c>
       <c r="D133" t="n">
-        <v>0.285267</v>
+        <v>0.373838</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.355422</v>
+        <v>0.386708</v>
       </c>
       <c r="C134" t="n">
-        <v>0.280931</v>
+        <v>0.325538</v>
       </c>
       <c r="D134" t="n">
-        <v>0.291381</v>
+        <v>0.380375</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.356355</v>
+        <v>0.387934</v>
       </c>
       <c r="C135" t="n">
-        <v>0.286226</v>
+        <v>0.331096</v>
       </c>
       <c r="D135" t="n">
-        <v>0.299503</v>
+        <v>0.388985</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.358836</v>
+        <v>0.390169</v>
       </c>
       <c r="C136" t="n">
-        <v>0.292851</v>
+        <v>0.339024</v>
       </c>
       <c r="D136" t="n">
-        <v>0.310349</v>
+        <v>0.400598</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.362279</v>
+        <v>0.39336</v>
       </c>
       <c r="C137" t="n">
-        <v>0.301961</v>
+        <v>0.349383</v>
       </c>
       <c r="D137" t="n">
-        <v>0.325606</v>
+        <v>0.354926</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.410616</v>
+        <v>0.443218</v>
       </c>
       <c r="C138" t="n">
-        <v>0.269819</v>
+        <v>0.305218</v>
       </c>
       <c r="D138" t="n">
-        <v>0.275088</v>
+        <v>0.358304</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.410379</v>
+        <v>0.448864</v>
       </c>
       <c r="C139" t="n">
-        <v>0.272578</v>
+        <v>0.309343</v>
       </c>
       <c r="D139" t="n">
-        <v>0.277699</v>
+        <v>0.362034</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.40908</v>
+        <v>0.449225</v>
       </c>
       <c r="C140" t="n">
-        <v>0.27474</v>
+        <v>0.313009</v>
       </c>
       <c r="D140" t="n">
-        <v>0.280133</v>
+        <v>0.365258</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.409302</v>
+        <v>0.443221</v>
       </c>
       <c r="C141" t="n">
-        <v>0.277164</v>
+        <v>0.316269</v>
       </c>
       <c r="D141" t="n">
-        <v>0.282335</v>
+        <v>0.368571</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.409069</v>
+        <v>0.442871</v>
       </c>
       <c r="C142" t="n">
-        <v>0.280196</v>
+        <v>0.320558</v>
       </c>
       <c r="D142" t="n">
-        <v>0.285764</v>
+        <v>0.373057</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.409846</v>
+        <v>0.448217</v>
       </c>
       <c r="C143" t="n">
-        <v>0.283067</v>
+        <v>0.323997</v>
       </c>
       <c r="D143" t="n">
-        <v>0.288874</v>
+        <v>0.376673</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0411171</v>
+        <v>0.046391</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0363974</v>
+        <v>0.0399351</v>
       </c>
       <c r="D2" t="n">
-        <v>0.042455</v>
+        <v>0.0436797</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0412612</v>
+        <v>0.046466</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0369723</v>
+        <v>0.0397674</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0427048</v>
+        <v>0.0439992</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0413948</v>
+        <v>0.0464348</v>
       </c>
       <c r="C4" t="n">
-        <v>0.036729</v>
+        <v>0.0402101</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0428649</v>
+        <v>0.0443495</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0414935</v>
+        <v>0.0465814</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0369479</v>
+        <v>0.0406122</v>
       </c>
       <c r="D5" t="n">
-        <v>0.043331</v>
+        <v>0.0447123</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0417085</v>
+        <v>0.0466601</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0372394</v>
+        <v>0.0408004</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0437434</v>
+        <v>0.0452483</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0418885</v>
+        <v>0.0468681</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0377626</v>
+        <v>0.0413377</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0444712</v>
+        <v>0.0463927</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0419466</v>
+        <v>0.047082</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0385303</v>
+        <v>0.0419532</v>
       </c>
       <c r="D8" t="n">
-        <v>0.045745</v>
+        <v>0.0476953</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0422755</v>
+        <v>0.0473798</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0397695</v>
+        <v>0.0429127</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0432401</v>
+        <v>0.0421148</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0442482</v>
+        <v>0.0471769</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0377496</v>
+        <v>0.0396173</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0438059</v>
+        <v>0.0426919</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0444171</v>
+        <v>0.0465963</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0380349</v>
+        <v>0.0397392</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0441587</v>
+        <v>0.042789</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0445042</v>
+        <v>0.0466639</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0383149</v>
+        <v>0.0403712</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0444968</v>
+        <v>0.0434075</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0446936</v>
+        <v>0.0467811</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0385218</v>
+        <v>0.0405717</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0448655</v>
+        <v>0.043724</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0448013</v>
+        <v>0.0469003</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0386112</v>
+        <v>0.0408158</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0452598</v>
+        <v>0.0441026</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0449658</v>
+        <v>0.0470357</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0387269</v>
+        <v>0.0410281</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0456192</v>
+        <v>0.0440788</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0451611</v>
+        <v>0.0471437</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0388193</v>
+        <v>0.0414197</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0459013</v>
+        <v>0.0447494</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.045234</v>
+        <v>0.0472341</v>
       </c>
       <c r="C17" t="n">
-        <v>0.039113</v>
+        <v>0.0414592</v>
       </c>
       <c r="D17" t="n">
-        <v>0.046074</v>
+        <v>0.0447905</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0453901</v>
+        <v>0.0479678</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0392365</v>
+        <v>0.041771</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0462553</v>
+        <v>0.0454533</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0453251</v>
+        <v>0.0475176</v>
       </c>
       <c r="C19" t="n">
-        <v>0.039667</v>
+        <v>0.0419143</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0465824</v>
+        <v>0.0457911</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0456005</v>
+        <v>0.0476637</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0413956</v>
+        <v>0.0425518</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0472751</v>
+        <v>0.0463712</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0457876</v>
+        <v>0.0478072</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0406009</v>
+        <v>0.0430208</v>
       </c>
       <c r="D21" t="n">
-        <v>0.048167</v>
+        <v>0.0469476</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0460088</v>
+        <v>0.0484751</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0430931</v>
+        <v>0.045055</v>
       </c>
       <c r="D22" t="n">
-        <v>0.051448</v>
+        <v>0.0508803</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0467278</v>
+        <v>0.0486403</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0477278</v>
+        <v>0.050014</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0481456</v>
+        <v>0.0453911</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0494037</v>
+        <v>0.0535448</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0421204</v>
+        <v>0.0432603</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0489904</v>
+        <v>0.0457258</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0494415</v>
+        <v>0.0521713</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0424463</v>
+        <v>0.0436599</v>
       </c>
       <c r="D25" t="n">
-        <v>0.04927</v>
+        <v>0.0460002</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0501188</v>
+        <v>0.0522429</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0427319</v>
+        <v>0.043897</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0497033</v>
+        <v>0.0465251</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0501653</v>
+        <v>0.0523221</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0428852</v>
+        <v>0.0438902</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0498979</v>
+        <v>0.0466381</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0501783</v>
+        <v>0.052388</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0432837</v>
+        <v>0.0444334</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0501181</v>
+        <v>0.0469995</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0498449</v>
+        <v>0.0525268</v>
       </c>
       <c r="C29" t="n">
-        <v>0.043538</v>
+        <v>0.0447848</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0504362</v>
+        <v>0.0472761</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0504974</v>
+        <v>0.052578</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0437589</v>
+        <v>0.0451513</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0501343</v>
+        <v>0.047634</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0506753</v>
+        <v>0.0527545</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0439323</v>
+        <v>0.0452417</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0512487</v>
+        <v>0.0479753</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0505028</v>
+        <v>0.0529147</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0441961</v>
+        <v>0.045513</v>
       </c>
       <c r="D32" t="n">
-        <v>0.051563</v>
+        <v>0.0483911</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0508289</v>
+        <v>0.0530827</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0447177</v>
+        <v>0.0459653</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0519207</v>
+        <v>0.0489133</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0505888</v>
+        <v>0.0532546</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0456539</v>
+        <v>0.0468634</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0534595</v>
+        <v>0.0499596</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0512569</v>
+        <v>0.0535069</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0480535</v>
+        <v>0.0487745</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0571438</v>
+        <v>0.0533338</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0516796</v>
+        <v>0.0539343</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0529857</v>
+        <v>0.0536354</v>
       </c>
       <c r="D36" t="n">
-        <v>0.063954</v>
+        <v>0.0605928</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0536875</v>
+        <v>0.0556626</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0599312</v>
+        <v>0.0607571</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0531209</v>
+        <v>0.04952</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0563381</v>
+        <v>0.0597613</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0468434</v>
+        <v>0.047922</v>
       </c>
       <c r="D38" t="n">
-        <v>0.053791</v>
+        <v>0.0502093</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0553293</v>
+        <v>0.0593102</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0471666</v>
+        <v>0.0481344</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0541107</v>
+        <v>0.0503736</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0555289</v>
+        <v>0.0594372</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0472848</v>
+        <v>0.0484003</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0545231</v>
+        <v>0.0498151</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0555011</v>
+        <v>0.059513</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0478205</v>
+        <v>0.0488699</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0549108</v>
+        <v>0.0513538</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0560997</v>
+        <v>0.0596419</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0480565</v>
+        <v>0.0492125</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0552428</v>
+        <v>0.0518184</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0560537</v>
+        <v>0.0597506</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0485306</v>
+        <v>0.0495011</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0557656</v>
+        <v>0.0520655</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.056283</v>
+        <v>0.0599106</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0490894</v>
+        <v>0.0500441</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0561559</v>
+        <v>0.0525703</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0560262</v>
+        <v>0.0600425</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0496802</v>
+        <v>0.0504979</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0567576</v>
+        <v>0.0531669</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.056186</v>
+        <v>0.0601938</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0502914</v>
+        <v>0.051149</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0572884</v>
+        <v>0.0535135</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.056316</v>
+        <v>0.0603999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0516978</v>
+        <v>0.052449</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0588209</v>
+        <v>0.0549347</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0566217</v>
+        <v>0.0606661</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0541459</v>
+        <v>0.0547821</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0618551</v>
+        <v>0.058048</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0570759</v>
+        <v>0.0610682</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0569083</v>
+        <v>0.0574698</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0656487</v>
+        <v>0.0616991</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0583021</v>
+        <v>0.0623281</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0603912</v>
+        <v>0.0606738</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0705852</v>
+        <v>0.06594650000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0621272</v>
+        <v>0.06610530000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0651254</v>
+        <v>0.0652882</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0588164</v>
+        <v>0.0552005</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0674883</v>
+        <v>0.0714287</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0723482</v>
+        <v>0.0724679</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0592159</v>
+        <v>0.0542324</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0613371</v>
+        <v>0.0614589</v>
       </c>
       <c r="C53" t="n">
-        <v>0.047649</v>
+        <v>0.0496543</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0596106</v>
+        <v>0.0543218</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.061283</v>
+        <v>0.0608641</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0482699</v>
+        <v>0.0501193</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0600404</v>
+        <v>0.0551483</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0611739</v>
+        <v>0.061096</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0487386</v>
+        <v>0.0506612</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0604624</v>
+        <v>0.056158</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0613664</v>
+        <v>0.0610849</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0494577</v>
+        <v>0.0512365</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0607076</v>
+        <v>0.056662</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.061553</v>
+        <v>0.0612175</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0501519</v>
+        <v>0.0516646</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0613815</v>
+        <v>0.0566251</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0616336</v>
+        <v>0.0613594</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0507677</v>
+        <v>0.0524894</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0619145</v>
+        <v>0.0567861</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0618247</v>
+        <v>0.0615327</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0515819</v>
+        <v>0.0527778</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0625696</v>
+        <v>0.0588583</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0622182</v>
+        <v>0.0616838</v>
       </c>
       <c r="C60" t="n">
-        <v>0.053146</v>
+        <v>0.0546759</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0638895</v>
+        <v>0.0598878</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0622336</v>
+        <v>0.0619828</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0545588</v>
+        <v>0.0559262</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0657962</v>
+        <v>0.0607646</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0626007</v>
+        <v>0.0623134</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0563337</v>
+        <v>0.0578505</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0683023</v>
+        <v>0.0641347</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0636757</v>
+        <v>0.0634547</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0586319</v>
+        <v>0.0605239</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0714267</v>
+        <v>0.0659893</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.065874</v>
+        <v>0.0658248</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0615859</v>
+        <v>0.0634967</v>
       </c>
       <c r="D64" t="n">
-        <v>0.07600460000000001</v>
+        <v>0.0716541</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0684009</v>
+        <v>0.0686422</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0656045</v>
+        <v>0.0675143</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0826741</v>
+        <v>0.07813150000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0728195</v>
+        <v>0.072565</v>
       </c>
       <c r="C66" t="n">
-        <v>0.07183929999999999</v>
+        <v>0.07403849999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0631695</v>
+        <v>0.0575168</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0768544</v>
+        <v>0.0817285</v>
       </c>
       <c r="C67" t="n">
-        <v>0.058745</v>
+        <v>0.0612117</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0636577</v>
+        <v>0.0579086</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.07695109999999999</v>
+        <v>0.081577</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0591872</v>
+        <v>0.0615955</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0642494</v>
+        <v>0.0584537</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0773216</v>
+        <v>0.0827025</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0597177</v>
+        <v>0.0624021</v>
       </c>
       <c r="D69" t="n">
-        <v>0.064801</v>
+        <v>0.0591552</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0780323</v>
+        <v>0.0830692</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0604851</v>
+        <v>0.0628792</v>
       </c>
       <c r="D70" t="n">
-        <v>0